--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -75,7 +75,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>46799</t>
+    <t>47865</t>
   </si>
 </sst>
 </file>
@@ -1925,36 +1925,65 @@
         <v>27001.0</v>
       </c>
       <c r="I62" t="n">
-        <v>1487.0</v>
+        <v>1799.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="2">
         <v>43986.0</v>
       </c>
-      <c r="B63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H63" t="e">
-        <v>#N/A</v>
+      <c r="B63" t="n">
+        <v>1061576.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>113372.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1174948.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0603</v>
+      </c>
+      <c r="F63" t="n">
+        <v>24043.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2379.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>26422.0</v>
       </c>
       <c r="I63" t="n">
         <v>1796.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="2">
+        <v>43987.0</v>
+      </c>
+      <c r="B64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1855.0</v>
       </c>
     </row>
   </sheetData>
@@ -2010,31 +2039,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>21354.0</v>
+        <v>21960.0</v>
       </c>
       <c r="C2" t="n">
-        <v>44631.0</v>
+        <v>45290.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1130317.0</v>
+        <v>1163897.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4500.0</v>
+        <v>4549.0</v>
       </c>
       <c r="F2" t="n">
-        <v>56002.0</v>
+        <v>57639.0</v>
       </c>
       <c r="G2" t="n">
-        <v>15219.0</v>
+        <v>14674.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1658.0</v>
+        <v>1625.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5772.0</v>
+        <v>5766.0</v>
       </c>
       <c r="J2" t="n">
-        <v>15127.0</v>
+        <v>15140.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -75,7 +75,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>47865</t>
+    <t>48895</t>
   </si>
 </sst>
 </file>
@@ -1961,29 +1961,58 @@
       <c r="A64" t="n" s="2">
         <v>43987.0</v>
       </c>
-      <c r="B64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H64" t="e">
-        <v>#N/A</v>
+      <c r="B64" t="n">
+        <v>1093277.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>115910.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1209187.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23537.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2425.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>25963.0</v>
       </c>
       <c r="I64" t="n">
         <v>1855.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="2">
+        <v>43988.0</v>
+      </c>
+      <c r="B65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1822.0</v>
       </c>
     </row>
   </sheetData>
@@ -2039,31 +2068,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>21960.0</v>
+        <v>22839.0</v>
       </c>
       <c r="C2" t="n">
-        <v>45290.0</v>
+        <v>45975.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1163897.0</v>
+        <v>1172980.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4549.0</v>
+        <v>4659.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57639.0</v>
+        <v>56801.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14674.0</v>
+        <v>15198.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1625.0</v>
+        <v>1583.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5766.0</v>
+        <v>5765.0</v>
       </c>
       <c r="J2" t="n">
-        <v>15140.0</v>
+        <v>15170.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -75,7 +75,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>48895</t>
+    <t>50439</t>
   </si>
 </sst>
 </file>
@@ -1990,26 +1990,26 @@
       <c r="A65" t="n" s="2">
         <v>43988.0</v>
       </c>
-      <c r="B65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H65" t="e">
-        <v>#N/A</v>
+      <c r="B65" t="n">
+        <v>1100446.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>118509.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1218955.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="F65" t="n">
+        <v>21226.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2226.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>23452.0</v>
       </c>
       <c r="I65" t="n">
         <v>1822.0</v>
@@ -2068,28 +2068,28 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>22839.0</v>
+        <v>23341.0</v>
       </c>
       <c r="C2" t="n">
-        <v>45975.0</v>
+        <v>51009.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1172980.0</v>
+        <v>1235130.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4659.0</v>
+        <v>5568.0</v>
       </c>
       <c r="F2" t="n">
-        <v>56801.0</v>
+        <v>52353.0</v>
       </c>
       <c r="G2" t="n">
-        <v>15198.0</v>
+        <v>15070.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1583.0</v>
+        <v>1619.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5765.0</v>
+        <v>5866.0</v>
       </c>
       <c r="J2" t="n">
         <v>15170.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -75,7 +75,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>50439</t>
+    <t>51140</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1603,7 @@
         <v>#N/A</v>
       </c>
       <c r="H51" t="n">
-        <v>27494.85714285714</v>
+        <v>27495.0</v>
       </c>
       <c r="I51" t="n">
         <v>1688.0</v>
@@ -2013,6 +2013,64 @@
       </c>
       <c r="I65" t="n">
         <v>1822.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="2">
+        <v>43989.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1120316.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>135583.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1255899.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.07113817080879661</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21469.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4589.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26058.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1878.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="2">
+        <v>43990.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1147355.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>138784.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1286139.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.06662901614214521</v>
+      </c>
+      <c r="F67" t="n">
+        <v>23019.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4476.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>27495.0</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -2068,28 +2126,28 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>23341.0</v>
+        <v>24260.0</v>
       </c>
       <c r="C2" t="n">
-        <v>51009.0</v>
+        <v>52387.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1235130.0</v>
+        <v>1249662.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5568.0</v>
+        <v>5710.0</v>
       </c>
       <c r="F2" t="n">
-        <v>52353.0</v>
+        <v>54738.0</v>
       </c>
       <c r="G2" t="n">
-        <v>15070.0</v>
+        <v>15402.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1619.0</v>
+        <v>1723.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5866.0</v>
+        <v>5911.0</v>
       </c>
       <c r="J2" t="n">
         <v>15170.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -75,7 +75,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>51140</t>
+    <t>52449</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2069,66 @@
       <c r="H67" t="n">
         <v>27495.0</v>
       </c>
-      <c r="I67" t="e">
-        <v>#N/A</v>
+      <c r="I67" t="n">
+        <v>1935.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="2">
+        <v>43991.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1161087.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>140962.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1302049.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.06923969180723048</v>
+      </c>
+      <c r="F68" t="n">
+        <v>22046.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4351.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>26396.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2056.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="2">
+        <v>43992.0</v>
+      </c>
+      <c r="B69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2153.0</v>
       </c>
     </row>
   </sheetData>
@@ -2126,31 +2184,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>24260.0</v>
+        <v>25423.0</v>
       </c>
       <c r="C2" t="n">
-        <v>52387.0</v>
+        <v>53551.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1249662.0</v>
+        <v>1295342.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5710.0</v>
+        <v>5812.0</v>
       </c>
       <c r="F2" t="n">
-        <v>54738.0</v>
+        <v>56055.0</v>
       </c>
       <c r="G2" t="n">
-        <v>15402.0</v>
+        <v>13645.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1723.0</v>
+        <v>1508.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5911.0</v>
+        <v>5934.0</v>
       </c>
       <c r="J2" t="n">
-        <v>15170.0</v>
+        <v>15513.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -75,7 +75,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>52449</t>
+    <t>54096</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1884,7 @@
         <v>1117274.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0662</v>
+        <v>0.06623691212093134</v>
       </c>
       <c r="F61" t="n">
         <v>21585.0</v>
@@ -1913,7 +1913,7 @@
         <v>1150868.0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0626</v>
+        <v>0.06259941815806504</v>
       </c>
       <c r="F62" t="n">
         <v>23620.0</v>
@@ -1942,7 +1942,7 @@
         <v>1174948.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0603</v>
+        <v>0.060272963321667726</v>
       </c>
       <c r="F63" t="n">
         <v>24043.0</v>
@@ -1971,7 +1971,7 @@
         <v>1209187.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0644</v>
+        <v>0.06437848992473902</v>
       </c>
       <c r="F64" t="n">
         <v>23537.0</v>
@@ -1991,22 +1991,22 @@
         <v>43988.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1100446.0</v>
+        <v>1092012.0</v>
       </c>
       <c r="C65" t="n">
-        <v>118509.0</v>
+        <v>126943.0</v>
       </c>
       <c r="D65" t="n">
         <v>1218955.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0755</v>
+        <v>0.0800231185826311</v>
       </c>
       <c r="F65" t="n">
-        <v>21226.0</v>
+        <v>20021.0</v>
       </c>
       <c r="G65" t="n">
-        <v>2226.0</v>
+        <v>3431.0</v>
       </c>
       <c r="H65" t="n">
         <v>23452.0</v>
@@ -2106,29 +2106,58 @@
       <c r="A69" t="n" s="2">
         <v>43992.0</v>
       </c>
-      <c r="B69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H69" t="e">
-        <v>#N/A</v>
+      <c r="B69" t="n">
+        <v>1206320.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>142573.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1348893.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.06846481685691294</v>
+      </c>
+      <c r="F69" t="n">
+        <v>23966.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4323.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>28289.0</v>
       </c>
       <c r="I69" t="n">
         <v>2153.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="2">
+        <v>43993.0</v>
+      </c>
+      <c r="B70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2008.0</v>
       </c>
     </row>
   </sheetData>
@@ -2184,31 +2213,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>25423.0</v>
+        <v>25567.0</v>
       </c>
       <c r="C2" t="n">
-        <v>53551.0</v>
+        <v>55622.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1295342.0</v>
+        <v>1314509.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5812.0</v>
+        <v>5906.0</v>
       </c>
       <c r="F2" t="n">
-        <v>56055.0</v>
+        <v>53995.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13645.0</v>
+        <v>13271.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1508.0</v>
+        <v>1419.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5934.0</v>
+        <v>5515.0</v>
       </c>
       <c r="J2" t="n">
-        <v>15513.0</v>
+        <v>15555.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="longitudinal" r:id="rId3" sheetId="1"/>
+    <sheet name="current" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -89,10 +90,40 @@
     <t>Population_DSHS</t>
   </si>
   <si>
-    <t>Cases_Cumulative_Mean_7Day</t>
+    <t>Recovered_Total</t>
   </si>
   <si>
-    <t>Cases_Daily_Mean_7Day</t>
+    <t>Active_Total</t>
+  </si>
+  <si>
+    <t>Tests_State_Lab</t>
+  </si>
+  <si>
+    <t>Tests_Commercial_Lab</t>
+  </si>
+  <si>
+    <t>Antibody_Tests_Positive</t>
+  </si>
+  <si>
+    <t>Hospital_Bed_Total</t>
+  </si>
+  <si>
+    <t>Hospital_Bed_Available</t>
+  </si>
+  <si>
+    <t>ICU_Bed_Available</t>
+  </si>
+  <si>
+    <t>Ventilator_Available</t>
+  </si>
+  <si>
+    <t>Case_Investigations</t>
+  </si>
+  <si>
+    <t>Death_Investigations</t>
+  </si>
+  <si>
+    <t>59089</t>
   </si>
 </sst>
 </file>
@@ -223,12 +254,6 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
@@ -306,12 +331,6 @@
       <c r="Y2" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA2" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="2">
@@ -389,12 +408,6 @@
       <c r="Y3" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="2">
@@ -472,12 +485,6 @@
       <c r="Y4" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="2">
@@ -555,12 +562,6 @@
       <c r="Y5" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="2">
@@ -638,12 +639,6 @@
       <c r="Y6" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA6" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="2">
@@ -721,12 +716,6 @@
       <c r="Y7" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="2">
@@ -804,12 +793,6 @@
       <c r="Y8" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="2">
@@ -887,12 +870,6 @@
       <c r="Y9" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA9" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
@@ -970,12 +947,6 @@
       <c r="Y10" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="2">
@@ -1053,12 +1024,6 @@
       <c r="Y11" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="2">
@@ -1136,12 +1101,6 @@
       <c r="Y12" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="2">
@@ -1219,12 +1178,6 @@
       <c r="Y13" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="2">
@@ -1302,12 +1255,6 @@
       <c r="Y14" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="2">
@@ -1385,12 +1332,6 @@
       <c r="Y15" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="2">
@@ -1468,12 +1409,6 @@
       <c r="Y16" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="2">
@@ -1551,12 +1486,6 @@
       <c r="Y17" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="2">
@@ -1634,12 +1563,6 @@
       <c r="Y18" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="2">
@@ -1717,12 +1640,6 @@
       <c r="Y19" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="2">
@@ -1800,12 +1717,6 @@
       <c r="Y20" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="2">
@@ -1883,12 +1794,6 @@
       <c r="Y21" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="2">
@@ -1966,12 +1871,6 @@
       <c r="Y22" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="2">
@@ -2049,12 +1948,6 @@
       <c r="Y23" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="2">
@@ -2132,12 +2025,6 @@
       <c r="Y24" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="2">
@@ -2215,12 +2102,6 @@
       <c r="Y25" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="2">
@@ -2298,12 +2179,6 @@
       <c r="Y26" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n" s="2">
@@ -2381,12 +2256,6 @@
       <c r="Y27" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA27" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="2">
@@ -2464,12 +2333,6 @@
       <c r="Y28" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA28" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="2">
@@ -2547,12 +2410,6 @@
       <c r="Y29" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="2">
@@ -2630,12 +2487,6 @@
       <c r="Y30" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="2">
@@ -2713,12 +2564,6 @@
       <c r="Y31" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA31" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="2">
@@ -2796,12 +2641,6 @@
       <c r="Y32" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA32" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="2">
@@ -2879,12 +2718,6 @@
       <c r="Y33" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="2">
@@ -2962,12 +2795,6 @@
       <c r="Y34" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z34" t="n">
-        <v>110.71428571428571</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>30.428571428571427</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="2">
@@ -3045,12 +2872,6 @@
       <c r="Y35" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z35" t="n">
-        <v>140.28571428571428</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>29.571428571428573</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="2">
@@ -3128,12 +2949,6 @@
       <c r="Y36" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z36" t="n">
-        <v>173.28571428571428</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>33.0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="2">
@@ -3211,12 +3026,6 @@
       <c r="Y37" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z37" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>92.71428571428571</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="2">
@@ -3294,12 +3103,6 @@
       <c r="Y38" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z38" t="n">
-        <v>393.57142857142856</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>127.57142857142857</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="2">
@@ -3377,12 +3180,6 @@
       <c r="Y39" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z39" t="n">
-        <v>577.2857142857143</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>183.71428571428572</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="2">
@@ -3460,12 +3257,6 @@
       <c r="Y40" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z40" t="n">
-        <v>799.5714285714286</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>222.28571428571428</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="2">
@@ -3543,12 +3334,6 @@
       <c r="Y41" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z41" t="n">
-        <v>1058.5714285714287</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>259.0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="2">
@@ -3626,12 +3411,6 @@
       <c r="Y42" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z42" t="n">
-        <v>1385.5714285714287</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>327.0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="2">
@@ -3709,12 +3488,6 @@
       <c r="Y43" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z43" t="n">
-        <v>1755.142857142857</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>369.57142857142856</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="2">
@@ -3792,12 +3565,6 @@
       <c r="Y44" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z44" t="n">
-        <v>2120.0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>364.85714285714283</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="2">
@@ -3875,12 +3642,6 @@
       <c r="Y45" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z45" t="n">
-        <v>2551.5714285714284</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>431.57142857142856</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="2">
@@ -3958,12 +3719,6 @@
       <c r="Y46" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z46" t="n">
-        <v>3018.8571428571427</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>467.2857142857143</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="2">
@@ -4041,12 +3796,6 @@
       <c r="Y47" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z47" t="n">
-        <v>3532.1428571428573</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>513.2857142857143</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="2">
@@ -4124,12 +3873,6 @@
       <c r="Y48" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z48" t="n">
-        <v>4112.714285714285</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>580.5714285714286</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="2">
@@ -4207,12 +3950,6 @@
       <c r="Y49" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z49" t="n">
-        <v>4718.571428571428</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>605.8571428571429</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="2">
@@ -4290,12 +4027,6 @@
       <c r="Y50" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z50" t="n">
-        <v>5347.0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>628.4285714285714</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="2">
@@ -4373,12 +4104,6 @@
       <c r="Y51" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z51" t="n">
-        <v>6060.571428571428</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>713.5714285714286</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="2">
@@ -4456,12 +4181,6 @@
       <c r="Y52" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z52" t="n">
-        <v>6825.857142857143</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>765.2857142857143</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="2">
@@ -4539,12 +4258,6 @@
       <c r="Y53" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z53" t="n">
-        <v>7620.857142857143</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>795.0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="2">
@@ -4622,12 +4335,6 @@
       <c r="Y54" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z54" t="n">
-        <v>8527.57142857143</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>906.7142857142857</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="2">
@@ -4705,12 +4412,6 @@
       <c r="Y55" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z55" t="n">
-        <v>9448.857142857143</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>921.2857142857143</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="2">
@@ -4788,12 +4489,6 @@
       <c r="Y56" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z56" t="n">
-        <v>10404.714285714286</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>955.8571428571429</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="2">
@@ -4871,12 +4566,6 @@
       <c r="Y57" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z57" t="n">
-        <v>11352.285714285714</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>947.5714285714286</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="2">
@@ -4954,12 +4643,6 @@
       <c r="Y58" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z58" t="n">
-        <v>12261.285714285714</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>909.0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="2">
@@ -5037,12 +4720,6 @@
       <c r="Y59" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z59" t="n">
-        <v>13138.285714285714</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>877.0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="2">
@@ -5120,12 +4797,6 @@
       <c r="Y60" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z60" t="n">
-        <v>14027.57142857143</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>889.2857142857143</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="2">
@@ -5203,12 +4874,6 @@
       <c r="Y61" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z61" t="n">
-        <v>14841.857142857143</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>814.2857142857143</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="2">
@@ -5286,12 +4951,6 @@
       <c r="Y62" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z62" t="n">
-        <v>15656.0</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>814.1428571428571</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="2">
@@ -5369,12 +5028,6 @@
       <c r="Y63" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z63" t="n">
-        <v>16433.0</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>777.0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="2">
@@ -5452,12 +5105,6 @@
       <c r="Y64" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z64" t="n">
-        <v>17226.14285714286</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>793.1428571428571</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="2">
@@ -5535,12 +5182,6 @@
       <c r="Y65" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z65" t="n">
-        <v>18022.14285714286</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>796.0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="2">
@@ -5618,12 +5259,6 @@
       <c r="Y66" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z66" t="n">
-        <v>18818.85714285714</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>796.7142857142857</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="2">
@@ -5701,12 +5336,6 @@
       <c r="Y67" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z67" t="n">
-        <v>19603.0</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>784.1428571428571</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="2">
@@ -5784,12 +5413,6 @@
       <c r="Y68" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z68" t="n">
-        <v>20379.428571428572</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>776.4285714285714</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="2">
@@ -5867,12 +5490,6 @@
       <c r="Y69" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z69" t="n">
-        <v>21167.0</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>787.5714285714286</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="2">
@@ -5950,12 +5567,6 @@
       <c r="Y70" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z70" t="n">
-        <v>21982.428571428572</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>815.4285714285714</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="2">
@@ -6033,12 +5644,6 @@
       <c r="Y71" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z71" t="n">
-        <v>22816.571428571428</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>834.1428571428571</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="2">
@@ -6116,12 +5721,6 @@
       <c r="Y72" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z72" t="n">
-        <v>23670.14285714286</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>853.5714285714286</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="2">
@@ -6199,12 +5798,6 @@
       <c r="Y73" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z73" t="n">
-        <v>24525.14285714286</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>855.0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="2">
@@ -6282,12 +5875,6 @@
       <c r="Y74" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z74" t="n">
-        <v>25402.714285714286</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>877.5714285714286</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="2">
@@ -6365,12 +5952,6 @@
       <c r="Y75" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z75" t="n">
-        <v>26320.285714285714</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>917.5714285714286</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="2">
@@ -6448,12 +6029,6 @@
       <c r="Y76" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z76" t="n">
-        <v>27284.428571428572</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>964.1428571428571</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="2">
@@ -6531,12 +6106,6 @@
       <c r="Y77" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z77" t="n">
-        <v>28272.571428571428</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>988.1428571428571</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="2">
@@ -6614,12 +6183,6 @@
       <c r="Y78" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z78" t="n">
-        <v>29277.571428571428</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>1005.0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="2">
@@ -6697,12 +6260,6 @@
       <c r="Y79" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z79" t="n">
-        <v>30305.85714285714</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>1028.2857142857142</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="2">
@@ -6780,12 +6337,6 @@
       <c r="Y80" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z80" t="n">
-        <v>31358.428571428572</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>1052.5714285714287</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="2">
@@ -6863,12 +6414,6 @@
       <c r="Y81" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z81" t="n">
-        <v>32401.714285714286</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>1043.2857142857142</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="2">
@@ -6946,12 +6491,6 @@
       <c r="Y82" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z82" t="n">
-        <v>33456.0</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>1054.2857142857142</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="2">
@@ -7029,12 +6568,6 @@
       <c r="Y83" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z83" t="n">
-        <v>34504.28571428572</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>1048.2857142857142</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="2">
@@ -7112,12 +6645,6 @@
       <c r="Y84" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z84" t="n">
-        <v>35550.142857142855</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>1045.857142857143</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="2">
@@ -7195,12 +6722,6 @@
       <c r="Y85" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z85" t="n">
-        <v>36626.857142857145</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>1076.7142857142858</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="2">
@@ -7278,12 +6799,6 @@
       <c r="Y86" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z86" t="n">
-        <v>37723.857142857145</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>1097.0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="2">
@@ -7361,12 +6876,6 @@
       <c r="Y87" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z87" t="n">
-        <v>38864.0</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>1140.142857142857</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="2">
@@ -7444,12 +6953,6 @@
       <c r="Y88" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z88" t="n">
-        <v>40072.71428571428</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>1208.7142857142858</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="2">
@@ -7527,12 +7030,6 @@
       <c r="Y89" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z89" t="n">
-        <v>41299.71428571428</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>1227.0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="2">
@@ -7610,12 +7107,6 @@
       <c r="Y90" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z90" t="n">
-        <v>42605.28571428572</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>1305.5714285714287</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="2">
@@ -7693,12 +7184,6 @@
       <c r="Y91" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z91" t="n">
-        <v>43878.857142857145</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>1273.5714285714287</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="2">
@@ -7776,12 +7261,6 @@
       <c r="Y92" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z92" t="n">
-        <v>45139.42857142857</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>1260.5714285714287</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="2">
@@ -7859,12 +7338,6 @@
       <c r="Y93" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z93" t="n">
-        <v>46405.71428571428</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>1266.2857142857142</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="2">
@@ -7942,12 +7415,6 @@
       <c r="Y94" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z94" t="n">
-        <v>47680.0</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>1274.2857142857142</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="2">
@@ -8025,12 +7492,6 @@
       <c r="Y95" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z95" t="n">
-        <v>48882.42857142857</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>1202.4285714285713</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="2">
@@ -8108,12 +7569,6 @@
       <c r="Y96" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z96" t="n">
-        <v>50061.142857142855</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>1178.7142857142858</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="2">
@@ -8191,12 +7646,6 @@
       <c r="Y97" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z97" t="n">
-        <v>51134.0</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>1072.857142857143</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="2">
@@ -8274,12 +7723,6 @@
       <c r="Y98" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z98" t="n">
-        <v>52214.57142857143</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>1080.5714285714287</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="2">
@@ -8357,12 +7800,6 @@
       <c r="Y99" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z99" t="n">
-        <v>53254.28571428572</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>1039.7142857142858</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="2">
@@ -8440,12 +7877,6 @@
       <c r="Y100" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z100" t="n">
-        <v>54204.0</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>949.7142857142857</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="2">
@@ -8523,12 +7954,6 @@
       <c r="Y101" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z101" t="n">
-        <v>55146.57142857143</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>942.5714285714286</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="2">
@@ -8606,12 +8031,6 @@
       <c r="Y102" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z102" t="n">
-        <v>56219.142857142855</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>1072.5714285714287</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="2">
@@ -8689,12 +8108,6 @@
       <c r="Y103" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z103" t="n">
-        <v>57298.71428571428</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>1079.5714285714287</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="2">
@@ -8772,12 +8185,6 @@
       <c r="Y104" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z104" t="n">
-        <v>58417.142857142855</v>
-      </c>
-      <c r="AA104" t="n">
-        <v>1118.4285714285713</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="2">
@@ -8855,12 +8262,6 @@
       <c r="Y105" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z105" t="n">
-        <v>59694.142857142855</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>1277.0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="2">
@@ -8938,12 +8339,6 @@
       <c r="Y106" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z106" t="n">
-        <v>60966.857142857145</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>1272.7142857142858</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="2">
@@ -9021,12 +8416,6 @@
       <c r="Y107" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z107" t="n">
-        <v>62396.57142857143</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>1429.7142857142858</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n" s="2">
@@ -9104,12 +8493,6 @@
       <c r="Y108" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z108" t="n">
-        <v>63875.142857142855</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>1478.5714285714287</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n" s="2">
@@ -9187,12 +8570,6 @@
       <c r="Y109" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z109" t="n">
-        <v>65324.28571428572</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>1449.142857142857</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n" s="2">
@@ -9270,12 +8647,6 @@
       <c r="Y110" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z110" t="n">
-        <v>66839.57142857143</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>1515.2857142857142</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n" s="2">
@@ -9353,12 +8724,6 @@
       <c r="Y111" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z111" t="n">
-        <v>68441.71428571429</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>1602.142857142857</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n" s="2">
@@ -9436,12 +8801,6 @@
       <c r="Y112" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z112" t="n">
-        <v>69969.0</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>1527.2857142857142</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n" s="2">
@@ -9519,12 +8878,6 @@
       <c r="Y113" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z113" t="n">
-        <v>71502.71428571429</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>1533.7142857142858</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n" s="2">
@@ -9602,12 +8955,6 @@
       <c r="Y114" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z114" t="n">
-        <v>73029.14285714286</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>1526.4285714285713</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n" s="2">
@@ -9685,12 +9032,6 @@
       <c r="Y115" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z115" t="n">
-        <v>74670.0</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>1640.857142857143</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="2">
@@ -9768,12 +9109,6 @@
       <c r="Y116" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z116" t="n">
-        <v>76336.14285714286</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>1666.142857142857</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n" s="2">
@@ -9851,12 +9186,6 @@
       <c r="Y117" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z117" t="n">
-        <v>78060.0</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>1723.857142857143</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n" s="2">
@@ -9934,12 +9263,6 @@
       <c r="Y118" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA118" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n" s="2">
@@ -10017,12 +9340,6 @@
       <c r="Y119" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA119" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n" s="2">
@@ -10040,17 +9357,17 @@
       <c r="E120" t="n">
         <v>19.0</v>
       </c>
-      <c r="F120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
-        <v>#N/A</v>
+      <c r="F120" t="n">
+        <v>1072466.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1617.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>34459.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>820.0</v>
       </c>
       <c r="J120" t="e">
         <v>#N/A</v>
@@ -10070,26 +9387,26 @@
       <c r="O120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V120" t="e">
-        <v>#N/A</v>
+      <c r="P120" t="n">
+        <v>1260319.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>144050.0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1404369.0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.07223931705798542</v>
+      </c>
+      <c r="T120" t="n">
+        <v>23863.0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>4020.0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>27883.0</v>
       </c>
       <c r="W120" t="n">
         <v>2166.0</v>
@@ -10100,11 +9417,319 @@
       <c r="Y120" t="n">
         <v>2.9677668E7</v>
       </c>
-      <c r="Z120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA120" t="e">
-        <v>#N/A</v>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="2">
+        <v>43995.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>86011.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2331.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1088326.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>15860.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>35698.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1239.0</v>
+      </c>
+      <c r="J121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1295983.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>146967.0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1442950.0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.06107731000975629</v>
+      </c>
+      <c r="T121" t="n">
+        <v>29139.0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2861.0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>31999.0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>2242.0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.8701845E7</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="2">
+        <v>43996.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>87854.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1112677.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>24351.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>36306.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="J122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1314761.0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>149090.0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1463851.0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.06621923937360179</v>
+      </c>
+      <c r="T122" t="n">
+        <v>27778.0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>29707.0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>2287.0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.8701845E7</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="2">
+        <v>43997.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>89108.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1254.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W123" t="n">
+        <v>2326.0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.8701845E7</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="n">
+        <v>28036.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62621.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1436394.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6135.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51365.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14525.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1626.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5626.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15682.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Hospital_Total</t>
   </si>
   <si>
-    <t>Population_Census</t>
-  </si>
-  <si>
     <t>Population_DSHS</t>
   </si>
   <si>
@@ -123,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>59089</t>
+    <t>60681</t>
   </si>
 </sst>
 </file>
@@ -251,9 +248,6 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
@@ -284,22 +278,22 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="n">
-        <v>4.886486486486486</v>
+        <v>3.953865900861939</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.4081424662957396</v>
       </c>
       <c r="L2" t="n">
-        <v>16.125</v>
+        <v>14.376275961496482</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6777777777777776</v>
+        <v>2.2769556721860575</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3783783783783784</v>
+        <v>1.003791799531077</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.7454545454545455</v>
+        <v>-0.8864781215295371</v>
       </c>
       <c r="P2" t="e">
         <v>#N/A</v>
@@ -326,9 +320,6 @@
         <v>#N/A</v>
       </c>
       <c r="X2" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y2" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -361,22 +352,22 @@
         <v>#N/A</v>
       </c>
       <c r="J3" t="n">
-        <v>9.115606936416185</v>
+        <v>8.32031270779967</v>
       </c>
       <c r="K3" t="n">
-        <v>4.06701030927835</v>
+        <v>2.6517030089083504</v>
       </c>
       <c r="L3" t="n">
-        <v>29.22</v>
+        <v>29.32032045778266</v>
       </c>
       <c r="M3" t="n">
-        <v>6.8023255813953485</v>
+        <v>2.9299246604480045</v>
       </c>
       <c r="N3" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.40882798735687675</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.18</v>
+        <v>-1.165202299044788</v>
       </c>
       <c r="P3" t="e">
         <v>#N/A</v>
@@ -403,9 +394,6 @@
         <v>#N/A</v>
       </c>
       <c r="X3" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y3" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -438,22 +426,22 @@
         <v>#N/A</v>
       </c>
       <c r="J4" t="n">
-        <v>4.333333333333333</v>
+        <v>6.822014546110357</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7783505154639175</v>
+        <v>1.6963349398893557</v>
       </c>
       <c r="L4" t="n">
-        <v>23.23913043478261</v>
+        <v>28.856207721386316</v>
       </c>
       <c r="M4" t="n">
-        <v>5.588888888888889</v>
+        <v>0.5193323583008759</v>
       </c>
       <c r="N4" t="n">
-        <v>-16.354166666666668</v>
+        <v>-16.75913053017895</v>
       </c>
       <c r="O4" t="n">
-        <v>3.5052631578947366</v>
+        <v>3.5742057724456857</v>
       </c>
       <c r="P4" t="e">
         <v>#N/A</v>
@@ -480,9 +468,6 @@
         <v>#N/A</v>
       </c>
       <c r="X4" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y4" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -515,22 +500,22 @@
         <v>#N/A</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8956043956043956</v>
+        <v>-0.16853776856137928</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.7708333333333333</v>
+        <v>-0.8529972098355106</v>
       </c>
       <c r="L5" t="n">
-        <v>1.0434782608695652</v>
+        <v>1.5276175906672267</v>
       </c>
       <c r="M5" t="n">
-        <v>2.9361702127659575</v>
+        <v>3.17696150850443</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6927083333333334</v>
+        <v>1.3348984309031349</v>
       </c>
       <c r="O5" t="n">
-        <v>0.31683168316831684</v>
+        <v>0.2748247262796374</v>
       </c>
       <c r="P5" t="e">
         <v>#N/A</v>
@@ -557,9 +542,6 @@
         <v>#N/A</v>
       </c>
       <c r="X5" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y5" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -592,22 +574,22 @@
         <v>#N/A</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.3204419889502763</v>
+        <v>-1.0029248668566226</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.6510416666666667</v>
+        <v>-1.0144256956842506</v>
       </c>
       <c r="L6" t="n">
-        <v>-11.0</v>
+        <v>-7.336690526661521</v>
       </c>
       <c r="M6" t="n">
-        <v>2.46875</v>
+        <v>0.9894203607654175</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1614583333333333</v>
+        <v>2.4334562483301867</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9801980198019802</v>
+        <v>0.6210545495906954</v>
       </c>
       <c r="P6" t="e">
         <v>#N/A</v>
@@ -634,9 +616,6 @@
         <v>#N/A</v>
       </c>
       <c r="X6" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y6" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -669,22 +648,22 @@
         <v>#N/A</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8235294117647058</v>
+        <v>-0.4833996612845446</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.443298969072165</v>
+        <v>-1.6548008133748549</v>
       </c>
       <c r="L7" t="n">
-        <v>-12.416666666666666</v>
+        <v>-13.634548349587176</v>
       </c>
       <c r="M7" t="n">
-        <v>2.1666666666666665</v>
+        <v>-1.508545700952485</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.041666666666666664</v>
+        <v>0.23789270428759532</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.24423052741909</v>
       </c>
       <c r="P7" t="e">
         <v>#N/A</v>
@@ -711,9 +690,6 @@
         <v>#N/A</v>
       </c>
       <c r="X7" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y7" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -746,22 +722,22 @@
         <v>#N/A</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2578947368421054</v>
+        <v>1.9855218778244474</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.615</v>
+        <v>-0.23086277066426336</v>
       </c>
       <c r="L8" t="n">
-        <v>3.0</v>
+        <v>2.571163395533075</v>
       </c>
       <c r="M8" t="n">
-        <v>4.278350515463917</v>
+        <v>3.0788456552216807</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9251336898395721</v>
+        <v>2.6984047602061443</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.3163265306122449</v>
+        <v>-0.6057089302350744</v>
       </c>
       <c r="P8" t="e">
         <v>#N/A</v>
@@ -788,9 +764,6 @@
         <v>#N/A</v>
       </c>
       <c r="X8" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y8" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -823,22 +796,22 @@
         <v>#N/A</v>
       </c>
       <c r="J9" t="n">
-        <v>5.345945945945946</v>
+        <v>4.298625265073974</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7091836734693877</v>
+        <v>0.943668579815642</v>
       </c>
       <c r="L9" t="n">
-        <v>12.475409836065573</v>
+        <v>15.968281004373546</v>
       </c>
       <c r="M9" t="n">
-        <v>3.3777777777777778</v>
+        <v>2.4387077023281596</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2094594594594597</v>
+        <v>3.3700323353644146</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.8727272727272727</v>
+        <v>-1.0323043751440137</v>
       </c>
       <c r="P9" t="e">
         <v>#N/A</v>
@@ -865,9 +838,6 @@
         <v>#N/A</v>
       </c>
       <c r="X9" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y9" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -900,22 +870,22 @@
         <v>#N/A</v>
       </c>
       <c r="J10" t="n">
-        <v>4.76878612716763</v>
+        <v>4.520151640725518</v>
       </c>
       <c r="K10" t="n">
-        <v>1.1185567010309279</v>
+        <v>0.08510473920011981</v>
       </c>
       <c r="L10" t="n">
-        <v>-7.418181818181818</v>
+        <v>-7.643424641346315</v>
       </c>
       <c r="M10" t="n">
-        <v>6.441860465116279</v>
+        <v>1.716054459946068</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4338235294117647</v>
+        <v>1.0648518081222427</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0</v>
+        <v>0.0694655135545296</v>
       </c>
       <c r="P10" t="e">
         <v>#N/A</v>
@@ -942,9 +912,6 @@
         <v>#N/A</v>
       </c>
       <c r="X10" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y10" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -977,22 +944,22 @@
         <v>#N/A</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8532608695652173</v>
+        <v>3.0928100768321976</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45408163265306123</v>
+        <v>0.41190850165938336</v>
       </c>
       <c r="L11" t="n">
-        <v>5.787234042553192</v>
+        <v>3.9853776246240624</v>
       </c>
       <c r="M11" t="n">
-        <v>1.6222222222222222</v>
+        <v>1.1702617347633353</v>
       </c>
       <c r="N11" t="n">
-        <v>4.015873015873016</v>
+        <v>3.913882367833865</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.46534653465346537</v>
+        <v>-0.4808622131846584</v>
       </c>
       <c r="P11" t="e">
         <v>#N/A</v>
@@ -1019,9 +986,6 @@
         <v>#N/A</v>
       </c>
       <c r="X11" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y11" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1054,22 +1018,22 @@
         <v>#N/A</v>
       </c>
       <c r="J12" t="n">
-        <v>8.0939226519337</v>
+        <v>6.736720911485559</v>
       </c>
       <c r="K12" t="n">
-        <v>1.0463917525773196</v>
+        <v>1.4622463060181565</v>
       </c>
       <c r="L12" t="n">
-        <v>17.093023255813954</v>
+        <v>20.84321529262854</v>
       </c>
       <c r="M12" t="n">
-        <v>4.25531914893617</v>
+        <v>3.4363584508170506</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4583333333333335</v>
+        <v>2.7837456328678023</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.8712871287128713</v>
+        <v>-0.9972725595892237</v>
       </c>
       <c r="P12" t="e">
         <v>#N/A</v>
@@ -1096,9 +1060,6 @@
         <v>#N/A</v>
       </c>
       <c r="X12" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y12" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1131,22 +1092,22 @@
         <v>#N/A</v>
       </c>
       <c r="J13" t="n">
-        <v>13.783333333333333</v>
+        <v>10.963196156816785</v>
       </c>
       <c r="K13" t="n">
-        <v>5.979057591623037</v>
+        <v>5.4862475913707485</v>
       </c>
       <c r="L13" t="n">
-        <v>4.863636363636363</v>
+        <v>6.959499196664268</v>
       </c>
       <c r="M13" t="n">
-        <v>9.372340425531915</v>
+        <v>6.046948630595264</v>
       </c>
       <c r="N13" t="n">
-        <v>3.0</v>
+        <v>3.2900442955722484</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.306930693069307</v>
+        <v>-1.5604588078036579</v>
       </c>
       <c r="P13" t="e">
         <v>#N/A</v>
@@ -1173,9 +1134,6 @@
         <v>#N/A</v>
       </c>
       <c r="X13" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y13" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1208,22 +1166,22 @@
         <v>#N/A</v>
       </c>
       <c r="J14" t="n">
-        <v>15.373626373626374</v>
+        <v>11.715289196985582</v>
       </c>
       <c r="K14" t="n">
-        <v>5.937823834196891</v>
+        <v>5.696467428973726</v>
       </c>
       <c r="L14" t="n">
-        <v>24.857142857142858</v>
+        <v>25.937647289445305</v>
       </c>
       <c r="M14" t="n">
-        <v>9.311827956989248</v>
+        <v>7.298524864846466</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2041884816753927</v>
+        <v>1.786365736250134</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.7128712871287128</v>
+        <v>-1.7435108407967097</v>
       </c>
       <c r="P14" t="e">
         <v>#N/A</v>
@@ -1250,9 +1208,6 @@
         <v>#N/A</v>
       </c>
       <c r="X14" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y14" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1285,22 +1240,22 @@
         <v>#N/A</v>
       </c>
       <c r="J15" t="n">
-        <v>13.710526315789474</v>
+        <v>10.644502345760987</v>
       </c>
       <c r="K15" t="n">
-        <v>8.206030150753769</v>
+        <v>7.303528239527873</v>
       </c>
       <c r="L15" t="n">
-        <v>20.770833333333332</v>
+        <v>23.68941574417705</v>
       </c>
       <c r="M15" t="n">
-        <v>11.26595744680851</v>
+        <v>8.640603640487514</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2925531914893615</v>
+        <v>1.1310786056049213</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.414141414141414</v>
+        <v>-1.9652110746941343</v>
       </c>
       <c r="P15" t="e">
         <v>#N/A</v>
@@ -1327,9 +1282,6 @@
         <v>#N/A</v>
       </c>
       <c r="X15" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y15" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1362,22 +1314,22 @@
         <v>#N/A</v>
       </c>
       <c r="J16" t="n">
-        <v>15.358695652173912</v>
+        <v>11.913897401333973</v>
       </c>
       <c r="K16" t="n">
-        <v>7.798969072164948</v>
+        <v>7.396651845353626</v>
       </c>
       <c r="L16" t="n">
-        <v>37.05555555555556</v>
+        <v>38.25433049851051</v>
       </c>
       <c r="M16" t="n">
-        <v>10.168539325842696</v>
+        <v>9.235769844034575</v>
       </c>
       <c r="N16" t="n">
-        <v>2.675675675675676</v>
+        <v>3.3410308038705967</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.767857142857143</v>
+        <v>-2.8231683852876395</v>
       </c>
       <c r="P16" t="e">
         <v>#N/A</v>
@@ -1404,9 +1356,6 @@
         <v>#N/A</v>
       </c>
       <c r="X16" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y16" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1439,22 +1388,22 @@
         <v>#N/A</v>
       </c>
       <c r="J17" t="n">
-        <v>19.34319526627219</v>
+        <v>14.843530754279591</v>
       </c>
       <c r="K17" t="n">
-        <v>10.0625</v>
+        <v>8.503277020597256</v>
       </c>
       <c r="L17" t="n">
-        <v>13.86</v>
+        <v>13.029396910595146</v>
       </c>
       <c r="M17" t="n">
-        <v>13.817073170731707</v>
+        <v>6.624516681121965</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4296296296296296</v>
+        <v>2.431334997189407</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.72</v>
+        <v>-1.5338694196901743</v>
       </c>
       <c r="P17" t="e">
         <v>#N/A</v>
@@ -1481,9 +1430,6 @@
         <v>#N/A</v>
       </c>
       <c r="X17" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y17" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1516,22 +1462,22 @@
         <v>#N/A</v>
       </c>
       <c r="J18" t="n">
-        <v>11.825136612021858</v>
+        <v>9.623877825966394</v>
       </c>
       <c r="K18" t="n">
-        <v>4.823834196891192</v>
+        <v>6.745467525893121</v>
       </c>
       <c r="L18" t="n">
-        <v>9.021739130434783</v>
+        <v>11.366156794885471</v>
       </c>
       <c r="M18" t="n">
-        <v>5.538461538461538</v>
+        <v>3.543927893851099</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7883597883597884</v>
+        <v>4.472158754745007</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.53</v>
+        <v>-1.685701402709626</v>
       </c>
       <c r="P18" t="e">
         <v>#N/A</v>
@@ -1558,9 +1504,6 @@
         <v>#N/A</v>
       </c>
       <c r="X18" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y18" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1593,22 +1536,22 @@
         <v>#N/A</v>
       </c>
       <c r="J19" t="n">
-        <v>17.748603351955307</v>
+        <v>12.930355651793377</v>
       </c>
       <c r="K19" t="n">
-        <v>8.9</v>
+        <v>9.572744999917237</v>
       </c>
       <c r="L19" t="n">
-        <v>21.790697674418606</v>
+        <v>26.93621302344635</v>
       </c>
       <c r="M19" t="n">
-        <v>4.815217391304348</v>
+        <v>3.6433037369186185</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1354166666666665</v>
+        <v>2.578282339715399</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.5940594059405941</v>
+        <v>-1.5243863063455776</v>
       </c>
       <c r="P19" t="e">
         <v>#N/A</v>
@@ -1635,9 +1578,6 @@
         <v>#N/A</v>
       </c>
       <c r="X19" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y19" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1670,22 +1610,22 @@
         <v>#N/A</v>
       </c>
       <c r="J20" t="n">
-        <v>7.911602209944752</v>
+        <v>6.518824510549024</v>
       </c>
       <c r="K20" t="n">
-        <v>2.75</v>
+        <v>4.198071148510132</v>
       </c>
       <c r="L20" t="n">
-        <v>-8.818181818181818</v>
+        <v>-6.961085021168942</v>
       </c>
       <c r="M20" t="n">
-        <v>6.147368421052631</v>
+        <v>1.114285802078404</v>
       </c>
       <c r="N20" t="n">
-        <v>1.3298429319371727</v>
+        <v>1.619104201502023</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8316831683168316</v>
+        <v>0.7887346581476894</v>
       </c>
       <c r="P20" t="e">
         <v>#N/A</v>
@@ -1712,9 +1652,6 @@
         <v>#N/A</v>
       </c>
       <c r="X20" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y20" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1747,22 +1684,22 @@
         <v>#N/A</v>
       </c>
       <c r="J21" t="n">
-        <v>14.977900552486188</v>
+        <v>11.159372606622442</v>
       </c>
       <c r="K21" t="n">
-        <v>8.083333333333334</v>
+        <v>8.694499980787969</v>
       </c>
       <c r="L21" t="n">
-        <v>29.902439024390244</v>
+        <v>34.453946098760014</v>
       </c>
       <c r="M21" t="n">
-        <v>10.595744680851064</v>
+        <v>6.320034404359656</v>
       </c>
       <c r="N21" t="n">
-        <v>2.0</v>
+        <v>2.1812545975790743</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.881188118811881</v>
+        <v>-1.8214869906669353</v>
       </c>
       <c r="P21" t="e">
         <v>#N/A</v>
@@ -1789,9 +1726,6 @@
         <v>#N/A</v>
       </c>
       <c r="X21" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y21" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1824,22 +1758,22 @@
         <v>#N/A</v>
       </c>
       <c r="J22" t="n">
-        <v>11.079787234042554</v>
+        <v>6.911192084343601</v>
       </c>
       <c r="K22" t="n">
-        <v>7.658291457286432</v>
+        <v>6.622157202725437</v>
       </c>
       <c r="L22" t="n">
-        <v>23.875</v>
+        <v>25.302322254275992</v>
       </c>
       <c r="M22" t="n">
-        <v>13.302083333333334</v>
+        <v>7.5663761834167405</v>
       </c>
       <c r="N22" t="n">
-        <v>1.5133689839572193</v>
+        <v>2.3856639047143435</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.7</v>
+        <v>-1.9017949422770526</v>
       </c>
       <c r="P22" t="e">
         <v>#N/A</v>
@@ -1866,9 +1800,6 @@
         <v>#N/A</v>
       </c>
       <c r="X22" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y22" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1901,22 +1832,22 @@
         <v>#N/A</v>
       </c>
       <c r="J23" t="n">
-        <v>13.245901639344263</v>
+        <v>7.0469251065432745</v>
       </c>
       <c r="K23" t="n">
-        <v>9.466321243523316</v>
+        <v>6.345559303823726</v>
       </c>
       <c r="L23" t="n">
-        <v>27.076923076923077</v>
+        <v>23.705905171931693</v>
       </c>
       <c r="M23" t="n">
-        <v>18.790697674418606</v>
+        <v>9.692156098414452</v>
       </c>
       <c r="N23" t="n">
-        <v>2.0945945945945947</v>
+        <v>2.5476563320981467</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.9272727272727272</v>
+        <v>-1.8794334447344923</v>
       </c>
       <c r="P23" t="e">
         <v>#N/A</v>
@@ -1943,9 +1874,6 @@
         <v>#N/A</v>
       </c>
       <c r="X23" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y23" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1978,22 +1906,22 @@
         <v>#N/A</v>
       </c>
       <c r="J24" t="n">
-        <v>15.352941176470589</v>
+        <v>9.819298549777123</v>
       </c>
       <c r="K24" t="n">
-        <v>7.808290155440415</v>
+        <v>3.884203894408925</v>
       </c>
       <c r="L24" t="n">
-        <v>19.058823529411764</v>
+        <v>17.073056270179467</v>
       </c>
       <c r="M24" t="n">
-        <v>17.71951219512195</v>
+        <v>6.1548286575555995</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.5401459854014599</v>
+        <v>0.06661023248102858</v>
       </c>
       <c r="O24" t="n">
-        <v>-1.02</v>
+        <v>-0.908674730281866</v>
       </c>
       <c r="P24" t="e">
         <v>#N/A</v>
@@ -2020,9 +1948,6 @@
         <v>#N/A</v>
       </c>
       <c r="X24" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y24" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2055,22 +1980,22 @@
         <v>#N/A</v>
       </c>
       <c r="J25" t="n">
-        <v>11.065934065934066</v>
+        <v>7.666602373073789</v>
       </c>
       <c r="K25" t="n">
-        <v>7.03125</v>
+        <v>4.6154334502615955</v>
       </c>
       <c r="L25" t="n">
-        <v>9.30232558139535</v>
+        <v>7.967998233499928</v>
       </c>
       <c r="M25" t="n">
-        <v>10.977011494252874</v>
+        <v>0.8175633262793947</v>
       </c>
       <c r="N25" t="n">
-        <v>-7.268421052631579</v>
+        <v>-8.117607180263867</v>
       </c>
       <c r="O25" t="n">
-        <v>1.489795918367347</v>
+        <v>1.5343397724764396</v>
       </c>
       <c r="P25" t="e">
         <v>#N/A</v>
@@ -2097,9 +2022,6 @@
         <v>#N/A</v>
       </c>
       <c r="X25" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y25" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2132,22 +2054,22 @@
         <v>#N/A</v>
       </c>
       <c r="J26" t="n">
-        <v>15.848314606741573</v>
+        <v>11.432088539603624</v>
       </c>
       <c r="K26" t="n">
-        <v>8.642105263157895</v>
+        <v>6.5180564751978025</v>
       </c>
       <c r="L26" t="n">
-        <v>52.375</v>
+        <v>50.483354287681124</v>
       </c>
       <c r="M26" t="n">
-        <v>12.415730337078651</v>
+        <v>3.632769405704668</v>
       </c>
       <c r="N26" t="n">
-        <v>-8.7720207253886</v>
+        <v>-9.566652555610244</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6565656565656566</v>
+        <v>1.1980589983547825</v>
       </c>
       <c r="P26" t="e">
         <v>#N/A</v>
@@ -2174,9 +2096,6 @@
         <v>#N/A</v>
       </c>
       <c r="X26" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y26" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2209,22 +2128,22 @@
         <v>#N/A</v>
       </c>
       <c r="J27" t="n">
-        <v>19.258426966292134</v>
+        <v>13.307608347151888</v>
       </c>
       <c r="K27" t="n">
-        <v>13.978947368421053</v>
+        <v>14.10608314641524</v>
       </c>
       <c r="L27" t="n">
-        <v>58.911764705882355</v>
+        <v>59.31846182588745</v>
       </c>
       <c r="M27" t="n">
-        <v>14.825581395348838</v>
+        <v>4.968942368271403</v>
       </c>
       <c r="N27" t="n">
-        <v>-8.61658031088083</v>
+        <v>-9.335513095279492</v>
       </c>
       <c r="O27" t="n">
-        <v>0.15151515151515152</v>
+        <v>0.6087150751379744</v>
       </c>
       <c r="P27" t="e">
         <v>#N/A</v>
@@ -2251,9 +2170,6 @@
         <v>#N/A</v>
       </c>
       <c r="X27" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y27" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2286,22 +2202,22 @@
         <v>#N/A</v>
       </c>
       <c r="J28" t="n">
-        <v>19.07777777777778</v>
+        <v>11.902992120917965</v>
       </c>
       <c r="K28" t="n">
-        <v>23.82198952879581</v>
+        <v>27.197939065898858</v>
       </c>
       <c r="L28" t="n">
-        <v>51.86486486486486</v>
+        <v>45.03752374952426</v>
       </c>
       <c r="M28" t="n">
-        <v>14.66304347826087</v>
+        <v>1.151065695990912</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.307291666666666</v>
+        <v>-11.831271377596893</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.8719888634934335</v>
       </c>
       <c r="P28" t="e">
         <v>#N/A</v>
@@ -2328,9 +2244,6 @@
         <v>#N/A</v>
       </c>
       <c r="X28" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y28" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2363,22 +2276,22 @@
         <v>#N/A</v>
       </c>
       <c r="J29" t="n">
-        <v>7.821052631578947</v>
+        <v>1.804999574350215</v>
       </c>
       <c r="K29" t="n">
-        <v>28.47179487179487</v>
+        <v>32.50291759824299</v>
       </c>
       <c r="L29" t="n">
-        <v>12.229166666666666</v>
+        <v>2.1003282487352055</v>
       </c>
       <c r="M29" t="n">
-        <v>10.875</v>
+        <v>-3.7788215623462156</v>
       </c>
       <c r="N29" t="n">
-        <v>-12.4</v>
+        <v>-15.261631696719387</v>
       </c>
       <c r="O29" t="n">
-        <v>2.831578947368421</v>
+        <v>3.8938608526476393</v>
       </c>
       <c r="P29" t="e">
         <v>#N/A</v>
@@ -2405,9 +2318,6 @@
         <v>#N/A</v>
       </c>
       <c r="X29" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y29" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2440,22 +2350,22 @@
         <v>#N/A</v>
       </c>
       <c r="J30" t="n">
-        <v>5.320652173913044</v>
+        <v>-6.944691476467063</v>
       </c>
       <c r="K30" t="n">
-        <v>19.145077720207254</v>
+        <v>14.391967289322746</v>
       </c>
       <c r="L30" t="n">
-        <v>13.39655172413793</v>
+        <v>-6.538542072140191</v>
       </c>
       <c r="M30" t="n">
-        <v>10.279069767441861</v>
+        <v>-4.149808319222476</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.6486486486486487</v>
+        <v>-3.553105934926156</v>
       </c>
       <c r="O30" t="n">
-        <v>1.7818181818181817</v>
+        <v>2.5275569652515175</v>
       </c>
       <c r="P30" t="e">
         <v>#N/A</v>
@@ -2482,9 +2392,6 @@
         <v>#N/A</v>
       </c>
       <c r="X30" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y30" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2517,22 +2424,22 @@
         <v>#N/A</v>
       </c>
       <c r="J31" t="n">
-        <v>4.045977011494253</v>
+        <v>-8.084623084633607</v>
       </c>
       <c r="K31" t="n">
-        <v>13.968253968253968</v>
+        <v>5.9916748887742335</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.884615384615385</v>
+        <v>-15.662640015091565</v>
       </c>
       <c r="M31" t="n">
-        <v>11.074074074074074</v>
+        <v>-7.3476314651539925</v>
       </c>
       <c r="N31" t="n">
-        <v>-6.007246376811594</v>
+        <v>-7.603614932258333</v>
       </c>
       <c r="O31" t="n">
-        <v>2.5306122448979593</v>
+        <v>3.4438853200386235</v>
       </c>
       <c r="P31" t="e">
         <v>#N/A</v>
@@ -2559,9 +2466,6 @@
         <v>#N/A</v>
       </c>
       <c r="X31" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y31" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2594,22 +2498,22 @@
         <v>#N/A</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2282608695652173</v>
+        <v>-2.5542389742621565</v>
       </c>
       <c r="K32" t="n">
-        <v>18.263157894736842</v>
+        <v>16.94204996055581</v>
       </c>
       <c r="L32" t="n">
-        <v>4.181818181818182</v>
+        <v>-1.1855784890611836</v>
       </c>
       <c r="M32" t="n">
-        <v>4.142857142857143</v>
+        <v>-12.451764464916003</v>
       </c>
       <c r="N32" t="n">
-        <v>-15.692708333333334</v>
+        <v>-21.004552443038214</v>
       </c>
       <c r="O32" t="n">
-        <v>5.5212765957446805</v>
+        <v>7.441641155147632</v>
       </c>
       <c r="P32" t="e">
         <v>#N/A</v>
@@ -2636,9 +2540,6 @@
         <v>#N/A</v>
       </c>
       <c r="X32" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y32" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2671,22 +2572,22 @@
         <v>#N/A</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.8846153846153846</v>
+        <v>-11.12784687772351</v>
       </c>
       <c r="K33" t="n">
-        <v>16.25</v>
+        <v>15.894142275112102</v>
       </c>
       <c r="L33" t="n">
-        <v>12.186046511627907</v>
+        <v>6.996959355940272</v>
       </c>
       <c r="M33" t="n">
-        <v>1.064516129032258</v>
+        <v>-15.352466915614903</v>
       </c>
       <c r="N33" t="n">
-        <v>-19.357142857142858</v>
+        <v>-26.19214198454731</v>
       </c>
       <c r="O33" t="n">
-        <v>7.808510638297872</v>
+        <v>10.594376898819425</v>
       </c>
       <c r="P33" t="e">
         <v>#N/A</v>
@@ -2713,9 +2614,6 @@
         <v>#N/A</v>
       </c>
       <c r="X33" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y33" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2748,22 +2646,22 @@
         <v>#N/A</v>
       </c>
       <c r="J34" t="n">
-        <v>-4.302197802197802</v>
+        <v>-15.530475131047384</v>
       </c>
       <c r="K34" t="n">
-        <v>17.73936170212766</v>
+        <v>14.264513647746664</v>
       </c>
       <c r="L34" t="n">
-        <v>19.146341463414632</v>
+        <v>20.52694290556296</v>
       </c>
       <c r="M34" t="n">
-        <v>2.838709677419355</v>
+        <v>-18.131893376575913</v>
       </c>
       <c r="N34" t="n">
-        <v>-20.676923076923078</v>
+        <v>-28.87124110070702</v>
       </c>
       <c r="O34" t="n">
-        <v>8.946808510638299</v>
+        <v>12.036849103447505</v>
       </c>
       <c r="P34" t="e">
         <v>#N/A</v>
@@ -2790,9 +2688,6 @@
         <v>#N/A</v>
       </c>
       <c r="X34" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y34" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2825,22 +2720,22 @@
         <v>#N/A</v>
       </c>
       <c r="J35" t="n">
-        <v>-11.054054054054054</v>
+        <v>-21.814672971435158</v>
       </c>
       <c r="K35" t="n">
-        <v>16.858638743455497</v>
+        <v>11.972991875967438</v>
       </c>
       <c r="L35" t="n">
-        <v>9.097560975609756</v>
+        <v>9.069791959324233</v>
       </c>
       <c r="M35" t="n">
-        <v>-3.59375</v>
+        <v>-24.02595232037389</v>
       </c>
       <c r="N35" t="n">
-        <v>-22.76923076923077</v>
+        <v>-32.13796812236424</v>
       </c>
       <c r="O35" t="n">
-        <v>10.473118279569892</v>
+        <v>13.820910904694108</v>
       </c>
       <c r="P35" t="e">
         <v>#N/A</v>
@@ -2867,9 +2762,6 @@
         <v>#N/A</v>
       </c>
       <c r="X35" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y35" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2902,22 +2794,22 @@
         <v>#N/A</v>
       </c>
       <c r="J36" t="n">
-        <v>-23.123711340206185</v>
+        <v>-29.810534482385286</v>
       </c>
       <c r="K36" t="n">
-        <v>9.080808080808081</v>
+        <v>9.679281436207473</v>
       </c>
       <c r="L36" t="n">
-        <v>-25.949152542372882</v>
+        <v>-32.78000087567298</v>
       </c>
       <c r="M36" t="n">
-        <v>-10.60204081632653</v>
+        <v>-29.27386804348691</v>
       </c>
       <c r="N36" t="n">
-        <v>-25.305699481865286</v>
+        <v>-33.76553143583075</v>
       </c>
       <c r="O36" t="n">
-        <v>14.459770114942529</v>
+        <v>17.236966339131236</v>
       </c>
       <c r="P36" t="e">
         <v>#N/A</v>
@@ -2944,9 +2836,6 @@
         <v>#N/A</v>
       </c>
       <c r="X36" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y36" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2979,22 +2868,22 @@
         <v>#N/A</v>
       </c>
       <c r="J37" t="n">
-        <v>-33.21052631578947</v>
+        <v>-40.124863123029535</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.4744897959183674</v>
+        <v>-2.684776902539801</v>
       </c>
       <c r="L37" t="n">
-        <v>-39.779411764705884</v>
+        <v>-42.20560273425716</v>
       </c>
       <c r="M37" t="n">
-        <v>-15.659340659340659</v>
+        <v>-32.388664595568436</v>
       </c>
       <c r="N37" t="n">
-        <v>-15.973684210526315</v>
+        <v>-22.352148434947956</v>
       </c>
       <c r="O37" t="n">
-        <v>12.06</v>
+        <v>13.214796495606123</v>
       </c>
       <c r="P37" t="e">
         <v>#N/A</v>
@@ -3021,9 +2910,6 @@
         <v>#N/A</v>
       </c>
       <c r="X37" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y37" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3056,22 +2942,22 @@
         <v>#N/A</v>
       </c>
       <c r="J38" t="n">
-        <v>-34.18131868131868</v>
+        <v>-41.43845978853235</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.124352331606218</v>
+        <v>-10.243509043945725</v>
       </c>
       <c r="L38" t="n">
-        <v>-33.49180327868852</v>
+        <v>-37.65851893256591</v>
       </c>
       <c r="M38" t="n">
-        <v>-19.03448275862069</v>
+        <v>-36.5493625735208</v>
       </c>
       <c r="N38" t="n">
-        <v>-23.75862068965517</v>
+        <v>-29.194488881255754</v>
       </c>
       <c r="O38" t="n">
-        <v>10.478260869565217</v>
+        <v>11.65557877166236</v>
       </c>
       <c r="P38" t="e">
         <v>#N/A</v>
@@ -3098,9 +2984,6 @@
         <v>#N/A</v>
       </c>
       <c r="X38" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y38" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3133,22 +3016,22 @@
         <v>#N/A</v>
       </c>
       <c r="J39" t="n">
-        <v>-25.422459893048128</v>
+        <v>-30.179782143781676</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.530612244897959</v>
+        <v>-3.3346906126166083</v>
       </c>
       <c r="L39" t="n">
-        <v>-9.148936170212766</v>
+        <v>-10.775164592488792</v>
       </c>
       <c r="M39" t="n">
-        <v>-14.978947368421053</v>
+        <v>-33.44475212729523</v>
       </c>
       <c r="N39" t="n">
-        <v>-24.484536082474225</v>
+        <v>-35.26468679680655</v>
       </c>
       <c r="O39" t="n">
-        <v>12.625</v>
+        <v>15.63771547914011</v>
       </c>
       <c r="P39" t="e">
         <v>#N/A</v>
@@ -3175,9 +3058,6 @@
         <v>#N/A</v>
       </c>
       <c r="X39" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y39" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3210,22 +3090,22 @@
         <v>#N/A</v>
       </c>
       <c r="J40" t="n">
-        <v>-23.048387096774192</v>
+        <v>-29.182696547469444</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.6631578947368421</v>
+        <v>-0.011615788267785336</v>
       </c>
       <c r="L40" t="n">
-        <v>9.608695652173912</v>
+        <v>6.331340745771459</v>
       </c>
       <c r="M40" t="n">
-        <v>-11.336842105263157</v>
+        <v>-31.947339830253732</v>
       </c>
       <c r="N40" t="n">
-        <v>-28.270408163265305</v>
+        <v>-39.94998119676712</v>
       </c>
       <c r="O40" t="n">
-        <v>13.730337078651685</v>
+        <v>17.320615729570683</v>
       </c>
       <c r="P40" t="e">
         <v>#N/A</v>
@@ -3252,9 +3132,6 @@
         <v>#N/A</v>
       </c>
       <c r="X40" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y40" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3287,22 +3164,22 @@
         <v>#N/A</v>
       </c>
       <c r="J41" t="n">
-        <v>-22.923076923076923</v>
+        <v>-37.90023677677371</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.65625</v>
+        <v>-12.882108086700121</v>
       </c>
       <c r="L41" t="n">
-        <v>9.146341463414634</v>
+        <v>1.2594388166251078</v>
       </c>
       <c r="M41" t="n">
-        <v>-12.402061855670103</v>
+        <v>-36.173234659444475</v>
       </c>
       <c r="N41" t="n">
-        <v>-30.138461538461538</v>
+        <v>-43.883481747715116</v>
       </c>
       <c r="O41" t="n">
-        <v>14.831460674157304</v>
+        <v>20.068316309691195</v>
       </c>
       <c r="P41" t="e">
         <v>#N/A</v>
@@ -3329,9 +3206,6 @@
         <v>#N/A</v>
       </c>
       <c r="X41" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y41" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3364,22 +3238,22 @@
         <v>#N/A</v>
       </c>
       <c r="J42" t="n">
-        <v>-26.194594594594594</v>
+        <v>-38.29810488822332</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.507692307692308</v>
+        <v>-13.549727591570269</v>
       </c>
       <c r="L42" t="n">
-        <v>2.4893617021276597</v>
+        <v>-0.8364899133668663</v>
       </c>
       <c r="M42" t="n">
-        <v>-16.357142857142858</v>
+        <v>-38.62975207295917</v>
       </c>
       <c r="N42" t="n">
-        <v>-31.194871794871794</v>
+        <v>-45.021982365167815</v>
       </c>
       <c r="O42" t="n">
-        <v>15.556818181818182</v>
+        <v>20.363473569225807</v>
       </c>
       <c r="P42" t="e">
         <v>#N/A</v>
@@ -3406,9 +3280,6 @@
         <v>#N/A</v>
       </c>
       <c r="X42" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y42" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3441,22 +3312,22 @@
         <v>#N/A</v>
       </c>
       <c r="J43" t="n">
-        <v>-31.641025641025642</v>
+        <v>-41.458194022831684</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.7363184079602</v>
+        <v>-15.299309859224165</v>
       </c>
       <c r="L43" t="n">
-        <v>-10.574074074074074</v>
+        <v>-13.984401568740495</v>
       </c>
       <c r="M43" t="n">
-        <v>-21.67676767676768</v>
+        <v>-40.763657697532935</v>
       </c>
       <c r="N43" t="n">
-        <v>-32.0880829015544</v>
+        <v>-44.70382302402584</v>
       </c>
       <c r="O43" t="n">
-        <v>17.72289156626506</v>
+        <v>22.0393108332097</v>
       </c>
       <c r="P43" t="e">
         <v>#N/A</v>
@@ -3483,9 +3354,6 @@
         <v>#N/A</v>
       </c>
       <c r="X43" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y43" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3518,22 +3386,22 @@
         <v>#N/A</v>
       </c>
       <c r="J44" t="n">
-        <v>-35.648936170212764</v>
+        <v>-46.946302821898826</v>
       </c>
       <c r="K44" t="n">
-        <v>-14.604060913705585</v>
+        <v>-19.558879603154445</v>
       </c>
       <c r="L44" t="n">
-        <v>-26.875</v>
+        <v>-32.47598457872562</v>
       </c>
       <c r="M44" t="n">
-        <v>-29.387096774193548</v>
+        <v>-44.203159854530526</v>
       </c>
       <c r="N44" t="n">
-        <v>-22.084967320261438</v>
+        <v>-32.260535717226276</v>
       </c>
       <c r="O44" t="n">
-        <v>14.326530612244898</v>
+        <v>16.06279801666763</v>
       </c>
       <c r="P44" t="e">
         <v>#N/A</v>
@@ -3560,9 +3428,6 @@
         <v>#N/A</v>
       </c>
       <c r="X44" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y44" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3595,22 +3460,22 @@
         <v>#N/A</v>
       </c>
       <c r="J45" t="n">
-        <v>-34.74585635359116</v>
+        <v>-44.931001086582576</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.81025641025641</v>
+        <v>-22.946762120337862</v>
       </c>
       <c r="L45" t="n">
-        <v>-20.77777777777778</v>
+        <v>-23.028271748190523</v>
       </c>
       <c r="M45" t="n">
-        <v>-31.355555555555554</v>
+        <v>-46.30783001307318</v>
       </c>
       <c r="N45" t="n">
-        <v>-28.397260273972602</v>
+        <v>-36.2299553159341</v>
       </c>
       <c r="O45" t="n">
-        <v>12.130434782608695</v>
+        <v>13.526516174025671</v>
       </c>
       <c r="P45" t="e">
         <v>#N/A</v>
@@ -3637,9 +3502,6 @@
         <v>#N/A</v>
       </c>
       <c r="X45" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y45" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3672,22 +3534,22 @@
         <v>#N/A</v>
       </c>
       <c r="J46" t="n">
-        <v>-32.67204301075269</v>
+        <v>-40.47648593252416</v>
       </c>
       <c r="K46" t="n">
-        <v>-14.306122448979592</v>
+        <v>-21.066427603591904</v>
       </c>
       <c r="L46" t="n">
-        <v>-34.62</v>
+        <v>-37.78444782827537</v>
       </c>
       <c r="M46" t="n">
-        <v>-25.90625</v>
+        <v>-44.17023231391705</v>
       </c>
       <c r="N46" t="n">
-        <v>-32.128865979381445</v>
+        <v>-45.2179902746472</v>
       </c>
       <c r="O46" t="n">
-        <v>16.564705882352943</v>
+        <v>20.25663933535729</v>
       </c>
       <c r="P46" t="e">
         <v>#N/A</v>
@@ -3714,9 +3576,6 @@
         <v>#N/A</v>
       </c>
       <c r="X46" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y46" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3749,22 +3608,22 @@
         <v>#N/A</v>
       </c>
       <c r="J47" t="n">
-        <v>-26.258064516129032</v>
+        <v>-34.43976413512989</v>
       </c>
       <c r="K47" t="n">
-        <v>-8.549222797927461</v>
+        <v>-12.891673648575651</v>
       </c>
       <c r="L47" t="n">
-        <v>-4.854166666666667</v>
+        <v>-4.342523453661489</v>
       </c>
       <c r="M47" t="n">
-        <v>-19.0625</v>
+        <v>-38.87811825665148</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.29381443298969</v>
+        <v>-46.676246344038496</v>
       </c>
       <c r="O47" t="n">
-        <v>16.372093023255815</v>
+        <v>20.164843861145393</v>
       </c>
       <c r="P47" t="e">
         <v>#N/A</v>
@@ -3791,9 +3650,6 @@
         <v>#N/A</v>
       </c>
       <c r="X47" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y47" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3826,22 +3682,22 @@
         <v>#N/A</v>
       </c>
       <c r="J48" t="n">
-        <v>-23.557377049180328</v>
+        <v>-32.956614433654266</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.0520833333333335</v>
+        <v>-8.441621097060773</v>
       </c>
       <c r="L48" t="n">
-        <v>2.5813953488372094</v>
+        <v>4.22174662910837</v>
       </c>
       <c r="M48" t="n">
-        <v>-16.896907216494846</v>
+        <v>-37.35229343006974</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.454081632653065</v>
+        <v>-46.581803729203116</v>
       </c>
       <c r="O48" t="n">
-        <v>15.976470588235294</v>
+        <v>20.005827009647746</v>
       </c>
       <c r="P48" t="e">
         <v>#N/A</v>
@@ -3868,9 +3724,6 @@
         <v>#N/A</v>
       </c>
       <c r="X48" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y48" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3903,22 +3756,22 @@
         <v>#N/A</v>
       </c>
       <c r="J49" t="n">
-        <v>-31.589189189189188</v>
+        <v>-38.831174589364714</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.75897435897436</v>
+        <v>-13.140818897607854</v>
       </c>
       <c r="L49" t="n">
-        <v>-18.836734693877553</v>
+        <v>-20.472793848957856</v>
       </c>
       <c r="M49" t="n">
-        <v>-22.666666666666668</v>
+        <v>-43.28763857737321</v>
       </c>
       <c r="N49" t="n">
-        <v>-35.88265306122449</v>
+        <v>-48.12823649693392</v>
       </c>
       <c r="O49" t="n">
-        <v>17.823529411764707</v>
+        <v>21.76793057756099</v>
       </c>
       <c r="P49" t="e">
         <v>#N/A</v>
@@ -3945,9 +3798,6 @@
         <v>#N/A</v>
       </c>
       <c r="X49" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y49" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3980,22 +3830,22 @@
         <v>#N/A</v>
       </c>
       <c r="J50" t="n">
-        <v>-37.46153846153846</v>
+        <v>-41.8328547706065</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.512562814070352</v>
+        <v>-13.188752448647055</v>
       </c>
       <c r="L50" t="n">
-        <v>-37.13333333333333</v>
+        <v>-40.33488857631211</v>
       </c>
       <c r="M50" t="n">
-        <v>-28.73</v>
+        <v>-45.62698095306232</v>
       </c>
       <c r="N50" t="n">
-        <v>-36.34871794871795</v>
+        <v>-47.737891185561274</v>
       </c>
       <c r="O50" t="n">
-        <v>20.876543209876544</v>
+        <v>23.995473516737626</v>
       </c>
       <c r="P50" t="e">
         <v>#N/A</v>
@@ -4022,9 +3872,6 @@
         <v>#N/A</v>
       </c>
       <c r="X50" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y50" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4057,22 +3904,22 @@
         <v>#N/A</v>
       </c>
       <c r="J51" t="n">
-        <v>-46.626315789473686</v>
+        <v>-52.367464020793804</v>
       </c>
       <c r="K51" t="n">
-        <v>-19.668316831683168</v>
+        <v>-22.6668458356615</v>
       </c>
       <c r="L51" t="n">
-        <v>-58.333333333333336</v>
+        <v>-67.30164617097421</v>
       </c>
       <c r="M51" t="n">
-        <v>-37.28421052631579</v>
+        <v>-52.50233829490425</v>
       </c>
       <c r="N51" t="n">
-        <v>-28.796178343949045</v>
+        <v>-37.82846837493666</v>
       </c>
       <c r="O51" t="n">
-        <v>17.244897959183675</v>
+        <v>18.763898777549848</v>
       </c>
       <c r="P51" t="e">
         <v>#N/A</v>
@@ -4099,9 +3946,6 @@
         <v>827.0</v>
       </c>
       <c r="X51" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y51" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4134,22 +3978,22 @@
         <v>#N/A</v>
       </c>
       <c r="J52" t="n">
-        <v>-42.73626373626374</v>
+        <v>-48.37959855220461</v>
       </c>
       <c r="K52" t="n">
-        <v>-20.30808080808081</v>
+        <v>-23.03630214686362</v>
       </c>
       <c r="L52" t="n">
-        <v>-40.032786885245905</v>
+        <v>-42.748585384852845</v>
       </c>
       <c r="M52" t="n">
-        <v>-39.65934065934066</v>
+        <v>-51.71043795714722</v>
       </c>
       <c r="N52" t="n">
-        <v>-31.973154362416107</v>
+        <v>-38.95716525486607</v>
       </c>
       <c r="O52" t="n">
-        <v>13.348837209302326</v>
+        <v>14.314482557204677</v>
       </c>
       <c r="P52" t="e">
         <v>#N/A</v>
@@ -4176,9 +4020,6 @@
         <v>1132.0</v>
       </c>
       <c r="X52" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y52" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4211,22 +4052,22 @@
         <v>#N/A</v>
       </c>
       <c r="J53" t="n">
-        <v>-36.694736842105264</v>
+        <v>-40.81541468113083</v>
       </c>
       <c r="K53" t="n">
-        <v>-16.528089887640448</v>
+        <v>-19.622285114167138</v>
       </c>
       <c r="L53" t="n">
-        <v>-28.44</v>
+        <v>-29.961655534324212</v>
       </c>
       <c r="M53" t="n">
-        <v>-28.49484536082474</v>
+        <v>-45.19506673864969</v>
       </c>
       <c r="N53" t="n">
-        <v>-33.92820512820513</v>
+        <v>-46.419206442979096</v>
       </c>
       <c r="O53" t="n">
-        <v>16.870588235294118</v>
+        <v>20.406638766423082</v>
       </c>
       <c r="P53" t="e">
         <v>#N/A</v>
@@ -4253,9 +4094,6 @@
         <v>1153.0</v>
       </c>
       <c r="X53" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y53" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4288,22 +4126,22 @@
         <v>7536.0</v>
       </c>
       <c r="J54" t="n">
-        <v>-34.177083333333336</v>
+        <v>-38.666053484832055</v>
       </c>
       <c r="K54" t="n">
-        <v>-13.366666666666667</v>
+        <v>-15.984686700543458</v>
       </c>
       <c r="L54" t="n">
-        <v>-6.166666666666667</v>
+        <v>-6.803728403339272</v>
       </c>
       <c r="M54" t="n">
-        <v>-23.989583333333332</v>
+        <v>-41.57630555104951</v>
       </c>
       <c r="N54" t="n">
-        <v>-36.52791878172589</v>
+        <v>-48.416561477122215</v>
       </c>
       <c r="O54" t="n">
-        <v>17.31764705882353</v>
+        <v>21.125064856687647</v>
       </c>
       <c r="P54" t="e">
         <v>#N/A</v>
@@ -4330,9 +4168,6 @@
         <v>1252.0</v>
       </c>
       <c r="X54" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y54" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4365,22 +4200,22 @@
         <v>861.0</v>
       </c>
       <c r="J55" t="n">
-        <v>-32.770833333333336</v>
+        <v>-38.149006228097775</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.058823529411764</v>
+        <v>-15.168179443817076</v>
       </c>
       <c r="L55" t="n">
-        <v>-3.75</v>
+        <v>-4.4657473735477335</v>
       </c>
       <c r="M55" t="n">
-        <v>-21.50515463917526</v>
+        <v>-40.8017170871033</v>
       </c>
       <c r="N55" t="n">
-        <v>-36.89795918367347</v>
+        <v>-48.41618626927287</v>
       </c>
       <c r="O55" t="n">
-        <v>17.058823529411764</v>
+        <v>20.978666308056926</v>
       </c>
       <c r="P55" t="e">
         <v>#N/A</v>
@@ -4407,9 +4242,6 @@
         <v>1491.0</v>
       </c>
       <c r="X55" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y55" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4442,22 +4274,22 @@
         <v>522.0</v>
       </c>
       <c r="J56" t="n">
-        <v>-34.123711340206185</v>
+        <v>-39.06701044253342</v>
       </c>
       <c r="K56" t="n">
-        <v>-10.755555555555556</v>
+        <v>-14.457865124141728</v>
       </c>
       <c r="L56" t="n">
-        <v>-17.148936170212767</v>
+        <v>-18.31898730503043</v>
       </c>
       <c r="M56" t="n">
-        <v>-25.626262626262626</v>
+        <v>-43.36521746687888</v>
       </c>
       <c r="N56" t="n">
-        <v>-37.64795918367347</v>
+        <v>-49.58877255271787</v>
       </c>
       <c r="O56" t="n">
-        <v>17.8</v>
+        <v>21.801838585175865</v>
       </c>
       <c r="P56" t="e">
         <v>#N/A</v>
@@ -4484,9 +4316,6 @@
         <v>1439.0</v>
       </c>
       <c r="X56" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y56" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4519,22 +4348,22 @@
         <v>1148.0</v>
       </c>
       <c r="J57" t="n">
-        <v>-35.70873786407767</v>
+        <v>-40.055616182644286</v>
       </c>
       <c r="K57" t="n">
-        <v>-11.863157894736842</v>
+        <v>-11.997774445853183</v>
       </c>
       <c r="L57" t="n">
-        <v>-19.01923076923077</v>
+        <v>-21.201396670925917</v>
       </c>
       <c r="M57" t="n">
-        <v>-34.29</v>
+        <v>-46.20731972943446</v>
       </c>
       <c r="N57" t="n">
-        <v>-46.69191919191919</v>
+        <v>-55.644911452573126</v>
       </c>
       <c r="O57" t="n">
-        <v>22.14666666666667</v>
+        <v>25.162655139866406</v>
       </c>
       <c r="P57" t="e">
         <v>#N/A</v>
@@ -4561,9 +4390,6 @@
         <v>1532.0</v>
       </c>
       <c r="X57" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y57" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4596,22 +4422,22 @@
         <v>615.0</v>
       </c>
       <c r="J58" t="n">
-        <v>-40.21</v>
+        <v>-45.796750005968164</v>
       </c>
       <c r="K58" t="n">
-        <v>-10.483516483516484</v>
+        <v>-13.871103943049958</v>
       </c>
       <c r="L58" t="n">
-        <v>-44.056338028169016</v>
+        <v>-51.226023235283314</v>
       </c>
       <c r="M58" t="n">
-        <v>-39.80612244897959</v>
+        <v>-49.480797301476954</v>
       </c>
       <c r="N58" t="n">
-        <v>-28.806451612903224</v>
+        <v>-37.85199890262696</v>
       </c>
       <c r="O58" t="n">
-        <v>15.489795918367347</v>
+        <v>16.98981936867992</v>
       </c>
       <c r="P58" t="e">
         <v>#N/A</v>
@@ -4638,9 +4464,6 @@
         <v>1514.0</v>
       </c>
       <c r="X58" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y58" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4673,22 +4496,22 @@
         <v>508.0</v>
       </c>
       <c r="J59" t="n">
-        <v>-52.427083333333336</v>
+        <v>-57.34408924852297</v>
       </c>
       <c r="K59" t="n">
-        <v>-41.170212765957444</v>
+        <v>-38.767367835252266</v>
       </c>
       <c r="L59" t="n">
-        <v>-42.01538461538462</v>
+        <v>-47.97772509450408</v>
       </c>
       <c r="M59" t="n">
-        <v>-41.53191489361702</v>
+        <v>-52.10608751585429</v>
       </c>
       <c r="N59" t="n">
-        <v>-36.66887417218543</v>
+        <v>-43.38345176711757</v>
       </c>
       <c r="O59" t="n">
-        <v>12.744186046511627</v>
+        <v>13.806150541825712</v>
       </c>
       <c r="P59" t="e">
         <v>#N/A</v>
@@ -4715,9 +4538,6 @@
         <v>1338.0</v>
       </c>
       <c r="X59" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y59" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4750,22 +4570,22 @@
         <v>151.0</v>
       </c>
       <c r="J60" t="n">
-        <v>-31.083333333333332</v>
+        <v>-37.664001265591274</v>
       </c>
       <c r="K60" t="n">
-        <v>-14.642105263157895</v>
+        <v>-18.47381749247728</v>
       </c>
       <c r="L60" t="n">
-        <v>-26.653061224489797</v>
+        <v>-24.222490317439075</v>
       </c>
       <c r="M60" t="n">
-        <v>-28.515463917525775</v>
+        <v>-43.65905275753657</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.98974358974359</v>
+        <v>-46.365540666585076</v>
       </c>
       <c r="O60" t="n">
-        <v>16.36904761904762</v>
+        <v>19.973734311130556</v>
       </c>
       <c r="P60" t="e">
         <v>#N/A</v>
@@ -4792,9 +4612,6 @@
         <v>1176.0</v>
       </c>
       <c r="X60" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y60" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4827,22 +4644,22 @@
         <v>377.0</v>
       </c>
       <c r="J61" t="n">
-        <v>-29.46875</v>
+        <v>-36.041627143783124</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.520833333333334</v>
+        <v>-16.707906188697365</v>
       </c>
       <c r="L61" t="n">
-        <v>-21.367346938775512</v>
+        <v>-18.307862538468637</v>
       </c>
       <c r="M61" t="n">
-        <v>-25.0</v>
+        <v>-41.42903858270045</v>
       </c>
       <c r="N61" t="n">
-        <v>-35.173469387755105</v>
+        <v>-47.02809689855829</v>
       </c>
       <c r="O61" t="n">
-        <v>17.38372093023256</v>
+        <v>21.371514932802786</v>
       </c>
       <c r="P61" t="e">
         <v>#N/A</v>
@@ -4869,9 +4686,6 @@
         <v>1409.0</v>
       </c>
       <c r="X61" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y61" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4904,22 +4718,22 @@
         <v>254.0</v>
       </c>
       <c r="J62" t="n">
-        <v>-18.916666666666668</v>
+        <v>-28.086251942142148</v>
       </c>
       <c r="K62" t="n">
-        <v>-5.186813186813187</v>
+        <v>-9.421564869281546</v>
       </c>
       <c r="L62" t="n">
-        <v>-6.0227272727272725</v>
+        <v>-2.9552562466262104</v>
       </c>
       <c r="M62" t="n">
-        <v>-21.071428571428573</v>
+        <v>-37.715978443636054</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.005102040816325</v>
+        <v>-45.83287280122179</v>
       </c>
       <c r="O62" t="n">
-        <v>16.023255813953487</v>
+        <v>19.921590537900457</v>
       </c>
       <c r="P62" t="e">
         <v>#N/A</v>
@@ -4946,9 +4760,6 @@
         <v>1538.0</v>
       </c>
       <c r="X62" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y62" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4981,22 +4792,22 @@
         <v>407.0</v>
       </c>
       <c r="J63" t="n">
-        <v>-23.855670103092784</v>
+        <v>-31.79724080642756</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.821052631578947</v>
+        <v>-11.708283616386352</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5681818181818182</v>
+        <v>1.6206205368743214</v>
       </c>
       <c r="M63" t="n">
-        <v>-23.636363636363637</v>
+        <v>-39.81332578571204</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.33163265306123</v>
+        <v>-46.591475971541136</v>
       </c>
       <c r="O63" t="n">
-        <v>16.325581395348838</v>
+        <v>20.33118292743112</v>
       </c>
       <c r="P63" t="e">
         <v>#N/A</v>
@@ -5023,9 +4834,6 @@
         <v>1459.0</v>
       </c>
       <c r="X63" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y63" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5058,22 +4866,22 @@
         <v>371.0</v>
       </c>
       <c r="J64" t="n">
-        <v>-31.307692307692307</v>
+        <v>-37.572177538139094</v>
       </c>
       <c r="K64" t="n">
-        <v>-13.584905660377359</v>
+        <v>-15.442220314589402</v>
       </c>
       <c r="L64" t="n">
-        <v>-25.672727272727272</v>
+        <v>-27.936098650610848</v>
       </c>
       <c r="M64" t="n">
-        <v>-27.59</v>
+        <v>-41.66872711241254</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.58247422680412</v>
+        <v>-45.801128209574</v>
       </c>
       <c r="O64" t="n">
-        <v>18.9390243902439</v>
+        <v>22.187158095255278</v>
       </c>
       <c r="P64" t="e">
         <v>#N/A</v>
@@ -5100,9 +4908,6 @@
         <v>1522.0</v>
       </c>
       <c r="X64" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y64" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5135,22 +4940,22 @@
         <v>242.0</v>
       </c>
       <c r="J65" t="n">
-        <v>-33.35643564356435</v>
+        <v>-41.58432219020669</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.04</v>
+        <v>-17.072851501602386</v>
       </c>
       <c r="L65" t="n">
-        <v>-33.40625</v>
+        <v>-38.58802806664433</v>
       </c>
       <c r="M65" t="n">
-        <v>-31.43877551020408</v>
+        <v>-42.90558799784321</v>
       </c>
       <c r="N65" t="n">
-        <v>-22.623376623376622</v>
+        <v>-31.786470263419393</v>
       </c>
       <c r="O65" t="n">
-        <v>13.44</v>
+        <v>14.894394244775299</v>
       </c>
       <c r="P65" t="e">
         <v>#N/A</v>
@@ -5177,9 +4982,6 @@
         <v>1321.0</v>
       </c>
       <c r="X65" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y65" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5212,22 +5014,22 @@
         <v>151.0</v>
       </c>
       <c r="J66" t="n">
-        <v>-34.56989247311828</v>
+        <v>-42.908060356348486</v>
       </c>
       <c r="K66" t="n">
-        <v>-20.41304347826087</v>
+        <v>-22.83920339128483</v>
       </c>
       <c r="L66" t="n">
-        <v>-32.53333333333333</v>
+        <v>-40.266850588747516</v>
       </c>
       <c r="M66" t="n">
-        <v>-35.68817204301075</v>
+        <v>-48.84315209295511</v>
       </c>
       <c r="N66" t="n">
-        <v>-29.21917808219178</v>
+        <v>-36.24035465819552</v>
       </c>
       <c r="O66" t="n">
-        <v>11.71111111111111</v>
+        <v>13.053242958493694</v>
       </c>
       <c r="P66" t="e">
         <v>#N/A</v>
@@ -5254,9 +5056,6 @@
         <v>1471.0</v>
       </c>
       <c r="X66" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y66" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5289,22 +5088,22 @@
         <v>160.0</v>
       </c>
       <c r="J67" t="n">
-        <v>-24.395833333333332</v>
+        <v>-32.25311514053038</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.557894736842105</v>
+        <v>-16.579556366417744</v>
       </c>
       <c r="L67" t="n">
-        <v>-8.391304347826088</v>
+        <v>-9.016670664099284</v>
       </c>
       <c r="M67" t="n">
-        <v>-24.45360824742268</v>
+        <v>-40.41006998305007</v>
       </c>
       <c r="N67" t="n">
-        <v>-31.784615384615385</v>
+        <v>-44.42999083819138</v>
       </c>
       <c r="O67" t="n">
-        <v>14.918604651162791</v>
+        <v>18.71716742983336</v>
       </c>
       <c r="P67" t="e">
         <v>#N/A</v>
@@ -5331,9 +5130,6 @@
         <v>1411.0</v>
       </c>
       <c r="X67" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y67" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5366,22 +5162,22 @@
         <v>150.0</v>
       </c>
       <c r="J68" t="n">
-        <v>-23.84375</v>
+        <v>-31.469475091009112</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.2</v>
+        <v>-14.2228655380589</v>
       </c>
       <c r="L68" t="n">
-        <v>2.0869565217391304</v>
+        <v>1.9101866275727826</v>
       </c>
       <c r="M68" t="n">
-        <v>-22.583333333333332</v>
+        <v>-38.89008988967238</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.1025641025641</v>
+        <v>-46.20487437924991</v>
       </c>
       <c r="O68" t="n">
-        <v>15.837209302325581</v>
+        <v>19.86054647694573</v>
       </c>
       <c r="P68" t="e">
         <v>#N/A</v>
@@ -5408,9 +5204,6 @@
         <v>1419.0</v>
       </c>
       <c r="X68" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y68" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5443,22 +5236,22 @@
         <v>363.0</v>
       </c>
       <c r="J69" t="n">
-        <v>-27.072916666666668</v>
+        <v>-33.48398894611967</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.021739130434783</v>
+        <v>-13.513862071033012</v>
       </c>
       <c r="L69" t="n">
-        <v>-11.340909090909092</v>
+        <v>-9.747147085063716</v>
       </c>
       <c r="M69" t="n">
-        <v>-21.510204081632654</v>
+        <v>-39.4399922341324</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.13333333333333</v>
+        <v>-46.160795726664155</v>
       </c>
       <c r="O69" t="n">
-        <v>17.06896551724138</v>
+        <v>20.803987922613658</v>
       </c>
       <c r="P69" t="e">
         <v>#N/A</v>
@@ -5485,9 +5278,6 @@
         <v>1678.0</v>
       </c>
       <c r="X69" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y69" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5520,22 +5310,22 @@
         <v>320.0</v>
       </c>
       <c r="J70" t="n">
-        <v>-22.97938144329897</v>
+        <v>-30.848261087256194</v>
       </c>
       <c r="K70" t="n">
-        <v>-6.242105263157895</v>
+        <v>-10.318262156177056</v>
       </c>
       <c r="L70" t="n">
-        <v>11.292682926829269</v>
+        <v>10.537673656807359</v>
       </c>
       <c r="M70" t="n">
-        <v>-20.63917525773196</v>
+        <v>-37.84214086559974</v>
       </c>
       <c r="N70" t="n">
-        <v>-33.433673469387756</v>
+        <v>-46.00791805117597</v>
       </c>
       <c r="O70" t="n">
-        <v>15.329545454545455</v>
+        <v>19.41281090558118</v>
       </c>
       <c r="P70" t="e">
         <v>#N/A</v>
@@ -5562,9 +5352,6 @@
         <v>1649.0</v>
       </c>
       <c r="X70" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y70" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5597,22 +5384,22 @@
         <v>276.0</v>
       </c>
       <c r="J71" t="n">
-        <v>-25.798076923076923</v>
+        <v>-33.34207810790672</v>
       </c>
       <c r="K71" t="n">
-        <v>-8.35576923076923</v>
+        <v>-11.121372916772817</v>
       </c>
       <c r="L71" t="n">
-        <v>1.68</v>
+        <v>-3.5899788405725</v>
       </c>
       <c r="M71" t="n">
-        <v>-22.448979591836736</v>
+        <v>-37.42747591621015</v>
       </c>
       <c r="N71" t="n">
-        <v>-33.91752577319588</v>
+        <v>-45.11626140745462</v>
       </c>
       <c r="O71" t="n">
-        <v>16.98780487804878</v>
+        <v>20.354445029043124</v>
       </c>
       <c r="P71" t="e">
         <v>#N/A</v>
@@ -5639,9 +5426,6 @@
         <v>1674.0</v>
       </c>
       <c r="X71" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y71" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5674,22 +5458,22 @@
         <v>392.0</v>
       </c>
       <c r="J72" t="n">
-        <v>-26.702970297029704</v>
+        <v>-36.95810076112212</v>
       </c>
       <c r="K72" t="n">
-        <v>-6.35</v>
+        <v>-11.725758805556561</v>
       </c>
       <c r="L72" t="n">
-        <v>1.1228070175438596</v>
+        <v>-11.483309311757365</v>
       </c>
       <c r="M72" t="n">
-        <v>-23.68041237113402</v>
+        <v>-35.75597987572358</v>
       </c>
       <c r="N72" t="n">
-        <v>-21.25657894736842</v>
+        <v>-30.234468989907466</v>
       </c>
       <c r="O72" t="n">
-        <v>11.1</v>
+        <v>12.644515205192501</v>
       </c>
       <c r="P72" t="e">
         <v>#N/A</v>
@@ -5716,9 +5500,6 @@
         <v>1597.0</v>
       </c>
       <c r="X72" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y72" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5751,22 +5532,22 @@
         <v>497.0</v>
       </c>
       <c r="J73" t="n">
-        <v>-24.54945054945055</v>
+        <v>-35.33854614629751</v>
       </c>
       <c r="K73" t="n">
-        <v>-10.505494505494505</v>
+        <v>-15.244617759635123</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2</v>
+        <v>-9.729013288162713</v>
       </c>
       <c r="M73" t="n">
-        <v>-26.086021505376344</v>
+        <v>-40.400330310215246</v>
       </c>
       <c r="N73" t="n">
-        <v>-26.891156462585034</v>
+        <v>-34.01598632560307</v>
       </c>
       <c r="O73" t="n">
-        <v>9.565217391304348</v>
+        <v>10.826228472886745</v>
       </c>
       <c r="P73" t="e">
         <v>#N/A</v>
@@ -5793,9 +5574,6 @@
         <v>1542.0</v>
       </c>
       <c r="X73" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y73" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5828,22 +5606,22 @@
         <v>286.0</v>
       </c>
       <c r="J74" t="n">
-        <v>-20.242105263157896</v>
+        <v>-28.80718055696526</v>
       </c>
       <c r="K74" t="n">
-        <v>-8.25531914893617</v>
+        <v>-13.15241880905087</v>
       </c>
       <c r="L74" t="n">
-        <v>-5.1521739130434785</v>
+        <v>-5.596334821732236</v>
       </c>
       <c r="M74" t="n">
-        <v>-20.416666666666668</v>
+        <v>-37.673251123413344</v>
       </c>
       <c r="N74" t="n">
-        <v>-30.36082474226804</v>
+        <v>-42.961212585326116</v>
       </c>
       <c r="O74" t="n">
-        <v>14.348837209302326</v>
+        <v>17.92361084678433</v>
       </c>
       <c r="P74" t="e">
         <v>#N/A</v>
@@ -5870,9 +5648,6 @@
         <v>1563.0</v>
       </c>
       <c r="X74" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y74" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5905,22 +5680,22 @@
         <v>229.0</v>
       </c>
       <c r="J75" t="n">
-        <v>-21.642105263157895</v>
+        <v>-29.732329299884455</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.9787234042553195</v>
+        <v>-11.598201073203068</v>
       </c>
       <c r="L75" t="n">
-        <v>-3.108695652173913</v>
+        <v>-5.632244094320555</v>
       </c>
       <c r="M75" t="n">
-        <v>-20.085106382978722</v>
+        <v>-36.9734684969841</v>
       </c>
       <c r="N75" t="n">
-        <v>-32.87755102040816</v>
+        <v>-45.05813077421311</v>
       </c>
       <c r="O75" t="n">
-        <v>9.573033707865168</v>
+        <v>13.40123395048519</v>
       </c>
       <c r="P75" t="e">
         <v>#N/A</v>
@@ -5947,9 +5722,6 @@
         <v>1682.0</v>
       </c>
       <c r="X75" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y75" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5982,22 +5754,22 @@
         <v>313.0</v>
       </c>
       <c r="J76" t="n">
-        <v>-17.21875</v>
+        <v>-26.24202929829478</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.934065934065934</v>
+        <v>-7.543084911118091</v>
       </c>
       <c r="L76" t="n">
-        <v>3.6744186046511627</v>
+        <v>7.04256283745245</v>
       </c>
       <c r="M76" t="n">
-        <v>-17.577319587628867</v>
+        <v>-34.90525001131411</v>
       </c>
       <c r="N76" t="n">
-        <v>-33.01025641025641</v>
+        <v>-45.00159206644412</v>
       </c>
       <c r="O76" t="n">
-        <v>15.056818181818182</v>
+        <v>19.16850211791719</v>
       </c>
       <c r="P76" t="e">
         <v>#N/A</v>
@@ -6024,9 +5796,6 @@
         <v>1702.0</v>
       </c>
       <c r="X76" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y76" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6059,22 +5828,22 @@
         <v>192.0</v>
       </c>
       <c r="J77" t="n">
-        <v>-16.721649484536083</v>
+        <v>-25.28111092871652</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.8172043010752689</v>
+        <v>-5.346391684263617</v>
       </c>
       <c r="L77" t="n">
-        <v>18.390243902439025</v>
+        <v>16.992505936907186</v>
       </c>
       <c r="M77" t="n">
-        <v>-16.114583333333332</v>
+        <v>-33.434441067733694</v>
       </c>
       <c r="N77" t="n">
-        <v>-32.14871794871795</v>
+        <v>-44.258566798392</v>
       </c>
       <c r="O77" t="n">
-        <v>14.113636363636363</v>
+        <v>18.201180735043632</v>
       </c>
       <c r="P77" t="e">
         <v>#N/A</v>
@@ -6101,9 +5870,6 @@
         <v>1686.0</v>
       </c>
       <c r="X77" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y77" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6136,22 +5902,22 @@
         <v>552.0</v>
       </c>
       <c r="J78" t="n">
-        <v>-16.74757281553398</v>
+        <v>-25.715453364676343</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1568627450980392</v>
+        <v>-4.3171903540877</v>
       </c>
       <c r="L78" t="n">
-        <v>11.26530612244898</v>
+        <v>5.331299987823886</v>
       </c>
       <c r="M78" t="n">
-        <v>-16.602040816326532</v>
+        <v>-32.016421490032705</v>
       </c>
       <c r="N78" t="n">
-        <v>-31.587628865979383</v>
+        <v>-42.22598007173676</v>
       </c>
       <c r="O78" t="n">
-        <v>14.426829268292684</v>
+        <v>17.997704108320573</v>
       </c>
       <c r="P78" t="e">
         <v>#N/A</v>
@@ -6178,9 +5944,6 @@
         <v>1778.0</v>
       </c>
       <c r="X78" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y78" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6213,22 +5976,22 @@
         <v>743.0</v>
       </c>
       <c r="J79" t="n">
-        <v>-18.33</v>
+        <v>-29.6274356249058</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6868686868686869</v>
+        <v>-5.231297655598997</v>
       </c>
       <c r="L79" t="n">
-        <v>10.150943396226415</v>
+        <v>-2.0721664373019517</v>
       </c>
       <c r="M79" t="n">
-        <v>-18.53191489361702</v>
+        <v>-29.88504261920063</v>
       </c>
       <c r="N79" t="n">
-        <v>-18.282894736842106</v>
+        <v>-26.24356919515176</v>
       </c>
       <c r="O79" t="n">
-        <v>9.1</v>
+        <v>10.603177881983482</v>
       </c>
       <c r="P79" t="e">
         <v>#N/A</v>
@@ -6255,9 +6018,6 @@
         <v>1725.0</v>
       </c>
       <c r="X79" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y79" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6290,22 +6050,22 @@
         <v>607.0</v>
       </c>
       <c r="J80" t="n">
-        <v>-16.417582417582416</v>
+        <v>-28.267624645790075</v>
       </c>
       <c r="K80" t="n">
-        <v>-4.466666666666667</v>
+        <v>-10.070444248436914</v>
       </c>
       <c r="L80" t="n">
-        <v>3.2</v>
+        <v>-6.629125862547084</v>
       </c>
       <c r="M80" t="n">
-        <v>-19.168539325842698</v>
+        <v>-35.243955981490785</v>
       </c>
       <c r="N80" t="n">
-        <v>-21.82638888888889</v>
+        <v>-28.13901944821479</v>
       </c>
       <c r="O80" t="n">
-        <v>7.702127659574468</v>
+        <v>8.988903319265766</v>
       </c>
       <c r="P80" t="e">
         <v>#N/A</v>
@@ -6332,9 +6092,6 @@
         <v>1540.0</v>
       </c>
       <c r="X80" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y80" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6367,22 +6124,22 @@
         <v>342.0</v>
       </c>
       <c r="J81" t="n">
-        <v>-13.26595744680851</v>
+        <v>-21.722856714574547</v>
       </c>
       <c r="K81" t="n">
-        <v>-3.872340425531915</v>
+        <v>-8.629948846330443</v>
       </c>
       <c r="L81" t="n">
-        <v>2.1956521739130435</v>
+        <v>0.10852533536333943</v>
       </c>
       <c r="M81" t="n">
-        <v>-16.59375</v>
+        <v>-33.19378065903538</v>
       </c>
       <c r="N81" t="n">
-        <v>-28.13917525773196</v>
+        <v>-40.141700339907075</v>
       </c>
       <c r="O81" t="n">
-        <v>12.241379310344827</v>
+        <v>15.79859908321837</v>
       </c>
       <c r="P81" t="e">
         <v>#N/A</v>
@@ -6409,9 +6166,6 @@
         <v>1533.0</v>
       </c>
       <c r="X81" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y81" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6444,22 +6198,22 @@
         <v>333.0</v>
       </c>
       <c r="J82" t="n">
-        <v>-12.189473684210526</v>
+        <v>-19.944864867111765</v>
       </c>
       <c r="K82" t="n">
-        <v>0.08602150537634409</v>
+        <v>-4.136740593346153</v>
       </c>
       <c r="L82" t="n">
-        <v>7.880952380952381</v>
+        <v>7.192698157912803</v>
       </c>
       <c r="M82" t="n">
-        <v>-16.96842105263158</v>
+        <v>-31.70467038649145</v>
       </c>
       <c r="N82" t="n">
-        <v>-30.178571428571427</v>
+        <v>-41.6480759335978</v>
       </c>
       <c r="O82" t="n">
-        <v>13.238636363636363</v>
+        <v>17.144914840922027</v>
       </c>
       <c r="P82" t="e">
         <v>#N/A</v>
@@ -6486,9 +6240,6 @@
         <v>1888.0</v>
       </c>
       <c r="X82" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y82" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6521,22 +6272,22 @@
         <v>420.0</v>
       </c>
       <c r="J83" t="n">
-        <v>-10.729166666666666</v>
+        <v>-19.21156376758218</v>
       </c>
       <c r="K83" t="n">
-        <v>1.5888888888888888</v>
+        <v>-2.3661542826111504</v>
       </c>
       <c r="L83" t="n">
-        <v>26.157894736842106</v>
+        <v>29.0391690705293</v>
       </c>
       <c r="M83" t="n">
-        <v>-15.052083333333334</v>
+        <v>-29.45484346018428</v>
       </c>
       <c r="N83" t="n">
-        <v>-29.55897435897436</v>
+        <v>-40.94940424506063</v>
       </c>
       <c r="O83" t="n">
-        <v>12.820224719101123</v>
+        <v>16.550871153947423</v>
       </c>
       <c r="P83" t="e">
         <v>#N/A</v>
@@ -6563,9 +6314,6 @@
         <v>1812.0</v>
       </c>
       <c r="X83" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y83" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6598,22 +6346,22 @@
         <v>211.0</v>
       </c>
       <c r="J84" t="n">
-        <v>-13.350515463917526</v>
+        <v>-21.618105542490166</v>
       </c>
       <c r="K84" t="n">
-        <v>1.1505376344086022</v>
+        <v>-2.9783337375815226</v>
       </c>
       <c r="L84" t="n">
-        <v>23.794871794871796</v>
+        <v>19.00447347602928</v>
       </c>
       <c r="M84" t="n">
-        <v>-14.88888888888889</v>
+        <v>-31.421725703704368</v>
       </c>
       <c r="N84" t="n">
-        <v>-29.646153846153847</v>
+        <v>-41.5946010358119</v>
       </c>
       <c r="O84" t="n">
-        <v>12.736263736263735</v>
+        <v>16.797669438230347</v>
       </c>
       <c r="P84" t="e">
         <v>#N/A</v>
@@ -6640,9 +6388,6 @@
         <v>1750.0</v>
       </c>
       <c r="X84" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y84" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6675,22 +6420,22 @@
         <v>619.0</v>
       </c>
       <c r="J85" t="n">
-        <v>-15.442307692307692</v>
+        <v>-22.871891731082858</v>
       </c>
       <c r="K85" t="n">
-        <v>0.35353535353535354</v>
+        <v>-1.7376319894136396</v>
       </c>
       <c r="L85" t="n">
-        <v>2.627450980392157</v>
+        <v>-1.0809883846983819</v>
       </c>
       <c r="M85" t="n">
-        <v>-16.255102040816325</v>
+        <v>-30.555053100150733</v>
       </c>
       <c r="N85" t="n">
-        <v>-29.716494845360824</v>
+        <v>-40.0455524527876</v>
       </c>
       <c r="O85" t="n">
-        <v>14.2</v>
+        <v>17.177426296562682</v>
       </c>
       <c r="P85" t="e">
         <v>#N/A</v>
@@ -6717,9 +6462,6 @@
         <v>1734.0</v>
       </c>
       <c r="X85" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y85" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6752,22 +6494,22 @@
         <v>-619.0</v>
       </c>
       <c r="J86" t="n">
-        <v>-10.9</v>
+        <v>-21.971840641867853</v>
       </c>
       <c r="K86" t="n">
-        <v>12.440860215053764</v>
+        <v>7.668502352495162</v>
       </c>
       <c r="L86" t="n">
-        <v>9.818181818181818</v>
+        <v>1.8345836611203499</v>
       </c>
       <c r="M86" t="n">
-        <v>-16.714285714285715</v>
+        <v>-29.04976540627185</v>
       </c>
       <c r="N86" t="n">
-        <v>-15.177631578947368</v>
+        <v>-22.20471066943743</v>
       </c>
       <c r="O86" t="n">
-        <v>7.24</v>
+        <v>8.488926996384572</v>
       </c>
       <c r="P86" t="n">
         <v>472782.0</v>
@@ -6794,9 +6536,6 @@
         <v>1735.0</v>
       </c>
       <c r="X86" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y86" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6829,22 +6568,22 @@
         <v>1943.0</v>
       </c>
       <c r="J87" t="n">
-        <v>-11.333333333333334</v>
+        <v>-22.002917212845507</v>
       </c>
       <c r="K87" t="n">
-        <v>9.953488372093023</v>
+        <v>3.6995036170321067</v>
       </c>
       <c r="L87" t="n">
-        <v>11.104166666666666</v>
+        <v>1.3316348004413745</v>
       </c>
       <c r="M87" t="n">
-        <v>-18.35164835164835</v>
+        <v>-28.956930712707486</v>
       </c>
       <c r="N87" t="n">
-        <v>-17.366197183098592</v>
+        <v>-22.524947406861198</v>
       </c>
       <c r="O87" t="n">
-        <v>4.5625</v>
+        <v>5.548317765060209</v>
       </c>
       <c r="P87" t="n">
         <v>496328.0</v>
@@ -6871,9 +6610,6 @@
         <v>1626.0</v>
       </c>
       <c r="X87" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y87" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6906,22 +6642,22 @@
         <v>463.0</v>
       </c>
       <c r="J88" t="n">
-        <v>-12.553191489361701</v>
+        <v>-20.563265264406613</v>
       </c>
       <c r="K88" t="n">
-        <v>-4.223404255319149</v>
+        <v>-9.236049957291753</v>
       </c>
       <c r="L88" t="n">
-        <v>10.844444444444445</v>
+        <v>7.910481551727252</v>
       </c>
       <c r="M88" t="n">
-        <v>-15.178947368421053</v>
+        <v>-31.55262207733978</v>
       </c>
       <c r="N88" t="n">
-        <v>-27.00515463917526</v>
+        <v>-38.814013778128974</v>
       </c>
       <c r="O88" t="n">
-        <v>11.534090909090908</v>
+        <v>14.932069099925279</v>
       </c>
       <c r="P88" t="n">
         <v>506771.0</v>
@@ -6948,9 +6684,6 @@
         <v>1525.0</v>
       </c>
       <c r="X88" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y88" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6983,22 +6716,22 @@
         <v>370.0</v>
       </c>
       <c r="J89" t="n">
-        <v>-13.457446808510639</v>
+        <v>-20.764176491798796</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.989130434782609</v>
+        <v>-7.146548753408916</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.6363636363636364</v>
+        <v>-1.2715118739178537</v>
       </c>
       <c r="M89" t="n">
-        <v>-16.03191489361702</v>
+        <v>-32.38868396514711</v>
       </c>
       <c r="N89" t="n">
-        <v>-28.153061224489797</v>
+        <v>-40.02317350969631</v>
       </c>
       <c r="O89" t="n">
-        <v>13.25</v>
+        <v>17.201509271767428</v>
       </c>
       <c r="P89" t="n">
         <v>511385.0</v>
@@ -7025,9 +6758,6 @@
         <v>1725.0</v>
       </c>
       <c r="X89" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y89" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7060,22 +6790,22 @@
         <v>670.0</v>
       </c>
       <c r="J90" t="n">
-        <v>-9.03125</v>
+        <v>-17.35429901956047</v>
       </c>
       <c r="K90" t="n">
-        <v>1.1</v>
+        <v>-2.3166364829559214</v>
       </c>
       <c r="L90" t="n">
-        <v>19.6</v>
+        <v>21.638461494812105</v>
       </c>
       <c r="M90" t="n">
-        <v>-13.96774193548387</v>
+        <v>-29.460421051090343</v>
       </c>
       <c r="N90" t="n">
-        <v>-27.882051282051282</v>
+        <v>-39.11347447815553</v>
       </c>
       <c r="O90" t="n">
-        <v>12.098901098901099</v>
+        <v>15.874204844219431</v>
       </c>
       <c r="P90" t="n">
         <v>556776.0</v>
@@ -7102,9 +6832,6 @@
         <v>1676.0</v>
       </c>
       <c r="X90" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y90" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7137,22 +6864,22 @@
         <v>690.0</v>
       </c>
       <c r="J91" t="n">
-        <v>-11.827586206896552</v>
+        <v>-19.271291499966782</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.3673469387755102</v>
+        <v>-3.836070490893699</v>
       </c>
       <c r="L91" t="n">
-        <v>21.113636363636363</v>
+        <v>18.426966002549992</v>
       </c>
       <c r="M91" t="n">
-        <v>-16.354166666666668</v>
+        <v>-32.084367280193646</v>
       </c>
       <c r="N91" t="n">
-        <v>-28.536082474226806</v>
+        <v>-40.150188011186785</v>
       </c>
       <c r="O91" t="n">
-        <v>11.88888888888889</v>
+        <v>16.046781831321617</v>
       </c>
       <c r="P91" t="n">
         <v>587313.0</v>
@@ -7179,9 +6906,6 @@
         <v>1648.0</v>
       </c>
       <c r="X91" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y91" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7214,22 +6938,22 @@
         <v>287.0</v>
       </c>
       <c r="J92" t="n">
-        <v>-16.177419354838708</v>
+        <v>-23.779161349040233</v>
       </c>
       <c r="K92" t="n">
-        <v>-3.1714285714285713</v>
+        <v>-6.156835885840242</v>
       </c>
       <c r="L92" t="n">
-        <v>5.607843137254902</v>
+        <v>-5.2675636155444</v>
       </c>
       <c r="M92" t="n">
-        <v>-17.051020408163264</v>
+        <v>-32.71687767669496</v>
       </c>
       <c r="N92" t="n">
-        <v>-28.603092783505154</v>
+        <v>-39.13123633296512</v>
       </c>
       <c r="O92" t="n">
-        <v>13.376470588235295</v>
+        <v>16.724997450679478</v>
       </c>
       <c r="P92" t="n">
         <v>609630.0</v>
@@ -7256,9 +6980,6 @@
         <v>1716.0</v>
       </c>
       <c r="X92" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y92" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7291,22 +7012,22 @@
         <v>900.0</v>
       </c>
       <c r="J93" t="n">
-        <v>-18.949152542372882</v>
+        <v>-28.10964557484328</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.171717171717172</v>
+        <v>-8.115658666760902</v>
       </c>
       <c r="L93" t="n">
-        <v>-19.682539682539684</v>
+        <v>-32.7392733731745</v>
       </c>
       <c r="M93" t="n">
-        <v>-21.42105263157895</v>
+        <v>-35.375203934783784</v>
       </c>
       <c r="N93" t="n">
-        <v>-16.25</v>
+        <v>-23.788487743373132</v>
       </c>
       <c r="O93" t="n">
-        <v>9.9</v>
+        <v>11.49051491615629</v>
       </c>
       <c r="P93" t="n">
         <v>638739.0</v>
@@ -7333,9 +7054,6 @@
         <v>1791.0</v>
       </c>
       <c r="X93" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y93" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7368,22 +7086,22 @@
         <v>491.0</v>
       </c>
       <c r="J94" t="n">
-        <v>-11.547169811320755</v>
+        <v>-21.00085660759138</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.9101123595505618</v>
+        <v>-6.578216112248927</v>
       </c>
       <c r="L94" t="n">
-        <v>12.333333333333334</v>
+        <v>4.082077113295451</v>
       </c>
       <c r="M94" t="n">
-        <v>-15.943181818181818</v>
+        <v>-32.46970439273001</v>
       </c>
       <c r="N94" t="n">
-        <v>-16.64788732394366</v>
+        <v>-21.2410245136367</v>
       </c>
       <c r="O94" t="n">
-        <v>6.408163265306122</v>
+        <v>7.489952712685437</v>
       </c>
       <c r="P94" t="n">
         <v>650355.0</v>
@@ -7410,9 +7128,6 @@
         <v>1512.0</v>
       </c>
       <c r="X94" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y94" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7445,22 +7160,22 @@
         <v>230.0</v>
       </c>
       <c r="J95" t="n">
-        <v>-8.00943396226415</v>
+        <v>-15.49067933918235</v>
       </c>
       <c r="K95" t="n">
-        <v>-2.268041237113402</v>
+        <v>-6.126164474320307</v>
       </c>
       <c r="L95" t="n">
-        <v>13.195652173913043</v>
+        <v>8.873455246646069</v>
       </c>
       <c r="M95" t="n">
-        <v>-16.189473684210526</v>
+        <v>-31.74622924822542</v>
       </c>
       <c r="N95" t="n">
-        <v>-24.927461139896373</v>
+        <v>-36.32172848075521</v>
       </c>
       <c r="O95" t="n">
-        <v>10.322222222222223</v>
+        <v>13.745810300153973</v>
       </c>
       <c r="P95" t="n">
         <v>679845.0</v>
@@ -7487,9 +7202,6 @@
         <v>1551.0</v>
       </c>
       <c r="X95" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y95" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7522,22 +7234,22 @@
         <v>307.0</v>
       </c>
       <c r="J96" t="n">
-        <v>-6.4</v>
+        <v>-13.755533024688106</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.5257731958762887</v>
+        <v>-3.350335281566885</v>
       </c>
       <c r="L96" t="n">
-        <v>22.818181818181817</v>
+        <v>17.63251274146809</v>
       </c>
       <c r="M96" t="n">
-        <v>-13.308510638297872</v>
+        <v>-29.68569177831217</v>
       </c>
       <c r="N96" t="n">
-        <v>-26.851282051282052</v>
+        <v>-37.741343385884925</v>
       </c>
       <c r="O96" t="n">
-        <v>11.043478260869565</v>
+        <v>14.641100211940689</v>
       </c>
       <c r="P96" t="n">
         <v>700146.0</v>
@@ -7564,9 +7276,6 @@
         <v>1732.0</v>
       </c>
       <c r="X96" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y96" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7599,22 +7308,22 @@
         <v>243.0</v>
       </c>
       <c r="J97" t="n">
-        <v>-4.666666666666667</v>
+        <v>-12.513539203040736</v>
       </c>
       <c r="K97" t="n">
-        <v>3.074468085106383</v>
+        <v>-0.8165524420388957</v>
       </c>
       <c r="L97" t="n">
-        <v>25.625</v>
+        <v>27.24658808850452</v>
       </c>
       <c r="M97" t="n">
-        <v>-10.1875</v>
+        <v>-26.46137040082753</v>
       </c>
       <c r="N97" t="n">
-        <v>-26.907692307692308</v>
+        <v>-37.7208447067504</v>
       </c>
       <c r="O97" t="n">
-        <v>10.806451612903226</v>
+        <v>14.346265922429213</v>
       </c>
       <c r="P97" t="n">
         <v>720928.0</v>
@@ -7641,9 +7350,6 @@
         <v>1791.0</v>
       </c>
       <c r="X97" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y97" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7676,22 +7382,22 @@
         <v>3.0</v>
       </c>
       <c r="J98" t="n">
-        <v>-6.478260869565218</v>
+        <v>-13.716417665960302</v>
       </c>
       <c r="K98" t="n">
-        <v>3.9693877551020407</v>
+        <v>-0.598156089670828</v>
       </c>
       <c r="L98" t="n">
-        <v>29.05</v>
+        <v>22.02249074177987</v>
       </c>
       <c r="M98" t="n">
-        <v>-9.505263157894737</v>
+        <v>-27.430753972245842</v>
       </c>
       <c r="N98" t="n">
-        <v>-27.630769230769232</v>
+        <v>-38.45887095784217</v>
       </c>
       <c r="O98" t="n">
-        <v>10.736263736263735</v>
+        <v>14.570941782274552</v>
       </c>
       <c r="P98" t="n">
         <v>740181.0</v>
@@ -7718,9 +7424,6 @@
         <v>1680.0</v>
       </c>
       <c r="X98" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y98" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7753,22 +7456,22 @@
         <v>284.0</v>
       </c>
       <c r="J99" t="n">
-        <v>-8.298387096774194</v>
+        <v>-16.510298238065992</v>
       </c>
       <c r="K99" t="n">
-        <v>4.778846153846154</v>
+        <v>0.5450781955921529</v>
       </c>
       <c r="L99" t="n">
-        <v>24.425531914893618</v>
+        <v>12.680196803170674</v>
       </c>
       <c r="M99" t="n">
-        <v>-5.9375</v>
+        <v>-24.844008148582972</v>
       </c>
       <c r="N99" t="n">
-        <v>-28.27979274611399</v>
+        <v>-37.522051604728226</v>
       </c>
       <c r="O99" t="n">
-        <v>11.117647058823529</v>
+        <v>14.125777080893064</v>
       </c>
       <c r="P99" t="n">
         <v>762706.0</v>
@@ -7795,9 +7498,6 @@
         <v>1578.0</v>
       </c>
       <c r="X99" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y99" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7830,22 +7530,22 @@
         <v>309.0</v>
       </c>
       <c r="J100" t="n">
-        <v>-10.635593220338983</v>
+        <v>-21.21107880810115</v>
       </c>
       <c r="K100" t="n">
-        <v>6.3578947368421055</v>
+        <v>-0.5142363528659836</v>
       </c>
       <c r="L100" t="n">
-        <v>23.647058823529413</v>
+        <v>6.651258826069378</v>
       </c>
       <c r="M100" t="n">
-        <v>-9.933333333333334</v>
+        <v>-26.248098987689488</v>
       </c>
       <c r="N100" t="n">
-        <v>-13.3841059602649</v>
+        <v>-18.31558027036184</v>
       </c>
       <c r="O100" t="n">
-        <v>5.78</v>
+        <v>6.800538902448421</v>
       </c>
       <c r="P100" t="e">
         <v>#N/A</v>
@@ -7872,9 +7572,6 @@
         <v>1688.0</v>
       </c>
       <c r="X100" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y100" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7907,22 +7604,22 @@
         <v>326.0</v>
       </c>
       <c r="J101" t="n">
-        <v>-11.142857142857142</v>
+        <v>-21.63646355095128</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.3370786516853932</v>
+        <v>-8.23183425377429</v>
       </c>
       <c r="L101" t="n">
-        <v>9.173913043478262</v>
+        <v>-9.702594729763845</v>
       </c>
       <c r="M101" t="n">
-        <v>-16.238636363636363</v>
+        <v>-32.602467718168974</v>
       </c>
       <c r="N101" t="n">
-        <v>-17.305555555555557</v>
+        <v>-21.321794588103376</v>
       </c>
       <c r="O101" t="n">
-        <v>5.510204081632653</v>
+        <v>6.610681369420994</v>
       </c>
       <c r="P101" t="n">
         <v>805654.0</v>
@@ -7949,9 +7646,6 @@
         <v>1572.0</v>
       </c>
       <c r="X101" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y101" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7984,22 +7678,22 @@
         <v>119.0</v>
       </c>
       <c r="J102" t="n">
-        <v>-16.623853211009173</v>
+        <v>-20.872447859122158</v>
       </c>
       <c r="K102" t="n">
-        <v>-8.061855670103093</v>
+        <v>-9.802793358081178</v>
       </c>
       <c r="L102" t="n">
-        <v>4.431818181818182</v>
+        <v>-4.113074583550441</v>
       </c>
       <c r="M102" t="n">
-        <v>-21.45744680851064</v>
+        <v>-41.72447235101192</v>
       </c>
       <c r="N102" t="n">
-        <v>-61.63636363636363</v>
+        <v>-68.41617409562119</v>
       </c>
       <c r="O102" t="n">
-        <v>20.451612903225808</v>
+        <v>22.378745271150084</v>
       </c>
       <c r="P102" t="n">
         <v>821233.0</v>
@@ -8026,9 +7720,6 @@
         <v>1511.0</v>
       </c>
       <c r="X102" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y102" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8061,22 +7752,22 @@
         <v>-262.0</v>
       </c>
       <c r="J103" t="n">
-        <v>-7.490909090909091</v>
+        <v>-13.783941823502554</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.7448979591836735</v>
+        <v>-3.0151738886799357</v>
       </c>
       <c r="L103" t="n">
-        <v>15.456521739130435</v>
+        <v>15.23173734624473</v>
       </c>
       <c r="M103" t="n">
-        <v>-14.774193548387096</v>
+        <v>-27.548627766007048</v>
       </c>
       <c r="N103" t="n">
-        <v>-26.148717948717948</v>
+        <v>-36.93247359893439</v>
       </c>
       <c r="O103" t="n">
-        <v>10.978494623655914</v>
+        <v>14.503417400775513</v>
       </c>
       <c r="P103" t="n">
         <v>855674.0</v>
@@ -8103,9 +7794,6 @@
         <v>1534.0</v>
       </c>
       <c r="X103" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y103" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8138,22 +7826,22 @@
         <v>213.0</v>
       </c>
       <c r="J104" t="n">
-        <v>-5.693693693693693</v>
+        <v>-12.816369689512204</v>
       </c>
       <c r="K104" t="n">
-        <v>0.6736842105263158</v>
+        <v>-3.05292172786416</v>
       </c>
       <c r="L104" t="n">
-        <v>25.71794871794872</v>
+        <v>19.474769261363974</v>
       </c>
       <c r="M104" t="n">
-        <v>-10.46875</v>
+        <v>-26.02242686442258</v>
       </c>
       <c r="N104" t="n">
-        <v>-25.338461538461537</v>
+        <v>-35.74864893249517</v>
       </c>
       <c r="O104" t="n">
-        <v>10.505376344086022</v>
+        <v>14.003606307913111</v>
       </c>
       <c r="P104" t="n">
         <v>873218.0</v>
@@ -8180,9 +7868,6 @@
         <v>1645.0</v>
       </c>
       <c r="X104" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y104" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8215,22 +7900,22 @@
         <v>866.0</v>
       </c>
       <c r="J105" t="n">
-        <v>-5.991228070175438</v>
+        <v>-12.299071609387369</v>
       </c>
       <c r="K105" t="n">
-        <v>1.404040404040404</v>
+        <v>-1.892964464423665</v>
       </c>
       <c r="L105" t="n">
-        <v>21.904761904761905</v>
+        <v>21.0677850831587</v>
       </c>
       <c r="M105" t="n">
-        <v>-9.697916666666666</v>
+        <v>-27.206085065996227</v>
       </c>
       <c r="N105" t="n">
-        <v>-25.81958762886598</v>
+        <v>-36.260408619752596</v>
       </c>
       <c r="O105" t="n">
-        <v>10.402173913043478</v>
+        <v>14.102579702653616</v>
       </c>
       <c r="P105" t="n">
         <v>893275.0</v>
@@ -8257,9 +7942,6 @@
         <v>1692.0</v>
       </c>
       <c r="X105" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y105" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8292,22 +7974,22 @@
         <v>95.0</v>
       </c>
       <c r="J106" t="n">
-        <v>-7.57258064516129</v>
+        <v>-14.811489193956819</v>
       </c>
       <c r="K106" t="n">
-        <v>1.5714285714285714</v>
+        <v>-1.2395475279742758</v>
       </c>
       <c r="L106" t="n">
-        <v>24.822222222222223</v>
+        <v>18.88841662579919</v>
       </c>
       <c r="M106" t="n">
-        <v>-7.873684210526315</v>
+        <v>-24.38983288158694</v>
       </c>
       <c r="N106" t="n">
-        <v>-25.17098445595855</v>
+        <v>-34.35404327139602</v>
       </c>
       <c r="O106" t="n">
-        <v>10.269662921348315</v>
+        <v>13.282326901634457</v>
       </c>
       <c r="P106" t="n">
         <v>928517.0</v>
@@ -8334,9 +8016,6 @@
         <v>1701.0</v>
       </c>
       <c r="X106" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y106" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8369,22 +8048,22 @@
         <v>518.0</v>
       </c>
       <c r="J107" t="n">
-        <v>-7.495726495726496</v>
+        <v>-17.946101754468707</v>
       </c>
       <c r="K107" t="n">
-        <v>3.536082474226804</v>
+        <v>-1.6683027039067515</v>
       </c>
       <c r="L107" t="n">
-        <v>27.34</v>
+        <v>14.79054536975409</v>
       </c>
       <c r="M107" t="n">
-        <v>-6.648351648351649</v>
+        <v>-23.247871715584502</v>
       </c>
       <c r="N107" t="n">
-        <v>-5.489932885906041</v>
+        <v>-9.792098354547079</v>
       </c>
       <c r="O107" t="n">
-        <v>4.576923076923077</v>
+        <v>5.917609045295516</v>
       </c>
       <c r="P107" t="n">
         <v>951865.0</v>
@@ -8411,9 +8090,6 @@
         <v>1752.0</v>
       </c>
       <c r="X107" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y107" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8446,22 +8122,22 @@
         <v>1473.0</v>
       </c>
       <c r="J108" t="n">
-        <v>-6.365384615384615</v>
+        <v>-17.512933746410006</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.8222222222222222</v>
+        <v>-6.944074223038584</v>
       </c>
       <c r="L108" t="n">
-        <v>12.304347826086957</v>
+        <v>-0.9213963966835306</v>
       </c>
       <c r="M108" t="n">
-        <v>-7.093023255813954</v>
+        <v>-26.255159986530153</v>
       </c>
       <c r="N108" t="n">
-        <v>-10.804195804195805</v>
+        <v>-13.514419486330155</v>
       </c>
       <c r="O108" t="n">
-        <v>4.7</v>
+        <v>6.0628090931287675</v>
       </c>
       <c r="P108" t="n">
         <v>970031.0</v>
@@ -8488,9 +8164,6 @@
         <v>1684.0</v>
       </c>
       <c r="X108" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y108" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8523,22 +8196,22 @@
         <v>-325.0</v>
       </c>
       <c r="J109" t="n">
-        <v>-3.97196261682243</v>
+        <v>-10.913929340906874</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.5208333333333334</v>
+        <v>-3.066903187464077</v>
       </c>
       <c r="L109" t="n">
-        <v>11.363636363636363</v>
+        <v>7.328559194065444</v>
       </c>
       <c r="M109" t="n">
-        <v>-11.172043010752688</v>
+        <v>-27.081458442412362</v>
       </c>
       <c r="N109" t="n">
-        <v>-24.135416666666668</v>
+        <v>-34.16401825642991</v>
       </c>
       <c r="O109" t="n">
-        <v>9.043956043956044</v>
+        <v>12.182360861822374</v>
       </c>
       <c r="P109" t="n">
         <v>986224.0</v>
@@ -8565,9 +8238,6 @@
         <v>1756.0</v>
       </c>
       <c r="X109" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y109" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8600,22 +8270,22 @@
         <v>623.0</v>
       </c>
       <c r="J110" t="n">
-        <v>-2.6785714285714284</v>
+        <v>-9.845615086652296</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7083333333333334</v>
+        <v>-0.9282662084011286</v>
       </c>
       <c r="L110" t="n">
-        <v>25.477272727272727</v>
+        <v>25.717215551158983</v>
       </c>
       <c r="M110" t="n">
-        <v>-10.333333333333334</v>
+        <v>-25.528732227037104</v>
       </c>
       <c r="N110" t="n">
-        <v>-25.448979591836736</v>
+        <v>-35.61600204618232</v>
       </c>
       <c r="O110" t="n">
-        <v>9.720430107526882</v>
+        <v>13.320375602049594</v>
       </c>
       <c r="P110" t="n">
         <v>1006768.0</v>
@@ -8642,9 +8312,6 @@
         <v>1773.0</v>
       </c>
       <c r="X110" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y110" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8677,22 +8344,22 @@
         <v>289.0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.22321428571428573</v>
+        <v>-8.30255283709351</v>
       </c>
       <c r="K111" t="n">
-        <v>5.4</v>
+        <v>2.3557395975730118</v>
       </c>
       <c r="L111" t="n">
-        <v>26.605263157894736</v>
+        <v>23.850489677761065</v>
       </c>
       <c r="M111" t="n">
-        <v>-6.53125</v>
+        <v>-23.958273701207546</v>
       </c>
       <c r="N111" t="n">
-        <v>-25.174358974358974</v>
+        <v>-35.04966360186755</v>
       </c>
       <c r="O111" t="n">
-        <v>9.042553191489361</v>
+        <v>12.664057371391712</v>
       </c>
       <c r="P111" t="n">
         <v>1038555.0</v>
@@ -8719,9 +8386,6 @@
         <v>1799.0</v>
       </c>
       <c r="X111" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y111" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8754,22 +8418,22 @@
         <v>-613.0</v>
       </c>
       <c r="J112" t="n">
-        <v>-2.786324786324786</v>
+        <v>-10.091901077807078</v>
       </c>
       <c r="K112" t="n">
-        <v>3.9591836734693877</v>
+        <v>0.3921863559923123</v>
       </c>
       <c r="L112" t="n">
-        <v>36.048780487804876</v>
+        <v>27.48217895067236</v>
       </c>
       <c r="M112" t="n">
-        <v>-7.840425531914893</v>
+        <v>-24.961076505068018</v>
       </c>
       <c r="N112" t="n">
-        <v>-25.73846153846154</v>
+        <v>-36.071447866668734</v>
       </c>
       <c r="O112" t="n">
-        <v>9.021739130434783</v>
+        <v>12.643208759812254</v>
       </c>
       <c r="P112" t="n">
         <v>1061576.0</v>
@@ -8796,9 +8460,6 @@
         <v>1796.0</v>
       </c>
       <c r="X112" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y112" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8831,22 +8492,22 @@
         <v>499.0</v>
       </c>
       <c r="J113" t="n">
-        <v>-6.408</v>
+        <v>-13.364440130510637</v>
       </c>
       <c r="K113" t="n">
-        <v>3.066666666666667</v>
+        <v>0.013688332067271549</v>
       </c>
       <c r="L113" t="n">
-        <v>26.77777777777778</v>
+        <v>15.38534254873726</v>
       </c>
       <c r="M113" t="n">
-        <v>-6.968421052631579</v>
+        <v>-23.56417642858159</v>
       </c>
       <c r="N113" t="n">
-        <v>-26.922279792746114</v>
+        <v>-35.195850302621324</v>
       </c>
       <c r="O113" t="n">
-        <v>9.425287356321839</v>
+        <v>12.295312141400974</v>
       </c>
       <c r="P113" t="n">
         <v>1093277.0</v>
@@ -8873,9 +8534,6 @@
         <v>1855.0</v>
       </c>
       <c r="X113" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y113" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8908,22 +8566,22 @@
         <v>1017.0</v>
       </c>
       <c r="J114" t="n">
-        <v>-6.73109243697479</v>
+        <v>-16.652986223294985</v>
       </c>
       <c r="K114" t="n">
-        <v>4.927083333333333</v>
+        <v>-0.5813108799854361</v>
       </c>
       <c r="L114" t="n">
-        <v>30.282608695652176</v>
+        <v>10.80190824767451</v>
       </c>
       <c r="M114" t="n">
-        <v>-7.760869565217392</v>
+        <v>-23.49177877267289</v>
       </c>
       <c r="N114" t="n">
-        <v>-9.261744966442953</v>
+        <v>-12.929046640164838</v>
       </c>
       <c r="O114" t="n">
-        <v>3.9607843137254903</v>
+        <v>5.22377985468107</v>
       </c>
       <c r="P114" t="n">
         <v>1092012.0</v>
@@ -8950,9 +8608,6 @@
         <v>1822.0</v>
       </c>
       <c r="X114" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y114" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8985,22 +8640,22 @@
         <v>764.0</v>
       </c>
       <c r="J115" t="n">
-        <v>-3.780952380952381</v>
+        <v>-13.690776147655008</v>
       </c>
       <c r="K115" t="n">
-        <v>2.1931818181818183</v>
+        <v>-4.3702728598012754</v>
       </c>
       <c r="L115" t="n">
-        <v>19.304347826086957</v>
+        <v>6.3261264036266045</v>
       </c>
       <c r="M115" t="n">
-        <v>-5.267441860465116</v>
+        <v>-25.591987886243167</v>
       </c>
       <c r="N115" t="n">
-        <v>-12.147887323943662</v>
+        <v>-14.731494000428578</v>
       </c>
       <c r="O115" t="n">
-        <v>3.92</v>
+        <v>4.856051958746424</v>
       </c>
       <c r="P115" t="n">
         <v>1120316.0</v>
@@ -9027,9 +8682,6 @@
         <v>1878.0</v>
       </c>
       <c r="X115" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y115" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9061,23 +8713,23 @@
       <c r="I116" t="n">
         <v>-145.0</v>
       </c>
-      <c r="J116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O116" t="e">
-        <v>#N/A</v>
+      <c r="J116" t="n">
+        <v>-11.546423870871921</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-4.8553075755377515</v>
+      </c>
+      <c r="L116" t="n">
+        <v>8.511926631106272</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-26.786234784483096</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-34.01998646558234</v>
+      </c>
+      <c r="O116" t="n">
+        <v>11.712283382656496</v>
       </c>
       <c r="P116" t="n">
         <v>1147355.0</v>
@@ -9104,9 +8756,6 @@
         <v>1935.0</v>
       </c>
       <c r="X116" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y116" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9138,23 +8787,23 @@
       <c r="I117" t="n">
         <v>551.0</v>
       </c>
-      <c r="J117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O117" t="e">
-        <v>#N/A</v>
+      <c r="J117" t="n">
+        <v>-10.34960962705264</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-2.564405020512204</v>
+      </c>
+      <c r="L117" t="n">
+        <v>19.358393745758253</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-25.85354113362827</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-35.2530166203491</v>
+      </c>
+      <c r="O117" t="n">
+        <v>12.786831655370257</v>
       </c>
       <c r="P117" t="n">
         <v>1161087.0</v>
@@ -9181,9 +8830,6 @@
         <v>2056.0</v>
       </c>
       <c r="X117" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y117" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9215,23 +8861,23 @@
       <c r="I118" t="n">
         <v>967.0</v>
       </c>
-      <c r="J118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O118" t="e">
-        <v>#N/A</v>
+      <c r="J118" t="n">
+        <v>-7.579294718748379</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.2734617810473217</v>
+      </c>
+      <c r="L118" t="n">
+        <v>37.833950277213</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-22.592062174511856</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-34.608247174114275</v>
+      </c>
+      <c r="O118" t="n">
+        <v>11.884377909504853</v>
       </c>
       <c r="P118" t="n">
         <v>1206320.0</v>
@@ -9258,9 +8904,6 @@
         <v>2153.0</v>
       </c>
       <c r="X118" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y118" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9292,23 +8935,23 @@
       <c r="I119" t="n">
         <v>-55.0</v>
       </c>
-      <c r="J119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O119" t="e">
-        <v>#N/A</v>
+      <c r="J119" t="n">
+        <v>-9.343598795666393</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-0.026106612936438935</v>
+      </c>
+      <c r="L119" t="n">
+        <v>35.67389009080178</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-23.50433733969547</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-35.51714648288465</v>
+      </c>
+      <c r="O119" t="n">
+        <v>12.039318364800879</v>
       </c>
       <c r="P119" t="n">
         <v>1226957.0</v>
@@ -9335,9 +8978,6 @@
         <v>2008.0</v>
       </c>
       <c r="X119" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y119" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9369,23 +9009,23 @@
       <c r="I120" t="n">
         <v>820.0</v>
       </c>
-      <c r="J120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O120" t="e">
-        <v>#N/A</v>
+      <c r="J120" t="n">
+        <v>-12.53716203271492</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-0.1651140863662078</v>
+      </c>
+      <c r="L120" t="n">
+        <v>23.189724584493955</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-21.244300938861674</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-35.09814326486907</v>
+      </c>
+      <c r="O120" t="n">
+        <v>11.588076783767725</v>
       </c>
       <c r="P120" t="n">
         <v>1260319.0</v>
@@ -9412,9 +9052,6 @@
         <v>2166.0</v>
       </c>
       <c r="X120" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y120" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9489,9 +9126,6 @@
         <v>2242.0</v>
       </c>
       <c r="X121" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y121" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9566,9 +9200,6 @@
         <v>2287.0</v>
       </c>
       <c r="X122" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y122" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9588,17 +9219,17 @@
       <c r="E123" t="n">
         <v>7.0</v>
       </c>
-      <c r="F123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
-        <v>#N/A</v>
+      <c r="F123" t="n">
+        <v>1135749.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>23072.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>36622.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>316.0</v>
       </c>
       <c r="J123" t="e">
         <v>#N/A</v>
@@ -9618,34 +9249,105 @@
       <c r="O123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V123" t="e">
-        <v>#N/A</v>
+      <c r="P123" t="n">
+        <v>1348442.0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>150573.0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1499015.0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.0670953368442515</v>
+      </c>
+      <c r="T123" t="n">
+        <v>28727.0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1684.0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>30411.0</v>
       </c>
       <c r="W123" t="n">
         <v>2326.0</v>
       </c>
       <c r="X123" t="n">
-        <v>2.8701845E7</v>
-      </c>
-      <c r="Y123" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="2">
+        <v>43998.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>93206.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4098.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2029.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W124" t="n">
+        <v>2518.0</v>
+      </c>
+      <c r="X124" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9664,69 +9366,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>28036.0</v>
+        <v>30496.0</v>
       </c>
       <c r="C2" t="n">
-        <v>62621.0</v>
+        <v>64302.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1436394.0</v>
+        <v>1458132.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6135.0</v>
+        <v>6189.0</v>
       </c>
       <c r="F2" t="n">
-        <v>51365.0</v>
+        <v>54844.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14525.0</v>
+        <v>14993.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1626.0</v>
+        <v>1675.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5626.0</v>
+        <v>5869.0</v>
       </c>
       <c r="J2" t="n">
-        <v>15682.0</v>
+        <v>15691.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>60681</t>
+    <t>62368</t>
   </si>
 </sst>
 </file>
@@ -9293,17 +9293,17 @@
       <c r="E124" t="n">
         <v>46.0</v>
       </c>
-      <c r="F124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
-        <v>#N/A</v>
+      <c r="F124" t="n">
+        <v>1169385.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>33636.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>38656.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2034.0</v>
       </c>
       <c r="J124" t="e">
         <v>#N/A</v>
@@ -9323,31 +9323,105 @@
       <c r="O124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V124" t="e">
-        <v>#N/A</v>
+      <c r="P124" t="n">
+        <v>1369638.0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>152796.0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1522434.0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.06941707304208562</v>
+      </c>
+      <c r="T124" t="n">
+        <v>29793.0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1691.0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>31484.0</v>
       </c>
       <c r="W124" t="n">
         <v>2518.0</v>
       </c>
       <c r="X124" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="2">
+        <v>43999.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>96335.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3129.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2062.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W125" t="n">
+        <v>2793.0</v>
+      </c>
+      <c r="X125" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9404,31 +9478,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>30496.0</v>
+        <v>31905.0</v>
       </c>
       <c r="C2" t="n">
-        <v>64302.0</v>
+        <v>65565.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1458132.0</v>
+        <v>1494972.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6189.0</v>
+        <v>6258.0</v>
       </c>
       <c r="F2" t="n">
-        <v>54844.0</v>
+        <v>56194.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14993.0</v>
+        <v>13815.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1675.0</v>
+        <v>1473.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5869.0</v>
+        <v>5844.0</v>
       </c>
       <c r="J2" t="n">
-        <v>15691.0</v>
+        <v>18346.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>62368</t>
+    <t>63812</t>
   </si>
 </sst>
 </file>
@@ -9083,23 +9083,23 @@
       <c r="I121" t="n">
         <v>1239.0</v>
       </c>
-      <c r="J121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O121" t="e">
-        <v>#N/A</v>
+      <c r="J121" t="n">
+        <v>-15.672683604693106</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.421076474005253</v>
+      </c>
+      <c r="L121" t="n">
+        <v>19.372349146906735</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-19.906319427091965</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-10.97110343101302</v>
+      </c>
+      <c r="O121" t="n">
+        <v>4.755454795034428</v>
       </c>
       <c r="P121" t="n">
         <v>1295983.0</v>
@@ -9157,23 +9157,23 @@
       <c r="I122" t="n">
         <v>608.0</v>
       </c>
-      <c r="J122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O122" t="e">
-        <v>#N/A</v>
+      <c r="J122" t="n">
+        <v>-13.06955570455463</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-4.609228970699087</v>
+      </c>
+      <c r="L122" t="n">
+        <v>13.232278704384578</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-21.838632769916664</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-13.215736824038137</v>
+      </c>
+      <c r="O122" t="n">
+        <v>4.21308858248162</v>
       </c>
       <c r="P122" t="n">
         <v>1314761.0</v>
@@ -9367,17 +9367,17 @@
       <c r="E125" t="n">
         <v>33.0</v>
       </c>
-      <c r="F125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
-        <v>#N/A</v>
+      <c r="F125" t="n">
+        <v>1187367.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>17982.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>40152.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1496.0</v>
       </c>
       <c r="J125" t="e">
         <v>#N/A</v>
@@ -9397,31 +9397,105 @@
       <c r="O125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V125" t="e">
-        <v>#N/A</v>
+      <c r="P125" t="n">
+        <v>1407741.0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>152796.0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1560537.0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.0749772863802682</v>
+      </c>
+      <c r="T125" t="n">
+        <v>28774.0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1460.0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>30235.0</v>
       </c>
       <c r="W125" t="n">
         <v>2793.0</v>
       </c>
       <c r="X125" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="2">
+        <v>44000.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>99851.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3516.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2105.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W126" t="n">
+        <v>2947.0</v>
+      </c>
+      <c r="X126" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9478,31 +9552,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>31905.0</v>
+        <v>33934.0</v>
       </c>
       <c r="C2" t="n">
-        <v>65565.0</v>
+        <v>67518.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1494972.0</v>
+        <v>1509407.0</v>
       </c>
       <c r="E2" t="n">
         <v>6258.0</v>
       </c>
       <c r="F2" t="n">
-        <v>56194.0</v>
+        <v>57513.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13815.0</v>
+        <v>13472.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1473.0</v>
+        <v>1453.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5844.0</v>
+        <v>5834.0</v>
       </c>
       <c r="J2" t="n">
-        <v>18346.0</v>
+        <v>18763.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>63812</t>
+    <t>65329</t>
   </si>
 </sst>
 </file>
@@ -9441,17 +9441,17 @@
       <c r="E126" t="n">
         <v>43.0</v>
       </c>
-      <c r="F126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I126" t="e">
-        <v>#N/A</v>
+      <c r="F126" t="n">
+        <v>1212302.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>24935.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>42136.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1984.0</v>
       </c>
       <c r="J126" t="e">
         <v>#N/A</v>
@@ -9471,31 +9471,105 @@
       <c r="O126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V126" t="e">
-        <v>#N/A</v>
+      <c r="P126" t="n">
+        <v>1423914.0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>153011.0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1576925.0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.08525718811720324</v>
+      </c>
+      <c r="T126" t="n">
+        <v>28137.0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1405.0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>29542.0</v>
       </c>
       <c r="W126" t="n">
         <v>2947.0</v>
       </c>
       <c r="X126" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="2">
+        <v>44001.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>103305.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3454.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2140.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W127" t="n">
+        <v>3148.0</v>
+      </c>
+      <c r="X127" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9552,31 +9626,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>33934.0</v>
+        <v>35836.0</v>
       </c>
       <c r="C2" t="n">
-        <v>67518.0</v>
+        <v>69042.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1509407.0</v>
+        <v>1553809.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6258.0</v>
+        <v>6262.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57513.0</v>
+        <v>59823.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13472.0</v>
+        <v>13591.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1453.0</v>
+        <v>1443.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5834.0</v>
+        <v>5835.0</v>
       </c>
       <c r="J2" t="n">
-        <v>18763.0</v>
+        <v>19052.0</v>
       </c>
       <c r="K2" t="n">
         <v>664.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>65329</t>
+    <t>67096</t>
   </si>
 </sst>
 </file>
@@ -9515,17 +9515,17 @@
       <c r="E127" t="n">
         <v>35.0</v>
       </c>
-      <c r="F127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I127" t="e">
-        <v>#N/A</v>
+      <c r="F127" t="n">
+        <v>1249858.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>37556.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>43807.0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1671.0</v>
       </c>
       <c r="J127" t="e">
         <v>#N/A</v>
@@ -9545,31 +9545,105 @@
       <c r="O127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V127" t="e">
-        <v>#N/A</v>
+      <c r="P127" t="n">
+        <v>1463398.0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>159453.0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1622851.0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.08936916175478508</v>
+      </c>
+      <c r="T127" t="n">
+        <v>29011.0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>31212.0</v>
       </c>
       <c r="W127" t="n">
         <v>3148.0</v>
       </c>
       <c r="X127" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="2">
+        <v>44002.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>107735.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4430.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2165.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W128" t="n">
+        <v>3247.0</v>
+      </c>
+      <c r="X128" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9626,34 +9700,34 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>35836.0</v>
+        <v>38474.0</v>
       </c>
       <c r="C2" t="n">
-        <v>69042.0</v>
+        <v>71577.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1553809.0</v>
+        <v>1618547.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6262.0</v>
+        <v>6431.0</v>
       </c>
       <c r="F2" t="n">
-        <v>59823.0</v>
+        <v>57994.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13591.0</v>
+        <v>13701.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1443.0</v>
+        <v>1449.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5835.0</v>
+        <v>5924.0</v>
       </c>
       <c r="J2" t="n">
-        <v>19052.0</v>
+        <v>19339.0</v>
       </c>
       <c r="K2" t="n">
-        <v>664.0</v>
+        <v>662.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>67096</t>
+    <t>68499</t>
   </si>
 </sst>
 </file>
@@ -9589,17 +9589,17 @@
       <c r="E128" t="n">
         <v>25.0</v>
       </c>
-      <c r="F128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I128" t="e">
-        <v>#N/A</v>
+      <c r="F128" t="n">
+        <v>1286735.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>36877.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>46775.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2968.0</v>
       </c>
       <c r="J128" t="e">
         <v>#N/A</v>
@@ -9619,31 +9619,105 @@
       <c r="O128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V128" t="e">
-        <v>#N/A</v>
+      <c r="P128" t="n">
+        <v>1526180.0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>163944.0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1690124.0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.08795944343323328</v>
+      </c>
+      <c r="T128" t="n">
+        <v>32885.0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2425.0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>35311.0</v>
       </c>
       <c r="W128" t="n">
         <v>3247.0</v>
       </c>
       <c r="X128" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="2">
+        <v>44003.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>111601.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3866.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2182.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W129" t="n">
+        <v>3409.0</v>
+      </c>
+      <c r="X129" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9700,31 +9774,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>38474.0</v>
+        <v>40920.0</v>
       </c>
       <c r="C2" t="n">
-        <v>71577.0</v>
+        <v>73876.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1618547.0</v>
+        <v>1641301.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6431.0</v>
+        <v>6493.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57994.0</v>
+        <v>57131.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13701.0</v>
+        <v>14316.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1449.0</v>
+        <v>1493.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5924.0</v>
+        <v>5890.0</v>
       </c>
       <c r="J2" t="n">
-        <v>19339.0</v>
+        <v>19490.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>68499</t>
+    <t>69190</t>
   </si>
 </sst>
 </file>
@@ -9663,17 +9663,17 @@
       <c r="E129" t="n">
         <v>17.0</v>
       </c>
-      <c r="F129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I129" t="e">
-        <v>#N/A</v>
+      <c r="F129" t="n">
+        <v>1313265.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>26530.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>49601.0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2826.0</v>
       </c>
       <c r="J129" t="e">
         <v>#N/A</v>
@@ -9693,31 +9693,105 @@
       <c r="O129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W129" t="n">
-        <v>3409.0</v>
+      <c r="P129" t="n">
+        <v>1549009.0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>166168.0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1715177.0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.0951</v>
+      </c>
+      <c r="T129" t="n">
+        <v>33464.0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2440.0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>35904.0</v>
+      </c>
+      <c r="W129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X129" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="2">
+        <v>44004.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>114881.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3280.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2192.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X130" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9774,31 +9848,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>40920.0</v>
+        <v>43499.0</v>
       </c>
       <c r="C2" t="n">
-        <v>73876.0</v>
+        <v>74725.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1641301.0</v>
+        <v>1692976.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6493.0</v>
+        <v>6527.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57131.0</v>
+        <v>55304.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14316.0</v>
+        <v>14697.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1493.0</v>
+        <v>1517.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5890.0</v>
+        <v>5818.0</v>
       </c>
       <c r="J2" t="n">
-        <v>19490.0</v>
+        <v>19628.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>69190</t>
+    <t>70714</t>
   </si>
 </sst>
 </file>
@@ -8297,7 +8297,7 @@
         <v>1117274.0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.06623691212093134</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T110" t="n">
         <v>21585.0</v>
@@ -8371,7 +8371,7 @@
         <v>1150868.0</v>
       </c>
       <c r="S111" t="n">
-        <v>0.06259941815806504</v>
+        <v>0.06259941815807</v>
       </c>
       <c r="T111" t="n">
         <v>23620.0</v>
@@ -8445,7 +8445,7 @@
         <v>1174948.0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.060272963321667726</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T112" t="n">
         <v>24043.0</v>
@@ -8519,7 +8519,7 @@
         <v>1209187.0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.06437848992473902</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T113" t="n">
         <v>23537.0</v>
@@ -8593,7 +8593,7 @@
         <v>1218955.0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.0800231185826311</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T114" t="n">
         <v>20021.0</v>
@@ -8667,7 +8667,7 @@
         <v>1255899.0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.07113817080879661</v>
+        <v>0.0711381708088</v>
       </c>
       <c r="T115" t="n">
         <v>21469.0</v>
@@ -8741,7 +8741,7 @@
         <v>1286139.0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.06662901614214521</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T116" t="n">
         <v>23019.0</v>
@@ -8815,7 +8815,7 @@
         <v>1302049.0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.06923969180723048</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T117" t="n">
         <v>22046.0</v>
@@ -8889,7 +8889,7 @@
         <v>1348893.0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.06846481685691294</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T118" t="n">
         <v>23966.0</v>
@@ -8963,7 +8963,7 @@
         <v>1370131.0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.07052200676014778</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T119" t="n">
         <v>23626.0</v>
@@ -9037,7 +9037,7 @@
         <v>1404369.0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.07223931705798542</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T120" t="n">
         <v>23863.0</v>
@@ -9111,7 +9111,7 @@
         <v>1442950.0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.06107731000975629</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T121" t="n">
         <v>29139.0</v>
@@ -9185,7 +9185,7 @@
         <v>1463851.0</v>
       </c>
       <c r="S122" t="n">
-        <v>0.06621923937360179</v>
+        <v>0.0662192393736</v>
       </c>
       <c r="T122" t="n">
         <v>27778.0</v>
@@ -9231,23 +9231,23 @@
       <c r="I123" t="n">
         <v>316.0</v>
       </c>
-      <c r="J123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O123" t="e">
-        <v>#N/A</v>
+      <c r="J123" t="n">
+        <v>-10.814664941561183</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-4.041195422888526</v>
+      </c>
+      <c r="L123" t="n">
+        <v>17.120939285227706</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-24.25937542267208</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-34.44559640614726</v>
+      </c>
+      <c r="O123" t="n">
+        <v>11.261193973302856</v>
       </c>
       <c r="P123" t="n">
         <v>1348442.0</v>
@@ -9259,7 +9259,7 @@
         <v>1499015.0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.0670953368442515</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T123" t="n">
         <v>28727.0</v>
@@ -9305,23 +9305,23 @@
       <c r="I124" t="n">
         <v>2034.0</v>
       </c>
-      <c r="J124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O124" t="e">
-        <v>#N/A</v>
+      <c r="J124" t="n">
+        <v>-9.723837351347154</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-1.339307696539772</v>
+      </c>
+      <c r="L124" t="n">
+        <v>32.8603614812794</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-23.342471103958694</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-35.652111610511476</v>
+      </c>
+      <c r="O124" t="n">
+        <v>12.332933863223612</v>
       </c>
       <c r="P124" t="n">
         <v>1369638.0</v>
@@ -9333,7 +9333,7 @@
         <v>1522434.0</v>
       </c>
       <c r="S124" t="n">
-        <v>0.06941707304208562</v>
+        <v>0.06941707304209</v>
       </c>
       <c r="T124" t="n">
         <v>29793.0</v>
@@ -9379,23 +9379,23 @@
       <c r="I125" t="n">
         <v>1496.0</v>
       </c>
-      <c r="J125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O125" t="e">
-        <v>#N/A</v>
+      <c r="J125" t="n">
+        <v>-8.636552787231329</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.7397894846310623</v>
+      </c>
+      <c r="L125" t="n">
+        <v>39.0630257101115</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-21.36453642333537</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-35.46457582643722</v>
+      </c>
+      <c r="O125" t="n">
+        <v>11.946339792400847</v>
       </c>
       <c r="P125" t="n">
         <v>1407741.0</v>
@@ -9407,7 +9407,7 @@
         <v>1560537.0</v>
       </c>
       <c r="S125" t="n">
-        <v>0.0749772863802682</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T125" t="n">
         <v>28774.0</v>
@@ -9453,23 +9453,23 @@
       <c r="I126" t="n">
         <v>1984.0</v>
       </c>
-      <c r="J126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O126" t="e">
-        <v>#N/A</v>
+      <c r="J126" t="n">
+        <v>-9.573856550436524</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.04103636340419971</v>
+      </c>
+      <c r="L126" t="n">
+        <v>36.549221050998725</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-22.406564342696928</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-36.72499091021243</v>
+      </c>
+      <c r="O126" t="n">
+        <v>11.963846753307866</v>
       </c>
       <c r="P126" t="n">
         <v>1423914.0</v>
@@ -9481,7 +9481,7 @@
         <v>1576925.0</v>
       </c>
       <c r="S126" t="n">
-        <v>0.08525718811720324</v>
+        <v>0.0852571881172</v>
       </c>
       <c r="T126" t="n">
         <v>28137.0</v>
@@ -9527,23 +9527,23 @@
       <c r="I127" t="n">
         <v>1671.0</v>
       </c>
-      <c r="J127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O127" t="e">
-        <v>#N/A</v>
+      <c r="J127" t="n">
+        <v>-13.38446512565816</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.1419531759708343</v>
+      </c>
+      <c r="L127" t="n">
+        <v>19.577798495674656</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-20.811702223267414</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-36.808031257775575</v>
+      </c>
+      <c r="O127" t="n">
+        <v>11.49054424002099</v>
       </c>
       <c r="P127" t="n">
         <v>1463398.0</v>
@@ -9555,7 +9555,7 @@
         <v>1622851.0</v>
       </c>
       <c r="S127" t="n">
-        <v>0.08936916175478508</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T127" t="n">
         <v>29011.0</v>
@@ -9629,7 +9629,7 @@
         <v>1690124.0</v>
       </c>
       <c r="S128" t="n">
-        <v>0.08795944343323328</v>
+        <v>0.08795944343323</v>
       </c>
       <c r="T128" t="n">
         <v>32885.0</v>
@@ -9714,8 +9714,8 @@
       <c r="V129" t="n">
         <v>35904.0</v>
       </c>
-      <c r="W129" t="e">
-        <v>#N/A</v>
+      <c r="W129" t="n">
+        <v>3409.0</v>
       </c>
       <c r="X129" t="n">
         <v>2.9677668E7</v>
@@ -9737,17 +9737,17 @@
       <c r="E130" t="n">
         <v>10.0</v>
       </c>
-      <c r="F130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I130" t="e">
-        <v>#N/A</v>
+      <c r="F130" t="n">
+        <v>1350920.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>37655.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>51322.0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1721.0</v>
       </c>
       <c r="J130" t="e">
         <v>#N/A</v>
@@ -9792,6 +9792,80 @@
         <v>#N/A</v>
       </c>
       <c r="X130" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="2">
+        <v>44005.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>120370.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5489.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2220.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X131" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9848,31 +9922,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>43499.0</v>
+        <v>47436.0</v>
       </c>
       <c r="C2" t="n">
-        <v>74725.0</v>
+        <v>76127.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1692976.0</v>
+        <v>1729515.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6527.0</v>
+        <v>6606.0</v>
       </c>
       <c r="F2" t="n">
-        <v>55304.0</v>
+        <v>54642.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14697.0</v>
+        <v>14260.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1517.0</v>
+        <v>1483.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5818.0</v>
+        <v>5781.0</v>
       </c>
       <c r="J2" t="n">
-        <v>19628.0</v>
+        <v>19920.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>70714</t>
+    <t>72898.2</t>
   </si>
 </sst>
 </file>
@@ -9767,29 +9767,29 @@
       <c r="O130" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W130" t="e">
-        <v>#N/A</v>
+      <c r="P130" t="n">
+        <v>1597290.0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>170411.0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1767701.0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0.0976</v>
+      </c>
+      <c r="T130" t="n">
+        <v>35550.0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2834.0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>38384.0</v>
+      </c>
+      <c r="W130" t="n">
+        <v>3711.0</v>
       </c>
       <c r="X130" t="n">
         <v>2.9677668E7</v>
@@ -9811,17 +9811,17 @@
       <c r="E131" t="n">
         <v>28.0</v>
       </c>
-      <c r="F131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I131" t="e">
-        <v>#N/A</v>
+      <c r="F131" t="n">
+        <v>1386232.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>35312.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>55207.0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3885.0</v>
       </c>
       <c r="J131" t="e">
         <v>#N/A</v>
@@ -9841,31 +9841,105 @@
       <c r="O131" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V131" t="e">
-        <v>#N/A</v>
+      <c r="P131" t="n">
+        <v>1630258.0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>175384.0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1805642.0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.10422837848208119</v>
+      </c>
+      <c r="T131" t="n">
+        <v>37231.0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3227.0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>40458.0</v>
       </c>
       <c r="W131" t="e">
         <v>#N/A</v>
       </c>
       <c r="X131" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="2">
+        <v>44006.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>125921.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5551.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2249.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X132" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9922,31 +9996,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>47436.0</v>
+        <v>50774.0</v>
       </c>
       <c r="C2" t="n">
-        <v>76127.0</v>
+        <v>77868.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1729515.0</v>
+        <v>1758169.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6606.0</v>
+        <v>6770.0</v>
       </c>
       <c r="F2" t="n">
-        <v>54642.0</v>
+        <v>60407.0</v>
       </c>
       <c r="G2" t="n">
-        <v>14260.0</v>
+        <v>12951.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1483.0</v>
+        <v>1320.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5781.0</v>
+        <v>5850.0</v>
       </c>
       <c r="J2" t="n">
-        <v>19920.0</v>
+        <v>20255.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>72898.2</t>
+    <t>74496.2</t>
   </si>
 </sst>
 </file>
@@ -9601,23 +9601,23 @@
       <c r="I128" t="n">
         <v>2968.0</v>
       </c>
-      <c r="J128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O128" t="e">
-        <v>#N/A</v>
+      <c r="J128" t="n">
+        <v>-16.188018743188078</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.6033629396654914</v>
+      </c>
+      <c r="L128" t="n">
+        <v>9.368079552193265</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-20.233961383375288</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-12.680946011850521</v>
+      </c>
+      <c r="O128" t="n">
+        <v>5.285092455072805</v>
       </c>
       <c r="P128" t="n">
         <v>1526180.0</v>
@@ -9675,23 +9675,23 @@
       <c r="I129" t="n">
         <v>2826.0</v>
       </c>
-      <c r="J129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N129" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O129" t="e">
-        <v>#N/A</v>
+      <c r="J129" t="n">
+        <v>-18.23977729313965</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-4.128116706172499</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-7.362150897613907</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-24.8798950389323</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-13.534978550466295</v>
+      </c>
+      <c r="O129" t="n">
+        <v>4.233075096188095</v>
       </c>
       <c r="P129" t="n">
         <v>1549009.0</v>
@@ -9749,23 +9749,23 @@
       <c r="I130" t="n">
         <v>1721.0</v>
       </c>
-      <c r="J130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O130" t="e">
-        <v>#N/A</v>
+      <c r="J130" t="n">
+        <v>-16.849658921019586</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-9.877758794506752</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-3.209185290079853</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-27.395945365145458</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-38.511287105670355</v>
+      </c>
+      <c r="O130" t="n">
+        <v>13.370538540827006</v>
       </c>
       <c r="P130" t="n">
         <v>1597290.0</v>
@@ -9800,28 +9800,28 @@
         <v>44005.0</v>
       </c>
       <c r="B131" t="n">
-        <v>120370.0</v>
+        <v>240740.0</v>
       </c>
       <c r="C131" t="n">
-        <v>5489.0</v>
+        <v>10978.0</v>
       </c>
       <c r="D131" t="n">
-        <v>2220.0</v>
+        <v>4440.0</v>
       </c>
       <c r="E131" t="n">
-        <v>28.0</v>
+        <v>56.0</v>
       </c>
       <c r="F131" t="n">
-        <v>1386232.0</v>
+        <v>2772464.0</v>
       </c>
       <c r="G131" t="n">
         <v>35312.0</v>
       </c>
       <c r="H131" t="n">
-        <v>55207.0</v>
+        <v>110414.0</v>
       </c>
       <c r="I131" t="n">
-        <v>3885.0</v>
+        <v>7770.0</v>
       </c>
       <c r="J131" t="e">
         <v>#N/A</v>
@@ -9862,8 +9862,8 @@
       <c r="V131" t="n">
         <v>40458.0</v>
       </c>
-      <c r="W131" t="e">
-        <v>#N/A</v>
+      <c r="W131" t="n">
+        <v>4092.0</v>
       </c>
       <c r="X131" t="n">
         <v>2.9677668E7</v>
@@ -9891,11 +9891,11 @@
       <c r="G132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I132" t="e">
-        <v>#N/A</v>
+      <c r="H132" t="n">
+        <v>58304.0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3097.0</v>
       </c>
       <c r="J132" t="e">
         <v>#N/A</v>
@@ -9915,31 +9915,105 @@
       <c r="O132" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W132" t="e">
-        <v>#N/A</v>
+      <c r="P132" t="n">
+        <v>1659340.0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>176697.0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1836037.0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0.11759188232067695</v>
+      </c>
+      <c r="T132" t="n">
+        <v>35943.0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>3414.0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>39357.0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>4389.0</v>
       </c>
       <c r="X132" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="2">
+        <v>44007.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>131917.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5996.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2296.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W133" t="n">
+        <v>4739.0</v>
+      </c>
+      <c r="X133" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9996,31 +10070,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>50774.0</v>
+        <v>55125.0</v>
       </c>
       <c r="C2" t="n">
-        <v>77868.0</v>
+        <v>78770.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1758169.0</v>
+        <v>1796427.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6770.0</v>
+        <v>6823.0</v>
       </c>
       <c r="F2" t="n">
-        <v>60407.0</v>
+        <v>57805.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12951.0</v>
+        <v>12597.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1320.0</v>
+        <v>1322.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5850.0</v>
+        <v>5778.0</v>
       </c>
       <c r="J2" t="n">
-        <v>20255.0</v>
+        <v>20579.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -9800,28 +9800,28 @@
         <v>44005.0</v>
       </c>
       <c r="B131" t="n">
-        <v>240740.0</v>
+        <v>120370.0</v>
       </c>
       <c r="C131" t="n">
-        <v>10978.0</v>
+        <v>5489.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4440.0</v>
+        <v>2220.0</v>
       </c>
       <c r="E131" t="n">
-        <v>56.0</v>
+        <v>28.0</v>
       </c>
       <c r="F131" t="n">
-        <v>2772464.0</v>
+        <v>1399304.0</v>
       </c>
       <c r="G131" t="n">
-        <v>35312.0</v>
+        <v>48384.0</v>
       </c>
       <c r="H131" t="n">
-        <v>110414.0</v>
+        <v>55207.0</v>
       </c>
       <c r="I131" t="n">
-        <v>7770.0</v>
+        <v>3885.0</v>
       </c>
       <c r="J131" t="e">
         <v>#N/A</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>74496.2</t>
+    <t>76281.600000000006</t>
   </si>
 </sst>
 </file>
@@ -8297,7 +8297,7 @@
         <v>1117274.0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T110" t="n">
         <v>21585.0</v>
@@ -8371,7 +8371,7 @@
         <v>1150868.0</v>
       </c>
       <c r="S111" t="n">
-        <v>0.06259941815807</v>
+        <v>0.0626</v>
       </c>
       <c r="T111" t="n">
         <v>23620.0</v>
@@ -8445,7 +8445,7 @@
         <v>1174948.0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T112" t="n">
         <v>24043.0</v>
@@ -8519,7 +8519,7 @@
         <v>1209187.0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T113" t="n">
         <v>23537.0</v>
@@ -8593,7 +8593,7 @@
         <v>1218955.0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T114" t="n">
         <v>20021.0</v>
@@ -8741,7 +8741,7 @@
         <v>1286139.0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.06662901614215</v>
+        <v>0.0666</v>
       </c>
       <c r="T116" t="n">
         <v>23019.0</v>
@@ -8815,7 +8815,7 @@
         <v>1302049.0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T117" t="n">
         <v>22046.0</v>
@@ -8889,7 +8889,7 @@
         <v>1348893.0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.06846481685691</v>
+        <v>0.0685</v>
       </c>
       <c r="T118" t="n">
         <v>23966.0</v>
@@ -8963,7 +8963,7 @@
         <v>1370131.0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.07052200676015</v>
+        <v>0.0705</v>
       </c>
       <c r="T119" t="n">
         <v>23626.0</v>
@@ -9037,7 +9037,7 @@
         <v>1404369.0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T120" t="n">
         <v>23863.0</v>
@@ -9111,7 +9111,7 @@
         <v>1442950.0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T121" t="n">
         <v>29139.0</v>
@@ -9259,7 +9259,7 @@
         <v>1499015.0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.06709533684425</v>
+        <v>0.0671</v>
       </c>
       <c r="T123" t="n">
         <v>28727.0</v>
@@ -9333,7 +9333,7 @@
         <v>1522434.0</v>
       </c>
       <c r="S124" t="n">
-        <v>0.06941707304209</v>
+        <v>0.0694</v>
       </c>
       <c r="T124" t="n">
         <v>29793.0</v>
@@ -9407,7 +9407,7 @@
         <v>1560537.0</v>
       </c>
       <c r="S125" t="n">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T125" t="n">
         <v>28774.0</v>
@@ -9555,7 +9555,7 @@
         <v>1622851.0</v>
       </c>
       <c r="S127" t="n">
-        <v>0.08936916175479</v>
+        <v>0.0894</v>
       </c>
       <c r="T127" t="n">
         <v>29011.0</v>
@@ -9629,7 +9629,7 @@
         <v>1690124.0</v>
       </c>
       <c r="S128" t="n">
-        <v>0.08795944343323</v>
+        <v>0.088</v>
       </c>
       <c r="T128" t="n">
         <v>32885.0</v>
@@ -9777,7 +9777,7 @@
         <v>1767701.0</v>
       </c>
       <c r="S130" t="n">
-        <v>0.0976</v>
+        <v>0.0964</v>
       </c>
       <c r="T130" t="n">
         <v>35550.0</v>
@@ -9811,11 +9811,11 @@
       <c r="E131" t="n">
         <v>28.0</v>
       </c>
-      <c r="F131" t="n">
-        <v>1399304.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>48384.0</v>
+      <c r="F131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G131" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H131" t="n">
         <v>55207.0</v>
@@ -9823,23 +9823,23 @@
       <c r="I131" t="n">
         <v>3885.0</v>
       </c>
-      <c r="J131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O131" t="e">
-        <v>#N/A</v>
+      <c r="J131" t="n">
+        <v>-13.467698515523704</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-5.3701071729036505</v>
+      </c>
+      <c r="L131" t="n">
+        <v>6.283707855066916</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-26.409054668017404</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-39.27912809280294</v>
+      </c>
+      <c r="O131" t="n">
+        <v>14.559287596345921</v>
       </c>
       <c r="P131" t="n">
         <v>1630258.0</v>
@@ -9851,16 +9851,16 @@
         <v>1805642.0</v>
       </c>
       <c r="S131" t="n">
-        <v>0.10422837848208119</v>
-      </c>
-      <c r="T131" t="n">
-        <v>37231.0</v>
-      </c>
-      <c r="U131" t="n">
-        <v>3227.0</v>
-      </c>
-      <c r="V131" t="n">
-        <v>40458.0</v>
+        <v>0.1042</v>
+      </c>
+      <c r="T131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V131" t="e">
+        <v>#N/A</v>
       </c>
       <c r="W131" t="n">
         <v>4092.0</v>
@@ -9885,11 +9885,11 @@
       <c r="E132" t="n">
         <v>29.0</v>
       </c>
-      <c r="F132" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G132" t="e">
-        <v>#N/A</v>
+      <c r="F132" t="n">
+        <v>1399304.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>48384.0</v>
       </c>
       <c r="H132" t="n">
         <v>58304.0</v>
@@ -9925,7 +9925,7 @@
         <v>1836037.0</v>
       </c>
       <c r="S132" t="n">
-        <v>0.11759188232067695</v>
+        <v>0.1176</v>
       </c>
       <c r="T132" t="n">
         <v>35943.0</v>
@@ -9959,17 +9959,17 @@
       <c r="E133" t="n">
         <v>47.0</v>
       </c>
-      <c r="F133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I133" t="e">
-        <v>#N/A</v>
+      <c r="F133" t="n">
+        <v>1409858.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10554.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>62321.0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4017.0</v>
       </c>
       <c r="J133" t="e">
         <v>#N/A</v>
@@ -9989,31 +9989,105 @@
       <c r="O133" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V133" t="e">
-        <v>#N/A</v>
+      <c r="P133" t="n">
+        <v>1697334.0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>177863.0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1875197.0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.1173</v>
+      </c>
+      <c r="T133" t="n">
+        <v>39060.0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>3550.0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>42610.0</v>
       </c>
       <c r="W133" t="n">
         <v>4739.0</v>
       </c>
       <c r="X133" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="2">
+        <v>44008.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>137624.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5707.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2324.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1903661.0</v>
+      </c>
+      <c r="S134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W134" t="n">
+        <v>5102.0</v>
+      </c>
+      <c r="X134" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10070,31 +10144,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>55125.0</v>
+        <v>59018.0</v>
       </c>
       <c r="C2" t="n">
-        <v>78770.0</v>
+        <v>80525.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1796427.0</v>
+        <v>1823136.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6823.0</v>
+        <v>6871.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57805.0</v>
+        <v>57933.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12597.0</v>
+        <v>12398.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1322.0</v>
+        <v>1284.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5778.0</v>
+        <v>5807.0</v>
       </c>
       <c r="J2" t="n">
-        <v>20579.0</v>
+        <v>20995.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>76281.600000000006</t>
+    <t>78248</t>
   </si>
 </sst>
 </file>
@@ -10033,17 +10033,17 @@
       <c r="E134" t="n">
         <v>28.0</v>
       </c>
-      <c r="F134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I134" t="e">
-        <v>#N/A</v>
+      <c r="F134" t="n">
+        <v>1444189.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>34331.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>65640.0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3319.0</v>
       </c>
       <c r="J134" t="e">
         <v>#N/A</v>
@@ -10063,31 +10063,105 @@
       <c r="O134" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q134" t="e">
-        <v>#N/A</v>
+      <c r="P134" t="n">
+        <v>1722826.0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>180835.0</v>
       </c>
       <c r="R134" t="n">
         <v>1903661.0</v>
       </c>
-      <c r="S134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U134" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V134" t="e">
-        <v>#N/A</v>
+      <c r="S134" t="n">
+        <v>0.1323</v>
+      </c>
+      <c r="T134" t="n">
+        <v>37061.0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>3055.0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>40116.0</v>
       </c>
       <c r="W134" t="n">
         <v>5102.0</v>
       </c>
       <c r="X134" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="2">
+        <v>44009.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>143371.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5747.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2366.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1959617.0</v>
+      </c>
+      <c r="S135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W135" t="n">
+        <v>5523.0</v>
+      </c>
+      <c r="X135" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10144,31 +10218,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>59018.0</v>
+        <v>62757.0</v>
       </c>
       <c r="C2" t="n">
-        <v>80525.0</v>
+        <v>82304.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1823136.0</v>
+        <v>1877313.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6871.0</v>
+        <v>6918.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57933.0</v>
+        <v>58211.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12398.0</v>
+        <v>12893.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1284.0</v>
+        <v>1333.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5807.0</v>
+        <v>5722.0</v>
       </c>
       <c r="J2" t="n">
-        <v>20995.0</v>
+        <v>21120.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -120,7 +120,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>78248</t>
+    <t>79974.2</t>
   </si>
 </sst>
 </file>
@@ -9853,14 +9853,14 @@
       <c r="S131" t="n">
         <v>0.1042</v>
       </c>
-      <c r="T131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U131" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V131" t="e">
-        <v>#N/A</v>
+      <c r="T131" t="n">
+        <v>37231.0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>3227.0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>40458.0</v>
       </c>
       <c r="W131" t="n">
         <v>4092.0</v>
@@ -10096,10 +10096,10 @@
         <v>44009.0</v>
       </c>
       <c r="B135" t="n">
-        <v>143371.0</v>
+        <v>143366.0</v>
       </c>
       <c r="C135" t="n">
-        <v>5747.0</v>
+        <v>5742.0</v>
       </c>
       <c r="D135" t="n">
         <v>2366.0</v>
@@ -10107,17 +10107,17 @@
       <c r="E135" t="n">
         <v>42.0</v>
       </c>
-      <c r="F135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I135" t="e">
-        <v>#N/A</v>
+      <c r="F135" t="n">
+        <v>1492340.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>48151.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>69280.0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3640.0</v>
       </c>
       <c r="J135" t="e">
         <v>#N/A</v>
@@ -10137,31 +10137,105 @@
       <c r="O135" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q135" t="e">
-        <v>#N/A</v>
+      <c r="P135" t="n">
+        <v>1775219.0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>184398.0</v>
       </c>
       <c r="R135" t="n">
         <v>1959617.0</v>
       </c>
-      <c r="S135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U135" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V135" t="e">
-        <v>#N/A</v>
+      <c r="S135" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="T135" t="n">
+        <v>35577.0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2922.0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>38499.0</v>
       </c>
       <c r="W135" t="n">
         <v>5523.0</v>
       </c>
       <c r="X135" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="2">
+        <v>44010.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>148723.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5357.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2393.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2006724.0</v>
+      </c>
+      <c r="S136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W136" t="n">
+        <v>5497.0</v>
+      </c>
+      <c r="X136" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10218,31 +10292,31 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>62757.0</v>
+        <v>66356.0</v>
       </c>
       <c r="C2" t="n">
-        <v>82304.0</v>
+        <v>83799.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1877313.0</v>
+        <v>1922925.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6918.0</v>
+        <v>6940.0</v>
       </c>
       <c r="F2" t="n">
-        <v>58211.0</v>
+        <v>54701.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12893.0</v>
+        <v>12751.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1333.0</v>
+        <v>1355.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5722.0</v>
+        <v>5605.0</v>
       </c>
       <c r="J2" t="n">
-        <v>21120.0</v>
+        <v>21262.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -144,7 +144,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>81335</t>
+    <t>84817.600000000006</t>
   </si>
 </sst>
 </file>
@@ -11301,23 +11301,23 @@
       <c r="I114" t="n">
         <v>3097.0</v>
       </c>
-      <c r="J114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O114" t="e">
-        <v>#N/A</v>
+      <c r="J114" t="n">
+        <v>-12.153459310104163</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-2.944203760284418</v>
+      </c>
+      <c r="L114" t="n">
+        <v>20.156378272419353</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-24.284384739539494</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-37.622742072994086</v>
+      </c>
+      <c r="O114" t="n">
+        <v>13.581076893665031</v>
       </c>
       <c r="P114" t="n">
         <v>1659340.0</v>
@@ -11358,14 +11358,14 @@
       <c r="AB114" t="n">
         <v>627.0</v>
       </c>
-      <c r="AC114" t="e">
-        <v>#N/A</v>
+      <c r="AC114" t="n">
+        <v>5517.0</v>
       </c>
       <c r="AD114" t="n">
         <v>883.0</v>
       </c>
-      <c r="AE114" t="e">
-        <v>#N/A</v>
+      <c r="AE114" t="n">
+        <v>2557.0</v>
       </c>
       <c r="AF114" t="n">
         <v>2.9677668E7</v>
@@ -11399,23 +11399,23 @@
       <c r="I115" t="n">
         <v>4017.0</v>
       </c>
-      <c r="J115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O115" t="e">
-        <v>#N/A</v>
+      <c r="J115" t="n">
+        <v>-14.834570294348506</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-4.205247706264586</v>
+      </c>
+      <c r="L115" t="n">
+        <v>16.916721945457272</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-26.192381861806293</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-38.717699547541876</v>
+      </c>
+      <c r="O115" t="n">
+        <v>13.975897654903077</v>
       </c>
       <c r="P115" t="n">
         <v>1697334.0</v>
@@ -11456,14 +11456,14 @@
       <c r="AB115" t="n">
         <v>640.0</v>
       </c>
-      <c r="AC115" t="e">
-        <v>#N/A</v>
+      <c r="AC115" t="n">
+        <v>5570.0</v>
       </c>
       <c r="AD115" t="n">
         <v>895.0</v>
       </c>
-      <c r="AE115" t="e">
-        <v>#N/A</v>
+      <c r="AE115" t="n">
+        <v>2629.0</v>
       </c>
       <c r="AF115" t="n">
         <v>2.9677668E7</v>
@@ -11497,23 +11497,23 @@
       <c r="I116" t="n">
         <v>3319.0</v>
       </c>
-      <c r="J116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O116" t="e">
-        <v>#N/A</v>
+      <c r="J116" t="n">
+        <v>-19.461964206903996</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-4.24378502276919</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.4960623622260254</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-24.881573787879212</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-38.03836217021074</v>
+      </c>
+      <c r="O116" t="n">
+        <v>14.65802295546069</v>
       </c>
       <c r="P116" t="n">
         <v>1722826.0</v>
@@ -11554,14 +11554,14 @@
       <c r="AB116" t="n">
         <v>651.0</v>
       </c>
-      <c r="AC116" t="e">
-        <v>#N/A</v>
+      <c r="AC116" t="n">
+        <v>5649.0</v>
       </c>
       <c r="AD116" t="n">
         <v>909.0</v>
       </c>
-      <c r="AE116" t="e">
-        <v>#N/A</v>
+      <c r="AE116" t="n">
+        <v>2684.0</v>
       </c>
       <c r="AF116" t="n">
         <v>2.9677668E7</v>
@@ -11595,23 +11595,23 @@
       <c r="I117" t="n">
         <v>3640.0</v>
       </c>
-      <c r="J117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O117" t="e">
-        <v>#N/A</v>
+      <c r="J117" t="n">
+        <v>-23.006492107546617</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-5.319923240762837</v>
+      </c>
+      <c r="L117" t="n">
+        <v>4.874367905297759</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-24.142309034533604</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-14.709574063978394</v>
+      </c>
+      <c r="O117" t="n">
+        <v>7.483289594814583</v>
       </c>
       <c r="P117" t="n">
         <v>1775219.0</v>
@@ -11652,14 +11652,14 @@
       <c r="AB117" t="n">
         <v>659.0</v>
       </c>
-      <c r="AC117" t="e">
-        <v>#N/A</v>
+      <c r="AC117" t="n">
+        <v>5747.0</v>
       </c>
       <c r="AD117" t="n">
         <v>922.0</v>
       </c>
-      <c r="AE117" t="e">
-        <v>#N/A</v>
+      <c r="AE117" t="n">
+        <v>2705.0</v>
       </c>
       <c r="AF117" t="n">
         <v>2.9677668E7</v>
@@ -11750,14 +11750,14 @@
       <c r="AB118" t="n">
         <v>667.0</v>
       </c>
-      <c r="AC118" t="e">
-        <v>#N/A</v>
+      <c r="AC118" t="n">
+        <v>5822.0</v>
       </c>
       <c r="AD118" t="n">
         <v>917.0</v>
       </c>
-      <c r="AE118" t="e">
-        <v>#N/A</v>
+      <c r="AE118" t="n">
+        <v>2707.0</v>
       </c>
       <c r="AF118" t="n">
         <v>2.9677668E7</v>
@@ -11779,17 +11779,17 @@
       <c r="E119" t="n">
         <v>10.0</v>
       </c>
-      <c r="F119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I119" t="e">
-        <v>#N/A</v>
+      <c r="F119" t="n">
+        <v>1578667.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>35481.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>75820.0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2224.0</v>
       </c>
       <c r="J119" t="e">
         <v>#N/A</v>
@@ -11809,26 +11809,26 @@
       <c r="O119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q119" t="e">
-        <v>#N/A</v>
+      <c r="P119" t="n">
+        <v>1869282.0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>192657.0</v>
       </c>
       <c r="R119" t="n">
         <v>2061939.0</v>
       </c>
-      <c r="S119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V119" t="e">
-        <v>#N/A</v>
+      <c r="S119" t="n">
+        <v>0.1402</v>
+      </c>
+      <c r="T119" t="n">
+        <v>38856.0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3178.0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>42034.0</v>
       </c>
       <c r="W119" t="n">
         <v>5913.0</v>
@@ -11858,6 +11858,104 @@
         <v>2723.0</v>
       </c>
       <c r="AF119" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="2">
+        <v>44012.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>159986.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6975.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2424.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2119036.0</v>
+      </c>
+      <c r="S120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W120" t="n">
+        <v>6533.0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>759.0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>682.0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>5988.0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>929.0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>2759.0</v>
+      </c>
+      <c r="AF120" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11914,31 +12012,31 @@
         <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>69273.0</v>
+        <v>72744.0</v>
       </c>
       <c r="C2" t="n">
-        <v>84533.0</v>
+        <v>84899.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1977406.0</v>
+        <v>2034137.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6973.0</v>
+        <v>7116.0</v>
       </c>
       <c r="F2" t="n">
-        <v>54244.0</v>
+        <v>55266.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13825.0</v>
+        <v>13711.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1411.0</v>
+        <v>1405.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5670.0</v>
+        <v>5561.0</v>
       </c>
       <c r="J2" t="n">
-        <v>21290.0</v>
+        <v>21361.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -144,7 +144,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>84817.600000000006</t>
+    <t>87556.4</t>
   </si>
 </sst>
 </file>
@@ -9173,7 +9173,7 @@
         <v>1117274.0</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92" t="n">
         <v>21585.0</v>
@@ -9271,7 +9271,7 @@
         <v>1150868.0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0626</v>
+        <v>0.06259941815807</v>
       </c>
       <c r="T93" t="n">
         <v>23620.0</v>
@@ -9369,7 +9369,7 @@
         <v>1174948.0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94" t="n">
         <v>24043.0</v>
@@ -9467,7 +9467,7 @@
         <v>1209187.0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95" t="n">
         <v>23537.0</v>
@@ -9565,7 +9565,7 @@
         <v>1218955.0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96" t="n">
         <v>20021.0</v>
@@ -9761,7 +9761,7 @@
         <v>1286139.0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0666</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98" t="n">
         <v>23019.0</v>
@@ -9859,7 +9859,7 @@
         <v>1302049.0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99" t="n">
         <v>22046.0</v>
@@ -9957,7 +9957,7 @@
         <v>1348893.0</v>
       </c>
       <c r="S100" t="n">
-        <v>0.0685</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100" t="n">
         <v>23966.0</v>
@@ -10055,7 +10055,7 @@
         <v>1370131.0</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0705</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101" t="n">
         <v>23626.0</v>
@@ -10153,7 +10153,7 @@
         <v>1404369.0</v>
       </c>
       <c r="S102" t="n">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102" t="n">
         <v>23863.0</v>
@@ -10251,7 +10251,7 @@
         <v>1442950.0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103" t="n">
         <v>29139.0</v>
@@ -10447,7 +10447,7 @@
         <v>1499015.0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0671</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105" t="n">
         <v>28727.0</v>
@@ -10545,7 +10545,7 @@
         <v>1522434.0</v>
       </c>
       <c r="S106" t="n">
-        <v>0.0694</v>
+        <v>0.06941707304209</v>
       </c>
       <c r="T106" t="n">
         <v>29793.0</v>
@@ -10643,7 +10643,7 @@
         <v>1560537.0</v>
       </c>
       <c r="S107" t="n">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107" t="n">
         <v>28774.0</v>
@@ -10839,7 +10839,7 @@
         <v>1622851.0</v>
       </c>
       <c r="S109" t="n">
-        <v>0.0894</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109" t="n">
         <v>29011.0</v>
@@ -10937,7 +10937,7 @@
         <v>1690124.0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.088</v>
+        <v>0.08795944343323</v>
       </c>
       <c r="T110" t="n">
         <v>32885.0</v>
@@ -11133,7 +11133,7 @@
         <v>1767701.0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112" t="n">
         <v>35550.0</v>
@@ -11231,16 +11231,16 @@
         <v>1805642.0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.1042</v>
-      </c>
-      <c r="T113" t="n">
-        <v>37231.0</v>
-      </c>
-      <c r="U113" t="n">
-        <v>3227.0</v>
-      </c>
-      <c r="V113" t="n">
-        <v>40458.0</v>
+        <v>0.10422837848208</v>
+      </c>
+      <c r="T113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="W113" t="n">
         <v>4092.0</v>
@@ -11329,7 +11329,7 @@
         <v>1836037.0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114" t="n">
         <v>35943.0</v>
@@ -11427,7 +11427,7 @@
         <v>1875197.0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115" t="n">
         <v>39060.0</v>
@@ -11525,7 +11525,7 @@
         <v>1903661.0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116" t="n">
         <v>37061.0</v>
@@ -11623,7 +11623,7 @@
         <v>1959617.0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117" t="n">
         <v>35577.0</v>
@@ -11721,7 +11721,7 @@
         <v>2006724.0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118" t="n">
         <v>38597.0</v>
@@ -11786,10 +11786,10 @@
         <v>35481.0</v>
       </c>
       <c r="H119" t="n">
-        <v>75820.0</v>
+        <v>75848.0</v>
       </c>
       <c r="I119" t="n">
-        <v>2224.0</v>
+        <v>2252.0</v>
       </c>
       <c r="J119" t="e">
         <v>#N/A</v>
@@ -11819,7 +11819,7 @@
         <v>2061939.0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119" t="n">
         <v>38856.0</v>
@@ -11877,17 +11877,17 @@
       <c r="E120" t="n">
         <v>21.0</v>
       </c>
-      <c r="F120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
-        <v>#N/A</v>
+      <c r="F120" t="n">
+        <v>1612583.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>33916.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>78520.0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2672.0</v>
       </c>
       <c r="J120" t="e">
         <v>#N/A</v>
@@ -11907,29 +11907,29 @@
       <c r="O120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q120" t="e">
-        <v>#N/A</v>
+      <c r="P120" t="n">
+        <v>1921948.0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>197088.0</v>
       </c>
       <c r="R120" t="n">
         <v>2119036.0</v>
       </c>
-      <c r="S120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W120" t="n">
-        <v>6533.0</v>
+      <c r="S120" t="n">
+        <v>0.13581542048065</v>
+      </c>
+      <c r="T120" t="n">
+        <v>41670.0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3101.0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>44771.0</v>
+      </c>
+      <c r="W120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X120" t="n">
         <v>267.0</v>
@@ -11956,6 +11956,104 @@
         <v>2759.0</v>
       </c>
       <c r="AF120" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="2">
+        <v>44013.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>168062.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>8076.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2481.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2174548.0</v>
+      </c>
+      <c r="S121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X121" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>6194.0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>949.0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2824.0</v>
+      </c>
+      <c r="AF121" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -12012,31 +12110,31 @@
         <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>72744.0</v>
+        <v>78025.0</v>
       </c>
       <c r="C2" t="n">
-        <v>84899.0</v>
+        <v>86739.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2034137.0</v>
+        <v>2087809.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7116.0</v>
+        <v>7234.0</v>
       </c>
       <c r="F2" t="n">
-        <v>55266.0</v>
+        <v>57227.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13711.0</v>
+        <v>12894.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1405.0</v>
+        <v>1322.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5561.0</v>
+        <v>5622.0</v>
       </c>
       <c r="J2" t="n">
-        <v>21361.0</v>
+        <v>21960.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -144,7 +144,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>87556.4</t>
+    <t>90719.8</t>
   </si>
 </sst>
 </file>
@@ -9173,7 +9173,7 @@
         <v>1117274.0</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T92" t="n">
         <v>21585.0</v>
@@ -9271,7 +9271,7 @@
         <v>1150868.0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.06259941815807</v>
+        <v>0.0626</v>
       </c>
       <c r="T93" t="n">
         <v>23620.0</v>
@@ -9369,7 +9369,7 @@
         <v>1174948.0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T94" t="n">
         <v>24043.0</v>
@@ -9467,7 +9467,7 @@
         <v>1209187.0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T95" t="n">
         <v>23537.0</v>
@@ -9565,7 +9565,7 @@
         <v>1218955.0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T96" t="n">
         <v>20021.0</v>
@@ -9761,7 +9761,7 @@
         <v>1286139.0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.06662901614215</v>
+        <v>0.0666</v>
       </c>
       <c r="T98" t="n">
         <v>23019.0</v>
@@ -9859,7 +9859,7 @@
         <v>1302049.0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T99" t="n">
         <v>22046.0</v>
@@ -9957,7 +9957,7 @@
         <v>1348893.0</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06846481685691</v>
+        <v>0.0685</v>
       </c>
       <c r="T100" t="n">
         <v>23966.0</v>
@@ -10055,7 +10055,7 @@
         <v>1370131.0</v>
       </c>
       <c r="S101" t="n">
-        <v>0.07052200676015</v>
+        <v>0.0705</v>
       </c>
       <c r="T101" t="n">
         <v>23626.0</v>
@@ -10153,7 +10153,7 @@
         <v>1404369.0</v>
       </c>
       <c r="S102" t="n">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T102" t="n">
         <v>23863.0</v>
@@ -10251,7 +10251,7 @@
         <v>1442950.0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T103" t="n">
         <v>29139.0</v>
@@ -10447,7 +10447,7 @@
         <v>1499015.0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.06709533684425</v>
+        <v>0.0671</v>
       </c>
       <c r="T105" t="n">
         <v>28727.0</v>
@@ -10545,7 +10545,7 @@
         <v>1522434.0</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06941707304209</v>
+        <v>0.0694</v>
       </c>
       <c r="T106" t="n">
         <v>29793.0</v>
@@ -10643,7 +10643,7 @@
         <v>1560537.0</v>
       </c>
       <c r="S107" t="n">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T107" t="n">
         <v>28774.0</v>
@@ -10839,7 +10839,7 @@
         <v>1622851.0</v>
       </c>
       <c r="S109" t="n">
-        <v>0.08936916175479</v>
+        <v>0.0894</v>
       </c>
       <c r="T109" t="n">
         <v>29011.0</v>
@@ -10937,7 +10937,7 @@
         <v>1690124.0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.08795944343323</v>
+        <v>0.088</v>
       </c>
       <c r="T110" t="n">
         <v>32885.0</v>
@@ -11133,7 +11133,7 @@
         <v>1767701.0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="T112" t="n">
         <v>35550.0</v>
@@ -11231,16 +11231,16 @@
         <v>1805642.0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.10422837848208</v>
-      </c>
-      <c r="T113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V113" t="e">
-        <v>#N/A</v>
+        <v>0.1042</v>
+      </c>
+      <c r="T113" t="n">
+        <v>37231.0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3227.0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>40458.0</v>
       </c>
       <c r="W113" t="n">
         <v>4092.0</v>
@@ -11329,7 +11329,7 @@
         <v>1836037.0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="T114" t="n">
         <v>35943.0</v>
@@ -11427,7 +11427,7 @@
         <v>1875197.0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="T115" t="n">
         <v>39060.0</v>
@@ -11525,7 +11525,7 @@
         <v>1903661.0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="T116" t="n">
         <v>37061.0</v>
@@ -11623,7 +11623,7 @@
         <v>1959617.0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="T117" t="n">
         <v>35577.0</v>
@@ -11721,7 +11721,7 @@
         <v>2006724.0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="T118" t="n">
         <v>38597.0</v>
@@ -11819,7 +11819,7 @@
         <v>2061939.0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="T119" t="n">
         <v>38856.0</v>
@@ -11917,7 +11917,7 @@
         <v>2119036.0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="T120" t="n">
         <v>41670.0</v>
@@ -11928,8 +11928,8 @@
       <c r="V120" t="n">
         <v>44771.0</v>
       </c>
-      <c r="W120" t="e">
-        <v>#N/A</v>
+      <c r="W120" t="n">
+        <v>6533.0</v>
       </c>
       <c r="X120" t="n">
         <v>267.0</v>
@@ -11975,17 +11975,17 @@
       <c r="E121" t="n">
         <v>57.0</v>
       </c>
-      <c r="F121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I121" t="e">
-        <v>#N/A</v>
+      <c r="F121" t="n">
+        <v>1653835.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>41252.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>82171.0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3651.0</v>
       </c>
       <c r="J121" t="e">
         <v>#N/A</v>
@@ -12005,29 +12005,29 @@
       <c r="O121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q121" t="e">
-        <v>#N/A</v>
+      <c r="P121" t="n">
+        <v>1975803.0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>198745.0</v>
       </c>
       <c r="R121" t="n">
         <v>2174548.0</v>
       </c>
-      <c r="S121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W121" t="e">
-        <v>#N/A</v>
+      <c r="S121" t="n">
+        <v>0.1332</v>
+      </c>
+      <c r="T121" t="n">
+        <v>45209.0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3150.0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>48359.0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>6904.0</v>
       </c>
       <c r="X121" t="n">
         <v>275.0</v>
@@ -12054,6 +12054,104 @@
         <v>2824.0</v>
       </c>
       <c r="AF121" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="2">
+        <v>44014.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>175977.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7915.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2525.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2212947.0</v>
+      </c>
+      <c r="S122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W122" t="n">
+        <v>7382.0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>785.0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>6262.0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>946.0</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2847.0</v>
+      </c>
+      <c r="AF122" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -12110,31 +12208,31 @@
         <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>78025.0</v>
+        <v>82732.0</v>
       </c>
       <c r="C2" t="n">
-        <v>86739.0</v>
+        <v>88218.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2087809.0</v>
+        <v>2124729.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7234.0</v>
+        <v>7243.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57227.0</v>
+        <v>57670.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12894.0</v>
+        <v>11983.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1322.0</v>
+        <v>1181.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5622.0</v>
+        <v>5491.0</v>
       </c>
       <c r="J2" t="n">
-        <v>21960.0</v>
+        <v>22341.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,24 @@
     <t>Nursing_Recoveries</t>
   </si>
   <si>
+    <t>Hospital_Beds_Staffed</t>
+  </si>
+  <si>
+    <t>Hospital_Beds_Taken</t>
+  </si>
+  <si>
+    <t>Current_Cases</t>
+  </si>
+  <si>
+    <t>Hospital_Beds_Available</t>
+  </si>
+  <si>
+    <t>ICU_Beds_Available</t>
+  </si>
+  <si>
+    <t>Ventilators_Available</t>
+  </si>
+  <si>
     <t>Population_DSHS</t>
   </si>
   <si>
@@ -144,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>90719.8</t>
+    <t>93572.4</t>
   </si>
 </sst>
 </file>
@@ -296,6 +314,24 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
@@ -391,7 +427,25 @@
       <c r="AE2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -489,7 +543,25 @@
       <c r="AE3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL3" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -587,7 +659,25 @@
       <c r="AE4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL4" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -685,7 +775,25 @@
       <c r="AE5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL5" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -783,7 +891,25 @@
       <c r="AE6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL6" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -881,7 +1007,25 @@
       <c r="AE7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL7" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -979,7 +1123,25 @@
       <c r="AE8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL8" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1077,7 +1239,25 @@
       <c r="AE9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL9" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1175,7 +1355,25 @@
       <c r="AE10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL10" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1273,7 +1471,25 @@
       <c r="AE11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL11" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1371,7 +1587,25 @@
       <c r="AE12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL12" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1469,7 +1703,25 @@
       <c r="AE13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL13" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1567,7 +1819,25 @@
       <c r="AE14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL14" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1665,7 +1935,25 @@
       <c r="AE15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL15" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1763,7 +2051,25 @@
       <c r="AE16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL16" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1861,7 +2167,25 @@
       <c r="AE17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL17" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -1959,7 +2283,25 @@
       <c r="AE18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL18" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2057,7 +2399,25 @@
       <c r="AE19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL19" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2155,7 +2515,25 @@
       <c r="AE20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL20" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2253,7 +2631,25 @@
       <c r="AE21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2351,7 +2747,25 @@
       <c r="AE22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL22" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2449,7 +2863,25 @@
       <c r="AE23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL23" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2547,7 +2979,25 @@
       <c r="AE24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2645,7 +3095,25 @@
       <c r="AE25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL25" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2743,7 +3211,25 @@
       <c r="AE26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL26" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2841,7 +3327,25 @@
       <c r="AE27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL27" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -2939,7 +3443,25 @@
       <c r="AE28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3037,7 +3559,25 @@
       <c r="AE29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3135,7 +3675,25 @@
       <c r="AE30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3233,7 +3791,25 @@
       <c r="AE31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL31" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3331,7 +3907,25 @@
       <c r="AE32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL32" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3429,7 +4023,25 @@
       <c r="AE33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AF33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL33" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3527,7 +4139,25 @@
       <c r="AE34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL34" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3625,7 +4255,25 @@
       <c r="AE35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AF35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL35" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3723,7 +4371,25 @@
       <c r="AE36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL36" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3821,7 +4487,25 @@
       <c r="AE37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL37" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -3919,7 +4603,25 @@
       <c r="AE38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AF38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL38" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4017,7 +4719,25 @@
       <c r="AE39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AF39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL39" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4115,7 +4835,25 @@
       <c r="AE40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AF40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL40" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4213,7 +4951,25 @@
       <c r="AE41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AF41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL41" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4311,7 +5067,25 @@
       <c r="AE42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AF42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL42" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4409,7 +5183,25 @@
       <c r="AE43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AF43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL43" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4507,7 +5299,25 @@
       <c r="AE44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AF44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL44" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4605,7 +5415,25 @@
       <c r="AE45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AF45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL45" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4703,7 +5531,25 @@
       <c r="AE46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AF46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL46" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4801,7 +5647,25 @@
       <c r="AE47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AF47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL47" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4899,7 +5763,25 @@
       <c r="AE48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL48" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -4997,7 +5879,25 @@
       <c r="AE49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AF49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL49" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5095,7 +5995,25 @@
       <c r="AE50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AF50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL50" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5193,7 +6111,25 @@
       <c r="AE51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AF51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL51" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5291,7 +6227,25 @@
       <c r="AE52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AF52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL52" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5389,7 +6343,25 @@
       <c r="AE53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AF53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL53" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5487,7 +6459,25 @@
       <c r="AE54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AF54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL54" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5585,7 +6575,25 @@
       <c r="AE55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AF55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL55" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5683,7 +6691,25 @@
       <c r="AE56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AF56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL56" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5781,7 +6807,25 @@
       <c r="AE57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AF57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL57" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5879,7 +6923,25 @@
       <c r="AE58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF58" t="n">
+      <c r="AF58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL58" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -5977,7 +7039,25 @@
       <c r="AE59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF59" t="n">
+      <c r="AF59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL59" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6075,7 +7155,25 @@
       <c r="AE60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AF60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL60" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6173,7 +7271,25 @@
       <c r="AE61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF61" t="n">
+      <c r="AF61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL61" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6271,7 +7387,25 @@
       <c r="AE62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF62" t="n">
+      <c r="AF62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL62" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6369,7 +7503,25 @@
       <c r="AE63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AF63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL63" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6467,7 +7619,25 @@
       <c r="AE64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AF64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL64" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6565,7 +7735,25 @@
       <c r="AE65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AF65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL65" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6663,7 +7851,25 @@
       <c r="AE66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AF66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL66" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6761,7 +7967,25 @@
       <c r="AE67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AF67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL67" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6859,7 +8083,25 @@
       <c r="AE68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF68" t="n">
+      <c r="AF68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL68" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -6957,7 +8199,25 @@
       <c r="AE69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF69" t="n">
+      <c r="AF69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL69" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7055,7 +8315,25 @@
       <c r="AE70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF70" t="n">
+      <c r="AF70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL70" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7153,7 +8431,25 @@
       <c r="AE71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF71" t="n">
+      <c r="AF71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL71" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7251,7 +8547,25 @@
       <c r="AE72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF72" t="n">
+      <c r="AF72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL72" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7349,7 +8663,25 @@
       <c r="AE73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF73" t="n">
+      <c r="AF73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL73" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7447,7 +8779,25 @@
       <c r="AE74" t="n">
         <v>494.0</v>
       </c>
-      <c r="AF74" t="n">
+      <c r="AF74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL74" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7545,7 +8895,25 @@
       <c r="AE75" t="n">
         <v>530.0</v>
       </c>
-      <c r="AF75" t="n">
+      <c r="AF75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL75" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7643,7 +9011,25 @@
       <c r="AE76" t="n">
         <v>531.0</v>
       </c>
-      <c r="AF76" t="n">
+      <c r="AF76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL76" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7741,7 +9127,25 @@
       <c r="AE77" t="n">
         <v>575.0</v>
       </c>
-      <c r="AF77" t="n">
+      <c r="AF77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL77" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7839,7 +9243,25 @@
       <c r="AE78" t="n">
         <v>631.0</v>
       </c>
-      <c r="AF78" t="n">
+      <c r="AF78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL78" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -7937,7 +9359,25 @@
       <c r="AE79" t="n">
         <v>684.0</v>
       </c>
-      <c r="AF79" t="n">
+      <c r="AF79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL79" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8035,7 +9475,25 @@
       <c r="AE80" t="n">
         <v>719.0</v>
       </c>
-      <c r="AF80" t="n">
+      <c r="AF80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL80" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8133,7 +9591,25 @@
       <c r="AE81" t="n">
         <v>730.0</v>
       </c>
-      <c r="AF81" t="n">
+      <c r="AF81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL81" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8231,7 +9707,25 @@
       <c r="AE82" t="n">
         <v>800.0</v>
       </c>
-      <c r="AF82" t="n">
+      <c r="AF82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL82" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8329,7 +9823,25 @@
       <c r="AE83" t="n">
         <v>812.0</v>
       </c>
-      <c r="AF83" t="n">
+      <c r="AF83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL83" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8427,7 +9939,25 @@
       <c r="AE84" t="n">
         <v>885.0</v>
       </c>
-      <c r="AF84" t="n">
+      <c r="AF84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL84" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8525,7 +10055,25 @@
       <c r="AE85" t="n">
         <v>940.0</v>
       </c>
-      <c r="AF85" t="n">
+      <c r="AF85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL85" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8623,7 +10171,25 @@
       <c r="AE86" t="n">
         <v>982.0</v>
       </c>
-      <c r="AF86" t="n">
+      <c r="AF86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL86" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8721,7 +10287,25 @@
       <c r="AE87" t="n">
         <v>996.0</v>
       </c>
-      <c r="AF87" t="n">
+      <c r="AF87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL87" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8819,7 +10403,25 @@
       <c r="AE88" t="n">
         <v>1074.0</v>
       </c>
-      <c r="AF88" t="n">
+      <c r="AF88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL88" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -8917,7 +10519,25 @@
       <c r="AE89" t="n">
         <v>1155.0</v>
       </c>
-      <c r="AF89" t="n">
+      <c r="AF89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL89" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9015,7 +10635,25 @@
       <c r="AE90" t="n">
         <v>1169.0</v>
       </c>
-      <c r="AF90" t="n">
+      <c r="AF90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL90" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9113,7 +10751,25 @@
       <c r="AE91" t="n">
         <v>1181.0</v>
       </c>
-      <c r="AF91" t="n">
+      <c r="AF91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL91" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9211,7 +10867,25 @@
       <c r="AE92" t="n">
         <v>1254.0</v>
       </c>
-      <c r="AF92" t="n">
+      <c r="AF92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL92" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9309,7 +10983,25 @@
       <c r="AE93" t="n">
         <v>1284.0</v>
       </c>
-      <c r="AF93" t="n">
+      <c r="AF93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL93" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9407,7 +11099,25 @@
       <c r="AE94" t="n">
         <v>1368.0</v>
       </c>
-      <c r="AF94" t="n">
+      <c r="AF94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL94" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9505,7 +11215,25 @@
       <c r="AE95" t="n">
         <v>1437.0</v>
       </c>
-      <c r="AF95" t="n">
+      <c r="AF95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL95" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9603,7 +11331,25 @@
       <c r="AE96" t="n">
         <v>1495.0</v>
       </c>
-      <c r="AF96" t="n">
+      <c r="AF96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL96" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9701,7 +11447,25 @@
       <c r="AE97" t="n">
         <v>1499.0</v>
       </c>
-      <c r="AF97" t="n">
+      <c r="AF97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL97" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9799,7 +11563,25 @@
       <c r="AE98" t="n">
         <v>1512.0</v>
       </c>
-      <c r="AF98" t="n">
+      <c r="AF98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL98" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9897,7 +11679,25 @@
       <c r="AE99" t="n">
         <v>1636.0</v>
       </c>
-      <c r="AF99" t="n">
+      <c r="AF99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL99" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -9995,7 +11795,25 @@
       <c r="AE100" t="n">
         <v>1739.0</v>
       </c>
-      <c r="AF100" t="n">
+      <c r="AF100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL100" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10093,7 +11911,25 @@
       <c r="AE101" t="n">
         <v>1831.0</v>
       </c>
-      <c r="AF101" t="n">
+      <c r="AF101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL101" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10191,7 +12027,25 @@
       <c r="AE102" t="n">
         <v>1908.0</v>
       </c>
-      <c r="AF102" t="n">
+      <c r="AF102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL102" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10289,7 +12143,25 @@
       <c r="AE103" t="n">
         <v>1939.0</v>
       </c>
-      <c r="AF103" t="n">
+      <c r="AF103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL103" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10387,7 +12259,25 @@
       <c r="AE104" t="n">
         <v>1939.0</v>
       </c>
-      <c r="AF104" t="n">
+      <c r="AF104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL104" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10485,7 +12375,25 @@
       <c r="AE105" t="n">
         <v>2015.0</v>
       </c>
-      <c r="AF105" t="n">
+      <c r="AF105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL105" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10583,7 +12491,25 @@
       <c r="AE106" t="n">
         <v>2141.0</v>
       </c>
-      <c r="AF106" t="n">
+      <c r="AF106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL106" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10681,7 +12607,25 @@
       <c r="AE107" t="n">
         <v>2242.0</v>
       </c>
-      <c r="AF107" t="n">
+      <c r="AF107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL107" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10779,7 +12723,25 @@
       <c r="AE108" t="n">
         <v>2290.0</v>
       </c>
-      <c r="AF108" t="n">
+      <c r="AF108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL108" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10877,7 +12839,25 @@
       <c r="AE109" t="n">
         <v>2373.0</v>
       </c>
-      <c r="AF109" t="n">
+      <c r="AF109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL109" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -10975,7 +12955,25 @@
       <c r="AE110" t="n">
         <v>2437.0</v>
       </c>
-      <c r="AF110" t="n">
+      <c r="AF110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL110" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11073,7 +13071,25 @@
       <c r="AE111" t="n">
         <v>2454.0</v>
       </c>
-      <c r="AF111" t="n">
+      <c r="AF111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL111" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11171,7 +13187,25 @@
       <c r="AE112" t="n">
         <v>2481.0</v>
       </c>
-      <c r="AF112" t="n">
+      <c r="AF112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL112" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11269,7 +13303,25 @@
       <c r="AE113" t="n">
         <v>2501.0</v>
       </c>
-      <c r="AF113" t="n">
+      <c r="AF113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL113" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11367,7 +13419,25 @@
       <c r="AE114" t="n">
         <v>2557.0</v>
       </c>
-      <c r="AF114" t="n">
+      <c r="AF114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL114" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11465,7 +13535,25 @@
       <c r="AE115" t="n">
         <v>2629.0</v>
       </c>
-      <c r="AF115" t="n">
+      <c r="AF115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL115" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11563,7 +13651,25 @@
       <c r="AE116" t="n">
         <v>2684.0</v>
       </c>
-      <c r="AF116" t="n">
+      <c r="AF116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL116" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11661,7 +13767,25 @@
       <c r="AE117" t="n">
         <v>2705.0</v>
       </c>
-      <c r="AF117" t="n">
+      <c r="AF117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL117" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11760,6 +13884,24 @@
         <v>2707.0</v>
       </c>
       <c r="AF118" t="n">
+        <v>58211.0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>39795.0</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>5523.0</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>12893.0</v>
+      </c>
+      <c r="AJ118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL118" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11857,7 +13999,25 @@
       <c r="AE119" t="n">
         <v>2723.0</v>
       </c>
-      <c r="AF119" t="n">
+      <c r="AF119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL119" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -11955,7 +14115,25 @@
       <c r="AE120" t="n">
         <v>2759.0</v>
       </c>
-      <c r="AF120" t="n">
+      <c r="AF120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL120" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -12054,6 +14232,24 @@
         <v>2824.0</v>
       </c>
       <c r="AF121" t="n">
+        <v>57227.0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>37429.0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>6904.0</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>12894.0</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1322.0</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>5622.0</v>
+      </c>
+      <c r="AL121" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -12073,17 +14269,17 @@
       <c r="E122" t="n">
         <v>44.0</v>
       </c>
-      <c r="F122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I122" t="e">
-        <v>#N/A</v>
+      <c r="F122" t="n">
+        <v>1696809.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>42974.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>87754.0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5583.0</v>
       </c>
       <c r="J122" t="e">
         <v>#N/A</v>
@@ -12103,26 +14299,26 @@
       <c r="O122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q122" t="e">
-        <v>#N/A</v>
+      <c r="P122" t="n">
+        <v>2013906.0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>199041.0</v>
       </c>
       <c r="R122" t="n">
         <v>2212947.0</v>
       </c>
-      <c r="S122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V122" t="e">
-        <v>#N/A</v>
+      <c r="S122" t="n">
+        <v>0.1392</v>
+      </c>
+      <c r="T122" t="n">
+        <v>45225.0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3025.0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>48250.0</v>
       </c>
       <c r="W122" t="n">
         <v>7382.0</v>
@@ -12152,6 +14348,140 @@
         <v>2847.0</v>
       </c>
       <c r="AF122" t="n">
+        <v>57670.0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>38305.0</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>7382.0</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>11983.0</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>5491.0</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="2">
+        <v>44015.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>183532.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7555.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2575.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2273591.0</v>
+      </c>
+      <c r="S123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W123" t="n">
+        <v>7652.0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>802.0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>6382.0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>957.0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>2880.0</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>57220.0</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>37599.0</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>7652.0</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>11969.0</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>5488.0</v>
+      </c>
+      <c r="AL123" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -12170,69 +14500,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>82732.0</v>
+        <v>87385.0</v>
       </c>
       <c r="C2" t="n">
-        <v>88218.0</v>
+        <v>91539.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2124729.0</v>
+        <v>2182052.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7243.0</v>
+        <v>7255.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57670.0</v>
+        <v>57220.0</v>
       </c>
       <c r="G2" t="n">
-        <v>11983.0</v>
+        <v>11969.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1181.0</v>
+        <v>1151.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5491.0</v>
+        <v>5488.0</v>
       </c>
       <c r="J2" t="n">
-        <v>22341.0</v>
+        <v>22672.0</v>
       </c>
       <c r="K2" t="n">
         <v>662.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -162,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>93572.4</t>
+    <t>97430</t>
   </si>
 </sst>
 </file>
@@ -14385,17 +14385,17 @@
       <c r="E123" t="n">
         <v>50.0</v>
       </c>
-      <c r="F123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
-        <v>#N/A</v>
+      <c r="F123" t="n">
+        <v>1741722.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>44913.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>89781.0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2027.0</v>
       </c>
       <c r="J123" t="e">
         <v>#N/A</v>
@@ -14415,26 +14415,26 @@
       <c r="O123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q123" t="e">
-        <v>#N/A</v>
+      <c r="P123" t="n">
+        <v>2071809.0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>201782.0</v>
       </c>
       <c r="R123" t="n">
         <v>2273591.0</v>
       </c>
-      <c r="S123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V123" t="e">
-        <v>#N/A</v>
+      <c r="S123" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="T123" t="n">
+        <v>49855.0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2992.0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>52847.0</v>
       </c>
       <c r="W123" t="n">
         <v>7652.0</v>
@@ -14482,6 +14482,122 @@
         <v>5488.0</v>
       </c>
       <c r="AL123" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="2">
+        <v>44016.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>191790.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8258.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2608.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2338098.0</v>
+      </c>
+      <c r="S124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W124" t="n">
+        <v>7890.0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>816.0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>722.0</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>6472.0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>974.0</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>2939.0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>57159.0</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>36362.0</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>7890.0</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>12907.0</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>5479.0</v>
+      </c>
+      <c r="AL124" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -14538,34 +14654,34 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>87385.0</v>
+        <v>91752.0</v>
       </c>
       <c r="C2" t="n">
-        <v>91539.0</v>
+        <v>92318.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2182052.0</v>
+        <v>2245780.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7255.0</v>
+        <v>7274.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57220.0</v>
+        <v>57159.0</v>
       </c>
       <c r="G2" t="n">
-        <v>11969.0</v>
+        <v>12907.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1151.0</v>
+        <v>1270.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5488.0</v>
+        <v>5479.0</v>
       </c>
       <c r="J2" t="n">
-        <v>22672.0</v>
+        <v>23063.0</v>
       </c>
       <c r="K2" t="n">
-        <v>662.0</v>
+        <v>679.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -162,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>97430</t>
+    <t>100842.6</t>
   </si>
 </sst>
 </file>
@@ -14501,17 +14501,17 @@
       <c r="E124" t="n">
         <v>33.0</v>
       </c>
-      <c r="F124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
-        <v>#N/A</v>
+      <c r="F124" t="n">
+        <v>1785542.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>43820.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>96273.0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6492.0</v>
       </c>
       <c r="J124" t="e">
         <v>#N/A</v>
@@ -14531,26 +14531,26 @@
       <c r="O124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q124" t="e">
-        <v>#N/A</v>
+      <c r="P124" t="n">
+        <v>2133457.0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>204641.0</v>
       </c>
       <c r="R124" t="n">
         <v>2338098.0</v>
       </c>
-      <c r="S124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V124" t="e">
-        <v>#N/A</v>
+      <c r="S124" t="n">
+        <v>0.1352</v>
+      </c>
+      <c r="T124" t="n">
+        <v>51177.0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2892.0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>54069.0</v>
       </c>
       <c r="W124" t="n">
         <v>7890.0</v>
@@ -14598,6 +14598,122 @@
         <v>5479.0</v>
       </c>
       <c r="AL124" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="2">
+        <v>44017.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>195239.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3449.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2637.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2371709.0</v>
+      </c>
+      <c r="S125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W125" t="n">
+        <v>8181.0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>6587.0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>978.0</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>2975.0</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>55856.0</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>34368.0</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>8181.0</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>13307.0</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1203.0</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>5413.0</v>
+      </c>
+      <c r="AL125" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -14654,34 +14770,34 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>91752.0</v>
+        <v>91759.0</v>
       </c>
       <c r="C2" t="n">
-        <v>92318.0</v>
+        <v>93065.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2245780.0</v>
+        <v>2278644.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7274.0</v>
+        <v>7307.0</v>
       </c>
       <c r="F2" t="n">
-        <v>57159.0</v>
+        <v>55856.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12907.0</v>
+        <v>13307.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1270.0</v>
+        <v>1203.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5479.0</v>
+        <v>5413.0</v>
       </c>
       <c r="J2" t="n">
-        <v>23063.0</v>
+        <v>23133.0</v>
       </c>
       <c r="K2" t="n">
-        <v>679.0</v>
+        <v>680.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -162,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>100842.6</t>
+    <t>103781.8</t>
   </si>
 </sst>
 </file>
@@ -13817,23 +13817,23 @@
       <c r="I118" t="n">
         <v>4316.0</v>
       </c>
-      <c r="J118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O118" t="e">
-        <v>#N/A</v>
+      <c r="J118" t="n">
+        <v>-22.63843570886264</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-11.22836129991121</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-6.576122692672173</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-26.966845744878967</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-14.362533222437097</v>
+      </c>
+      <c r="O118" t="n">
+        <v>6.933591763891455</v>
       </c>
       <c r="P118" t="n">
         <v>1819189.0</v>
@@ -13933,23 +13933,23 @@
       <c r="I119" t="n">
         <v>2252.0</v>
       </c>
-      <c r="J119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O119" t="e">
-        <v>#N/A</v>
+      <c r="J119" t="n">
+        <v>-15.37827629277227</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-7.603228630292629</v>
+      </c>
+      <c r="L119" t="n">
+        <v>8.838977659557688</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-26.521483979913683</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-37.80707880808609</v>
+      </c>
+      <c r="O119" t="n">
+        <v>12.90305764948985</v>
       </c>
       <c r="P119" t="n">
         <v>1869282.0</v>
@@ -14049,23 +14049,23 @@
       <c r="I120" t="n">
         <v>2672.0</v>
       </c>
-      <c r="J120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O120" t="e">
-        <v>#N/A</v>
+      <c r="J120" t="n">
+        <v>-12.16679997340446</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-3.581785118496759</v>
+      </c>
+      <c r="L120" t="n">
+        <v>18.840586995986317</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-25.51963084328141</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-39.12228652708665</v>
+      </c>
+      <c r="O120" t="n">
+        <v>13.733029585464825</v>
       </c>
       <c r="P120" t="n">
         <v>1921948.0</v>
@@ -14165,23 +14165,23 @@
       <c r="I121" t="n">
         <v>3651.0</v>
       </c>
-      <c r="J121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O121" t="e">
-        <v>#N/A</v>
+      <c r="J121" t="n">
+        <v>-9.72572106135809</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.0116053325770493</v>
+      </c>
+      <c r="L121" t="n">
+        <v>24.085177677313087</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-22.053377582945362</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-38.97921945121642</v>
+      </c>
+      <c r="O121" t="n">
+        <v>13.175450226259654</v>
       </c>
       <c r="P121" t="n">
         <v>1975803.0</v>
@@ -14281,23 +14281,23 @@
       <c r="I122" t="n">
         <v>5583.0</v>
       </c>
-      <c r="J122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O122" t="e">
-        <v>#N/A</v>
+      <c r="J122" t="n">
+        <v>-8.465968977701953</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3.7977159778060043</v>
+      </c>
+      <c r="L122" t="n">
+        <v>19.0453039140607</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-22.187669417162134</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-41.58407888026032</v>
+      </c>
+      <c r="O122" t="n">
+        <v>13.045996668768762</v>
       </c>
       <c r="P122" t="n">
         <v>2013906.0</v>
@@ -14397,23 +14397,23 @@
       <c r="I123" t="n">
         <v>2027.0</v>
       </c>
-      <c r="J123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O123" t="e">
-        <v>#N/A</v>
+      <c r="J123" t="n">
+        <v>-13.7880128813301</v>
+      </c>
+      <c r="K123" t="n">
+        <v>7.914121909317406</v>
+      </c>
+      <c r="L123" t="n">
+        <v>13.353544459759982</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-27.738230300584185</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-56.10933923121755</v>
+      </c>
+      <c r="O123" t="n">
+        <v>17.69745651541502</v>
       </c>
       <c r="P123" t="n">
         <v>2071809.0</v>
@@ -14617,17 +14617,17 @@
       <c r="E125" t="n">
         <v>29.0</v>
       </c>
-      <c r="F125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
-        <v>#N/A</v>
+      <c r="F125" t="n">
+        <v>1829966.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>44424.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>99383.0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3110.0</v>
       </c>
       <c r="J125" t="e">
         <v>#N/A</v>
@@ -14647,26 +14647,26 @@
       <c r="O125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q125" t="e">
-        <v>#N/A</v>
+      <c r="P125" t="n">
+        <v>2163729.0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>207980.0</v>
       </c>
       <c r="R125" t="n">
         <v>2371709.0</v>
       </c>
-      <c r="S125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V125" t="e">
-        <v>#N/A</v>
+      <c r="S125" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="T125" t="n">
+        <v>49220.0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2921.0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>52141.0</v>
       </c>
       <c r="W125" t="n">
         <v>8181.0</v>
@@ -14714,6 +14714,122 @@
         <v>5413.0</v>
       </c>
       <c r="AL125" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="2">
+        <v>44018.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>200557.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5318.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2655.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2431861.0</v>
+      </c>
+      <c r="S126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W126" t="n">
+        <v>8698.0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>741.0</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>6653.0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2993.0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>53680.0</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>32130.0</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>8698.0</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>12852.0</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>5300.0</v>
+      </c>
+      <c r="AL126" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -14770,31 +14886,31 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>91759.0</v>
+        <v>94120.0</v>
       </c>
       <c r="C2" t="n">
-        <v>93065.0</v>
+        <v>94213.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2278644.0</v>
+        <v>2337648.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7307.0</v>
+        <v>7368.0</v>
       </c>
       <c r="F2" t="n">
-        <v>55856.0</v>
+        <v>53680.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13307.0</v>
+        <v>12852.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1203.0</v>
+        <v>1226.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5413.0</v>
+        <v>5300.0</v>
       </c>
       <c r="J2" t="n">
-        <v>23133.0</v>
+        <v>23242.0</v>
       </c>
       <c r="K2" t="n">
         <v>680.0</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -14833,6 +14833,122 @@
         <v>2.9677668E7</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="n" s="2">
+        <v>44019.0</v>
+      </c>
+      <c r="B127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>53680.0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>32130.0</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>8698.0</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>12852.0</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>5300.0</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -162,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>103781.8</t>
+    <t>108485</t>
   </si>
 </sst>
 </file>
@@ -14733,17 +14733,17 @@
       <c r="E126" t="n">
         <v>18.0</v>
       </c>
-      <c r="F126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I126" t="e">
-        <v>#N/A</v>
+      <c r="F126" t="n">
+        <v>1874626.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>44660.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>101095.0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1712.0</v>
       </c>
       <c r="J126" t="e">
         <v>#N/A</v>
@@ -14763,26 +14763,26 @@
       <c r="O126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q126" t="e">
-        <v>#N/A</v>
+      <c r="P126" t="n">
+        <v>2221287.0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>210574.0</v>
       </c>
       <c r="R126" t="n">
         <v>2431861.0</v>
       </c>
-      <c r="S126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V126" t="e">
-        <v>#N/A</v>
+      <c r="S126" t="n">
+        <v>0.1351</v>
+      </c>
+      <c r="T126" t="n">
+        <v>50286.0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>52846.0</v>
       </c>
       <c r="W126" t="n">
         <v>8698.0</v>
@@ -14837,17 +14837,17 @@
       <c r="A127" t="n" s="2">
         <v>44019.0</v>
       </c>
-      <c r="B127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E127" t="e">
-        <v>#N/A</v>
+      <c r="B127" t="n">
+        <v>210585.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>10028.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2715.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>60.0</v>
       </c>
       <c r="F127" t="e">
         <v>#N/A</v>
@@ -14885,8 +14885,8 @@
       <c r="Q127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R127" t="e">
-        <v>#N/A</v>
+      <c r="R127" t="n">
+        <v>2471029.0</v>
       </c>
       <c r="S127" t="e">
         <v>#N/A</v>
@@ -14900,50 +14900,50 @@
       <c r="V127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Z127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AA127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AB127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AD127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE127" t="e">
-        <v>#N/A</v>
+      <c r="W127" t="n">
+        <v>9286.0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>867.0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>6857.0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3034.0</v>
       </c>
       <c r="AF127" t="n">
-        <v>53680.0</v>
+        <v>54744.0</v>
       </c>
       <c r="AG127" t="n">
-        <v>32130.0</v>
+        <v>32533.0</v>
       </c>
       <c r="AH127" t="n">
-        <v>8698.0</v>
+        <v>9286.0</v>
       </c>
       <c r="AI127" t="n">
-        <v>12852.0</v>
+        <v>12925.0</v>
       </c>
       <c r="AJ127" t="n">
-        <v>1226.0</v>
+        <v>1148.0</v>
       </c>
       <c r="AK127" t="n">
-        <v>5300.0</v>
+        <v>5283.0</v>
       </c>
       <c r="AL127" t="n">
         <v>2.9677668E7</v>
@@ -15002,34 +15002,34 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>94120.0</v>
+        <v>99385.0</v>
       </c>
       <c r="C2" t="n">
-        <v>94213.0</v>
+        <v>95908.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2337648.0</v>
+        <v>2375121.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7368.0</v>
+        <v>7408.0</v>
       </c>
       <c r="F2" t="n">
-        <v>53680.0</v>
+        <v>54744.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12852.0</v>
+        <v>12925.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1226.0</v>
+        <v>1148.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5300.0</v>
+        <v>5283.0</v>
       </c>
       <c r="J2" t="n">
-        <v>23242.0</v>
+        <v>23607.0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.0</v>
+        <v>689.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -162,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>108485</t>
+    <t>113284.4</t>
   </si>
 </sst>
 </file>
@@ -10829,7 +10829,7 @@
         <v>1117274.0</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92" t="n">
         <v>21585.0</v>
@@ -10945,7 +10945,7 @@
         <v>1150868.0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0626</v>
+        <v>0.06259941815807</v>
       </c>
       <c r="T93" t="n">
         <v>23620.0</v>
@@ -11061,7 +11061,7 @@
         <v>1174948.0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94" t="n">
         <v>24043.0</v>
@@ -11177,7 +11177,7 @@
         <v>1209187.0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95" t="n">
         <v>23537.0</v>
@@ -11293,7 +11293,7 @@
         <v>1218955.0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96" t="n">
         <v>20021.0</v>
@@ -11525,7 +11525,7 @@
         <v>1286139.0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0666</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98" t="n">
         <v>23019.0</v>
@@ -11641,7 +11641,7 @@
         <v>1302049.0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99" t="n">
         <v>22046.0</v>
@@ -11757,7 +11757,7 @@
         <v>1348893.0</v>
       </c>
       <c r="S100" t="n">
-        <v>0.0685</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100" t="n">
         <v>23966.0</v>
@@ -11873,7 +11873,7 @@
         <v>1370131.0</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0705</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101" t="n">
         <v>23626.0</v>
@@ -11989,7 +11989,7 @@
         <v>1404369.0</v>
       </c>
       <c r="S102" t="n">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102" t="n">
         <v>23863.0</v>
@@ -12105,7 +12105,7 @@
         <v>1442950.0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103" t="n">
         <v>29139.0</v>
@@ -12337,7 +12337,7 @@
         <v>1499015.0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0671</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105" t="n">
         <v>28727.0</v>
@@ -12453,7 +12453,7 @@
         <v>1522434.0</v>
       </c>
       <c r="S106" t="n">
-        <v>0.0694</v>
+        <v>0.06941707304209</v>
       </c>
       <c r="T106" t="n">
         <v>29793.0</v>
@@ -12569,7 +12569,7 @@
         <v>1560537.0</v>
       </c>
       <c r="S107" t="n">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107" t="n">
         <v>28774.0</v>
@@ -12801,7 +12801,7 @@
         <v>1622851.0</v>
       </c>
       <c r="S109" t="n">
-        <v>0.0894</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109" t="n">
         <v>29011.0</v>
@@ -12917,7 +12917,7 @@
         <v>1690124.0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.088</v>
+        <v>0.08795944343323</v>
       </c>
       <c r="T110" t="n">
         <v>32885.0</v>
@@ -13149,7 +13149,7 @@
         <v>1767701.0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112" t="n">
         <v>35550.0</v>
@@ -13265,7 +13265,7 @@
         <v>1805642.0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T113" t="n">
         <v>37231.0</v>
@@ -13381,7 +13381,7 @@
         <v>1836037.0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114" t="n">
         <v>35943.0</v>
@@ -13497,7 +13497,7 @@
         <v>1875197.0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115" t="n">
         <v>39060.0</v>
@@ -13613,7 +13613,7 @@
         <v>1903661.0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116" t="n">
         <v>37061.0</v>
@@ -13729,7 +13729,7 @@
         <v>1959617.0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117" t="n">
         <v>35577.0</v>
@@ -13845,7 +13845,7 @@
         <v>2006724.0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118" t="n">
         <v>38597.0</v>
@@ -13961,7 +13961,7 @@
         <v>2061939.0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119" t="n">
         <v>38856.0</v>
@@ -14077,7 +14077,7 @@
         <v>2119036.0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.1358</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T120" t="n">
         <v>41670.0</v>
@@ -14193,7 +14193,7 @@
         <v>2174548.0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.1332</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T121" t="n">
         <v>45209.0</v>
@@ -14309,7 +14309,7 @@
         <v>2212947.0</v>
       </c>
       <c r="S122" t="n">
-        <v>0.1392</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T122" t="n">
         <v>45225.0</v>
@@ -14425,7 +14425,7 @@
         <v>2273591.0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.1315</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T123" t="n">
         <v>49855.0</v>
@@ -14513,23 +14513,23 @@
       <c r="I124" t="n">
         <v>6492.0</v>
       </c>
-      <c r="J124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O124" t="e">
-        <v>#N/A</v>
+      <c r="J124" t="n">
+        <v>-35.880808897332784</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-6.64784350066192</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-2.9467576859690863</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-34.79968991530029</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-30.33636024997971</v>
+      </c>
+      <c r="O124" t="n">
+        <v>9.327741689512596</v>
       </c>
       <c r="P124" t="n">
         <v>2133457.0</v>
@@ -14541,7 +14541,7 @@
         <v>2338098.0</v>
       </c>
       <c r="S124" t="n">
-        <v>0.1352</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T124" t="n">
         <v>51177.0</v>
@@ -14629,23 +14629,23 @@
       <c r="I125" t="n">
         <v>3110.0</v>
       </c>
-      <c r="J125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O125" t="e">
-        <v>#N/A</v>
+      <c r="J125" t="n">
+        <v>-27.545188249057347</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-17.508183383519942</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-19.04473069790639</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-32.00925832655557</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-21.554347370167502</v>
+      </c>
+      <c r="O125" t="n">
+        <v>7.227335926383908</v>
       </c>
       <c r="P125" t="n">
         <v>2163729.0</v>
@@ -14657,7 +14657,7 @@
         <v>2371709.0</v>
       </c>
       <c r="S125" t="n">
-        <v>0.135</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T125" t="n">
         <v>49220.0</v>
@@ -14773,7 +14773,7 @@
         <v>2431861.0</v>
       </c>
       <c r="S126" t="n">
-        <v>0.1351</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T126" t="n">
         <v>50286.0</v>
@@ -14849,17 +14849,17 @@
       <c r="E127" t="n">
         <v>60.0</v>
       </c>
-      <c r="F127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I127" t="e">
-        <v>#N/A</v>
+      <c r="F127" t="n">
+        <v>1704866.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-169760.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>106751.0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5656.0</v>
       </c>
       <c r="J127" t="e">
         <v>#N/A</v>
@@ -14879,29 +14879,29 @@
       <c r="O127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q127" t="e">
-        <v>#N/A</v>
+      <c r="P127" t="n">
+        <v>2258708.0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>212321.0</v>
       </c>
       <c r="R127" t="n">
         <v>2471029.0</v>
       </c>
-      <c r="S127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W127" t="n">
-        <v>9286.0</v>
+      <c r="S127" t="n">
+        <v>0.15025240527379</v>
+      </c>
+      <c r="T127" t="n">
+        <v>48109.0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2176.0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>50285.0</v>
+      </c>
+      <c r="W127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X127" t="n">
         <v>323.0</v>
@@ -14946,6 +14946,122 @@
         <v>5283.0</v>
       </c>
       <c r="AL127" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="2">
+        <v>44020.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>220564.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9979.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2813.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="F128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2526940.0</v>
+      </c>
+      <c r="S128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X128" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>909.0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>7022.0</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>1027.0</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>3055.0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>56591.0</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>35406.0</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>9610.0</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>11575.0</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>5288.0</v>
+      </c>
+      <c r="AL128" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -15002,34 +15118,34 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>99385.0</v>
+        <v>104467.0</v>
       </c>
       <c r="C2" t="n">
-        <v>95908.0</v>
+        <v>97598.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2375121.0</v>
+        <v>2429342.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7408.0</v>
+        <v>7437.0</v>
       </c>
       <c r="F2" t="n">
-        <v>54744.0</v>
+        <v>56591.0</v>
       </c>
       <c r="G2" t="n">
-        <v>12925.0</v>
+        <v>11575.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1148.0</v>
+        <v>1017.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5283.0</v>
+        <v>5288.0</v>
       </c>
       <c r="J2" t="n">
-        <v>23607.0</v>
+        <v>24084.0</v>
       </c>
       <c r="K2" t="n">
-        <v>689.0</v>
+        <v>693.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -162,7 +162,7 @@
     <t>Death_Investigations</t>
   </si>
   <si>
-    <t>113284.4</t>
+    <t>118326.39999999999</t>
   </si>
 </sst>
 </file>
@@ -10829,7 +10829,7 @@
         <v>1117274.0</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T92" t="n">
         <v>21585.0</v>
@@ -10945,7 +10945,7 @@
         <v>1150868.0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.06259941815807</v>
+        <v>0.0626</v>
       </c>
       <c r="T93" t="n">
         <v>23620.0</v>
@@ -11061,7 +11061,7 @@
         <v>1174948.0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T94" t="n">
         <v>24043.0</v>
@@ -11177,7 +11177,7 @@
         <v>1209187.0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T95" t="n">
         <v>23537.0</v>
@@ -11293,7 +11293,7 @@
         <v>1218955.0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T96" t="n">
         <v>20021.0</v>
@@ -11525,7 +11525,7 @@
         <v>1286139.0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.06662901614215</v>
+        <v>0.0666</v>
       </c>
       <c r="T98" t="n">
         <v>23019.0</v>
@@ -11641,7 +11641,7 @@
         <v>1302049.0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T99" t="n">
         <v>22046.0</v>
@@ -11757,7 +11757,7 @@
         <v>1348893.0</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06846481685691</v>
+        <v>0.0685</v>
       </c>
       <c r="T100" t="n">
         <v>23966.0</v>
@@ -11873,7 +11873,7 @@
         <v>1370131.0</v>
       </c>
       <c r="S101" t="n">
-        <v>0.07052200676015</v>
+        <v>0.0705</v>
       </c>
       <c r="T101" t="n">
         <v>23626.0</v>
@@ -11989,7 +11989,7 @@
         <v>1404369.0</v>
       </c>
       <c r="S102" t="n">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T102" t="n">
         <v>23863.0</v>
@@ -12105,7 +12105,7 @@
         <v>1442950.0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T103" t="n">
         <v>29139.0</v>
@@ -12337,7 +12337,7 @@
         <v>1499015.0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.06709533684425</v>
+        <v>0.0671</v>
       </c>
       <c r="T105" t="n">
         <v>28727.0</v>
@@ -12453,7 +12453,7 @@
         <v>1522434.0</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06941707304209</v>
+        <v>0.0694</v>
       </c>
       <c r="T106" t="n">
         <v>29793.0</v>
@@ -12569,7 +12569,7 @@
         <v>1560537.0</v>
       </c>
       <c r="S107" t="n">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T107" t="n">
         <v>28774.0</v>
@@ -12801,7 +12801,7 @@
         <v>1622851.0</v>
       </c>
       <c r="S109" t="n">
-        <v>0.08936916175479</v>
+        <v>0.0894</v>
       </c>
       <c r="T109" t="n">
         <v>29011.0</v>
@@ -12917,7 +12917,7 @@
         <v>1690124.0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.08795944343323</v>
+        <v>0.088</v>
       </c>
       <c r="T110" t="n">
         <v>32885.0</v>
@@ -13149,7 +13149,7 @@
         <v>1767701.0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="T112" t="n">
         <v>35550.0</v>
@@ -13265,7 +13265,7 @@
         <v>1805642.0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.10422837848208</v>
+        <v>0.1042</v>
       </c>
       <c r="T113" t="n">
         <v>37231.0</v>
@@ -13381,7 +13381,7 @@
         <v>1836037.0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="T114" t="n">
         <v>35943.0</v>
@@ -13497,7 +13497,7 @@
         <v>1875197.0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="T115" t="n">
         <v>39060.0</v>
@@ -13613,7 +13613,7 @@
         <v>1903661.0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="T116" t="n">
         <v>37061.0</v>
@@ -13729,7 +13729,7 @@
         <v>1959617.0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="T117" t="n">
         <v>35577.0</v>
@@ -13845,7 +13845,7 @@
         <v>2006724.0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="T118" t="n">
         <v>38597.0</v>
@@ -13961,7 +13961,7 @@
         <v>2061939.0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="T119" t="n">
         <v>38856.0</v>
@@ -14077,7 +14077,7 @@
         <v>2119036.0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="T120" t="n">
         <v>41670.0</v>
@@ -14193,7 +14193,7 @@
         <v>2174548.0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.13316248660981</v>
+        <v>0.1332</v>
       </c>
       <c r="T121" t="n">
         <v>45209.0</v>
@@ -14309,7 +14309,7 @@
         <v>2212947.0</v>
       </c>
       <c r="S122" t="n">
-        <v>0.13917844913637</v>
+        <v>0.1392</v>
       </c>
       <c r="T122" t="n">
         <v>45225.0</v>
@@ -14425,7 +14425,7 @@
         <v>2273591.0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.13154795505798</v>
+        <v>0.1315</v>
       </c>
       <c r="T123" t="n">
         <v>49855.0</v>
@@ -14541,7 +14541,7 @@
         <v>2338098.0</v>
       </c>
       <c r="S124" t="n">
-        <v>0.13517270641306</v>
+        <v>0.1352</v>
       </c>
       <c r="T124" t="n">
         <v>51177.0</v>
@@ -14657,7 +14657,7 @@
         <v>2371709.0</v>
       </c>
       <c r="S125" t="n">
-        <v>0.13500899750392</v>
+        <v>0.135</v>
       </c>
       <c r="T125" t="n">
         <v>49220.0</v>
@@ -14773,7 +14773,7 @@
         <v>2431861.0</v>
       </c>
       <c r="S126" t="n">
-        <v>0.13507194500078</v>
+        <v>0.1351</v>
       </c>
       <c r="T126" t="n">
         <v>50286.0</v>
@@ -14850,10 +14850,10 @@
         <v>60.0</v>
       </c>
       <c r="F127" t="n">
-        <v>1704866.0</v>
+        <v>1917116.0</v>
       </c>
       <c r="G127" t="n">
-        <v>-169760.0</v>
+        <v>42490.0</v>
       </c>
       <c r="H127" t="n">
         <v>106751.0</v>
@@ -14889,7 +14889,7 @@
         <v>2471029.0</v>
       </c>
       <c r="S127" t="n">
-        <v>0.15025240527379</v>
+        <v>0.1503</v>
       </c>
       <c r="T127" t="n">
         <v>48109.0</v>
@@ -14900,8 +14900,8 @@
       <c r="V127" t="n">
         <v>50285.0</v>
       </c>
-      <c r="W127" t="e">
-        <v>#N/A</v>
+      <c r="W127" t="n">
+        <v>9286.0</v>
       </c>
       <c r="X127" t="n">
         <v>323.0</v>
@@ -14965,17 +14965,17 @@
       <c r="E128" t="n">
         <v>98.0</v>
       </c>
-      <c r="F128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I128" t="e">
-        <v>#N/A</v>
+      <c r="F128" t="n">
+        <v>1960005.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42889.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>112362.0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5611.0</v>
       </c>
       <c r="J128" t="e">
         <v>#N/A</v>
@@ -14995,29 +14995,29 @@
       <c r="O128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q128" t="e">
-        <v>#N/A</v>
+      <c r="P128" t="n">
+        <v>2313212.0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>213728.0</v>
       </c>
       <c r="R128" t="n">
         <v>2526940.0</v>
       </c>
-      <c r="S128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V128" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W128" t="e">
-        <v>#N/A</v>
+      <c r="S128" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="T128" t="n">
+        <v>48201.0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2140.0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>50342.0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>9610.0</v>
       </c>
       <c r="X128" t="n">
         <v>327.0</v>
@@ -15062,6 +15062,122 @@
         <v>5288.0</v>
       </c>
       <c r="AL128" t="n">
+        <v>2.9677668E7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="2">
+        <v>44021.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>230346.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9782.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2918.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="F129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2603903.0</v>
+      </c>
+      <c r="S129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W129" t="n">
+        <v>9689.0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>7301.0</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1035.0</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3106.0</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>58002.0</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>37017.0</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>9689.0</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>11296.0</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>5224.0</v>
+      </c>
+      <c r="AL129" t="n">
         <v>2.9677668E7</v>
       </c>
     </row>
@@ -15118,34 +15234,34 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>104467.0</v>
+        <v>109102.0</v>
       </c>
       <c r="C2" t="n">
-        <v>97598.0</v>
+        <v>98700.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2429342.0</v>
+        <v>2505203.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7437.0</v>
+        <v>7466.0</v>
       </c>
       <c r="F2" t="n">
-        <v>56591.0</v>
+        <v>58002.0</v>
       </c>
       <c r="G2" t="n">
-        <v>11575.0</v>
+        <v>11296.0</v>
       </c>
       <c r="H2" t="n">
-        <v>1017.0</v>
+        <v>953.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5288.0</v>
+        <v>5224.0</v>
       </c>
       <c r="J2" t="n">
-        <v>24084.0</v>
+        <v>24459.0</v>
       </c>
       <c r="K2" t="n">
-        <v>693.0</v>
+        <v>703.0</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">118326.39999999999</t>
+    <t xml:space="preserve">122996</t>
   </si>
 </sst>
 </file>
@@ -3323,22 +3323,22 @@
       <c r="AD41"/>
       <c r="AE41"/>
       <c r="AF41" t="n">
-        <v>229</v>
+        <v>1338</v>
       </c>
       <c r="AG41" t="n">
-        <v>189</v>
+        <v>775</v>
       </c>
       <c r="AH41" t="n">
-        <v>182</v>
+        <v>563</v>
       </c>
       <c r="AI41" t="n">
-        <v>247</v>
+        <v>21550</v>
       </c>
       <c r="AJ41" t="n">
-        <v>227</v>
+        <v>2368</v>
       </c>
       <c r="AK41" t="n">
-        <v>253</v>
+        <v>27420</v>
       </c>
       <c r="AL41"/>
       <c r="AM41"/>
@@ -3411,22 +3411,22 @@
       <c r="AD42"/>
       <c r="AE42"/>
       <c r="AF42" t="n">
-        <v>439</v>
+        <v>1176</v>
       </c>
       <c r="AG42" t="n">
-        <v>358</v>
+        <v>585</v>
       </c>
       <c r="AH42" t="n">
-        <v>308</v>
+        <v>591</v>
       </c>
       <c r="AI42" t="n">
-        <v>642</v>
+        <v>20588</v>
       </c>
       <c r="AJ42" t="n">
-        <v>486</v>
+        <v>2265</v>
       </c>
       <c r="AK42" t="n">
-        <v>700</v>
+        <v>26721</v>
       </c>
       <c r="AL42"/>
       <c r="AM42"/>
@@ -3499,22 +3499,22 @@
       <c r="AD43"/>
       <c r="AE43"/>
       <c r="AF43" t="n">
-        <v>547</v>
+        <v>1409</v>
       </c>
       <c r="AG43" t="n">
-        <v>413</v>
+        <v>815</v>
       </c>
       <c r="AH43" t="n">
-        <v>359</v>
+        <v>594</v>
       </c>
       <c r="AI43" t="n">
-        <v>1047</v>
+        <v>21198</v>
       </c>
       <c r="AJ43" t="n">
-        <v>845</v>
+        <v>2342</v>
       </c>
       <c r="AK43" t="n">
-        <v>1199</v>
+        <v>28695</v>
       </c>
       <c r="AL43"/>
       <c r="AM43"/>
@@ -3587,22 +3587,22 @@
       <c r="AD44"/>
       <c r="AE44"/>
       <c r="AF44" t="n">
-        <v>581</v>
+        <v>1568</v>
       </c>
       <c r="AG44" t="n">
-        <v>442</v>
+        <v>880</v>
       </c>
       <c r="AH44" t="n">
-        <v>387</v>
+        <v>688</v>
       </c>
       <c r="AI44" t="n">
-        <v>1387</v>
+        <v>21816</v>
       </c>
       <c r="AJ44" t="n">
-        <v>802</v>
+        <v>2366</v>
       </c>
       <c r="AK44" t="n">
-        <v>1479</v>
+        <v>29892</v>
       </c>
       <c r="AL44"/>
       <c r="AM44"/>
@@ -3675,22 +3675,22 @@
       <c r="AD45"/>
       <c r="AE45"/>
       <c r="AF45" t="n">
-        <v>570</v>
+        <v>1459</v>
       </c>
       <c r="AG45" t="n">
-        <v>472</v>
+        <v>796</v>
       </c>
       <c r="AH45" t="n">
-        <v>448</v>
+        <v>663</v>
       </c>
       <c r="AI45" t="n">
-        <v>1790</v>
+        <v>21489</v>
       </c>
       <c r="AJ45" t="n">
-        <v>942</v>
+        <v>2386</v>
       </c>
       <c r="AK45" t="n">
-        <v>1889</v>
+        <v>30271</v>
       </c>
       <c r="AL45"/>
       <c r="AM45"/>
@@ -3763,22 +3763,22 @@
       <c r="AD46"/>
       <c r="AE46"/>
       <c r="AF46" t="n">
-        <v>673</v>
+        <v>1522</v>
       </c>
       <c r="AG46" t="n">
-        <v>571</v>
+        <v>828</v>
       </c>
       <c r="AH46" t="n">
-        <v>442</v>
+        <v>694</v>
       </c>
       <c r="AI46" t="n">
-        <v>2035</v>
+        <v>21247</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1021</v>
+        <v>2543</v>
       </c>
       <c r="AK46" t="n">
-        <v>2217</v>
+        <v>30162</v>
       </c>
       <c r="AL46"/>
       <c r="AM46"/>
@@ -3851,22 +3851,22 @@
       <c r="AD47"/>
       <c r="AE47"/>
       <c r="AF47" t="n">
-        <v>827</v>
+        <v>1321</v>
       </c>
       <c r="AG47" t="n">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="AH47" t="n">
-        <v>405</v>
+        <v>583</v>
       </c>
       <c r="AI47" t="n">
-        <v>2636</v>
+        <v>21060</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1218</v>
+        <v>2339</v>
       </c>
       <c r="AK47" t="n">
-        <v>2455</v>
+        <v>30333</v>
       </c>
       <c r="AL47"/>
       <c r="AM47"/>
@@ -3939,22 +3939,22 @@
       <c r="AD48"/>
       <c r="AE48"/>
       <c r="AF48" t="n">
-        <v>704</v>
+        <v>1471</v>
       </c>
       <c r="AG48" t="n">
-        <v>515</v>
+        <v>847</v>
       </c>
       <c r="AH48" t="n">
-        <v>383</v>
+        <v>624</v>
       </c>
       <c r="AI48" t="n">
-        <v>2985</v>
+        <v>21010</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1265</v>
+        <v>2377</v>
       </c>
       <c r="AK48" t="n">
-        <v>3008</v>
+        <v>29136</v>
       </c>
       <c r="AL48"/>
       <c r="AM48"/>
@@ -4027,22 +4027,22 @@
       <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49" t="n">
-        <v>739</v>
+        <v>1414</v>
       </c>
       <c r="AG49" t="n">
-        <v>559</v>
+        <v>794</v>
       </c>
       <c r="AH49" t="n">
-        <v>491</v>
+        <v>620</v>
       </c>
       <c r="AI49" t="n">
-        <v>3046</v>
+        <v>20459</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1293</v>
+        <v>2386</v>
       </c>
       <c r="AK49" t="n">
-        <v>3691</v>
+        <v>27057</v>
       </c>
       <c r="AL49"/>
       <c r="AM49"/>
@@ -4119,22 +4119,22 @@
       <c r="AD50"/>
       <c r="AE50"/>
       <c r="AF50" t="n">
-        <v>916</v>
+        <v>1497</v>
       </c>
       <c r="AG50" t="n">
-        <v>666</v>
+        <v>861</v>
       </c>
       <c r="AH50" t="n">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="AI50" t="n">
-        <v>3445</v>
+        <v>21416</v>
       </c>
       <c r="AJ50" t="n">
-        <v>994</v>
+        <v>2398</v>
       </c>
       <c r="AK50" t="n">
-        <v>3909</v>
+        <v>29380</v>
       </c>
       <c r="AL50"/>
       <c r="AM50"/>
@@ -4211,22 +4211,22 @@
       <c r="AD51"/>
       <c r="AE51"/>
       <c r="AF51" t="n">
-        <v>1117</v>
+        <v>1678</v>
       </c>
       <c r="AG51" t="n">
-        <v>749</v>
+        <v>987</v>
       </c>
       <c r="AH51" t="n">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="AI51" t="n">
-        <v>3795</v>
+        <v>20049</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1199</v>
+        <v>2220</v>
       </c>
       <c r="AK51" t="n">
-        <v>4356</v>
+        <v>32474</v>
       </c>
       <c r="AL51"/>
       <c r="AM51"/>
@@ -4303,22 +4303,22 @@
       <c r="AD52"/>
       <c r="AE52"/>
       <c r="AF52" t="n">
-        <v>1129</v>
+        <v>1649</v>
       </c>
       <c r="AG52" t="n">
-        <v>557</v>
+        <v>960</v>
       </c>
       <c r="AH52" t="n">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="AI52" t="n">
-        <v>4376</v>
+        <v>19438</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1351</v>
+        <v>2298</v>
       </c>
       <c r="AK52" t="n">
-        <v>4145</v>
+        <v>34032</v>
       </c>
       <c r="AL52"/>
       <c r="AM52"/>
@@ -4395,22 +4395,22 @@
       <c r="AD53"/>
       <c r="AE53"/>
       <c r="AF53" t="n">
-        <v>1092</v>
+        <v>1664</v>
       </c>
       <c r="AG53" t="n">
-        <v>675</v>
+        <v>994</v>
       </c>
       <c r="AH53" t="n">
-        <v>520</v>
+        <v>670</v>
       </c>
       <c r="AI53" t="n">
-        <v>4132</v>
+        <v>20903</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1844</v>
+        <v>2278</v>
       </c>
       <c r="AK53" t="n">
-        <v>4705</v>
+        <v>34788</v>
       </c>
       <c r="AL53"/>
       <c r="AM53"/>
@@ -4487,22 +4487,22 @@
       <c r="AD54"/>
       <c r="AE54"/>
       <c r="AF54" t="n">
-        <v>1110</v>
+        <v>1587</v>
       </c>
       <c r="AG54" t="n">
-        <v>736</v>
+        <v>946</v>
       </c>
       <c r="AH54" t="n">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="AI54" t="n">
-        <v>3878</v>
+        <v>20441</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1276</v>
+        <v>2330</v>
       </c>
       <c r="AK54" t="n">
-        <v>4787</v>
+        <v>34687</v>
       </c>
       <c r="AL54"/>
       <c r="AM54"/>
@@ -4579,22 +4579,22 @@
       <c r="AD55"/>
       <c r="AE55"/>
       <c r="AF55" t="n">
-        <v>1076</v>
+        <v>1542</v>
       </c>
       <c r="AG55" t="n">
-        <v>647</v>
+        <v>897</v>
       </c>
       <c r="AH55" t="n">
-        <v>567</v>
+        <v>645</v>
       </c>
       <c r="AI55" t="n">
-        <v>4550</v>
+        <v>20080</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1419</v>
+        <v>2151</v>
       </c>
       <c r="AK55" t="n">
-        <v>5091</v>
+        <v>33201</v>
       </c>
       <c r="AL55"/>
       <c r="AM55"/>
@@ -4671,22 +4671,22 @@
       <c r="AD56"/>
       <c r="AE56"/>
       <c r="AF56" t="n">
-        <v>1172</v>
+        <v>1563</v>
       </c>
       <c r="AG56" t="n">
-        <v>644</v>
+        <v>903</v>
       </c>
       <c r="AH56" t="n">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="AI56" t="n">
-        <v>5197</v>
+        <v>20277</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1672</v>
+        <v>2147</v>
       </c>
       <c r="AK56" t="n">
-        <v>4700</v>
+        <v>31702</v>
       </c>
       <c r="AL56"/>
       <c r="AM56"/>
@@ -4763,22 +4763,22 @@
       <c r="AD57"/>
       <c r="AE57"/>
       <c r="AF57" t="n">
-        <v>1129</v>
+        <v>1682</v>
       </c>
       <c r="AG57" t="n">
-        <v>721</v>
+        <v>998</v>
       </c>
       <c r="AH57" t="n">
-        <v>490</v>
+        <v>684</v>
       </c>
       <c r="AI57" t="n">
-        <v>6024</v>
+        <v>20946</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1376</v>
+        <v>2187</v>
       </c>
       <c r="AK57" t="n">
-        <v>5805</v>
+        <v>33473</v>
       </c>
       <c r="AL57"/>
       <c r="AM57"/>
@@ -4855,22 +4855,22 @@
       <c r="AD58"/>
       <c r="AE58"/>
       <c r="AF58" t="n">
-        <v>1278</v>
+        <v>1702</v>
       </c>
       <c r="AG58" t="n">
-        <v>655</v>
+        <v>984</v>
       </c>
       <c r="AH58" t="n">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="AI58" t="n">
-        <v>5218</v>
+        <v>20257</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1745</v>
+        <v>2032</v>
       </c>
       <c r="AK58" t="n">
-        <v>6501</v>
+        <v>35289</v>
       </c>
       <c r="AL58"/>
       <c r="AM58"/>
@@ -4947,22 +4947,22 @@
       <c r="AD59"/>
       <c r="AE59"/>
       <c r="AF59" t="n">
-        <v>1150</v>
+        <v>1686</v>
       </c>
       <c r="AG59" t="n">
-        <v>877</v>
+        <v>982</v>
       </c>
       <c r="AH59" t="n">
-        <v>552</v>
+        <v>704</v>
       </c>
       <c r="AI59" t="n">
-        <v>5640</v>
+        <v>19342</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1379</v>
+        <v>2126</v>
       </c>
       <c r="AK59" t="n">
-        <v>6771</v>
+        <v>35604</v>
       </c>
       <c r="AL59"/>
       <c r="AM59"/>
@@ -5039,22 +5039,22 @@
       <c r="AD60"/>
       <c r="AE60"/>
       <c r="AF60" t="n">
-        <v>1283</v>
+        <v>1778</v>
       </c>
       <c r="AG60" t="n">
-        <v>609</v>
+        <v>1042</v>
       </c>
       <c r="AH60" t="n">
-        <v>549</v>
+        <v>736</v>
       </c>
       <c r="AI60" t="n">
-        <v>5591</v>
+        <v>19858</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2014</v>
+        <v>2166</v>
       </c>
       <c r="AK60" t="n">
-        <v>7178</v>
+        <v>36409</v>
       </c>
       <c r="AL60"/>
       <c r="AM60"/>
@@ -5131,22 +5131,22 @@
       <c r="AD61"/>
       <c r="AE61"/>
       <c r="AF61" t="n">
-        <v>1091</v>
+        <v>1725</v>
       </c>
       <c r="AG61" t="n">
-        <v>853</v>
+        <v>1014</v>
       </c>
       <c r="AH61" t="n">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="AI61" t="n">
-        <v>5843</v>
+        <v>19940</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1805</v>
+        <v>2134</v>
       </c>
       <c r="AK61" t="n">
-        <v>6955</v>
+        <v>35692</v>
       </c>
       <c r="AL61"/>
       <c r="AM61"/>
@@ -5223,22 +5223,22 @@
       <c r="AD62"/>
       <c r="AE62"/>
       <c r="AF62" t="n">
-        <v>1125</v>
+        <v>1540</v>
       </c>
       <c r="AG62" t="n">
-        <v>958</v>
+        <v>916</v>
       </c>
       <c r="AH62" t="n">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="AI62" t="n">
-        <v>6496</v>
+        <v>19465</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1582</v>
+        <v>2132</v>
       </c>
       <c r="AK62" t="n">
-        <v>6400</v>
+        <v>32012</v>
       </c>
       <c r="AL62"/>
       <c r="AM62"/>
@@ -5315,22 +5315,22 @@
       <c r="AD63"/>
       <c r="AE63"/>
       <c r="AF63" t="n">
-        <v>1114</v>
+        <v>1533</v>
       </c>
       <c r="AG63" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
       <c r="AH63" t="n">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="AI63" t="n">
-        <v>6457</v>
+        <v>19410</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1563</v>
+        <v>2055</v>
       </c>
       <c r="AK63" t="n">
-        <v>7057</v>
+        <v>32019</v>
       </c>
       <c r="AL63"/>
       <c r="AM63"/>
@@ -5403,22 +5403,22 @@
       <c r="AD64"/>
       <c r="AE64"/>
       <c r="AF64" t="n">
-        <v>1258</v>
+        <v>1888</v>
       </c>
       <c r="AG64" t="n">
-        <v>707</v>
+        <v>1199</v>
       </c>
       <c r="AH64" t="n">
-        <v>556</v>
+        <v>689</v>
       </c>
       <c r="AI64" t="n">
-        <v>6168</v>
+        <v>19059</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1957</v>
+        <v>2094</v>
       </c>
       <c r="AK64" t="n">
-        <v>7607</v>
+        <v>34653</v>
       </c>
       <c r="AL64"/>
       <c r="AM64"/>
@@ -5493,22 +5493,22 @@
       <c r="AD65"/>
       <c r="AE65"/>
       <c r="AF65" t="n">
-        <v>1322</v>
+        <v>1812</v>
       </c>
       <c r="AG65" t="n">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="AH65" t="n">
-        <v>658</v>
+        <v>726</v>
       </c>
       <c r="AI65" t="n">
-        <v>7441</v>
+        <v>18162</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1743</v>
+        <v>1908</v>
       </c>
       <c r="AK65" t="n">
-        <v>7879</v>
+        <v>37421</v>
       </c>
       <c r="AL65"/>
       <c r="AM65"/>
@@ -5585,22 +5585,22 @@
       <c r="AD66"/>
       <c r="AE66"/>
       <c r="AF66" t="n">
-        <v>1089</v>
+        <v>1750</v>
       </c>
       <c r="AG66" t="n">
-        <v>784</v>
+        <v>1034</v>
       </c>
       <c r="AH66" t="n">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="AI66" t="n">
-        <v>7561</v>
+        <v>17902</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1810</v>
+        <v>1959</v>
       </c>
       <c r="AK66" t="n">
-        <v>8886</v>
+        <v>38722</v>
       </c>
       <c r="AL66"/>
       <c r="AM66"/>
@@ -5677,22 +5677,22 @@
       <c r="AD67"/>
       <c r="AE67"/>
       <c r="AF67" t="n">
-        <v>1327</v>
+        <v>1734</v>
       </c>
       <c r="AG67" t="n">
-        <v>851</v>
+        <v>1037</v>
       </c>
       <c r="AH67" t="n">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="AI67" t="n">
-        <v>6970</v>
+        <v>17670</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1947</v>
+        <v>1904</v>
       </c>
       <c r="AK67" t="n">
-        <v>8982</v>
+        <v>38516</v>
       </c>
       <c r="AL67"/>
       <c r="AM67"/>
@@ -5773,22 +5773,22 @@
       <c r="AD68"/>
       <c r="AE68"/>
       <c r="AF68" t="n">
-        <v>1623</v>
+        <v>1735</v>
       </c>
       <c r="AG68" t="n">
-        <v>975</v>
+        <v>1061</v>
       </c>
       <c r="AH68" t="n">
-        <v>537</v>
+        <v>674</v>
       </c>
       <c r="AI68" t="n">
-        <v>7636</v>
+        <v>18548</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1732</v>
+        <v>2022</v>
       </c>
       <c r="AK68" t="n">
-        <v>8593</v>
+        <v>37977</v>
       </c>
       <c r="AL68"/>
       <c r="AM68"/>
@@ -5869,22 +5869,22 @@
       <c r="AD69"/>
       <c r="AE69"/>
       <c r="AF69" t="n">
-        <v>1333</v>
+        <v>1626</v>
       </c>
       <c r="AG69" t="n">
-        <v>888</v>
+        <v>965</v>
       </c>
       <c r="AH69" t="n">
-        <v>560</v>
+        <v>661</v>
       </c>
       <c r="AI69" t="n">
-        <v>7653</v>
+        <v>18116</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1872</v>
+        <v>1954</v>
       </c>
       <c r="AK69" t="n">
-        <v>7667</v>
+        <v>35333</v>
       </c>
       <c r="AL69"/>
       <c r="AM69"/>
@@ -5965,22 +5965,22 @@
       <c r="AD70"/>
       <c r="AE70"/>
       <c r="AF70" t="n">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="AG70" t="n">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="AH70" t="n">
-        <v>515</v>
+        <v>610</v>
       </c>
       <c r="AI70" t="n">
-        <v>7282</v>
+        <v>18607</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1455</v>
+        <v>1989</v>
       </c>
       <c r="AK70" t="n">
-        <v>7984</v>
+        <v>32549</v>
       </c>
       <c r="AL70"/>
       <c r="AM70"/>
@@ -6061,22 +6061,22 @@
       <c r="AD71"/>
       <c r="AE71"/>
       <c r="AF71" t="n">
-        <v>1303</v>
+        <v>1725</v>
       </c>
       <c r="AG71" t="n">
-        <v>954</v>
+        <v>1026</v>
       </c>
       <c r="AH71" t="n">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="AI71" t="n">
-        <v>7552</v>
+        <v>19609</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1306</v>
+        <v>2143</v>
       </c>
       <c r="AK71" t="n">
-        <v>8896</v>
+        <v>34519</v>
       </c>
       <c r="AL71"/>
       <c r="AM71"/>
@@ -6157,22 +6157,22 @@
       <c r="AD72"/>
       <c r="AE72"/>
       <c r="AF72" t="n">
-        <v>1410</v>
+        <v>1676</v>
       </c>
       <c r="AG72" t="n">
-        <v>914</v>
+        <v>1002</v>
       </c>
       <c r="AH72" t="n">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="AI72" t="n">
-        <v>8092</v>
+        <v>17972</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1861</v>
+        <v>1940</v>
       </c>
       <c r="AK72" t="n">
-        <v>10658</v>
+        <v>38292</v>
       </c>
       <c r="AL72"/>
       <c r="AM72"/>
@@ -6253,22 +6253,22 @@
       <c r="AD73"/>
       <c r="AE73"/>
       <c r="AF73" t="n">
-        <v>1056</v>
+        <v>1648</v>
       </c>
       <c r="AG73" t="n">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="AH73" t="n">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="AI73" t="n">
-        <v>8300</v>
+        <v>17514</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2074</v>
+        <v>1932</v>
       </c>
       <c r="AK73" t="n">
-        <v>9833</v>
+        <v>38626</v>
       </c>
       <c r="AL73"/>
       <c r="AM73"/>
@@ -6365,22 +6365,22 @@
         <v>494</v>
       </c>
       <c r="AF74" t="n">
-        <v>1550</v>
+        <v>1716</v>
       </c>
       <c r="AG74" t="n">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="AH74" t="n">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="AI74" t="n">
-        <v>8839</v>
+        <v>17520</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2083</v>
+        <v>1876</v>
       </c>
       <c r="AK74" t="n">
-        <v>8352</v>
+        <v>39654</v>
       </c>
       <c r="AL74"/>
       <c r="AM74"/>
@@ -6483,22 +6483,22 @@
         <v>530</v>
       </c>
       <c r="AF75" t="n">
-        <v>1245</v>
+        <v>1791</v>
       </c>
       <c r="AG75" t="n">
-        <v>974</v>
+        <v>1104</v>
       </c>
       <c r="AH75" t="n">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="AI75" t="n">
-        <v>8274</v>
+        <v>17193</v>
       </c>
       <c r="AJ75" t="n">
-        <v>2132</v>
+        <v>1847</v>
       </c>
       <c r="AK75" t="n">
-        <v>10382</v>
+        <v>39392</v>
       </c>
       <c r="AL75"/>
       <c r="AM75"/>
@@ -6601,22 +6601,22 @@
         <v>531</v>
       </c>
       <c r="AF76" t="n">
-        <v>1392</v>
+        <v>1512</v>
       </c>
       <c r="AG76" t="n">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="AH76" t="n">
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="AI76" t="n">
-        <v>9845</v>
+        <v>17390</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2301</v>
+        <v>1832</v>
       </c>
       <c r="AK76" t="n">
-        <v>9405</v>
+        <v>34208</v>
       </c>
       <c r="AL76"/>
       <c r="AM76"/>
@@ -6719,22 +6719,22 @@
         <v>575</v>
       </c>
       <c r="AF77" t="n">
-        <v>1219</v>
+        <v>1551</v>
       </c>
       <c r="AG77" t="n">
-        <v>847</v>
+        <v>933</v>
       </c>
       <c r="AH77" t="n">
-        <v>517</v>
+        <v>618</v>
       </c>
       <c r="AI77" t="n">
-        <v>9622</v>
+        <v>17024</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2284</v>
+        <v>1911</v>
       </c>
       <c r="AK77" t="n">
-        <v>9902</v>
+        <v>33455</v>
       </c>
       <c r="AL77"/>
       <c r="AM77"/>
@@ -6837,22 +6837,22 @@
         <v>631</v>
       </c>
       <c r="AF78" t="n">
-        <v>1353</v>
+        <v>1732</v>
       </c>
       <c r="AG78" t="n">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AH78" t="n">
-        <v>542</v>
+        <v>675</v>
       </c>
       <c r="AI78" t="n">
-        <v>8184</v>
+        <v>18113</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1810</v>
+        <v>1947</v>
       </c>
       <c r="AK78" t="n">
-        <v>11703</v>
+        <v>35767</v>
       </c>
       <c r="AL78"/>
       <c r="AM78"/>
@@ -6955,22 +6955,22 @@
         <v>684</v>
       </c>
       <c r="AF79" t="n">
-        <v>1613</v>
+        <v>1791</v>
       </c>
       <c r="AG79" t="n">
-        <v>1307</v>
+        <v>1097</v>
       </c>
       <c r="AH79" t="n">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="AI79" t="n">
-        <v>8989</v>
+        <v>17011</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1744</v>
+        <v>1659</v>
       </c>
       <c r="AK79" t="n">
-        <v>10815</v>
+        <v>40313</v>
       </c>
       <c r="AL79"/>
       <c r="AM79"/>
@@ -7073,22 +7073,22 @@
         <v>719</v>
       </c>
       <c r="AF80" t="n">
-        <v>1510</v>
+        <v>1680</v>
       </c>
       <c r="AG80" t="n">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="AH80" t="n">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="AI80" t="n">
-        <v>9604</v>
+        <v>16060</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2100</v>
+        <v>1547</v>
       </c>
       <c r="AK80" t="n">
-        <v>12773</v>
+        <v>40321</v>
       </c>
       <c r="AL80"/>
       <c r="AM80"/>
@@ -7191,22 +7191,22 @@
         <v>730</v>
       </c>
       <c r="AF81" t="n">
-        <v>1446</v>
+        <v>1578</v>
       </c>
       <c r="AG81" t="n">
-        <v>860</v>
+        <v>913</v>
       </c>
       <c r="AH81" t="n">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="AI81" t="n">
-        <v>9473</v>
+        <v>16008</v>
       </c>
       <c r="AJ81" t="n">
-        <v>2479</v>
+        <v>1638</v>
       </c>
       <c r="AK81" t="n">
-        <v>11710</v>
+        <v>40132</v>
       </c>
       <c r="AL81"/>
       <c r="AM81"/>
@@ -7295,22 +7295,22 @@
         <v>800</v>
       </c>
       <c r="AF82" t="n">
-        <v>1472</v>
+        <v>1688</v>
       </c>
       <c r="AG82" t="n">
-        <v>1123</v>
+        <v>1022</v>
       </c>
       <c r="AH82" t="n">
-        <v>521</v>
+        <v>666</v>
       </c>
       <c r="AI82" t="n">
-        <v>9875</v>
+        <v>15466</v>
       </c>
       <c r="AJ82" t="n">
-        <v>2245</v>
+        <v>1678</v>
       </c>
       <c r="AK82" t="n">
-        <v>13032</v>
+        <v>40977</v>
       </c>
       <c r="AL82"/>
       <c r="AM82"/>
@@ -7411,22 +7411,22 @@
         <v>812</v>
       </c>
       <c r="AF83" t="n">
-        <v>1652</v>
+        <v>1572</v>
       </c>
       <c r="AG83" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="AH83" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="AI83" t="n">
-        <v>10319</v>
+        <v>16006</v>
       </c>
       <c r="AJ83" t="n">
-        <v>1752</v>
+        <v>1840</v>
       </c>
       <c r="AK83" t="n">
-        <v>11813</v>
+        <v>35987</v>
       </c>
       <c r="AL83"/>
       <c r="AM83"/>
@@ -7529,22 +7529,22 @@
         <v>885</v>
       </c>
       <c r="AF84" t="n">
-        <v>1285</v>
+        <v>1511</v>
       </c>
       <c r="AG84" t="n">
-        <v>1072</v>
+        <v>854</v>
       </c>
       <c r="AH84" t="n">
-        <v>544</v>
+        <v>657</v>
       </c>
       <c r="AI84" t="n">
-        <v>9626</v>
+        <v>17061</v>
       </c>
       <c r="AJ84" t="n">
-        <v>2075</v>
+        <v>1755</v>
       </c>
       <c r="AK84" t="n">
-        <v>11316</v>
+        <v>33489</v>
       </c>
       <c r="AL84"/>
       <c r="AM84"/>
@@ -7647,22 +7647,22 @@
         <v>940</v>
       </c>
       <c r="AF85" t="n">
-        <v>1253</v>
+        <v>1534</v>
       </c>
       <c r="AG85" t="n">
-        <v>992</v>
+        <v>887</v>
       </c>
       <c r="AH85" t="n">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="AI85" t="n">
-        <v>8209</v>
+        <v>17456</v>
       </c>
       <c r="AJ85" t="n">
-        <v>2334</v>
+        <v>1974</v>
       </c>
       <c r="AK85" t="n">
-        <v>13556</v>
+        <v>34246</v>
       </c>
       <c r="AL85"/>
       <c r="AM85"/>
@@ -7765,22 +7765,22 @@
         <v>982</v>
       </c>
       <c r="AF86" t="n">
-        <v>1295</v>
+        <v>1645</v>
       </c>
       <c r="AG86" t="n">
-        <v>873</v>
+        <v>974</v>
       </c>
       <c r="AH86" t="n">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="AI86" t="n">
-        <v>7053</v>
+        <v>16944</v>
       </c>
       <c r="AJ86" t="n">
-        <v>2179</v>
+        <v>1864</v>
       </c>
       <c r="AK86" t="n">
-        <v>12457</v>
+        <v>36501</v>
       </c>
       <c r="AL86"/>
       <c r="AM86"/>
@@ -7883,22 +7883,22 @@
         <v>996</v>
       </c>
       <c r="AF87" t="n">
-        <v>1497</v>
+        <v>1692</v>
       </c>
       <c r="AG87" t="n">
-        <v>838</v>
+        <v>998</v>
       </c>
       <c r="AH87" t="n">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="AI87" t="n">
-        <v>9604</v>
+        <v>15315</v>
       </c>
       <c r="AJ87" t="n">
-        <v>2280</v>
+        <v>1592</v>
       </c>
       <c r="AK87" t="n">
-        <v>13386</v>
+        <v>39561</v>
       </c>
       <c r="AL87"/>
       <c r="AM87"/>
@@ -8001,22 +8001,22 @@
         <v>1074</v>
       </c>
       <c r="AF88" t="n">
-        <v>1525</v>
+        <v>1622</v>
       </c>
       <c r="AG88" t="n">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="AH88" t="n">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="AI88" t="n">
-        <v>10970</v>
+        <v>16136</v>
       </c>
       <c r="AJ88" t="n">
-        <v>2548</v>
+        <v>1696</v>
       </c>
       <c r="AK88" t="n">
-        <v>12818</v>
+        <v>41521</v>
       </c>
       <c r="AL88"/>
       <c r="AM88"/>
@@ -8113,22 +8113,22 @@
         <v>1155</v>
       </c>
       <c r="AF89" t="n">
-        <v>1671</v>
+        <v>1752</v>
       </c>
       <c r="AG89" t="n">
-        <v>1078</v>
+        <v>999</v>
       </c>
       <c r="AH89" t="n">
-        <v>592</v>
+        <v>753</v>
       </c>
       <c r="AI89" t="n">
-        <v>11081</v>
+        <v>15599</v>
       </c>
       <c r="AJ89" t="n">
-        <v>2079</v>
+        <v>1697</v>
       </c>
       <c r="AK89" t="n">
-        <v>11075</v>
+        <v>41462</v>
       </c>
       <c r="AL89"/>
       <c r="AM89"/>
@@ -8231,22 +8231,22 @@
         <v>1169</v>
       </c>
       <c r="AF90" t="n">
-        <v>1540</v>
+        <v>1684</v>
       </c>
       <c r="AG90" t="n">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="AH90" t="n">
-        <v>820</v>
+        <v>731</v>
       </c>
       <c r="AI90" t="n">
-        <v>9440</v>
+        <v>16127</v>
       </c>
       <c r="AJ90" t="n">
-        <v>2222</v>
+        <v>1698</v>
       </c>
       <c r="AK90" t="n">
-        <v>14796</v>
+        <v>39467</v>
       </c>
       <c r="AL90"/>
       <c r="AM90"/>
@@ -8349,22 +8349,22 @@
         <v>1181</v>
       </c>
       <c r="AF91" t="n">
-        <v>1302</v>
+        <v>1756</v>
       </c>
       <c r="AG91" t="n">
-        <v>1091</v>
+        <v>1008</v>
       </c>
       <c r="AH91" t="n">
-        <v>687</v>
+        <v>748</v>
       </c>
       <c r="AI91" t="n">
-        <v>10326</v>
+        <v>16330</v>
       </c>
       <c r="AJ91" t="n">
-        <v>2152</v>
+        <v>1784</v>
       </c>
       <c r="AK91" t="n">
-        <v>13357</v>
+        <v>38032</v>
       </c>
       <c r="AL91" t="n">
         <v>5394</v>
@@ -8430,7 +8430,7 @@
         <v>1117274</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92" t="n">
         <v>21585</v>
@@ -8469,22 +8469,22 @@
         <v>1254</v>
       </c>
       <c r="AF92" t="n">
-        <v>1656</v>
+        <v>1773</v>
       </c>
       <c r="AG92" t="n">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="AH92" t="n">
-        <v>689</v>
+        <v>762</v>
       </c>
       <c r="AI92" t="n">
-        <v>10129</v>
+        <v>16575</v>
       </c>
       <c r="AJ92" t="n">
-        <v>2457</v>
+        <v>1764</v>
       </c>
       <c r="AK92" t="n">
-        <v>13409</v>
+        <v>37510</v>
       </c>
       <c r="AL92" t="n">
         <v>5314</v>
@@ -8550,7 +8550,7 @@
         <v>1150868</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0626</v>
+        <v>0.06259941815807</v>
       </c>
       <c r="T93" t="n">
         <v>23620</v>
@@ -8589,22 +8589,22 @@
         <v>1284</v>
       </c>
       <c r="AF93" t="n">
-        <v>1230</v>
+        <v>1805</v>
       </c>
       <c r="AG93" t="n">
-        <v>1124</v>
+        <v>1057</v>
       </c>
       <c r="AH93" t="n">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="AI93" t="n">
-        <v>9694</v>
+        <v>14948</v>
       </c>
       <c r="AJ93" t="n">
-        <v>2105</v>
+        <v>1621</v>
       </c>
       <c r="AK93" t="n">
-        <v>13209</v>
+        <v>36201</v>
       </c>
       <c r="AL93" t="n">
         <v>5566</v>
@@ -8670,7 +8670,7 @@
         <v>1174948</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94" t="n">
         <v>24043</v>
@@ -8709,22 +8709,22 @@
         <v>1368</v>
       </c>
       <c r="AF94" t="n">
-        <v>1401</v>
+        <v>1796</v>
       </c>
       <c r="AG94" t="n">
-        <v>1133</v>
+        <v>1066</v>
       </c>
       <c r="AH94" t="n">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="AI94" t="n">
-        <v>10088</v>
+        <v>15219</v>
       </c>
       <c r="AJ94" t="n">
-        <v>2007</v>
+        <v>1658</v>
       </c>
       <c r="AK94" t="n">
-        <v>11925</v>
+        <v>40783</v>
       </c>
       <c r="AL94" t="n">
         <v>5577</v>
@@ -8790,7 +8790,7 @@
         <v>1209187</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95" t="n">
         <v>23537</v>
@@ -8829,22 +8829,22 @@
         <v>1437</v>
       </c>
       <c r="AF95" t="n">
-        <v>1510</v>
+        <v>1855</v>
       </c>
       <c r="AG95" t="n">
-        <v>985</v>
+        <v>1113</v>
       </c>
       <c r="AH95" t="n">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="AI95" t="n">
-        <v>10274</v>
+        <v>14674</v>
       </c>
       <c r="AJ95" t="n">
-        <v>2181</v>
+        <v>1625</v>
       </c>
       <c r="AK95" t="n">
-        <v>14360</v>
+        <v>42965</v>
       </c>
       <c r="AL95" t="n">
         <v>5587</v>
@@ -8910,7 +8910,7 @@
         <v>1218955</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96" t="n">
         <v>20021</v>
@@ -8949,22 +8949,22 @@
         <v>1495</v>
       </c>
       <c r="AF96" t="n">
-        <v>1584</v>
+        <v>1822</v>
       </c>
       <c r="AG96" t="n">
-        <v>924</v>
+        <v>1085</v>
       </c>
       <c r="AH96" t="n">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="AI96" t="n">
-        <v>12243</v>
+        <v>15198</v>
       </c>
       <c r="AJ96" t="n">
-        <v>2446</v>
+        <v>1583</v>
       </c>
       <c r="AK96" t="n">
-        <v>14962</v>
+        <v>41603</v>
       </c>
       <c r="AL96" t="n">
         <v>5623</v>
@@ -9069,22 +9069,22 @@
         <v>1499</v>
       </c>
       <c r="AF97" t="n">
-        <v>1348</v>
+        <v>1878</v>
       </c>
       <c r="AG97" t="n">
-        <v>850</v>
+        <v>1115</v>
       </c>
       <c r="AH97" t="n">
-        <v>831</v>
+        <v>763</v>
       </c>
       <c r="AI97" t="n">
-        <v>11629</v>
+        <v>15942</v>
       </c>
       <c r="AJ97" t="n">
-        <v>2369</v>
+        <v>1680</v>
       </c>
       <c r="AK97" t="n">
-        <v>15834</v>
+        <v>40237</v>
       </c>
       <c r="AL97" t="n">
         <v>5657</v>
@@ -9150,7 +9150,7 @@
         <v>1286139</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0666</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98" t="n">
         <v>23019</v>
@@ -9189,22 +9189,22 @@
         <v>1512</v>
       </c>
       <c r="AF98" t="n">
-        <v>1439</v>
+        <v>1935</v>
       </c>
       <c r="AG98" t="n">
-        <v>1077</v>
+        <v>1192</v>
       </c>
       <c r="AH98" t="n">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="AI98" t="n">
-        <v>10161</v>
+        <v>15070</v>
       </c>
       <c r="AJ98" t="n">
-        <v>2262</v>
+        <v>1619</v>
       </c>
       <c r="AK98" t="n">
-        <v>14681</v>
+        <v>37283</v>
       </c>
       <c r="AL98" t="n">
         <v>5292</v>
@@ -9270,7 +9270,7 @@
         <v>1302049</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99" t="n">
         <v>22046</v>
@@ -9309,22 +9309,22 @@
         <v>1636</v>
       </c>
       <c r="AF99" t="n">
-        <v>1827</v>
+        <v>2056</v>
       </c>
       <c r="AG99" t="n">
-        <v>1211</v>
+        <v>1272</v>
       </c>
       <c r="AH99" t="n">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AI99" t="n">
-        <v>10833</v>
+        <v>15402</v>
       </c>
       <c r="AJ99" t="n">
-        <v>2488</v>
+        <v>1723</v>
       </c>
       <c r="AK99" t="n">
-        <v>14496</v>
+        <v>39336</v>
       </c>
       <c r="AL99" t="n">
         <v>5500</v>
@@ -9386,7 +9386,7 @@
         <v>1348893</v>
       </c>
       <c r="S100" t="n">
-        <v>0.0685</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100" t="n">
         <v>23966</v>
@@ -9425,22 +9425,22 @@
         <v>1739</v>
       </c>
       <c r="AF100" t="n">
-        <v>1335</v>
+        <v>2153</v>
       </c>
       <c r="AG100" t="n">
-        <v>977</v>
+        <v>1296</v>
       </c>
       <c r="AH100" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AI100" t="n">
-        <v>12208</v>
+        <v>13645</v>
       </c>
       <c r="AJ100" t="n">
-        <v>2610</v>
+        <v>1508</v>
       </c>
       <c r="AK100" t="n">
-        <v>16310</v>
+        <v>42410</v>
       </c>
       <c r="AL100" t="n">
         <v>5622</v>
@@ -9504,7 +9504,7 @@
         <v>1370131</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0705</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101" t="n">
         <v>23626</v>
@@ -9543,22 +9543,22 @@
         <v>1831</v>
       </c>
       <c r="AF101" t="n">
-        <v>1533</v>
+        <v>2059</v>
       </c>
       <c r="AG101" t="n">
-        <v>1137</v>
+        <v>1250</v>
       </c>
       <c r="AH101" t="n">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="AI101" t="n">
-        <v>11711</v>
+        <v>13271</v>
       </c>
       <c r="AJ101" t="n">
-        <v>2345</v>
+        <v>1419</v>
       </c>
       <c r="AK101" t="n">
-        <v>15780</v>
+        <v>40724</v>
       </c>
       <c r="AL101" t="n">
         <v>5667</v>
@@ -9624,7 +9624,7 @@
         <v>1404369</v>
       </c>
       <c r="S102" t="n">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102" t="n">
         <v>23863</v>
@@ -9663,22 +9663,22 @@
         <v>1908</v>
       </c>
       <c r="AF102" t="n">
-        <v>1763</v>
+        <v>2166</v>
       </c>
       <c r="AG102" t="n">
-        <v>1327</v>
+        <v>1356</v>
       </c>
       <c r="AH102" t="n">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="AI102" t="n">
-        <v>9763</v>
+        <v>14033</v>
       </c>
       <c r="AJ102" t="n">
-        <v>2317</v>
+        <v>1494</v>
       </c>
       <c r="AK102" t="n">
-        <v>15779</v>
+        <v>42995</v>
       </c>
       <c r="AL102" t="n">
         <v>5726</v>
@@ -9744,7 +9744,7 @@
         <v>1442950</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103" t="n">
         <v>29139</v>
@@ -9783,22 +9783,22 @@
         <v>1939</v>
       </c>
       <c r="AF103" t="n">
-        <v>1707</v>
+        <v>2242</v>
       </c>
       <c r="AG103" t="n">
-        <v>1126</v>
+        <v>1414</v>
       </c>
       <c r="AH103" t="n">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="AI103" t="n">
-        <v>12176</v>
+        <v>13571</v>
       </c>
       <c r="AJ103" t="n">
-        <v>2377</v>
+        <v>1498</v>
       </c>
       <c r="AK103" t="n">
-        <v>14989</v>
+        <v>43025</v>
       </c>
       <c r="AL103" t="n">
         <v>5710</v>
@@ -9903,22 +9903,22 @@
         <v>1939</v>
       </c>
       <c r="AF104" t="n">
-        <v>1653</v>
+        <v>2287</v>
       </c>
       <c r="AG104" t="n">
-        <v>1278</v>
+        <v>1470</v>
       </c>
       <c r="AH104" t="n">
-        <v>957</v>
+        <v>817</v>
       </c>
       <c r="AI104" t="n">
-        <v>10920</v>
+        <v>14660</v>
       </c>
       <c r="AJ104" t="n">
-        <v>2757</v>
+        <v>1603</v>
       </c>
       <c r="AK104" t="n">
-        <v>15358</v>
+        <v>40548</v>
       </c>
       <c r="AL104" t="n">
         <v>5633</v>
@@ -9984,7 +9984,7 @@
         <v>1499015</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0671</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105" t="n">
         <v>28727</v>
@@ -10023,22 +10023,22 @@
         <v>2015</v>
       </c>
       <c r="AF105" t="n">
-        <v>1812</v>
+        <v>2326</v>
       </c>
       <c r="AG105" t="n">
-        <v>1209</v>
+        <v>1465</v>
       </c>
       <c r="AH105" t="n">
-        <v>970</v>
+        <v>861</v>
       </c>
       <c r="AI105" t="n">
-        <v>13613</v>
+        <v>14525</v>
       </c>
       <c r="AJ105" t="n">
-        <v>2620</v>
+        <v>1626</v>
       </c>
       <c r="AK105" t="n">
-        <v>17191</v>
+        <v>36840</v>
       </c>
       <c r="AL105" t="n">
         <v>5289</v>
@@ -10104,7 +10104,7 @@
         <v>1522434</v>
       </c>
       <c r="S106" t="n">
-        <v>0.0694</v>
+        <v>0.06941707304209</v>
       </c>
       <c r="T106" t="n">
         <v>29793</v>
@@ -10143,22 +10143,22 @@
         <v>2141</v>
       </c>
       <c r="AF106" t="n">
-        <v>1805</v>
+        <v>2518</v>
       </c>
       <c r="AG106" t="n">
-        <v>1494</v>
+        <v>1623</v>
       </c>
       <c r="AH106" t="n">
-        <v>1044</v>
+        <v>895</v>
       </c>
       <c r="AI106" t="n">
-        <v>11993</v>
+        <v>14993</v>
       </c>
       <c r="AJ106" t="n">
-        <v>2461</v>
+        <v>1675</v>
       </c>
       <c r="AK106" t="n">
-        <v>15636</v>
+        <v>39851</v>
       </c>
       <c r="AL106" t="n">
         <v>5529</v>
@@ -10224,7 +10224,7 @@
         <v>1560537</v>
       </c>
       <c r="S107" t="n">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107" t="n">
         <v>28774</v>
@@ -10263,22 +10263,22 @@
         <v>2242</v>
       </c>
       <c r="AF107" t="n">
-        <v>2071</v>
+        <v>2793</v>
       </c>
       <c r="AG107" t="n">
-        <v>1612</v>
+        <v>1829</v>
       </c>
       <c r="AH107" t="n">
-        <v>1099</v>
+        <v>964</v>
       </c>
       <c r="AI107" t="n">
-        <v>12473</v>
+        <v>13815</v>
       </c>
       <c r="AJ107" t="n">
-        <v>2518</v>
+        <v>1473</v>
       </c>
       <c r="AK107" t="n">
-        <v>17830</v>
+        <v>42379</v>
       </c>
       <c r="AL107" t="n">
         <v>5782</v>
@@ -10383,22 +10383,22 @@
         <v>2290</v>
       </c>
       <c r="AF108" t="n">
-        <v>2372</v>
+        <v>2947</v>
       </c>
       <c r="AG108" t="n">
-        <v>1656</v>
+        <v>1937</v>
       </c>
       <c r="AH108" t="n">
-        <v>1152</v>
+        <v>1010</v>
       </c>
       <c r="AI108" t="n">
-        <v>12297</v>
+        <v>13472</v>
       </c>
       <c r="AJ108" t="n">
-        <v>2394</v>
+        <v>1453</v>
       </c>
       <c r="AK108" t="n">
-        <v>16941</v>
+        <v>44041</v>
       </c>
       <c r="AL108" t="n">
         <v>5856</v>
@@ -10464,7 +10464,7 @@
         <v>1622851</v>
       </c>
       <c r="S109" t="n">
-        <v>0.0894</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109" t="n">
         <v>29011</v>
@@ -10503,22 +10503,22 @@
         <v>2373</v>
       </c>
       <c r="AF109" t="n">
-        <v>2220</v>
+        <v>3148</v>
       </c>
       <c r="AG109" t="n">
-        <v>1618</v>
+        <v>2060</v>
       </c>
       <c r="AH109" t="n">
-        <v>1245</v>
+        <v>1088</v>
       </c>
       <c r="AI109" t="n">
-        <v>11964</v>
+        <v>13591</v>
       </c>
       <c r="AJ109" t="n">
-        <v>2391</v>
+        <v>1443</v>
       </c>
       <c r="AK109" t="n">
-        <v>17648</v>
+        <v>46232</v>
       </c>
       <c r="AL109" t="n">
         <v>5841</v>
@@ -10584,7 +10584,7 @@
         <v>1690124</v>
       </c>
       <c r="S110" t="n">
-        <v>0.088</v>
+        <v>0.08795944343323</v>
       </c>
       <c r="T110" t="n">
         <v>32885</v>
@@ -10623,22 +10623,22 @@
         <v>2437</v>
       </c>
       <c r="AF110" t="n">
-        <v>2408</v>
+        <v>3247</v>
       </c>
       <c r="AG110" t="n">
-        <v>1374</v>
+        <v>2134</v>
       </c>
       <c r="AH110" t="n">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="AI110" t="n">
-        <v>12312</v>
+        <v>13701</v>
       </c>
       <c r="AJ110" t="n">
-        <v>2696</v>
+        <v>1449</v>
       </c>
       <c r="AK110" t="n">
-        <v>18195</v>
+        <v>44293</v>
       </c>
       <c r="AL110" t="n">
         <v>5807</v>
@@ -10743,22 +10743,22 @@
         <v>2454</v>
       </c>
       <c r="AF111" t="n">
-        <v>2361</v>
+        <v>3409</v>
       </c>
       <c r="AG111" t="n">
-        <v>1735</v>
+        <v>2266</v>
       </c>
       <c r="AH111" t="n">
-        <v>1193</v>
+        <v>1143</v>
       </c>
       <c r="AI111" t="n">
-        <v>11906</v>
+        <v>14316</v>
       </c>
       <c r="AJ111" t="n">
-        <v>2698</v>
+        <v>1493</v>
       </c>
       <c r="AK111" t="n">
-        <v>14326</v>
+        <v>42815</v>
       </c>
       <c r="AL111" t="n">
         <v>5701</v>
@@ -10824,7 +10824,7 @@
         <v>1767701</v>
       </c>
       <c r="S112" t="n">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112" t="n">
         <v>35550</v>
@@ -10863,22 +10863,22 @@
         <v>2481</v>
       </c>
       <c r="AF112" t="n">
-        <v>2358</v>
+        <v>3711</v>
       </c>
       <c r="AG112" t="n">
-        <v>1653</v>
+        <v>2491</v>
       </c>
       <c r="AH112" t="n">
-        <v>1103</v>
+        <v>1220</v>
       </c>
       <c r="AI112" t="n">
-        <v>13252</v>
+        <v>14697</v>
       </c>
       <c r="AJ112" t="n">
-        <v>2426</v>
+        <v>1517</v>
       </c>
       <c r="AK112" t="n">
-        <v>14832</v>
+        <v>40607</v>
       </c>
       <c r="AL112" t="n">
         <v>5712</v>
@@ -10940,7 +10940,7 @@
         <v>1805642</v>
       </c>
       <c r="S113" t="n">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T113" t="n">
         <v>37231</v>
@@ -10979,22 +10979,22 @@
         <v>2501</v>
       </c>
       <c r="AF113" t="n">
-        <v>2336</v>
+        <v>4092</v>
       </c>
       <c r="AG113" t="n">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AH113" t="n">
-        <v>1279</v>
+        <v>1325</v>
       </c>
       <c r="AI113" t="n">
-        <v>12142</v>
+        <v>14260</v>
       </c>
       <c r="AJ113" t="n">
-        <v>2741</v>
+        <v>1483</v>
       </c>
       <c r="AK113" t="n">
-        <v>14540</v>
+        <v>40382</v>
       </c>
       <c r="AL113" t="n">
         <v>5762</v>
@@ -11060,7 +11060,7 @@
         <v>1836037</v>
       </c>
       <c r="S114" t="n">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114" t="n">
         <v>35943</v>
@@ -11099,22 +11099,22 @@
         <v>2557</v>
       </c>
       <c r="AF114" t="n">
-        <v>2762</v>
+        <v>4389</v>
       </c>
       <c r="AG114" t="n">
-        <v>1848</v>
+        <v>2990</v>
       </c>
       <c r="AH114" t="n">
-        <v>1144</v>
+        <v>1399</v>
       </c>
       <c r="AI114" t="n">
-        <v>11923</v>
+        <v>12951</v>
       </c>
       <c r="AJ114" t="n">
-        <v>2209</v>
+        <v>1320</v>
       </c>
       <c r="AK114" t="n">
-        <v>17380</v>
+        <v>43756</v>
       </c>
       <c r="AL114" t="n">
         <v>5968</v>
@@ -11180,7 +11180,7 @@
         <v>1875197</v>
       </c>
       <c r="S115" t="n">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115" t="n">
         <v>39060</v>
@@ -11219,22 +11219,22 @@
         <v>2629</v>
       </c>
       <c r="AF115" t="n">
-        <v>2615</v>
+        <v>4739</v>
       </c>
       <c r="AG115" t="n">
-        <v>2202</v>
+        <v>3279</v>
       </c>
       <c r="AH115" t="n">
-        <v>1358</v>
+        <v>1460</v>
       </c>
       <c r="AI115" t="n">
-        <v>13472</v>
+        <v>12597</v>
       </c>
       <c r="AJ115" t="n">
-        <v>2403</v>
+        <v>1322</v>
       </c>
       <c r="AK115" t="n">
-        <v>17819</v>
+        <v>45208</v>
       </c>
       <c r="AL115" t="n">
         <v>6051</v>
@@ -11300,7 +11300,7 @@
         <v>1903661</v>
       </c>
       <c r="S116" t="n">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116" t="n">
         <v>37061</v>
@@ -11339,22 +11339,22 @@
         <v>2684</v>
       </c>
       <c r="AF116" t="n">
-        <v>3150</v>
+        <v>5102</v>
       </c>
       <c r="AG116" t="n">
-        <v>1971</v>
+        <v>3516</v>
       </c>
       <c r="AH116" t="n">
-        <v>1443</v>
+        <v>1586</v>
       </c>
       <c r="AI116" t="n">
-        <v>12903</v>
+        <v>12398</v>
       </c>
       <c r="AJ116" t="n">
-        <v>2524</v>
+        <v>1284</v>
       </c>
       <c r="AK116" t="n">
-        <v>19436</v>
+        <v>45535</v>
       </c>
       <c r="AL116" t="n">
         <v>6150</v>
@@ -11420,7 +11420,7 @@
         <v>1959617</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117" t="n">
         <v>35577</v>
@@ -11459,22 +11459,22 @@
         <v>2705</v>
       </c>
       <c r="AF117" t="n">
-        <v>2918</v>
+        <v>5523</v>
       </c>
       <c r="AG117" t="n">
-        <v>2038</v>
+        <v>3796</v>
       </c>
       <c r="AH117" t="n">
-        <v>1396</v>
+        <v>1727</v>
       </c>
       <c r="AI117" t="n">
-        <v>13978</v>
+        <v>12893</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1946</v>
+        <v>1333</v>
       </c>
       <c r="AK117" t="n">
-        <v>19836</v>
+        <v>45318</v>
       </c>
       <c r="AL117" t="n">
         <v>6165</v>
@@ -11540,7 +11540,7 @@
         <v>2006724</v>
       </c>
       <c r="S118" t="n">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118" t="n">
         <v>38597</v>
@@ -11579,22 +11579,22 @@
         <v>2707</v>
       </c>
       <c r="AF118" t="n">
-        <v>3184</v>
+        <v>5497</v>
       </c>
       <c r="AG118" t="n">
-        <v>2172</v>
+        <v>3813</v>
       </c>
       <c r="AH118" t="n">
-        <v>1484</v>
+        <v>1684</v>
       </c>
       <c r="AI118" t="n">
-        <v>12682</v>
+        <v>12751</v>
       </c>
       <c r="AJ118" t="n">
-        <v>2136</v>
+        <v>1355</v>
       </c>
       <c r="AK118" t="n">
-        <v>16804</v>
+        <v>41950</v>
       </c>
       <c r="AL118" t="n">
         <v>5999</v>
@@ -11660,7 +11660,7 @@
         <v>2061939</v>
       </c>
       <c r="S119" t="n">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119" t="n">
         <v>38856</v>
@@ -11699,22 +11699,22 @@
         <v>2723</v>
       </c>
       <c r="AF119" t="n">
-        <v>2711</v>
+        <v>5913</v>
       </c>
       <c r="AG119" t="n">
-        <v>2406</v>
+        <v>4085</v>
       </c>
       <c r="AH119" t="n">
-        <v>1663</v>
+        <v>1828</v>
       </c>
       <c r="AI119" t="n">
-        <v>11181</v>
+        <v>13825</v>
       </c>
       <c r="AJ119" t="n">
-        <v>1940</v>
+        <v>1411</v>
       </c>
       <c r="AK119" t="n">
-        <v>17315</v>
+        <v>40419</v>
       </c>
       <c r="AL119" t="n">
         <v>5931</v>
@@ -11780,7 +11780,7 @@
         <v>2119036</v>
       </c>
       <c r="S120" t="n">
-        <v>0.1358</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T120" t="n">
         <v>41670</v>
@@ -11819,22 +11819,22 @@
         <v>2759</v>
       </c>
       <c r="AF120" t="n">
-        <v>3540</v>
+        <v>6533</v>
       </c>
       <c r="AG120" t="n">
-        <v>2251</v>
+        <v>4639</v>
       </c>
       <c r="AH120" t="n">
-        <v>1617</v>
+        <v>1894</v>
       </c>
       <c r="AI120" t="n">
-        <v>12757</v>
+        <v>13711</v>
       </c>
       <c r="AJ120" t="n">
-        <v>1967</v>
+        <v>1405</v>
       </c>
       <c r="AK120" t="n">
-        <v>17400</v>
+        <v>41555</v>
       </c>
       <c r="AL120" t="n">
         <v>5921</v>
@@ -11900,7 +11900,7 @@
         <v>2174548</v>
       </c>
       <c r="S121" t="n">
-        <v>0.1332</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T121" t="n">
         <v>45209</v>
@@ -11939,22 +11939,22 @@
         <v>2824</v>
       </c>
       <c r="AF121" t="n">
-        <v>3502</v>
+        <v>6904</v>
       </c>
       <c r="AG121" t="n">
-        <v>2892</v>
+        <v>4911</v>
       </c>
       <c r="AH121" t="n">
-        <v>1663</v>
+        <v>1993</v>
       </c>
       <c r="AI121" t="n">
-        <v>13765</v>
+        <v>12894</v>
       </c>
       <c r="AJ121" t="n">
-        <v>2909</v>
+        <v>1322</v>
       </c>
       <c r="AK121" t="n">
-        <v>17348</v>
+        <v>44333</v>
       </c>
       <c r="AL121" t="n">
         <v>6017</v>
@@ -12022,7 +12022,7 @@
         <v>2212947</v>
       </c>
       <c r="S122" t="n">
-        <v>0.1392</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T122" t="n">
         <v>45225</v>
@@ -12061,22 +12061,22 @@
         <v>2847</v>
       </c>
       <c r="AF122" t="n">
-        <v>3586</v>
+        <v>7382</v>
       </c>
       <c r="AG122" t="n">
-        <v>2776</v>
+        <v>5227</v>
       </c>
       <c r="AH122" t="n">
-        <v>1887</v>
+        <v>2155</v>
       </c>
       <c r="AI122" t="n">
-        <v>14562</v>
+        <v>11983</v>
       </c>
       <c r="AJ122" t="n">
-        <v>2462</v>
+        <v>1181</v>
       </c>
       <c r="AK122" t="n">
-        <v>19376</v>
+        <v>45687</v>
       </c>
       <c r="AL122" t="n">
         <v>6147</v>
@@ -12144,7 +12144,7 @@
         <v>2273591</v>
       </c>
       <c r="S123" t="n">
-        <v>0.1315</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T123" t="n">
         <v>49855</v>
@@ -12183,22 +12183,22 @@
         <v>2880</v>
       </c>
       <c r="AF123" t="n">
-        <v>4149</v>
+        <v>7652</v>
       </c>
       <c r="AG123" t="n">
-        <v>3041</v>
+        <v>5421</v>
       </c>
       <c r="AH123" t="n">
-        <v>1507</v>
+        <v>2231</v>
       </c>
       <c r="AI123" t="n">
-        <v>14449</v>
+        <v>12134</v>
       </c>
       <c r="AJ123" t="n">
-        <v>2201</v>
+        <v>1161</v>
       </c>
       <c r="AK123" t="n">
-        <v>21629</v>
+        <v>45619</v>
       </c>
       <c r="AL123" t="n">
         <v>6045</v>
@@ -12266,7 +12266,7 @@
         <v>2338098</v>
       </c>
       <c r="S124" t="n">
-        <v>0.1352</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T124" t="n">
         <v>51177</v>
@@ -12305,22 +12305,22 @@
         <v>2939</v>
       </c>
       <c r="AF124" t="n">
-        <v>4232</v>
+        <v>7890</v>
       </c>
       <c r="AG124" t="n">
-        <v>2609</v>
+        <v>5552</v>
       </c>
       <c r="AH124" t="n">
-        <v>1720</v>
+        <v>2338</v>
       </c>
       <c r="AI124" t="n">
-        <v>13684</v>
+        <v>12907</v>
       </c>
       <c r="AJ124" t="n">
-        <v>2093</v>
+        <v>1270</v>
       </c>
       <c r="AK124" t="n">
-        <v>21006</v>
+        <v>44252</v>
       </c>
       <c r="AL124" t="n">
         <v>5952</v>
@@ -12388,7 +12388,7 @@
         <v>2371709</v>
       </c>
       <c r="S125" t="n">
-        <v>0.135</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T125" t="n">
         <v>49220</v>
@@ -12427,22 +12427,22 @@
         <v>2975</v>
       </c>
       <c r="AF125" t="n">
-        <v>3829</v>
+        <v>8181</v>
       </c>
       <c r="AG125" t="n">
-        <v>2944</v>
+        <v>5732</v>
       </c>
       <c r="AH125" t="n">
-        <v>1841</v>
+        <v>2449</v>
       </c>
       <c r="AI125" t="n">
-        <v>12851</v>
+        <v>13307</v>
       </c>
       <c r="AJ125" t="n">
-        <v>2055</v>
+        <v>1203</v>
       </c>
       <c r="AK125" t="n">
-        <v>19046</v>
+        <v>42564</v>
       </c>
       <c r="AL125" t="n">
         <v>5946</v>
@@ -12482,23 +12482,23 @@
       <c r="I126" t="n">
         <v>1712</v>
       </c>
-      <c r="J126" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K126" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L126" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M126" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N126" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O126" t="e">
-        <v>#NUM!</v>
+      <c r="J126" t="n">
+        <v>-16.0466559069726</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-7.87904903115348</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-2.54983723945506</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-28.2604725702987</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-42.5329310845954</v>
+      </c>
+      <c r="O126" t="n">
+        <v>14.3687780793491</v>
       </c>
       <c r="P126" t="n">
         <v>2221287</v>
@@ -12510,7 +12510,7 @@
         <v>2431861</v>
       </c>
       <c r="S126" t="n">
-        <v>0.1351</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T126" t="n">
         <v>50286</v>
@@ -12549,22 +12549,22 @@
         <v>2993</v>
       </c>
       <c r="AF126" t="n">
-        <v>4198</v>
+        <v>8698</v>
       </c>
       <c r="AG126" t="n">
-        <v>2864</v>
+        <v>6181</v>
       </c>
       <c r="AH126" t="n">
-        <v>2030</v>
+        <v>2517</v>
       </c>
       <c r="AI126" t="n">
-        <v>11145</v>
+        <v>12852</v>
       </c>
       <c r="AJ126" t="n">
-        <v>2980</v>
+        <v>1226</v>
       </c>
       <c r="AK126" t="n">
-        <v>17379</v>
+        <v>40828</v>
       </c>
       <c r="AL126" t="n">
         <v>5913</v>
@@ -12604,23 +12604,23 @@
       <c r="I127" t="n">
         <v>5656</v>
       </c>
-      <c r="J127" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K127" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L127" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M127" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N127" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O127" t="e">
-        <v>#NUM!</v>
+      <c r="J127" t="n">
+        <v>-16.1571055393815</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-6.02261976523459</v>
+      </c>
+      <c r="L127" t="n">
+        <v>12.0465188790522</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-25.2771723280162</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-41.9259126518295</v>
+      </c>
+      <c r="O127" t="n">
+        <v>14.9653386789261</v>
       </c>
       <c r="P127" t="n">
         <v>2258708</v>
@@ -12632,7 +12632,7 @@
         <v>2471029</v>
       </c>
       <c r="S127" t="n">
-        <v>0.1503</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="T127" t="n">
         <v>48109</v>
@@ -12671,22 +12671,22 @@
         <v>3034</v>
       </c>
       <c r="AF127" t="n">
-        <v>4462</v>
+        <v>9286</v>
       </c>
       <c r="AG127" t="n">
-        <v>3686</v>
+        <v>6628</v>
       </c>
       <c r="AH127" t="n">
-        <v>2045</v>
+        <v>2658</v>
       </c>
       <c r="AI127" t="n">
-        <v>12065</v>
+        <v>12925</v>
       </c>
       <c r="AJ127" t="n">
-        <v>2223</v>
+        <v>1148</v>
       </c>
       <c r="AK127" t="n">
-        <v>19026</v>
+        <v>41819</v>
       </c>
       <c r="AL127" t="n">
         <v>6087</v>
@@ -12754,7 +12754,7 @@
         <v>2526940</v>
       </c>
       <c r="S128" t="n">
-        <v>0.1556</v>
+        <v>0.15560343677851</v>
       </c>
       <c r="T128" t="n">
         <v>48201</v>
@@ -12793,22 +12793,22 @@
         <v>3055</v>
       </c>
       <c r="AF128" t="n">
-        <v>4333</v>
+        <v>9610</v>
       </c>
       <c r="AG128" t="n">
-        <v>3286</v>
+        <v>6880</v>
       </c>
       <c r="AH128" t="n">
-        <v>2232</v>
+        <v>2730</v>
       </c>
       <c r="AI128" t="n">
-        <v>12883</v>
+        <v>11575</v>
       </c>
       <c r="AJ128" t="n">
-        <v>3340</v>
+        <v>1017</v>
       </c>
       <c r="AK128" t="n">
-        <v>16431</v>
+        <v>45016</v>
       </c>
       <c r="AL128" t="n">
         <v>6322</v>
@@ -12836,10 +12836,18 @@
       <c r="E129" t="n">
         <v>105</v>
       </c>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
+      <c r="F129" t="n">
+        <v>2020405</v>
+      </c>
+      <c r="G129" t="n">
+        <v>60400</v>
+      </c>
+      <c r="H129" t="n">
+        <v>118320</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5958</v>
+      </c>
       <c r="J129" t="e">
         <v>#NUM!</v>
       </c>
@@ -12858,18 +12866,28 @@
       <c r="O129" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P129"/>
-      <c r="Q129"/>
+      <c r="P129" t="n">
+        <v>2389789</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>214114</v>
+      </c>
       <c r="R129" t="n">
         <v>2603903</v>
       </c>
-      <c r="S129"/>
-      <c r="T129"/>
-      <c r="U129"/>
-      <c r="V129"/>
-      <c r="W129" t="n">
-        <v>9689</v>
-      </c>
+      <c r="S129" t="n">
+        <v>0.14464341297691</v>
+      </c>
+      <c r="T129" t="n">
+        <v>53698</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2153</v>
+      </c>
+      <c r="V129" t="n">
+        <v>55851</v>
+      </c>
+      <c r="W129"/>
       <c r="X129" t="n">
         <v>338</v>
       </c>
@@ -12895,22 +12913,22 @@
         <v>3106</v>
       </c>
       <c r="AF129" t="n">
-        <v>8987</v>
+        <v>9689</v>
       </c>
       <c r="AG129" t="n">
-        <v>7342</v>
+        <v>6811</v>
       </c>
       <c r="AH129" t="n">
-        <v>5310</v>
+        <v>2878</v>
       </c>
       <c r="AI129" t="n">
-        <v>20801</v>
+        <v>11296</v>
       </c>
       <c r="AJ129" t="n">
-        <v>7868</v>
+        <v>953</v>
       </c>
       <c r="AK129" t="n">
-        <v>26917</v>
+        <v>46706</v>
       </c>
       <c r="AL129" t="n">
         <v>6478</v>
@@ -12919,6 +12937,106 @@
         <v>5224</v>
       </c>
       <c r="AN129" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B130" t="n">
+        <v>240111</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3013</v>
+      </c>
+      <c r="E130" t="n">
+        <v>95</v>
+      </c>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K130" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L130" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M130" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N130" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O130" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130" t="n">
+        <v>2644496</v>
+      </c>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130" t="n">
+        <v>344</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>962</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>779</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>7376</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>1043</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3146</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>10002</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>7079</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>2923</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>10698</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>940</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>46943</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>6379</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>5127</v>
+      </c>
+      <c r="AN130" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12976,34 +13094,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>109102</v>
+        <v>114102</v>
       </c>
       <c r="C2" t="n">
-        <v>98700</v>
+        <v>100224</v>
       </c>
       <c r="D2" t="n">
-        <v>2505203</v>
+        <v>2544272</v>
       </c>
       <c r="E2" t="n">
-        <v>7466</v>
+        <v>7480</v>
       </c>
       <c r="F2" t="n">
-        <v>58002</v>
+        <v>57641</v>
       </c>
       <c r="G2" t="n">
-        <v>11296</v>
+        <v>10698</v>
       </c>
       <c r="H2" t="n">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="I2" t="n">
-        <v>5224</v>
+        <v>5127</v>
       </c>
       <c r="J2" t="n">
-        <v>24459</v>
+        <v>24758</v>
       </c>
       <c r="K2" t="n">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">122996</t>
+    <t xml:space="preserve">127880</t>
   </si>
 </sst>
 </file>
@@ -12887,7 +12887,9 @@
       <c r="V129" t="n">
         <v>55851</v>
       </c>
-      <c r="W129"/>
+      <c r="W129" t="n">
+        <v>9689</v>
+      </c>
       <c r="X129" t="n">
         <v>338</v>
       </c>
@@ -12956,10 +12958,18 @@
       <c r="E130" t="n">
         <v>95</v>
       </c>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
+      <c r="F130" t="n">
+        <v>2069122</v>
+      </c>
+      <c r="G130" t="n">
+        <v>48717</v>
+      </c>
+      <c r="H130" t="n">
+        <v>123398</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5078</v>
+      </c>
       <c r="J130" t="e">
         <v>#NUM!</v>
       </c>
@@ -12978,15 +12988,27 @@
       <c r="O130" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P130"/>
-      <c r="Q130"/>
+      <c r="P130" t="n">
+        <v>2429624</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>214872</v>
+      </c>
       <c r="R130" t="n">
         <v>2644496</v>
       </c>
-      <c r="S130"/>
-      <c r="T130"/>
-      <c r="U130"/>
-      <c r="V130"/>
+      <c r="S130" t="n">
+        <v>0.15812361136341</v>
+      </c>
+      <c r="T130" t="n">
+        <v>51116</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1870</v>
+      </c>
+      <c r="V130" t="n">
+        <v>52986</v>
+      </c>
       <c r="W130"/>
       <c r="X130" t="n">
         <v>344</v>
@@ -13037,6 +13059,106 @@
         <v>5127</v>
       </c>
       <c r="AN130" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B131" t="n">
+        <v>250462</v>
+      </c>
+      <c r="C131" t="n">
+        <v>10351</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3112</v>
+      </c>
+      <c r="E131" t="n">
+        <v>99</v>
+      </c>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K131" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L131" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M131" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N131" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O131" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131" t="n">
+        <v>2710290</v>
+      </c>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131" t="n">
+        <v>350</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1017</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>159</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>364</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>786</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>7635</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>1050</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3190</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>10083</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>7170</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>2913</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>11188</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>930</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>46338</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>6353</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>5233</v>
+      </c>
+      <c r="AN131" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -13094,34 +13216,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>114102</v>
+        <v>119470</v>
       </c>
       <c r="C2" t="n">
-        <v>100224</v>
+        <v>102986</v>
       </c>
       <c r="D2" t="n">
-        <v>2544272</v>
+        <v>2607304</v>
       </c>
       <c r="E2" t="n">
-        <v>7480</v>
+        <v>7485</v>
       </c>
       <c r="F2" t="n">
-        <v>57641</v>
+        <v>57526</v>
       </c>
       <c r="G2" t="n">
-        <v>10698</v>
+        <v>11188</v>
       </c>
       <c r="H2" t="n">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="I2" t="n">
-        <v>5127</v>
+        <v>5233</v>
       </c>
       <c r="J2" t="n">
-        <v>24758</v>
+        <v>25291</v>
       </c>
       <c r="K2" t="n">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">127880</t>
+    <t xml:space="preserve">132638.39999999999</t>
   </si>
 </sst>
 </file>
@@ -8430,7 +8430,7 @@
         <v>1117274</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T92" t="n">
         <v>21585</v>
@@ -8550,7 +8550,7 @@
         <v>1150868</v>
       </c>
       <c r="S93" t="n">
-        <v>0.06259941815807</v>
+        <v>0.0626</v>
       </c>
       <c r="T93" t="n">
         <v>23620</v>
@@ -8670,7 +8670,7 @@
         <v>1174948</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T94" t="n">
         <v>24043</v>
@@ -8790,7 +8790,7 @@
         <v>1209187</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T95" t="n">
         <v>23537</v>
@@ -8910,7 +8910,7 @@
         <v>1218955</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T96" t="n">
         <v>20021</v>
@@ -9150,7 +9150,7 @@
         <v>1286139</v>
       </c>
       <c r="S98" t="n">
-        <v>0.06662901614215</v>
+        <v>0.0666</v>
       </c>
       <c r="T98" t="n">
         <v>23019</v>
@@ -9270,7 +9270,7 @@
         <v>1302049</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T99" t="n">
         <v>22046</v>
@@ -9386,7 +9386,7 @@
         <v>1348893</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06846481685691</v>
+        <v>0.0685</v>
       </c>
       <c r="T100" t="n">
         <v>23966</v>
@@ -9504,7 +9504,7 @@
         <v>1370131</v>
       </c>
       <c r="S101" t="n">
-        <v>0.07052200676015</v>
+        <v>0.0705</v>
       </c>
       <c r="T101" t="n">
         <v>23626</v>
@@ -9624,7 +9624,7 @@
         <v>1404369</v>
       </c>
       <c r="S102" t="n">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T102" t="n">
         <v>23863</v>
@@ -9744,7 +9744,7 @@
         <v>1442950</v>
       </c>
       <c r="S103" t="n">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T103" t="n">
         <v>29139</v>
@@ -9984,7 +9984,7 @@
         <v>1499015</v>
       </c>
       <c r="S105" t="n">
-        <v>0.06709533684425</v>
+        <v>0.0671</v>
       </c>
       <c r="T105" t="n">
         <v>28727</v>
@@ -10104,7 +10104,7 @@
         <v>1522434</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06941707304209</v>
+        <v>0.0694</v>
       </c>
       <c r="T106" t="n">
         <v>29793</v>
@@ -10224,7 +10224,7 @@
         <v>1560537</v>
       </c>
       <c r="S107" t="n">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T107" t="n">
         <v>28774</v>
@@ -10464,7 +10464,7 @@
         <v>1622851</v>
       </c>
       <c r="S109" t="n">
-        <v>0.08936916175479</v>
+        <v>0.0894</v>
       </c>
       <c r="T109" t="n">
         <v>29011</v>
@@ -10584,7 +10584,7 @@
         <v>1690124</v>
       </c>
       <c r="S110" t="n">
-        <v>0.08795944343323</v>
+        <v>0.088</v>
       </c>
       <c r="T110" t="n">
         <v>32885</v>
@@ -10824,7 +10824,7 @@
         <v>1767701</v>
       </c>
       <c r="S112" t="n">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="T112" t="n">
         <v>35550</v>
@@ -10940,7 +10940,7 @@
         <v>1805642</v>
       </c>
       <c r="S113" t="n">
-        <v>0.10422837848208</v>
+        <v>0.1042</v>
       </c>
       <c r="T113" t="n">
         <v>37231</v>
@@ -11060,7 +11060,7 @@
         <v>1836037</v>
       </c>
       <c r="S114" t="n">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="T114" t="n">
         <v>35943</v>
@@ -11180,7 +11180,7 @@
         <v>1875197</v>
       </c>
       <c r="S115" t="n">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="T115" t="n">
         <v>39060</v>
@@ -11300,7 +11300,7 @@
         <v>1903661</v>
       </c>
       <c r="S116" t="n">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="T116" t="n">
         <v>37061</v>
@@ -11420,7 +11420,7 @@
         <v>1959617</v>
       </c>
       <c r="S117" t="n">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="T117" t="n">
         <v>35577</v>
@@ -11540,7 +11540,7 @@
         <v>2006724</v>
       </c>
       <c r="S118" t="n">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="T118" t="n">
         <v>38597</v>
@@ -11660,7 +11660,7 @@
         <v>2061939</v>
       </c>
       <c r="S119" t="n">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="T119" t="n">
         <v>38856</v>
@@ -11780,7 +11780,7 @@
         <v>2119036</v>
       </c>
       <c r="S120" t="n">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="T120" t="n">
         <v>41670</v>
@@ -11900,7 +11900,7 @@
         <v>2174548</v>
       </c>
       <c r="S121" t="n">
-        <v>0.13316248660981</v>
+        <v>0.1332</v>
       </c>
       <c r="T121" t="n">
         <v>45209</v>
@@ -12022,7 +12022,7 @@
         <v>2212947</v>
       </c>
       <c r="S122" t="n">
-        <v>0.13917844913637</v>
+        <v>0.1392</v>
       </c>
       <c r="T122" t="n">
         <v>45225</v>
@@ -12144,7 +12144,7 @@
         <v>2273591</v>
       </c>
       <c r="S123" t="n">
-        <v>0.13154795505798</v>
+        <v>0.1315</v>
       </c>
       <c r="T123" t="n">
         <v>49855</v>
@@ -12266,7 +12266,7 @@
         <v>2338098</v>
       </c>
       <c r="S124" t="n">
-        <v>0.13517270641306</v>
+        <v>0.1352</v>
       </c>
       <c r="T124" t="n">
         <v>51177</v>
@@ -12388,7 +12388,7 @@
         <v>2371709</v>
       </c>
       <c r="S125" t="n">
-        <v>0.13500899750392</v>
+        <v>0.135</v>
       </c>
       <c r="T125" t="n">
         <v>49220</v>
@@ -12510,7 +12510,7 @@
         <v>2431861</v>
       </c>
       <c r="S126" t="n">
-        <v>0.13507194500078</v>
+        <v>0.1351</v>
       </c>
       <c r="T126" t="n">
         <v>50286</v>
@@ -12632,7 +12632,7 @@
         <v>2471029</v>
       </c>
       <c r="S127" t="n">
-        <v>0.15025240527379</v>
+        <v>0.1503</v>
       </c>
       <c r="T127" t="n">
         <v>48109</v>
@@ -12754,7 +12754,7 @@
         <v>2526940</v>
       </c>
       <c r="S128" t="n">
-        <v>0.15560343677851</v>
+        <v>0.1556</v>
       </c>
       <c r="T128" t="n">
         <v>48201</v>
@@ -12876,7 +12876,7 @@
         <v>2603903</v>
       </c>
       <c r="S129" t="n">
-        <v>0.14464341297691</v>
+        <v>0.1446</v>
       </c>
       <c r="T129" t="n">
         <v>53698</v>
@@ -12998,7 +12998,7 @@
         <v>2644496</v>
       </c>
       <c r="S130" t="n">
-        <v>0.15812361136341</v>
+        <v>0.1581</v>
       </c>
       <c r="T130" t="n">
         <v>51116</v>
@@ -13009,7 +13009,9 @@
       <c r="V130" t="n">
         <v>52986</v>
       </c>
-      <c r="W130"/>
+      <c r="W130" t="n">
+        <v>10002</v>
+      </c>
       <c r="X130" t="n">
         <v>344</v>
       </c>
@@ -13078,10 +13080,18 @@
       <c r="E131" t="n">
         <v>99</v>
       </c>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
+      <c r="F131" t="n">
+        <v>2110922</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41800</v>
+      </c>
+      <c r="H131" t="n">
+        <v>131266</v>
+      </c>
+      <c r="I131" t="n">
+        <v>7868</v>
+      </c>
       <c r="J131" t="e">
         <v>#NUM!</v>
       </c>
@@ -13100,16 +13110,30 @@
       <c r="O131" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P131"/>
-      <c r="Q131"/>
+      <c r="P131" t="n">
+        <v>2492754</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>217536</v>
+      </c>
       <c r="R131" t="n">
         <v>2710290</v>
       </c>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="U131"/>
-      <c r="V131"/>
-      <c r="W131"/>
+      <c r="S131" t="n">
+        <v>0.1633</v>
+      </c>
+      <c r="T131" t="n">
+        <v>51328</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1842</v>
+      </c>
+      <c r="V131" t="n">
+        <v>53170</v>
+      </c>
+      <c r="W131" t="n">
+        <v>10083</v>
+      </c>
       <c r="X131" t="n">
         <v>350</v>
       </c>
@@ -13159,6 +13183,108 @@
         <v>5233</v>
       </c>
       <c r="AN131" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B132" t="n">
+        <v>258658</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8196</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3192</v>
+      </c>
+      <c r="E132" t="n">
+        <v>80</v>
+      </c>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K132" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L132" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M132" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N132" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O132" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132" t="n">
+        <v>2757859</v>
+      </c>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132" t="n">
+        <v>10410</v>
+      </c>
+      <c r="X132" t="n">
+        <v>352</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1030</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>365</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>790</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>7757</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>1060</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>3212</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>10410</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>7415</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>2995</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>11726</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>977</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>45740</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>6405</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>5236</v>
+      </c>
+      <c r="AN132" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -13216,34 +13342,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>119470</v>
+        <v>122828</v>
       </c>
       <c r="C2" t="n">
-        <v>102986</v>
+        <v>104646</v>
       </c>
       <c r="D2" t="n">
-        <v>2607304</v>
+        <v>2653213</v>
       </c>
       <c r="E2" t="n">
-        <v>7485</v>
+        <v>7521</v>
       </c>
       <c r="F2" t="n">
-        <v>57526</v>
+        <v>57466</v>
       </c>
       <c r="G2" t="n">
-        <v>11188</v>
+        <v>11726</v>
       </c>
       <c r="H2" t="n">
-        <v>930</v>
+        <v>977</v>
       </c>
       <c r="I2" t="n">
-        <v>5233</v>
+        <v>5236</v>
       </c>
       <c r="J2" t="n">
-        <v>25291</v>
+        <v>25438</v>
       </c>
       <c r="K2" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">132638.39999999999</t>
+    <t xml:space="preserve">136419</t>
   </si>
 </sst>
 </file>
@@ -12726,23 +12726,23 @@
       <c r="I128" t="n">
         <v>5611</v>
       </c>
-      <c r="J128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N128" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O128" t="e">
-        <v>#NUM!</v>
+      <c r="J128" t="n">
+        <v>-14.5296083706555</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-3.75932923160611</v>
+      </c>
+      <c r="L128" t="n">
+        <v>22.1544722711594</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-24.0937211539976</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-40.1976480904443</v>
+      </c>
+      <c r="O128" t="n">
+        <v>14.1718028955766</v>
       </c>
       <c r="P128" t="n">
         <v>2313212</v>
@@ -12848,23 +12848,23 @@
       <c r="I129" t="n">
         <v>5958</v>
       </c>
-      <c r="J129" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K129" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L129" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M129" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N129" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O129" t="e">
-        <v>#NUM!</v>
+      <c r="J129" t="n">
+        <v>-15.6294364575045</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-3.79090246350875</v>
+      </c>
+      <c r="L129" t="n">
+        <v>19.9590984970487</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-25.5597246077889</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-41.2331720660889</v>
+      </c>
+      <c r="O129" t="n">
+        <v>14.1774507095495</v>
       </c>
       <c r="P129" t="n">
         <v>2389789</v>
@@ -12970,23 +12970,23 @@
       <c r="I130" t="n">
         <v>5078</v>
       </c>
-      <c r="J130" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K130" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L130" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M130" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N130" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O130" t="e">
-        <v>#NUM!</v>
+      <c r="J130" t="n">
+        <v>-19.543643781131</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-5.56273769586531</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5.35232824789993</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-26.1205848005826</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-39.9852862772727</v>
+      </c>
+      <c r="O130" t="n">
+        <v>14.548400078313</v>
       </c>
       <c r="P130" t="n">
         <v>2429624</v>
@@ -13202,10 +13202,18 @@
       <c r="E132" t="n">
         <v>80</v>
       </c>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
+      <c r="F132" t="n">
+        <v>2165623</v>
+      </c>
+      <c r="G132" t="n">
+        <v>54701</v>
+      </c>
+      <c r="H132" t="n">
+        <v>137141</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5875</v>
+      </c>
       <c r="J132" t="e">
         <v>#NUM!</v>
       </c>
@@ -13224,15 +13232,27 @@
       <c r="O132" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P132"/>
-      <c r="Q132"/>
+      <c r="P132" t="n">
+        <v>2540125</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>217734</v>
+      </c>
       <c r="R132" t="n">
         <v>2757859</v>
       </c>
-      <c r="S132"/>
-      <c r="T132"/>
-      <c r="U132"/>
-      <c r="V132"/>
+      <c r="S132" t="n">
+        <v>0.1685</v>
+      </c>
+      <c r="T132" t="n">
+        <v>53771</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1393</v>
+      </c>
+      <c r="V132" t="n">
+        <v>55164</v>
+      </c>
       <c r="W132" t="n">
         <v>10410</v>
       </c>
@@ -13285,6 +13305,108 @@
         <v>5236</v>
       </c>
       <c r="AN132" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B133" t="n">
+        <v>264313</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5655</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3235</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O133" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133" t="n">
+        <v>2820803</v>
+      </c>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133" t="n">
+        <v>10405</v>
+      </c>
+      <c r="X133" t="n">
+        <v>379</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1102</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>167</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>372</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>830</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>8918</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>1147</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>3300</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>10405</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>7352</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>3053</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>12066</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>984</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>43566</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>6370</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>5245</v>
+      </c>
+      <c r="AN133" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -13342,34 +13464,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>122828</v>
+        <v>124659</v>
       </c>
       <c r="C2" t="n">
-        <v>104646</v>
+        <v>106350</v>
       </c>
       <c r="D2" t="n">
-        <v>2653213</v>
+        <v>2714453</v>
       </c>
       <c r="E2" t="n">
-        <v>7521</v>
+        <v>7542</v>
       </c>
       <c r="F2" t="n">
-        <v>57466</v>
+        <v>55632</v>
       </c>
       <c r="G2" t="n">
-        <v>11726</v>
+        <v>12066</v>
       </c>
       <c r="H2" t="n">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="I2" t="n">
-        <v>5236</v>
+        <v>5245</v>
       </c>
       <c r="J2" t="n">
-        <v>25438</v>
+        <v>25465</v>
       </c>
       <c r="K2" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">136419</t>
+    <t xml:space="preserve">142397.79999999999</t>
   </si>
 </sst>
 </file>
@@ -8430,7 +8430,7 @@
         <v>1117274</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92" t="n">
         <v>21585</v>
@@ -8550,7 +8550,7 @@
         <v>1150868</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0626</v>
+        <v>0.06259941815807</v>
       </c>
       <c r="T93" t="n">
         <v>23620</v>
@@ -8670,7 +8670,7 @@
         <v>1174948</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94" t="n">
         <v>24043</v>
@@ -8790,7 +8790,7 @@
         <v>1209187</v>
       </c>
       <c r="S95" t="n">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95" t="n">
         <v>23537</v>
@@ -8910,7 +8910,7 @@
         <v>1218955</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96" t="n">
         <v>20021</v>
@@ -9150,7 +9150,7 @@
         <v>1286139</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0666</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98" t="n">
         <v>23019</v>
@@ -9270,7 +9270,7 @@
         <v>1302049</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99" t="n">
         <v>22046</v>
@@ -9386,7 +9386,7 @@
         <v>1348893</v>
       </c>
       <c r="S100" t="n">
-        <v>0.0685</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100" t="n">
         <v>23966</v>
@@ -9504,7 +9504,7 @@
         <v>1370131</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0705</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101" t="n">
         <v>23626</v>
@@ -9624,7 +9624,7 @@
         <v>1404369</v>
       </c>
       <c r="S102" t="n">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102" t="n">
         <v>23863</v>
@@ -9744,7 +9744,7 @@
         <v>1442950</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103" t="n">
         <v>29139</v>
@@ -9984,7 +9984,7 @@
         <v>1499015</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0671</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105" t="n">
         <v>28727</v>
@@ -10104,7 +10104,7 @@
         <v>1522434</v>
       </c>
       <c r="S106" t="n">
-        <v>0.0694</v>
+        <v>0.06941707304209</v>
       </c>
       <c r="T106" t="n">
         <v>29793</v>
@@ -10224,7 +10224,7 @@
         <v>1560537</v>
       </c>
       <c r="S107" t="n">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107" t="n">
         <v>28774</v>
@@ -10464,7 +10464,7 @@
         <v>1622851</v>
       </c>
       <c r="S109" t="n">
-        <v>0.0894</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109" t="n">
         <v>29011</v>
@@ -10584,7 +10584,7 @@
         <v>1690124</v>
       </c>
       <c r="S110" t="n">
-        <v>0.088</v>
+        <v>0.08795944343323</v>
       </c>
       <c r="T110" t="n">
         <v>32885</v>
@@ -10824,7 +10824,7 @@
         <v>1767701</v>
       </c>
       <c r="S112" t="n">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112" t="n">
         <v>35550</v>
@@ -10940,7 +10940,7 @@
         <v>1805642</v>
       </c>
       <c r="S113" t="n">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T113" t="n">
         <v>37231</v>
@@ -11060,7 +11060,7 @@
         <v>1836037</v>
       </c>
       <c r="S114" t="n">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114" t="n">
         <v>35943</v>
@@ -11180,7 +11180,7 @@
         <v>1875197</v>
       </c>
       <c r="S115" t="n">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115" t="n">
         <v>39060</v>
@@ -11300,7 +11300,7 @@
         <v>1903661</v>
       </c>
       <c r="S116" t="n">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116" t="n">
         <v>37061</v>
@@ -11420,7 +11420,7 @@
         <v>1959617</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117" t="n">
         <v>35577</v>
@@ -11540,7 +11540,7 @@
         <v>2006724</v>
       </c>
       <c r="S118" t="n">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118" t="n">
         <v>38597</v>
@@ -11660,7 +11660,7 @@
         <v>2061939</v>
       </c>
       <c r="S119" t="n">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119" t="n">
         <v>38856</v>
@@ -11780,7 +11780,7 @@
         <v>2119036</v>
       </c>
       <c r="S120" t="n">
-        <v>0.1358</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T120" t="n">
         <v>41670</v>
@@ -11900,7 +11900,7 @@
         <v>2174548</v>
       </c>
       <c r="S121" t="n">
-        <v>0.1332</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T121" t="n">
         <v>45209</v>
@@ -12022,7 +12022,7 @@
         <v>2212947</v>
       </c>
       <c r="S122" t="n">
-        <v>0.1392</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T122" t="n">
         <v>45225</v>
@@ -12144,7 +12144,7 @@
         <v>2273591</v>
       </c>
       <c r="S123" t="n">
-        <v>0.1315</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T123" t="n">
         <v>49855</v>
@@ -12266,7 +12266,7 @@
         <v>2338098</v>
       </c>
       <c r="S124" t="n">
-        <v>0.1352</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T124" t="n">
         <v>51177</v>
@@ -12388,7 +12388,7 @@
         <v>2371709</v>
       </c>
       <c r="S125" t="n">
-        <v>0.135</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T125" t="n">
         <v>49220</v>
@@ -12510,7 +12510,7 @@
         <v>2431861</v>
       </c>
       <c r="S126" t="n">
-        <v>0.1351</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T126" t="n">
         <v>50286</v>
@@ -12632,7 +12632,7 @@
         <v>2471029</v>
       </c>
       <c r="S127" t="n">
-        <v>0.1503</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="T127" t="n">
         <v>48109</v>
@@ -12754,7 +12754,7 @@
         <v>2526940</v>
       </c>
       <c r="S128" t="n">
-        <v>0.1556</v>
+        <v>0.15560343677851</v>
       </c>
       <c r="T128" t="n">
         <v>48201</v>
@@ -12876,7 +12876,7 @@
         <v>2603903</v>
       </c>
       <c r="S129" t="n">
-        <v>0.1446</v>
+        <v>0.14464341297691</v>
       </c>
       <c r="T129" t="n">
         <v>53698</v>
@@ -12998,7 +12998,7 @@
         <v>2644496</v>
       </c>
       <c r="S130" t="n">
-        <v>0.1581</v>
+        <v>0.15812361136341</v>
       </c>
       <c r="T130" t="n">
         <v>51116</v>
@@ -13120,7 +13120,7 @@
         <v>2710290</v>
       </c>
       <c r="S131" t="n">
-        <v>0.1633</v>
+        <v>0.16329665986635</v>
       </c>
       <c r="T131" t="n">
         <v>51328</v>
@@ -13242,7 +13242,7 @@
         <v>2757859</v>
       </c>
       <c r="S132" t="n">
-        <v>0.1685</v>
+        <v>0.16849010085123</v>
       </c>
       <c r="T132" t="n">
         <v>53771</v>
@@ -13324,10 +13324,18 @@
       <c r="E133" t="n">
         <v>43</v>
       </c>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
+      <c r="F133" t="n">
+        <v>2205822</v>
+      </c>
+      <c r="G133" t="n">
+        <v>40199</v>
+      </c>
+      <c r="H133" t="n">
+        <v>134345</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-2796</v>
+      </c>
       <c r="J133" t="e">
         <v>#NUM!</v>
       </c>
@@ -13346,18 +13354,28 @@
       <c r="O133" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P133"/>
-      <c r="Q133"/>
+      <c r="P133" t="n">
+        <v>2598680</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>222123</v>
+      </c>
       <c r="R133" t="n">
         <v>2820803</v>
       </c>
-      <c r="S133"/>
-      <c r="T133"/>
-      <c r="U133"/>
-      <c r="V133"/>
-      <c r="W133" t="n">
-        <v>10405</v>
-      </c>
+      <c r="S133" t="n">
+        <v>0.16893795062442</v>
+      </c>
+      <c r="T133" t="n">
+        <v>53913</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1650</v>
+      </c>
+      <c r="V133" t="n">
+        <v>55563</v>
+      </c>
+      <c r="W133"/>
       <c r="X133" t="n">
         <v>379</v>
       </c>
@@ -13407,6 +13425,106 @@
         <v>5245</v>
       </c>
       <c r="AN133" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>44026</v>
+      </c>
+      <c r="B134" t="n">
+        <v>275058</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10745</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3322</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O134" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134" t="n">
+        <v>2864541</v>
+      </c>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134" t="n">
+        <v>386</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1163</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>173</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>838</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>9231</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3371</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>10569</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>7425</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>3144</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>11402</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>949</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>43615</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>6334</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>5051</v>
+      </c>
+      <c r="AN134" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -13464,34 +13582,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>124659</v>
+        <v>129338</v>
       </c>
       <c r="C2" t="n">
-        <v>106350</v>
+        <v>106892</v>
       </c>
       <c r="D2" t="n">
-        <v>2714453</v>
+        <v>2757649</v>
       </c>
       <c r="E2" t="n">
-        <v>7542</v>
+        <v>7646</v>
       </c>
       <c r="F2" t="n">
-        <v>55632</v>
+        <v>55017</v>
       </c>
       <c r="G2" t="n">
-        <v>12066</v>
+        <v>11402</v>
       </c>
       <c r="H2" t="n">
-        <v>984</v>
+        <v>949</v>
       </c>
       <c r="I2" t="n">
-        <v>5245</v>
+        <v>5051</v>
       </c>
       <c r="J2" t="n">
-        <v>25465</v>
+        <v>25496</v>
       </c>
       <c r="K2" t="n">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">142397.79999999999</t>
+    <t xml:space="preserve">149275.6</t>
   </si>
 </sst>
 </file>
@@ -2882,26 +2882,14 @@
       <c r="A36" s="1" t="n">
         <v>43928</v>
       </c>
-      <c r="B36" t="n">
-        <v>8261</v>
-      </c>
-      <c r="C36" t="n">
-        <v>988</v>
-      </c>
-      <c r="D36" t="n">
-        <v>154</v>
-      </c>
-      <c r="E36" t="n">
-        <v>14</v>
-      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36" t="n">
-        <v>7536</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7536</v>
-      </c>
+      <c r="H36"/>
+      <c r="I36"/>
       <c r="J36" t="n">
         <v>-38.6660534848321</v>
       </c>
@@ -2958,26 +2946,14 @@
       <c r="A37" s="1" t="n">
         <v>43929</v>
       </c>
-      <c r="B37" t="n">
-        <v>9353</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1092</v>
-      </c>
-      <c r="D37" t="n">
-        <v>177</v>
-      </c>
-      <c r="E37" t="n">
-        <v>23</v>
-      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" t="n">
-        <v>8397</v>
-      </c>
-      <c r="I37" t="n">
-        <v>861</v>
-      </c>
+      <c r="H37"/>
+      <c r="I37"/>
       <c r="J37" t="n">
         <v>-38.1490062280978</v>
       </c>
@@ -3034,26 +3010,14 @@
       <c r="A38" s="1" t="n">
         <v>43930</v>
       </c>
-      <c r="B38" t="n">
-        <v>10230</v>
-      </c>
-      <c r="C38" t="n">
-        <v>877</v>
-      </c>
-      <c r="D38" t="n">
-        <v>199</v>
-      </c>
-      <c r="E38" t="n">
-        <v>22</v>
-      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38" t="n">
-        <v>8919</v>
-      </c>
-      <c r="I38" t="n">
-        <v>522</v>
-      </c>
+      <c r="H38"/>
+      <c r="I38"/>
       <c r="J38" t="n">
         <v>-39.0670104425334</v>
       </c>
@@ -3110,26 +3074,14 @@
       <c r="A39" s="1" t="n">
         <v>43931</v>
       </c>
-      <c r="B39" t="n">
-        <v>11671</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1441</v>
-      </c>
-      <c r="D39" t="n">
-        <v>226</v>
-      </c>
-      <c r="E39" t="n">
-        <v>27</v>
-      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" t="n">
-        <v>10067</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1148</v>
-      </c>
+      <c r="H39"/>
+      <c r="I39"/>
       <c r="J39" t="n">
         <v>-40.0556161826443</v>
       </c>
@@ -3186,26 +3138,14 @@
       <c r="A40" s="1" t="n">
         <v>43932</v>
       </c>
-      <c r="B40" t="n">
-        <v>12561</v>
-      </c>
-      <c r="C40" t="n">
-        <v>890</v>
-      </c>
-      <c r="D40" t="n">
-        <v>254</v>
-      </c>
-      <c r="E40" t="n">
-        <v>28</v>
-      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" t="n">
-        <v>10682</v>
-      </c>
-      <c r="I40" t="n">
-        <v>615</v>
-      </c>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40" t="n">
         <v>-45.7967500059682</v>
       </c>
@@ -3262,26 +3202,14 @@
       <c r="A41" s="1" t="n">
         <v>43933</v>
       </c>
-      <c r="B41" t="n">
-        <v>13484</v>
-      </c>
-      <c r="C41" t="n">
-        <v>923</v>
-      </c>
-      <c r="D41" t="n">
-        <v>271</v>
-      </c>
-      <c r="E41" t="n">
-        <v>17</v>
-      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" t="n">
-        <v>11190</v>
-      </c>
-      <c r="I41" t="n">
-        <v>508</v>
-      </c>
+      <c r="H41"/>
+      <c r="I41"/>
       <c r="J41" t="n">
         <v>-57.344089248523</v>
       </c>
@@ -3322,24 +3250,12 @@
       <c r="AC41"/>
       <c r="AD41"/>
       <c r="AE41"/>
-      <c r="AF41" t="n">
-        <v>1338</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>775</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>563</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>21550</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>2368</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>27420</v>
-      </c>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
       <c r="AL41"/>
       <c r="AM41"/>
       <c r="AN41" t="n">
@@ -3350,26 +3266,14 @@
       <c r="A42" s="1" t="n">
         <v>43934</v>
       </c>
-      <c r="B42" t="n">
-        <v>13906</v>
-      </c>
-      <c r="C42" t="n">
-        <v>422</v>
-      </c>
-      <c r="D42" t="n">
-        <v>287</v>
-      </c>
-      <c r="E42" t="n">
-        <v>16</v>
-      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42" t="n">
-        <v>11341</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
+      <c r="H42"/>
+      <c r="I42"/>
       <c r="J42" t="n">
         <v>-37.6640012655913</v>
       </c>
@@ -3410,24 +3314,12 @@
       <c r="AC42"/>
       <c r="AD42"/>
       <c r="AE42"/>
-      <c r="AF42" t="n">
-        <v>1176</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>585</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>591</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>20588</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>2265</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>26721</v>
-      </c>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
       <c r="AL42"/>
       <c r="AM42"/>
       <c r="AN42" t="n">
@@ -3438,26 +3330,14 @@
       <c r="A43" s="1" t="n">
         <v>43935</v>
       </c>
-      <c r="B43" t="n">
-        <v>14624</v>
-      </c>
-      <c r="C43" t="n">
-        <v>718</v>
-      </c>
-      <c r="D43" t="n">
-        <v>318</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31</v>
-      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43" t="n">
-        <v>11718</v>
-      </c>
-      <c r="I43" t="n">
-        <v>377</v>
-      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43" t="n">
         <v>-36.0416271437831</v>
       </c>
@@ -3498,24 +3378,12 @@
       <c r="AC43"/>
       <c r="AD43"/>
       <c r="AE43"/>
-      <c r="AF43" t="n">
-        <v>1409</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>815</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>594</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>21198</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>2342</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>28695</v>
-      </c>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
       <c r="AL43"/>
       <c r="AM43"/>
       <c r="AN43" t="n">
@@ -3526,26 +3394,14 @@
       <c r="A44" s="1" t="n">
         <v>43936</v>
       </c>
-      <c r="B44" t="n">
-        <v>15492</v>
-      </c>
-      <c r="C44" t="n">
-        <v>868</v>
-      </c>
-      <c r="D44" t="n">
-        <v>364</v>
-      </c>
-      <c r="E44" t="n">
-        <v>46</v>
-      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" t="n">
-        <v>11972</v>
-      </c>
-      <c r="I44" t="n">
-        <v>254</v>
-      </c>
+      <c r="H44"/>
+      <c r="I44"/>
       <c r="J44" t="n">
         <v>-28.0862519421421</v>
       </c>
@@ -3586,24 +3442,12 @@
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
-      <c r="AF44" t="n">
-        <v>1568</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>880</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>688</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>21816</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>2366</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>29892</v>
-      </c>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
       <c r="AL44"/>
       <c r="AM44"/>
       <c r="AN44" t="n">
@@ -3614,26 +3458,14 @@
       <c r="A45" s="1" t="n">
         <v>43937</v>
       </c>
-      <c r="B45" t="n">
-        <v>16455</v>
-      </c>
-      <c r="C45" t="n">
-        <v>963</v>
-      </c>
-      <c r="D45" t="n">
-        <v>393</v>
-      </c>
-      <c r="E45" t="n">
-        <v>29</v>
-      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" t="n">
-        <v>12379</v>
-      </c>
-      <c r="I45" t="n">
-        <v>407</v>
-      </c>
+      <c r="H45"/>
+      <c r="I45"/>
       <c r="J45" t="n">
         <v>-31.7972408064276</v>
       </c>
@@ -3674,24 +3506,12 @@
       <c r="AC45"/>
       <c r="AD45"/>
       <c r="AE45"/>
-      <c r="AF45" t="n">
-        <v>1459</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>796</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>663</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>21489</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>2386</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>30271</v>
-      </c>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
       <c r="AL45"/>
       <c r="AM45"/>
       <c r="AN45" t="n">
@@ -3702,26 +3522,14 @@
       <c r="A46" s="1" t="n">
         <v>43938</v>
       </c>
-      <c r="B46" t="n">
-        <v>17371</v>
-      </c>
-      <c r="C46" t="n">
-        <v>916</v>
-      </c>
-      <c r="D46" t="n">
-        <v>428</v>
-      </c>
-      <c r="E46" t="n">
-        <v>35</v>
-      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" t="n">
-        <v>12750</v>
-      </c>
-      <c r="I46" t="n">
-        <v>371</v>
-      </c>
+      <c r="H46"/>
+      <c r="I46"/>
       <c r="J46" t="n">
         <v>-37.5721775381391</v>
       </c>
@@ -3762,24 +3570,12 @@
       <c r="AC46"/>
       <c r="AD46"/>
       <c r="AE46"/>
-      <c r="AF46" t="n">
-        <v>1522</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>828</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>21247</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>2543</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>30162</v>
-      </c>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
       <c r="AL46"/>
       <c r="AM46"/>
       <c r="AN46" t="n">
@@ -3790,26 +3586,14 @@
       <c r="A47" s="1" t="n">
         <v>43939</v>
       </c>
-      <c r="B47" t="n">
-        <v>18260</v>
-      </c>
-      <c r="C47" t="n">
-        <v>889</v>
-      </c>
-      <c r="D47" t="n">
-        <v>453</v>
-      </c>
-      <c r="E47" t="n">
-        <v>25</v>
-      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
-      <c r="H47" t="n">
-        <v>12992</v>
-      </c>
-      <c r="I47" t="n">
-        <v>242</v>
-      </c>
+      <c r="H47"/>
+      <c r="I47"/>
       <c r="J47" t="n">
         <v>-41.5843221902067</v>
       </c>
@@ -3850,24 +3634,12 @@
       <c r="AC47"/>
       <c r="AD47"/>
       <c r="AE47"/>
-      <c r="AF47" t="n">
-        <v>1321</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>738</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>583</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>21060</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>2339</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>30333</v>
-      </c>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
       <c r="AL47"/>
       <c r="AM47"/>
       <c r="AN47" t="n">
@@ -3878,26 +3650,14 @@
       <c r="A48" s="1" t="n">
         <v>43940</v>
       </c>
-      <c r="B48" t="n">
-        <v>18923</v>
-      </c>
-      <c r="C48" t="n">
-        <v>663</v>
-      </c>
-      <c r="D48" t="n">
-        <v>477</v>
-      </c>
-      <c r="E48" t="n">
-        <v>24</v>
-      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" t="n">
-        <v>13143</v>
-      </c>
-      <c r="I48" t="n">
-        <v>151</v>
-      </c>
+      <c r="H48"/>
+      <c r="I48"/>
       <c r="J48" t="n">
         <v>-42.9080603563485</v>
       </c>
@@ -3938,24 +3698,12 @@
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
-      <c r="AF48" t="n">
-        <v>1471</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>847</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>624</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>21010</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>2377</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>29136</v>
-      </c>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
       <c r="AL48"/>
       <c r="AM48"/>
       <c r="AN48" t="n">
@@ -3966,26 +3714,14 @@
       <c r="A49" s="1" t="n">
         <v>43941</v>
       </c>
-      <c r="B49" t="n">
-        <v>19458</v>
-      </c>
-      <c r="C49" t="n">
-        <v>535</v>
-      </c>
-      <c r="D49" t="n">
-        <v>495</v>
-      </c>
-      <c r="E49" t="n">
-        <v>18</v>
-      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
-      <c r="H49" t="n">
-        <v>13303</v>
-      </c>
-      <c r="I49" t="n">
-        <v>160</v>
-      </c>
+      <c r="H49"/>
+      <c r="I49"/>
       <c r="J49" t="n">
         <v>-32.2531151405304</v>
       </c>
@@ -4026,24 +3762,12 @@
       <c r="AC49"/>
       <c r="AD49"/>
       <c r="AE49"/>
-      <c r="AF49" t="n">
-        <v>1414</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>794</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>620</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>20459</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>2386</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>27057</v>
-      </c>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
       <c r="AL49"/>
       <c r="AM49"/>
       <c r="AN49" t="n">
@@ -4054,30 +3778,14 @@
       <c r="A50" s="1" t="n">
         <v>43942</v>
       </c>
-      <c r="B50" t="n">
-        <v>20196</v>
-      </c>
-      <c r="C50" t="n">
-        <v>738</v>
-      </c>
-      <c r="D50" t="n">
-        <v>517</v>
-      </c>
-      <c r="E50" t="n">
-        <v>22</v>
-      </c>
-      <c r="F50" t="n">
-        <v>159732</v>
-      </c>
-      <c r="G50" t="n">
-        <v>159732</v>
-      </c>
-      <c r="H50" t="n">
-        <v>13453</v>
-      </c>
-      <c r="I50" t="n">
-        <v>150</v>
-      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
       <c r="J50" t="n">
         <v>-31.4694750910091</v>
       </c>
@@ -4118,24 +3826,12 @@
       <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
-      <c r="AF50" t="n">
-        <v>1497</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>861</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>636</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>21416</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>2398</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>29380</v>
-      </c>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
       <c r="AL50"/>
       <c r="AM50"/>
       <c r="AN50" t="n">
@@ -4146,30 +3842,14 @@
       <c r="A51" s="1" t="n">
         <v>43943</v>
       </c>
-      <c r="B51" t="n">
-        <v>21069</v>
-      </c>
-      <c r="C51" t="n">
-        <v>873</v>
-      </c>
-      <c r="D51" t="n">
-        <v>543</v>
-      </c>
-      <c r="E51" t="n">
-        <v>26</v>
-      </c>
-      <c r="F51" t="n">
-        <v>166291</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6559</v>
-      </c>
-      <c r="H51" t="n">
-        <v>13816</v>
-      </c>
-      <c r="I51" t="n">
-        <v>363</v>
-      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
       <c r="J51" t="n">
         <v>-33.4839889461197</v>
       </c>
@@ -4210,24 +3890,12 @@
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51"/>
-      <c r="AF51" t="n">
-        <v>1678</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>987</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>691</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>20049</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>2220</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>32474</v>
-      </c>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
       <c r="AL51"/>
       <c r="AM51"/>
       <c r="AN51" t="n">
@@ -4238,30 +3906,14 @@
       <c r="A52" s="1" t="n">
         <v>43944</v>
       </c>
-      <c r="B52" t="n">
-        <v>21944</v>
-      </c>
-      <c r="C52" t="n">
-        <v>875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>561</v>
-      </c>
-      <c r="E52" t="n">
-        <v>18</v>
-      </c>
-      <c r="F52" t="n">
-        <v>168259</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1968</v>
-      </c>
-      <c r="H52" t="n">
-        <v>14136</v>
-      </c>
-      <c r="I52" t="n">
-        <v>320</v>
-      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
       <c r="J52" t="n">
         <v>-30.8482610872562</v>
       </c>
@@ -4302,24 +3954,12 @@
       <c r="AC52"/>
       <c r="AD52"/>
       <c r="AE52"/>
-      <c r="AF52" t="n">
-        <v>1649</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>960</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>689</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>19438</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>2298</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>34032</v>
-      </c>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
       <c r="AL52"/>
       <c r="AM52"/>
       <c r="AN52" t="n">
@@ -4330,30 +3970,14 @@
       <c r="A53" s="1" t="n">
         <v>43945</v>
       </c>
-      <c r="B53" t="n">
-        <v>22806</v>
-      </c>
-      <c r="C53" t="n">
-        <v>862</v>
-      </c>
-      <c r="D53" t="n">
-        <v>593</v>
-      </c>
-      <c r="E53" t="n">
-        <v>32</v>
-      </c>
-      <c r="F53" t="n">
-        <v>192594</v>
-      </c>
-      <c r="G53" t="n">
-        <v>24335</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14412</v>
-      </c>
-      <c r="I53" t="n">
-        <v>276</v>
-      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
       <c r="J53" t="n">
         <v>-33.3420781079067</v>
       </c>
@@ -4394,24 +4018,12 @@
       <c r="AC53"/>
       <c r="AD53"/>
       <c r="AE53"/>
-      <c r="AF53" t="n">
-        <v>1664</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>994</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>670</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>20903</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>2278</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>34788</v>
-      </c>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
       <c r="AL53"/>
       <c r="AM53"/>
       <c r="AN53" t="n">
@@ -4422,30 +4034,14 @@
       <c r="A54" s="1" t="n">
         <v>43946</v>
       </c>
-      <c r="B54" t="n">
-        <v>23773</v>
-      </c>
-      <c r="C54" t="n">
-        <v>967</v>
-      </c>
-      <c r="D54" t="n">
-        <v>623</v>
-      </c>
-      <c r="E54" t="n">
-        <v>30</v>
-      </c>
-      <c r="F54" t="n">
-        <v>207176</v>
-      </c>
-      <c r="G54" t="n">
-        <v>14582</v>
-      </c>
-      <c r="H54" t="n">
-        <v>14804</v>
-      </c>
-      <c r="I54" t="n">
-        <v>392</v>
-      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
       <c r="J54" t="n">
         <v>-36.9581007611221</v>
       </c>
@@ -4486,24 +4082,12 @@
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-      <c r="AF54" t="n">
-        <v>1587</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>946</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>651</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>20441</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>2330</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>34687</v>
-      </c>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
       <c r="AL54"/>
       <c r="AM54"/>
       <c r="AN54" t="n">
@@ -4514,30 +4098,14 @@
       <c r="A55" s="1" t="n">
         <v>43947</v>
       </c>
-      <c r="B55" t="n">
-        <v>24631</v>
-      </c>
-      <c r="C55" t="n">
-        <v>858</v>
-      </c>
-      <c r="D55" t="n">
-        <v>648</v>
-      </c>
-      <c r="E55" t="n">
-        <v>25</v>
-      </c>
-      <c r="F55" t="n">
-        <v>209808</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2632</v>
-      </c>
-      <c r="H55" t="n">
-        <v>15301</v>
-      </c>
-      <c r="I55" t="n">
-        <v>497</v>
-      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
       <c r="J55" t="n">
         <v>-35.3385461462975</v>
       </c>
@@ -4578,24 +4146,12 @@
       <c r="AC55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-      <c r="AF55" t="n">
-        <v>1542</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>897</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>645</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>20080</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>2151</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>33201</v>
-      </c>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
       <c r="AL55"/>
       <c r="AM55"/>
       <c r="AN55" t="n">
@@ -4606,30 +4162,14 @@
       <c r="A56" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="B56" t="n">
-        <v>25297</v>
-      </c>
-      <c r="C56" t="n">
-        <v>666</v>
-      </c>
-      <c r="D56" t="n">
-        <v>663</v>
-      </c>
-      <c r="E56" t="n">
-        <v>15</v>
-      </c>
-      <c r="F56" t="n">
-        <v>218668</v>
-      </c>
-      <c r="G56" t="n">
-        <v>8860</v>
-      </c>
-      <c r="H56" t="n">
-        <v>15587</v>
-      </c>
-      <c r="I56" t="n">
-        <v>286</v>
-      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
       <c r="J56" t="n">
         <v>-28.8071805569653</v>
       </c>
@@ -4670,24 +4210,12 @@
       <c r="AC56"/>
       <c r="AD56"/>
       <c r="AE56"/>
-      <c r="AF56" t="n">
-        <v>1563</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>903</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>660</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>20277</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>2147</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>31702</v>
-      </c>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
       <c r="AL56"/>
       <c r="AM56"/>
       <c r="AN56" t="n">
@@ -4698,30 +4226,14 @@
       <c r="A57" s="1" t="n">
         <v>43949</v>
       </c>
-      <c r="B57" t="n">
-        <v>26171</v>
-      </c>
-      <c r="C57" t="n">
-        <v>874</v>
-      </c>
-      <c r="D57" t="n">
-        <v>690</v>
-      </c>
-      <c r="E57" t="n">
-        <v>27</v>
-      </c>
-      <c r="F57" t="n">
-        <v>222037</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3369</v>
-      </c>
-      <c r="H57" t="n">
-        <v>15816</v>
-      </c>
-      <c r="I57" t="n">
-        <v>229</v>
-      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
       <c r="J57" t="n">
         <v>-29.7323292998845</v>
       </c>
@@ -4762,24 +4274,12 @@
       <c r="AC57"/>
       <c r="AD57"/>
       <c r="AE57"/>
-      <c r="AF57" t="n">
-        <v>1682</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>998</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>684</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>20946</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>2187</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>33473</v>
-      </c>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
       <c r="AL57"/>
       <c r="AM57"/>
       <c r="AN57" t="n">
@@ -4790,30 +4290,14 @@
       <c r="A58" s="1" t="n">
         <v>43950</v>
       </c>
-      <c r="B58" t="n">
-        <v>27054</v>
-      </c>
-      <c r="C58" t="n">
-        <v>883</v>
-      </c>
-      <c r="D58" t="n">
-        <v>732</v>
-      </c>
-      <c r="E58" t="n">
-        <v>42</v>
-      </c>
-      <c r="F58" t="n">
-        <v>236697</v>
-      </c>
-      <c r="G58" t="n">
-        <v>14660</v>
-      </c>
-      <c r="H58" t="n">
-        <v>16129</v>
-      </c>
-      <c r="I58" t="n">
-        <v>313</v>
-      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
       <c r="J58" t="n">
         <v>-26.2420292982948</v>
       </c>
@@ -4854,24 +4338,12 @@
       <c r="AC58"/>
       <c r="AD58"/>
       <c r="AE58"/>
-      <c r="AF58" t="n">
-        <v>1702</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>984</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>718</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>20257</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>2032</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>35289</v>
-      </c>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
       <c r="AL58"/>
       <c r="AM58"/>
       <c r="AN58" t="n">
@@ -4882,30 +4354,14 @@
       <c r="A59" s="1" t="n">
         <v>43951</v>
       </c>
-      <c r="B59" t="n">
-        <v>28087</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1033</v>
-      </c>
-      <c r="D59" t="n">
-        <v>782</v>
-      </c>
-      <c r="E59" t="n">
-        <v>50</v>
-      </c>
-      <c r="F59" t="n">
-        <v>247200</v>
-      </c>
-      <c r="G59" t="n">
-        <v>10503</v>
-      </c>
-      <c r="H59" t="n">
-        <v>16321</v>
-      </c>
-      <c r="I59" t="n">
-        <v>192</v>
-      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
       <c r="J59" t="n">
         <v>-25.2811109287165</v>
       </c>
@@ -4946,24 +4402,12 @@
       <c r="AC59"/>
       <c r="AD59"/>
       <c r="AE59"/>
-      <c r="AF59" t="n">
-        <v>1686</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>982</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>704</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>19342</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>2126</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>35604</v>
-      </c>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
       <c r="AL59"/>
       <c r="AM59"/>
       <c r="AN59" t="n">
@@ -4974,30 +4418,14 @@
       <c r="A60" s="1" t="n">
         <v>43952</v>
       </c>
-      <c r="B60" t="n">
-        <v>29229</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D60" t="n">
-        <v>816</v>
-      </c>
-      <c r="E60" t="n">
-        <v>34</v>
-      </c>
-      <c r="F60" t="n">
-        <v>246567</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-633</v>
-      </c>
-      <c r="H60" t="n">
-        <v>16873</v>
-      </c>
-      <c r="I60" t="n">
-        <v>552</v>
-      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
       <c r="J60" t="n">
         <v>-25.7154533646763</v>
       </c>
@@ -5038,24 +4466,12 @@
       <c r="AC60"/>
       <c r="AD60"/>
       <c r="AE60"/>
-      <c r="AF60" t="n">
-        <v>1778</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>1042</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>736</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>19858</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>2166</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>36409</v>
-      </c>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
       <c r="AL60"/>
       <c r="AM60"/>
       <c r="AN60" t="n">
@@ -5066,30 +4482,14 @@
       <c r="A61" s="1" t="n">
         <v>43953</v>
       </c>
-      <c r="B61" t="n">
-        <v>30522</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1293</v>
-      </c>
-      <c r="D61" t="n">
-        <v>847</v>
-      </c>
-      <c r="E61" t="n">
-        <v>31</v>
-      </c>
-      <c r="F61" t="n">
-        <v>257306</v>
-      </c>
-      <c r="G61" t="n">
-        <v>10739</v>
-      </c>
-      <c r="H61" t="n">
-        <v>17616</v>
-      </c>
-      <c r="I61" t="n">
-        <v>743</v>
-      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
       <c r="J61" t="n">
         <v>-29.6274356249058</v>
       </c>
@@ -5130,24 +4530,12 @@
       <c r="AC61"/>
       <c r="AD61"/>
       <c r="AE61"/>
-      <c r="AF61" t="n">
-        <v>1725</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>1014</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>711</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>19940</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>2134</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>35692</v>
-      </c>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
       <c r="AL61"/>
       <c r="AM61"/>
       <c r="AN61" t="n">
@@ -5158,30 +4546,14 @@
       <c r="A62" s="1" t="n">
         <v>43954</v>
       </c>
-      <c r="B62" t="n">
-        <v>31548</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1026</v>
-      </c>
-      <c r="D62" t="n">
-        <v>867</v>
-      </c>
-      <c r="E62" t="n">
-        <v>20</v>
-      </c>
-      <c r="F62" t="n">
-        <v>257977</v>
-      </c>
-      <c r="G62" t="n">
-        <v>671</v>
-      </c>
-      <c r="H62" t="n">
-        <v>18223</v>
-      </c>
-      <c r="I62" t="n">
-        <v>607</v>
-      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="J62" t="n">
         <v>-28.2676246457901</v>
       </c>
@@ -5222,24 +4594,12 @@
       <c r="AC62"/>
       <c r="AD62"/>
       <c r="AE62"/>
-      <c r="AF62" t="n">
-        <v>1540</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>916</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>624</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>19465</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>2132</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>32012</v>
-      </c>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
       <c r="AL62"/>
       <c r="AM62"/>
       <c r="AN62" t="n">
@@ -5250,30 +4610,14 @@
       <c r="A63" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="B63" t="n">
-        <v>32332</v>
-      </c>
-      <c r="C63" t="n">
-        <v>784</v>
-      </c>
-      <c r="D63" t="n">
-        <v>884</v>
-      </c>
-      <c r="E63" t="n">
-        <v>17</v>
-      </c>
-      <c r="F63" t="n">
-        <v>272725</v>
-      </c>
-      <c r="G63" t="n">
-        <v>14748</v>
-      </c>
-      <c r="H63" t="n">
-        <v>18565</v>
-      </c>
-      <c r="I63" t="n">
-        <v>342</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="J63" t="n">
         <v>-21.7228567145745</v>
       </c>
@@ -5314,24 +4658,12 @@
       <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
-      <c r="AF63" t="n">
-        <v>1533</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>914</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>619</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>19410</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>2055</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>32019</v>
-      </c>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
       <c r="AL63"/>
       <c r="AM63"/>
       <c r="AN63" t="n">
@@ -5342,26 +4674,14 @@
       <c r="A64" s="1" t="n">
         <v>43956</v>
       </c>
-      <c r="B64" t="n">
-        <v>33369</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1037</v>
-      </c>
-      <c r="D64" t="n">
-        <v>906</v>
-      </c>
-      <c r="E64" t="n">
-        <v>22</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64" t="n">
-        <v>18898</v>
-      </c>
-      <c r="I64" t="n">
-        <v>333</v>
-      </c>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="J64" t="n">
         <v>-19.9448648671118</v>
       </c>
@@ -5402,24 +4722,12 @@
       <c r="AC64"/>
       <c r="AD64"/>
       <c r="AE64"/>
-      <c r="AF64" t="n">
-        <v>1888</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>1199</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>689</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>19059</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>34653</v>
-      </c>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
       <c r="AL64"/>
       <c r="AM64"/>
       <c r="AN64" t="n">
@@ -5430,28 +4738,14 @@
       <c r="A65" s="1" t="n">
         <v>43957</v>
       </c>
-      <c r="B65" t="n">
-        <v>34422</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1053</v>
-      </c>
-      <c r="D65" t="n">
-        <v>948</v>
-      </c>
-      <c r="E65" t="n">
-        <v>42</v>
-      </c>
-      <c r="F65" t="n">
-        <v>292037</v>
-      </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
       <c r="G65"/>
-      <c r="H65" t="n">
-        <v>19318</v>
-      </c>
-      <c r="I65" t="n">
-        <v>420</v>
-      </c>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="J65" t="n">
         <v>-19.2115637675822</v>
       </c>
@@ -5492,24 +4786,12 @@
       <c r="AC65"/>
       <c r="AD65"/>
       <c r="AE65"/>
-      <c r="AF65" t="n">
-        <v>1812</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>1086</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>726</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>18162</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>1908</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>37421</v>
-      </c>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
       <c r="AL65"/>
       <c r="AM65"/>
       <c r="AN65" t="n">
@@ -5520,30 +4802,14 @@
       <c r="A66" s="1" t="n">
         <v>43958</v>
       </c>
-      <c r="B66" t="n">
-        <v>35390</v>
-      </c>
-      <c r="C66" t="n">
-        <v>968</v>
-      </c>
-      <c r="D66" t="n">
-        <v>973</v>
-      </c>
-      <c r="E66" t="n">
-        <v>25</v>
-      </c>
-      <c r="F66" t="n">
-        <v>314439</v>
-      </c>
-      <c r="G66" t="n">
-        <v>22402</v>
-      </c>
-      <c r="H66" t="n">
-        <v>19529</v>
-      </c>
-      <c r="I66" t="n">
-        <v>211</v>
-      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
       <c r="J66" t="n">
         <v>-21.6181055424902</v>
       </c>
@@ -5584,24 +4850,12 @@
       <c r="AC66"/>
       <c r="AD66"/>
       <c r="AE66"/>
-      <c r="AF66" t="n">
-        <v>1750</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>1034</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>716</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>17902</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>1959</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>38722</v>
-      </c>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
       <c r="AL66"/>
       <c r="AM66"/>
       <c r="AN66" t="n">
@@ -5612,30 +4866,14 @@
       <c r="A67" s="1" t="n">
         <v>43959</v>
       </c>
-      <c r="B67" t="n">
-        <v>36609</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1219</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1004</v>
-      </c>
-      <c r="E67" t="n">
-        <v>31</v>
-      </c>
-      <c r="F67" t="n">
-        <v>341218</v>
-      </c>
-      <c r="G67" t="n">
-        <v>26779</v>
-      </c>
-      <c r="H67" t="n">
-        <v>20148</v>
-      </c>
-      <c r="I67" t="n">
-        <v>619</v>
-      </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
       <c r="J67" t="n">
         <v>-22.8718917310829</v>
       </c>
@@ -5676,24 +4914,12 @@
       <c r="AC67"/>
       <c r="AD67"/>
       <c r="AE67"/>
-      <c r="AF67" t="n">
-        <v>1734</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>1037</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>697</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>17670</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>1904</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>38516</v>
-      </c>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
       <c r="AL67"/>
       <c r="AM67"/>
       <c r="AN67" t="n">
@@ -5704,30 +4930,14 @@
       <c r="A68" s="1" t="n">
         <v>43960</v>
       </c>
-      <c r="B68" t="n">
-        <v>37860</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1251</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1049</v>
-      </c>
-      <c r="E68" t="n">
-        <v>45</v>
-      </c>
-      <c r="F68" t="n">
-        <v>363188</v>
-      </c>
-      <c r="G68" t="n">
-        <v>21970</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19529</v>
-      </c>
-      <c r="I68" t="n">
-        <v>-619</v>
-      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
       <c r="J68" t="n">
         <v>-21.9718406418679</v>
       </c>
@@ -5772,24 +4982,12 @@
       <c r="AC68"/>
       <c r="AD68"/>
       <c r="AE68"/>
-      <c r="AF68" t="n">
-        <v>1735</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>1061</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>674</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>18548</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>2022</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>37977</v>
-      </c>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
       <c r="AL68"/>
       <c r="AM68"/>
       <c r="AN68" t="n">
@@ -5800,30 +4998,14 @@
       <c r="A69" s="1" t="n">
         <v>43961</v>
       </c>
-      <c r="B69" t="n">
-        <v>38869</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1009</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1088</v>
-      </c>
-      <c r="E69" t="n">
-        <v>39</v>
-      </c>
-      <c r="F69" t="n">
-        <v>387227</v>
-      </c>
-      <c r="G69" t="n">
-        <v>24039</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21472</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1943</v>
-      </c>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
       <c r="J69" t="n">
         <v>-22.0029172128455</v>
       </c>
@@ -5868,24 +5050,12 @@
       <c r="AC69"/>
       <c r="AD69"/>
       <c r="AE69"/>
-      <c r="AF69" t="n">
-        <v>1626</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>965</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>661</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>18116</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>1954</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>35333</v>
-      </c>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
       <c r="AL69"/>
       <c r="AM69"/>
       <c r="AN69" t="n">
@@ -5896,30 +5066,14 @@
       <c r="A70" s="1" t="n">
         <v>43962</v>
       </c>
-      <c r="B70" t="n">
-        <v>39869</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12</v>
-      </c>
-      <c r="F70" t="n">
-        <v>407026</v>
-      </c>
-      <c r="G70" t="n">
-        <v>19799</v>
-      </c>
-      <c r="H70" t="n">
-        <v>21935</v>
-      </c>
-      <c r="I70" t="n">
-        <v>463</v>
-      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
       <c r="J70" t="n">
         <v>-20.5632652644066</v>
       </c>
@@ -5964,24 +5118,12 @@
       <c r="AC70"/>
       <c r="AD70"/>
       <c r="AE70"/>
-      <c r="AF70" t="n">
-        <v>1525</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>915</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>610</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>18607</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>1989</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>32549</v>
-      </c>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
       <c r="AL70"/>
       <c r="AM70"/>
       <c r="AN70" t="n">
@@ -5992,30 +5134,14 @@
       <c r="A71" s="1" t="n">
         <v>43963</v>
       </c>
-      <c r="B71" t="n">
-        <v>41048</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1179</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1133</v>
-      </c>
-      <c r="E71" t="n">
-        <v>33</v>
-      </c>
-      <c r="F71" t="n">
-        <v>440063</v>
-      </c>
-      <c r="G71" t="n">
-        <v>33037</v>
-      </c>
-      <c r="H71" t="n">
-        <v>22305</v>
-      </c>
-      <c r="I71" t="n">
-        <v>370</v>
-      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
       <c r="J71" t="n">
         <v>-20.7641764917988</v>
       </c>
@@ -6060,24 +5186,12 @@
       <c r="AC71"/>
       <c r="AD71"/>
       <c r="AE71"/>
-      <c r="AF71" t="n">
-        <v>1725</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>1026</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>699</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>19609</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>2143</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>34519</v>
-      </c>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
       <c r="AL71"/>
       <c r="AM71"/>
       <c r="AN71" t="n">
@@ -6088,30 +5202,14 @@
       <c r="A72" s="1" t="n">
         <v>43964</v>
       </c>
-      <c r="B72" t="n">
-        <v>42403</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1355</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1158</v>
-      </c>
-      <c r="E72" t="n">
-        <v>25</v>
-      </c>
-      <c r="F72" t="n">
-        <v>459530</v>
-      </c>
-      <c r="G72" t="n">
-        <v>19467</v>
-      </c>
-      <c r="H72" t="n">
-        <v>22975</v>
-      </c>
-      <c r="I72" t="n">
-        <v>670</v>
-      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
       <c r="J72" t="n">
         <v>-17.3542990195605</v>
       </c>
@@ -6156,24 +5254,12 @@
       <c r="AC72"/>
       <c r="AD72"/>
       <c r="AE72"/>
-      <c r="AF72" t="n">
-        <v>1676</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>1002</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>674</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>17972</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>1940</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>38292</v>
-      </c>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
       <c r="AL72"/>
       <c r="AM72"/>
       <c r="AN72" t="n">
@@ -6184,30 +5270,14 @@
       <c r="A73" s="1" t="n">
         <v>43965</v>
       </c>
-      <c r="B73" t="n">
-        <v>43851</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1448</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1216</v>
-      </c>
-      <c r="E73" t="n">
-        <v>58</v>
-      </c>
-      <c r="F73" t="n">
-        <v>488426</v>
-      </c>
-      <c r="G73" t="n">
-        <v>28896</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23665</v>
-      </c>
-      <c r="I73" t="n">
-        <v>690</v>
-      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
       <c r="J73" t="n">
         <v>-19.2712914999668</v>
       </c>
@@ -6252,24 +5322,12 @@
       <c r="AC73"/>
       <c r="AD73"/>
       <c r="AE73"/>
-      <c r="AF73" t="n">
-        <v>1648</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>975</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>673</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>17514</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1932</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>38626</v>
-      </c>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
       <c r="AL73"/>
       <c r="AM73"/>
       <c r="AN73" t="n">
@@ -6280,30 +5338,14 @@
       <c r="A74" s="1" t="n">
         <v>43966</v>
       </c>
-      <c r="B74" t="n">
-        <v>45198</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1347</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1272</v>
-      </c>
-      <c r="E74" t="n">
-        <v>56</v>
-      </c>
-      <c r="F74" t="n">
-        <v>494909</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6483</v>
-      </c>
-      <c r="H74" t="n">
-        <v>23952</v>
-      </c>
-      <c r="I74" t="n">
-        <v>287</v>
-      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
       <c r="J74" t="n">
         <v>-23.7791613490402</v>
       </c>
@@ -6340,48 +5382,20 @@
       <c r="W74" t="n">
         <v>1716</v>
       </c>
-      <c r="X74" t="n">
-        <v>112</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>382</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>116</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>311</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>3011</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>490</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>494</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>1716</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>1033</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>683</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>17520</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>1876</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>39654</v>
-      </c>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
       <c r="AL74"/>
       <c r="AM74"/>
       <c r="AN74" t="n">
@@ -6392,30 +5406,14 @@
       <c r="A75" s="1" t="n">
         <v>43967</v>
       </c>
-      <c r="B75" t="n">
-        <v>46999</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1801</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1305</v>
-      </c>
-      <c r="E75" t="n">
-        <v>33</v>
-      </c>
-      <c r="F75" t="n">
-        <v>514435</v>
-      </c>
-      <c r="G75" t="n">
-        <v>19526</v>
-      </c>
-      <c r="H75" t="n">
-        <v>24852</v>
-      </c>
-      <c r="I75" t="n">
-        <v>900</v>
-      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
       <c r="J75" t="n">
         <v>-28.1096455748433</v>
       </c>
@@ -6458,48 +5456,20 @@
       <c r="W75" t="n">
         <v>1791</v>
       </c>
-      <c r="X75" t="n">
-        <v>112</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>396</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>98</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>133</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>314</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>3033</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>530</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>1791</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>1104</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>687</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>17193</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>1847</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>39392</v>
-      </c>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
       <c r="AL75"/>
       <c r="AM75"/>
       <c r="AN75" t="n">
@@ -6510,30 +5480,14 @@
       <c r="A76" s="1" t="n">
         <v>43968</v>
       </c>
-      <c r="B76" t="n">
-        <v>47784</v>
-      </c>
-      <c r="C76" t="n">
-        <v>785</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1336</v>
-      </c>
-      <c r="E76" t="n">
-        <v>31</v>
-      </c>
-      <c r="F76" t="n">
-        <v>538559</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24124</v>
-      </c>
-      <c r="H76" t="n">
-        <v>25343</v>
-      </c>
-      <c r="I76" t="n">
-        <v>491</v>
-      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
       <c r="J76" t="n">
         <v>-21.0008566075914</v>
       </c>
@@ -6576,48 +5530,20 @@
       <c r="W76" t="n">
         <v>1512</v>
       </c>
-      <c r="X76" t="n">
-        <v>113</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>399</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>99</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>133</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>318</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>3103</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>509</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>531</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>1512</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>908</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>604</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>17390</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>1832</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>34208</v>
-      </c>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
       <c r="AL76"/>
       <c r="AM76"/>
       <c r="AN76" t="n">
@@ -6628,30 +5554,14 @@
       <c r="A77" s="1" t="n">
         <v>43969</v>
       </c>
-      <c r="B77" t="n">
-        <v>48693</v>
-      </c>
-      <c r="C77" t="n">
-        <v>909</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1347</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11</v>
-      </c>
-      <c r="F77" t="n">
-        <v>567282</v>
-      </c>
-      <c r="G77" t="n">
-        <v>28723</v>
-      </c>
-      <c r="H77" t="n">
-        <v>25573</v>
-      </c>
-      <c r="I77" t="n">
-        <v>230</v>
-      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
       <c r="J77" t="n">
         <v>-15.4906793391823</v>
       </c>
@@ -6694,48 +5604,20 @@
       <c r="W77" t="n">
         <v>1551</v>
       </c>
-      <c r="X77" t="n">
-        <v>115</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>415</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>99</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>152</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>320</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>3144</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>515</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>575</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>1551</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>933</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>618</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>17024</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>1911</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>33455</v>
-      </c>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
       <c r="AL77"/>
       <c r="AM77"/>
       <c r="AN77" t="n">
@@ -6746,30 +5628,14 @@
       <c r="A78" s="1" t="n">
         <v>43970</v>
       </c>
-      <c r="B78" t="n">
-        <v>49912</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1219</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1369</v>
-      </c>
-      <c r="E78" t="n">
-        <v>22</v>
-      </c>
-      <c r="F78" t="n">
-        <v>600816</v>
-      </c>
-      <c r="G78" t="n">
-        <v>33534</v>
-      </c>
-      <c r="H78" t="n">
-        <v>25880</v>
-      </c>
-      <c r="I78" t="n">
-        <v>307</v>
-      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
       <c r="J78" t="n">
         <v>-13.7555330246881</v>
       </c>
@@ -6812,48 +5678,20 @@
       <c r="W78" t="n">
         <v>1732</v>
       </c>
-      <c r="X78" t="n">
-        <v>118</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>428</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>154</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>326</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>3205</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>528</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>631</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>1732</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>1057</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>675</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>18113</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>1947</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>35767</v>
-      </c>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
       <c r="AL78"/>
       <c r="AM78"/>
       <c r="AN78" t="n">
@@ -6864,30 +5702,14 @@
       <c r="A79" s="1" t="n">
         <v>43971</v>
       </c>
-      <c r="B79" t="n">
-        <v>51323</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1411</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1419</v>
-      </c>
-      <c r="E79" t="n">
-        <v>50</v>
-      </c>
-      <c r="F79" t="n">
-        <v>624101</v>
-      </c>
-      <c r="G79" t="n">
-        <v>23285</v>
-      </c>
-      <c r="H79" t="n">
-        <v>26123</v>
-      </c>
-      <c r="I79" t="n">
-        <v>243</v>
-      </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
       <c r="J79" t="n">
         <v>-12.5135392030407</v>
       </c>
@@ -6930,48 +5752,20 @@
       <c r="W79" t="n">
         <v>1791</v>
       </c>
-      <c r="X79" t="n">
-        <v>120</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>429</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>331</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>3287</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>530</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>684</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>1791</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>1097</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>17011</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1659</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>40313</v>
-      </c>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
       <c r="AL79"/>
       <c r="AM79"/>
       <c r="AN79" t="n">
@@ -6982,30 +5776,14 @@
       <c r="A80" s="1" t="n">
         <v>43972</v>
       </c>
-      <c r="B80" t="n">
-        <v>52268</v>
-      </c>
-      <c r="C80" t="n">
-        <v>945</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1440</v>
-      </c>
-      <c r="E80" t="n">
-        <v>21</v>
-      </c>
-      <c r="F80" t="n">
-        <v>643274</v>
-      </c>
-      <c r="G80" t="n">
-        <v>19173</v>
-      </c>
-      <c r="H80" t="n">
-        <v>26126</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
       <c r="J80" t="n">
         <v>-13.7164176659603</v>
       </c>
@@ -7048,48 +5826,20 @@
       <c r="W80" t="n">
         <v>1680</v>
       </c>
-      <c r="X80" t="n">
-        <v>122</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>430</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>328</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>3325</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>537</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>719</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>1680</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>690</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>16060</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1547</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>40321</v>
-      </c>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
       <c r="AL80"/>
       <c r="AM80"/>
       <c r="AN80" t="n">
@@ -7100,30 +5850,14 @@
       <c r="A81" s="1" t="n">
         <v>43973</v>
       </c>
-      <c r="B81" t="n">
-        <v>53449</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1181</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1480</v>
-      </c>
-      <c r="E81" t="n">
-        <v>40</v>
-      </c>
-      <c r="F81" t="n">
-        <v>660292</v>
-      </c>
-      <c r="G81" t="n">
-        <v>17018</v>
-      </c>
-      <c r="H81" t="n">
-        <v>26410</v>
-      </c>
-      <c r="I81" t="n">
-        <v>284</v>
-      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
       <c r="J81" t="n">
         <v>-16.510298238066</v>
       </c>
@@ -7166,48 +5900,20 @@
       <c r="W81" t="n">
         <v>1578</v>
       </c>
-      <c r="X81" t="n">
-        <v>122</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>430</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>332</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>3414</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>548</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>730</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1578</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>913</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>665</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>16008</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>1638</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>40132</v>
-      </c>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
       <c r="AL81"/>
       <c r="AM81"/>
       <c r="AN81" t="n">
@@ -7218,26 +5924,14 @@
       <c r="A82" s="1" t="n">
         <v>43974</v>
       </c>
-      <c r="B82" t="n">
-        <v>54509</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1060</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1506</v>
-      </c>
-      <c r="E82" t="n">
-        <v>26</v>
-      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
-      <c r="H82" t="n">
-        <v>26719</v>
-      </c>
-      <c r="I82" t="n">
-        <v>309</v>
-      </c>
+      <c r="H82"/>
+      <c r="I82"/>
       <c r="J82" t="n">
         <v>-21.2110788081011</v>
       </c>
@@ -7270,48 +5964,20 @@
       <c r="W82" t="n">
         <v>1688</v>
       </c>
-      <c r="X82" t="n">
-        <v>126</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>431</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>103</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>172</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>339</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>3501</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>561</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>800</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>1688</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>1022</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>666</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>15466</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>1678</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>40977</v>
-      </c>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
       <c r="AL82"/>
       <c r="AM82"/>
       <c r="AN82" t="n">
@@ -7322,28 +5988,14 @@
       <c r="A83" s="1" t="n">
         <v>43975</v>
       </c>
-      <c r="B83" t="n">
-        <v>55348</v>
-      </c>
-      <c r="C83" t="n">
-        <v>839</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1519</v>
-      </c>
-      <c r="E83" t="n">
-        <v>13</v>
-      </c>
-      <c r="F83" t="n">
-        <v>693081</v>
-      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
       <c r="G83"/>
-      <c r="H83" t="n">
-        <v>27045</v>
-      </c>
-      <c r="I83" t="n">
-        <v>326</v>
-      </c>
+      <c r="H83"/>
+      <c r="I83"/>
       <c r="J83" t="n">
         <v>-21.6364635509513</v>
       </c>
@@ -7386,48 +6038,20 @@
       <c r="W83" t="n">
         <v>1572</v>
       </c>
-      <c r="X83" t="n">
-        <v>130</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>470</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>104</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>172</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>345</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>3539</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>561</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>812</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>1572</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>929</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>643</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>16006</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>1840</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>35987</v>
-      </c>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
       <c r="AL83"/>
       <c r="AM83"/>
       <c r="AN83" t="n">
@@ -7438,30 +6062,14 @@
       <c r="A84" s="1" t="n">
         <v>43976</v>
       </c>
-      <c r="B84" t="n">
-        <v>55971</v>
-      </c>
-      <c r="C84" t="n">
-        <v>623</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1527</v>
-      </c>
-      <c r="E84" t="n">
-        <v>8</v>
-      </c>
-      <c r="F84" t="n">
-        <v>715555</v>
-      </c>
-      <c r="G84" t="n">
-        <v>22474</v>
-      </c>
-      <c r="H84" t="n">
-        <v>27164</v>
-      </c>
-      <c r="I84" t="n">
-        <v>119</v>
-      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
       <c r="J84" t="n">
         <v>-20.8724478591222</v>
       </c>
@@ -7504,48 +6112,20 @@
       <c r="W84" t="n">
         <v>1511</v>
       </c>
-      <c r="X84" t="n">
-        <v>131</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>473</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>105</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>172</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>348</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>3568</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>568</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>885</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>1511</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>854</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>657</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>17061</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>1755</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>33489</v>
-      </c>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
       <c r="AL84"/>
       <c r="AM84"/>
       <c r="AN84" t="n">
@@ -7556,30 +6136,14 @@
       <c r="A85" s="1" t="n">
         <v>43977</v>
       </c>
-      <c r="B85" t="n">
-        <v>56560</v>
-      </c>
-      <c r="C85" t="n">
-        <v>589</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1536</v>
-      </c>
-      <c r="E85" t="n">
-        <v>9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>735081</v>
-      </c>
-      <c r="G85" t="n">
-        <v>19526</v>
-      </c>
-      <c r="H85" t="n">
-        <v>26902</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-262</v>
-      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
       <c r="J85" t="n">
         <v>-13.7839418235026</v>
       </c>
@@ -7622,48 +6186,20 @@
       <c r="W85" t="n">
         <v>1534</v>
       </c>
-      <c r="X85" t="n">
-        <v>131</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>473</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>105</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>198</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>352</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>3598</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>578</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>940</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>1534</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>887</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>647</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>17456</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>1974</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>34246</v>
-      </c>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
       <c r="AL85"/>
       <c r="AM85"/>
       <c r="AN85" t="n">
@@ -7674,30 +6210,14 @@
       <c r="A86" s="1" t="n">
         <v>43978</v>
       </c>
-      <c r="B86" t="n">
-        <v>57921</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1361</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1562</v>
-      </c>
-      <c r="E86" t="n">
-        <v>26</v>
-      </c>
-      <c r="F86" t="n">
-        <v>749249</v>
-      </c>
-      <c r="G86" t="n">
-        <v>14168</v>
-      </c>
-      <c r="H86" t="n">
-        <v>27115</v>
-      </c>
-      <c r="I86" t="n">
-        <v>213</v>
-      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
       <c r="J86" t="n">
         <v>-12.8163696895122</v>
       </c>
@@ -7740,48 +6260,20 @@
       <c r="W86" t="n">
         <v>1645</v>
       </c>
-      <c r="X86" t="n">
-        <v>130</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>477</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>105</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>203</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>358</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>3622</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>599</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>982</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>1645</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>974</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>671</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>16944</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>1864</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>36501</v>
-      </c>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
       <c r="AL86"/>
       <c r="AM86"/>
       <c r="AN86" t="n">
@@ -7792,30 +6284,14 @@
       <c r="A87" s="1" t="n">
         <v>43979</v>
       </c>
-      <c r="B87" t="n">
-        <v>59776</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1855</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1601</v>
-      </c>
-      <c r="E87" t="n">
-        <v>39</v>
-      </c>
-      <c r="F87" t="n">
-        <v>773877</v>
-      </c>
-      <c r="G87" t="n">
-        <v>24628</v>
-      </c>
-      <c r="H87" t="n">
-        <v>27981</v>
-      </c>
-      <c r="I87" t="n">
-        <v>866</v>
-      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
       <c r="J87" t="n">
         <v>-12.2990716093874</v>
       </c>
@@ -7858,48 +6334,20 @@
       <c r="W87" t="n">
         <v>1692</v>
       </c>
-      <c r="X87" t="n">
-        <v>130</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>489</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>109</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>207</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>373</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>3653</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>606</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>996</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>1692</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>998</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>15315</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>1592</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>39561</v>
-      </c>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
       <c r="AL87"/>
       <c r="AM87"/>
       <c r="AN87" t="n">
@@ -7910,30 +6358,14 @@
       <c r="A88" s="1" t="n">
         <v>43980</v>
       </c>
-      <c r="B88" t="n">
-        <v>61006</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1230</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1626</v>
-      </c>
-      <c r="E88" t="n">
-        <v>25</v>
-      </c>
-      <c r="F88" t="n">
-        <v>790564</v>
-      </c>
-      <c r="G88" t="n">
-        <v>16687</v>
-      </c>
-      <c r="H88" t="n">
-        <v>28076</v>
-      </c>
-      <c r="I88" t="n">
-        <v>95</v>
-      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
       <c r="J88" t="n">
         <v>-14.8114891939568</v>
       </c>
@@ -7976,48 +6408,20 @@
       <c r="W88" t="n">
         <v>1701</v>
       </c>
-      <c r="X88" t="n">
-        <v>126</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>488</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>109</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>208</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>382</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>3705</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>616</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1074</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>1622</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>875</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>747</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>16136</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>1696</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>41521</v>
-      </c>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
       <c r="AL88"/>
       <c r="AM88"/>
       <c r="AN88" t="n">
@@ -8028,30 +6432,14 @@
       <c r="A89" s="1" t="n">
         <v>43981</v>
       </c>
-      <c r="B89" t="n">
-        <v>62338</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1332</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1648</v>
-      </c>
-      <c r="E89" t="n">
-        <v>22</v>
-      </c>
-      <c r="F89" t="n">
-        <v>813397</v>
-      </c>
-      <c r="G89" t="n">
-        <v>22833</v>
-      </c>
-      <c r="H89" t="n">
-        <v>28594</v>
-      </c>
-      <c r="I89" t="n">
-        <v>518</v>
-      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
       <c r="J89" t="n">
         <v>-17.9461017544687</v>
       </c>
@@ -8088,48 +6476,20 @@
       <c r="W89" t="n">
         <v>1752</v>
       </c>
-      <c r="X89" t="n">
-        <v>128</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>490</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>399</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>3802</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>637</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>1155</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>1752</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>999</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>753</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>15599</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>1697</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>41462</v>
-      </c>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
       <c r="AL89"/>
       <c r="AM89"/>
       <c r="AN89" t="n">
@@ -8140,30 +6500,14 @@
       <c r="A90" s="1" t="n">
         <v>43982</v>
       </c>
-      <c r="B90" t="n">
-        <v>64287</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1949</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1672</v>
-      </c>
-      <c r="E90" t="n">
-        <v>24</v>
-      </c>
-      <c r="F90" t="n">
-        <v>820912</v>
-      </c>
-      <c r="G90" t="n">
-        <v>7515</v>
-      </c>
-      <c r="H90" t="n">
-        <v>30067</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1473</v>
-      </c>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
       <c r="J90" t="n">
         <v>-17.51293374641</v>
       </c>
@@ -8206,48 +6550,20 @@
       <c r="W90" t="n">
         <v>1684</v>
       </c>
-      <c r="X90" t="n">
-        <v>129</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>492</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>111</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>401</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>3855</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>651</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>1169</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>1684</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>953</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>731</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>16127</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>1698</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>39467</v>
-      </c>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
       <c r="AL90"/>
       <c r="AM90"/>
       <c r="AN90" t="n">
@@ -8258,30 +6574,14 @@
       <c r="A91" s="1" t="n">
         <v>43983</v>
       </c>
-      <c r="B91" t="n">
-        <v>64880</v>
-      </c>
-      <c r="C91" t="n">
-        <v>593</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1678</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>865155</v>
-      </c>
-      <c r="G91" t="n">
-        <v>44243</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29742</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-325</v>
-      </c>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
       <c r="J91" t="n">
         <v>-10.9139293409069</v>
       </c>
@@ -8324,51 +6624,21 @@
       <c r="W91" t="n">
         <v>1756</v>
       </c>
-      <c r="X91" t="n">
-        <v>129</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>492</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>111</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>401</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>3886</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>657</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1181</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>1756</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>1008</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>748</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>16330</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>1784</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>38032</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>5394</v>
-      </c>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
+      <c r="AL91"/>
       <c r="AM91"/>
       <c r="AN91" t="n">
         <v>29677668</v>
@@ -8378,30 +6648,14 @@
       <c r="A92" s="1" t="n">
         <v>43984</v>
       </c>
-      <c r="B92" t="n">
-        <v>66568</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1688</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1698</v>
-      </c>
-      <c r="E92" t="n">
-        <v>20</v>
-      </c>
-      <c r="F92" t="n">
-        <v>903048</v>
-      </c>
-      <c r="G92" t="n">
-        <v>37893</v>
-      </c>
-      <c r="H92" t="n">
-        <v>30365</v>
-      </c>
-      <c r="I92" t="n">
-        <v>623</v>
-      </c>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
       <c r="J92" t="n">
         <v>-9.8456150866523</v>
       </c>
@@ -8444,51 +6698,21 @@
       <c r="W92" t="n">
         <v>1773</v>
       </c>
-      <c r="X92" t="n">
-        <v>133</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>489</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>111</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>212</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>422</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>3993</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>679</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1254</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>1773</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>1011</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>762</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>16575</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>1764</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>37510</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>5314</v>
-      </c>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
       <c r="AM92"/>
       <c r="AN92" t="n">
         <v>29677668</v>
@@ -8498,30 +6722,14 @@
       <c r="A93" s="1" t="n">
         <v>43985</v>
       </c>
-      <c r="B93" t="n">
-        <v>68271</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1703</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E93" t="n">
-        <v>36</v>
-      </c>
-      <c r="F93" t="n">
-        <v>899228</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-3820</v>
-      </c>
-      <c r="H93" t="n">
-        <v>30654</v>
-      </c>
-      <c r="I93" t="n">
-        <v>289</v>
-      </c>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
       <c r="J93" t="n">
         <v>-8.30255283709351</v>
       </c>
@@ -8564,51 +6772,21 @@
       <c r="W93" t="n">
         <v>1799</v>
       </c>
-      <c r="X93" t="n">
-        <v>135</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>491</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>112</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>215</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>441</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>4113</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>692</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1284</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>1805</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>1057</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>748</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>14948</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>1621</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>36201</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>5566</v>
-      </c>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
+      <c r="AL93"/>
       <c r="AM93"/>
       <c r="AN93" t="n">
         <v>29677668</v>
@@ -8618,30 +6796,14 @@
       <c r="A94" s="1" t="n">
         <v>43986</v>
       </c>
-      <c r="B94" t="n">
-        <v>69920</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1649</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1767</v>
-      </c>
-      <c r="E94" t="n">
-        <v>33</v>
-      </c>
-      <c r="F94" t="n">
-        <v>923236</v>
-      </c>
-      <c r="G94" t="n">
-        <v>24008</v>
-      </c>
-      <c r="H94" t="n">
-        <v>30041</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-613</v>
-      </c>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
       <c r="J94" t="n">
         <v>-10.0919010778071</v>
       </c>
@@ -8684,51 +6846,21 @@
       <c r="W94" t="n">
         <v>1796</v>
       </c>
-      <c r="X94" t="n">
-        <v>137</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>497</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>112</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>222</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>450</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>4222</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>706</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1368</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>1796</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>730</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>15219</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>1658</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>40783</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>5577</v>
-      </c>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
       <c r="AM94"/>
       <c r="AN94" t="n">
         <v>29677668</v>
@@ -8738,30 +6870,14 @@
       <c r="A95" s="1" t="n">
         <v>43987</v>
       </c>
-      <c r="B95" t="n">
-        <v>71613</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1693</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1788</v>
-      </c>
-      <c r="E95" t="n">
-        <v>21</v>
-      </c>
-      <c r="F95" t="n">
-        <v>935487</v>
-      </c>
-      <c r="G95" t="n">
-        <v>12251</v>
-      </c>
-      <c r="H95" t="n">
-        <v>30540</v>
-      </c>
-      <c r="I95" t="n">
-        <v>499</v>
-      </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
       <c r="J95" t="n">
         <v>-13.3644401305106</v>
       </c>
@@ -8804,51 +6920,21 @@
       <c r="W95" t="n">
         <v>1855</v>
       </c>
-      <c r="X95" t="n">
-        <v>138</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>506</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>114</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>224</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>466</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>4315</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>713</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>1437</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>1855</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>1113</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>742</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>14674</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>1625</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>42965</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>5587</v>
-      </c>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
       <c r="AM95"/>
       <c r="AN95" t="n">
         <v>29677668</v>
@@ -8858,30 +6944,14 @@
       <c r="A96" s="1" t="n">
         <v>43988</v>
       </c>
-      <c r="B96" t="n">
-        <v>73553</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1940</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1819</v>
-      </c>
-      <c r="E96" t="n">
-        <v>31</v>
-      </c>
-      <c r="F96" t="n">
-        <v>960363</v>
-      </c>
-      <c r="G96" t="n">
-        <v>24876</v>
-      </c>
-      <c r="H96" t="n">
-        <v>31557</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1017</v>
-      </c>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
       <c r="J96" t="n">
         <v>-16.652986223295</v>
       </c>
@@ -8924,51 +6994,21 @@
       <c r="W96" t="n">
         <v>1822</v>
       </c>
-      <c r="X96" t="n">
-        <v>142</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>507</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>114</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>226</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>476</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>4358</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>723</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1495</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>1822</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>1085</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>737</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>15198</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>1583</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>41603</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>5623</v>
-      </c>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96"/>
+      <c r="AI96"/>
+      <c r="AJ96"/>
+      <c r="AK96"/>
+      <c r="AL96"/>
       <c r="AM96"/>
       <c r="AN96" t="n">
         <v>29677668</v>
@@ -8978,30 +7018,14 @@
       <c r="A97" s="1" t="n">
         <v>43989</v>
       </c>
-      <c r="B97" t="n">
-        <v>74978</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1425</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1830</v>
-      </c>
-      <c r="E97" t="n">
-        <v>11</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1014824</v>
-      </c>
-      <c r="G97" t="n">
-        <v>54461</v>
-      </c>
-      <c r="H97" t="n">
-        <v>32321</v>
-      </c>
-      <c r="I97" t="n">
-        <v>764</v>
-      </c>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
       <c r="J97" t="n">
         <v>-13.690776147655</v>
       </c>
@@ -9044,51 +7068,21 @@
       <c r="W97" t="n">
         <v>1878</v>
       </c>
-      <c r="X97" t="n">
-        <v>144</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>507</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>114</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>229</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>483</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>4332</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>733</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1499</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>1878</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>1115</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>763</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>15942</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>1680</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>40237</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>5657</v>
-      </c>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97"/>
+      <c r="AK97"/>
+      <c r="AL97"/>
       <c r="AM97"/>
       <c r="AN97" t="n">
         <v>29677668</v>
@@ -9098,30 +7092,14 @@
       <c r="A98" s="1" t="n">
         <v>43990</v>
       </c>
-      <c r="B98" t="n">
-        <v>75616</v>
-      </c>
-      <c r="C98" t="n">
-        <v>638</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1836</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1029197</v>
-      </c>
-      <c r="G98" t="n">
-        <v>14373</v>
-      </c>
-      <c r="H98" t="n">
-        <v>32176</v>
-      </c>
-      <c r="I98" t="n">
-        <v>-145</v>
-      </c>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
       <c r="J98" t="n">
         <v>-11.5464238708719</v>
       </c>
@@ -9164,51 +7142,21 @@
       <c r="W98" t="n">
         <v>1935</v>
       </c>
-      <c r="X98" t="n">
-        <v>145</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>534</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>119</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>232</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>486</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>4351</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>743</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>1512</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>1935</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>1192</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>743</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>15070</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>1619</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>37283</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>5292</v>
-      </c>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98"/>
+      <c r="AK98"/>
+      <c r="AL98"/>
       <c r="AM98"/>
       <c r="AN98" t="n">
         <v>29677668</v>
@@ -9218,30 +7166,14 @@
       <c r="A99" s="1" t="n">
         <v>43991</v>
       </c>
-      <c r="B99" t="n">
-        <v>77253</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1637</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1853</v>
-      </c>
-      <c r="E99" t="n">
-        <v>17</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1051218</v>
-      </c>
-      <c r="G99" t="n">
-        <v>22021</v>
-      </c>
-      <c r="H99" t="n">
-        <v>32727</v>
-      </c>
-      <c r="I99" t="n">
-        <v>551</v>
-      </c>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
       <c r="J99" t="n">
         <v>-10.3496096270526</v>
       </c>
@@ -9284,51 +7216,21 @@
       <c r="W99" t="n">
         <v>2056</v>
       </c>
-      <c r="X99" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>547</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>122</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>233</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>494</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>4470</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>751</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>1636</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>2056</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>1272</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>784</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>15402</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>1723</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>39336</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>5500</v>
-      </c>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+      <c r="AG99"/>
+      <c r="AH99"/>
+      <c r="AI99"/>
+      <c r="AJ99"/>
+      <c r="AK99"/>
+      <c r="AL99"/>
       <c r="AM99"/>
       <c r="AN99" t="n">
         <v>29677668</v>
@@ -9338,26 +7240,14 @@
       <c r="A100" s="1" t="n">
         <v>43992</v>
       </c>
-      <c r="B100" t="n">
-        <v>79757</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2504</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1885</v>
-      </c>
-      <c r="E100" t="n">
-        <v>32</v>
-      </c>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
       <c r="F100"/>
       <c r="G100"/>
-      <c r="H100" t="n">
-        <v>33694</v>
-      </c>
-      <c r="I100" t="n">
-        <v>967</v>
-      </c>
+      <c r="H100"/>
+      <c r="I100"/>
       <c r="J100" t="n">
         <v>-7.57929471874838</v>
       </c>
@@ -9400,51 +7290,21 @@
       <c r="W100" t="n">
         <v>2153</v>
       </c>
-      <c r="X100" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>545</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>121</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>242</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>506</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>4484</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>757</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1739</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>2153</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>1296</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>857</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>13645</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>1508</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>42410</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>5622</v>
-      </c>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
+      <c r="AL100"/>
       <c r="AM100"/>
       <c r="AN100" t="n">
         <v>29677668</v>
@@ -9454,28 +7314,14 @@
       <c r="A101" s="1" t="n">
         <v>43993</v>
       </c>
-      <c r="B101" t="n">
-        <v>81583</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1826</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1920</v>
-      </c>
-      <c r="E101" t="n">
-        <v>35</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1070849</v>
-      </c>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
       <c r="G101"/>
-      <c r="H101" t="n">
-        <v>33639</v>
-      </c>
-      <c r="I101" t="n">
-        <v>-55</v>
-      </c>
+      <c r="H101"/>
+      <c r="I101"/>
       <c r="J101" t="n">
         <v>-9.34359879566639</v>
       </c>
@@ -9518,51 +7364,21 @@
       <c r="W101" t="n">
         <v>2008</v>
       </c>
-      <c r="X101" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>541</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>122</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>252</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>517</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>4552</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>767</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1831</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>2059</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>809</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>13271</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>1419</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>40724</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>5667</v>
-      </c>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+      <c r="AF101"/>
+      <c r="AG101"/>
+      <c r="AH101"/>
+      <c r="AI101"/>
+      <c r="AJ101"/>
+      <c r="AK101"/>
+      <c r="AL101"/>
       <c r="AM101"/>
       <c r="AN101" t="n">
         <v>29677668</v>
@@ -9572,30 +7388,14 @@
       <c r="A102" s="1" t="n">
         <v>43994</v>
       </c>
-      <c r="B102" t="n">
-        <v>83680</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2097</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1939</v>
-      </c>
-      <c r="E102" t="n">
-        <v>19</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1072466</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1617</v>
-      </c>
-      <c r="H102" t="n">
-        <v>34459</v>
-      </c>
-      <c r="I102" t="n">
-        <v>820</v>
-      </c>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
       <c r="J102" t="n">
         <v>-12.5371620327149</v>
       </c>
@@ -9638,51 +7438,21 @@
       <c r="W102" t="n">
         <v>2166</v>
       </c>
-      <c r="X102" t="n">
-        <v>157</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>544</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>123</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>252</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>527</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>4590</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>777</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>1908</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>2166</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>1356</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>810</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>14033</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>42995</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>5726</v>
-      </c>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
+      <c r="AK102"/>
+      <c r="AL102"/>
       <c r="AM102"/>
       <c r="AN102" t="n">
         <v>29677668</v>
@@ -9692,30 +7462,14 @@
       <c r="A103" s="1" t="n">
         <v>43995</v>
       </c>
-      <c r="B103" t="n">
-        <v>86011</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2331</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1957</v>
-      </c>
-      <c r="E103" t="n">
-        <v>18</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1088326</v>
-      </c>
-      <c r="G103" t="n">
-        <v>15860</v>
-      </c>
-      <c r="H103" t="n">
-        <v>35698</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1239</v>
-      </c>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
       <c r="J103" t="n">
         <v>-15.6726836046931</v>
       </c>
@@ -9758,51 +7512,21 @@
       <c r="W103" t="n">
         <v>2242</v>
       </c>
-      <c r="X103" t="n">
-        <v>161</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>548</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>124</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>252</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>536</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>4701</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>778</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>1939</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>2242</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>1414</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>828</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>13571</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>1498</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>43025</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>5710</v>
-      </c>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
+      <c r="AL103"/>
       <c r="AM103"/>
       <c r="AN103" t="n">
         <v>29677668</v>
@@ -9812,30 +7536,14 @@
       <c r="A104" s="1" t="n">
         <v>43996</v>
       </c>
-      <c r="B104" t="n">
-        <v>87854</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1843</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1976</v>
-      </c>
-      <c r="E104" t="n">
-        <v>19</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1112677</v>
-      </c>
-      <c r="G104" t="n">
-        <v>24351</v>
-      </c>
-      <c r="H104" t="n">
-        <v>36306</v>
-      </c>
-      <c r="I104" t="n">
-        <v>608</v>
-      </c>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
       <c r="J104" t="n">
         <v>-13.0695557045546</v>
       </c>
@@ -9878,51 +7586,21 @@
       <c r="W104" t="n">
         <v>2287</v>
       </c>
-      <c r="X104" t="n">
-        <v>161</v>
-      </c>
-      <c r="Y104" t="n">
-        <v>548</v>
-      </c>
-      <c r="Z104" t="n">
-        <v>124</v>
-      </c>
-      <c r="AA104" t="n">
-        <v>252</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>536</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>4701</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>778</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>1939</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>2287</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>1470</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>817</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>14660</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>1603</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>40548</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>5633</v>
-      </c>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+      <c r="AJ104"/>
+      <c r="AK104"/>
+      <c r="AL104"/>
       <c r="AM104"/>
       <c r="AN104" t="n">
         <v>29677668</v>
@@ -9932,30 +7610,14 @@
       <c r="A105" s="1" t="n">
         <v>43997</v>
       </c>
-      <c r="B105" t="n">
-        <v>89108</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1254</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1983</v>
-      </c>
-      <c r="E105" t="n">
-        <v>7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1135749</v>
-      </c>
-      <c r="G105" t="n">
-        <v>23072</v>
-      </c>
-      <c r="H105" t="n">
-        <v>36622</v>
-      </c>
-      <c r="I105" t="n">
-        <v>316</v>
-      </c>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
       <c r="J105" t="n">
         <v>-10.8146649415612</v>
       </c>
@@ -9998,51 +7660,21 @@
       <c r="W105" t="n">
         <v>2326</v>
       </c>
-      <c r="X105" t="n">
-        <v>169</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>552</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>124</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>252</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>549</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>4770</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>785</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>2326</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>1465</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>861</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>14525</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>1626</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>36840</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>5289</v>
-      </c>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
       <c r="AM105"/>
       <c r="AN105" t="n">
         <v>29677668</v>
@@ -10052,30 +7684,14 @@
       <c r="A106" s="1" t="n">
         <v>43998</v>
       </c>
-      <c r="B106" t="n">
-        <v>93206</v>
-      </c>
-      <c r="C106" t="n">
-        <v>4098</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2029</v>
-      </c>
-      <c r="E106" t="n">
-        <v>46</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1169385</v>
-      </c>
-      <c r="G106" t="n">
-        <v>33636</v>
-      </c>
-      <c r="H106" t="n">
-        <v>38656</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2034</v>
-      </c>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
       <c r="J106" t="n">
         <v>-9.72383735134715</v>
       </c>
@@ -10118,51 +7734,21 @@
       <c r="W106" t="n">
         <v>2518</v>
       </c>
-      <c r="X106" t="n">
-        <v>176</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>546</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>124</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>247</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>563</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>4900</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>802</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>2141</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>2518</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>1623</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>895</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>14993</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>1675</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>39851</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>5529</v>
-      </c>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+      <c r="AG106"/>
+      <c r="AH106"/>
+      <c r="AI106"/>
+      <c r="AJ106"/>
+      <c r="AK106"/>
+      <c r="AL106"/>
       <c r="AM106"/>
       <c r="AN106" t="n">
         <v>29677668</v>
@@ -10172,30 +7758,14 @@
       <c r="A107" s="1" t="n">
         <v>43999</v>
       </c>
-      <c r="B107" t="n">
-        <v>96335</v>
-      </c>
-      <c r="C107" t="n">
-        <v>3129</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2062</v>
-      </c>
-      <c r="E107" t="n">
-        <v>33</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1187367</v>
-      </c>
-      <c r="G107" t="n">
-        <v>17982</v>
-      </c>
-      <c r="H107" t="n">
-        <v>40152</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1496</v>
-      </c>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
       <c r="J107" t="n">
         <v>-8.63655278723133</v>
       </c>
@@ -10238,51 +7808,21 @@
       <c r="W107" t="n">
         <v>2793</v>
       </c>
-      <c r="X107" t="n">
-        <v>179</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>549</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>125</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>251</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>568</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>4993</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>828</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>2242</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>2793</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>1829</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>964</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>13815</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>1473</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>42379</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>5782</v>
-      </c>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+      <c r="AL107"/>
       <c r="AM107"/>
       <c r="AN107" t="n">
         <v>29677668</v>
@@ -10292,30 +7832,14 @@
       <c r="A108" s="1" t="n">
         <v>44000</v>
       </c>
-      <c r="B108" t="n">
-        <v>99851</v>
-      </c>
-      <c r="C108" t="n">
-        <v>3516</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2105</v>
-      </c>
-      <c r="E108" t="n">
-        <v>43</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1212302</v>
-      </c>
-      <c r="G108" t="n">
-        <v>24935</v>
-      </c>
-      <c r="H108" t="n">
-        <v>42136</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1984</v>
-      </c>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
       <c r="J108" t="n">
         <v>-9.57385655043652</v>
       </c>
@@ -10358,51 +7882,21 @@
       <c r="W108" t="n">
         <v>2947</v>
       </c>
-      <c r="X108" t="n">
-        <v>187</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>557</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>125</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>252</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>579</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>5075</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>835</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>2290</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>2947</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>1937</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>1010</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>13472</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>1453</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>44041</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>5856</v>
-      </c>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+      <c r="AL108"/>
       <c r="AM108"/>
       <c r="AN108" t="n">
         <v>29677668</v>
@@ -10412,30 +7906,14 @@
       <c r="A109" s="1" t="n">
         <v>44001</v>
       </c>
-      <c r="B109" t="n">
-        <v>103305</v>
-      </c>
-      <c r="C109" t="n">
-        <v>3454</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2140</v>
-      </c>
-      <c r="E109" t="n">
-        <v>35</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1249858</v>
-      </c>
-      <c r="G109" t="n">
-        <v>37556</v>
-      </c>
-      <c r="H109" t="n">
-        <v>43807</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1671</v>
-      </c>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
       <c r="J109" t="n">
         <v>-13.3844651256582</v>
       </c>
@@ -10478,51 +7956,21 @@
       <c r="W109" t="n">
         <v>3148</v>
       </c>
-      <c r="X109" t="n">
-        <v>191</v>
-      </c>
-      <c r="Y109" t="n">
-        <v>619</v>
-      </c>
-      <c r="Z109" t="n">
-        <v>127</v>
-      </c>
-      <c r="AA109" t="n">
-        <v>291</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>588</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>5116</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>842</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>2373</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>3148</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>2060</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>1088</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>13591</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1443</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>46232</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>5841</v>
-      </c>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
+      <c r="AL109"/>
       <c r="AM109"/>
       <c r="AN109" t="n">
         <v>29677668</v>
@@ -10532,30 +7980,14 @@
       <c r="A110" s="1" t="n">
         <v>44002</v>
       </c>
-      <c r="B110" t="n">
-        <v>107735</v>
-      </c>
-      <c r="C110" t="n">
-        <v>4430</v>
-      </c>
-      <c r="D110" t="n">
-        <v>2165</v>
-      </c>
-      <c r="E110" t="n">
-        <v>25</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1286735</v>
-      </c>
-      <c r="G110" t="n">
-        <v>36877</v>
-      </c>
-      <c r="H110" t="n">
-        <v>46775</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2968</v>
-      </c>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
       <c r="J110" t="n">
         <v>-16.1880187431881</v>
       </c>
@@ -10598,51 +8030,21 @@
       <c r="W110" t="n">
         <v>3247</v>
       </c>
-      <c r="X110" t="n">
-        <v>198</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>623</v>
-      </c>
-      <c r="Z110" t="n">
-        <v>127</v>
-      </c>
-      <c r="AA110" t="n">
-        <v>292</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>591</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>5196</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>849</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>2437</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>3247</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>2134</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>1113</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>13701</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>1449</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>44293</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>5807</v>
-      </c>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
       <c r="AM110"/>
       <c r="AN110" t="n">
         <v>29677668</v>
@@ -10652,30 +8054,14 @@
       <c r="A111" s="1" t="n">
         <v>44003</v>
       </c>
-      <c r="B111" t="n">
-        <v>111601</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3866</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2182</v>
-      </c>
-      <c r="E111" t="n">
-        <v>17</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1313265</v>
-      </c>
-      <c r="G111" t="n">
-        <v>26530</v>
-      </c>
-      <c r="H111" t="n">
-        <v>49601</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2826</v>
-      </c>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
       <c r="J111" t="n">
         <v>-18.2397772931396</v>
       </c>
@@ -10718,51 +8104,21 @@
       <c r="W111" t="n">
         <v>3409</v>
       </c>
-      <c r="X111" t="n">
-        <v>201</v>
-      </c>
-      <c r="Y111" t="n">
-        <v>642</v>
-      </c>
-      <c r="Z111" t="n">
-        <v>132</v>
-      </c>
-      <c r="AA111" t="n">
-        <v>293</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>597</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>5283</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>851</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>2454</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>3409</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>2266</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>1143</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>14316</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>1493</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>42815</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>5701</v>
-      </c>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111"/>
+      <c r="AI111"/>
+      <c r="AJ111"/>
+      <c r="AK111"/>
+      <c r="AL111"/>
       <c r="AM111"/>
       <c r="AN111" t="n">
         <v>29677668</v>
@@ -10772,30 +8128,14 @@
       <c r="A112" s="1" t="n">
         <v>44004</v>
       </c>
-      <c r="B112" t="n">
-        <v>114881</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3280</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2192</v>
-      </c>
-      <c r="E112" t="n">
-        <v>10</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1350920</v>
-      </c>
-      <c r="G112" t="n">
-        <v>37655</v>
-      </c>
-      <c r="H112" t="n">
-        <v>51322</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1721</v>
-      </c>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
       <c r="J112" t="n">
         <v>-16.8496589210196</v>
       </c>
@@ -10838,51 +8178,21 @@
       <c r="W112" t="n">
         <v>3711</v>
       </c>
-      <c r="X112" t="n">
-        <v>202</v>
-      </c>
-      <c r="Y112" t="n">
-        <v>648</v>
-      </c>
-      <c r="Z112" t="n">
-        <v>132</v>
-      </c>
-      <c r="AA112" t="n">
-        <v>292</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>600</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>5314</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>859</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>2481</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>3711</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>2491</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>1220</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>14697</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>1517</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>40607</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>5712</v>
-      </c>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
+      <c r="AL112"/>
       <c r="AM112"/>
       <c r="AN112" t="n">
         <v>29677668</v>
@@ -10892,26 +8202,14 @@
       <c r="A113" s="1" t="n">
         <v>44005</v>
       </c>
-      <c r="B113" t="n">
-        <v>120370</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5489</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2220</v>
-      </c>
-      <c r="E113" t="n">
-        <v>28</v>
-      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
       <c r="F113"/>
       <c r="G113"/>
-      <c r="H113" t="n">
-        <v>55207</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3885</v>
-      </c>
+      <c r="H113"/>
+      <c r="I113"/>
       <c r="J113" t="n">
         <v>-13.4676985155237</v>
       </c>
@@ -10954,51 +8252,21 @@
       <c r="W113" t="n">
         <v>4092</v>
       </c>
-      <c r="X113" t="n">
-        <v>208</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>674</v>
-      </c>
-      <c r="Z113" t="n">
-        <v>132</v>
-      </c>
-      <c r="AA113" t="n">
-        <v>294</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>607</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>5392</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>879</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>2501</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>4092</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>2767</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>1325</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>14260</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>1483</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>40382</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>5762</v>
-      </c>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
       <c r="AM113"/>
       <c r="AN113" t="n">
         <v>29677668</v>
@@ -11008,30 +8276,14 @@
       <c r="A114" s="1" t="n">
         <v>44006</v>
       </c>
-      <c r="B114" t="n">
-        <v>125921</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5551</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2249</v>
-      </c>
-      <c r="E114" t="n">
-        <v>29</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1399304</v>
-      </c>
-      <c r="G114" t="n">
-        <v>48384</v>
-      </c>
-      <c r="H114" t="n">
-        <v>58304</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3097</v>
-      </c>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
       <c r="J114" t="n">
         <v>-12.1534593101042</v>
       </c>
@@ -11074,51 +8326,21 @@
       <c r="W114" t="n">
         <v>4389</v>
       </c>
-      <c r="X114" t="n">
-        <v>220</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>697</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>133</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>295</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>627</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>5517</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>883</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>2557</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>4389</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>2990</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>1399</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>12951</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>1320</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>43756</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>5968</v>
-      </c>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
       <c r="AM114"/>
       <c r="AN114" t="n">
         <v>29677668</v>
@@ -11128,30 +8350,14 @@
       <c r="A115" s="1" t="n">
         <v>44007</v>
       </c>
-      <c r="B115" t="n">
-        <v>131917</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5996</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2296</v>
-      </c>
-      <c r="E115" t="n">
-        <v>47</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1409858</v>
-      </c>
-      <c r="G115" t="n">
-        <v>10554</v>
-      </c>
-      <c r="H115" t="n">
-        <v>62321</v>
-      </c>
-      <c r="I115" t="n">
-        <v>4017</v>
-      </c>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
       <c r="J115" t="n">
         <v>-14.8345702943485</v>
       </c>
@@ -11194,51 +8400,21 @@
       <c r="W115" t="n">
         <v>4739</v>
       </c>
-      <c r="X115" t="n">
-        <v>223</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>699</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>136</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>296</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>640</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>5570</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>895</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>2629</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>4739</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>3279</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>1460</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>12597</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>45208</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>6051</v>
-      </c>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
+      <c r="AL115"/>
       <c r="AM115"/>
       <c r="AN115" t="n">
         <v>29677668</v>
@@ -11248,30 +8424,14 @@
       <c r="A116" s="1" t="n">
         <v>44008</v>
       </c>
-      <c r="B116" t="n">
-        <v>137624</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5707</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2324</v>
-      </c>
-      <c r="E116" t="n">
-        <v>28</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1444189</v>
-      </c>
-      <c r="G116" t="n">
-        <v>34331</v>
-      </c>
-      <c r="H116" t="n">
-        <v>65640</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3319</v>
-      </c>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
       <c r="J116" t="n">
         <v>-19.461964206904</v>
       </c>
@@ -11314,51 +8474,21 @@
       <c r="W116" t="n">
         <v>5102</v>
       </c>
-      <c r="X116" t="n">
-        <v>230</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>705</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>137</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>297</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>651</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>5649</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>909</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>2684</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>5102</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>3516</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>1586</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>12398</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>1284</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>45535</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>6150</v>
-      </c>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
+      <c r="AL116"/>
       <c r="AM116"/>
       <c r="AN116" t="n">
         <v>29677668</v>
@@ -11368,30 +8498,14 @@
       <c r="A117" s="1" t="n">
         <v>44009</v>
       </c>
-      <c r="B117" t="n">
-        <v>143366</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5742</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2366</v>
-      </c>
-      <c r="E117" t="n">
-        <v>42</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1492340</v>
-      </c>
-      <c r="G117" t="n">
-        <v>48151</v>
-      </c>
-      <c r="H117" t="n">
-        <v>69280</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3640</v>
-      </c>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
       <c r="J117" t="n">
         <v>-23.0064921075466</v>
       </c>
@@ -11434,51 +8548,21 @@
       <c r="W117" t="n">
         <v>5523</v>
       </c>
-      <c r="X117" t="n">
-        <v>248</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>715</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>138</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>303</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>659</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>5747</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>922</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>2705</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>5523</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>3796</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>1727</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>12893</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>1333</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>45318</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>6165</v>
-      </c>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+      <c r="AF117"/>
+      <c r="AG117"/>
+      <c r="AH117"/>
+      <c r="AI117"/>
+      <c r="AJ117"/>
+      <c r="AK117"/>
+      <c r="AL117"/>
       <c r="AM117"/>
       <c r="AN117" t="n">
         <v>29677668</v>
@@ -11488,30 +8572,14 @@
       <c r="A118" s="1" t="n">
         <v>44010</v>
       </c>
-      <c r="B118" t="n">
-        <v>148723</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5357</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2393</v>
-      </c>
-      <c r="E118" t="n">
-        <v>27</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1543186</v>
-      </c>
-      <c r="G118" t="n">
-        <v>50846</v>
-      </c>
-      <c r="H118" t="n">
-        <v>73596</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4316</v>
-      </c>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
       <c r="J118" t="n">
         <v>-22.6384357088626</v>
       </c>
@@ -11554,51 +8622,21 @@
       <c r="W118" t="n">
         <v>5497</v>
       </c>
-      <c r="X118" t="n">
-        <v>254</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>738</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>139</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>307</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>667</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>5822</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>917</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>2707</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>5497</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>3813</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>1684</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>12751</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>1355</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>41950</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>5999</v>
-      </c>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+      <c r="AF118"/>
+      <c r="AG118"/>
+      <c r="AH118"/>
+      <c r="AI118"/>
+      <c r="AJ118"/>
+      <c r="AK118"/>
+      <c r="AL118"/>
       <c r="AM118"/>
       <c r="AN118" t="n">
         <v>29677668</v>
@@ -11608,30 +8646,14 @@
       <c r="A119" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="B119" t="n">
-        <v>153011</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4288</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2403</v>
-      </c>
-      <c r="E119" t="n">
-        <v>10</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1578667</v>
-      </c>
-      <c r="G119" t="n">
-        <v>35481</v>
-      </c>
-      <c r="H119" t="n">
-        <v>75848</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2252</v>
-      </c>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
       <c r="J119" t="n">
         <v>-15.3782762927723</v>
       </c>
@@ -11674,51 +8696,21 @@
       <c r="W119" t="n">
         <v>5913</v>
       </c>
-      <c r="X119" t="n">
-        <v>260</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>739</v>
-      </c>
-      <c r="Z119" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA119" t="n">
-        <v>307</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>673</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>5907</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>923</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>2723</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>5913</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>4085</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>1828</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>13825</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>1411</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>40419</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>5931</v>
-      </c>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+      <c r="AF119"/>
+      <c r="AG119"/>
+      <c r="AH119"/>
+      <c r="AI119"/>
+      <c r="AJ119"/>
+      <c r="AK119"/>
+      <c r="AL119"/>
       <c r="AM119"/>
       <c r="AN119" t="n">
         <v>29677668</v>
@@ -11728,30 +8720,14 @@
       <c r="A120" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="B120" t="n">
-        <v>159986</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6975</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2424</v>
-      </c>
-      <c r="E120" t="n">
-        <v>21</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1612583</v>
-      </c>
-      <c r="G120" t="n">
-        <v>33916</v>
-      </c>
-      <c r="H120" t="n">
-        <v>78520</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2672</v>
-      </c>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
       <c r="J120" t="n">
         <v>-12.1667999734045</v>
       </c>
@@ -11794,51 +8770,21 @@
       <c r="W120" t="n">
         <v>6533</v>
       </c>
-      <c r="X120" t="n">
-        <v>267</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>759</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>142</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>309</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>682</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>5988</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>929</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>2759</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>6533</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>4639</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>1894</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>13711</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>1405</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>41555</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>5921</v>
-      </c>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+      <c r="AF120"/>
+      <c r="AG120"/>
+      <c r="AH120"/>
+      <c r="AI120"/>
+      <c r="AJ120"/>
+      <c r="AK120"/>
+      <c r="AL120"/>
       <c r="AM120"/>
       <c r="AN120" t="n">
         <v>29677668</v>
@@ -11848,30 +8794,14 @@
       <c r="A121" s="1" t="n">
         <v>44013</v>
       </c>
-      <c r="B121" t="n">
-        <v>168062</v>
-      </c>
-      <c r="C121" t="n">
-        <v>8076</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2481</v>
-      </c>
-      <c r="E121" t="n">
-        <v>57</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1653835</v>
-      </c>
-      <c r="G121" t="n">
-        <v>41252</v>
-      </c>
-      <c r="H121" t="n">
-        <v>82171</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3651</v>
-      </c>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
       <c r="J121" t="n">
         <v>-9.72572106135809</v>
       </c>
@@ -11914,54 +8844,22 @@
       <c r="W121" t="n">
         <v>6904</v>
       </c>
-      <c r="X121" t="n">
-        <v>275</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>770</v>
-      </c>
-      <c r="Z121" t="n">
-        <v>145</v>
-      </c>
-      <c r="AA121" t="n">
-        <v>309</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>693</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>6194</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>949</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>2824</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>6904</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>4911</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>1993</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>12894</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>44333</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>6017</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>5622</v>
-      </c>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+      <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121"/>
+      <c r="AI121"/>
+      <c r="AJ121"/>
+      <c r="AK121"/>
+      <c r="AL121"/>
+      <c r="AM121"/>
       <c r="AN121" t="n">
         <v>29677668</v>
       </c>
@@ -11970,30 +8868,14 @@
       <c r="A122" s="1" t="n">
         <v>44014</v>
       </c>
-      <c r="B122" t="n">
-        <v>175977</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7915</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2525</v>
-      </c>
-      <c r="E122" t="n">
-        <v>44</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1696809</v>
-      </c>
-      <c r="G122" t="n">
-        <v>42974</v>
-      </c>
-      <c r="H122" t="n">
-        <v>87754</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5583</v>
-      </c>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
       <c r="J122" t="n">
         <v>-8.46596897770195</v>
       </c>
@@ -12036,54 +8918,22 @@
       <c r="W122" t="n">
         <v>7382</v>
       </c>
-      <c r="X122" t="n">
-        <v>287</v>
-      </c>
-      <c r="Y122" t="n">
-        <v>785</v>
-      </c>
-      <c r="Z122" t="n">
-        <v>147</v>
-      </c>
-      <c r="AA122" t="n">
-        <v>312</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>707</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>6262</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>946</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>2847</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>7382</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>5227</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>2155</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>11983</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>1181</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>45687</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>6147</v>
-      </c>
-      <c r="AM122" t="n">
-        <v>5491</v>
-      </c>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
+      <c r="AD122"/>
+      <c r="AE122"/>
+      <c r="AF122"/>
+      <c r="AG122"/>
+      <c r="AH122"/>
+      <c r="AI122"/>
+      <c r="AJ122"/>
+      <c r="AK122"/>
+      <c r="AL122"/>
+      <c r="AM122"/>
       <c r="AN122" t="n">
         <v>29677668</v>
       </c>
@@ -12092,30 +8942,14 @@
       <c r="A123" s="1" t="n">
         <v>44015</v>
       </c>
-      <c r="B123" t="n">
-        <v>183532</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7555</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2575</v>
-      </c>
-      <c r="E123" t="n">
-        <v>50</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1741722</v>
-      </c>
-      <c r="G123" t="n">
-        <v>44913</v>
-      </c>
-      <c r="H123" t="n">
-        <v>89781</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2027</v>
-      </c>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
       <c r="J123" t="n">
         <v>-13.7880128813301</v>
       </c>
@@ -12158,54 +8992,22 @@
       <c r="W123" t="n">
         <v>7652</v>
       </c>
-      <c r="X123" t="n">
-        <v>292</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>802</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>148</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>318</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>715</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>6382</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>957</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>2880</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>7652</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>5421</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>2231</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>12134</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>1161</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>45619</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>6045</v>
-      </c>
-      <c r="AM123" t="n">
-        <v>5488</v>
-      </c>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+      <c r="AB123"/>
+      <c r="AC123"/>
+      <c r="AD123"/>
+      <c r="AE123"/>
+      <c r="AF123"/>
+      <c r="AG123"/>
+      <c r="AH123"/>
+      <c r="AI123"/>
+      <c r="AJ123"/>
+      <c r="AK123"/>
+      <c r="AL123"/>
+      <c r="AM123"/>
       <c r="AN123" t="n">
         <v>29677668</v>
       </c>
@@ -12214,30 +9016,14 @@
       <c r="A124" s="1" t="n">
         <v>44016</v>
       </c>
-      <c r="B124" t="n">
-        <v>191790</v>
-      </c>
-      <c r="C124" t="n">
-        <v>8258</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2608</v>
-      </c>
-      <c r="E124" t="n">
-        <v>33</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1785542</v>
-      </c>
-      <c r="G124" t="n">
-        <v>43820</v>
-      </c>
-      <c r="H124" t="n">
-        <v>96273</v>
-      </c>
-      <c r="I124" t="n">
-        <v>6492</v>
-      </c>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
       <c r="J124" t="n">
         <v>-35.8808088973328</v>
       </c>
@@ -12280,54 +9066,22 @@
       <c r="W124" t="n">
         <v>7890</v>
       </c>
-      <c r="X124" t="n">
-        <v>305</v>
-      </c>
-      <c r="Y124" t="n">
-        <v>816</v>
-      </c>
-      <c r="Z124" t="n">
-        <v>149</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>318</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>722</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>6472</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>974</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>2939</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>7890</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>5552</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>2338</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>12907</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>1270</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>44252</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>5952</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>5479</v>
-      </c>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+      <c r="AC124"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+      <c r="AF124"/>
+      <c r="AG124"/>
+      <c r="AH124"/>
+      <c r="AI124"/>
+      <c r="AJ124"/>
+      <c r="AK124"/>
+      <c r="AL124"/>
+      <c r="AM124"/>
       <c r="AN124" t="n">
         <v>29677668</v>
       </c>
@@ -12336,30 +9090,14 @@
       <c r="A125" s="1" t="n">
         <v>44017</v>
       </c>
-      <c r="B125" t="n">
-        <v>195239</v>
-      </c>
-      <c r="C125" t="n">
-        <v>3449</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2637</v>
-      </c>
-      <c r="E125" t="n">
-        <v>29</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1829966</v>
-      </c>
-      <c r="G125" t="n">
-        <v>44424</v>
-      </c>
-      <c r="H125" t="n">
-        <v>99383</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3110</v>
-      </c>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
       <c r="J125" t="n">
         <v>-27.5451882490573</v>
       </c>
@@ -12402,54 +9140,22 @@
       <c r="W125" t="n">
         <v>8181</v>
       </c>
-      <c r="X125" t="n">
-        <v>310</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>837</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>149</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>318</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>728</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>6587</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>978</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>2975</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>8181</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>5732</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>2449</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>13307</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>1203</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>42564</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>5946</v>
-      </c>
-      <c r="AM125" t="n">
-        <v>5413</v>
-      </c>
+      <c r="X125"/>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+      <c r="AC125"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+      <c r="AF125"/>
+      <c r="AG125"/>
+      <c r="AH125"/>
+      <c r="AI125"/>
+      <c r="AJ125"/>
+      <c r="AK125"/>
+      <c r="AL125"/>
+      <c r="AM125"/>
       <c r="AN125" t="n">
         <v>29677668</v>
       </c>
@@ -12458,30 +9164,14 @@
       <c r="A126" s="1" t="n">
         <v>44018</v>
       </c>
-      <c r="B126" t="n">
-        <v>200557</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5318</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2655</v>
-      </c>
-      <c r="E126" t="n">
-        <v>18</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1874626</v>
-      </c>
-      <c r="G126" t="n">
-        <v>44660</v>
-      </c>
-      <c r="H126" t="n">
-        <v>101095</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1712</v>
-      </c>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
       <c r="J126" t="n">
         <v>-16.0466559069726</v>
       </c>
@@ -12524,54 +9214,22 @@
       <c r="W126" t="n">
         <v>8698</v>
       </c>
-      <c r="X126" t="n">
-        <v>313</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>847</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>319</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>741</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>6653</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>2993</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>8698</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>6181</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>2517</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>12852</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>1226</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>40828</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>5913</v>
-      </c>
-      <c r="AM126" t="n">
-        <v>5300</v>
-      </c>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+      <c r="AC126"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+      <c r="AF126"/>
+      <c r="AG126"/>
+      <c r="AH126"/>
+      <c r="AI126"/>
+      <c r="AJ126"/>
+      <c r="AK126"/>
+      <c r="AL126"/>
+      <c r="AM126"/>
       <c r="AN126" t="n">
         <v>29677668</v>
       </c>
@@ -12580,30 +9238,14 @@
       <c r="A127" s="1" t="n">
         <v>44019</v>
       </c>
-      <c r="B127" t="n">
-        <v>210585</v>
-      </c>
-      <c r="C127" t="n">
-        <v>10028</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2715</v>
-      </c>
-      <c r="E127" t="n">
-        <v>60</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1917116</v>
-      </c>
-      <c r="G127" t="n">
-        <v>42490</v>
-      </c>
-      <c r="H127" t="n">
-        <v>106751</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5656</v>
-      </c>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
       <c r="J127" t="n">
         <v>-16.1571055393815</v>
       </c>
@@ -12646,54 +9288,22 @@
       <c r="W127" t="n">
         <v>9286</v>
       </c>
-      <c r="X127" t="n">
-        <v>323</v>
-      </c>
-      <c r="Y127" t="n">
-        <v>867</v>
-      </c>
-      <c r="Z127" t="n">
-        <v>152</v>
-      </c>
-      <c r="AA127" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>753</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>6857</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>1003</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>3034</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>9286</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>6628</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>2658</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>12925</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>1148</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>41819</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>6087</v>
-      </c>
-      <c r="AM127" t="n">
-        <v>5283</v>
-      </c>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+      <c r="AC127"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+      <c r="AF127"/>
+      <c r="AG127"/>
+      <c r="AH127"/>
+      <c r="AI127"/>
+      <c r="AJ127"/>
+      <c r="AK127"/>
+      <c r="AL127"/>
+      <c r="AM127"/>
       <c r="AN127" t="n">
         <v>29677668</v>
       </c>
@@ -12702,30 +9312,14 @@
       <c r="A128" s="1" t="n">
         <v>44020</v>
       </c>
-      <c r="B128" t="n">
-        <v>220564</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9979</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2813</v>
-      </c>
-      <c r="E128" t="n">
-        <v>98</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1960005</v>
-      </c>
-      <c r="G128" t="n">
-        <v>42889</v>
-      </c>
-      <c r="H128" t="n">
-        <v>112362</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5611</v>
-      </c>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
       <c r="J128" t="n">
         <v>-14.5296083706555</v>
       </c>
@@ -12768,54 +9362,22 @@
       <c r="W128" t="n">
         <v>9610</v>
       </c>
-      <c r="X128" t="n">
-        <v>327</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>909</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>151</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>329</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>763</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>7022</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>1027</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>3055</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>9610</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>6880</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>2730</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>11575</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>1017</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>45016</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>6322</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>5288</v>
-      </c>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+      <c r="AF128"/>
+      <c r="AG128"/>
+      <c r="AH128"/>
+      <c r="AI128"/>
+      <c r="AJ128"/>
+      <c r="AK128"/>
+      <c r="AL128"/>
+      <c r="AM128"/>
       <c r="AN128" t="n">
         <v>29677668</v>
       </c>
@@ -12824,30 +9386,14 @@
       <c r="A129" s="1" t="n">
         <v>44021</v>
       </c>
-      <c r="B129" t="n">
-        <v>230346</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9782</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2918</v>
-      </c>
-      <c r="E129" t="n">
-        <v>105</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2020405</v>
-      </c>
-      <c r="G129" t="n">
-        <v>60400</v>
-      </c>
-      <c r="H129" t="n">
-        <v>118320</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5958</v>
-      </c>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
       <c r="J129" t="n">
         <v>-15.6294364575045</v>
       </c>
@@ -12890,54 +9436,22 @@
       <c r="W129" t="n">
         <v>9689</v>
       </c>
-      <c r="X129" t="n">
-        <v>338</v>
-      </c>
-      <c r="Y129" t="n">
-        <v>952</v>
-      </c>
-      <c r="Z129" t="n">
-        <v>155</v>
-      </c>
-      <c r="AA129" t="n">
-        <v>357</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>769</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>7301</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>1035</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>3106</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>9689</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>6811</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>2878</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>11296</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>953</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>46706</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>6478</v>
-      </c>
-      <c r="AM129" t="n">
-        <v>5224</v>
-      </c>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+      <c r="AC129"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+      <c r="AF129"/>
+      <c r="AG129"/>
+      <c r="AH129"/>
+      <c r="AI129"/>
+      <c r="AJ129"/>
+      <c r="AK129"/>
+      <c r="AL129"/>
+      <c r="AM129"/>
       <c r="AN129" t="n">
         <v>29677668</v>
       </c>
@@ -12946,30 +9460,14 @@
       <c r="A130" s="1" t="n">
         <v>44022</v>
       </c>
-      <c r="B130" t="n">
-        <v>240111</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9765</v>
-      </c>
-      <c r="D130" t="n">
-        <v>3013</v>
-      </c>
-      <c r="E130" t="n">
-        <v>95</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2069122</v>
-      </c>
-      <c r="G130" t="n">
-        <v>48717</v>
-      </c>
-      <c r="H130" t="n">
-        <v>123398</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5078</v>
-      </c>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
       <c r="J130" t="n">
         <v>-19.543643781131</v>
       </c>
@@ -13012,54 +9510,22 @@
       <c r="W130" t="n">
         <v>10002</v>
       </c>
-      <c r="X130" t="n">
-        <v>344</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>962</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>157</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>779</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>7376</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>1043</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>3146</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>10002</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>7079</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>2923</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>10698</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>940</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>46943</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>6379</v>
-      </c>
-      <c r="AM130" t="n">
-        <v>5127</v>
-      </c>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+      <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AH130"/>
+      <c r="AI130"/>
+      <c r="AJ130"/>
+      <c r="AK130"/>
+      <c r="AL130"/>
+      <c r="AM130"/>
       <c r="AN130" t="n">
         <v>29677668</v>
       </c>
@@ -13068,47 +9534,31 @@
       <c r="A131" s="1" t="n">
         <v>44023</v>
       </c>
-      <c r="B131" t="n">
-        <v>250462</v>
-      </c>
-      <c r="C131" t="n">
-        <v>10351</v>
-      </c>
-      <c r="D131" t="n">
-        <v>3112</v>
-      </c>
-      <c r="E131" t="n">
-        <v>99</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2110922</v>
-      </c>
-      <c r="G131" t="n">
-        <v>41800</v>
-      </c>
-      <c r="H131" t="n">
-        <v>131266</v>
-      </c>
-      <c r="I131" t="n">
-        <v>7868</v>
-      </c>
-      <c r="J131" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K131" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L131" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M131" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N131" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O131" t="e">
-        <v>#NUM!</v>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131" t="n">
+        <v>-23.3949517242047</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-6.07369015474298</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-4.28991447755096</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-25.0187697280939</v>
+      </c>
+      <c r="N131" t="n">
+        <v>-15.6338529234607</v>
+      </c>
+      <c r="O131" t="n">
+        <v>7.87950059103741</v>
       </c>
       <c r="P131" t="n">
         <v>2492754</v>
@@ -13134,54 +9584,22 @@
       <c r="W131" t="n">
         <v>10083</v>
       </c>
-      <c r="X131" t="n">
-        <v>350</v>
-      </c>
-      <c r="Y131" t="n">
-        <v>1017</v>
-      </c>
-      <c r="Z131" t="n">
-        <v>159</v>
-      </c>
-      <c r="AA131" t="n">
-        <v>364</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>786</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>7635</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>1050</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>3190</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>10083</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>7170</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>2913</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>11188</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>930</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>46338</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>6353</v>
-      </c>
-      <c r="AM131" t="n">
-        <v>5233</v>
-      </c>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+      <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AH131"/>
+      <c r="AI131"/>
+      <c r="AJ131"/>
+      <c r="AK131"/>
+      <c r="AL131"/>
+      <c r="AM131"/>
       <c r="AN131" t="n">
         <v>29677668</v>
       </c>
@@ -13190,47 +9608,31 @@
       <c r="A132" s="1" t="n">
         <v>44024</v>
       </c>
-      <c r="B132" t="n">
-        <v>258658</v>
-      </c>
-      <c r="C132" t="n">
-        <v>8196</v>
-      </c>
-      <c r="D132" t="n">
-        <v>3192</v>
-      </c>
-      <c r="E132" t="n">
-        <v>80</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2165623</v>
-      </c>
-      <c r="G132" t="n">
-        <v>54701</v>
-      </c>
-      <c r="H132" t="n">
-        <v>137141</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J132" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K132" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L132" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M132" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N132" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O132" t="e">
-        <v>#NUM!</v>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132" t="n">
+        <v>-21.6668118459794</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-10.0908011499869</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-11.5842416876282</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-28.661410273891</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-18.4679964225945</v>
+      </c>
+      <c r="O132" t="n">
+        <v>7.24314569155752</v>
       </c>
       <c r="P132" t="n">
         <v>2540125</v>
@@ -13256,54 +9658,22 @@
       <c r="W132" t="n">
         <v>10410</v>
       </c>
-      <c r="X132" t="n">
-        <v>352</v>
-      </c>
-      <c r="Y132" t="n">
-        <v>1030</v>
-      </c>
-      <c r="Z132" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>365</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>790</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>7757</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>1060</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>3212</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>10410</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>7415</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>2995</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>11726</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>977</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>45740</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>6405</v>
-      </c>
-      <c r="AM132" t="n">
-        <v>5236</v>
-      </c>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+      <c r="AJ132"/>
+      <c r="AK132"/>
+      <c r="AL132"/>
+      <c r="AM132"/>
       <c r="AN132" t="n">
         <v>29677668</v>
       </c>
@@ -13312,30 +9682,14 @@
       <c r="A133" s="1" t="n">
         <v>44025</v>
       </c>
-      <c r="B133" t="n">
-        <v>264313</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5655</v>
-      </c>
-      <c r="D133" t="n">
-        <v>3235</v>
-      </c>
-      <c r="E133" t="n">
-        <v>43</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2205822</v>
-      </c>
-      <c r="G133" t="n">
-        <v>40199</v>
-      </c>
-      <c r="H133" t="n">
-        <v>134345</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-2796</v>
-      </c>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
       <c r="J133" t="e">
         <v>#NUM!</v>
       </c>
@@ -13375,55 +9729,25 @@
       <c r="V133" t="n">
         <v>55563</v>
       </c>
-      <c r="W133"/>
-      <c r="X133" t="n">
-        <v>379</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>1102</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>167</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>372</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>830</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>8918</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>1147</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>3300</v>
-      </c>
-      <c r="AF133" t="n">
+      <c r="W133" t="n">
         <v>10405</v>
       </c>
-      <c r="AG133" t="n">
-        <v>7352</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>3053</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>12066</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>984</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>43566</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>6370</v>
-      </c>
-      <c r="AM133" t="n">
-        <v>5245</v>
-      </c>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+      <c r="AC133"/>
+      <c r="AD133"/>
+      <c r="AE133"/>
+      <c r="AF133"/>
+      <c r="AG133"/>
+      <c r="AH133"/>
+      <c r="AI133"/>
+      <c r="AJ133"/>
+      <c r="AK133"/>
+      <c r="AL133"/>
+      <c r="AM133"/>
       <c r="AN133" t="n">
         <v>29677668</v>
       </c>
@@ -13432,18 +9756,10 @@
       <c r="A134" s="1" t="n">
         <v>44026</v>
       </c>
-      <c r="B134" t="n">
-        <v>275058</v>
-      </c>
-      <c r="C134" t="n">
-        <v>10745</v>
-      </c>
-      <c r="D134" t="n">
-        <v>3322</v>
-      </c>
-      <c r="E134" t="n">
-        <v>87</v>
-      </c>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
       <c r="F134"/>
       <c r="G134"/>
       <c r="H134"/>
@@ -13466,65 +9782,143 @@
       <c r="O134" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="P134" t="n">
+        <v>2642199</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>222342</v>
+      </c>
       <c r="R134" t="n">
         <v>2864541</v>
       </c>
-      <c r="S134"/>
-      <c r="T134"/>
-      <c r="U134"/>
-      <c r="V134"/>
+      <c r="S134" t="n">
+        <v>0.16812128576681</v>
+      </c>
+      <c r="T134" t="n">
+        <v>54784</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1432</v>
+      </c>
+      <c r="V134" t="n">
+        <v>56216</v>
+      </c>
       <c r="W134"/>
-      <c r="X134" t="n">
-        <v>386</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>1163</v>
-      </c>
-      <c r="Z134" t="n">
-        <v>173</v>
-      </c>
-      <c r="AA134" t="n">
-        <v>374</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>838</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>9231</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>1173</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>3371</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>10569</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>7425</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>3144</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>11402</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>949</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>43615</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>6334</v>
-      </c>
-      <c r="AM134" t="n">
-        <v>5051</v>
-      </c>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+      <c r="AC134"/>
+      <c r="AD134"/>
+      <c r="AE134"/>
+      <c r="AF134"/>
+      <c r="AG134"/>
+      <c r="AH134"/>
+      <c r="AI134"/>
+      <c r="AJ134"/>
+      <c r="AK134"/>
+      <c r="AL134"/>
+      <c r="AM134"/>
       <c r="AN134" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B135" t="n">
+        <v>282365</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7307</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3432</v>
+      </c>
+      <c r="E135" t="n">
+        <v>110</v>
+      </c>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O135" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135" t="n">
+        <v>2924288</v>
+      </c>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135" t="n">
+        <v>396</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>179</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>383</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>851</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>9609</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>1236</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3487</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>10471</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>7367</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>3104</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>10586</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>853</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>45585</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>6583</v>
+      </c>
+      <c r="AM135"/>
+      <c r="AN135" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -13582,34 +9976,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>129338</v>
+        <v>129657</v>
       </c>
       <c r="C2" t="n">
-        <v>106892</v>
+        <v>108617</v>
       </c>
       <c r="D2" t="n">
-        <v>2757649</v>
+        <v>2815671</v>
       </c>
       <c r="E2" t="n">
-        <v>7646</v>
+        <v>7652</v>
       </c>
       <c r="F2" t="n">
-        <v>55017</v>
+        <v>56171</v>
       </c>
       <c r="G2" t="n">
-        <v>11402</v>
+        <v>10586</v>
       </c>
       <c r="H2" t="n">
-        <v>949</v>
+        <v>853</v>
       </c>
       <c r="I2" t="n">
-        <v>5051</v>
+        <v>5059</v>
       </c>
       <c r="J2" t="n">
-        <v>25496</v>
+        <v>26272</v>
       </c>
       <c r="K2" t="n">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -9917,7 +9917,9 @@
       <c r="AL135" t="n">
         <v>6583</v>
       </c>
-      <c r="AM135"/>
+      <c r="AM135" t="n">
+        <v>5059</v>
+      </c>
       <c r="AN135" t="n">
         <v>29677668</v>
       </c>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">149275.6</t>
+    <t xml:space="preserve">155937.20000000001</t>
   </si>
 </sst>
 </file>
@@ -644,10 +644,18 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="n">
         <v>6.51882451054902</v>
       </c>
@@ -710,10 +718,18 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
         <v>11.1593726066224</v>
       </c>
@@ -776,10 +792,18 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
         <v>6.9111920843436</v>
       </c>
@@ -830,18 +854,30 @@
       <c r="A5" s="1" t="n">
         <v>43897</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
         <v>7.04692510654327</v>
       </c>
@@ -892,18 +928,30 @@
       <c r="A6" s="1" t="n">
         <v>43898</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="n">
         <v>9.81929854977712</v>
       </c>
@@ -966,10 +1014,18 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="n">
         <v>7.66660237307379</v>
       </c>
@@ -1032,10 +1088,18 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" t="n">
         <v>11.4320885396036</v>
       </c>
@@ -1098,10 +1162,18 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" t="n">
         <v>13.3076083471519</v>
       </c>
@@ -1164,10 +1236,18 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="n">
         <v>11.902992120918</v>
       </c>
@@ -1230,10 +1310,18 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="n">
         <v>1.80499957435021</v>
       </c>
@@ -1284,18 +1372,30 @@
       <c r="A12" s="1" t="n">
         <v>43904</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="n">
         <v>-6.94469147646706</v>
       </c>
@@ -1358,10 +1458,18 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="n">
         <v>-8.08462308463361</v>
       </c>
@@ -1424,10 +1532,18 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" t="n">
         <v>-2.55423897426216</v>
       </c>
@@ -1490,10 +1606,18 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="n">
         <v>-11.1278468777235</v>
       </c>
@@ -1556,10 +1680,18 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="n">
         <v>-15.5304751310474</v>
       </c>
@@ -1622,10 +1754,18 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="n">
         <v>-21.8146729714352</v>
       </c>
@@ -1688,10 +1828,18 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="n">
         <v>-29.8105344823853</v>
       </c>
@@ -1754,10 +1902,18 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="n">
         <v>-40.1248631230295</v>
       </c>
@@ -1820,10 +1976,18 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="n">
         <v>-41.4384597885323</v>
       </c>
@@ -1886,10 +2050,18 @@
       <c r="E21" t="n">
         <v>3</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="n">
         <v>-30.1797821437817</v>
       </c>
@@ -1952,10 +2124,18 @@
       <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" t="n">
         <v>-29.1826965474694</v>
       </c>
@@ -2018,10 +2198,18 @@
       <c r="E23" t="n">
         <v>2</v>
       </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="n">
         <v>-37.9002367767737</v>
       </c>
@@ -2084,10 +2272,18 @@
       <c r="E24" t="n">
         <v>6</v>
       </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="n">
         <v>-38.2981048882233</v>
       </c>
@@ -2150,10 +2346,18 @@
       <c r="E25" t="n">
         <v>5</v>
       </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="n">
         <v>-41.4581940228317</v>
       </c>
@@ -2216,10 +2420,18 @@
       <c r="E26" t="n">
         <v>4</v>
       </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="n">
         <v>-46.9463028218988</v>
       </c>
@@ -2282,10 +2494,18 @@
       <c r="E27" t="n">
         <v>7</v>
       </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="n">
         <v>-44.9310010865826</v>
       </c>
@@ -2348,10 +2568,18 @@
       <c r="E28" t="n">
         <v>4</v>
       </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="n">
         <v>-40.4764859325242</v>
       </c>
@@ -2414,10 +2642,18 @@
       <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="n">
         <v>-34.4397641351299</v>
       </c>
@@ -2480,10 +2716,18 @@
       <c r="E30" t="n">
         <v>17</v>
       </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="n">
         <v>-32.9566144336543</v>
       </c>
@@ -2546,10 +2790,18 @@
       <c r="E31" t="n">
         <v>11</v>
       </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="n">
         <v>-38.8311745893647</v>
       </c>
@@ -2612,10 +2864,18 @@
       <c r="E32" t="n">
         <v>18</v>
       </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="n">
         <v>-41.8328547706065</v>
       </c>
@@ -2678,10 +2938,18 @@
       <c r="E33" t="n">
         <v>17</v>
       </c>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="n">
         <v>-52.3674640207938</v>
       </c>
@@ -2750,10 +3018,18 @@
       <c r="E34" t="n">
         <v>22</v>
       </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="n">
         <v>-48.3795985522046</v>
       </c>
@@ -2822,10 +3098,18 @@
       <c r="E35" t="n">
         <v>14</v>
       </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="n">
         <v>-40.8154146811308</v>
       </c>
@@ -2882,14 +3166,30 @@
       <c r="A36" s="1" t="n">
         <v>43928</v>
       </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="B36" t="n">
+        <v>8261</v>
+      </c>
+      <c r="C36" t="n">
+        <v>988</v>
+      </c>
+      <c r="D36" t="n">
+        <v>154</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7536</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7536</v>
+      </c>
       <c r="J36" t="n">
         <v>-38.6660534848321</v>
       </c>
@@ -2946,14 +3246,30 @@
       <c r="A37" s="1" t="n">
         <v>43929</v>
       </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="B37" t="n">
+        <v>9353</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1092</v>
+      </c>
+      <c r="D37" t="n">
+        <v>177</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8397</v>
+      </c>
+      <c r="I37" t="n">
+        <v>861</v>
+      </c>
       <c r="J37" t="n">
         <v>-38.1490062280978</v>
       </c>
@@ -3010,14 +3326,30 @@
       <c r="A38" s="1" t="n">
         <v>43930</v>
       </c>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="B38" t="n">
+        <v>10230</v>
+      </c>
+      <c r="C38" t="n">
+        <v>877</v>
+      </c>
+      <c r="D38" t="n">
+        <v>199</v>
+      </c>
+      <c r="E38" t="n">
+        <v>22</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8919</v>
+      </c>
+      <c r="I38" t="n">
+        <v>522</v>
+      </c>
       <c r="J38" t="n">
         <v>-39.0670104425334</v>
       </c>
@@ -3074,14 +3406,30 @@
       <c r="A39" s="1" t="n">
         <v>43931</v>
       </c>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="B39" t="n">
+        <v>11671</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D39" t="n">
+        <v>226</v>
+      </c>
+      <c r="E39" t="n">
+        <v>27</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10067</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1148</v>
+      </c>
       <c r="J39" t="n">
         <v>-40.0556161826443</v>
       </c>
@@ -3138,14 +3486,30 @@
       <c r="A40" s="1" t="n">
         <v>43932</v>
       </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="B40" t="n">
+        <v>12561</v>
+      </c>
+      <c r="C40" t="n">
+        <v>890</v>
+      </c>
+      <c r="D40" t="n">
+        <v>254</v>
+      </c>
+      <c r="E40" t="n">
+        <v>28</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10682</v>
+      </c>
+      <c r="I40" t="n">
+        <v>615</v>
+      </c>
       <c r="J40" t="n">
         <v>-45.7967500059682</v>
       </c>
@@ -3202,14 +3566,30 @@
       <c r="A41" s="1" t="n">
         <v>43933</v>
       </c>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
+      <c r="B41" t="n">
+        <v>13484</v>
+      </c>
+      <c r="C41" t="n">
+        <v>923</v>
+      </c>
+      <c r="D41" t="n">
+        <v>271</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11190</v>
+      </c>
+      <c r="I41" t="n">
+        <v>508</v>
+      </c>
       <c r="J41" t="n">
         <v>-57.344089248523</v>
       </c>
@@ -3266,14 +3646,30 @@
       <c r="A42" s="1" t="n">
         <v>43934</v>
       </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="B42" t="n">
+        <v>13906</v>
+      </c>
+      <c r="C42" t="n">
+        <v>422</v>
+      </c>
+      <c r="D42" t="n">
+        <v>287</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11341</v>
+      </c>
+      <c r="I42" t="n">
+        <v>151</v>
+      </c>
       <c r="J42" t="n">
         <v>-37.6640012655913</v>
       </c>
@@ -3330,14 +3726,30 @@
       <c r="A43" s="1" t="n">
         <v>43935</v>
       </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
+      <c r="B43" t="n">
+        <v>14624</v>
+      </c>
+      <c r="C43" t="n">
+        <v>718</v>
+      </c>
+      <c r="D43" t="n">
+        <v>318</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>11718</v>
+      </c>
+      <c r="I43" t="n">
+        <v>377</v>
+      </c>
       <c r="J43" t="n">
         <v>-36.0416271437831</v>
       </c>
@@ -3394,14 +3806,30 @@
       <c r="A44" s="1" t="n">
         <v>43936</v>
       </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="B44" t="n">
+        <v>15492</v>
+      </c>
+      <c r="C44" t="n">
+        <v>868</v>
+      </c>
+      <c r="D44" t="n">
+        <v>364</v>
+      </c>
+      <c r="E44" t="n">
+        <v>46</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11972</v>
+      </c>
+      <c r="I44" t="n">
+        <v>254</v>
+      </c>
       <c r="J44" t="n">
         <v>-28.0862519421421</v>
       </c>
@@ -3458,14 +3886,30 @@
       <c r="A45" s="1" t="n">
         <v>43937</v>
       </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
+      <c r="B45" t="n">
+        <v>16455</v>
+      </c>
+      <c r="C45" t="n">
+        <v>963</v>
+      </c>
+      <c r="D45" t="n">
+        <v>393</v>
+      </c>
+      <c r="E45" t="n">
+        <v>29</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12379</v>
+      </c>
+      <c r="I45" t="n">
+        <v>407</v>
+      </c>
       <c r="J45" t="n">
         <v>-31.7972408064276</v>
       </c>
@@ -3522,14 +3966,30 @@
       <c r="A46" s="1" t="n">
         <v>43938</v>
       </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="B46" t="n">
+        <v>17371</v>
+      </c>
+      <c r="C46" t="n">
+        <v>916</v>
+      </c>
+      <c r="D46" t="n">
+        <v>428</v>
+      </c>
+      <c r="E46" t="n">
+        <v>35</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12750</v>
+      </c>
+      <c r="I46" t="n">
+        <v>371</v>
+      </c>
       <c r="J46" t="n">
         <v>-37.5721775381391</v>
       </c>
@@ -3586,14 +4046,30 @@
       <c r="A47" s="1" t="n">
         <v>43939</v>
       </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="B47" t="n">
+        <v>18260</v>
+      </c>
+      <c r="C47" t="n">
+        <v>889</v>
+      </c>
+      <c r="D47" t="n">
+        <v>453</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12992</v>
+      </c>
+      <c r="I47" t="n">
+        <v>242</v>
+      </c>
       <c r="J47" t="n">
         <v>-41.5843221902067</v>
       </c>
@@ -3650,14 +4126,30 @@
       <c r="A48" s="1" t="n">
         <v>43940</v>
       </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="B48" t="n">
+        <v>18923</v>
+      </c>
+      <c r="C48" t="n">
+        <v>663</v>
+      </c>
+      <c r="D48" t="n">
+        <v>477</v>
+      </c>
+      <c r="E48" t="n">
+        <v>24</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>13143</v>
+      </c>
+      <c r="I48" t="n">
+        <v>151</v>
+      </c>
       <c r="J48" t="n">
         <v>-42.9080603563485</v>
       </c>
@@ -3714,14 +4206,30 @@
       <c r="A49" s="1" t="n">
         <v>43941</v>
       </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
+      <c r="B49" t="n">
+        <v>19458</v>
+      </c>
+      <c r="C49" t="n">
+        <v>535</v>
+      </c>
+      <c r="D49" t="n">
+        <v>495</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13303</v>
+      </c>
+      <c r="I49" t="n">
+        <v>160</v>
+      </c>
       <c r="J49" t="n">
         <v>-32.2531151405304</v>
       </c>
@@ -3778,14 +4286,30 @@
       <c r="A50" s="1" t="n">
         <v>43942</v>
       </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
+      <c r="B50" t="n">
+        <v>20196</v>
+      </c>
+      <c r="C50" t="n">
+        <v>738</v>
+      </c>
+      <c r="D50" t="n">
+        <v>517</v>
+      </c>
+      <c r="E50" t="n">
+        <v>22</v>
+      </c>
+      <c r="F50" t="n">
+        <v>159732</v>
+      </c>
+      <c r="G50" t="n">
+        <v>159732</v>
+      </c>
+      <c r="H50" t="n">
+        <v>13453</v>
+      </c>
+      <c r="I50" t="n">
+        <v>150</v>
+      </c>
       <c r="J50" t="n">
         <v>-31.4694750910091</v>
       </c>
@@ -3842,14 +4366,30 @@
       <c r="A51" s="1" t="n">
         <v>43943</v>
       </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="B51" t="n">
+        <v>21069</v>
+      </c>
+      <c r="C51" t="n">
+        <v>873</v>
+      </c>
+      <c r="D51" t="n">
+        <v>543</v>
+      </c>
+      <c r="E51" t="n">
+        <v>26</v>
+      </c>
+      <c r="F51" t="n">
+        <v>166291</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6559</v>
+      </c>
+      <c r="H51" t="n">
+        <v>13816</v>
+      </c>
+      <c r="I51" t="n">
+        <v>363</v>
+      </c>
       <c r="J51" t="n">
         <v>-33.4839889461197</v>
       </c>
@@ -3906,14 +4446,30 @@
       <c r="A52" s="1" t="n">
         <v>43944</v>
       </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="B52" t="n">
+        <v>21944</v>
+      </c>
+      <c r="C52" t="n">
+        <v>875</v>
+      </c>
+      <c r="D52" t="n">
+        <v>561</v>
+      </c>
+      <c r="E52" t="n">
+        <v>18</v>
+      </c>
+      <c r="F52" t="n">
+        <v>168259</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1968</v>
+      </c>
+      <c r="H52" t="n">
+        <v>14136</v>
+      </c>
+      <c r="I52" t="n">
+        <v>320</v>
+      </c>
       <c r="J52" t="n">
         <v>-30.8482610872562</v>
       </c>
@@ -3970,14 +4526,30 @@
       <c r="A53" s="1" t="n">
         <v>43945</v>
       </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
+      <c r="B53" t="n">
+        <v>22806</v>
+      </c>
+      <c r="C53" t="n">
+        <v>862</v>
+      </c>
+      <c r="D53" t="n">
+        <v>593</v>
+      </c>
+      <c r="E53" t="n">
+        <v>32</v>
+      </c>
+      <c r="F53" t="n">
+        <v>192594</v>
+      </c>
+      <c r="G53" t="n">
+        <v>24335</v>
+      </c>
+      <c r="H53" t="n">
+        <v>14412</v>
+      </c>
+      <c r="I53" t="n">
+        <v>276</v>
+      </c>
       <c r="J53" t="n">
         <v>-33.3420781079067</v>
       </c>
@@ -4034,14 +4606,30 @@
       <c r="A54" s="1" t="n">
         <v>43946</v>
       </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
+      <c r="B54" t="n">
+        <v>23773</v>
+      </c>
+      <c r="C54" t="n">
+        <v>967</v>
+      </c>
+      <c r="D54" t="n">
+        <v>623</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30</v>
+      </c>
+      <c r="F54" t="n">
+        <v>207176</v>
+      </c>
+      <c r="G54" t="n">
+        <v>14582</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14804</v>
+      </c>
+      <c r="I54" t="n">
+        <v>392</v>
+      </c>
       <c r="J54" t="n">
         <v>-36.9581007611221</v>
       </c>
@@ -4098,14 +4686,30 @@
       <c r="A55" s="1" t="n">
         <v>43947</v>
       </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="B55" t="n">
+        <v>24631</v>
+      </c>
+      <c r="C55" t="n">
+        <v>858</v>
+      </c>
+      <c r="D55" t="n">
+        <v>648</v>
+      </c>
+      <c r="E55" t="n">
+        <v>25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>209808</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2632</v>
+      </c>
+      <c r="H55" t="n">
+        <v>15301</v>
+      </c>
+      <c r="I55" t="n">
+        <v>497</v>
+      </c>
       <c r="J55" t="n">
         <v>-35.3385461462975</v>
       </c>
@@ -4162,14 +4766,30 @@
       <c r="A56" s="1" t="n">
         <v>43948</v>
       </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="B56" t="n">
+        <v>25297</v>
+      </c>
+      <c r="C56" t="n">
+        <v>666</v>
+      </c>
+      <c r="D56" t="n">
+        <v>663</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15</v>
+      </c>
+      <c r="F56" t="n">
+        <v>218668</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8860</v>
+      </c>
+      <c r="H56" t="n">
+        <v>15587</v>
+      </c>
+      <c r="I56" t="n">
+        <v>286</v>
+      </c>
       <c r="J56" t="n">
         <v>-28.8071805569653</v>
       </c>
@@ -4226,14 +4846,30 @@
       <c r="A57" s="1" t="n">
         <v>43949</v>
       </c>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="B57" t="n">
+        <v>26171</v>
+      </c>
+      <c r="C57" t="n">
+        <v>874</v>
+      </c>
+      <c r="D57" t="n">
+        <v>690</v>
+      </c>
+      <c r="E57" t="n">
+        <v>27</v>
+      </c>
+      <c r="F57" t="n">
+        <v>222037</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3369</v>
+      </c>
+      <c r="H57" t="n">
+        <v>15816</v>
+      </c>
+      <c r="I57" t="n">
+        <v>229</v>
+      </c>
       <c r="J57" t="n">
         <v>-29.7323292998845</v>
       </c>
@@ -4290,14 +4926,30 @@
       <c r="A58" s="1" t="n">
         <v>43950</v>
       </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="B58" t="n">
+        <v>27054</v>
+      </c>
+      <c r="C58" t="n">
+        <v>883</v>
+      </c>
+      <c r="D58" t="n">
+        <v>732</v>
+      </c>
+      <c r="E58" t="n">
+        <v>42</v>
+      </c>
+      <c r="F58" t="n">
+        <v>236697</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14660</v>
+      </c>
+      <c r="H58" t="n">
+        <v>16129</v>
+      </c>
+      <c r="I58" t="n">
+        <v>313</v>
+      </c>
       <c r="J58" t="n">
         <v>-26.2420292982948</v>
       </c>
@@ -4354,14 +5006,30 @@
       <c r="A59" s="1" t="n">
         <v>43951</v>
       </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
+      <c r="B59" t="n">
+        <v>28087</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D59" t="n">
+        <v>782</v>
+      </c>
+      <c r="E59" t="n">
+        <v>50</v>
+      </c>
+      <c r="F59" t="n">
+        <v>247200</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10503</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16321</v>
+      </c>
+      <c r="I59" t="n">
+        <v>192</v>
+      </c>
       <c r="J59" t="n">
         <v>-25.2811109287165</v>
       </c>
@@ -4418,14 +5086,30 @@
       <c r="A60" s="1" t="n">
         <v>43952</v>
       </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="B60" t="n">
+        <v>29229</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D60" t="n">
+        <v>816</v>
+      </c>
+      <c r="E60" t="n">
+        <v>34</v>
+      </c>
+      <c r="F60" t="n">
+        <v>246567</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-633</v>
+      </c>
+      <c r="H60" t="n">
+        <v>16873</v>
+      </c>
+      <c r="I60" t="n">
+        <v>552</v>
+      </c>
       <c r="J60" t="n">
         <v>-25.7154533646763</v>
       </c>
@@ -4482,14 +5166,30 @@
       <c r="A61" s="1" t="n">
         <v>43953</v>
       </c>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="B61" t="n">
+        <v>30522</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1293</v>
+      </c>
+      <c r="D61" t="n">
+        <v>847</v>
+      </c>
+      <c r="E61" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" t="n">
+        <v>257306</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10739</v>
+      </c>
+      <c r="H61" t="n">
+        <v>17616</v>
+      </c>
+      <c r="I61" t="n">
+        <v>743</v>
+      </c>
       <c r="J61" t="n">
         <v>-29.6274356249058</v>
       </c>
@@ -4546,14 +5246,30 @@
       <c r="A62" s="1" t="n">
         <v>43954</v>
       </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="B62" t="n">
+        <v>31548</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D62" t="n">
+        <v>867</v>
+      </c>
+      <c r="E62" t="n">
+        <v>20</v>
+      </c>
+      <c r="F62" t="n">
+        <v>257977</v>
+      </c>
+      <c r="G62" t="n">
+        <v>671</v>
+      </c>
+      <c r="H62" t="n">
+        <v>18223</v>
+      </c>
+      <c r="I62" t="n">
+        <v>607</v>
+      </c>
       <c r="J62" t="n">
         <v>-28.2676246457901</v>
       </c>
@@ -4610,14 +5326,30 @@
       <c r="A63" s="1" t="n">
         <v>43955</v>
       </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="B63" t="n">
+        <v>32332</v>
+      </c>
+      <c r="C63" t="n">
+        <v>784</v>
+      </c>
+      <c r="D63" t="n">
+        <v>884</v>
+      </c>
+      <c r="E63" t="n">
+        <v>17</v>
+      </c>
+      <c r="F63" t="n">
+        <v>272725</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14748</v>
+      </c>
+      <c r="H63" t="n">
+        <v>18565</v>
+      </c>
+      <c r="I63" t="n">
+        <v>342</v>
+      </c>
       <c r="J63" t="n">
         <v>-21.7228567145745</v>
       </c>
@@ -4674,14 +5406,30 @@
       <c r="A64" s="1" t="n">
         <v>43956</v>
       </c>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="B64" t="n">
+        <v>33369</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D64" t="n">
+        <v>906</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18898</v>
+      </c>
+      <c r="I64" t="n">
+        <v>333</v>
+      </c>
       <c r="J64" t="n">
         <v>-19.9448648671118</v>
       </c>
@@ -4738,14 +5486,30 @@
       <c r="A65" s="1" t="n">
         <v>43957</v>
       </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
+      <c r="B65" t="n">
+        <v>34422</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1053</v>
+      </c>
+      <c r="D65" t="n">
+        <v>948</v>
+      </c>
+      <c r="E65" t="n">
+        <v>42</v>
+      </c>
+      <c r="F65" t="n">
+        <v>292037</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>19318</v>
+      </c>
+      <c r="I65" t="n">
+        <v>420</v>
+      </c>
       <c r="J65" t="n">
         <v>-19.2115637675822</v>
       </c>
@@ -4802,14 +5566,30 @@
       <c r="A66" s="1" t="n">
         <v>43958</v>
       </c>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="B66" t="n">
+        <v>35390</v>
+      </c>
+      <c r="C66" t="n">
+        <v>968</v>
+      </c>
+      <c r="D66" t="n">
+        <v>973</v>
+      </c>
+      <c r="E66" t="n">
+        <v>25</v>
+      </c>
+      <c r="F66" t="n">
+        <v>314439</v>
+      </c>
+      <c r="G66" t="n">
+        <v>22402</v>
+      </c>
+      <c r="H66" t="n">
+        <v>19529</v>
+      </c>
+      <c r="I66" t="n">
+        <v>211</v>
+      </c>
       <c r="J66" t="n">
         <v>-21.6181055424902</v>
       </c>
@@ -4866,14 +5646,30 @@
       <c r="A67" s="1" t="n">
         <v>43959</v>
       </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="B67" t="n">
+        <v>36609</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E67" t="n">
+        <v>31</v>
+      </c>
+      <c r="F67" t="n">
+        <v>341218</v>
+      </c>
+      <c r="G67" t="n">
+        <v>26779</v>
+      </c>
+      <c r="H67" t="n">
+        <v>20148</v>
+      </c>
+      <c r="I67" t="n">
+        <v>619</v>
+      </c>
       <c r="J67" t="n">
         <v>-22.8718917310829</v>
       </c>
@@ -4930,14 +5726,30 @@
       <c r="A68" s="1" t="n">
         <v>43960</v>
       </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="B68" t="n">
+        <v>37860</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E68" t="n">
+        <v>45</v>
+      </c>
+      <c r="F68" t="n">
+        <v>363188</v>
+      </c>
+      <c r="G68" t="n">
+        <v>21970</v>
+      </c>
+      <c r="H68" t="n">
+        <v>19529</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-619</v>
+      </c>
       <c r="J68" t="n">
         <v>-21.9718406418679</v>
       </c>
@@ -4998,14 +5810,30 @@
       <c r="A69" s="1" t="n">
         <v>43961</v>
       </c>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="B69" t="n">
+        <v>38869</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1088</v>
+      </c>
+      <c r="E69" t="n">
+        <v>39</v>
+      </c>
+      <c r="F69" t="n">
+        <v>387227</v>
+      </c>
+      <c r="G69" t="n">
+        <v>24039</v>
+      </c>
+      <c r="H69" t="n">
+        <v>21472</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1943</v>
+      </c>
       <c r="J69" t="n">
         <v>-22.0029172128455</v>
       </c>
@@ -5066,14 +5894,30 @@
       <c r="A70" s="1" t="n">
         <v>43962</v>
       </c>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="B70" t="n">
+        <v>39869</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>407026</v>
+      </c>
+      <c r="G70" t="n">
+        <v>19799</v>
+      </c>
+      <c r="H70" t="n">
+        <v>21935</v>
+      </c>
+      <c r="I70" t="n">
+        <v>463</v>
+      </c>
       <c r="J70" t="n">
         <v>-20.5632652644066</v>
       </c>
@@ -5134,14 +5978,30 @@
       <c r="A71" s="1" t="n">
         <v>43963</v>
       </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
+      <c r="B71" t="n">
+        <v>41048</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1179</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1133</v>
+      </c>
+      <c r="E71" t="n">
+        <v>33</v>
+      </c>
+      <c r="F71" t="n">
+        <v>440063</v>
+      </c>
+      <c r="G71" t="n">
+        <v>33037</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22305</v>
+      </c>
+      <c r="I71" t="n">
+        <v>370</v>
+      </c>
       <c r="J71" t="n">
         <v>-20.7641764917988</v>
       </c>
@@ -5202,14 +6062,30 @@
       <c r="A72" s="1" t="n">
         <v>43964</v>
       </c>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="B72" t="n">
+        <v>42403</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1158</v>
+      </c>
+      <c r="E72" t="n">
+        <v>25</v>
+      </c>
+      <c r="F72" t="n">
+        <v>459530</v>
+      </c>
+      <c r="G72" t="n">
+        <v>19467</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22975</v>
+      </c>
+      <c r="I72" t="n">
+        <v>670</v>
+      </c>
       <c r="J72" t="n">
         <v>-17.3542990195605</v>
       </c>
@@ -5270,14 +6146,30 @@
       <c r="A73" s="1" t="n">
         <v>43965</v>
       </c>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="B73" t="n">
+        <v>43851</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1448</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1216</v>
+      </c>
+      <c r="E73" t="n">
+        <v>58</v>
+      </c>
+      <c r="F73" t="n">
+        <v>488426</v>
+      </c>
+      <c r="G73" t="n">
+        <v>28896</v>
+      </c>
+      <c r="H73" t="n">
+        <v>23665</v>
+      </c>
+      <c r="I73" t="n">
+        <v>690</v>
+      </c>
       <c r="J73" t="n">
         <v>-19.2712914999668</v>
       </c>
@@ -5338,14 +6230,30 @@
       <c r="A74" s="1" t="n">
         <v>43966</v>
       </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="B74" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1347</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E74" t="n">
+        <v>56</v>
+      </c>
+      <c r="F74" t="n">
+        <v>494909</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6483</v>
+      </c>
+      <c r="H74" t="n">
+        <v>23952</v>
+      </c>
+      <c r="I74" t="n">
+        <v>287</v>
+      </c>
       <c r="J74" t="n">
         <v>-23.7791613490402</v>
       </c>
@@ -5406,14 +6314,30 @@
       <c r="A75" s="1" t="n">
         <v>43967</v>
       </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
+      <c r="B75" t="n">
+        <v>46999</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E75" t="n">
+        <v>33</v>
+      </c>
+      <c r="F75" t="n">
+        <v>514435</v>
+      </c>
+      <c r="G75" t="n">
+        <v>19526</v>
+      </c>
+      <c r="H75" t="n">
+        <v>24852</v>
+      </c>
+      <c r="I75" t="n">
+        <v>900</v>
+      </c>
       <c r="J75" t="n">
         <v>-28.1096455748433</v>
       </c>
@@ -5480,14 +6404,30 @@
       <c r="A76" s="1" t="n">
         <v>43968</v>
       </c>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="B76" t="n">
+        <v>47784</v>
+      </c>
+      <c r="C76" t="n">
+        <v>785</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1336</v>
+      </c>
+      <c r="E76" t="n">
+        <v>31</v>
+      </c>
+      <c r="F76" t="n">
+        <v>538559</v>
+      </c>
+      <c r="G76" t="n">
+        <v>24124</v>
+      </c>
+      <c r="H76" t="n">
+        <v>25343</v>
+      </c>
+      <c r="I76" t="n">
+        <v>491</v>
+      </c>
       <c r="J76" t="n">
         <v>-21.0008566075914</v>
       </c>
@@ -5554,14 +6494,30 @@
       <c r="A77" s="1" t="n">
         <v>43969</v>
       </c>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
+      <c r="B77" t="n">
+        <v>48693</v>
+      </c>
+      <c r="C77" t="n">
+        <v>909</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1347</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11</v>
+      </c>
+      <c r="F77" t="n">
+        <v>567282</v>
+      </c>
+      <c r="G77" t="n">
+        <v>28723</v>
+      </c>
+      <c r="H77" t="n">
+        <v>25573</v>
+      </c>
+      <c r="I77" t="n">
+        <v>230</v>
+      </c>
       <c r="J77" t="n">
         <v>-15.4906793391823</v>
       </c>
@@ -5628,14 +6584,30 @@
       <c r="A78" s="1" t="n">
         <v>43970</v>
       </c>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
+      <c r="B78" t="n">
+        <v>49912</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E78" t="n">
+        <v>22</v>
+      </c>
+      <c r="F78" t="n">
+        <v>600816</v>
+      </c>
+      <c r="G78" t="n">
+        <v>33534</v>
+      </c>
+      <c r="H78" t="n">
+        <v>25880</v>
+      </c>
+      <c r="I78" t="n">
+        <v>307</v>
+      </c>
       <c r="J78" t="n">
         <v>-13.7555330246881</v>
       </c>
@@ -5702,14 +6674,30 @@
       <c r="A79" s="1" t="n">
         <v>43971</v>
       </c>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+      <c r="B79" t="n">
+        <v>51323</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1411</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E79" t="n">
+        <v>50</v>
+      </c>
+      <c r="F79" t="n">
+        <v>624101</v>
+      </c>
+      <c r="G79" t="n">
+        <v>23285</v>
+      </c>
+      <c r="H79" t="n">
+        <v>26123</v>
+      </c>
+      <c r="I79" t="n">
+        <v>243</v>
+      </c>
       <c r="J79" t="n">
         <v>-12.5135392030407</v>
       </c>
@@ -5776,14 +6764,30 @@
       <c r="A80" s="1" t="n">
         <v>43972</v>
       </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="B80" t="n">
+        <v>52268</v>
+      </c>
+      <c r="C80" t="n">
+        <v>945</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E80" t="n">
+        <v>21</v>
+      </c>
+      <c r="F80" t="n">
+        <v>643274</v>
+      </c>
+      <c r="G80" t="n">
+        <v>19173</v>
+      </c>
+      <c r="H80" t="n">
+        <v>26126</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
       <c r="J80" t="n">
         <v>-13.7164176659603</v>
       </c>
@@ -5850,14 +6854,30 @@
       <c r="A81" s="1" t="n">
         <v>43973</v>
       </c>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="B81" t="n">
+        <v>53449</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E81" t="n">
+        <v>40</v>
+      </c>
+      <c r="F81" t="n">
+        <v>660292</v>
+      </c>
+      <c r="G81" t="n">
+        <v>17018</v>
+      </c>
+      <c r="H81" t="n">
+        <v>26410</v>
+      </c>
+      <c r="I81" t="n">
+        <v>284</v>
+      </c>
       <c r="J81" t="n">
         <v>-16.510298238066</v>
       </c>
@@ -5924,14 +6944,30 @@
       <c r="A82" s="1" t="n">
         <v>43974</v>
       </c>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
+      <c r="B82" t="n">
+        <v>54509</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1506</v>
+      </c>
+      <c r="E82" t="n">
+        <v>26</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>26719</v>
+      </c>
+      <c r="I82" t="n">
+        <v>309</v>
+      </c>
       <c r="J82" t="n">
         <v>-21.2110788081011</v>
       </c>
@@ -5988,14 +7024,30 @@
       <c r="A83" s="1" t="n">
         <v>43975</v>
       </c>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
+      <c r="B83" t="n">
+        <v>55348</v>
+      </c>
+      <c r="C83" t="n">
+        <v>839</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1519</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="n">
+        <v>693081</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>27045</v>
+      </c>
+      <c r="I83" t="n">
+        <v>326</v>
+      </c>
       <c r="J83" t="n">
         <v>-21.6364635509513</v>
       </c>
@@ -6062,14 +7114,30 @@
       <c r="A84" s="1" t="n">
         <v>43976</v>
       </c>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="B84" t="n">
+        <v>55971</v>
+      </c>
+      <c r="C84" t="n">
+        <v>623</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E84" t="n">
+        <v>8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>715555</v>
+      </c>
+      <c r="G84" t="n">
+        <v>22474</v>
+      </c>
+      <c r="H84" t="n">
+        <v>27164</v>
+      </c>
+      <c r="I84" t="n">
+        <v>119</v>
+      </c>
       <c r="J84" t="n">
         <v>-20.8724478591222</v>
       </c>
@@ -6136,14 +7204,30 @@
       <c r="A85" s="1" t="n">
         <v>43977</v>
       </c>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="B85" t="n">
+        <v>56560</v>
+      </c>
+      <c r="C85" t="n">
+        <v>589</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1536</v>
+      </c>
+      <c r="E85" t="n">
+        <v>9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>735081</v>
+      </c>
+      <c r="G85" t="n">
+        <v>19526</v>
+      </c>
+      <c r="H85" t="n">
+        <v>26902</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-262</v>
+      </c>
       <c r="J85" t="n">
         <v>-13.7839418235026</v>
       </c>
@@ -6210,14 +7294,30 @@
       <c r="A86" s="1" t="n">
         <v>43978</v>
       </c>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="B86" t="n">
+        <v>57921</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1361</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1562</v>
+      </c>
+      <c r="E86" t="n">
+        <v>26</v>
+      </c>
+      <c r="F86" t="n">
+        <v>749249</v>
+      </c>
+      <c r="G86" t="n">
+        <v>14168</v>
+      </c>
+      <c r="H86" t="n">
+        <v>27115</v>
+      </c>
+      <c r="I86" t="n">
+        <v>213</v>
+      </c>
       <c r="J86" t="n">
         <v>-12.8163696895122</v>
       </c>
@@ -6284,14 +7384,30 @@
       <c r="A87" s="1" t="n">
         <v>43979</v>
       </c>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
+      <c r="B87" t="n">
+        <v>59776</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1601</v>
+      </c>
+      <c r="E87" t="n">
+        <v>39</v>
+      </c>
+      <c r="F87" t="n">
+        <v>773877</v>
+      </c>
+      <c r="G87" t="n">
+        <v>24628</v>
+      </c>
+      <c r="H87" t="n">
+        <v>27981</v>
+      </c>
+      <c r="I87" t="n">
+        <v>866</v>
+      </c>
       <c r="J87" t="n">
         <v>-12.2990716093874</v>
       </c>
@@ -6358,14 +7474,30 @@
       <c r="A88" s="1" t="n">
         <v>43980</v>
       </c>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
+      <c r="B88" t="n">
+        <v>61006</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1626</v>
+      </c>
+      <c r="E88" t="n">
+        <v>25</v>
+      </c>
+      <c r="F88" t="n">
+        <v>790564</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16687</v>
+      </c>
+      <c r="H88" t="n">
+        <v>28076</v>
+      </c>
+      <c r="I88" t="n">
+        <v>95</v>
+      </c>
       <c r="J88" t="n">
         <v>-14.8114891939568</v>
       </c>
@@ -6432,14 +7564,30 @@
       <c r="A89" s="1" t="n">
         <v>43981</v>
       </c>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
+      <c r="B89" t="n">
+        <v>62338</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1648</v>
+      </c>
+      <c r="E89" t="n">
+        <v>22</v>
+      </c>
+      <c r="F89" t="n">
+        <v>813397</v>
+      </c>
+      <c r="G89" t="n">
+        <v>22833</v>
+      </c>
+      <c r="H89" t="n">
+        <v>28594</v>
+      </c>
+      <c r="I89" t="n">
+        <v>518</v>
+      </c>
       <c r="J89" t="n">
         <v>-17.9461017544687</v>
       </c>
@@ -6500,14 +7648,30 @@
       <c r="A90" s="1" t="n">
         <v>43982</v>
       </c>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
+      <c r="B90" t="n">
+        <v>64287</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1672</v>
+      </c>
+      <c r="E90" t="n">
+        <v>24</v>
+      </c>
+      <c r="F90" t="n">
+        <v>820912</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7515</v>
+      </c>
+      <c r="H90" t="n">
+        <v>30067</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1473</v>
+      </c>
       <c r="J90" t="n">
         <v>-17.51293374641</v>
       </c>
@@ -6574,14 +7738,30 @@
       <c r="A91" s="1" t="n">
         <v>43983</v>
       </c>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
+      <c r="B91" t="n">
+        <v>64880</v>
+      </c>
+      <c r="C91" t="n">
+        <v>593</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>865155</v>
+      </c>
+      <c r="G91" t="n">
+        <v>44243</v>
+      </c>
+      <c r="H91" t="n">
+        <v>29742</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-325</v>
+      </c>
       <c r="J91" t="n">
         <v>-10.9139293409069</v>
       </c>
@@ -6648,14 +7828,30 @@
       <c r="A92" s="1" t="n">
         <v>43984</v>
       </c>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="B92" t="n">
+        <v>66568</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1698</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20</v>
+      </c>
+      <c r="F92" t="n">
+        <v>903048</v>
+      </c>
+      <c r="G92" t="n">
+        <v>37893</v>
+      </c>
+      <c r="H92" t="n">
+        <v>30365</v>
+      </c>
+      <c r="I92" t="n">
+        <v>623</v>
+      </c>
       <c r="J92" t="n">
         <v>-9.8456150866523</v>
       </c>
@@ -6722,14 +7918,30 @@
       <c r="A93" s="1" t="n">
         <v>43985</v>
       </c>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
+      <c r="B93" t="n">
+        <v>68271</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1703</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1734</v>
+      </c>
+      <c r="E93" t="n">
+        <v>36</v>
+      </c>
+      <c r="F93" t="n">
+        <v>899228</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3820</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30654</v>
+      </c>
+      <c r="I93" t="n">
+        <v>289</v>
+      </c>
       <c r="J93" t="n">
         <v>-8.30255283709351</v>
       </c>
@@ -6796,14 +8008,30 @@
       <c r="A94" s="1" t="n">
         <v>43986</v>
       </c>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
+      <c r="B94" t="n">
+        <v>69920</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1767</v>
+      </c>
+      <c r="E94" t="n">
+        <v>33</v>
+      </c>
+      <c r="F94" t="n">
+        <v>923236</v>
+      </c>
+      <c r="G94" t="n">
+        <v>24008</v>
+      </c>
+      <c r="H94" t="n">
+        <v>30041</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-613</v>
+      </c>
       <c r="J94" t="n">
         <v>-10.0919010778071</v>
       </c>
@@ -6870,14 +8098,30 @@
       <c r="A95" s="1" t="n">
         <v>43987</v>
       </c>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
+      <c r="B95" t="n">
+        <v>71613</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1693</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E95" t="n">
+        <v>21</v>
+      </c>
+      <c r="F95" t="n">
+        <v>935487</v>
+      </c>
+      <c r="G95" t="n">
+        <v>12251</v>
+      </c>
+      <c r="H95" t="n">
+        <v>30540</v>
+      </c>
+      <c r="I95" t="n">
+        <v>499</v>
+      </c>
       <c r="J95" t="n">
         <v>-13.3644401305106</v>
       </c>
@@ -6944,14 +8188,30 @@
       <c r="A96" s="1" t="n">
         <v>43988</v>
       </c>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
+      <c r="B96" t="n">
+        <v>73553</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1819</v>
+      </c>
+      <c r="E96" t="n">
+        <v>31</v>
+      </c>
+      <c r="F96" t="n">
+        <v>960363</v>
+      </c>
+      <c r="G96" t="n">
+        <v>24876</v>
+      </c>
+      <c r="H96" t="n">
+        <v>31557</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1017</v>
+      </c>
       <c r="J96" t="n">
         <v>-16.652986223295</v>
       </c>
@@ -7018,14 +8278,30 @@
       <c r="A97" s="1" t="n">
         <v>43989</v>
       </c>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
+      <c r="B97" t="n">
+        <v>74978</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1425</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1014824</v>
+      </c>
+      <c r="G97" t="n">
+        <v>54461</v>
+      </c>
+      <c r="H97" t="n">
+        <v>32321</v>
+      </c>
+      <c r="I97" t="n">
+        <v>764</v>
+      </c>
       <c r="J97" t="n">
         <v>-13.690776147655</v>
       </c>
@@ -7092,14 +8368,30 @@
       <c r="A98" s="1" t="n">
         <v>43990</v>
       </c>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
+      <c r="B98" t="n">
+        <v>75616</v>
+      </c>
+      <c r="C98" t="n">
+        <v>638</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1836</v>
+      </c>
+      <c r="E98" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1029197</v>
+      </c>
+      <c r="G98" t="n">
+        <v>14373</v>
+      </c>
+      <c r="H98" t="n">
+        <v>32176</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-145</v>
+      </c>
       <c r="J98" t="n">
         <v>-11.5464238708719</v>
       </c>
@@ -7166,14 +8458,30 @@
       <c r="A99" s="1" t="n">
         <v>43991</v>
       </c>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
+      <c r="B99" t="n">
+        <v>77253</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1853</v>
+      </c>
+      <c r="E99" t="n">
+        <v>17</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1051218</v>
+      </c>
+      <c r="G99" t="n">
+        <v>22021</v>
+      </c>
+      <c r="H99" t="n">
+        <v>32727</v>
+      </c>
+      <c r="I99" t="n">
+        <v>551</v>
+      </c>
       <c r="J99" t="n">
         <v>-10.3496096270526</v>
       </c>
@@ -7240,14 +8548,30 @@
       <c r="A100" s="1" t="n">
         <v>43992</v>
       </c>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
+      <c r="B100" t="n">
+        <v>79757</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2504</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>33694</v>
+      </c>
+      <c r="I100" t="n">
+        <v>967</v>
+      </c>
       <c r="J100" t="n">
         <v>-7.57929471874838</v>
       </c>
@@ -7314,14 +8638,30 @@
       <c r="A101" s="1" t="n">
         <v>43993</v>
       </c>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
+      <c r="B101" t="n">
+        <v>81583</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1826</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1920</v>
+      </c>
+      <c r="E101" t="n">
+        <v>35</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1070849</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>33639</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-55</v>
+      </c>
       <c r="J101" t="n">
         <v>-9.34359879566639</v>
       </c>
@@ -7388,14 +8728,30 @@
       <c r="A102" s="1" t="n">
         <v>43994</v>
       </c>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
+      <c r="B102" t="n">
+        <v>83680</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2097</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E102" t="n">
+        <v>19</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1072466</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1617</v>
+      </c>
+      <c r="H102" t="n">
+        <v>34459</v>
+      </c>
+      <c r="I102" t="n">
+        <v>820</v>
+      </c>
       <c r="J102" t="n">
         <v>-12.5371620327149</v>
       </c>
@@ -7462,14 +8818,30 @@
       <c r="A103" s="1" t="n">
         <v>43995</v>
       </c>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
+      <c r="B103" t="n">
+        <v>86011</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2331</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1957</v>
+      </c>
+      <c r="E103" t="n">
+        <v>18</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1088326</v>
+      </c>
+      <c r="G103" t="n">
+        <v>15860</v>
+      </c>
+      <c r="H103" t="n">
+        <v>35698</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1239</v>
+      </c>
       <c r="J103" t="n">
         <v>-15.6726836046931</v>
       </c>
@@ -7536,14 +8908,30 @@
       <c r="A104" s="1" t="n">
         <v>43996</v>
       </c>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
+      <c r="B104" t="n">
+        <v>87854</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1843</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E104" t="n">
+        <v>19</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1112677</v>
+      </c>
+      <c r="G104" t="n">
+        <v>24351</v>
+      </c>
+      <c r="H104" t="n">
+        <v>36306</v>
+      </c>
+      <c r="I104" t="n">
+        <v>608</v>
+      </c>
       <c r="J104" t="n">
         <v>-13.0695557045546</v>
       </c>
@@ -7610,14 +8998,30 @@
       <c r="A105" s="1" t="n">
         <v>43997</v>
       </c>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
+      <c r="B105" t="n">
+        <v>89108</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1254</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1135749</v>
+      </c>
+      <c r="G105" t="n">
+        <v>23072</v>
+      </c>
+      <c r="H105" t="n">
+        <v>36622</v>
+      </c>
+      <c r="I105" t="n">
+        <v>316</v>
+      </c>
       <c r="J105" t="n">
         <v>-10.8146649415612</v>
       </c>
@@ -7684,14 +9088,30 @@
       <c r="A106" s="1" t="n">
         <v>43998</v>
       </c>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
+      <c r="B106" t="n">
+        <v>93206</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4098</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E106" t="n">
+        <v>46</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1169385</v>
+      </c>
+      <c r="G106" t="n">
+        <v>33636</v>
+      </c>
+      <c r="H106" t="n">
+        <v>38656</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2034</v>
+      </c>
       <c r="J106" t="n">
         <v>-9.72383735134715</v>
       </c>
@@ -7758,14 +9178,30 @@
       <c r="A107" s="1" t="n">
         <v>43999</v>
       </c>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
+      <c r="B107" t="n">
+        <v>96335</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3129</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2062</v>
+      </c>
+      <c r="E107" t="n">
+        <v>33</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1187367</v>
+      </c>
+      <c r="G107" t="n">
+        <v>17982</v>
+      </c>
+      <c r="H107" t="n">
+        <v>40152</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1496</v>
+      </c>
       <c r="J107" t="n">
         <v>-8.63655278723133</v>
       </c>
@@ -7832,14 +9268,30 @@
       <c r="A108" s="1" t="n">
         <v>44000</v>
       </c>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
+      <c r="B108" t="n">
+        <v>99851</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3516</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2105</v>
+      </c>
+      <c r="E108" t="n">
+        <v>43</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1212302</v>
+      </c>
+      <c r="G108" t="n">
+        <v>24935</v>
+      </c>
+      <c r="H108" t="n">
+        <v>42136</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1984</v>
+      </c>
       <c r="J108" t="n">
         <v>-9.57385655043652</v>
       </c>
@@ -7906,14 +9358,30 @@
       <c r="A109" s="1" t="n">
         <v>44001</v>
       </c>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
+      <c r="B109" t="n">
+        <v>103305</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3454</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2140</v>
+      </c>
+      <c r="E109" t="n">
+        <v>35</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1249858</v>
+      </c>
+      <c r="G109" t="n">
+        <v>37556</v>
+      </c>
+      <c r="H109" t="n">
+        <v>43807</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1671</v>
+      </c>
       <c r="J109" t="n">
         <v>-13.3844651256582</v>
       </c>
@@ -7980,14 +9448,30 @@
       <c r="A110" s="1" t="n">
         <v>44002</v>
       </c>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
+      <c r="B110" t="n">
+        <v>107735</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4430</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E110" t="n">
+        <v>25</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1286735</v>
+      </c>
+      <c r="G110" t="n">
+        <v>36877</v>
+      </c>
+      <c r="H110" t="n">
+        <v>46775</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2968</v>
+      </c>
       <c r="J110" t="n">
         <v>-16.1880187431881</v>
       </c>
@@ -8054,14 +9538,30 @@
       <c r="A111" s="1" t="n">
         <v>44003</v>
       </c>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
+      <c r="B111" t="n">
+        <v>111601</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3866</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2182</v>
+      </c>
+      <c r="E111" t="n">
+        <v>17</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1313265</v>
+      </c>
+      <c r="G111" t="n">
+        <v>26530</v>
+      </c>
+      <c r="H111" t="n">
+        <v>49601</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2826</v>
+      </c>
       <c r="J111" t="n">
         <v>-18.2397772931396</v>
       </c>
@@ -8128,14 +9628,30 @@
       <c r="A112" s="1" t="n">
         <v>44004</v>
       </c>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
+      <c r="B112" t="n">
+        <v>114881</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3280</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2192</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1350920</v>
+      </c>
+      <c r="G112" t="n">
+        <v>37655</v>
+      </c>
+      <c r="H112" t="n">
+        <v>51322</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1721</v>
+      </c>
       <c r="J112" t="n">
         <v>-16.8496589210196</v>
       </c>
@@ -8202,14 +9718,30 @@
       <c r="A113" s="1" t="n">
         <v>44005</v>
       </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
+      <c r="B113" t="n">
+        <v>120370</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5489</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2220</v>
+      </c>
+      <c r="E113" t="n">
+        <v>28</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>55207</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3885</v>
+      </c>
       <c r="J113" t="n">
         <v>-13.4676985155237</v>
       </c>
@@ -8276,14 +9808,30 @@
       <c r="A114" s="1" t="n">
         <v>44006</v>
       </c>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
+      <c r="B114" t="n">
+        <v>125921</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5551</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1399304</v>
+      </c>
+      <c r="G114" t="n">
+        <v>48384</v>
+      </c>
+      <c r="H114" t="n">
+        <v>58304</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3097</v>
+      </c>
       <c r="J114" t="n">
         <v>-12.1534593101042</v>
       </c>
@@ -8350,14 +9898,30 @@
       <c r="A115" s="1" t="n">
         <v>44007</v>
       </c>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
+      <c r="B115" t="n">
+        <v>131917</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5996</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2296</v>
+      </c>
+      <c r="E115" t="n">
+        <v>47</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1409858</v>
+      </c>
+      <c r="G115" t="n">
+        <v>10554</v>
+      </c>
+      <c r="H115" t="n">
+        <v>62321</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4017</v>
+      </c>
       <c r="J115" t="n">
         <v>-14.8345702943485</v>
       </c>
@@ -8424,14 +9988,30 @@
       <c r="A116" s="1" t="n">
         <v>44008</v>
       </c>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
+      <c r="B116" t="n">
+        <v>137624</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5707</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2324</v>
+      </c>
+      <c r="E116" t="n">
+        <v>28</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1444189</v>
+      </c>
+      <c r="G116" t="n">
+        <v>34331</v>
+      </c>
+      <c r="H116" t="n">
+        <v>65640</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3319</v>
+      </c>
       <c r="J116" t="n">
         <v>-19.461964206904</v>
       </c>
@@ -8498,14 +10078,30 @@
       <c r="A117" s="1" t="n">
         <v>44009</v>
       </c>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
+      <c r="B117" t="n">
+        <v>143366</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5742</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2366</v>
+      </c>
+      <c r="E117" t="n">
+        <v>42</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1492340</v>
+      </c>
+      <c r="G117" t="n">
+        <v>48151</v>
+      </c>
+      <c r="H117" t="n">
+        <v>69280</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3640</v>
+      </c>
       <c r="J117" t="n">
         <v>-23.0064921075466</v>
       </c>
@@ -8572,14 +10168,30 @@
       <c r="A118" s="1" t="n">
         <v>44010</v>
       </c>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
+      <c r="B118" t="n">
+        <v>148723</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5357</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2393</v>
+      </c>
+      <c r="E118" t="n">
+        <v>27</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1543186</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50846</v>
+      </c>
+      <c r="H118" t="n">
+        <v>73596</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4316</v>
+      </c>
       <c r="J118" t="n">
         <v>-22.6384357088626</v>
       </c>
@@ -8646,14 +10258,30 @@
       <c r="A119" s="1" t="n">
         <v>44011</v>
       </c>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
+      <c r="B119" t="n">
+        <v>153011</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4288</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2403</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1578667</v>
+      </c>
+      <c r="G119" t="n">
+        <v>35481</v>
+      </c>
+      <c r="H119" t="n">
+        <v>75848</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2252</v>
+      </c>
       <c r="J119" t="n">
         <v>-15.3782762927723</v>
       </c>
@@ -8720,14 +10348,30 @@
       <c r="A120" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
+      <c r="B120" t="n">
+        <v>159986</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6975</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2424</v>
+      </c>
+      <c r="E120" t="n">
+        <v>21</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1612583</v>
+      </c>
+      <c r="G120" t="n">
+        <v>33916</v>
+      </c>
+      <c r="H120" t="n">
+        <v>78520</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2672</v>
+      </c>
       <c r="J120" t="n">
         <v>-12.1667999734045</v>
       </c>
@@ -8794,14 +10438,30 @@
       <c r="A121" s="1" t="n">
         <v>44013</v>
       </c>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
+      <c r="B121" t="n">
+        <v>168062</v>
+      </c>
+      <c r="C121" t="n">
+        <v>8076</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2481</v>
+      </c>
+      <c r="E121" t="n">
+        <v>57</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1653835</v>
+      </c>
+      <c r="G121" t="n">
+        <v>41252</v>
+      </c>
+      <c r="H121" t="n">
+        <v>82171</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3651</v>
+      </c>
       <c r="J121" t="n">
         <v>-9.72572106135809</v>
       </c>
@@ -8868,14 +10528,30 @@
       <c r="A122" s="1" t="n">
         <v>44014</v>
       </c>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
+      <c r="B122" t="n">
+        <v>175977</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7915</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2525</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1696809</v>
+      </c>
+      <c r="G122" t="n">
+        <v>42974</v>
+      </c>
+      <c r="H122" t="n">
+        <v>87754</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5583</v>
+      </c>
       <c r="J122" t="n">
         <v>-8.46596897770195</v>
       </c>
@@ -8942,14 +10618,30 @@
       <c r="A123" s="1" t="n">
         <v>44015</v>
       </c>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
+      <c r="B123" t="n">
+        <v>183532</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7555</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2575</v>
+      </c>
+      <c r="E123" t="n">
+        <v>50</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1741722</v>
+      </c>
+      <c r="G123" t="n">
+        <v>44913</v>
+      </c>
+      <c r="H123" t="n">
+        <v>89781</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2027</v>
+      </c>
       <c r="J123" t="n">
         <v>-13.7880128813301</v>
       </c>
@@ -9016,14 +10708,30 @@
       <c r="A124" s="1" t="n">
         <v>44016</v>
       </c>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
+      <c r="B124" t="n">
+        <v>191790</v>
+      </c>
+      <c r="C124" t="n">
+        <v>8258</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2608</v>
+      </c>
+      <c r="E124" t="n">
+        <v>33</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1785542</v>
+      </c>
+      <c r="G124" t="n">
+        <v>43820</v>
+      </c>
+      <c r="H124" t="n">
+        <v>96273</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6492</v>
+      </c>
       <c r="J124" t="n">
         <v>-35.8808088973328</v>
       </c>
@@ -9090,14 +10798,30 @@
       <c r="A125" s="1" t="n">
         <v>44017</v>
       </c>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
+      <c r="B125" t="n">
+        <v>195239</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3449</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2637</v>
+      </c>
+      <c r="E125" t="n">
+        <v>29</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1829966</v>
+      </c>
+      <c r="G125" t="n">
+        <v>44424</v>
+      </c>
+      <c r="H125" t="n">
+        <v>99383</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3110</v>
+      </c>
       <c r="J125" t="n">
         <v>-27.5451882490573</v>
       </c>
@@ -9164,14 +10888,30 @@
       <c r="A126" s="1" t="n">
         <v>44018</v>
       </c>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
+      <c r="B126" t="n">
+        <v>200557</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5318</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2655</v>
+      </c>
+      <c r="E126" t="n">
+        <v>18</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1874626</v>
+      </c>
+      <c r="G126" t="n">
+        <v>44660</v>
+      </c>
+      <c r="H126" t="n">
+        <v>101095</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1712</v>
+      </c>
       <c r="J126" t="n">
         <v>-16.0466559069726</v>
       </c>
@@ -9238,14 +10978,30 @@
       <c r="A127" s="1" t="n">
         <v>44019</v>
       </c>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
+      <c r="B127" t="n">
+        <v>210585</v>
+      </c>
+      <c r="C127" t="n">
+        <v>10028</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E127" t="n">
+        <v>60</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1917116</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42490</v>
+      </c>
+      <c r="H127" t="n">
+        <v>106751</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5656</v>
+      </c>
       <c r="J127" t="n">
         <v>-16.1571055393815</v>
       </c>
@@ -9312,14 +11068,30 @@
       <c r="A128" s="1" t="n">
         <v>44020</v>
       </c>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
+      <c r="B128" t="n">
+        <v>220564</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9979</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2813</v>
+      </c>
+      <c r="E128" t="n">
+        <v>98</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1960005</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42889</v>
+      </c>
+      <c r="H128" t="n">
+        <v>112362</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5611</v>
+      </c>
       <c r="J128" t="n">
         <v>-14.5296083706555</v>
       </c>
@@ -9386,14 +11158,30 @@
       <c r="A129" s="1" t="n">
         <v>44021</v>
       </c>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
+      <c r="B129" t="n">
+        <v>230346</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9782</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2918</v>
+      </c>
+      <c r="E129" t="n">
+        <v>105</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2020405</v>
+      </c>
+      <c r="G129" t="n">
+        <v>60400</v>
+      </c>
+      <c r="H129" t="n">
+        <v>118320</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5958</v>
+      </c>
       <c r="J129" t="n">
         <v>-15.6294364575045</v>
       </c>
@@ -9460,14 +11248,30 @@
       <c r="A130" s="1" t="n">
         <v>44022</v>
       </c>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
+      <c r="B130" t="n">
+        <v>240111</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3013</v>
+      </c>
+      <c r="E130" t="n">
+        <v>95</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2069122</v>
+      </c>
+      <c r="G130" t="n">
+        <v>48717</v>
+      </c>
+      <c r="H130" t="n">
+        <v>123398</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5078</v>
+      </c>
       <c r="J130" t="n">
         <v>-19.543643781131</v>
       </c>
@@ -9534,14 +11338,30 @@
       <c r="A131" s="1" t="n">
         <v>44023</v>
       </c>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
+      <c r="B131" t="n">
+        <v>250462</v>
+      </c>
+      <c r="C131" t="n">
+        <v>10351</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3112</v>
+      </c>
+      <c r="E131" t="n">
+        <v>99</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2110922</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41800</v>
+      </c>
+      <c r="H131" t="n">
+        <v>131266</v>
+      </c>
+      <c r="I131" t="n">
+        <v>7868</v>
+      </c>
       <c r="J131" t="n">
         <v>-23.3949517242047</v>
       </c>
@@ -9608,14 +11428,30 @@
       <c r="A132" s="1" t="n">
         <v>44024</v>
       </c>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
+      <c r="B132" t="n">
+        <v>258658</v>
+      </c>
+      <c r="C132" t="n">
+        <v>8196</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3192</v>
+      </c>
+      <c r="E132" t="n">
+        <v>80</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2165623</v>
+      </c>
+      <c r="G132" t="n">
+        <v>54701</v>
+      </c>
+      <c r="H132" t="n">
+        <v>137141</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5875</v>
+      </c>
       <c r="J132" t="n">
         <v>-21.6668118459794</v>
       </c>
@@ -9682,14 +11518,30 @@
       <c r="A133" s="1" t="n">
         <v>44025</v>
       </c>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
+      <c r="B133" t="n">
+        <v>264313</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5655</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3235</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2205822</v>
+      </c>
+      <c r="G133" t="n">
+        <v>40199</v>
+      </c>
+      <c r="H133" t="n">
+        <v>134345</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-2796</v>
+      </c>
       <c r="J133" t="e">
         <v>#NUM!</v>
       </c>
@@ -9756,14 +11608,30 @@
       <c r="A134" s="1" t="n">
         <v>44026</v>
       </c>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
+      <c r="B134" t="n">
+        <v>275058</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10745</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3322</v>
+      </c>
+      <c r="E134" t="n">
+        <v>87</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2249060</v>
+      </c>
+      <c r="G134" t="n">
+        <v>43238</v>
+      </c>
+      <c r="H134" t="n">
+        <v>133730</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-615</v>
+      </c>
       <c r="J134" t="e">
         <v>#NUM!</v>
       </c>
@@ -9803,7 +11671,9 @@
       <c r="V134" t="n">
         <v>56216</v>
       </c>
-      <c r="W134"/>
+      <c r="W134" t="n">
+        <v>10569</v>
+      </c>
       <c r="X134"/>
       <c r="Y134"/>
       <c r="Z134"/>
@@ -9840,10 +11710,18 @@
       <c r="E135" t="n">
         <v>110</v>
       </c>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
+      <c r="F135" t="n">
+        <v>2286774</v>
+      </c>
+      <c r="G135" t="n">
+        <v>37714</v>
+      </c>
+      <c r="H135" t="n">
+        <v>138064</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4334</v>
+      </c>
       <c r="J135" t="e">
         <v>#NUM!</v>
       </c>
@@ -9862,65 +11740,153 @@
       <c r="O135" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P135"/>
-      <c r="Q135"/>
+      <c r="P135" t="n">
+        <v>2699855</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>224433</v>
+      </c>
       <c r="R135" t="n">
         <v>2924288</v>
       </c>
-      <c r="S135"/>
-      <c r="T135"/>
-      <c r="U135"/>
-      <c r="V135"/>
+      <c r="S135" t="n">
+        <v>0.16885085207802</v>
+      </c>
+      <c r="T135" t="n">
+        <v>55235</v>
+      </c>
+      <c r="U135" t="n">
+        <v>1529</v>
+      </c>
+      <c r="V135" t="n">
+        <v>56764</v>
+      </c>
       <c r="W135"/>
-      <c r="X135" t="n">
-        <v>396</v>
-      </c>
-      <c r="Y135" t="n">
-        <v>1190</v>
-      </c>
-      <c r="Z135" t="n">
-        <v>179</v>
-      </c>
-      <c r="AA135" t="n">
-        <v>383</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>851</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>9609</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>1236</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>3487</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>10471</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>7367</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>3104</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>10586</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>853</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>45585</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>6583</v>
-      </c>
-      <c r="AM135" t="n">
-        <v>5059</v>
-      </c>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+      <c r="AF135"/>
+      <c r="AG135"/>
+      <c r="AH135"/>
+      <c r="AI135"/>
+      <c r="AJ135"/>
+      <c r="AK135"/>
+      <c r="AL135"/>
+      <c r="AM135"/>
       <c r="AN135" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="B136" t="n">
+        <v>292656</v>
+      </c>
+      <c r="C136" t="n">
+        <v>10291</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3561</v>
+      </c>
+      <c r="E136" t="n">
+        <v>129</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O136" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136" t="n">
+        <v>2992102</v>
+      </c>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136" t="n">
+        <v>408</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1238</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>183</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>391</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>859</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>10057</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3498</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>5520</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>4954</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>2664</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>12965</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2784</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>20552</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>6666</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>5080</v>
+      </c>
+      <c r="AN136" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9978,34 +11944,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>129657</v>
+        <v>133158</v>
       </c>
       <c r="C2" t="n">
-        <v>108617</v>
+        <v>110767</v>
       </c>
       <c r="D2" t="n">
-        <v>2815671</v>
+        <v>2881335</v>
       </c>
       <c r="E2" t="n">
-        <v>7652</v>
+        <v>7806</v>
       </c>
       <c r="F2" t="n">
-        <v>56171</v>
+        <v>57148</v>
       </c>
       <c r="G2" t="n">
-        <v>10586</v>
+        <v>10759</v>
       </c>
       <c r="H2" t="n">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="I2" t="n">
-        <v>5059</v>
+        <v>5080</v>
       </c>
       <c r="J2" t="n">
-        <v>26272</v>
+        <v>26940</v>
       </c>
       <c r="K2" t="n">
-        <v>728</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">155937.20000000001</t>
+    <t xml:space="preserve">162190.6</t>
   </si>
 </sst>
 </file>
@@ -11542,23 +11542,23 @@
       <c r="I133" t="n">
         <v>-2796</v>
       </c>
-      <c r="J133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O133" t="e">
-        <v>#NUM!</v>
+      <c r="J133" t="n">
+        <v>-16.6828610217476</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-8.00862421987078</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-4.00590859191304</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-28.8606024650709</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-40.0745798627815</v>
+      </c>
+      <c r="O133" t="n">
+        <v>13.4571242122526</v>
       </c>
       <c r="P133" t="n">
         <v>2598680</v>
@@ -11632,23 +11632,23 @@
       <c r="I134" t="n">
         <v>-615</v>
       </c>
-      <c r="J134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O134" t="e">
-        <v>#NUM!</v>
+      <c r="J134" t="n">
+        <v>-14.3502567717398</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-4.90033558476077</v>
+      </c>
+      <c r="L134" t="n">
+        <v>13.3971901410513</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-27.3134584654685</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-41.3206883615528</v>
+      </c>
+      <c r="O134" t="n">
+        <v>14.1429786196594</v>
       </c>
       <c r="P134" t="n">
         <v>2642199</v>
@@ -11761,7 +11761,9 @@
       <c r="V135" t="n">
         <v>56764</v>
       </c>
-      <c r="W135"/>
+      <c r="W135" t="n">
+        <v>10471</v>
+      </c>
       <c r="X135"/>
       <c r="Y135"/>
       <c r="Z135"/>
@@ -11799,16 +11801,16 @@
         <v>129</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>2301483</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>14709</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>142353</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4289</v>
       </c>
       <c r="J136" t="e">
         <v>#NUM!</v>
@@ -11828,65 +11830,153 @@
       <c r="O136" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P136"/>
-      <c r="Q136"/>
+      <c r="P136" t="n">
+        <v>2767321</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>224781</v>
+      </c>
       <c r="R136" t="n">
         <v>2992102</v>
       </c>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
+      <c r="S136" t="n">
+        <v>0.17427396882913</v>
+      </c>
+      <c r="T136" t="n">
+        <v>53933</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1524</v>
+      </c>
+      <c r="V136" t="n">
+        <v>55457</v>
+      </c>
       <c r="W136"/>
-      <c r="X136" t="n">
-        <v>408</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>1238</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>183</v>
-      </c>
-      <c r="AA136" t="n">
-        <v>391</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>859</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>10057</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>1290</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>3498</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>5520</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>4954</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>2664</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>12965</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>2784</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>20552</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>6666</v>
-      </c>
-      <c r="AM136" t="n">
-        <v>5080</v>
-      </c>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+      <c r="AF136"/>
+      <c r="AG136"/>
+      <c r="AH136"/>
+      <c r="AI136"/>
+      <c r="AJ136"/>
+      <c r="AK136"/>
+      <c r="AL136"/>
+      <c r="AM136"/>
       <c r="AN136" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B137" t="n">
+        <v>307572</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14916</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3735</v>
+      </c>
+      <c r="E137" t="n">
+        <v>174</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137" t="n">
+        <v>3067620</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137" t="n">
+        <v>413</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>189</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>393</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>866</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>10449</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3535</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>4881</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>4869</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>2783</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>23969</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>7800</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>19201</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>6693</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AN137" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11944,34 +12034,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>133158</v>
+        <v>141646</v>
       </c>
       <c r="C2" t="n">
-        <v>110767</v>
+        <v>112254</v>
       </c>
       <c r="D2" t="n">
-        <v>2881335</v>
+        <v>2955366</v>
       </c>
       <c r="E2" t="n">
-        <v>7806</v>
+        <v>7811</v>
       </c>
       <c r="F2" t="n">
-        <v>57148</v>
+        <v>56695</v>
       </c>
       <c r="G2" t="n">
-        <v>10759</v>
+        <v>10479</v>
       </c>
       <c r="H2" t="n">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="I2" t="n">
-        <v>5080</v>
+        <v>5218</v>
       </c>
       <c r="J2" t="n">
-        <v>26940</v>
+        <v>27428</v>
       </c>
       <c r="K2" t="n">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">155937.20000000001</t>
+    <t xml:space="preserve">162190.6</t>
   </si>
 </sst>
 </file>
@@ -11542,23 +11542,23 @@
       <c r="I133" t="n">
         <v>-2796</v>
       </c>
-      <c r="J133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N133" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O133" t="e">
-        <v>#NUM!</v>
+      <c r="J133" t="n">
+        <v>-16.6828610217476</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-8.00862421987078</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-4.00590859191304</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-28.8606024650709</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-40.0745798627815</v>
+      </c>
+      <c r="O133" t="n">
+        <v>13.4571242122526</v>
       </c>
       <c r="P133" t="n">
         <v>2598680</v>
@@ -11632,23 +11632,23 @@
       <c r="I134" t="n">
         <v>-615</v>
       </c>
-      <c r="J134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N134" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O134" t="e">
-        <v>#NUM!</v>
+      <c r="J134" t="n">
+        <v>-14.3502567717398</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-4.90033558476077</v>
+      </c>
+      <c r="L134" t="n">
+        <v>13.3971901410513</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-27.3134584654685</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-41.3206883615528</v>
+      </c>
+      <c r="O134" t="n">
+        <v>14.1429786196594</v>
       </c>
       <c r="P134" t="n">
         <v>2642199</v>
@@ -11761,7 +11761,9 @@
       <c r="V135" t="n">
         <v>56764</v>
       </c>
-      <c r="W135"/>
+      <c r="W135" t="n">
+        <v>10471</v>
+      </c>
       <c r="X135"/>
       <c r="Y135"/>
       <c r="Z135"/>
@@ -11799,16 +11801,16 @@
         <v>129</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>2301483</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>14709</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>142353</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>4289</v>
       </c>
       <c r="J136" t="e">
         <v>#NUM!</v>
@@ -11828,65 +11830,153 @@
       <c r="O136" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P136"/>
-      <c r="Q136"/>
+      <c r="P136" t="n">
+        <v>2767321</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>224781</v>
+      </c>
       <c r="R136" t="n">
         <v>2992102</v>
       </c>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
+      <c r="S136" t="n">
+        <v>0.17427396882913</v>
+      </c>
+      <c r="T136" t="n">
+        <v>53933</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1524</v>
+      </c>
+      <c r="V136" t="n">
+        <v>55457</v>
+      </c>
       <c r="W136"/>
-      <c r="X136" t="n">
-        <v>408</v>
-      </c>
-      <c r="Y136" t="n">
-        <v>1238</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>183</v>
-      </c>
-      <c r="AA136" t="n">
-        <v>391</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>859</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>10057</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>1290</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>3498</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>5520</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>4954</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>2664</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>12965</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>2784</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>20552</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>6666</v>
-      </c>
-      <c r="AM136" t="n">
-        <v>5080</v>
-      </c>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+      <c r="AF136"/>
+      <c r="AG136"/>
+      <c r="AH136"/>
+      <c r="AI136"/>
+      <c r="AJ136"/>
+      <c r="AK136"/>
+      <c r="AL136"/>
+      <c r="AM136"/>
       <c r="AN136" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B137" t="n">
+        <v>307572</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14916</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3735</v>
+      </c>
+      <c r="E137" t="n">
+        <v>174</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O137" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137" t="n">
+        <v>3067620</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137" t="n">
+        <v>413</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>189</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>393</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>866</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>10449</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3535</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>10632</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>7416</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>3216</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>10479</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>896</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>46216</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>6693</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>5218</v>
+      </c>
+      <c r="AN137" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11944,34 +12034,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>133158</v>
+        <v>141646</v>
       </c>
       <c r="C2" t="n">
-        <v>110767</v>
+        <v>112254</v>
       </c>
       <c r="D2" t="n">
-        <v>2881335</v>
+        <v>2955366</v>
       </c>
       <c r="E2" t="n">
-        <v>7806</v>
+        <v>7811</v>
       </c>
       <c r="F2" t="n">
-        <v>57148</v>
+        <v>56695</v>
       </c>
       <c r="G2" t="n">
-        <v>10759</v>
+        <v>10479</v>
       </c>
       <c r="H2" t="n">
-        <v>865</v>
+        <v>896</v>
       </c>
       <c r="I2" t="n">
-        <v>5080</v>
+        <v>5218</v>
       </c>
       <c r="J2" t="n">
-        <v>26940</v>
+        <v>27428</v>
       </c>
       <c r="K2" t="n">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">162190.6</t>
+    <t xml:space="preserve">169581</t>
   </si>
 </sst>
 </file>
@@ -11851,7 +11851,9 @@
       <c r="V136" t="n">
         <v>55457</v>
       </c>
-      <c r="W136"/>
+      <c r="W136" t="n">
+        <v>10457</v>
+      </c>
       <c r="X136"/>
       <c r="Y136"/>
       <c r="Z136"/>
@@ -11889,16 +11891,16 @@
         <v>174</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>2343210</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>41727</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>150151</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>7798</v>
       </c>
       <c r="J137" t="e">
         <v>#NUM!</v>
@@ -11918,65 +11920,153 @@
       <c r="O137" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P137"/>
-      <c r="Q137"/>
+      <c r="P137" t="n">
+        <v>2842685</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>224935</v>
+      </c>
       <c r="R137" t="n">
         <v>3067620</v>
       </c>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="U137"/>
-      <c r="V137"/>
+      <c r="S137" t="n">
+        <v>0.16047266626479</v>
+      </c>
+      <c r="T137" t="n">
+        <v>59009</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1438</v>
+      </c>
+      <c r="V137" t="n">
+        <v>60446</v>
+      </c>
       <c r="W137"/>
-      <c r="X137" t="n">
-        <v>413</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>1266</v>
-      </c>
-      <c r="Z137" t="n">
-        <v>189</v>
-      </c>
-      <c r="AA137" t="n">
-        <v>393</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>866</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>10449</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>1333</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>3535</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>10632</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>7416</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>3216</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>10479</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>896</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>46216</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>6693</v>
-      </c>
-      <c r="AM137" t="n">
-        <v>5218</v>
-      </c>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+      <c r="AC137"/>
+      <c r="AD137"/>
+      <c r="AE137"/>
+      <c r="AF137"/>
+      <c r="AG137"/>
+      <c r="AH137"/>
+      <c r="AI137"/>
+      <c r="AJ137"/>
+      <c r="AK137"/>
+      <c r="AL137"/>
+      <c r="AM137"/>
       <c r="AN137" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="B138" t="n">
+        <v>317730</v>
+      </c>
+      <c r="C138" t="n">
+        <v>10158</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3865</v>
+      </c>
+      <c r="E138" t="n">
+        <v>130</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O138" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138" t="n">
+        <v>3153623</v>
+      </c>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138" t="n">
+        <v>426</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1363</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>202</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>424</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>873</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>11015</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>1387</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3731</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>10658</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>7395</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>3263</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>10831</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>966</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>46495</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>6658</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>5254</v>
+      </c>
+      <c r="AN138" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12034,34 +12124,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>141646</v>
+        <v>144284</v>
       </c>
       <c r="C2" t="n">
-        <v>112254</v>
+        <v>114337</v>
       </c>
       <c r="D2" t="n">
-        <v>2955366</v>
+        <v>3039286</v>
       </c>
       <c r="E2" t="n">
-        <v>7811</v>
+        <v>7819</v>
       </c>
       <c r="F2" t="n">
-        <v>56695</v>
+        <v>57326</v>
       </c>
       <c r="G2" t="n">
-        <v>10479</v>
+        <v>10831</v>
       </c>
       <c r="H2" t="n">
-        <v>896</v>
+        <v>966</v>
       </c>
       <c r="I2" t="n">
-        <v>5218</v>
+        <v>5254</v>
       </c>
       <c r="J2" t="n">
-        <v>27428</v>
+        <v>27987</v>
       </c>
       <c r="K2" t="n">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">169581</t>
+    <t xml:space="preserve">172936.2</t>
   </si>
 </sst>
 </file>
@@ -11941,7 +11941,9 @@
       <c r="V137" t="n">
         <v>60446</v>
       </c>
-      <c r="W137"/>
+      <c r="W137" t="n">
+        <v>10632</v>
+      </c>
       <c r="X137"/>
       <c r="Y137"/>
       <c r="Z137"/>
@@ -11979,16 +11981,16 @@
         <v>130</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>2384232</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>41022</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>157501</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>7350</v>
       </c>
       <c r="J138" t="e">
         <v>#NUM!</v>
@@ -12008,65 +12010,153 @@
       <c r="O138" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P138"/>
-      <c r="Q138"/>
+      <c r="P138" t="n">
+        <v>2932364</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>221259</v>
+      </c>
       <c r="R138" t="n">
         <v>3153623</v>
       </c>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="U138"/>
-      <c r="V138"/>
+      <c r="S138" t="n">
+        <v>0.15034234890016</v>
+      </c>
+      <c r="T138" t="n">
+        <v>62801</v>
+      </c>
+      <c r="U138" t="n">
+        <v>532</v>
+      </c>
+      <c r="V138" t="n">
+        <v>63333</v>
+      </c>
       <c r="W138"/>
-      <c r="X138" t="n">
-        <v>426</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>1363</v>
-      </c>
-      <c r="Z138" t="n">
-        <v>202</v>
-      </c>
-      <c r="AA138" t="n">
-        <v>424</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>873</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>11015</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>1387</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>3731</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>10658</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>7395</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>3263</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>10831</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>966</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>46495</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>6658</v>
-      </c>
-      <c r="AM138" t="n">
-        <v>5254</v>
-      </c>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+      <c r="AB138"/>
+      <c r="AC138"/>
+      <c r="AD138"/>
+      <c r="AE138"/>
+      <c r="AF138"/>
+      <c r="AG138"/>
+      <c r="AH138"/>
+      <c r="AI138"/>
+      <c r="AJ138"/>
+      <c r="AK138"/>
+      <c r="AL138"/>
+      <c r="AM138"/>
       <c r="AN138" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="B139" t="n">
+        <v>325030</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3958</v>
+      </c>
+      <c r="E139" t="n">
+        <v>93</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O139" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139" t="n">
+        <v>3207857</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1380</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>204</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>878</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>11118</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>1407</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3746</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>10592</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>7180</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>3412</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>11072</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>943</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>44709</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>6661</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>5062</v>
+      </c>
+      <c r="AN139" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12124,34 +12214,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>144284</v>
+        <v>148136</v>
       </c>
       <c r="C2" t="n">
-        <v>114337</v>
+        <v>114518</v>
       </c>
       <c r="D2" t="n">
-        <v>3039286</v>
+        <v>3093339</v>
       </c>
       <c r="E2" t="n">
-        <v>7819</v>
+        <v>7752</v>
       </c>
       <c r="F2" t="n">
-        <v>57326</v>
+        <v>55781</v>
       </c>
       <c r="G2" t="n">
-        <v>10831</v>
+        <v>11072</v>
       </c>
       <c r="H2" t="n">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="I2" t="n">
-        <v>5254</v>
+        <v>5062</v>
       </c>
       <c r="J2" t="n">
-        <v>27987</v>
+        <v>28205</v>
       </c>
       <c r="K2" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">172936.2</t>
+    <t xml:space="preserve">177870.8</t>
   </si>
 </sst>
 </file>
@@ -7880,7 +7880,7 @@
         <v>1117274</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T92" t="n">
         <v>21585</v>
@@ -7970,7 +7970,7 @@
         <v>1150868</v>
       </c>
       <c r="S93" t="n">
-        <v>0.06259941815807</v>
+        <v>0.0626</v>
       </c>
       <c r="T93" t="n">
         <v>23620</v>
@@ -8060,7 +8060,7 @@
         <v>1174948</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T94" t="n">
         <v>24043</v>
@@ -8150,7 +8150,7 @@
         <v>1209187</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T95" t="n">
         <v>23537</v>
@@ -8240,7 +8240,7 @@
         <v>1218955</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T96" t="n">
         <v>20021</v>
@@ -8420,7 +8420,7 @@
         <v>1286139</v>
       </c>
       <c r="S98" t="n">
-        <v>0.06662901614215</v>
+        <v>0.0666</v>
       </c>
       <c r="T98" t="n">
         <v>23019</v>
@@ -8510,7 +8510,7 @@
         <v>1302049</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T99" t="n">
         <v>22046</v>
@@ -8600,7 +8600,7 @@
         <v>1348893</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06846481685691</v>
+        <v>0.0685</v>
       </c>
       <c r="T100" t="n">
         <v>23966</v>
@@ -8690,7 +8690,7 @@
         <v>1370131</v>
       </c>
       <c r="S101" t="n">
-        <v>0.07052200676015</v>
+        <v>0.0705</v>
       </c>
       <c r="T101" t="n">
         <v>23626</v>
@@ -8780,7 +8780,7 @@
         <v>1404369</v>
       </c>
       <c r="S102" t="n">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T102" t="n">
         <v>23863</v>
@@ -8870,7 +8870,7 @@
         <v>1442950</v>
       </c>
       <c r="S103" t="n">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T103" t="n">
         <v>29139</v>
@@ -9050,7 +9050,7 @@
         <v>1499015</v>
       </c>
       <c r="S105" t="n">
-        <v>0.06709533684425</v>
+        <v>0.0671</v>
       </c>
       <c r="T105" t="n">
         <v>28727</v>
@@ -9140,7 +9140,7 @@
         <v>1522434</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06941707304209</v>
+        <v>0.0694</v>
       </c>
       <c r="T106" t="n">
         <v>29793</v>
@@ -9230,7 +9230,7 @@
         <v>1560537</v>
       </c>
       <c r="S107" t="n">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T107" t="n">
         <v>28774</v>
@@ -9410,7 +9410,7 @@
         <v>1622851</v>
       </c>
       <c r="S109" t="n">
-        <v>0.08936916175479</v>
+        <v>0.0894</v>
       </c>
       <c r="T109" t="n">
         <v>29011</v>
@@ -9500,7 +9500,7 @@
         <v>1690124</v>
       </c>
       <c r="S110" t="n">
-        <v>0.08795944343323</v>
+        <v>0.088</v>
       </c>
       <c r="T110" t="n">
         <v>32885</v>
@@ -9680,7 +9680,7 @@
         <v>1767701</v>
       </c>
       <c r="S112" t="n">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="T112" t="n">
         <v>35550</v>
@@ -9770,7 +9770,7 @@
         <v>1805642</v>
       </c>
       <c r="S113" t="n">
-        <v>0.10422837848208</v>
+        <v>0.1042</v>
       </c>
       <c r="T113" t="n">
         <v>37231</v>
@@ -9860,7 +9860,7 @@
         <v>1836037</v>
       </c>
       <c r="S114" t="n">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="T114" t="n">
         <v>35943</v>
@@ -9950,7 +9950,7 @@
         <v>1875197</v>
       </c>
       <c r="S115" t="n">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="T115" t="n">
         <v>39060</v>
@@ -10040,7 +10040,7 @@
         <v>1903661</v>
       </c>
       <c r="S116" t="n">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="T116" t="n">
         <v>37061</v>
@@ -10130,7 +10130,7 @@
         <v>1959617</v>
       </c>
       <c r="S117" t="n">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="T117" t="n">
         <v>35577</v>
@@ -10220,7 +10220,7 @@
         <v>2006724</v>
       </c>
       <c r="S118" t="n">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="T118" t="n">
         <v>38597</v>
@@ -10310,7 +10310,7 @@
         <v>2061939</v>
       </c>
       <c r="S119" t="n">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="T119" t="n">
         <v>38856</v>
@@ -10400,7 +10400,7 @@
         <v>2119036</v>
       </c>
       <c r="S120" t="n">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="T120" t="n">
         <v>41670</v>
@@ -10490,7 +10490,7 @@
         <v>2174548</v>
       </c>
       <c r="S121" t="n">
-        <v>0.13316248660981</v>
+        <v>0.1332</v>
       </c>
       <c r="T121" t="n">
         <v>45209</v>
@@ -10580,7 +10580,7 @@
         <v>2212947</v>
       </c>
       <c r="S122" t="n">
-        <v>0.13917844913637</v>
+        <v>0.1392</v>
       </c>
       <c r="T122" t="n">
         <v>45225</v>
@@ -10670,7 +10670,7 @@
         <v>2273591</v>
       </c>
       <c r="S123" t="n">
-        <v>0.13154795505798</v>
+        <v>0.1315</v>
       </c>
       <c r="T123" t="n">
         <v>49855</v>
@@ -10760,7 +10760,7 @@
         <v>2338098</v>
       </c>
       <c r="S124" t="n">
-        <v>0.13517270641306</v>
+        <v>0.1352</v>
       </c>
       <c r="T124" t="n">
         <v>51177</v>
@@ -10850,7 +10850,7 @@
         <v>2371709</v>
       </c>
       <c r="S125" t="n">
-        <v>0.13500899750392</v>
+        <v>0.135</v>
       </c>
       <c r="T125" t="n">
         <v>49220</v>
@@ -10940,7 +10940,7 @@
         <v>2431861</v>
       </c>
       <c r="S126" t="n">
-        <v>0.13507194500078</v>
+        <v>0.1351</v>
       </c>
       <c r="T126" t="n">
         <v>50286</v>
@@ -11030,7 +11030,7 @@
         <v>2471029</v>
       </c>
       <c r="S127" t="n">
-        <v>0.15025240527379</v>
+        <v>0.1503</v>
       </c>
       <c r="T127" t="n">
         <v>48109</v>
@@ -11120,7 +11120,7 @@
         <v>2526940</v>
       </c>
       <c r="S128" t="n">
-        <v>0.15560343677851</v>
+        <v>0.1556</v>
       </c>
       <c r="T128" t="n">
         <v>48201</v>
@@ -11210,7 +11210,7 @@
         <v>2603903</v>
       </c>
       <c r="S129" t="n">
-        <v>0.14464341297691</v>
+        <v>0.1446</v>
       </c>
       <c r="T129" t="n">
         <v>53698</v>
@@ -11300,7 +11300,7 @@
         <v>2644496</v>
       </c>
       <c r="S130" t="n">
-        <v>0.15812361136341</v>
+        <v>0.1581</v>
       </c>
       <c r="T130" t="n">
         <v>51116</v>
@@ -11390,7 +11390,7 @@
         <v>2710290</v>
       </c>
       <c r="S131" t="n">
-        <v>0.16329665986635</v>
+        <v>0.1633</v>
       </c>
       <c r="T131" t="n">
         <v>51328</v>
@@ -11480,7 +11480,7 @@
         <v>2757859</v>
       </c>
       <c r="S132" t="n">
-        <v>0.16849010085123</v>
+        <v>0.1685</v>
       </c>
       <c r="T132" t="n">
         <v>53771</v>
@@ -11570,7 +11570,7 @@
         <v>2820803</v>
       </c>
       <c r="S133" t="n">
-        <v>0.16893795062442</v>
+        <v>0.1689</v>
       </c>
       <c r="T133" t="n">
         <v>53913</v>
@@ -11660,7 +11660,7 @@
         <v>2864541</v>
       </c>
       <c r="S134" t="n">
-        <v>0.16812128576681</v>
+        <v>0.1681</v>
       </c>
       <c r="T134" t="n">
         <v>54784</v>
@@ -11722,23 +11722,23 @@
       <c r="I135" t="n">
         <v>4334</v>
       </c>
-      <c r="J135" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K135" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L135" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M135" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N135" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O135" t="e">
-        <v>#NUM!</v>
+      <c r="J135" t="n">
+        <v>-13.6679481521947</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-2.64488529831495</v>
+      </c>
+      <c r="L135" t="n">
+        <v>17.5056858015953</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-25.5873458486321</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-39.7657966085268</v>
+      </c>
+      <c r="O135" t="n">
+        <v>13.8971309067243</v>
       </c>
       <c r="P135" t="n">
         <v>2699855</v>
@@ -11750,7 +11750,7 @@
         <v>2924288</v>
       </c>
       <c r="S135" t="n">
-        <v>0.16885085207802</v>
+        <v>0.1689</v>
       </c>
       <c r="T135" t="n">
         <v>55235</v>
@@ -11812,23 +11812,23 @@
       <c r="I136" t="n">
         <v>4289</v>
       </c>
-      <c r="J136" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K136" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L136" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M136" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N136" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O136" t="e">
-        <v>#NUM!</v>
+      <c r="J136" t="n">
+        <v>-15.6517478867717</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-4.36759764797953</v>
+      </c>
+      <c r="L136" t="n">
+        <v>15.3153968291712</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-26.9994260229769</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-40.7092733263346</v>
+      </c>
+      <c r="O136" t="n">
+        <v>13.9493113647868</v>
       </c>
       <c r="P136" t="n">
         <v>2767321</v>
@@ -11840,7 +11840,7 @@
         <v>2992102</v>
       </c>
       <c r="S136" t="n">
-        <v>0.17427396882913</v>
+        <v>0.1743</v>
       </c>
       <c r="T136" t="n">
         <v>53933</v>
@@ -11902,23 +11902,23 @@
       <c r="I137" t="n">
         <v>7798</v>
       </c>
-      <c r="J137" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K137" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L137" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M137" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N137" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O137" t="e">
-        <v>#NUM!</v>
+      <c r="J137" t="n">
+        <v>-19.3956296775692</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-6.14587396698602</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4.39664288805871</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-25.9959787898119</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-40.004625635378</v>
+      </c>
+      <c r="O137" t="n">
+        <v>14.45248263234</v>
       </c>
       <c r="P137" t="n">
         <v>2842685</v>
@@ -11930,7 +11930,7 @@
         <v>3067620</v>
       </c>
       <c r="S137" t="n">
-        <v>0.16047266626479</v>
+        <v>0.1605</v>
       </c>
       <c r="T137" t="n">
         <v>59009</v>
@@ -12020,7 +12020,7 @@
         <v>3153623</v>
       </c>
       <c r="S138" t="n">
-        <v>0.15034234890016</v>
+        <v>0.1503</v>
       </c>
       <c r="T138" t="n">
         <v>62801</v>
@@ -12031,7 +12031,9 @@
       <c r="V138" t="n">
         <v>63333</v>
       </c>
-      <c r="W138"/>
+      <c r="W138" t="n">
+        <v>10658</v>
+      </c>
       <c r="X138"/>
       <c r="Y138"/>
       <c r="Z138"/>
@@ -12069,16 +12071,16 @@
         <v>93</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>2439082</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>54850</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>161012</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>3511</v>
       </c>
       <c r="J139" t="e">
         <v>#NUM!</v>
@@ -12098,65 +12100,157 @@
       <c r="O139" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P139"/>
-      <c r="Q139"/>
+      <c r="P139" t="n">
+        <v>2984554</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>223303</v>
+      </c>
       <c r="R139" t="n">
         <v>3207857</v>
       </c>
-      <c r="S139"/>
-      <c r="T139"/>
-      <c r="U139"/>
-      <c r="V139"/>
-      <c r="W139"/>
-      <c r="X139" t="n">
-        <v>433</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Z139" t="n">
-        <v>204</v>
-      </c>
-      <c r="AA139" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB139" t="n">
+      <c r="S139" t="n">
+        <v>0.1467</v>
+      </c>
+      <c r="T139" t="n">
+        <v>63490</v>
+      </c>
+      <c r="U139" t="n">
+        <v>796</v>
+      </c>
+      <c r="V139" t="n">
+        <v>64285</v>
+      </c>
+      <c r="W139" t="n">
+        <v>10592</v>
+      </c>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+      <c r="AC139"/>
+      <c r="AD139"/>
+      <c r="AE139"/>
+      <c r="AF139"/>
+      <c r="AG139"/>
+      <c r="AH139"/>
+      <c r="AI139"/>
+      <c r="AJ139"/>
+      <c r="AK139"/>
+      <c r="AL139"/>
+      <c r="AM139"/>
+      <c r="AN139" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B140" t="n">
+        <v>332434</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7404</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4020</v>
+      </c>
+      <c r="E140" t="n">
+        <v>62</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O140" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140" t="n">
+        <v>3269897</v>
+      </c>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140" t="n">
+        <v>10569</v>
+      </c>
+      <c r="X140" t="n">
+        <v>437</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1416</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>212</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>449</v>
+      </c>
+      <c r="AB140" t="n">
         <v>878</v>
       </c>
-      <c r="AC139" t="n">
-        <v>11118</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>1407</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>3746</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>10592</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>7180</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>3412</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>11072</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>943</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>44709</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>6661</v>
-      </c>
-      <c r="AM139" t="n">
-        <v>5062</v>
-      </c>
-      <c r="AN139" t="n">
+      <c r="AC140" t="n">
+        <v>11303</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>1422</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3781</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>10569</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7372</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>3197</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>11167</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1004</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>43479</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>6633</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>5058</v>
+      </c>
+      <c r="AN140" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12214,31 +12308,31 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>148136</v>
+        <v>150543</v>
       </c>
       <c r="C2" t="n">
-        <v>114518</v>
+        <v>114555</v>
       </c>
       <c r="D2" t="n">
-        <v>3093339</v>
+        <v>3155342</v>
       </c>
       <c r="E2" t="n">
-        <v>7752</v>
+        <v>7976</v>
       </c>
       <c r="F2" t="n">
-        <v>55781</v>
+        <v>54646</v>
       </c>
       <c r="G2" t="n">
-        <v>11072</v>
+        <v>11167</v>
       </c>
       <c r="H2" t="n">
-        <v>943</v>
+        <v>1004</v>
       </c>
       <c r="I2" t="n">
-        <v>5062</v>
+        <v>5058</v>
       </c>
       <c r="J2" t="n">
-        <v>28205</v>
+        <v>28240</v>
       </c>
       <c r="K2" t="n">
         <v>753</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">177870.8</t>
+    <t xml:space="preserve">186529</t>
   </si>
 </sst>
 </file>
@@ -12161,16 +12161,16 @@
         <v>62</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>2473836</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>34754</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>152209</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>-8803</v>
       </c>
       <c r="J140" t="e">
         <v>#NUM!</v>
@@ -12190,67 +12190,141 @@
       <c r="O140" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P140"/>
-      <c r="Q140"/>
+      <c r="P140" t="n">
+        <v>3043574</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>226323</v>
+      </c>
       <c r="R140" t="n">
         <v>3269897</v>
       </c>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="U140"/>
-      <c r="V140"/>
+      <c r="S140" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="T140" t="n">
+        <v>63556</v>
+      </c>
+      <c r="U140" t="n">
+        <v>600</v>
+      </c>
+      <c r="V140" t="n">
+        <v>64156</v>
+      </c>
       <c r="W140" t="n">
         <v>10569</v>
       </c>
-      <c r="X140" t="n">
-        <v>437</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>1416</v>
-      </c>
-      <c r="Z140" t="n">
-        <v>212</v>
-      </c>
-      <c r="AA140" t="n">
-        <v>449</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>878</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>11303</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>1422</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>3781</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>10569</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>7372</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>3197</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>11167</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>1004</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>43479</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>6633</v>
-      </c>
-      <c r="AM140" t="n">
-        <v>5058</v>
-      </c>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+      <c r="AC140"/>
+      <c r="AD140"/>
+      <c r="AE140"/>
+      <c r="AF140"/>
+      <c r="AG140"/>
+      <c r="AH140"/>
+      <c r="AI140"/>
+      <c r="AJ140"/>
+      <c r="AK140"/>
+      <c r="AL140"/>
+      <c r="AM140"/>
       <c r="AN140" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B141" t="n">
+        <v>341739</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9305</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4151</v>
+      </c>
+      <c r="E141" t="n">
+        <v>131</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141" t="n">
+        <v>3331844</v>
+      </c>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141" t="n">
+        <v>10848</v>
+      </c>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+      <c r="AC141"/>
+      <c r="AD141"/>
+      <c r="AE141"/>
+      <c r="AF141" t="n">
+        <v>10848</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>7567</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>3281</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>11461</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1088</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>43802</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>6654</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>5096</v>
+      </c>
+      <c r="AN141" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12308,34 +12382,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>150543</v>
+        <v>151059</v>
       </c>
       <c r="C2" t="n">
-        <v>114555</v>
+        <v>114915</v>
       </c>
       <c r="D2" t="n">
-        <v>3155342</v>
+        <v>3216929</v>
       </c>
       <c r="E2" t="n">
-        <v>7976</v>
+        <v>8562</v>
       </c>
       <c r="F2" t="n">
-        <v>54646</v>
+        <v>55263</v>
       </c>
       <c r="G2" t="n">
-        <v>11167</v>
+        <v>11461</v>
       </c>
       <c r="H2" t="n">
-        <v>1004</v>
+        <v>1088</v>
       </c>
       <c r="I2" t="n">
-        <v>5058</v>
+        <v>5096</v>
       </c>
       <c r="J2" t="n">
-        <v>28240</v>
+        <v>28606</v>
       </c>
       <c r="K2" t="n">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -12301,22 +12301,22 @@
       <c r="AD141"/>
       <c r="AE141"/>
       <c r="AF141" t="n">
-        <v>10848</v>
+        <v>6068</v>
       </c>
       <c r="AG141" t="n">
-        <v>7567</v>
+        <v>4701</v>
       </c>
       <c r="AH141" t="n">
-        <v>3281</v>
+        <v>2811</v>
       </c>
       <c r="AI141" t="n">
-        <v>11461</v>
+        <v>22294</v>
       </c>
       <c r="AJ141" t="n">
-        <v>1088</v>
+        <v>7543</v>
       </c>
       <c r="AK141" t="n">
-        <v>43802</v>
+        <v>21265</v>
       </c>
       <c r="AL141" t="n">
         <v>6654</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -168,7 +168,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">186529</t>
+    <t xml:space="preserve">195314.8</t>
   </si>
 </sst>
 </file>
@@ -11992,23 +11992,23 @@
       <c r="I138" t="n">
         <v>7350</v>
       </c>
-      <c r="J138" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K138" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L138" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M138" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N138" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O138" t="e">
-        <v>#NUM!</v>
+      <c r="J138" t="n">
+        <v>-22.3639250091513</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-6.80921882714945</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.95781521572033</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-25.985673008056</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-16.4118240358128</v>
+      </c>
+      <c r="O138" t="n">
+        <v>7.37288926301904</v>
       </c>
       <c r="P138" t="n">
         <v>2932364</v>
@@ -12082,23 +12082,23 @@
       <c r="I139" t="n">
         <v>3511</v>
       </c>
-      <c r="J139" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K139" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L139" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M139" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N139" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O139" t="e">
-        <v>#NUM!</v>
+      <c r="J139" t="n">
+        <v>-20.5740010234184</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-10.7301710790446</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-4.29954730029372</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-28.4086417010425</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-18.6576004217447</v>
+      </c>
+      <c r="O139" t="n">
+        <v>6.54198184085717</v>
       </c>
       <c r="P139" t="n">
         <v>2984554</v>
@@ -12251,16 +12251,16 @@
         <v>131</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>2514877</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>41041</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>152523</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="J141" t="e">
         <v>#NUM!</v>
@@ -12280,15 +12280,27 @@
       <c r="O141" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P141"/>
-      <c r="Q141"/>
+      <c r="P141" t="n">
+        <v>3104148</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>227696</v>
+      </c>
       <c r="R141" t="n">
         <v>3331844</v>
       </c>
-      <c r="S141"/>
-      <c r="T141"/>
-      <c r="U141"/>
-      <c r="V141"/>
+      <c r="S141" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="T141" t="n">
+        <v>65993</v>
+      </c>
+      <c r="U141" t="n">
+        <v>765</v>
+      </c>
+      <c r="V141" t="n">
+        <v>66758</v>
+      </c>
       <c r="W141" t="n">
         <v>10848</v>
       </c>
@@ -12300,31 +12312,125 @@
       <c r="AC141"/>
       <c r="AD141"/>
       <c r="AE141"/>
-      <c r="AF141" t="n">
-        <v>6068</v>
-      </c>
-      <c r="AG141" t="n">
-        <v>4701</v>
-      </c>
-      <c r="AH141" t="n">
-        <v>2811</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>22294</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>7543</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>21265</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>6654</v>
-      </c>
-      <c r="AM141" t="n">
-        <v>5096</v>
-      </c>
+      <c r="AF141"/>
+      <c r="AG141"/>
+      <c r="AH141"/>
+      <c r="AI141"/>
+      <c r="AJ141"/>
+      <c r="AK141"/>
+      <c r="AL141"/>
+      <c r="AM141"/>
       <c r="AN141" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B142" t="n">
+        <v>351618</v>
+      </c>
+      <c r="C142" t="n">
+        <v>9879</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4348</v>
+      </c>
+      <c r="E142" t="n">
+        <v>197</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K142" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L142" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M142" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N142" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O142" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142" t="n">
+        <v>3396677</v>
+      </c>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142" t="n">
+        <v>10893</v>
+      </c>
+      <c r="X142" t="n">
+        <v>449</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1497</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>223</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>486</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>894</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>12219</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>1585</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3987</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>6149</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>5074</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>2704</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>24411</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>7421</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>18985</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>6794</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>5115</v>
+      </c>
+      <c r="AN142" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12382,34 +12488,34 @@
         <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>151059</v>
+        <v>151955</v>
       </c>
       <c r="C2" t="n">
-        <v>114915</v>
+        <v>115278</v>
       </c>
       <c r="D2" t="n">
-        <v>3216929</v>
+        <v>3281399</v>
       </c>
       <c r="E2" t="n">
-        <v>8562</v>
+        <v>8737</v>
       </c>
       <c r="F2" t="n">
-        <v>55263</v>
+        <v>56155</v>
       </c>
       <c r="G2" t="n">
-        <v>11461</v>
+        <v>10520</v>
       </c>
       <c r="H2" t="n">
-        <v>1088</v>
+        <v>1031</v>
       </c>
       <c r="I2" t="n">
-        <v>5096</v>
+        <v>5115</v>
       </c>
       <c r="J2" t="n">
-        <v>28606</v>
+        <v>29588</v>
       </c>
       <c r="K2" t="n">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -132,6 +132,33 @@
     <t xml:space="preserve">Ventilators_Available</t>
   </si>
   <si>
+    <t xml:space="preserve">HHS_inpatient_bed_utilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_pct_inpatients_with_covid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_icu_bed_utilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_icu_beds_used_estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_inp_beds_used_estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_inpatient_beds_used_covid_est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_fac_reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_definitive_fac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS_pct_fac_reporting_def</t>
+  </si>
+  <si>
     <t xml:space="preserve">Population_DSHS</t>
   </si>
   <si>
@@ -168,7 +195,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">195314.8</t>
+    <t xml:space="preserve">203826.2</t>
   </si>
 </sst>
 </file>
@@ -627,6 +654,33 @@
       <c r="AN1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -698,7 +752,16 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
-      <c r="AN2" t="n">
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -772,7 +835,16 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
-      <c r="AN3" t="n">
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -846,7 +918,16 @@
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4"/>
-      <c r="AN4" t="n">
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -920,7 +1001,16 @@
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
-      <c r="AN5" t="n">
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -994,7 +1084,16 @@
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6"/>
-      <c r="AN6" t="n">
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1068,7 +1167,16 @@
       <c r="AK7"/>
       <c r="AL7"/>
       <c r="AM7"/>
-      <c r="AN7" t="n">
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1142,7 +1250,16 @@
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8"/>
-      <c r="AN8" t="n">
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1216,7 +1333,16 @@
       <c r="AK9"/>
       <c r="AL9"/>
       <c r="AM9"/>
-      <c r="AN9" t="n">
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1290,7 +1416,16 @@
       <c r="AK10"/>
       <c r="AL10"/>
       <c r="AM10"/>
-      <c r="AN10" t="n">
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1364,7 +1499,16 @@
       <c r="AK11"/>
       <c r="AL11"/>
       <c r="AM11"/>
-      <c r="AN11" t="n">
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1438,7 +1582,16 @@
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12"/>
-      <c r="AN12" t="n">
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1512,7 +1665,16 @@
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13"/>
-      <c r="AN13" t="n">
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1586,7 +1748,16 @@
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14"/>
-      <c r="AN14" t="n">
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1660,7 +1831,16 @@
       <c r="AK15"/>
       <c r="AL15"/>
       <c r="AM15"/>
-      <c r="AN15" t="n">
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1734,7 +1914,16 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
-      <c r="AN16" t="n">
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1808,7 +1997,16 @@
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17"/>
-      <c r="AN17" t="n">
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1882,7 +2080,16 @@
       <c r="AK18"/>
       <c r="AL18"/>
       <c r="AM18"/>
-      <c r="AN18" t="n">
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -1956,7 +2163,16 @@
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
-      <c r="AN19" t="n">
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2030,7 +2246,16 @@
       <c r="AK20"/>
       <c r="AL20"/>
       <c r="AM20"/>
-      <c r="AN20" t="n">
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2104,7 +2329,16 @@
       <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21"/>
-      <c r="AN21" t="n">
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2178,7 +2412,16 @@
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22"/>
-      <c r="AN22" t="n">
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2252,7 +2495,16 @@
       <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23"/>
-      <c r="AN23" t="n">
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2326,7 +2578,16 @@
       <c r="AK24"/>
       <c r="AL24"/>
       <c r="AM24"/>
-      <c r="AN24" t="n">
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2400,7 +2661,16 @@
       <c r="AK25"/>
       <c r="AL25"/>
       <c r="AM25"/>
-      <c r="AN25" t="n">
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2474,7 +2744,16 @@
       <c r="AK26"/>
       <c r="AL26"/>
       <c r="AM26"/>
-      <c r="AN26" t="n">
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2548,7 +2827,16 @@
       <c r="AK27"/>
       <c r="AL27"/>
       <c r="AM27"/>
-      <c r="AN27" t="n">
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2622,7 +2910,16 @@
       <c r="AK28"/>
       <c r="AL28"/>
       <c r="AM28"/>
-      <c r="AN28" t="n">
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2696,7 +2993,16 @@
       <c r="AK29"/>
       <c r="AL29"/>
       <c r="AM29"/>
-      <c r="AN29" t="n">
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2770,7 +3076,16 @@
       <c r="AK30"/>
       <c r="AL30"/>
       <c r="AM30"/>
-      <c r="AN30" t="n">
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2844,7 +3159,16 @@
       <c r="AK31"/>
       <c r="AL31"/>
       <c r="AM31"/>
-      <c r="AN31" t="n">
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2918,7 +3242,16 @@
       <c r="AK32"/>
       <c r="AL32"/>
       <c r="AM32"/>
-      <c r="AN32" t="n">
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -2998,7 +3331,16 @@
       <c r="AK33"/>
       <c r="AL33"/>
       <c r="AM33"/>
-      <c r="AN33" t="n">
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3078,7 +3420,16 @@
       <c r="AK34"/>
       <c r="AL34"/>
       <c r="AM34"/>
-      <c r="AN34" t="n">
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3158,7 +3509,16 @@
       <c r="AK35"/>
       <c r="AL35"/>
       <c r="AM35"/>
-      <c r="AN35" t="n">
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3238,7 +3598,16 @@
       <c r="AK36"/>
       <c r="AL36"/>
       <c r="AM36"/>
-      <c r="AN36" t="n">
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3318,7 +3687,16 @@
       <c r="AK37"/>
       <c r="AL37"/>
       <c r="AM37"/>
-      <c r="AN37" t="n">
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3398,7 +3776,16 @@
       <c r="AK38"/>
       <c r="AL38"/>
       <c r="AM38"/>
-      <c r="AN38" t="n">
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3478,7 +3865,16 @@
       <c r="AK39"/>
       <c r="AL39"/>
       <c r="AM39"/>
-      <c r="AN39" t="n">
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3558,7 +3954,16 @@
       <c r="AK40"/>
       <c r="AL40"/>
       <c r="AM40"/>
-      <c r="AN40" t="n">
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3638,7 +4043,16 @@
       <c r="AK41"/>
       <c r="AL41"/>
       <c r="AM41"/>
-      <c r="AN41" t="n">
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3718,7 +4132,16 @@
       <c r="AK42"/>
       <c r="AL42"/>
       <c r="AM42"/>
-      <c r="AN42" t="n">
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3798,7 +4221,16 @@
       <c r="AK43"/>
       <c r="AL43"/>
       <c r="AM43"/>
-      <c r="AN43" t="n">
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3878,7 +4310,16 @@
       <c r="AK44"/>
       <c r="AL44"/>
       <c r="AM44"/>
-      <c r="AN44" t="n">
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+      <c r="AW44" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -3958,7 +4399,16 @@
       <c r="AK45"/>
       <c r="AL45"/>
       <c r="AM45"/>
-      <c r="AN45" t="n">
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4038,7 +4488,16 @@
       <c r="AK46"/>
       <c r="AL46"/>
       <c r="AM46"/>
-      <c r="AN46" t="n">
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+      <c r="AW46" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4118,7 +4577,16 @@
       <c r="AK47"/>
       <c r="AL47"/>
       <c r="AM47"/>
-      <c r="AN47" t="n">
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4198,7 +4666,16 @@
       <c r="AK48"/>
       <c r="AL48"/>
       <c r="AM48"/>
-      <c r="AN48" t="n">
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48"/>
+      <c r="AV48"/>
+      <c r="AW48" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4278,7 +4755,16 @@
       <c r="AK49"/>
       <c r="AL49"/>
       <c r="AM49"/>
-      <c r="AN49" t="n">
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+      <c r="AW49" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4358,7 +4844,16 @@
       <c r="AK50"/>
       <c r="AL50"/>
       <c r="AM50"/>
-      <c r="AN50" t="n">
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4438,7 +4933,16 @@
       <c r="AK51"/>
       <c r="AL51"/>
       <c r="AM51"/>
-      <c r="AN51" t="n">
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4518,7 +5022,16 @@
       <c r="AK52"/>
       <c r="AL52"/>
       <c r="AM52"/>
-      <c r="AN52" t="n">
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4598,7 +5111,16 @@
       <c r="AK53"/>
       <c r="AL53"/>
       <c r="AM53"/>
-      <c r="AN53" t="n">
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53"/>
+      <c r="AV53"/>
+      <c r="AW53" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4678,7 +5200,16 @@
       <c r="AK54"/>
       <c r="AL54"/>
       <c r="AM54"/>
-      <c r="AN54" t="n">
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54"/>
+      <c r="AV54"/>
+      <c r="AW54" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4758,7 +5289,16 @@
       <c r="AK55"/>
       <c r="AL55"/>
       <c r="AM55"/>
-      <c r="AN55" t="n">
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+      <c r="AS55"/>
+      <c r="AT55"/>
+      <c r="AU55"/>
+      <c r="AV55"/>
+      <c r="AW55" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4838,7 +5378,16 @@
       <c r="AK56"/>
       <c r="AL56"/>
       <c r="AM56"/>
-      <c r="AN56" t="n">
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+      <c r="AS56"/>
+      <c r="AT56"/>
+      <c r="AU56"/>
+      <c r="AV56"/>
+      <c r="AW56" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4918,7 +5467,16 @@
       <c r="AK57"/>
       <c r="AL57"/>
       <c r="AM57"/>
-      <c r="AN57" t="n">
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -4998,7 +5556,16 @@
       <c r="AK58"/>
       <c r="AL58"/>
       <c r="AM58"/>
-      <c r="AN58" t="n">
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5078,7 +5645,16 @@
       <c r="AK59"/>
       <c r="AL59"/>
       <c r="AM59"/>
-      <c r="AN59" t="n">
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5158,7 +5734,16 @@
       <c r="AK60"/>
       <c r="AL60"/>
       <c r="AM60"/>
-      <c r="AN60" t="n">
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+      <c r="AT60"/>
+      <c r="AU60"/>
+      <c r="AV60"/>
+      <c r="AW60" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5238,7 +5823,16 @@
       <c r="AK61"/>
       <c r="AL61"/>
       <c r="AM61"/>
-      <c r="AN61" t="n">
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+      <c r="AT61"/>
+      <c r="AU61"/>
+      <c r="AV61"/>
+      <c r="AW61" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5318,7 +5912,16 @@
       <c r="AK62"/>
       <c r="AL62"/>
       <c r="AM62"/>
-      <c r="AN62" t="n">
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5398,7 +6001,16 @@
       <c r="AK63"/>
       <c r="AL63"/>
       <c r="AM63"/>
-      <c r="AN63" t="n">
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5478,7 +6090,16 @@
       <c r="AK64"/>
       <c r="AL64"/>
       <c r="AM64"/>
-      <c r="AN64" t="n">
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5558,7 +6179,16 @@
       <c r="AK65"/>
       <c r="AL65"/>
       <c r="AM65"/>
-      <c r="AN65" t="n">
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+      <c r="AT65"/>
+      <c r="AU65"/>
+      <c r="AV65"/>
+      <c r="AW65" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5638,7 +6268,16 @@
       <c r="AK66"/>
       <c r="AL66"/>
       <c r="AM66"/>
-      <c r="AN66" t="n">
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+      <c r="AT66"/>
+      <c r="AU66"/>
+      <c r="AV66"/>
+      <c r="AW66" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5718,7 +6357,16 @@
       <c r="AK67"/>
       <c r="AL67"/>
       <c r="AM67"/>
-      <c r="AN67" t="n">
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+      <c r="AS67"/>
+      <c r="AT67"/>
+      <c r="AU67"/>
+      <c r="AV67"/>
+      <c r="AW67" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5802,7 +6450,16 @@
       <c r="AK68"/>
       <c r="AL68"/>
       <c r="AM68"/>
-      <c r="AN68" t="n">
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
+      <c r="AQ68"/>
+      <c r="AR68"/>
+      <c r="AS68"/>
+      <c r="AT68"/>
+      <c r="AU68"/>
+      <c r="AV68"/>
+      <c r="AW68" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5886,7 +6543,16 @@
       <c r="AK69"/>
       <c r="AL69"/>
       <c r="AM69"/>
-      <c r="AN69" t="n">
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AP69"/>
+      <c r="AQ69"/>
+      <c r="AR69"/>
+      <c r="AS69"/>
+      <c r="AT69"/>
+      <c r="AU69"/>
+      <c r="AV69"/>
+      <c r="AW69" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -5970,7 +6636,16 @@
       <c r="AK70"/>
       <c r="AL70"/>
       <c r="AM70"/>
-      <c r="AN70" t="n">
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AP70"/>
+      <c r="AQ70"/>
+      <c r="AR70"/>
+      <c r="AS70"/>
+      <c r="AT70"/>
+      <c r="AU70"/>
+      <c r="AV70"/>
+      <c r="AW70" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6054,7 +6729,16 @@
       <c r="AK71"/>
       <c r="AL71"/>
       <c r="AM71"/>
-      <c r="AN71" t="n">
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+      <c r="AT71"/>
+      <c r="AU71"/>
+      <c r="AV71"/>
+      <c r="AW71" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6138,7 +6822,16 @@
       <c r="AK72"/>
       <c r="AL72"/>
       <c r="AM72"/>
-      <c r="AN72" t="n">
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AP72"/>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+      <c r="AS72"/>
+      <c r="AT72"/>
+      <c r="AU72"/>
+      <c r="AV72"/>
+      <c r="AW72" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6222,7 +6915,16 @@
       <c r="AK73"/>
       <c r="AL73"/>
       <c r="AM73"/>
-      <c r="AN73" t="n">
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+      <c r="AS73"/>
+      <c r="AT73"/>
+      <c r="AU73"/>
+      <c r="AV73"/>
+      <c r="AW73" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6306,7 +7008,16 @@
       <c r="AK74"/>
       <c r="AL74"/>
       <c r="AM74"/>
-      <c r="AN74" t="n">
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+      <c r="AS74"/>
+      <c r="AT74"/>
+      <c r="AU74"/>
+      <c r="AV74"/>
+      <c r="AW74" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6396,7 +7107,16 @@
       <c r="AK75"/>
       <c r="AL75"/>
       <c r="AM75"/>
-      <c r="AN75" t="n">
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75"/>
+      <c r="AQ75"/>
+      <c r="AR75"/>
+      <c r="AS75"/>
+      <c r="AT75"/>
+      <c r="AU75"/>
+      <c r="AV75"/>
+      <c r="AW75" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6486,7 +7206,16 @@
       <c r="AK76"/>
       <c r="AL76"/>
       <c r="AM76"/>
-      <c r="AN76" t="n">
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+      <c r="AS76"/>
+      <c r="AT76"/>
+      <c r="AU76"/>
+      <c r="AV76"/>
+      <c r="AW76" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6576,7 +7305,16 @@
       <c r="AK77"/>
       <c r="AL77"/>
       <c r="AM77"/>
-      <c r="AN77" t="n">
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+      <c r="AV77"/>
+      <c r="AW77" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6666,7 +7404,16 @@
       <c r="AK78"/>
       <c r="AL78"/>
       <c r="AM78"/>
-      <c r="AN78" t="n">
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AP78"/>
+      <c r="AQ78"/>
+      <c r="AR78"/>
+      <c r="AS78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+      <c r="AV78"/>
+      <c r="AW78" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6756,7 +7503,16 @@
       <c r="AK79"/>
       <c r="AL79"/>
       <c r="AM79"/>
-      <c r="AN79" t="n">
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+      <c r="AW79" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6846,7 +7602,16 @@
       <c r="AK80"/>
       <c r="AL80"/>
       <c r="AM80"/>
-      <c r="AN80" t="n">
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
+      <c r="AQ80"/>
+      <c r="AR80"/>
+      <c r="AS80"/>
+      <c r="AT80"/>
+      <c r="AU80"/>
+      <c r="AV80"/>
+      <c r="AW80" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -6936,7 +7701,16 @@
       <c r="AK81"/>
       <c r="AL81"/>
       <c r="AM81"/>
-      <c r="AN81" t="n">
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
+      <c r="AQ81"/>
+      <c r="AR81"/>
+      <c r="AS81"/>
+      <c r="AT81"/>
+      <c r="AU81"/>
+      <c r="AV81"/>
+      <c r="AW81" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7016,7 +7790,16 @@
       <c r="AK82"/>
       <c r="AL82"/>
       <c r="AM82"/>
-      <c r="AN82" t="n">
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
+      <c r="AQ82"/>
+      <c r="AR82"/>
+      <c r="AS82"/>
+      <c r="AT82"/>
+      <c r="AU82"/>
+      <c r="AV82"/>
+      <c r="AW82" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7106,7 +7889,16 @@
       <c r="AK83"/>
       <c r="AL83"/>
       <c r="AM83"/>
-      <c r="AN83" t="n">
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AP83"/>
+      <c r="AQ83"/>
+      <c r="AR83"/>
+      <c r="AS83"/>
+      <c r="AT83"/>
+      <c r="AU83"/>
+      <c r="AV83"/>
+      <c r="AW83" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7196,7 +7988,16 @@
       <c r="AK84"/>
       <c r="AL84"/>
       <c r="AM84"/>
-      <c r="AN84" t="n">
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AP84"/>
+      <c r="AQ84"/>
+      <c r="AR84"/>
+      <c r="AS84"/>
+      <c r="AT84"/>
+      <c r="AU84"/>
+      <c r="AV84"/>
+      <c r="AW84" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7286,7 +8087,16 @@
       <c r="AK85"/>
       <c r="AL85"/>
       <c r="AM85"/>
-      <c r="AN85" t="n">
+      <c r="AN85"/>
+      <c r="AO85"/>
+      <c r="AP85"/>
+      <c r="AQ85"/>
+      <c r="AR85"/>
+      <c r="AS85"/>
+      <c r="AT85"/>
+      <c r="AU85"/>
+      <c r="AV85"/>
+      <c r="AW85" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7376,7 +8186,16 @@
       <c r="AK86"/>
       <c r="AL86"/>
       <c r="AM86"/>
-      <c r="AN86" t="n">
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
+      <c r="AQ86"/>
+      <c r="AR86"/>
+      <c r="AS86"/>
+      <c r="AT86"/>
+      <c r="AU86"/>
+      <c r="AV86"/>
+      <c r="AW86" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7466,7 +8285,16 @@
       <c r="AK87"/>
       <c r="AL87"/>
       <c r="AM87"/>
-      <c r="AN87" t="n">
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AP87"/>
+      <c r="AQ87"/>
+      <c r="AR87"/>
+      <c r="AS87"/>
+      <c r="AT87"/>
+      <c r="AU87"/>
+      <c r="AV87"/>
+      <c r="AW87" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7556,7 +8384,16 @@
       <c r="AK88"/>
       <c r="AL88"/>
       <c r="AM88"/>
-      <c r="AN88" t="n">
+      <c r="AN88"/>
+      <c r="AO88"/>
+      <c r="AP88"/>
+      <c r="AQ88"/>
+      <c r="AR88"/>
+      <c r="AS88"/>
+      <c r="AT88"/>
+      <c r="AU88"/>
+      <c r="AV88"/>
+      <c r="AW88" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7640,7 +8477,16 @@
       <c r="AK89"/>
       <c r="AL89"/>
       <c r="AM89"/>
-      <c r="AN89" t="n">
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AP89"/>
+      <c r="AQ89"/>
+      <c r="AR89"/>
+      <c r="AS89"/>
+      <c r="AT89"/>
+      <c r="AU89"/>
+      <c r="AV89"/>
+      <c r="AW89" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7730,7 +8576,16 @@
       <c r="AK90"/>
       <c r="AL90"/>
       <c r="AM90"/>
-      <c r="AN90" t="n">
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AP90"/>
+      <c r="AQ90"/>
+      <c r="AR90"/>
+      <c r="AS90"/>
+      <c r="AT90"/>
+      <c r="AU90"/>
+      <c r="AV90"/>
+      <c r="AW90" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7820,7 +8675,16 @@
       <c r="AK91"/>
       <c r="AL91"/>
       <c r="AM91"/>
-      <c r="AN91" t="n">
+      <c r="AN91"/>
+      <c r="AO91"/>
+      <c r="AP91"/>
+      <c r="AQ91"/>
+      <c r="AR91"/>
+      <c r="AS91"/>
+      <c r="AT91"/>
+      <c r="AU91"/>
+      <c r="AV91"/>
+      <c r="AW91" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -7910,7 +8774,16 @@
       <c r="AK92"/>
       <c r="AL92"/>
       <c r="AM92"/>
-      <c r="AN92" t="n">
+      <c r="AN92"/>
+      <c r="AO92"/>
+      <c r="AP92"/>
+      <c r="AQ92"/>
+      <c r="AR92"/>
+      <c r="AS92"/>
+      <c r="AT92"/>
+      <c r="AU92"/>
+      <c r="AV92"/>
+      <c r="AW92" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8000,7 +8873,16 @@
       <c r="AK93"/>
       <c r="AL93"/>
       <c r="AM93"/>
-      <c r="AN93" t="n">
+      <c r="AN93"/>
+      <c r="AO93"/>
+      <c r="AP93"/>
+      <c r="AQ93"/>
+      <c r="AR93"/>
+      <c r="AS93"/>
+      <c r="AT93"/>
+      <c r="AU93"/>
+      <c r="AV93"/>
+      <c r="AW93" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8090,7 +8972,16 @@
       <c r="AK94"/>
       <c r="AL94"/>
       <c r="AM94"/>
-      <c r="AN94" t="n">
+      <c r="AN94"/>
+      <c r="AO94"/>
+      <c r="AP94"/>
+      <c r="AQ94"/>
+      <c r="AR94"/>
+      <c r="AS94"/>
+      <c r="AT94"/>
+      <c r="AU94"/>
+      <c r="AV94"/>
+      <c r="AW94" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8180,7 +9071,16 @@
       <c r="AK95"/>
       <c r="AL95"/>
       <c r="AM95"/>
-      <c r="AN95" t="n">
+      <c r="AN95"/>
+      <c r="AO95"/>
+      <c r="AP95"/>
+      <c r="AQ95"/>
+      <c r="AR95"/>
+      <c r="AS95"/>
+      <c r="AT95"/>
+      <c r="AU95"/>
+      <c r="AV95"/>
+      <c r="AW95" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8270,7 +9170,16 @@
       <c r="AK96"/>
       <c r="AL96"/>
       <c r="AM96"/>
-      <c r="AN96" t="n">
+      <c r="AN96"/>
+      <c r="AO96"/>
+      <c r="AP96"/>
+      <c r="AQ96"/>
+      <c r="AR96"/>
+      <c r="AS96"/>
+      <c r="AT96"/>
+      <c r="AU96"/>
+      <c r="AV96"/>
+      <c r="AW96" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8360,7 +9269,16 @@
       <c r="AK97"/>
       <c r="AL97"/>
       <c r="AM97"/>
-      <c r="AN97" t="n">
+      <c r="AN97"/>
+      <c r="AO97"/>
+      <c r="AP97"/>
+      <c r="AQ97"/>
+      <c r="AR97"/>
+      <c r="AS97"/>
+      <c r="AT97"/>
+      <c r="AU97"/>
+      <c r="AV97"/>
+      <c r="AW97" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8450,7 +9368,16 @@
       <c r="AK98"/>
       <c r="AL98"/>
       <c r="AM98"/>
-      <c r="AN98" t="n">
+      <c r="AN98"/>
+      <c r="AO98"/>
+      <c r="AP98"/>
+      <c r="AQ98"/>
+      <c r="AR98"/>
+      <c r="AS98"/>
+      <c r="AT98"/>
+      <c r="AU98"/>
+      <c r="AV98"/>
+      <c r="AW98" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8540,7 +9467,16 @@
       <c r="AK99"/>
       <c r="AL99"/>
       <c r="AM99"/>
-      <c r="AN99" t="n">
+      <c r="AN99"/>
+      <c r="AO99"/>
+      <c r="AP99"/>
+      <c r="AQ99"/>
+      <c r="AR99"/>
+      <c r="AS99"/>
+      <c r="AT99"/>
+      <c r="AU99"/>
+      <c r="AV99"/>
+      <c r="AW99" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8630,7 +9566,16 @@
       <c r="AK100"/>
       <c r="AL100"/>
       <c r="AM100"/>
-      <c r="AN100" t="n">
+      <c r="AN100"/>
+      <c r="AO100"/>
+      <c r="AP100"/>
+      <c r="AQ100"/>
+      <c r="AR100"/>
+      <c r="AS100"/>
+      <c r="AT100"/>
+      <c r="AU100"/>
+      <c r="AV100"/>
+      <c r="AW100" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8720,7 +9665,16 @@
       <c r="AK101"/>
       <c r="AL101"/>
       <c r="AM101"/>
-      <c r="AN101" t="n">
+      <c r="AN101"/>
+      <c r="AO101"/>
+      <c r="AP101"/>
+      <c r="AQ101"/>
+      <c r="AR101"/>
+      <c r="AS101"/>
+      <c r="AT101"/>
+      <c r="AU101"/>
+      <c r="AV101"/>
+      <c r="AW101" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8810,7 +9764,16 @@
       <c r="AK102"/>
       <c r="AL102"/>
       <c r="AM102"/>
-      <c r="AN102" t="n">
+      <c r="AN102"/>
+      <c r="AO102"/>
+      <c r="AP102"/>
+      <c r="AQ102"/>
+      <c r="AR102"/>
+      <c r="AS102"/>
+      <c r="AT102"/>
+      <c r="AU102"/>
+      <c r="AV102"/>
+      <c r="AW102" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8900,7 +9863,16 @@
       <c r="AK103"/>
       <c r="AL103"/>
       <c r="AM103"/>
-      <c r="AN103" t="n">
+      <c r="AN103"/>
+      <c r="AO103"/>
+      <c r="AP103"/>
+      <c r="AQ103"/>
+      <c r="AR103"/>
+      <c r="AS103"/>
+      <c r="AT103"/>
+      <c r="AU103"/>
+      <c r="AV103"/>
+      <c r="AW103" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -8990,7 +9962,16 @@
       <c r="AK104"/>
       <c r="AL104"/>
       <c r="AM104"/>
-      <c r="AN104" t="n">
+      <c r="AN104"/>
+      <c r="AO104"/>
+      <c r="AP104"/>
+      <c r="AQ104"/>
+      <c r="AR104"/>
+      <c r="AS104"/>
+      <c r="AT104"/>
+      <c r="AU104"/>
+      <c r="AV104"/>
+      <c r="AW104" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9080,7 +10061,16 @@
       <c r="AK105"/>
       <c r="AL105"/>
       <c r="AM105"/>
-      <c r="AN105" t="n">
+      <c r="AN105"/>
+      <c r="AO105"/>
+      <c r="AP105"/>
+      <c r="AQ105"/>
+      <c r="AR105"/>
+      <c r="AS105"/>
+      <c r="AT105"/>
+      <c r="AU105"/>
+      <c r="AV105"/>
+      <c r="AW105" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9170,7 +10160,16 @@
       <c r="AK106"/>
       <c r="AL106"/>
       <c r="AM106"/>
-      <c r="AN106" t="n">
+      <c r="AN106"/>
+      <c r="AO106"/>
+      <c r="AP106"/>
+      <c r="AQ106"/>
+      <c r="AR106"/>
+      <c r="AS106"/>
+      <c r="AT106"/>
+      <c r="AU106"/>
+      <c r="AV106"/>
+      <c r="AW106" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9260,7 +10259,16 @@
       <c r="AK107"/>
       <c r="AL107"/>
       <c r="AM107"/>
-      <c r="AN107" t="n">
+      <c r="AN107"/>
+      <c r="AO107"/>
+      <c r="AP107"/>
+      <c r="AQ107"/>
+      <c r="AR107"/>
+      <c r="AS107"/>
+      <c r="AT107"/>
+      <c r="AU107"/>
+      <c r="AV107"/>
+      <c r="AW107" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9350,7 +10358,16 @@
       <c r="AK108"/>
       <c r="AL108"/>
       <c r="AM108"/>
-      <c r="AN108" t="n">
+      <c r="AN108"/>
+      <c r="AO108"/>
+      <c r="AP108"/>
+      <c r="AQ108"/>
+      <c r="AR108"/>
+      <c r="AS108"/>
+      <c r="AT108"/>
+      <c r="AU108"/>
+      <c r="AV108"/>
+      <c r="AW108" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9440,7 +10457,16 @@
       <c r="AK109"/>
       <c r="AL109"/>
       <c r="AM109"/>
-      <c r="AN109" t="n">
+      <c r="AN109"/>
+      <c r="AO109"/>
+      <c r="AP109"/>
+      <c r="AQ109"/>
+      <c r="AR109"/>
+      <c r="AS109"/>
+      <c r="AT109"/>
+      <c r="AU109"/>
+      <c r="AV109"/>
+      <c r="AW109" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9530,7 +10556,16 @@
       <c r="AK110"/>
       <c r="AL110"/>
       <c r="AM110"/>
-      <c r="AN110" t="n">
+      <c r="AN110"/>
+      <c r="AO110"/>
+      <c r="AP110"/>
+      <c r="AQ110"/>
+      <c r="AR110"/>
+      <c r="AS110"/>
+      <c r="AT110"/>
+      <c r="AU110"/>
+      <c r="AV110"/>
+      <c r="AW110" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9620,7 +10655,16 @@
       <c r="AK111"/>
       <c r="AL111"/>
       <c r="AM111"/>
-      <c r="AN111" t="n">
+      <c r="AN111"/>
+      <c r="AO111"/>
+      <c r="AP111"/>
+      <c r="AQ111"/>
+      <c r="AR111"/>
+      <c r="AS111"/>
+      <c r="AT111"/>
+      <c r="AU111"/>
+      <c r="AV111"/>
+      <c r="AW111" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9710,7 +10754,16 @@
       <c r="AK112"/>
       <c r="AL112"/>
       <c r="AM112"/>
-      <c r="AN112" t="n">
+      <c r="AN112"/>
+      <c r="AO112"/>
+      <c r="AP112"/>
+      <c r="AQ112"/>
+      <c r="AR112"/>
+      <c r="AS112"/>
+      <c r="AT112"/>
+      <c r="AU112"/>
+      <c r="AV112"/>
+      <c r="AW112" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9800,7 +10853,16 @@
       <c r="AK113"/>
       <c r="AL113"/>
       <c r="AM113"/>
-      <c r="AN113" t="n">
+      <c r="AN113"/>
+      <c r="AO113"/>
+      <c r="AP113"/>
+      <c r="AQ113"/>
+      <c r="AR113"/>
+      <c r="AS113"/>
+      <c r="AT113"/>
+      <c r="AU113"/>
+      <c r="AV113"/>
+      <c r="AW113" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9890,7 +10952,16 @@
       <c r="AK114"/>
       <c r="AL114"/>
       <c r="AM114"/>
-      <c r="AN114" t="n">
+      <c r="AN114"/>
+      <c r="AO114"/>
+      <c r="AP114"/>
+      <c r="AQ114"/>
+      <c r="AR114"/>
+      <c r="AS114"/>
+      <c r="AT114"/>
+      <c r="AU114"/>
+      <c r="AV114"/>
+      <c r="AW114" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -9980,7 +11051,16 @@
       <c r="AK115"/>
       <c r="AL115"/>
       <c r="AM115"/>
-      <c r="AN115" t="n">
+      <c r="AN115"/>
+      <c r="AO115"/>
+      <c r="AP115"/>
+      <c r="AQ115"/>
+      <c r="AR115"/>
+      <c r="AS115"/>
+      <c r="AT115"/>
+      <c r="AU115"/>
+      <c r="AV115"/>
+      <c r="AW115" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10070,7 +11150,16 @@
       <c r="AK116"/>
       <c r="AL116"/>
       <c r="AM116"/>
-      <c r="AN116" t="n">
+      <c r="AN116"/>
+      <c r="AO116"/>
+      <c r="AP116"/>
+      <c r="AQ116"/>
+      <c r="AR116"/>
+      <c r="AS116"/>
+      <c r="AT116"/>
+      <c r="AU116"/>
+      <c r="AV116"/>
+      <c r="AW116" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10160,7 +11249,16 @@
       <c r="AK117"/>
       <c r="AL117"/>
       <c r="AM117"/>
-      <c r="AN117" t="n">
+      <c r="AN117"/>
+      <c r="AO117"/>
+      <c r="AP117"/>
+      <c r="AQ117"/>
+      <c r="AR117"/>
+      <c r="AS117"/>
+      <c r="AT117"/>
+      <c r="AU117"/>
+      <c r="AV117"/>
+      <c r="AW117" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10250,7 +11348,16 @@
       <c r="AK118"/>
       <c r="AL118"/>
       <c r="AM118"/>
-      <c r="AN118" t="n">
+      <c r="AN118"/>
+      <c r="AO118"/>
+      <c r="AP118"/>
+      <c r="AQ118"/>
+      <c r="AR118"/>
+      <c r="AS118"/>
+      <c r="AT118"/>
+      <c r="AU118"/>
+      <c r="AV118"/>
+      <c r="AW118" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10340,7 +11447,16 @@
       <c r="AK119"/>
       <c r="AL119"/>
       <c r="AM119"/>
-      <c r="AN119" t="n">
+      <c r="AN119"/>
+      <c r="AO119"/>
+      <c r="AP119"/>
+      <c r="AQ119"/>
+      <c r="AR119"/>
+      <c r="AS119"/>
+      <c r="AT119"/>
+      <c r="AU119"/>
+      <c r="AV119"/>
+      <c r="AW119" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10430,7 +11546,16 @@
       <c r="AK120"/>
       <c r="AL120"/>
       <c r="AM120"/>
-      <c r="AN120" t="n">
+      <c r="AN120"/>
+      <c r="AO120"/>
+      <c r="AP120"/>
+      <c r="AQ120"/>
+      <c r="AR120"/>
+      <c r="AS120"/>
+      <c r="AT120"/>
+      <c r="AU120"/>
+      <c r="AV120"/>
+      <c r="AW120" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10520,7 +11645,16 @@
       <c r="AK121"/>
       <c r="AL121"/>
       <c r="AM121"/>
-      <c r="AN121" t="n">
+      <c r="AN121"/>
+      <c r="AO121"/>
+      <c r="AP121"/>
+      <c r="AQ121"/>
+      <c r="AR121"/>
+      <c r="AS121"/>
+      <c r="AT121"/>
+      <c r="AU121"/>
+      <c r="AV121"/>
+      <c r="AW121" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10610,7 +11744,16 @@
       <c r="AK122"/>
       <c r="AL122"/>
       <c r="AM122"/>
-      <c r="AN122" t="n">
+      <c r="AN122"/>
+      <c r="AO122"/>
+      <c r="AP122"/>
+      <c r="AQ122"/>
+      <c r="AR122"/>
+      <c r="AS122"/>
+      <c r="AT122"/>
+      <c r="AU122"/>
+      <c r="AV122"/>
+      <c r="AW122" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10700,7 +11843,16 @@
       <c r="AK123"/>
       <c r="AL123"/>
       <c r="AM123"/>
-      <c r="AN123" t="n">
+      <c r="AN123"/>
+      <c r="AO123"/>
+      <c r="AP123"/>
+      <c r="AQ123"/>
+      <c r="AR123"/>
+      <c r="AS123"/>
+      <c r="AT123"/>
+      <c r="AU123"/>
+      <c r="AV123"/>
+      <c r="AW123" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10790,7 +11942,16 @@
       <c r="AK124"/>
       <c r="AL124"/>
       <c r="AM124"/>
-      <c r="AN124" t="n">
+      <c r="AN124"/>
+      <c r="AO124"/>
+      <c r="AP124"/>
+      <c r="AQ124"/>
+      <c r="AR124"/>
+      <c r="AS124"/>
+      <c r="AT124"/>
+      <c r="AU124"/>
+      <c r="AV124"/>
+      <c r="AW124" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10880,7 +12041,16 @@
       <c r="AK125"/>
       <c r="AL125"/>
       <c r="AM125"/>
-      <c r="AN125" t="n">
+      <c r="AN125"/>
+      <c r="AO125"/>
+      <c r="AP125"/>
+      <c r="AQ125"/>
+      <c r="AR125"/>
+      <c r="AS125"/>
+      <c r="AT125"/>
+      <c r="AU125"/>
+      <c r="AV125"/>
+      <c r="AW125" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -10970,7 +12140,16 @@
       <c r="AK126"/>
       <c r="AL126"/>
       <c r="AM126"/>
-      <c r="AN126" t="n">
+      <c r="AN126"/>
+      <c r="AO126"/>
+      <c r="AP126"/>
+      <c r="AQ126"/>
+      <c r="AR126"/>
+      <c r="AS126"/>
+      <c r="AT126"/>
+      <c r="AU126"/>
+      <c r="AV126"/>
+      <c r="AW126" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11060,7 +12239,16 @@
       <c r="AK127"/>
       <c r="AL127"/>
       <c r="AM127"/>
-      <c r="AN127" t="n">
+      <c r="AN127"/>
+      <c r="AO127"/>
+      <c r="AP127"/>
+      <c r="AQ127"/>
+      <c r="AR127"/>
+      <c r="AS127"/>
+      <c r="AT127"/>
+      <c r="AU127"/>
+      <c r="AV127"/>
+      <c r="AW127" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11150,7 +12338,16 @@
       <c r="AK128"/>
       <c r="AL128"/>
       <c r="AM128"/>
-      <c r="AN128" t="n">
+      <c r="AN128"/>
+      <c r="AO128"/>
+      <c r="AP128"/>
+      <c r="AQ128"/>
+      <c r="AR128"/>
+      <c r="AS128"/>
+      <c r="AT128"/>
+      <c r="AU128"/>
+      <c r="AV128"/>
+      <c r="AW128" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11240,7 +12437,16 @@
       <c r="AK129"/>
       <c r="AL129"/>
       <c r="AM129"/>
-      <c r="AN129" t="n">
+      <c r="AN129"/>
+      <c r="AO129"/>
+      <c r="AP129"/>
+      <c r="AQ129"/>
+      <c r="AR129"/>
+      <c r="AS129"/>
+      <c r="AT129"/>
+      <c r="AU129"/>
+      <c r="AV129"/>
+      <c r="AW129" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11330,7 +12536,16 @@
       <c r="AK130"/>
       <c r="AL130"/>
       <c r="AM130"/>
-      <c r="AN130" t="n">
+      <c r="AN130"/>
+      <c r="AO130"/>
+      <c r="AP130"/>
+      <c r="AQ130"/>
+      <c r="AR130"/>
+      <c r="AS130"/>
+      <c r="AT130"/>
+      <c r="AU130"/>
+      <c r="AV130"/>
+      <c r="AW130" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11420,7 +12635,16 @@
       <c r="AK131"/>
       <c r="AL131"/>
       <c r="AM131"/>
-      <c r="AN131" t="n">
+      <c r="AN131"/>
+      <c r="AO131"/>
+      <c r="AP131"/>
+      <c r="AQ131"/>
+      <c r="AR131"/>
+      <c r="AS131"/>
+      <c r="AT131"/>
+      <c r="AU131"/>
+      <c r="AV131"/>
+      <c r="AW131" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11510,7 +12734,16 @@
       <c r="AK132"/>
       <c r="AL132"/>
       <c r="AM132"/>
-      <c r="AN132" t="n">
+      <c r="AN132"/>
+      <c r="AO132"/>
+      <c r="AP132"/>
+      <c r="AQ132"/>
+      <c r="AR132"/>
+      <c r="AS132"/>
+      <c r="AT132"/>
+      <c r="AU132"/>
+      <c r="AV132"/>
+      <c r="AW132" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11600,7 +12833,16 @@
       <c r="AK133"/>
       <c r="AL133"/>
       <c r="AM133"/>
-      <c r="AN133" t="n">
+      <c r="AN133"/>
+      <c r="AO133"/>
+      <c r="AP133"/>
+      <c r="AQ133"/>
+      <c r="AR133"/>
+      <c r="AS133"/>
+      <c r="AT133"/>
+      <c r="AU133"/>
+      <c r="AV133"/>
+      <c r="AW133" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11690,7 +12932,16 @@
       <c r="AK134"/>
       <c r="AL134"/>
       <c r="AM134"/>
-      <c r="AN134" t="n">
+      <c r="AN134"/>
+      <c r="AO134"/>
+      <c r="AP134"/>
+      <c r="AQ134"/>
+      <c r="AR134"/>
+      <c r="AS134"/>
+      <c r="AT134"/>
+      <c r="AU134"/>
+      <c r="AV134"/>
+      <c r="AW134" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11780,7 +13031,16 @@
       <c r="AK135"/>
       <c r="AL135"/>
       <c r="AM135"/>
-      <c r="AN135" t="n">
+      <c r="AN135"/>
+      <c r="AO135"/>
+      <c r="AP135"/>
+      <c r="AQ135"/>
+      <c r="AR135"/>
+      <c r="AS135"/>
+      <c r="AT135"/>
+      <c r="AU135"/>
+      <c r="AV135"/>
+      <c r="AW135" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11870,7 +13130,16 @@
       <c r="AK136"/>
       <c r="AL136"/>
       <c r="AM136"/>
-      <c r="AN136" t="n">
+      <c r="AN136"/>
+      <c r="AO136"/>
+      <c r="AP136"/>
+      <c r="AQ136"/>
+      <c r="AR136"/>
+      <c r="AS136"/>
+      <c r="AT136"/>
+      <c r="AU136"/>
+      <c r="AV136"/>
+      <c r="AW136" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -11960,7 +13229,16 @@
       <c r="AK137"/>
       <c r="AL137"/>
       <c r="AM137"/>
-      <c r="AN137" t="n">
+      <c r="AN137"/>
+      <c r="AO137"/>
+      <c r="AP137"/>
+      <c r="AQ137"/>
+      <c r="AR137"/>
+      <c r="AS137"/>
+      <c r="AT137"/>
+      <c r="AU137"/>
+      <c r="AV137"/>
+      <c r="AW137" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12050,7 +13328,16 @@
       <c r="AK138"/>
       <c r="AL138"/>
       <c r="AM138"/>
-      <c r="AN138" t="n">
+      <c r="AN138"/>
+      <c r="AO138"/>
+      <c r="AP138"/>
+      <c r="AQ138"/>
+      <c r="AR138"/>
+      <c r="AS138"/>
+      <c r="AT138"/>
+      <c r="AU138"/>
+      <c r="AV138"/>
+      <c r="AW138" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12140,7 +13427,16 @@
       <c r="AK139"/>
       <c r="AL139"/>
       <c r="AM139"/>
-      <c r="AN139" t="n">
+      <c r="AN139"/>
+      <c r="AO139"/>
+      <c r="AP139"/>
+      <c r="AQ139"/>
+      <c r="AR139"/>
+      <c r="AS139"/>
+      <c r="AT139"/>
+      <c r="AU139"/>
+      <c r="AV139"/>
+      <c r="AW139" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12230,7 +13526,16 @@
       <c r="AK140"/>
       <c r="AL140"/>
       <c r="AM140"/>
-      <c r="AN140" t="n">
+      <c r="AN140"/>
+      <c r="AO140"/>
+      <c r="AP140"/>
+      <c r="AQ140"/>
+      <c r="AR140"/>
+      <c r="AS140"/>
+      <c r="AT140"/>
+      <c r="AU140"/>
+      <c r="AV140"/>
+      <c r="AW140" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12320,7 +13625,16 @@
       <c r="AK141"/>
       <c r="AL141"/>
       <c r="AM141"/>
-      <c r="AN141" t="n">
+      <c r="AN141"/>
+      <c r="AO141"/>
+      <c r="AP141"/>
+      <c r="AQ141"/>
+      <c r="AR141"/>
+      <c r="AS141"/>
+      <c r="AT141"/>
+      <c r="AU141"/>
+      <c r="AV141"/>
+      <c r="AW141" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12341,16 +13655,16 @@
         <v>197</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>2544071</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>29194</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>155245</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2722</v>
       </c>
       <c r="J142" t="e">
         <v>#NUM!</v>
@@ -12370,67 +13684,246 @@
       <c r="O142" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P142"/>
-      <c r="Q142"/>
+      <c r="P142" t="n">
+        <v>3164656</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>232021</v>
+      </c>
       <c r="R142" t="n">
         <v>3396677</v>
       </c>
-      <c r="S142"/>
-      <c r="T142"/>
-      <c r="U142"/>
-      <c r="V142"/>
+      <c r="S142" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="T142" t="n">
+        <v>66400</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1084</v>
+      </c>
+      <c r="V142" t="n">
+        <v>67484</v>
+      </c>
       <c r="W142" t="n">
         <v>10893</v>
       </c>
-      <c r="X142" t="n">
-        <v>449</v>
-      </c>
-      <c r="Y142" t="n">
-        <v>1497</v>
-      </c>
-      <c r="Z142" t="n">
-        <v>223</v>
-      </c>
-      <c r="AA142" t="n">
-        <v>486</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>894</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>12219</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>1585</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>3987</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>6149</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>5074</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>2704</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>24411</v>
-      </c>
-      <c r="AJ142" t="n">
-        <v>7421</v>
-      </c>
-      <c r="AK142" t="n">
-        <v>18985</v>
-      </c>
-      <c r="AL142" t="n">
-        <v>6794</v>
-      </c>
-      <c r="AM142" t="n">
-        <v>5115</v>
-      </c>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+      <c r="AE142"/>
+      <c r="AF142"/>
+      <c r="AG142"/>
+      <c r="AH142"/>
+      <c r="AI142"/>
+      <c r="AJ142"/>
+      <c r="AK142"/>
+      <c r="AL142"/>
+      <c r="AM142"/>
       <c r="AN142" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>81.87</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>8591</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>44657</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>13177</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>415</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>482</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B143" t="n">
+        <v>361125</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9507</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4521</v>
+      </c>
+      <c r="E143" t="n">
+        <v>173</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K143" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L143" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M143" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N143" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O143" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143" t="n">
+        <v>3465070</v>
+      </c>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143" t="n">
+        <v>8858</v>
+      </c>
+      <c r="X143" t="n">
+        <v>452</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1510</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>227</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>521</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>907</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>15497</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>1724</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>5578</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>4389</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>2833</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>11302</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>4504</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>18371</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>3758</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>3320</v>
+      </c>
+      <c r="AN143"/>
+      <c r="AO143"/>
+      <c r="AP143"/>
+      <c r="AQ143"/>
+      <c r="AR143"/>
+      <c r="AS143"/>
+      <c r="AT143"/>
+      <c r="AU143"/>
+      <c r="AV143"/>
+      <c r="AW143" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+      <c r="AC144"/>
+      <c r="AD144"/>
+      <c r="AE144"/>
+      <c r="AF144"/>
+      <c r="AG144"/>
+      <c r="AH144"/>
+      <c r="AI144"/>
+      <c r="AJ144"/>
+      <c r="AK144"/>
+      <c r="AL144"/>
+      <c r="AM144"/>
+      <c r="AN144"/>
+      <c r="AO144"/>
+      <c r="AP144"/>
+      <c r="AQ144"/>
+      <c r="AR144"/>
+      <c r="AS144"/>
+      <c r="AT144"/>
+      <c r="AU144"/>
+      <c r="AV144"/>
+      <c r="AW144" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -12450,72 +13943,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>151955</v>
+        <v>152778</v>
       </c>
       <c r="C2" t="n">
-        <v>115278</v>
+        <v>115759</v>
       </c>
       <c r="D2" t="n">
-        <v>3281399</v>
+        <v>3349311</v>
       </c>
       <c r="E2" t="n">
-        <v>8737</v>
+        <v>10394</v>
       </c>
       <c r="F2" t="n">
-        <v>56155</v>
+        <v>51031</v>
       </c>
       <c r="G2" t="n">
-        <v>10520</v>
+        <v>13476</v>
       </c>
       <c r="H2" t="n">
-        <v>1031</v>
+        <v>1267</v>
       </c>
       <c r="I2" t="n">
-        <v>5115</v>
+        <v>3320</v>
       </c>
       <c r="J2" t="n">
-        <v>29588</v>
+        <v>30343</v>
       </c>
       <c r="K2" t="n">
-        <v>764</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -12456,12 +12456,24 @@
       <c r="AC104"/>
       <c r="AD104"/>
       <c r="AE104"/>
-      <c r="AF104"/>
-      <c r="AG104"/>
-      <c r="AH104"/>
-      <c r="AI104"/>
-      <c r="AJ104"/>
-      <c r="AK104"/>
+      <c r="AF104" t="n">
+        <v>229</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>189</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>182</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>247</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>237</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>253</v>
+      </c>
       <c r="AL104"/>
       <c r="AM104"/>
       <c r="AN104" t="n">
@@ -12593,12 +12605,24 @@
       <c r="AC105"/>
       <c r="AD105"/>
       <c r="AE105"/>
-      <c r="AF105"/>
-      <c r="AG105"/>
-      <c r="AH105"/>
-      <c r="AI105"/>
-      <c r="AJ105"/>
-      <c r="AK105"/>
+      <c r="AF105" t="n">
+        <v>439</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>358</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>308</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>638</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>472</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>700</v>
+      </c>
       <c r="AL105"/>
       <c r="AM105"/>
       <c r="AN105" t="n">
@@ -12730,12 +12754,24 @@
       <c r="AC106"/>
       <c r="AD106"/>
       <c r="AE106"/>
-      <c r="AF106"/>
-      <c r="AG106"/>
-      <c r="AH106"/>
-      <c r="AI106"/>
-      <c r="AJ106"/>
-      <c r="AK106"/>
+      <c r="AF106" t="n">
+        <v>547</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>413</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>359</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>988</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>809</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1199</v>
+      </c>
       <c r="AL106"/>
       <c r="AM106"/>
       <c r="AN106" t="n">
@@ -12867,12 +12903,24 @@
       <c r="AC107"/>
       <c r="AD107"/>
       <c r="AE107"/>
-      <c r="AF107"/>
-      <c r="AG107"/>
-      <c r="AH107"/>
-      <c r="AI107"/>
-      <c r="AJ107"/>
-      <c r="AK107"/>
+      <c r="AF107" t="n">
+        <v>581</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>442</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>387</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1291</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>834</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1479</v>
+      </c>
       <c r="AL107"/>
       <c r="AM107"/>
       <c r="AN107" t="n">
@@ -13004,12 +13052,24 @@
       <c r="AC108"/>
       <c r="AD108"/>
       <c r="AE108"/>
-      <c r="AF108"/>
-      <c r="AG108"/>
-      <c r="AH108"/>
-      <c r="AI108"/>
-      <c r="AJ108"/>
-      <c r="AK108"/>
+      <c r="AF108" t="n">
+        <v>570</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>472</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>448</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1656</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>976</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1889</v>
+      </c>
       <c r="AL108"/>
       <c r="AM108"/>
       <c r="AN108" t="n">
@@ -13141,12 +13201,24 @@
       <c r="AC109"/>
       <c r="AD109"/>
       <c r="AE109"/>
-      <c r="AF109"/>
-      <c r="AG109"/>
-      <c r="AH109"/>
-      <c r="AI109"/>
-      <c r="AJ109"/>
-      <c r="AK109"/>
+      <c r="AF109" t="n">
+        <v>673</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>571</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>442</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1937</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>996</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2217</v>
+      </c>
       <c r="AL109"/>
       <c r="AM109"/>
       <c r="AN109" t="n">
@@ -13278,12 +13350,24 @@
       <c r="AC110"/>
       <c r="AD110"/>
       <c r="AE110"/>
-      <c r="AF110"/>
-      <c r="AG110"/>
-      <c r="AH110"/>
-      <c r="AI110"/>
-      <c r="AJ110"/>
-      <c r="AK110"/>
+      <c r="AF110" t="n">
+        <v>827</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>523</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>405</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2441</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>2455</v>
+      </c>
       <c r="AL110"/>
       <c r="AM110"/>
       <c r="AN110" t="n">
@@ -13415,12 +13499,24 @@
       <c r="AC111"/>
       <c r="AD111"/>
       <c r="AE111"/>
-      <c r="AF111"/>
-      <c r="AG111"/>
-      <c r="AH111"/>
-      <c r="AI111"/>
-      <c r="AJ111"/>
-      <c r="AK111"/>
+      <c r="AF111" t="n">
+        <v>704</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>515</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>383</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1257</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>3008</v>
+      </c>
       <c r="AL111"/>
       <c r="AM111"/>
       <c r="AN111" t="n">
@@ -13552,12 +13648,24 @@
       <c r="AC112"/>
       <c r="AD112"/>
       <c r="AE112"/>
-      <c r="AF112"/>
-      <c r="AG112"/>
-      <c r="AH112"/>
-      <c r="AI112"/>
-      <c r="AJ112"/>
-      <c r="AK112"/>
+      <c r="AF112" t="n">
+        <v>739</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>559</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>491</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2908</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1242</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>3691</v>
+      </c>
       <c r="AL112"/>
       <c r="AM112"/>
       <c r="AN112" t="n">
@@ -13689,12 +13797,24 @@
       <c r="AC113"/>
       <c r="AD113"/>
       <c r="AE113"/>
-      <c r="AF113"/>
-      <c r="AG113"/>
-      <c r="AH113"/>
-      <c r="AI113"/>
-      <c r="AJ113"/>
-      <c r="AK113"/>
+      <c r="AF113" t="n">
+        <v>916</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>666</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>541</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3305</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>971</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>3909</v>
+      </c>
       <c r="AL113"/>
       <c r="AM113"/>
       <c r="AN113" t="n">
@@ -13826,12 +13946,24 @@
       <c r="AC114"/>
       <c r="AD114"/>
       <c r="AE114"/>
-      <c r="AF114"/>
-      <c r="AG114"/>
-      <c r="AH114"/>
-      <c r="AI114"/>
-      <c r="AJ114"/>
-      <c r="AK114"/>
+      <c r="AF114" t="n">
+        <v>1117</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>749</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>612</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3687</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1190</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>4356</v>
+      </c>
       <c r="AL114"/>
       <c r="AM114"/>
       <c r="AN114" t="n">
@@ -13963,12 +14095,24 @@
       <c r="AC115"/>
       <c r="AD115"/>
       <c r="AE115"/>
-      <c r="AF115"/>
-      <c r="AG115"/>
-      <c r="AH115"/>
-      <c r="AI115"/>
-      <c r="AJ115"/>
-      <c r="AK115"/>
+      <c r="AF115" t="n">
+        <v>1129</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>557</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>652</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>4076</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1356</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>4145</v>
+      </c>
       <c r="AL115"/>
       <c r="AM115"/>
       <c r="AN115" t="n">
@@ -14100,12 +14244,24 @@
       <c r="AC116"/>
       <c r="AD116"/>
       <c r="AE116"/>
-      <c r="AF116"/>
-      <c r="AG116"/>
-      <c r="AH116"/>
-      <c r="AI116"/>
-      <c r="AJ116"/>
-      <c r="AK116"/>
+      <c r="AF116" t="n">
+        <v>1092</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>675</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>520</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1758</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>4705</v>
+      </c>
       <c r="AL116"/>
       <c r="AM116"/>
       <c r="AN116" t="n">
@@ -14237,12 +14393,24 @@
       <c r="AC117"/>
       <c r="AD117"/>
       <c r="AE117"/>
-      <c r="AF117"/>
-      <c r="AG117"/>
-      <c r="AH117"/>
-      <c r="AI117"/>
-      <c r="AJ117"/>
-      <c r="AK117"/>
+      <c r="AF117" t="n">
+        <v>1110</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>736</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>566</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3542</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1281</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>4787</v>
+      </c>
       <c r="AL117"/>
       <c r="AM117"/>
       <c r="AN117" t="n">
@@ -14374,12 +14542,24 @@
       <c r="AC118"/>
       <c r="AD118"/>
       <c r="AE118"/>
-      <c r="AF118"/>
-      <c r="AG118"/>
-      <c r="AH118"/>
-      <c r="AI118"/>
-      <c r="AJ118"/>
-      <c r="AK118"/>
+      <c r="AF118" t="n">
+        <v>1076</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>647</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>567</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>4386</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1409</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>5091</v>
+      </c>
       <c r="AL118"/>
       <c r="AM118"/>
       <c r="AN118" t="n">
@@ -14511,12 +14691,24 @@
       <c r="AC119"/>
       <c r="AD119"/>
       <c r="AE119"/>
-      <c r="AF119"/>
-      <c r="AG119"/>
-      <c r="AH119"/>
-      <c r="AI119"/>
-      <c r="AJ119"/>
-      <c r="AK119"/>
+      <c r="AF119" t="n">
+        <v>1172</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>644</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>578</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4789</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1579</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>4700</v>
+      </c>
       <c r="AL119"/>
       <c r="AM119"/>
       <c r="AN119" t="n">
@@ -14648,12 +14840,24 @@
       <c r="AC120"/>
       <c r="AD120"/>
       <c r="AE120"/>
-      <c r="AF120"/>
-      <c r="AG120"/>
-      <c r="AH120"/>
-      <c r="AI120"/>
-      <c r="AJ120"/>
-      <c r="AK120"/>
+      <c r="AF120" t="n">
+        <v>1129</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>721</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>490</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>5614</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1382</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>5805</v>
+      </c>
       <c r="AL120"/>
       <c r="AM120"/>
       <c r="AN120" t="n">
@@ -14785,12 +14989,24 @@
       <c r="AC121"/>
       <c r="AD121"/>
       <c r="AE121"/>
-      <c r="AF121"/>
-      <c r="AG121"/>
-      <c r="AH121"/>
-      <c r="AI121"/>
-      <c r="AJ121"/>
-      <c r="AK121"/>
+      <c r="AF121" t="n">
+        <v>1278</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>655</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>667</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>4831</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>6501</v>
+      </c>
       <c r="AL121"/>
       <c r="AM121"/>
       <c r="AN121" t="n">
@@ -14922,12 +15138,24 @@
       <c r="AC122"/>
       <c r="AD122"/>
       <c r="AE122"/>
-      <c r="AF122"/>
-      <c r="AG122"/>
-      <c r="AH122"/>
-      <c r="AI122"/>
-      <c r="AJ122"/>
-      <c r="AK122"/>
+      <c r="AF122" t="n">
+        <v>1150</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>877</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>552</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>5182</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1382</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>6771</v>
+      </c>
       <c r="AL122"/>
       <c r="AM122"/>
       <c r="AN122" t="n">
@@ -15059,12 +15287,24 @@
       <c r="AC123"/>
       <c r="AD123"/>
       <c r="AE123"/>
-      <c r="AF123"/>
-      <c r="AG123"/>
-      <c r="AH123"/>
-      <c r="AI123"/>
-      <c r="AJ123"/>
-      <c r="AK123"/>
+      <c r="AF123" t="n">
+        <v>1283</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>609</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>549</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>5335</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2007</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>7178</v>
+      </c>
       <c r="AL123"/>
       <c r="AM123"/>
       <c r="AN123" t="n">
@@ -15196,12 +15436,24 @@
       <c r="AC124"/>
       <c r="AD124"/>
       <c r="AE124"/>
-      <c r="AF124"/>
-      <c r="AG124"/>
-      <c r="AH124"/>
-      <c r="AI124"/>
-      <c r="AJ124"/>
-      <c r="AK124"/>
+      <c r="AF124" t="n">
+        <v>1091</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>853</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>684</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>5521</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1689</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>6955</v>
+      </c>
       <c r="AL124"/>
       <c r="AM124"/>
       <c r="AN124" t="n">
@@ -15333,12 +15585,24 @@
       <c r="AC125"/>
       <c r="AD125"/>
       <c r="AE125"/>
-      <c r="AF125"/>
-      <c r="AG125"/>
-      <c r="AH125"/>
-      <c r="AI125"/>
-      <c r="AJ125"/>
-      <c r="AK125"/>
+      <c r="AF125" t="n">
+        <v>1125</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>958</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>546</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>5977</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1548</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>6400</v>
+      </c>
       <c r="AL125"/>
       <c r="AM125"/>
       <c r="AN125" t="n">
@@ -15470,12 +15734,24 @@
       <c r="AC126"/>
       <c r="AD126"/>
       <c r="AE126"/>
-      <c r="AF126"/>
-      <c r="AG126"/>
-      <c r="AH126"/>
-      <c r="AI126"/>
-      <c r="AJ126"/>
-      <c r="AK126"/>
+      <c r="AF126" t="n">
+        <v>1114</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>572</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>6021</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1505</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>7057</v>
+      </c>
       <c r="AL126"/>
       <c r="AM126"/>
       <c r="AN126" t="n">
@@ -15607,12 +15883,24 @@
       <c r="AC127"/>
       <c r="AD127"/>
       <c r="AE127"/>
-      <c r="AF127"/>
-      <c r="AG127"/>
-      <c r="AH127"/>
-      <c r="AI127"/>
-      <c r="AJ127"/>
-      <c r="AK127"/>
+      <c r="AF127" t="n">
+        <v>1258</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>707</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>556</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>5631</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1947</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>7607</v>
+      </c>
       <c r="AL127"/>
       <c r="AM127"/>
       <c r="AN127" t="n">
@@ -15744,12 +16032,24 @@
       <c r="AC128"/>
       <c r="AD128"/>
       <c r="AE128"/>
-      <c r="AF128"/>
-      <c r="AG128"/>
-      <c r="AH128"/>
-      <c r="AI128"/>
-      <c r="AJ128"/>
-      <c r="AK128"/>
+      <c r="AF128" t="n">
+        <v>1322</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1020</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>658</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>7204</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1688</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>7879</v>
+      </c>
       <c r="AL128"/>
       <c r="AM128"/>
       <c r="AN128" t="n">
@@ -15881,12 +16181,24 @@
       <c r="AC129"/>
       <c r="AD129"/>
       <c r="AE129"/>
-      <c r="AF129"/>
-      <c r="AG129"/>
-      <c r="AH129"/>
-      <c r="AI129"/>
-      <c r="AJ129"/>
-      <c r="AK129"/>
+      <c r="AF129" t="n">
+        <v>1089</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>784</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>634</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>6952</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>8886</v>
+      </c>
       <c r="AL129"/>
       <c r="AM129"/>
       <c r="AN129" t="n">
@@ -16018,12 +16330,24 @@
       <c r="AC130"/>
       <c r="AD130"/>
       <c r="AE130"/>
-      <c r="AF130"/>
-      <c r="AG130"/>
-      <c r="AH130"/>
-      <c r="AI130"/>
-      <c r="AJ130"/>
-      <c r="AK130"/>
+      <c r="AF130" t="n">
+        <v>1327</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>851</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>649</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>6611</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1940</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>8982</v>
+      </c>
       <c r="AL130"/>
       <c r="AM130"/>
       <c r="AN130" t="n">
@@ -16159,12 +16483,24 @@
       <c r="AC131"/>
       <c r="AD131"/>
       <c r="AE131"/>
-      <c r="AF131"/>
-      <c r="AG131"/>
-      <c r="AH131"/>
-      <c r="AI131"/>
-      <c r="AJ131"/>
-      <c r="AK131"/>
+      <c r="AF131" t="n">
+        <v>1623</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>975</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>537</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>6992</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1768</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>8593</v>
+      </c>
       <c r="AL131"/>
       <c r="AM131"/>
       <c r="AN131" t="n">
@@ -16300,12 +16636,24 @@
       <c r="AC132"/>
       <c r="AD132"/>
       <c r="AE132"/>
-      <c r="AF132"/>
-      <c r="AG132"/>
-      <c r="AH132"/>
-      <c r="AI132"/>
-      <c r="AJ132"/>
-      <c r="AK132"/>
+      <c r="AF132" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>888</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>560</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1795</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>7667</v>
+      </c>
       <c r="AL132"/>
       <c r="AM132"/>
       <c r="AN132" t="n">
@@ -16441,12 +16789,24 @@
       <c r="AC133"/>
       <c r="AD133"/>
       <c r="AE133"/>
-      <c r="AF133"/>
-      <c r="AG133"/>
-      <c r="AH133"/>
-      <c r="AI133"/>
-      <c r="AJ133"/>
-      <c r="AK133"/>
+      <c r="AF133" t="n">
+        <v>1256</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>890</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>515</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>7179</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1393</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>7984</v>
+      </c>
       <c r="AL133"/>
       <c r="AM133"/>
       <c r="AN133" t="n">
@@ -16582,12 +16942,24 @@
       <c r="AC134"/>
       <c r="AD134"/>
       <c r="AE134"/>
-      <c r="AF134"/>
-      <c r="AG134"/>
-      <c r="AH134"/>
-      <c r="AI134"/>
-      <c r="AJ134"/>
-      <c r="AK134"/>
+      <c r="AF134" t="n">
+        <v>1303</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>954</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>654</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>7293</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1278</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>8896</v>
+      </c>
       <c r="AL134"/>
       <c r="AM134"/>
       <c r="AN134" t="n">
@@ -16723,12 +17095,24 @@
       <c r="AC135"/>
       <c r="AD135"/>
       <c r="AE135"/>
-      <c r="AF135"/>
-      <c r="AG135"/>
-      <c r="AH135"/>
-      <c r="AI135"/>
-      <c r="AJ135"/>
-      <c r="AK135"/>
+      <c r="AF135" t="n">
+        <v>1410</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>914</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>616</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>7568</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>10658</v>
+      </c>
       <c r="AL135"/>
       <c r="AM135"/>
       <c r="AN135" t="n">
@@ -16864,12 +17248,24 @@
       <c r="AC136"/>
       <c r="AD136"/>
       <c r="AE136"/>
-      <c r="AF136"/>
-      <c r="AG136"/>
-      <c r="AH136"/>
-      <c r="AI136"/>
-      <c r="AJ136"/>
-      <c r="AK136"/>
+      <c r="AF136" t="n">
+        <v>1056</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1018</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>614</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>7695</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2062</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>9833</v>
+      </c>
       <c r="AL136"/>
       <c r="AM136"/>
       <c r="AN136" t="n">
@@ -16997,20 +17393,48 @@
       <c r="W137" t="n">
         <v>1716</v>
       </c>
-      <c r="X137"/>
-      <c r="Y137"/>
-      <c r="Z137"/>
-      <c r="AA137"/>
-      <c r="AB137"/>
-      <c r="AC137"/>
-      <c r="AD137"/>
-      <c r="AE137"/>
-      <c r="AF137"/>
-      <c r="AG137"/>
-      <c r="AH137"/>
-      <c r="AI137"/>
-      <c r="AJ137"/>
-      <c r="AK137"/>
+      <c r="X137" t="n">
+        <v>112</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>382</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>116</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>311</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>3011</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>490</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>494</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1550</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1053</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>706</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>8067</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1959</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>8352</v>
+      </c>
       <c r="AL137"/>
       <c r="AM137"/>
       <c r="AN137" t="n">
@@ -17144,20 +17568,48 @@
       <c r="W138" t="n">
         <v>1791</v>
       </c>
-      <c r="X138"/>
-      <c r="Y138"/>
-      <c r="Z138"/>
-      <c r="AA138"/>
-      <c r="AB138"/>
-      <c r="AC138"/>
-      <c r="AD138"/>
-      <c r="AE138"/>
-      <c r="AF138"/>
-      <c r="AG138"/>
-      <c r="AH138"/>
-      <c r="AI138"/>
-      <c r="AJ138"/>
-      <c r="AK138"/>
+      <c r="X138" t="n">
+        <v>112</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>396</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>314</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3033</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>530</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>974</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>662</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>7500</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2123</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>10382</v>
+      </c>
       <c r="AL138"/>
       <c r="AM138"/>
       <c r="AN138" t="n">
@@ -17291,20 +17743,48 @@
       <c r="W139" t="n">
         <v>1512</v>
       </c>
-      <c r="X139"/>
-      <c r="Y139"/>
-      <c r="Z139"/>
-      <c r="AA139"/>
-      <c r="AB139"/>
-      <c r="AC139"/>
-      <c r="AD139"/>
-      <c r="AE139"/>
-      <c r="AF139"/>
-      <c r="AG139"/>
-      <c r="AH139"/>
-      <c r="AI139"/>
-      <c r="AJ139"/>
-      <c r="AK139"/>
+      <c r="X139" t="n">
+        <v>113</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>399</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>318</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>3103</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>509</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>531</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1392</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>886</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>520</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>9004</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>9405</v>
+      </c>
       <c r="AL139"/>
       <c r="AM139"/>
       <c r="AN139" t="n">
@@ -17438,20 +17918,48 @@
       <c r="W140" t="n">
         <v>1551</v>
       </c>
-      <c r="X140"/>
-      <c r="Y140"/>
-      <c r="Z140"/>
-      <c r="AA140"/>
-      <c r="AB140"/>
-      <c r="AC140"/>
-      <c r="AD140"/>
-      <c r="AE140"/>
-      <c r="AF140"/>
-      <c r="AG140"/>
-      <c r="AH140"/>
-      <c r="AI140"/>
-      <c r="AJ140"/>
-      <c r="AK140"/>
+      <c r="X140" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>415</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>99</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>152</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>320</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>3144</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>515</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>575</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>847</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>517</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>9120</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2322</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>9902</v>
+      </c>
       <c r="AL140"/>
       <c r="AM140"/>
       <c r="AN140" t="n">
@@ -17585,20 +18093,48 @@
       <c r="W141" t="n">
         <v>1732</v>
       </c>
-      <c r="X141"/>
-      <c r="Y141"/>
-      <c r="Z141"/>
-      <c r="AA141"/>
-      <c r="AB141"/>
-      <c r="AC141"/>
-      <c r="AD141"/>
-      <c r="AE141"/>
-      <c r="AF141"/>
-      <c r="AG141"/>
-      <c r="AH141"/>
-      <c r="AI141"/>
-      <c r="AJ141"/>
-      <c r="AK141"/>
+      <c r="X141" t="n">
+        <v>118</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>428</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>326</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>3205</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>528</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>631</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1353</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>1064</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>542</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>7597</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1802</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>11703</v>
+      </c>
       <c r="AL141"/>
       <c r="AM141"/>
       <c r="AN141" t="n">
@@ -17732,20 +18268,48 @@
       <c r="W142" t="n">
         <v>1791</v>
       </c>
-      <c r="X142"/>
-      <c r="Y142"/>
-      <c r="Z142"/>
-      <c r="AA142"/>
-      <c r="AB142"/>
-      <c r="AC142"/>
-      <c r="AD142"/>
-      <c r="AE142"/>
-      <c r="AF142"/>
-      <c r="AG142"/>
-      <c r="AH142"/>
-      <c r="AI142"/>
-      <c r="AJ142"/>
-      <c r="AK142"/>
+      <c r="X142" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>429</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>331</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>3287</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>530</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>684</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1613</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1307</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>663</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>8348</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1738</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>10815</v>
+      </c>
       <c r="AL142"/>
       <c r="AM142"/>
       <c r="AN142" t="n">
@@ -17879,20 +18443,48 @@
       <c r="W143" t="n">
         <v>1680</v>
       </c>
-      <c r="X143"/>
-      <c r="Y143"/>
-      <c r="Z143"/>
-      <c r="AA143"/>
-      <c r="AB143"/>
-      <c r="AC143"/>
-      <c r="AD143"/>
-      <c r="AE143"/>
-      <c r="AF143"/>
-      <c r="AG143"/>
-      <c r="AH143"/>
-      <c r="AI143"/>
-      <c r="AJ143"/>
-      <c r="AK143"/>
+      <c r="X143" t="n">
+        <v>122</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>328</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>3325</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>537</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>719</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1510</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>998</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>655</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>9018</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2111</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>12773</v>
+      </c>
       <c r="AL143"/>
       <c r="AM143"/>
       <c r="AN143" t="n">
@@ -18026,20 +18618,48 @@
       <c r="W144" t="n">
         <v>1578</v>
       </c>
-      <c r="X144"/>
-      <c r="Y144"/>
-      <c r="Z144"/>
-      <c r="AA144"/>
-      <c r="AB144"/>
-      <c r="AC144"/>
-      <c r="AD144"/>
-      <c r="AE144"/>
-      <c r="AF144"/>
-      <c r="AG144"/>
-      <c r="AH144"/>
-      <c r="AI144"/>
-      <c r="AJ144"/>
-      <c r="AK144"/>
+      <c r="X144" t="n">
+        <v>122</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>332</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>3414</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>548</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>730</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1446</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>860</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>587</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>8725</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2469</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>11710</v>
+      </c>
       <c r="AL144"/>
       <c r="AM144"/>
       <c r="AN144" t="n">
@@ -18163,20 +18783,48 @@
       <c r="W145" t="n">
         <v>1688</v>
       </c>
-      <c r="X145"/>
-      <c r="Y145"/>
-      <c r="Z145"/>
-      <c r="AA145"/>
-      <c r="AB145"/>
-      <c r="AC145"/>
-      <c r="AD145"/>
-      <c r="AE145"/>
-      <c r="AF145"/>
-      <c r="AG145"/>
-      <c r="AH145"/>
-      <c r="AI145"/>
-      <c r="AJ145"/>
-      <c r="AK145"/>
+      <c r="X145" t="n">
+        <v>126</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>431</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>339</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>3501</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>561</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>800</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1472</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1123</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>521</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>9150</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2189</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>13032</v>
+      </c>
       <c r="AL145"/>
       <c r="AM145"/>
       <c r="AN145" t="n">
@@ -18310,20 +18958,48 @@
       <c r="W146" t="n">
         <v>1572</v>
       </c>
-      <c r="X146"/>
-      <c r="Y146"/>
-      <c r="Z146"/>
-      <c r="AA146"/>
-      <c r="AB146"/>
-      <c r="AC146"/>
-      <c r="AD146"/>
-      <c r="AE146"/>
-      <c r="AF146"/>
-      <c r="AG146"/>
-      <c r="AH146"/>
-      <c r="AI146"/>
-      <c r="AJ146"/>
-      <c r="AK146"/>
+      <c r="X146" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>470</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>104</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>345</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>3539</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>561</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>812</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1652</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>927</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>639</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>9702</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1603</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>11813</v>
+      </c>
       <c r="AL146"/>
       <c r="AM146"/>
       <c r="AN146" t="n">
@@ -18457,20 +19133,48 @@
       <c r="W147" t="n">
         <v>1511</v>
       </c>
-      <c r="X147"/>
-      <c r="Y147"/>
-      <c r="Z147"/>
-      <c r="AA147"/>
-      <c r="AB147"/>
-      <c r="AC147"/>
-      <c r="AD147"/>
-      <c r="AE147"/>
-      <c r="AF147"/>
-      <c r="AG147"/>
-      <c r="AH147"/>
-      <c r="AI147"/>
-      <c r="AJ147"/>
-      <c r="AK147"/>
+      <c r="X147" t="n">
+        <v>131</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>473</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>348</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>3568</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>568</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>885</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1285</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>1072</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>544</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>9172</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1931</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>11316</v>
+      </c>
       <c r="AL147"/>
       <c r="AM147"/>
       <c r="AN147" t="n">
@@ -18604,20 +19308,48 @@
       <c r="W148" t="n">
         <v>1534</v>
       </c>
-      <c r="X148"/>
-      <c r="Y148"/>
-      <c r="Z148"/>
-      <c r="AA148"/>
-      <c r="AB148"/>
-      <c r="AC148"/>
-      <c r="AD148"/>
-      <c r="AE148"/>
-      <c r="AF148"/>
-      <c r="AG148"/>
-      <c r="AH148"/>
-      <c r="AI148"/>
-      <c r="AJ148"/>
-      <c r="AK148"/>
+      <c r="X148" t="n">
+        <v>131</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>473</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>198</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>352</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>3598</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>578</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>940</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1253</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>992</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>711</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>8372</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2212</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>13556</v>
+      </c>
       <c r="AL148"/>
       <c r="AM148"/>
       <c r="AN148" t="n">
@@ -18751,20 +19483,48 @@
       <c r="W149" t="n">
         <v>1645</v>
       </c>
-      <c r="X149"/>
-      <c r="Y149"/>
-      <c r="Z149"/>
-      <c r="AA149"/>
-      <c r="AB149"/>
-      <c r="AC149"/>
-      <c r="AD149"/>
-      <c r="AE149"/>
-      <c r="AF149"/>
-      <c r="AG149"/>
-      <c r="AH149"/>
-      <c r="AI149"/>
-      <c r="AJ149"/>
-      <c r="AK149"/>
+      <c r="X149" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>477</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>203</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>358</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>3622</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>599</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>982</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1295</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>873</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>594</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>7783</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2088</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>12457</v>
+      </c>
       <c r="AL149"/>
       <c r="AM149"/>
       <c r="AN149" t="n">
@@ -18898,20 +19658,48 @@
       <c r="W150" t="n">
         <v>1692</v>
       </c>
-      <c r="X150"/>
-      <c r="Y150"/>
-      <c r="Z150"/>
-      <c r="AA150"/>
-      <c r="AB150"/>
-      <c r="AC150"/>
-      <c r="AD150"/>
-      <c r="AE150"/>
-      <c r="AF150"/>
-      <c r="AG150"/>
-      <c r="AH150"/>
-      <c r="AI150"/>
-      <c r="AJ150"/>
-      <c r="AK150"/>
+      <c r="X150" t="n">
+        <v>130</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>489</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>207</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>373</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>3653</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>606</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>996</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1497</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>838</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>660</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>9249</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2163</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>13386</v>
+      </c>
       <c r="AL150"/>
       <c r="AM150"/>
       <c r="AN150" t="n">
@@ -19045,20 +19833,48 @@
       <c r="W151" t="n">
         <v>1701</v>
       </c>
-      <c r="X151"/>
-      <c r="Y151"/>
-      <c r="Z151"/>
-      <c r="AA151"/>
-      <c r="AB151"/>
-      <c r="AC151"/>
-      <c r="AD151"/>
-      <c r="AE151"/>
-      <c r="AF151"/>
-      <c r="AG151"/>
-      <c r="AH151"/>
-      <c r="AI151"/>
-      <c r="AJ151"/>
-      <c r="AK151"/>
+      <c r="X151" t="n">
+        <v>126</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>488</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>208</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>382</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>3705</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>616</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1074</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1525</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>823</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>714</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>10697</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2595</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>12818</v>
+      </c>
       <c r="AL151"/>
       <c r="AM151"/>
       <c r="AN151" t="n">
@@ -19186,20 +20002,48 @@
       <c r="W152" t="n">
         <v>1752</v>
       </c>
-      <c r="X152"/>
-      <c r="Y152"/>
-      <c r="Z152"/>
-      <c r="AA152"/>
-      <c r="AB152"/>
-      <c r="AC152"/>
-      <c r="AD152"/>
-      <c r="AE152"/>
-      <c r="AF152"/>
-      <c r="AG152"/>
-      <c r="AH152"/>
-      <c r="AI152"/>
-      <c r="AJ152"/>
-      <c r="AK152"/>
+      <c r="X152" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>490</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>399</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3802</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>637</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1155</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1671</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>1078</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>592</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>10960</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2155</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>11075</v>
+      </c>
       <c r="AL152"/>
       <c r="AM152"/>
       <c r="AN152" t="n">
@@ -19333,20 +20177,48 @@
       <c r="W153" t="n">
         <v>1684</v>
       </c>
-      <c r="X153"/>
-      <c r="Y153"/>
-      <c r="Z153"/>
-      <c r="AA153"/>
-      <c r="AB153"/>
-      <c r="AC153"/>
-      <c r="AD153"/>
-      <c r="AE153"/>
-      <c r="AF153"/>
-      <c r="AG153"/>
-      <c r="AH153"/>
-      <c r="AI153"/>
-      <c r="AJ153"/>
-      <c r="AK153"/>
+      <c r="X153" t="n">
+        <v>129</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>492</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>401</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>3855</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>651</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1169</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1540</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>945</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>820</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>10726</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2237</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>14796</v>
+      </c>
       <c r="AL153"/>
       <c r="AM153"/>
       <c r="AN153" t="n">
@@ -19480,21 +20352,51 @@
       <c r="W154" t="n">
         <v>1756</v>
       </c>
-      <c r="X154"/>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
-      <c r="AB154"/>
-      <c r="AC154"/>
-      <c r="AD154"/>
-      <c r="AE154"/>
-      <c r="AF154"/>
-      <c r="AG154"/>
-      <c r="AH154"/>
-      <c r="AI154"/>
-      <c r="AJ154"/>
-      <c r="AK154"/>
-      <c r="AL154"/>
+      <c r="X154" t="n">
+        <v>129</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>492</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>401</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>3886</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>657</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1181</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1302</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>1091</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>687</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>10889</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>13357</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>5394</v>
+      </c>
       <c r="AM154"/>
       <c r="AN154" t="n">
         <v>39344.5622035753</v>
@@ -19627,21 +20529,51 @@
       <c r="W155" t="n">
         <v>1773</v>
       </c>
-      <c r="X155"/>
-      <c r="Y155"/>
-      <c r="Z155"/>
-      <c r="AA155"/>
-      <c r="AB155"/>
-      <c r="AC155"/>
-      <c r="AD155"/>
-      <c r="AE155"/>
-      <c r="AF155"/>
-      <c r="AG155"/>
-      <c r="AH155"/>
-      <c r="AI155"/>
-      <c r="AJ155"/>
-      <c r="AK155"/>
-      <c r="AL155"/>
+      <c r="X155" t="n">
+        <v>133</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>489</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>111</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>212</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>422</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>3993</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>679</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1254</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1656</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1046</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>689</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>10096</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2473</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>13409</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>5314</v>
+      </c>
       <c r="AM155"/>
       <c r="AN155" t="n">
         <v>41242.5643983848</v>
@@ -19774,21 +20706,51 @@
       <c r="W156" t="n">
         <v>1799</v>
       </c>
-      <c r="X156"/>
-      <c r="Y156"/>
-      <c r="Z156"/>
-      <c r="AA156"/>
-      <c r="AB156"/>
-      <c r="AC156"/>
-      <c r="AD156"/>
-      <c r="AE156"/>
-      <c r="AF156"/>
-      <c r="AG156"/>
-      <c r="AH156"/>
-      <c r="AI156"/>
-      <c r="AJ156"/>
-      <c r="AK156"/>
-      <c r="AL156"/>
+      <c r="X156" t="n">
+        <v>135</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>112</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>215</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>441</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>4113</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>692</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1284</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>1124</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>653</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>9437</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2121</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>13209</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>5566</v>
+      </c>
       <c r="AM156"/>
       <c r="AN156" t="n">
         <v>42592.2981347713</v>
@@ -19921,21 +20883,51 @@
       <c r="W157" t="n">
         <v>1796</v>
       </c>
-      <c r="X157"/>
-      <c r="Y157"/>
-      <c r="Z157"/>
-      <c r="AA157"/>
-      <c r="AB157"/>
-      <c r="AC157"/>
-      <c r="AD157"/>
-      <c r="AE157"/>
-      <c r="AF157"/>
-      <c r="AG157"/>
-      <c r="AH157"/>
-      <c r="AI157"/>
-      <c r="AJ157"/>
-      <c r="AK157"/>
-      <c r="AL157"/>
+      <c r="X157" t="n">
+        <v>137</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>497</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>112</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>222</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>450</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>4222</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>706</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1368</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1401</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1133</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>709</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>9869</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2026</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>11925</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>5577</v>
+      </c>
       <c r="AM157"/>
       <c r="AN157" t="n">
         <v>42402.7112069839</v>
@@ -20068,21 +21060,51 @@
       <c r="W158" t="n">
         <v>1855</v>
       </c>
-      <c r="X158"/>
-      <c r="Y158"/>
-      <c r="Z158"/>
-      <c r="AA158"/>
-      <c r="AB158"/>
-      <c r="AC158"/>
-      <c r="AD158"/>
-      <c r="AE158"/>
-      <c r="AF158"/>
-      <c r="AG158"/>
-      <c r="AH158"/>
-      <c r="AI158"/>
-      <c r="AJ158"/>
-      <c r="AK158"/>
-      <c r="AL158"/>
+      <c r="X158" t="n">
+        <v>138</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>506</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>224</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>466</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>4315</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>713</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1437</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1510</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>985</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>818</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>10035</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2256</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>14360</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>5587</v>
+      </c>
       <c r="AM158"/>
       <c r="AN158" t="n">
         <v>42720.1550801063</v>
@@ -20215,21 +21237,51 @@
       <c r="W159" t="n">
         <v>1822</v>
       </c>
-      <c r="X159"/>
-      <c r="Y159"/>
-      <c r="Z159"/>
-      <c r="AA159"/>
-      <c r="AB159"/>
-      <c r="AC159"/>
-      <c r="AD159"/>
-      <c r="AE159"/>
-      <c r="AF159"/>
-      <c r="AG159"/>
-      <c r="AH159"/>
-      <c r="AI159"/>
-      <c r="AJ159"/>
-      <c r="AK159"/>
-      <c r="AL159"/>
+      <c r="X159" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>226</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>476</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>4358</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>723</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1495</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1584</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>924</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>623</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>12167</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2461</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>14962</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>5623</v>
+      </c>
       <c r="AM159"/>
       <c r="AN159" t="n">
         <v>40708.7984463573</v>
@@ -20362,21 +21414,51 @@
       <c r="W160" t="n">
         <v>1878</v>
       </c>
-      <c r="X160"/>
-      <c r="Y160"/>
-      <c r="Z160"/>
-      <c r="AA160"/>
-      <c r="AB160"/>
-      <c r="AC160"/>
-      <c r="AD160"/>
-      <c r="AE160"/>
-      <c r="AF160"/>
-      <c r="AG160"/>
-      <c r="AH160"/>
-      <c r="AI160"/>
-      <c r="AJ160"/>
-      <c r="AK160"/>
-      <c r="AL160"/>
+      <c r="X160" t="n">
+        <v>144</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>114</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>229</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>483</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>4332</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1499</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1348</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>850</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>831</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>11370</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2386</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>15834</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>5657</v>
+      </c>
       <c r="AM160"/>
       <c r="AN160" t="n">
         <v>40033.6329731976</v>
@@ -20509,21 +21591,51 @@
       <c r="W161" t="n">
         <v>1935</v>
       </c>
-      <c r="X161"/>
-      <c r="Y161"/>
-      <c r="Z161"/>
-      <c r="AA161"/>
-      <c r="AB161"/>
-      <c r="AC161"/>
-      <c r="AD161"/>
-      <c r="AE161"/>
-      <c r="AF161"/>
-      <c r="AG161"/>
-      <c r="AH161"/>
-      <c r="AI161"/>
-      <c r="AJ161"/>
-      <c r="AK161"/>
-      <c r="AL161"/>
+      <c r="X161" t="n">
+        <v>145</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>534</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>119</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>232</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>486</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>4351</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>743</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1512</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1439</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1077</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>800</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>10603</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>2279</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>14681</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>5292</v>
+      </c>
       <c r="AM161"/>
       <c r="AN161" t="n">
         <v>41714.9842158431</v>
@@ -20656,21 +21768,51 @@
       <c r="W162" t="n">
         <v>2056</v>
       </c>
-      <c r="X162"/>
-      <c r="Y162"/>
-      <c r="Z162"/>
-      <c r="AA162"/>
-      <c r="AB162"/>
-      <c r="AC162"/>
-      <c r="AD162"/>
-      <c r="AE162"/>
-      <c r="AF162"/>
-      <c r="AG162"/>
-      <c r="AH162"/>
-      <c r="AI162"/>
-      <c r="AJ162"/>
-      <c r="AK162"/>
-      <c r="AL162"/>
+      <c r="X162" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>547</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>233</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>494</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>4470</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>751</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1636</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1827</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1211</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>789</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>10720</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2505</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>14496</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>5500</v>
+      </c>
       <c r="AM162"/>
       <c r="AN162" t="n">
         <v>44700.0436820397</v>
@@ -20803,21 +21945,51 @@
       <c r="W163" t="n">
         <v>2153</v>
       </c>
-      <c r="X163"/>
-      <c r="Y163"/>
-      <c r="Z163"/>
-      <c r="AA163"/>
-      <c r="AB163"/>
-      <c r="AC163"/>
-      <c r="AD163"/>
-      <c r="AE163"/>
-      <c r="AF163"/>
-      <c r="AG163"/>
-      <c r="AH163"/>
-      <c r="AI163"/>
-      <c r="AJ163"/>
-      <c r="AK163"/>
-      <c r="AL163"/>
+      <c r="X163" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>545</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>121</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>242</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>506</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>4484</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>757</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1739</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1335</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>977</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>861</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>12449</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2626</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>16310</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>5622</v>
+      </c>
       <c r="AM163"/>
       <c r="AN163" t="n">
         <v>45387.8165951469</v>
@@ -20950,21 +22122,51 @@
       <c r="W164" t="n">
         <v>2008</v>
       </c>
-      <c r="X164"/>
-      <c r="Y164"/>
-      <c r="Z164"/>
-      <c r="AA164"/>
-      <c r="AB164"/>
-      <c r="AC164"/>
-      <c r="AD164"/>
-      <c r="AE164"/>
-      <c r="AF164"/>
-      <c r="AG164"/>
-      <c r="AH164"/>
-      <c r="AI164"/>
-      <c r="AJ164"/>
-      <c r="AK164"/>
-      <c r="AL164"/>
+      <c r="X164" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>541</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>122</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>517</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>4552</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>767</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1831</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1533</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1137</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>926</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>11954</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2363</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>15780</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>5667</v>
+      </c>
       <c r="AM164"/>
       <c r="AN164" t="n">
         <v>44986.801314336</v>
@@ -21097,21 +22299,51 @@
       <c r="W165" t="n">
         <v>2166</v>
       </c>
-      <c r="X165"/>
-      <c r="Y165"/>
-      <c r="Z165"/>
-      <c r="AA165"/>
-      <c r="AB165"/>
-      <c r="AC165"/>
-      <c r="AD165"/>
-      <c r="AE165"/>
-      <c r="AF165"/>
-      <c r="AG165"/>
-      <c r="AH165"/>
-      <c r="AI165"/>
-      <c r="AJ165"/>
-      <c r="AK165"/>
-      <c r="AL165"/>
+      <c r="X165" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>544</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>123</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>527</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>4590</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>777</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1908</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1763</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>1327</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>890</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>10899</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2337</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>15779</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>5726</v>
+      </c>
       <c r="AM165"/>
       <c r="AN165" t="n">
         <v>43974.2376795747</v>
@@ -21244,21 +22476,51 @@
       <c r="W166" t="n">
         <v>2242</v>
       </c>
-      <c r="X166"/>
-      <c r="Y166"/>
-      <c r="Z166"/>
-      <c r="AA166"/>
-      <c r="AB166"/>
-      <c r="AC166"/>
-      <c r="AD166"/>
-      <c r="AE166"/>
-      <c r="AF166"/>
-      <c r="AG166"/>
-      <c r="AH166"/>
-      <c r="AI166"/>
-      <c r="AJ166"/>
-      <c r="AK166"/>
-      <c r="AL166"/>
+      <c r="X166" t="n">
+        <v>161</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>548</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>536</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>4701</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>778</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1939</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1707</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1126</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>802</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>13291</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2395</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>14989</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>5710</v>
+      </c>
       <c r="AM166"/>
       <c r="AN166" t="n">
         <v>42074.5570790628</v>
@@ -21391,21 +22653,51 @@
       <c r="W167" t="n">
         <v>2287</v>
       </c>
-      <c r="X167"/>
-      <c r="Y167"/>
-      <c r="Z167"/>
-      <c r="AA167"/>
-      <c r="AB167"/>
-      <c r="AC167"/>
-      <c r="AD167"/>
-      <c r="AE167"/>
-      <c r="AF167"/>
-      <c r="AG167"/>
-      <c r="AH167"/>
-      <c r="AI167"/>
-      <c r="AJ167"/>
-      <c r="AK167"/>
-      <c r="AL167"/>
+      <c r="X167" t="n">
+        <v>161</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>548</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>536</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>4701</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>778</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1939</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1653</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>1278</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>957</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>11542</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2776</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>15358</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>5633</v>
+      </c>
       <c r="AM167"/>
       <c r="AN167" t="n">
         <v>40983.4649095924</v>
@@ -21538,21 +22830,51 @@
       <c r="W168" t="n">
         <v>2326</v>
       </c>
-      <c r="X168"/>
-      <c r="Y168"/>
-      <c r="Z168"/>
-      <c r="AA168"/>
-      <c r="AB168"/>
-      <c r="AC168"/>
-      <c r="AD168"/>
-      <c r="AE168"/>
-      <c r="AF168"/>
-      <c r="AG168"/>
-      <c r="AH168"/>
-      <c r="AI168"/>
-      <c r="AJ168"/>
-      <c r="AK168"/>
-      <c r="AL168"/>
+      <c r="X168" t="n">
+        <v>169</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>552</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>549</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>4770</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>785</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1812</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>1209</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>13354</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2638</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>17191</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>5289</v>
+      </c>
       <c r="AM168"/>
       <c r="AN168" t="n">
         <v>42532.0979020979</v>
@@ -21685,21 +23007,51 @@
       <c r="W169" t="n">
         <v>2518</v>
       </c>
-      <c r="X169"/>
-      <c r="Y169"/>
-      <c r="Z169"/>
-      <c r="AA169"/>
-      <c r="AB169"/>
-      <c r="AC169"/>
-      <c r="AD169"/>
-      <c r="AE169"/>
-      <c r="AF169"/>
-      <c r="AG169"/>
-      <c r="AH169"/>
-      <c r="AI169"/>
-      <c r="AJ169"/>
-      <c r="AK169"/>
-      <c r="AL169"/>
+      <c r="X169" t="n">
+        <v>176</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>546</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>124</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>247</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>563</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>4900</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>802</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2141</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1805</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>1494</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1044</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>11792</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2481</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>15636</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>5529</v>
+      </c>
       <c r="AM169"/>
       <c r="AN169" t="n">
         <v>44570.3383685194</v>
@@ -21832,21 +23184,51 @@
       <c r="W170" t="n">
         <v>2793</v>
       </c>
-      <c r="X170"/>
-      <c r="Y170"/>
-      <c r="Z170"/>
-      <c r="AA170"/>
-      <c r="AB170"/>
-      <c r="AC170"/>
-      <c r="AD170"/>
-      <c r="AE170"/>
-      <c r="AF170"/>
-      <c r="AG170"/>
-      <c r="AH170"/>
-      <c r="AI170"/>
-      <c r="AJ170"/>
-      <c r="AK170"/>
-      <c r="AL170"/>
+      <c r="X170" t="n">
+        <v>179</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>549</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>251</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>568</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>4993</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>828</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2242</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>2071</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>1612</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>12273</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2537</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>17830</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>5782</v>
+      </c>
       <c r="AM170"/>
       <c r="AN170" t="n">
         <v>45730.9937199852</v>
@@ -21979,21 +23361,51 @@
       <c r="W171" t="n">
         <v>2947</v>
       </c>
-      <c r="X171"/>
-      <c r="Y171"/>
-      <c r="Z171"/>
-      <c r="AA171"/>
-      <c r="AB171"/>
-      <c r="AC171"/>
-      <c r="AD171"/>
-      <c r="AE171"/>
-      <c r="AF171"/>
-      <c r="AG171"/>
-      <c r="AH171"/>
-      <c r="AI171"/>
-      <c r="AJ171"/>
-      <c r="AK171"/>
-      <c r="AL171"/>
+      <c r="X171" t="n">
+        <v>187</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>557</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>252</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>579</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>5075</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>835</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2290</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>2372</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>1656</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1152</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>12102</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2413</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>16941</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>5856</v>
+      </c>
       <c r="AM171"/>
       <c r="AN171" t="n">
         <v>45975.2418621208</v>
@@ -22126,21 +23538,51 @@
       <c r="W172" t="n">
         <v>3148</v>
       </c>
-      <c r="X172"/>
-      <c r="Y172"/>
-      <c r="Z172"/>
-      <c r="AA172"/>
-      <c r="AB172"/>
-      <c r="AC172"/>
-      <c r="AD172"/>
-      <c r="AE172"/>
-      <c r="AF172"/>
-      <c r="AG172"/>
-      <c r="AH172"/>
-      <c r="AI172"/>
-      <c r="AJ172"/>
-      <c r="AK172"/>
-      <c r="AL172"/>
+      <c r="X172" t="n">
+        <v>191</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>619</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>127</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>291</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>588</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>5116</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>842</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2373</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>2220</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1618</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>12213</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2411</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>17648</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>5841</v>
+      </c>
       <c r="AM172"/>
       <c r="AN172" t="n">
         <v>45195.0288606154</v>
@@ -22273,21 +23715,51 @@
       <c r="W173" t="n">
         <v>3247</v>
       </c>
-      <c r="X173"/>
-      <c r="Y173"/>
-      <c r="Z173"/>
-      <c r="AA173"/>
-      <c r="AB173"/>
-      <c r="AC173"/>
-      <c r="AD173"/>
-      <c r="AE173"/>
-      <c r="AF173"/>
-      <c r="AG173"/>
-      <c r="AH173"/>
-      <c r="AI173"/>
-      <c r="AJ173"/>
-      <c r="AK173"/>
-      <c r="AL173"/>
+      <c r="X173" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>623</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>127</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>292</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>591</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>5196</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>849</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2437</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>2408</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>1374</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>12085</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2716</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>18195</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>5807</v>
+      </c>
       <c r="AM173"/>
       <c r="AN173" t="n">
         <v>43841.168081774</v>
@@ -22420,21 +23892,51 @@
       <c r="W174" t="n">
         <v>3409</v>
       </c>
-      <c r="X174"/>
-      <c r="Y174"/>
-      <c r="Z174"/>
-      <c r="AA174"/>
-      <c r="AB174"/>
-      <c r="AC174"/>
-      <c r="AD174"/>
-      <c r="AE174"/>
-      <c r="AF174"/>
-      <c r="AG174"/>
-      <c r="AH174"/>
-      <c r="AI174"/>
-      <c r="AJ174"/>
-      <c r="AK174"/>
-      <c r="AL174"/>
+      <c r="X174" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>642</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>293</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>597</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>5283</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>851</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2454</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>2361</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>1735</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1193</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>11995</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2748</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>14326</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>5701</v>
+      </c>
       <c r="AM174"/>
       <c r="AN174" t="n">
         <v>42586.1535767987</v>
@@ -22567,21 +24069,51 @@
       <c r="W175" t="n">
         <v>3711</v>
       </c>
-      <c r="X175"/>
-      <c r="Y175"/>
-      <c r="Z175"/>
-      <c r="AA175"/>
-      <c r="AB175"/>
-      <c r="AC175"/>
-      <c r="AD175"/>
-      <c r="AE175"/>
-      <c r="AF175"/>
-      <c r="AG175"/>
-      <c r="AH175"/>
-      <c r="AI175"/>
-      <c r="AJ175"/>
-      <c r="AK175"/>
-      <c r="AL175"/>
+      <c r="X175" t="n">
+        <v>202</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>648</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>292</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>5314</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>859</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2481</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>2358</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>1653</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1103</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>13009</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2442</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>14832</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>5712</v>
+      </c>
       <c r="AM175"/>
       <c r="AN175" t="n">
         <v>43749.2613289982</v>
@@ -22714,21 +24246,51 @@
       <c r="W176" t="n">
         <v>4092</v>
       </c>
-      <c r="X176"/>
-      <c r="Y176"/>
-      <c r="Z176"/>
-      <c r="AA176"/>
-      <c r="AB176"/>
-      <c r="AC176"/>
-      <c r="AD176"/>
-      <c r="AE176"/>
-      <c r="AF176"/>
-      <c r="AG176"/>
-      <c r="AH176"/>
-      <c r="AI176"/>
-      <c r="AJ176"/>
-      <c r="AK176"/>
-      <c r="AL176"/>
+      <c r="X176" t="n">
+        <v>208</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>674</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>294</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>607</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>5392</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>879</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2501</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>2336</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1279</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>12454</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>14540</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>5762</v>
+      </c>
       <c r="AM176"/>
       <c r="AN176" t="n">
         <v>45408.3754421933</v>
@@ -22861,21 +24423,51 @@
       <c r="W177" t="n">
         <v>4389</v>
       </c>
-      <c r="X177"/>
-      <c r="Y177"/>
-      <c r="Z177"/>
-      <c r="AA177"/>
-      <c r="AB177"/>
-      <c r="AC177"/>
-      <c r="AD177"/>
-      <c r="AE177"/>
-      <c r="AF177"/>
-      <c r="AG177"/>
-      <c r="AH177"/>
-      <c r="AI177"/>
-      <c r="AJ177"/>
-      <c r="AK177"/>
-      <c r="AL177"/>
+      <c r="X177" t="n">
+        <v>220</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>697</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>133</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>295</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>627</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>5517</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>883</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2557</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>2762</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1848</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1144</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>12303</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2226</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>17380</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>5968</v>
+      </c>
       <c r="AM177"/>
       <c r="AN177" t="n">
         <v>45812.3342180654</v>
@@ -23008,21 +24600,51 @@
       <c r="W178" t="n">
         <v>4739</v>
       </c>
-      <c r="X178"/>
-      <c r="Y178"/>
-      <c r="Z178"/>
-      <c r="AA178"/>
-      <c r="AB178"/>
-      <c r="AC178"/>
-      <c r="AD178"/>
-      <c r="AE178"/>
-      <c r="AF178"/>
-      <c r="AG178"/>
-      <c r="AH178"/>
-      <c r="AI178"/>
-      <c r="AJ178"/>
-      <c r="AK178"/>
-      <c r="AL178"/>
+      <c r="X178" t="n">
+        <v>223</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>699</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>136</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>296</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>640</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>5570</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>895</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2629</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2615</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>2202</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1358</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>13664</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2419</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>17819</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>6051</v>
+      </c>
       <c r="AM178"/>
       <c r="AN178" t="n">
         <v>46573.2904576727</v>
@@ -23155,21 +24777,51 @@
       <c r="W179" t="n">
         <v>5102</v>
       </c>
-      <c r="X179"/>
-      <c r="Y179"/>
-      <c r="Z179"/>
-      <c r="AA179"/>
-      <c r="AB179"/>
-      <c r="AC179"/>
-      <c r="AD179"/>
-      <c r="AE179"/>
-      <c r="AF179"/>
-      <c r="AG179"/>
-      <c r="AH179"/>
-      <c r="AI179"/>
-      <c r="AJ179"/>
-      <c r="AK179"/>
-      <c r="AL179"/>
+      <c r="X179" t="n">
+        <v>230</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>705</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>137</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>297</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>651</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>5649</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>909</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>2684</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>3150</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>1971</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1443</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>12702</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2572</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>19436</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>6150</v>
+      </c>
       <c r="AM179"/>
       <c r="AN179" t="n">
         <v>45698.0462811891</v>
@@ -23302,21 +24954,51 @@
       <c r="W180" t="n">
         <v>5523</v>
       </c>
-      <c r="X180"/>
-      <c r="Y180"/>
-      <c r="Z180"/>
-      <c r="AA180"/>
-      <c r="AB180"/>
-      <c r="AC180"/>
-      <c r="AD180"/>
-      <c r="AE180"/>
-      <c r="AF180"/>
-      <c r="AG180"/>
-      <c r="AH180"/>
-      <c r="AI180"/>
-      <c r="AJ180"/>
-      <c r="AK180"/>
-      <c r="AL180"/>
+      <c r="X180" t="n">
+        <v>248</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>715</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>138</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>303</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>659</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>5747</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>922</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2705</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>2918</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2038</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1396</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>14063</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1962</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>19836</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>6165</v>
+      </c>
       <c r="AM180"/>
       <c r="AN180" t="n">
         <v>43429.9714106845</v>
@@ -23449,21 +25131,51 @@
       <c r="W181" t="n">
         <v>5497</v>
       </c>
-      <c r="X181"/>
-      <c r="Y181"/>
-      <c r="Z181"/>
-      <c r="AA181"/>
-      <c r="AB181"/>
-      <c r="AC181"/>
-      <c r="AD181"/>
-      <c r="AE181"/>
-      <c r="AF181"/>
-      <c r="AG181"/>
-      <c r="AH181"/>
-      <c r="AI181"/>
-      <c r="AJ181"/>
-      <c r="AK181"/>
-      <c r="AL181"/>
+      <c r="X181" t="n">
+        <v>254</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>738</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>139</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>307</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>667</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>5822</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>917</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2707</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>3184</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>2172</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1484</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>12438</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2154</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>16804</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>5999</v>
+      </c>
       <c r="AM181"/>
       <c r="AN181" t="n">
         <v>42606.047960137</v>
@@ -23596,21 +25308,51 @@
       <c r="W182" t="n">
         <v>5913</v>
       </c>
-      <c r="X182"/>
-      <c r="Y182"/>
-      <c r="Z182"/>
-      <c r="AA182"/>
-      <c r="AB182"/>
-      <c r="AC182"/>
-      <c r="AD182"/>
-      <c r="AE182"/>
-      <c r="AF182"/>
-      <c r="AG182"/>
-      <c r="AH182"/>
-      <c r="AI182"/>
-      <c r="AJ182"/>
-      <c r="AK182"/>
-      <c r="AL182"/>
+      <c r="X182" t="n">
+        <v>260</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>739</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>307</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>673</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>5907</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>923</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2723</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>2711</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>2406</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1663</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>11778</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1987</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>17315</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>5931</v>
+      </c>
       <c r="AM182"/>
       <c r="AN182" t="n">
         <v>43883.4266832562</v>
@@ -23743,21 +25485,51 @@
       <c r="W183" t="n">
         <v>6533</v>
       </c>
-      <c r="X183"/>
-      <c r="Y183"/>
-      <c r="Z183"/>
-      <c r="AA183"/>
-      <c r="AB183"/>
-      <c r="AC183"/>
-      <c r="AD183"/>
-      <c r="AE183"/>
-      <c r="AF183"/>
-      <c r="AG183"/>
-      <c r="AH183"/>
-      <c r="AI183"/>
-      <c r="AJ183"/>
-      <c r="AK183"/>
-      <c r="AL183"/>
+      <c r="X183" t="n">
+        <v>267</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>759</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>309</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>682</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>5988</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>929</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2759</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>3540</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2251</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1617</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>12688</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1987</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>17400</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>5921</v>
+      </c>
       <c r="AM183"/>
       <c r="AN183" t="n">
         <v>46157.793118739</v>
@@ -23890,22 +25662,54 @@
       <c r="W184" t="n">
         <v>6904</v>
       </c>
-      <c r="X184"/>
-      <c r="Y184"/>
-      <c r="Z184"/>
-      <c r="AA184"/>
-      <c r="AB184"/>
-      <c r="AC184"/>
-      <c r="AD184"/>
-      <c r="AE184"/>
-      <c r="AF184"/>
-      <c r="AG184"/>
-      <c r="AH184"/>
-      <c r="AI184"/>
-      <c r="AJ184"/>
-      <c r="AK184"/>
-      <c r="AL184"/>
-      <c r="AM184"/>
+      <c r="X184" t="n">
+        <v>275</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>770</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>309</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>693</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>6194</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>949</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2824</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>3502</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>2892</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1663</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>13517</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2928</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>17348</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>6017</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>5622</v>
+      </c>
       <c r="AN184" t="n">
         <v>47290.5415873016</v>
       </c>
@@ -24037,22 +25841,54 @@
       <c r="W185" t="n">
         <v>7382</v>
       </c>
-      <c r="X185"/>
-      <c r="Y185"/>
-      <c r="Z185"/>
-      <c r="AA185"/>
-      <c r="AB185"/>
-      <c r="AC185"/>
-      <c r="AD185"/>
-      <c r="AE185"/>
-      <c r="AF185"/>
-      <c r="AG185"/>
-      <c r="AH185"/>
-      <c r="AI185"/>
-      <c r="AJ185"/>
-      <c r="AK185"/>
-      <c r="AL185"/>
-      <c r="AM185"/>
+      <c r="X185" t="n">
+        <v>287</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>785</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>312</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>707</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>6262</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>946</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2847</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>3586</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>2776</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1887</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>14349</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2509</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>19376</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>6147</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>5491</v>
+      </c>
       <c r="AN185" t="n">
         <v>47192.1344732647</v>
       </c>
@@ -24184,22 +26020,54 @@
       <c r="W186" t="n">
         <v>7652</v>
       </c>
-      <c r="X186"/>
-      <c r="Y186"/>
-      <c r="Z186"/>
-      <c r="AA186"/>
-      <c r="AB186"/>
-      <c r="AC186"/>
-      <c r="AD186"/>
-      <c r="AE186"/>
-      <c r="AF186"/>
-      <c r="AG186"/>
-      <c r="AH186"/>
-      <c r="AI186"/>
-      <c r="AJ186"/>
-      <c r="AK186"/>
-      <c r="AL186"/>
-      <c r="AM186"/>
+      <c r="X186" t="n">
+        <v>292</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>802</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>148</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>318</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>715</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>6382</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>957</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>4149</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>3041</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1507</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>14997</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2218</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>21629</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>6045</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>5488</v>
+      </c>
       <c r="AN186" t="n">
         <v>45367.9634617392</v>
       </c>
@@ -24331,22 +26199,54 @@
       <c r="W187" t="n">
         <v>7890</v>
       </c>
-      <c r="X187"/>
-      <c r="Y187"/>
-      <c r="Z187"/>
-      <c r="AA187"/>
-      <c r="AB187"/>
-      <c r="AC187"/>
-      <c r="AD187"/>
-      <c r="AE187"/>
-      <c r="AF187"/>
-      <c r="AG187"/>
-      <c r="AH187"/>
-      <c r="AI187"/>
-      <c r="AJ187"/>
-      <c r="AK187"/>
-      <c r="AL187"/>
-      <c r="AM187"/>
+      <c r="X187" t="n">
+        <v>305</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>816</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>149</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>318</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>722</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>6472</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>974</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>2939</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>4232</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>2609</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>13500</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2113</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>21006</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>5952</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>5479</v>
+      </c>
       <c r="AN187" t="n">
         <v>42800.5334514095</v>
       </c>
@@ -24478,22 +26378,54 @@
       <c r="W188" t="n">
         <v>8181</v>
       </c>
-      <c r="X188"/>
-      <c r="Y188"/>
-      <c r="Z188"/>
-      <c r="AA188"/>
-      <c r="AB188"/>
-      <c r="AC188"/>
-      <c r="AD188"/>
-      <c r="AE188"/>
-      <c r="AF188"/>
-      <c r="AG188"/>
-      <c r="AH188"/>
-      <c r="AI188"/>
-      <c r="AJ188"/>
-      <c r="AK188"/>
-      <c r="AL188"/>
-      <c r="AM188"/>
+      <c r="X188" t="n">
+        <v>310</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>837</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>149</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>318</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>728</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>6587</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>978</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2975</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>3829</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2944</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1841</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>13479</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2072</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>19046</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>5946</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>5413</v>
+      </c>
       <c r="AN188" t="n">
         <v>42736.6476084823</v>
       </c>
@@ -24625,22 +26557,54 @@
       <c r="W189" t="n">
         <v>8698</v>
       </c>
-      <c r="X189"/>
-      <c r="Y189"/>
-      <c r="Z189"/>
-      <c r="AA189"/>
-      <c r="AB189"/>
-      <c r="AC189"/>
-      <c r="AD189"/>
-      <c r="AE189"/>
-      <c r="AF189"/>
-      <c r="AG189"/>
-      <c r="AH189"/>
-      <c r="AI189"/>
-      <c r="AJ189"/>
-      <c r="AK189"/>
-      <c r="AL189"/>
-      <c r="AM189"/>
+      <c r="X189" t="n">
+        <v>313</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>847</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>319</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>741</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>6653</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2993</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>4198</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2864</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>11538</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>17379</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>5913</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>5300</v>
+      </c>
       <c r="AN189" t="n">
         <v>44257.1371960122</v>
       </c>
@@ -24772,22 +26736,54 @@
       <c r="W190" t="n">
         <v>9286</v>
       </c>
-      <c r="X190"/>
-      <c r="Y190"/>
-      <c r="Z190"/>
-      <c r="AA190"/>
-      <c r="AB190"/>
-      <c r="AC190"/>
-      <c r="AD190"/>
-      <c r="AE190"/>
-      <c r="AF190"/>
-      <c r="AG190"/>
-      <c r="AH190"/>
-      <c r="AI190"/>
-      <c r="AJ190"/>
-      <c r="AK190"/>
-      <c r="AL190"/>
-      <c r="AM190"/>
+      <c r="X190" t="n">
+        <v>323</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>867</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>152</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>753</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>6857</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>1003</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3034</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>4462</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>3686</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>2045</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>12326</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2241</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>19026</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>6087</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>5283</v>
+      </c>
       <c r="AN190" t="n">
         <v>47081.1825797444</v>
       </c>
@@ -24919,22 +26915,54 @@
       <c r="W191" t="n">
         <v>9610</v>
       </c>
-      <c r="X191"/>
-      <c r="Y191"/>
-      <c r="Z191"/>
-      <c r="AA191"/>
-      <c r="AB191"/>
-      <c r="AC191"/>
-      <c r="AD191"/>
-      <c r="AE191"/>
-      <c r="AF191"/>
-      <c r="AG191"/>
-      <c r="AH191"/>
-      <c r="AI191"/>
-      <c r="AJ191"/>
-      <c r="AK191"/>
-      <c r="AL191"/>
-      <c r="AM191"/>
+      <c r="X191" t="n">
+        <v>327</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>909</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>329</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>763</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>7022</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>1027</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>3055</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>4333</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>3286</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>2232</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>13315</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>3357</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>16431</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>6322</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>5288</v>
+      </c>
       <c r="AN191" t="n">
         <v>47203.2621310327</v>
       </c>
@@ -25066,22 +27094,54 @@
       <c r="W192" t="n">
         <v>9689</v>
       </c>
-      <c r="X192"/>
-      <c r="Y192"/>
-      <c r="Z192"/>
-      <c r="AA192"/>
-      <c r="AB192"/>
-      <c r="AC192"/>
-      <c r="AD192"/>
-      <c r="AE192"/>
-      <c r="AF192"/>
-      <c r="AG192"/>
-      <c r="AH192"/>
-      <c r="AI192"/>
-      <c r="AJ192"/>
-      <c r="AK192"/>
-      <c r="AL192"/>
-      <c r="AM192"/>
+      <c r="X192" t="n">
+        <v>338</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>952</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>155</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>357</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>769</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>7301</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>1035</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>3106</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>4953</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>3820</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>2260</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>13132</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2665</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>19688</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>6478</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>5224</v>
+      </c>
       <c r="AN192" t="n">
         <v>46617.2215659251</v>
       </c>
@@ -25213,22 +27273,54 @@
       <c r="W193" t="n">
         <v>10002</v>
       </c>
-      <c r="X193"/>
-      <c r="Y193"/>
-      <c r="Z193"/>
-      <c r="AA193"/>
-      <c r="AB193"/>
-      <c r="AC193"/>
-      <c r="AD193"/>
-      <c r="AE193"/>
-      <c r="AF193"/>
-      <c r="AG193"/>
-      <c r="AH193"/>
-      <c r="AI193"/>
-      <c r="AJ193"/>
-      <c r="AK193"/>
-      <c r="AL193"/>
-      <c r="AM193"/>
+      <c r="X193" t="n">
+        <v>344</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>962</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>779</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>7376</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>1043</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3146</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>5308</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>3898</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>2489</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>12857</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2703</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>22552</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>6379</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>5127</v>
+      </c>
       <c r="AN193" t="n">
         <v>46652.7184551433</v>
       </c>
@@ -25360,22 +27452,54 @@
       <c r="W194" t="n">
         <v>10083</v>
       </c>
-      <c r="X194"/>
-      <c r="Y194"/>
-      <c r="Z194"/>
-      <c r="AA194"/>
-      <c r="AB194"/>
-      <c r="AC194"/>
-      <c r="AD194"/>
-      <c r="AE194"/>
-      <c r="AF194"/>
-      <c r="AG194"/>
-      <c r="AH194"/>
-      <c r="AI194"/>
-      <c r="AJ194"/>
-      <c r="AK194"/>
-      <c r="AL194"/>
-      <c r="AM194"/>
+      <c r="X194" t="n">
+        <v>350</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1017</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>159</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>364</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>786</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>7635</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>1050</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3190</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>4490</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>3972</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>2512</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>13228</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2662</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>19705</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>6353</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>5233</v>
+      </c>
       <c r="AN194" t="n">
         <v>45008.0820093981</v>
       </c>
@@ -25507,22 +27631,54 @@
       <c r="W195" t="n">
         <v>10410</v>
       </c>
-      <c r="X195"/>
-      <c r="Y195"/>
-      <c r="Z195"/>
-      <c r="AA195"/>
-      <c r="AB195"/>
-      <c r="AC195"/>
-      <c r="AD195"/>
-      <c r="AE195"/>
-      <c r="AF195"/>
-      <c r="AG195"/>
-      <c r="AH195"/>
-      <c r="AI195"/>
-      <c r="AJ195"/>
-      <c r="AK195"/>
-      <c r="AL195"/>
-      <c r="AM195"/>
+      <c r="X195" t="n">
+        <v>352</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1030</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>365</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>790</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>7757</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>1060</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>3212</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>5408</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>4269</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>2507</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>14798</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2779</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>21533</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>6405</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>5236</v>
+      </c>
       <c r="AN195" t="n">
         <v>44428.7743751717</v>
       </c>
@@ -25654,22 +27810,54 @@
       <c r="W196" t="n">
         <v>10405</v>
       </c>
-      <c r="X196"/>
-      <c r="Y196"/>
-      <c r="Z196"/>
-      <c r="AA196"/>
-      <c r="AB196"/>
-      <c r="AC196"/>
-      <c r="AD196"/>
-      <c r="AE196"/>
-      <c r="AF196"/>
-      <c r="AG196"/>
-      <c r="AH196"/>
-      <c r="AI196"/>
-      <c r="AJ196"/>
-      <c r="AK196"/>
-      <c r="AL196"/>
-      <c r="AM196"/>
+      <c r="X196" t="n">
+        <v>379</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1102</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>167</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>372</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>830</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>8918</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>1147</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3300</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>6211</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>3936</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>2479</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>11446</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2464</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>18883</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>6370</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>5245</v>
+      </c>
       <c r="AN196" t="n">
         <v>44745.7542177057</v>
       </c>
@@ -25801,22 +27989,54 @@
       <c r="W197" t="n">
         <v>10569</v>
       </c>
-      <c r="X197"/>
-      <c r="Y197"/>
-      <c r="Z197"/>
-      <c r="AA197"/>
-      <c r="AB197"/>
-      <c r="AC197"/>
-      <c r="AD197"/>
-      <c r="AE197"/>
-      <c r="AF197"/>
-      <c r="AG197"/>
-      <c r="AH197"/>
-      <c r="AI197"/>
-      <c r="AJ197"/>
-      <c r="AK197"/>
-      <c r="AL197"/>
-      <c r="AM197"/>
+      <c r="X197" t="n">
+        <v>386</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1163</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>173</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>838</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>9231</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>1173</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3371</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>6117</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>4205</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>2824</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>13043</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>21427</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>6334</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>5059</v>
+      </c>
       <c r="AN197" t="n">
         <v>46530.9443640457</v>
       </c>
@@ -25948,22 +28168,54 @@
       <c r="W198" t="n">
         <v>10471</v>
       </c>
-      <c r="X198"/>
-      <c r="Y198"/>
-      <c r="Z198"/>
-      <c r="AA198"/>
-      <c r="AB198"/>
-      <c r="AC198"/>
-      <c r="AD198"/>
-      <c r="AE198"/>
-      <c r="AF198"/>
-      <c r="AG198"/>
-      <c r="AH198"/>
-      <c r="AI198"/>
-      <c r="AJ198"/>
-      <c r="AK198"/>
-      <c r="AL198"/>
-      <c r="AM198"/>
+      <c r="X198" t="n">
+        <v>396</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1190</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>179</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>383</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>851</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>9609</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>1236</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3487</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>4810</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>5156</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>2822</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>12895</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>3007</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>20688</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>6583</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>5059</v>
+      </c>
       <c r="AN198"/>
       <c r="AO198"/>
       <c r="AP198"/>
@@ -26059,22 +28311,54 @@
       <c r="W199" t="n">
         <v>10457</v>
       </c>
-      <c r="X199"/>
-      <c r="Y199"/>
-      <c r="Z199"/>
-      <c r="AA199"/>
-      <c r="AB199"/>
-      <c r="AC199"/>
-      <c r="AD199"/>
-      <c r="AE199"/>
-      <c r="AF199"/>
-      <c r="AG199"/>
-      <c r="AH199"/>
-      <c r="AI199"/>
-      <c r="AJ199"/>
-      <c r="AK199"/>
-      <c r="AL199"/>
-      <c r="AM199"/>
+      <c r="X199" t="n">
+        <v>408</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1238</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>183</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>391</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>859</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>10057</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>1290</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3498</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>5520</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>4954</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>2664</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>12965</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2784</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>20552</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>6666</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>5080</v>
+      </c>
       <c r="AN199"/>
       <c r="AO199"/>
       <c r="AP199"/>
@@ -26170,22 +28454,54 @@
       <c r="W200" t="n">
         <v>10632</v>
       </c>
-      <c r="X200"/>
-      <c r="Y200"/>
-      <c r="Z200"/>
-      <c r="AA200"/>
-      <c r="AB200"/>
-      <c r="AC200"/>
-      <c r="AD200"/>
-      <c r="AE200"/>
-      <c r="AF200"/>
-      <c r="AG200"/>
-      <c r="AH200"/>
-      <c r="AI200"/>
-      <c r="AJ200"/>
-      <c r="AK200"/>
-      <c r="AL200"/>
-      <c r="AM200"/>
+      <c r="X200" t="n">
+        <v>413</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1266</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>189</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>393</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>866</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>10449</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3535</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>4881</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>4869</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>2783</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>12995</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>3024</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>19201</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>6693</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>5218</v>
+      </c>
       <c r="AN200"/>
       <c r="AO200"/>
       <c r="AP200"/>
@@ -26281,22 +28597,54 @@
       <c r="W201" t="n">
         <v>10658</v>
       </c>
-      <c r="X201"/>
-      <c r="Y201"/>
-      <c r="Z201"/>
-      <c r="AA201"/>
-      <c r="AB201"/>
-      <c r="AC201"/>
-      <c r="AD201"/>
-      <c r="AE201"/>
-      <c r="AF201"/>
-      <c r="AG201"/>
-      <c r="AH201"/>
-      <c r="AI201"/>
-      <c r="AJ201"/>
-      <c r="AK201"/>
-      <c r="AL201"/>
-      <c r="AM201"/>
+      <c r="X201" t="n">
+        <v>426</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1363</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>202</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>424</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>873</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>11015</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>1387</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3731</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>5642</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>4622</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>2402</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>12759</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2074</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>19134</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>6658</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>5254</v>
+      </c>
       <c r="AN201"/>
       <c r="AO201"/>
       <c r="AP201"/>
@@ -26392,22 +28740,54 @@
       <c r="W202" t="n">
         <v>10592</v>
       </c>
-      <c r="X202"/>
-      <c r="Y202"/>
-      <c r="Z202"/>
-      <c r="AA202"/>
-      <c r="AB202"/>
-      <c r="AC202"/>
-      <c r="AD202"/>
-      <c r="AE202"/>
-      <c r="AF202"/>
-      <c r="AG202"/>
-      <c r="AH202"/>
-      <c r="AI202"/>
-      <c r="AJ202"/>
-      <c r="AK202"/>
-      <c r="AL202"/>
-      <c r="AM202"/>
+      <c r="X202" t="n">
+        <v>433</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1380</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>204</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>878</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>11118</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>1407</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3746</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>5776</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>4350</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>2699</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>14318</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2436</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>21542</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>6661</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>5062</v>
+      </c>
       <c r="AN202"/>
       <c r="AO202"/>
       <c r="AP202"/>
@@ -26503,22 +28883,54 @@
       <c r="W203" t="n">
         <v>10569</v>
       </c>
-      <c r="X203"/>
-      <c r="Y203"/>
-      <c r="Z203"/>
-      <c r="AA203"/>
-      <c r="AB203"/>
-      <c r="AC203"/>
-      <c r="AD203"/>
-      <c r="AE203"/>
-      <c r="AF203"/>
-      <c r="AG203"/>
-      <c r="AH203"/>
-      <c r="AI203"/>
-      <c r="AJ203"/>
-      <c r="AK203"/>
-      <c r="AL203"/>
-      <c r="AM203"/>
+      <c r="X203" t="n">
+        <v>437</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1416</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>212</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>449</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>878</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>11303</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>1422</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3781</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>6087</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>4991</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>2888</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>14047</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>20093</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>6633</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>5058</v>
+      </c>
       <c r="AN203"/>
       <c r="AO203"/>
       <c r="AP203"/>
@@ -26622,14 +29034,30 @@
       <c r="AC204"/>
       <c r="AD204"/>
       <c r="AE204"/>
-      <c r="AF204"/>
-      <c r="AG204"/>
-      <c r="AH204"/>
-      <c r="AI204"/>
-      <c r="AJ204"/>
-      <c r="AK204"/>
-      <c r="AL204"/>
-      <c r="AM204"/>
+      <c r="AF204" t="n">
+        <v>6068</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>4701</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>2811</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>13990</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2991</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>21265</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>6654</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>5096</v>
+      </c>
       <c r="AN204"/>
       <c r="AO204"/>
       <c r="AP204"/>
@@ -26725,22 +29153,54 @@
       <c r="W205" t="n">
         <v>10893</v>
       </c>
-      <c r="X205"/>
-      <c r="Y205"/>
-      <c r="Z205"/>
-      <c r="AA205"/>
-      <c r="AB205"/>
-      <c r="AC205"/>
-      <c r="AD205"/>
-      <c r="AE205"/>
-      <c r="AF205"/>
-      <c r="AG205"/>
-      <c r="AH205"/>
-      <c r="AI205"/>
-      <c r="AJ205"/>
-      <c r="AK205"/>
-      <c r="AL205"/>
-      <c r="AM205"/>
+      <c r="X205" t="n">
+        <v>449</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1497</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>223</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>486</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>894</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>12219</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>1585</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3987</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>6149</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>5074</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>2704</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>12615</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2898</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>18985</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>6794</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>5115</v>
+      </c>
       <c r="AN205"/>
       <c r="AO205"/>
       <c r="AP205"/>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">203826.2</t>
+    <t xml:space="preserve">212216.2</t>
   </si>
 </sst>
 </file>
@@ -12457,22 +12457,18 @@
       <c r="AD104"/>
       <c r="AE104"/>
       <c r="AF104" t="n">
-        <v>229</v>
+        <v>1338</v>
       </c>
       <c r="AG104" t="n">
-        <v>189</v>
+        <v>775</v>
       </c>
       <c r="AH104" t="n">
-        <v>182</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>247</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>237</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="AI104"/>
+      <c r="AJ104"/>
       <c r="AK104" t="n">
-        <v>253</v>
+        <v>27420</v>
       </c>
       <c r="AL104"/>
       <c r="AM104"/>
@@ -12606,22 +12602,18 @@
       <c r="AD105"/>
       <c r="AE105"/>
       <c r="AF105" t="n">
-        <v>439</v>
+        <v>1176</v>
       </c>
       <c r="AG105" t="n">
-        <v>358</v>
+        <v>585</v>
       </c>
       <c r="AH105" t="n">
-        <v>308</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>638</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>472</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="AI105"/>
+      <c r="AJ105"/>
       <c r="AK105" t="n">
-        <v>700</v>
+        <v>26721</v>
       </c>
       <c r="AL105"/>
       <c r="AM105"/>
@@ -12755,22 +12747,18 @@
       <c r="AD106"/>
       <c r="AE106"/>
       <c r="AF106" t="n">
-        <v>547</v>
+        <v>1409</v>
       </c>
       <c r="AG106" t="n">
-        <v>413</v>
+        <v>815</v>
       </c>
       <c r="AH106" t="n">
-        <v>359</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>988</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>809</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="AI106"/>
+      <c r="AJ106"/>
       <c r="AK106" t="n">
-        <v>1199</v>
+        <v>28695</v>
       </c>
       <c r="AL106"/>
       <c r="AM106"/>
@@ -12904,22 +12892,18 @@
       <c r="AD107"/>
       <c r="AE107"/>
       <c r="AF107" t="n">
-        <v>581</v>
+        <v>1568</v>
       </c>
       <c r="AG107" t="n">
-        <v>442</v>
+        <v>880</v>
       </c>
       <c r="AH107" t="n">
-        <v>387</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>1291</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>834</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="AI107"/>
+      <c r="AJ107"/>
       <c r="AK107" t="n">
-        <v>1479</v>
+        <v>29892</v>
       </c>
       <c r="AL107"/>
       <c r="AM107"/>
@@ -13053,22 +13037,18 @@
       <c r="AD108"/>
       <c r="AE108"/>
       <c r="AF108" t="n">
-        <v>570</v>
+        <v>1459</v>
       </c>
       <c r="AG108" t="n">
-        <v>472</v>
+        <v>796</v>
       </c>
       <c r="AH108" t="n">
-        <v>448</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>1656</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>976</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="AI108"/>
+      <c r="AJ108"/>
       <c r="AK108" t="n">
-        <v>1889</v>
+        <v>30271</v>
       </c>
       <c r="AL108"/>
       <c r="AM108"/>
@@ -13202,22 +13182,18 @@
       <c r="AD109"/>
       <c r="AE109"/>
       <c r="AF109" t="n">
-        <v>673</v>
+        <v>1522</v>
       </c>
       <c r="AG109" t="n">
-        <v>571</v>
+        <v>828</v>
       </c>
       <c r="AH109" t="n">
-        <v>442</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>1937</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>996</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="AI109"/>
+      <c r="AJ109"/>
       <c r="AK109" t="n">
-        <v>2217</v>
+        <v>30162</v>
       </c>
       <c r="AL109"/>
       <c r="AM109"/>
@@ -13351,22 +13327,18 @@
       <c r="AD110"/>
       <c r="AE110"/>
       <c r="AF110" t="n">
-        <v>827</v>
+        <v>1321</v>
       </c>
       <c r="AG110" t="n">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="AH110" t="n">
-        <v>405</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>2441</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>1164</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="AI110"/>
+      <c r="AJ110"/>
       <c r="AK110" t="n">
-        <v>2455</v>
+        <v>30333</v>
       </c>
       <c r="AL110"/>
       <c r="AM110"/>
@@ -13500,22 +13472,18 @@
       <c r="AD111"/>
       <c r="AE111"/>
       <c r="AF111" t="n">
-        <v>704</v>
+        <v>1471</v>
       </c>
       <c r="AG111" t="n">
-        <v>515</v>
+        <v>847</v>
       </c>
       <c r="AH111" t="n">
-        <v>383</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>2790</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>1257</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="AI111"/>
+      <c r="AJ111"/>
       <c r="AK111" t="n">
-        <v>3008</v>
+        <v>29136</v>
       </c>
       <c r="AL111"/>
       <c r="AM111"/>
@@ -13649,22 +13617,18 @@
       <c r="AD112"/>
       <c r="AE112"/>
       <c r="AF112" t="n">
-        <v>739</v>
+        <v>1414</v>
       </c>
       <c r="AG112" t="n">
-        <v>559</v>
+        <v>794</v>
       </c>
       <c r="AH112" t="n">
-        <v>491</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>2908</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>1242</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="AI112"/>
+      <c r="AJ112"/>
       <c r="AK112" t="n">
-        <v>3691</v>
+        <v>27057</v>
       </c>
       <c r="AL112"/>
       <c r="AM112"/>
@@ -13798,22 +13762,18 @@
       <c r="AD113"/>
       <c r="AE113"/>
       <c r="AF113" t="n">
-        <v>916</v>
+        <v>1497</v>
       </c>
       <c r="AG113" t="n">
-        <v>666</v>
+        <v>861</v>
       </c>
       <c r="AH113" t="n">
-        <v>541</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>3305</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>971</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="AI113"/>
+      <c r="AJ113"/>
       <c r="AK113" t="n">
-        <v>3909</v>
+        <v>29380</v>
       </c>
       <c r="AL113"/>
       <c r="AM113"/>
@@ -13947,22 +13907,18 @@
       <c r="AD114"/>
       <c r="AE114"/>
       <c r="AF114" t="n">
-        <v>1117</v>
+        <v>1678</v>
       </c>
       <c r="AG114" t="n">
-        <v>749</v>
+        <v>987</v>
       </c>
       <c r="AH114" t="n">
-        <v>612</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>3687</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>1190</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="AI114"/>
+      <c r="AJ114"/>
       <c r="AK114" t="n">
-        <v>4356</v>
+        <v>32474</v>
       </c>
       <c r="AL114"/>
       <c r="AM114"/>
@@ -14096,22 +14052,18 @@
       <c r="AD115"/>
       <c r="AE115"/>
       <c r="AF115" t="n">
-        <v>1129</v>
+        <v>1649</v>
       </c>
       <c r="AG115" t="n">
-        <v>557</v>
+        <v>960</v>
       </c>
       <c r="AH115" t="n">
-        <v>652</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>4076</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>1356</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="AI115"/>
+      <c r="AJ115"/>
       <c r="AK115" t="n">
-        <v>4145</v>
+        <v>34032</v>
       </c>
       <c r="AL115"/>
       <c r="AM115"/>
@@ -14245,22 +14197,18 @@
       <c r="AD116"/>
       <c r="AE116"/>
       <c r="AF116" t="n">
-        <v>1092</v>
+        <v>1664</v>
       </c>
       <c r="AG116" t="n">
-        <v>675</v>
+        <v>994</v>
       </c>
       <c r="AH116" t="n">
-        <v>520</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>3810</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>1758</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="AI116"/>
+      <c r="AJ116"/>
       <c r="AK116" t="n">
-        <v>4705</v>
+        <v>34788</v>
       </c>
       <c r="AL116"/>
       <c r="AM116"/>
@@ -14394,22 +14342,18 @@
       <c r="AD117"/>
       <c r="AE117"/>
       <c r="AF117" t="n">
-        <v>1110</v>
+        <v>1587</v>
       </c>
       <c r="AG117" t="n">
-        <v>736</v>
+        <v>946</v>
       </c>
       <c r="AH117" t="n">
-        <v>566</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>3542</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>1281</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="AI117"/>
+      <c r="AJ117"/>
       <c r="AK117" t="n">
-        <v>4787</v>
+        <v>34687</v>
       </c>
       <c r="AL117"/>
       <c r="AM117"/>
@@ -14543,22 +14487,18 @@
       <c r="AD118"/>
       <c r="AE118"/>
       <c r="AF118" t="n">
-        <v>1076</v>
+        <v>1542</v>
       </c>
       <c r="AG118" t="n">
-        <v>647</v>
+        <v>897</v>
       </c>
       <c r="AH118" t="n">
-        <v>567</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>4386</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>1409</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="AI118"/>
+      <c r="AJ118"/>
       <c r="AK118" t="n">
-        <v>5091</v>
+        <v>33201</v>
       </c>
       <c r="AL118"/>
       <c r="AM118"/>
@@ -14692,22 +14632,18 @@
       <c r="AD119"/>
       <c r="AE119"/>
       <c r="AF119" t="n">
-        <v>1172</v>
+        <v>1563</v>
       </c>
       <c r="AG119" t="n">
-        <v>644</v>
+        <v>903</v>
       </c>
       <c r="AH119" t="n">
-        <v>578</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>4789</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>1579</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="AI119"/>
+      <c r="AJ119"/>
       <c r="AK119" t="n">
-        <v>4700</v>
+        <v>31702</v>
       </c>
       <c r="AL119"/>
       <c r="AM119"/>
@@ -14841,22 +14777,18 @@
       <c r="AD120"/>
       <c r="AE120"/>
       <c r="AF120" t="n">
-        <v>1129</v>
+        <v>1682</v>
       </c>
       <c r="AG120" t="n">
-        <v>721</v>
+        <v>998</v>
       </c>
       <c r="AH120" t="n">
-        <v>490</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>5614</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>1382</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="AI120"/>
+      <c r="AJ120"/>
       <c r="AK120" t="n">
-        <v>5805</v>
+        <v>33473</v>
       </c>
       <c r="AL120"/>
       <c r="AM120"/>
@@ -14990,22 +14922,18 @@
       <c r="AD121"/>
       <c r="AE121"/>
       <c r="AF121" t="n">
-        <v>1278</v>
+        <v>1702</v>
       </c>
       <c r="AG121" t="n">
-        <v>655</v>
+        <v>984</v>
       </c>
       <c r="AH121" t="n">
-        <v>667</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>4831</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>1750</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="AI121"/>
+      <c r="AJ121"/>
       <c r="AK121" t="n">
-        <v>6501</v>
+        <v>35289</v>
       </c>
       <c r="AL121"/>
       <c r="AM121"/>
@@ -15139,22 +15067,18 @@
       <c r="AD122"/>
       <c r="AE122"/>
       <c r="AF122" t="n">
-        <v>1150</v>
+        <v>1686</v>
       </c>
       <c r="AG122" t="n">
-        <v>877</v>
+        <v>982</v>
       </c>
       <c r="AH122" t="n">
-        <v>552</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>5182</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>1382</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="AI122"/>
+      <c r="AJ122"/>
       <c r="AK122" t="n">
-        <v>6771</v>
+        <v>35604</v>
       </c>
       <c r="AL122"/>
       <c r="AM122"/>
@@ -15288,22 +15212,18 @@
       <c r="AD123"/>
       <c r="AE123"/>
       <c r="AF123" t="n">
-        <v>1283</v>
+        <v>1778</v>
       </c>
       <c r="AG123" t="n">
-        <v>609</v>
+        <v>1042</v>
       </c>
       <c r="AH123" t="n">
-        <v>549</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>5335</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>2007</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="AI123"/>
+      <c r="AJ123"/>
       <c r="AK123" t="n">
-        <v>7178</v>
+        <v>36409</v>
       </c>
       <c r="AL123"/>
       <c r="AM123"/>
@@ -15437,22 +15357,18 @@
       <c r="AD124"/>
       <c r="AE124"/>
       <c r="AF124" t="n">
-        <v>1091</v>
+        <v>1725</v>
       </c>
       <c r="AG124" t="n">
-        <v>853</v>
+        <v>1014</v>
       </c>
       <c r="AH124" t="n">
-        <v>684</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>5521</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>1689</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="AI124"/>
+      <c r="AJ124"/>
       <c r="AK124" t="n">
-        <v>6955</v>
+        <v>35692</v>
       </c>
       <c r="AL124"/>
       <c r="AM124"/>
@@ -15586,22 +15502,18 @@
       <c r="AD125"/>
       <c r="AE125"/>
       <c r="AF125" t="n">
-        <v>1125</v>
+        <v>1540</v>
       </c>
       <c r="AG125" t="n">
-        <v>958</v>
+        <v>916</v>
       </c>
       <c r="AH125" t="n">
-        <v>546</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>5977</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>1548</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="AI125"/>
+      <c r="AJ125"/>
       <c r="AK125" t="n">
-        <v>6400</v>
+        <v>32012</v>
       </c>
       <c r="AL125"/>
       <c r="AM125"/>
@@ -15735,22 +15647,18 @@
       <c r="AD126"/>
       <c r="AE126"/>
       <c r="AF126" t="n">
-        <v>1114</v>
+        <v>1533</v>
       </c>
       <c r="AG126" t="n">
-        <v>750</v>
+        <v>914</v>
       </c>
       <c r="AH126" t="n">
-        <v>572</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>6021</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>1505</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="AI126"/>
+      <c r="AJ126"/>
       <c r="AK126" t="n">
-        <v>7057</v>
+        <v>32019</v>
       </c>
       <c r="AL126"/>
       <c r="AM126"/>
@@ -15884,22 +15792,18 @@
       <c r="AD127"/>
       <c r="AE127"/>
       <c r="AF127" t="n">
-        <v>1258</v>
+        <v>1888</v>
       </c>
       <c r="AG127" t="n">
-        <v>707</v>
+        <v>1199</v>
       </c>
       <c r="AH127" t="n">
-        <v>556</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>5631</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>1947</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="AI127"/>
+      <c r="AJ127"/>
       <c r="AK127" t="n">
-        <v>7607</v>
+        <v>34653</v>
       </c>
       <c r="AL127"/>
       <c r="AM127"/>
@@ -16033,22 +15937,18 @@
       <c r="AD128"/>
       <c r="AE128"/>
       <c r="AF128" t="n">
-        <v>1322</v>
+        <v>1812</v>
       </c>
       <c r="AG128" t="n">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="AH128" t="n">
-        <v>658</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>7204</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>1688</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="AI128"/>
+      <c r="AJ128"/>
       <c r="AK128" t="n">
-        <v>7879</v>
+        <v>37421</v>
       </c>
       <c r="AL128"/>
       <c r="AM128"/>
@@ -16182,22 +16082,18 @@
       <c r="AD129"/>
       <c r="AE129"/>
       <c r="AF129" t="n">
-        <v>1089</v>
+        <v>1750</v>
       </c>
       <c r="AG129" t="n">
-        <v>784</v>
+        <v>1034</v>
       </c>
       <c r="AH129" t="n">
-        <v>634</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>6952</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>1800</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="AI129"/>
+      <c r="AJ129"/>
       <c r="AK129" t="n">
-        <v>8886</v>
+        <v>38722</v>
       </c>
       <c r="AL129"/>
       <c r="AM129"/>
@@ -16331,22 +16227,18 @@
       <c r="AD130"/>
       <c r="AE130"/>
       <c r="AF130" t="n">
-        <v>1327</v>
+        <v>1734</v>
       </c>
       <c r="AG130" t="n">
-        <v>851</v>
+        <v>1037</v>
       </c>
       <c r="AH130" t="n">
-        <v>649</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>6611</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>1940</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="AI130"/>
+      <c r="AJ130"/>
       <c r="AK130" t="n">
-        <v>8982</v>
+        <v>38516</v>
       </c>
       <c r="AL130"/>
       <c r="AM130"/>
@@ -16484,22 +16376,18 @@
       <c r="AD131"/>
       <c r="AE131"/>
       <c r="AF131" t="n">
-        <v>1623</v>
+        <v>1735</v>
       </c>
       <c r="AG131" t="n">
-        <v>975</v>
+        <v>1061</v>
       </c>
       <c r="AH131" t="n">
-        <v>537</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>6992</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>1768</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="AI131"/>
+      <c r="AJ131"/>
       <c r="AK131" t="n">
-        <v>8593</v>
+        <v>37977</v>
       </c>
       <c r="AL131"/>
       <c r="AM131"/>
@@ -16637,22 +16525,18 @@
       <c r="AD132"/>
       <c r="AE132"/>
       <c r="AF132" t="n">
-        <v>1333</v>
+        <v>1626</v>
       </c>
       <c r="AG132" t="n">
-        <v>888</v>
+        <v>965</v>
       </c>
       <c r="AH132" t="n">
-        <v>560</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>6987</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>1795</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="AI132"/>
+      <c r="AJ132"/>
       <c r="AK132" t="n">
-        <v>7667</v>
+        <v>35333</v>
       </c>
       <c r="AL132"/>
       <c r="AM132"/>
@@ -16790,22 +16674,18 @@
       <c r="AD133"/>
       <c r="AE133"/>
       <c r="AF133" t="n">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="AG133" t="n">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="AH133" t="n">
-        <v>515</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>7179</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>1393</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="AI133"/>
+      <c r="AJ133"/>
       <c r="AK133" t="n">
-        <v>7984</v>
+        <v>32549</v>
       </c>
       <c r="AL133"/>
       <c r="AM133"/>
@@ -16943,22 +16823,18 @@
       <c r="AD134"/>
       <c r="AE134"/>
       <c r="AF134" t="n">
-        <v>1303</v>
+        <v>1725</v>
       </c>
       <c r="AG134" t="n">
-        <v>954</v>
+        <v>1026</v>
       </c>
       <c r="AH134" t="n">
-        <v>654</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>7293</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>1278</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="AI134"/>
+      <c r="AJ134"/>
       <c r="AK134" t="n">
-        <v>8896</v>
+        <v>34519</v>
       </c>
       <c r="AL134"/>
       <c r="AM134"/>
@@ -17096,22 +16972,18 @@
       <c r="AD135"/>
       <c r="AE135"/>
       <c r="AF135" t="n">
-        <v>1410</v>
+        <v>1676</v>
       </c>
       <c r="AG135" t="n">
-        <v>914</v>
+        <v>1002</v>
       </c>
       <c r="AH135" t="n">
-        <v>616</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>7568</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>1799</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="AI135"/>
+      <c r="AJ135"/>
       <c r="AK135" t="n">
-        <v>10658</v>
+        <v>38292</v>
       </c>
       <c r="AL135"/>
       <c r="AM135"/>
@@ -17249,22 +17121,18 @@
       <c r="AD136"/>
       <c r="AE136"/>
       <c r="AF136" t="n">
-        <v>1056</v>
+        <v>1648</v>
       </c>
       <c r="AG136" t="n">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="AH136" t="n">
-        <v>614</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>7695</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>2062</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="AI136"/>
+      <c r="AJ136"/>
       <c r="AK136" t="n">
-        <v>9833</v>
+        <v>38626</v>
       </c>
       <c r="AL136"/>
       <c r="AM136"/>
@@ -17418,22 +17286,18 @@
         <v>494</v>
       </c>
       <c r="AF137" t="n">
-        <v>1550</v>
+        <v>1716</v>
       </c>
       <c r="AG137" t="n">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="AH137" t="n">
-        <v>706</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>8067</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>1959</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="AI137"/>
+      <c r="AJ137"/>
       <c r="AK137" t="n">
-        <v>8352</v>
+        <v>39654</v>
       </c>
       <c r="AL137"/>
       <c r="AM137"/>
@@ -17593,22 +17457,18 @@
         <v>530</v>
       </c>
       <c r="AF138" t="n">
-        <v>1245</v>
+        <v>1791</v>
       </c>
       <c r="AG138" t="n">
-        <v>974</v>
+        <v>1104</v>
       </c>
       <c r="AH138" t="n">
-        <v>662</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>7500</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>2123</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="AI138"/>
+      <c r="AJ138"/>
       <c r="AK138" t="n">
-        <v>10382</v>
+        <v>39392</v>
       </c>
       <c r="AL138"/>
       <c r="AM138"/>
@@ -17768,22 +17628,18 @@
         <v>531</v>
       </c>
       <c r="AF139" t="n">
-        <v>1392</v>
+        <v>1512</v>
       </c>
       <c r="AG139" t="n">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="AH139" t="n">
-        <v>520</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>9004</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>2340</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="AI139"/>
+      <c r="AJ139"/>
       <c r="AK139" t="n">
-        <v>9405</v>
+        <v>34208</v>
       </c>
       <c r="AL139"/>
       <c r="AM139"/>
@@ -17943,22 +17799,18 @@
         <v>575</v>
       </c>
       <c r="AF140" t="n">
-        <v>1219</v>
+        <v>1551</v>
       </c>
       <c r="AG140" t="n">
-        <v>847</v>
+        <v>933</v>
       </c>
       <c r="AH140" t="n">
-        <v>517</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>9120</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>2322</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="AI140"/>
+      <c r="AJ140"/>
       <c r="AK140" t="n">
-        <v>9902</v>
+        <v>33455</v>
       </c>
       <c r="AL140"/>
       <c r="AM140"/>
@@ -18118,22 +17970,18 @@
         <v>631</v>
       </c>
       <c r="AF141" t="n">
-        <v>1353</v>
+        <v>1732</v>
       </c>
       <c r="AG141" t="n">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AH141" t="n">
-        <v>542</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>7597</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>1802</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="AI141"/>
+      <c r="AJ141"/>
       <c r="AK141" t="n">
-        <v>11703</v>
+        <v>35767</v>
       </c>
       <c r="AL141"/>
       <c r="AM141"/>
@@ -18293,22 +18141,18 @@
         <v>684</v>
       </c>
       <c r="AF142" t="n">
-        <v>1613</v>
+        <v>1791</v>
       </c>
       <c r="AG142" t="n">
-        <v>1307</v>
+        <v>1097</v>
       </c>
       <c r="AH142" t="n">
-        <v>663</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>8348</v>
-      </c>
-      <c r="AJ142" t="n">
-        <v>1738</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="AI142"/>
+      <c r="AJ142"/>
       <c r="AK142" t="n">
-        <v>10815</v>
+        <v>40313</v>
       </c>
       <c r="AL142"/>
       <c r="AM142"/>
@@ -18468,22 +18312,18 @@
         <v>719</v>
       </c>
       <c r="AF143" t="n">
-        <v>1510</v>
+        <v>1680</v>
       </c>
       <c r="AG143" t="n">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="AH143" t="n">
-        <v>655</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>9018</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>2111</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="AI143"/>
+      <c r="AJ143"/>
       <c r="AK143" t="n">
-        <v>12773</v>
+        <v>40321</v>
       </c>
       <c r="AL143"/>
       <c r="AM143"/>
@@ -18643,22 +18483,18 @@
         <v>730</v>
       </c>
       <c r="AF144" t="n">
-        <v>1446</v>
+        <v>1578</v>
       </c>
       <c r="AG144" t="n">
-        <v>860</v>
+        <v>913</v>
       </c>
       <c r="AH144" t="n">
-        <v>587</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>8725</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>2469</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="AI144"/>
+      <c r="AJ144"/>
       <c r="AK144" t="n">
-        <v>11710</v>
+        <v>40132</v>
       </c>
       <c r="AL144"/>
       <c r="AM144"/>
@@ -18808,22 +18644,18 @@
         <v>800</v>
       </c>
       <c r="AF145" t="n">
-        <v>1472</v>
+        <v>1688</v>
       </c>
       <c r="AG145" t="n">
-        <v>1123</v>
+        <v>1022</v>
       </c>
       <c r="AH145" t="n">
-        <v>521</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>9150</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>2189</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="AI145"/>
+      <c r="AJ145"/>
       <c r="AK145" t="n">
-        <v>13032</v>
+        <v>40977</v>
       </c>
       <c r="AL145"/>
       <c r="AM145"/>
@@ -18983,22 +18815,18 @@
         <v>812</v>
       </c>
       <c r="AF146" t="n">
-        <v>1652</v>
+        <v>1572</v>
       </c>
       <c r="AG146" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="AH146" t="n">
-        <v>639</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>9702</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>1603</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="AI146"/>
+      <c r="AJ146"/>
       <c r="AK146" t="n">
-        <v>11813</v>
+        <v>35987</v>
       </c>
       <c r="AL146"/>
       <c r="AM146"/>
@@ -19158,22 +18986,18 @@
         <v>885</v>
       </c>
       <c r="AF147" t="n">
-        <v>1285</v>
+        <v>1511</v>
       </c>
       <c r="AG147" t="n">
-        <v>1072</v>
+        <v>854</v>
       </c>
       <c r="AH147" t="n">
-        <v>544</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>9172</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>1931</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="AI147"/>
+      <c r="AJ147"/>
       <c r="AK147" t="n">
-        <v>11316</v>
+        <v>33489</v>
       </c>
       <c r="AL147"/>
       <c r="AM147"/>
@@ -19333,22 +19157,18 @@
         <v>940</v>
       </c>
       <c r="AF148" t="n">
-        <v>1253</v>
+        <v>1534</v>
       </c>
       <c r="AG148" t="n">
-        <v>992</v>
+        <v>887</v>
       </c>
       <c r="AH148" t="n">
-        <v>711</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>8372</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>2212</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="AI148"/>
+      <c r="AJ148"/>
       <c r="AK148" t="n">
-        <v>13556</v>
+        <v>34246</v>
       </c>
       <c r="AL148"/>
       <c r="AM148"/>
@@ -19508,22 +19328,18 @@
         <v>982</v>
       </c>
       <c r="AF149" t="n">
-        <v>1295</v>
+        <v>1645</v>
       </c>
       <c r="AG149" t="n">
-        <v>873</v>
+        <v>974</v>
       </c>
       <c r="AH149" t="n">
-        <v>594</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>7783</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>2088</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="AI149"/>
+      <c r="AJ149"/>
       <c r="AK149" t="n">
-        <v>12457</v>
+        <v>36501</v>
       </c>
       <c r="AL149"/>
       <c r="AM149"/>
@@ -19683,22 +19499,18 @@
         <v>996</v>
       </c>
       <c r="AF150" t="n">
-        <v>1497</v>
+        <v>1692</v>
       </c>
       <c r="AG150" t="n">
-        <v>838</v>
+        <v>998</v>
       </c>
       <c r="AH150" t="n">
-        <v>660</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>9249</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>2163</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="AI150"/>
+      <c r="AJ150"/>
       <c r="AK150" t="n">
-        <v>13386</v>
+        <v>39561</v>
       </c>
       <c r="AL150"/>
       <c r="AM150"/>
@@ -19858,22 +19670,22 @@
         <v>1074</v>
       </c>
       <c r="AF151" t="n">
-        <v>1525</v>
+        <v>1622</v>
       </c>
       <c r="AG151" t="n">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="AH151" t="n">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="AI151" t="n">
-        <v>10697</v>
+        <v>16136</v>
       </c>
       <c r="AJ151" t="n">
-        <v>2595</v>
+        <v>1696</v>
       </c>
       <c r="AK151" t="n">
-        <v>12818</v>
+        <v>41521</v>
       </c>
       <c r="AL151"/>
       <c r="AM151"/>
@@ -20027,22 +19839,22 @@
         <v>1155</v>
       </c>
       <c r="AF152" t="n">
-        <v>1671</v>
+        <v>1752</v>
       </c>
       <c r="AG152" t="n">
-        <v>1078</v>
+        <v>999</v>
       </c>
       <c r="AH152" t="n">
-        <v>592</v>
+        <v>753</v>
       </c>
       <c r="AI152" t="n">
-        <v>10960</v>
+        <v>15599</v>
       </c>
       <c r="AJ152" t="n">
-        <v>2155</v>
+        <v>1697</v>
       </c>
       <c r="AK152" t="n">
-        <v>11075</v>
+        <v>41462</v>
       </c>
       <c r="AL152"/>
       <c r="AM152"/>
@@ -20202,22 +20014,22 @@
         <v>1169</v>
       </c>
       <c r="AF153" t="n">
-        <v>1540</v>
+        <v>1684</v>
       </c>
       <c r="AG153" t="n">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="AH153" t="n">
-        <v>820</v>
+        <v>731</v>
       </c>
       <c r="AI153" t="n">
-        <v>10726</v>
+        <v>16127</v>
       </c>
       <c r="AJ153" t="n">
-        <v>2237</v>
+        <v>1698</v>
       </c>
       <c r="AK153" t="n">
-        <v>14796</v>
+        <v>39467</v>
       </c>
       <c r="AL153"/>
       <c r="AM153"/>
@@ -20377,22 +20189,22 @@
         <v>1181</v>
       </c>
       <c r="AF154" t="n">
-        <v>1302</v>
+        <v>1756</v>
       </c>
       <c r="AG154" t="n">
-        <v>1091</v>
+        <v>1008</v>
       </c>
       <c r="AH154" t="n">
-        <v>687</v>
+        <v>748</v>
       </c>
       <c r="AI154" t="n">
-        <v>10889</v>
+        <v>16330</v>
       </c>
       <c r="AJ154" t="n">
-        <v>2200</v>
+        <v>1784</v>
       </c>
       <c r="AK154" t="n">
-        <v>13357</v>
+        <v>38032</v>
       </c>
       <c r="AL154" t="n">
         <v>5394</v>
@@ -20554,22 +20366,22 @@
         <v>1254</v>
       </c>
       <c r="AF155" t="n">
-        <v>1656</v>
+        <v>1773</v>
       </c>
       <c r="AG155" t="n">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="AH155" t="n">
-        <v>689</v>
+        <v>762</v>
       </c>
       <c r="AI155" t="n">
-        <v>10096</v>
+        <v>16575</v>
       </c>
       <c r="AJ155" t="n">
-        <v>2473</v>
+        <v>1764</v>
       </c>
       <c r="AK155" t="n">
-        <v>13409</v>
+        <v>37510</v>
       </c>
       <c r="AL155" t="n">
         <v>5314</v>
@@ -20731,22 +20543,22 @@
         <v>1284</v>
       </c>
       <c r="AF156" t="n">
-        <v>1230</v>
+        <v>1805</v>
       </c>
       <c r="AG156" t="n">
-        <v>1124</v>
+        <v>1057</v>
       </c>
       <c r="AH156" t="n">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="AI156" t="n">
-        <v>9437</v>
+        <v>14948</v>
       </c>
       <c r="AJ156" t="n">
-        <v>2121</v>
+        <v>1621</v>
       </c>
       <c r="AK156" t="n">
-        <v>13209</v>
+        <v>36201</v>
       </c>
       <c r="AL156" t="n">
         <v>5566</v>
@@ -20908,22 +20720,22 @@
         <v>1368</v>
       </c>
       <c r="AF157" t="n">
-        <v>1401</v>
+        <v>1796</v>
       </c>
       <c r="AG157" t="n">
-        <v>1133</v>
+        <v>1066</v>
       </c>
       <c r="AH157" t="n">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="AI157" t="n">
-        <v>9869</v>
+        <v>15219</v>
       </c>
       <c r="AJ157" t="n">
-        <v>2026</v>
+        <v>1658</v>
       </c>
       <c r="AK157" t="n">
-        <v>11925</v>
+        <v>40783</v>
       </c>
       <c r="AL157" t="n">
         <v>5577</v>
@@ -21085,22 +20897,22 @@
         <v>1437</v>
       </c>
       <c r="AF158" t="n">
-        <v>1510</v>
+        <v>1855</v>
       </c>
       <c r="AG158" t="n">
-        <v>985</v>
+        <v>1113</v>
       </c>
       <c r="AH158" t="n">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="AI158" t="n">
-        <v>10035</v>
+        <v>14674</v>
       </c>
       <c r="AJ158" t="n">
-        <v>2256</v>
+        <v>1625</v>
       </c>
       <c r="AK158" t="n">
-        <v>14360</v>
+        <v>42965</v>
       </c>
       <c r="AL158" t="n">
         <v>5587</v>
@@ -21262,22 +21074,22 @@
         <v>1495</v>
       </c>
       <c r="AF159" t="n">
-        <v>1584</v>
+        <v>1822</v>
       </c>
       <c r="AG159" t="n">
-        <v>924</v>
+        <v>1085</v>
       </c>
       <c r="AH159" t="n">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="AI159" t="n">
-        <v>12167</v>
+        <v>15198</v>
       </c>
       <c r="AJ159" t="n">
-        <v>2461</v>
+        <v>1583</v>
       </c>
       <c r="AK159" t="n">
-        <v>14962</v>
+        <v>41603</v>
       </c>
       <c r="AL159" t="n">
         <v>5623</v>
@@ -21439,22 +21251,22 @@
         <v>1499</v>
       </c>
       <c r="AF160" t="n">
-        <v>1348</v>
+        <v>1878</v>
       </c>
       <c r="AG160" t="n">
-        <v>850</v>
+        <v>1115</v>
       </c>
       <c r="AH160" t="n">
-        <v>831</v>
+        <v>763</v>
       </c>
       <c r="AI160" t="n">
-        <v>11370</v>
+        <v>15942</v>
       </c>
       <c r="AJ160" t="n">
-        <v>2386</v>
+        <v>1680</v>
       </c>
       <c r="AK160" t="n">
-        <v>15834</v>
+        <v>40237</v>
       </c>
       <c r="AL160" t="n">
         <v>5657</v>
@@ -21616,22 +21428,22 @@
         <v>1512</v>
       </c>
       <c r="AF161" t="n">
-        <v>1439</v>
+        <v>1935</v>
       </c>
       <c r="AG161" t="n">
-        <v>1077</v>
+        <v>1192</v>
       </c>
       <c r="AH161" t="n">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="AI161" t="n">
-        <v>10603</v>
+        <v>15070</v>
       </c>
       <c r="AJ161" t="n">
-        <v>2279</v>
+        <v>1619</v>
       </c>
       <c r="AK161" t="n">
-        <v>14681</v>
+        <v>37283</v>
       </c>
       <c r="AL161" t="n">
         <v>5292</v>
@@ -21793,22 +21605,22 @@
         <v>1636</v>
       </c>
       <c r="AF162" t="n">
-        <v>1827</v>
+        <v>2056</v>
       </c>
       <c r="AG162" t="n">
-        <v>1211</v>
+        <v>1272</v>
       </c>
       <c r="AH162" t="n">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AI162" t="n">
-        <v>10720</v>
+        <v>15402</v>
       </c>
       <c r="AJ162" t="n">
-        <v>2505</v>
+        <v>1723</v>
       </c>
       <c r="AK162" t="n">
-        <v>14496</v>
+        <v>39336</v>
       </c>
       <c r="AL162" t="n">
         <v>5500</v>
@@ -21970,22 +21782,22 @@
         <v>1739</v>
       </c>
       <c r="AF163" t="n">
-        <v>1335</v>
+        <v>2153</v>
       </c>
       <c r="AG163" t="n">
-        <v>977</v>
+        <v>1296</v>
       </c>
       <c r="AH163" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AI163" t="n">
-        <v>12449</v>
+        <v>13645</v>
       </c>
       <c r="AJ163" t="n">
-        <v>2626</v>
+        <v>1508</v>
       </c>
       <c r="AK163" t="n">
-        <v>16310</v>
+        <v>42410</v>
       </c>
       <c r="AL163" t="n">
         <v>5622</v>
@@ -22147,22 +21959,22 @@
         <v>1831</v>
       </c>
       <c r="AF164" t="n">
-        <v>1533</v>
+        <v>2059</v>
       </c>
       <c r="AG164" t="n">
-        <v>1137</v>
+        <v>1250</v>
       </c>
       <c r="AH164" t="n">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="AI164" t="n">
-        <v>11954</v>
+        <v>13271</v>
       </c>
       <c r="AJ164" t="n">
-        <v>2363</v>
+        <v>1419</v>
       </c>
       <c r="AK164" t="n">
-        <v>15780</v>
+        <v>40724</v>
       </c>
       <c r="AL164" t="n">
         <v>5667</v>
@@ -22324,22 +22136,22 @@
         <v>1908</v>
       </c>
       <c r="AF165" t="n">
-        <v>1763</v>
+        <v>2166</v>
       </c>
       <c r="AG165" t="n">
-        <v>1327</v>
+        <v>1356</v>
       </c>
       <c r="AH165" t="n">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="AI165" t="n">
-        <v>10899</v>
+        <v>14033</v>
       </c>
       <c r="AJ165" t="n">
-        <v>2337</v>
+        <v>1494</v>
       </c>
       <c r="AK165" t="n">
-        <v>15779</v>
+        <v>42995</v>
       </c>
       <c r="AL165" t="n">
         <v>5726</v>
@@ -22501,22 +22313,22 @@
         <v>1939</v>
       </c>
       <c r="AF166" t="n">
-        <v>1707</v>
+        <v>2242</v>
       </c>
       <c r="AG166" t="n">
-        <v>1126</v>
+        <v>1414</v>
       </c>
       <c r="AH166" t="n">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="AI166" t="n">
-        <v>13291</v>
+        <v>13571</v>
       </c>
       <c r="AJ166" t="n">
-        <v>2395</v>
+        <v>1498</v>
       </c>
       <c r="AK166" t="n">
-        <v>14989</v>
+        <v>43025</v>
       </c>
       <c r="AL166" t="n">
         <v>5710</v>
@@ -22678,22 +22490,22 @@
         <v>1939</v>
       </c>
       <c r="AF167" t="n">
-        <v>1653</v>
+        <v>2287</v>
       </c>
       <c r="AG167" t="n">
-        <v>1278</v>
+        <v>1470</v>
       </c>
       <c r="AH167" t="n">
-        <v>957</v>
+        <v>817</v>
       </c>
       <c r="AI167" t="n">
-        <v>11542</v>
+        <v>14660</v>
       </c>
       <c r="AJ167" t="n">
-        <v>2776</v>
+        <v>1603</v>
       </c>
       <c r="AK167" t="n">
-        <v>15358</v>
+        <v>40548</v>
       </c>
       <c r="AL167" t="n">
         <v>5633</v>
@@ -22855,22 +22667,22 @@
         <v>2015</v>
       </c>
       <c r="AF168" t="n">
-        <v>1812</v>
+        <v>2326</v>
       </c>
       <c r="AG168" t="n">
-        <v>1209</v>
+        <v>1465</v>
       </c>
       <c r="AH168" t="n">
-        <v>970</v>
+        <v>861</v>
       </c>
       <c r="AI168" t="n">
-        <v>13354</v>
+        <v>14525</v>
       </c>
       <c r="AJ168" t="n">
-        <v>2638</v>
+        <v>1626</v>
       </c>
       <c r="AK168" t="n">
-        <v>17191</v>
+        <v>36840</v>
       </c>
       <c r="AL168" t="n">
         <v>5289</v>
@@ -23032,22 +22844,22 @@
         <v>2141</v>
       </c>
       <c r="AF169" t="n">
-        <v>1805</v>
+        <v>2518</v>
       </c>
       <c r="AG169" t="n">
-        <v>1494</v>
+        <v>1623</v>
       </c>
       <c r="AH169" t="n">
-        <v>1044</v>
+        <v>895</v>
       </c>
       <c r="AI169" t="n">
-        <v>11792</v>
+        <v>14993</v>
       </c>
       <c r="AJ169" t="n">
-        <v>2481</v>
+        <v>1675</v>
       </c>
       <c r="AK169" t="n">
-        <v>15636</v>
+        <v>39851</v>
       </c>
       <c r="AL169" t="n">
         <v>5529</v>
@@ -23209,22 +23021,22 @@
         <v>2242</v>
       </c>
       <c r="AF170" t="n">
-        <v>2071</v>
+        <v>2793</v>
       </c>
       <c r="AG170" t="n">
-        <v>1612</v>
+        <v>1829</v>
       </c>
       <c r="AH170" t="n">
-        <v>1099</v>
+        <v>964</v>
       </c>
       <c r="AI170" t="n">
-        <v>12273</v>
+        <v>13815</v>
       </c>
       <c r="AJ170" t="n">
-        <v>2537</v>
+        <v>1473</v>
       </c>
       <c r="AK170" t="n">
-        <v>17830</v>
+        <v>42379</v>
       </c>
       <c r="AL170" t="n">
         <v>5782</v>
@@ -23386,22 +23198,22 @@
         <v>2290</v>
       </c>
       <c r="AF171" t="n">
-        <v>2372</v>
+        <v>2947</v>
       </c>
       <c r="AG171" t="n">
-        <v>1656</v>
+        <v>1937</v>
       </c>
       <c r="AH171" t="n">
-        <v>1152</v>
+        <v>1010</v>
       </c>
       <c r="AI171" t="n">
-        <v>12102</v>
+        <v>13472</v>
       </c>
       <c r="AJ171" t="n">
-        <v>2413</v>
+        <v>1453</v>
       </c>
       <c r="AK171" t="n">
-        <v>16941</v>
+        <v>44041</v>
       </c>
       <c r="AL171" t="n">
         <v>5856</v>
@@ -23563,22 +23375,22 @@
         <v>2373</v>
       </c>
       <c r="AF172" t="n">
-        <v>2220</v>
+        <v>3148</v>
       </c>
       <c r="AG172" t="n">
-        <v>1618</v>
+        <v>2060</v>
       </c>
       <c r="AH172" t="n">
-        <v>1245</v>
+        <v>1088</v>
       </c>
       <c r="AI172" t="n">
-        <v>12213</v>
+        <v>13591</v>
       </c>
       <c r="AJ172" t="n">
-        <v>2411</v>
+        <v>1443</v>
       </c>
       <c r="AK172" t="n">
-        <v>17648</v>
+        <v>46232</v>
       </c>
       <c r="AL172" t="n">
         <v>5841</v>
@@ -23740,22 +23552,22 @@
         <v>2437</v>
       </c>
       <c r="AF173" t="n">
-        <v>2408</v>
+        <v>3247</v>
       </c>
       <c r="AG173" t="n">
-        <v>1374</v>
+        <v>2134</v>
       </c>
       <c r="AH173" t="n">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="AI173" t="n">
-        <v>12085</v>
+        <v>13701</v>
       </c>
       <c r="AJ173" t="n">
-        <v>2716</v>
+        <v>1449</v>
       </c>
       <c r="AK173" t="n">
-        <v>18195</v>
+        <v>44293</v>
       </c>
       <c r="AL173" t="n">
         <v>5807</v>
@@ -23917,22 +23729,22 @@
         <v>2454</v>
       </c>
       <c r="AF174" t="n">
-        <v>2361</v>
+        <v>3409</v>
       </c>
       <c r="AG174" t="n">
-        <v>1735</v>
+        <v>2266</v>
       </c>
       <c r="AH174" t="n">
-        <v>1193</v>
+        <v>1143</v>
       </c>
       <c r="AI174" t="n">
-        <v>11995</v>
+        <v>14316</v>
       </c>
       <c r="AJ174" t="n">
-        <v>2748</v>
+        <v>1493</v>
       </c>
       <c r="AK174" t="n">
-        <v>14326</v>
+        <v>42815</v>
       </c>
       <c r="AL174" t="n">
         <v>5701</v>
@@ -24094,22 +23906,22 @@
         <v>2481</v>
       </c>
       <c r="AF175" t="n">
-        <v>2358</v>
+        <v>3711</v>
       </c>
       <c r="AG175" t="n">
-        <v>1653</v>
+        <v>2491</v>
       </c>
       <c r="AH175" t="n">
-        <v>1103</v>
+        <v>1220</v>
       </c>
       <c r="AI175" t="n">
-        <v>13009</v>
+        <v>14697</v>
       </c>
       <c r="AJ175" t="n">
-        <v>2442</v>
+        <v>1517</v>
       </c>
       <c r="AK175" t="n">
-        <v>14832</v>
+        <v>40607</v>
       </c>
       <c r="AL175" t="n">
         <v>5712</v>
@@ -24271,22 +24083,22 @@
         <v>2501</v>
       </c>
       <c r="AF176" t="n">
-        <v>2336</v>
+        <v>4092</v>
       </c>
       <c r="AG176" t="n">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AH176" t="n">
-        <v>1279</v>
+        <v>1325</v>
       </c>
       <c r="AI176" t="n">
-        <v>12454</v>
+        <v>14260</v>
       </c>
       <c r="AJ176" t="n">
-        <v>2760</v>
+        <v>1483</v>
       </c>
       <c r="AK176" t="n">
-        <v>14540</v>
+        <v>40382</v>
       </c>
       <c r="AL176" t="n">
         <v>5762</v>
@@ -24448,22 +24260,22 @@
         <v>2557</v>
       </c>
       <c r="AF177" t="n">
-        <v>2762</v>
+        <v>4389</v>
       </c>
       <c r="AG177" t="n">
-        <v>1848</v>
+        <v>2990</v>
       </c>
       <c r="AH177" t="n">
-        <v>1144</v>
+        <v>1399</v>
       </c>
       <c r="AI177" t="n">
-        <v>12303</v>
+        <v>12951</v>
       </c>
       <c r="AJ177" t="n">
-        <v>2226</v>
+        <v>1320</v>
       </c>
       <c r="AK177" t="n">
-        <v>17380</v>
+        <v>43756</v>
       </c>
       <c r="AL177" t="n">
         <v>5968</v>
@@ -24625,22 +24437,22 @@
         <v>2629</v>
       </c>
       <c r="AF178" t="n">
-        <v>2615</v>
+        <v>4739</v>
       </c>
       <c r="AG178" t="n">
-        <v>2202</v>
+        <v>3279</v>
       </c>
       <c r="AH178" t="n">
-        <v>1358</v>
+        <v>1460</v>
       </c>
       <c r="AI178" t="n">
-        <v>13664</v>
+        <v>12597</v>
       </c>
       <c r="AJ178" t="n">
-        <v>2419</v>
+        <v>1322</v>
       </c>
       <c r="AK178" t="n">
-        <v>17819</v>
+        <v>45208</v>
       </c>
       <c r="AL178" t="n">
         <v>6051</v>
@@ -24802,22 +24614,22 @@
         <v>2684</v>
       </c>
       <c r="AF179" t="n">
-        <v>3150</v>
+        <v>5102</v>
       </c>
       <c r="AG179" t="n">
-        <v>1971</v>
+        <v>3516</v>
       </c>
       <c r="AH179" t="n">
-        <v>1443</v>
+        <v>1586</v>
       </c>
       <c r="AI179" t="n">
-        <v>12702</v>
+        <v>12398</v>
       </c>
       <c r="AJ179" t="n">
-        <v>2572</v>
+        <v>1284</v>
       </c>
       <c r="AK179" t="n">
-        <v>19436</v>
+        <v>45535</v>
       </c>
       <c r="AL179" t="n">
         <v>6150</v>
@@ -24979,22 +24791,22 @@
         <v>2705</v>
       </c>
       <c r="AF180" t="n">
-        <v>2918</v>
+        <v>5523</v>
       </c>
       <c r="AG180" t="n">
-        <v>2038</v>
+        <v>3796</v>
       </c>
       <c r="AH180" t="n">
-        <v>1396</v>
+        <v>1727</v>
       </c>
       <c r="AI180" t="n">
-        <v>14063</v>
+        <v>12893</v>
       </c>
       <c r="AJ180" t="n">
-        <v>1962</v>
+        <v>1333</v>
       </c>
       <c r="AK180" t="n">
-        <v>19836</v>
+        <v>45318</v>
       </c>
       <c r="AL180" t="n">
         <v>6165</v>
@@ -25156,22 +24968,22 @@
         <v>2707</v>
       </c>
       <c r="AF181" t="n">
-        <v>3184</v>
+        <v>5497</v>
       </c>
       <c r="AG181" t="n">
-        <v>2172</v>
+        <v>3813</v>
       </c>
       <c r="AH181" t="n">
-        <v>1484</v>
+        <v>1684</v>
       </c>
       <c r="AI181" t="n">
-        <v>12438</v>
+        <v>12751</v>
       </c>
       <c r="AJ181" t="n">
-        <v>2154</v>
+        <v>1355</v>
       </c>
       <c r="AK181" t="n">
-        <v>16804</v>
+        <v>41950</v>
       </c>
       <c r="AL181" t="n">
         <v>5999</v>
@@ -25333,22 +25145,22 @@
         <v>2723</v>
       </c>
       <c r="AF182" t="n">
-        <v>2711</v>
+        <v>5913</v>
       </c>
       <c r="AG182" t="n">
-        <v>2406</v>
+        <v>4085</v>
       </c>
       <c r="AH182" t="n">
-        <v>1663</v>
+        <v>1828</v>
       </c>
       <c r="AI182" t="n">
-        <v>11778</v>
+        <v>13825</v>
       </c>
       <c r="AJ182" t="n">
-        <v>1987</v>
+        <v>1411</v>
       </c>
       <c r="AK182" t="n">
-        <v>17315</v>
+        <v>40419</v>
       </c>
       <c r="AL182" t="n">
         <v>5931</v>
@@ -25510,22 +25322,22 @@
         <v>2759</v>
       </c>
       <c r="AF183" t="n">
-        <v>3540</v>
+        <v>6533</v>
       </c>
       <c r="AG183" t="n">
-        <v>2251</v>
+        <v>4639</v>
       </c>
       <c r="AH183" t="n">
-        <v>1617</v>
+        <v>1894</v>
       </c>
       <c r="AI183" t="n">
-        <v>12688</v>
+        <v>13711</v>
       </c>
       <c r="AJ183" t="n">
-        <v>1987</v>
+        <v>1405</v>
       </c>
       <c r="AK183" t="n">
-        <v>17400</v>
+        <v>41555</v>
       </c>
       <c r="AL183" t="n">
         <v>5921</v>
@@ -25687,22 +25499,22 @@
         <v>2824</v>
       </c>
       <c r="AF184" t="n">
-        <v>3502</v>
+        <v>6904</v>
       </c>
       <c r="AG184" t="n">
-        <v>2892</v>
+        <v>4911</v>
       </c>
       <c r="AH184" t="n">
-        <v>1663</v>
+        <v>1993</v>
       </c>
       <c r="AI184" t="n">
-        <v>13517</v>
+        <v>12894</v>
       </c>
       <c r="AJ184" t="n">
-        <v>2928</v>
+        <v>1322</v>
       </c>
       <c r="AK184" t="n">
-        <v>17348</v>
+        <v>44333</v>
       </c>
       <c r="AL184" t="n">
         <v>6017</v>
@@ -25866,22 +25678,22 @@
         <v>2847</v>
       </c>
       <c r="AF185" t="n">
-        <v>3586</v>
+        <v>7382</v>
       </c>
       <c r="AG185" t="n">
-        <v>2776</v>
+        <v>5227</v>
       </c>
       <c r="AH185" t="n">
-        <v>1887</v>
+        <v>2155</v>
       </c>
       <c r="AI185" t="n">
-        <v>14349</v>
+        <v>11983</v>
       </c>
       <c r="AJ185" t="n">
-        <v>2509</v>
+        <v>1181</v>
       </c>
       <c r="AK185" t="n">
-        <v>19376</v>
+        <v>45687</v>
       </c>
       <c r="AL185" t="n">
         <v>6147</v>
@@ -26045,22 +25857,22 @@
         <v>2880</v>
       </c>
       <c r="AF186" t="n">
-        <v>4149</v>
+        <v>7652</v>
       </c>
       <c r="AG186" t="n">
-        <v>3041</v>
+        <v>5421</v>
       </c>
       <c r="AH186" t="n">
-        <v>1507</v>
+        <v>2231</v>
       </c>
       <c r="AI186" t="n">
-        <v>14997</v>
+        <v>12134</v>
       </c>
       <c r="AJ186" t="n">
-        <v>2218</v>
+        <v>1161</v>
       </c>
       <c r="AK186" t="n">
-        <v>21629</v>
+        <v>45619</v>
       </c>
       <c r="AL186" t="n">
         <v>6045</v>
@@ -26224,22 +26036,22 @@
         <v>2939</v>
       </c>
       <c r="AF187" t="n">
-        <v>4232</v>
+        <v>7890</v>
       </c>
       <c r="AG187" t="n">
-        <v>2609</v>
+        <v>5552</v>
       </c>
       <c r="AH187" t="n">
-        <v>1720</v>
+        <v>2338</v>
       </c>
       <c r="AI187" t="n">
-        <v>13500</v>
+        <v>12907</v>
       </c>
       <c r="AJ187" t="n">
-        <v>2113</v>
+        <v>1270</v>
       </c>
       <c r="AK187" t="n">
-        <v>21006</v>
+        <v>44252</v>
       </c>
       <c r="AL187" t="n">
         <v>5952</v>
@@ -26403,22 +26215,22 @@
         <v>2975</v>
       </c>
       <c r="AF188" t="n">
-        <v>3829</v>
+        <v>8181</v>
       </c>
       <c r="AG188" t="n">
-        <v>2944</v>
+        <v>5732</v>
       </c>
       <c r="AH188" t="n">
-        <v>1841</v>
+        <v>2449</v>
       </c>
       <c r="AI188" t="n">
-        <v>13479</v>
+        <v>13307</v>
       </c>
       <c r="AJ188" t="n">
-        <v>2072</v>
+        <v>1203</v>
       </c>
       <c r="AK188" t="n">
-        <v>19046</v>
+        <v>42564</v>
       </c>
       <c r="AL188" t="n">
         <v>5946</v>
@@ -26582,22 +26394,22 @@
         <v>2993</v>
       </c>
       <c r="AF189" t="n">
-        <v>4198</v>
+        <v>8698</v>
       </c>
       <c r="AG189" t="n">
-        <v>2864</v>
+        <v>6181</v>
       </c>
       <c r="AH189" t="n">
-        <v>2030</v>
+        <v>2517</v>
       </c>
       <c r="AI189" t="n">
-        <v>11538</v>
+        <v>12852</v>
       </c>
       <c r="AJ189" t="n">
-        <v>3000</v>
+        <v>1226</v>
       </c>
       <c r="AK189" t="n">
-        <v>17379</v>
+        <v>40828</v>
       </c>
       <c r="AL189" t="n">
         <v>5913</v>
@@ -26761,22 +26573,22 @@
         <v>3034</v>
       </c>
       <c r="AF190" t="n">
-        <v>4462</v>
+        <v>9286</v>
       </c>
       <c r="AG190" t="n">
-        <v>3686</v>
+        <v>6628</v>
       </c>
       <c r="AH190" t="n">
-        <v>2045</v>
+        <v>2658</v>
       </c>
       <c r="AI190" t="n">
-        <v>12326</v>
+        <v>12925</v>
       </c>
       <c r="AJ190" t="n">
-        <v>2241</v>
+        <v>1148</v>
       </c>
       <c r="AK190" t="n">
-        <v>19026</v>
+        <v>41819</v>
       </c>
       <c r="AL190" t="n">
         <v>6087</v>
@@ -26940,22 +26752,22 @@
         <v>3055</v>
       </c>
       <c r="AF191" t="n">
-        <v>4333</v>
+        <v>9610</v>
       </c>
       <c r="AG191" t="n">
-        <v>3286</v>
+        <v>6880</v>
       </c>
       <c r="AH191" t="n">
-        <v>2232</v>
+        <v>2730</v>
       </c>
       <c r="AI191" t="n">
-        <v>13315</v>
+        <v>11575</v>
       </c>
       <c r="AJ191" t="n">
-        <v>3357</v>
+        <v>1017</v>
       </c>
       <c r="AK191" t="n">
-        <v>16431</v>
+        <v>45016</v>
       </c>
       <c r="AL191" t="n">
         <v>6322</v>
@@ -27119,22 +26931,22 @@
         <v>3106</v>
       </c>
       <c r="AF192" t="n">
-        <v>4953</v>
+        <v>9689</v>
       </c>
       <c r="AG192" t="n">
-        <v>3820</v>
+        <v>6811</v>
       </c>
       <c r="AH192" t="n">
-        <v>2260</v>
+        <v>2878</v>
       </c>
       <c r="AI192" t="n">
-        <v>13132</v>
+        <v>11296</v>
       </c>
       <c r="AJ192" t="n">
-        <v>2665</v>
+        <v>953</v>
       </c>
       <c r="AK192" t="n">
-        <v>19688</v>
+        <v>46706</v>
       </c>
       <c r="AL192" t="n">
         <v>6478</v>
@@ -27298,22 +27110,22 @@
         <v>3146</v>
       </c>
       <c r="AF193" t="n">
-        <v>5308</v>
+        <v>10002</v>
       </c>
       <c r="AG193" t="n">
-        <v>3898</v>
+        <v>7079</v>
       </c>
       <c r="AH193" t="n">
-        <v>2489</v>
+        <v>2923</v>
       </c>
       <c r="AI193" t="n">
-        <v>12857</v>
+        <v>10698</v>
       </c>
       <c r="AJ193" t="n">
-        <v>2703</v>
+        <v>940</v>
       </c>
       <c r="AK193" t="n">
-        <v>22552</v>
+        <v>46943</v>
       </c>
       <c r="AL193" t="n">
         <v>6379</v>
@@ -27477,22 +27289,22 @@
         <v>3190</v>
       </c>
       <c r="AF194" t="n">
-        <v>4490</v>
+        <v>10083</v>
       </c>
       <c r="AG194" t="n">
-        <v>3972</v>
+        <v>7170</v>
       </c>
       <c r="AH194" t="n">
-        <v>2512</v>
+        <v>2913</v>
       </c>
       <c r="AI194" t="n">
-        <v>13228</v>
+        <v>11188</v>
       </c>
       <c r="AJ194" t="n">
-        <v>2662</v>
+        <v>930</v>
       </c>
       <c r="AK194" t="n">
-        <v>19705</v>
+        <v>46338</v>
       </c>
       <c r="AL194" t="n">
         <v>6353</v>
@@ -27656,22 +27468,22 @@
         <v>3212</v>
       </c>
       <c r="AF195" t="n">
-        <v>5408</v>
+        <v>10410</v>
       </c>
       <c r="AG195" t="n">
-        <v>4269</v>
+        <v>7415</v>
       </c>
       <c r="AH195" t="n">
-        <v>2507</v>
+        <v>2995</v>
       </c>
       <c r="AI195" t="n">
-        <v>14798</v>
+        <v>11726</v>
       </c>
       <c r="AJ195" t="n">
-        <v>2779</v>
+        <v>977</v>
       </c>
       <c r="AK195" t="n">
-        <v>21533</v>
+        <v>45740</v>
       </c>
       <c r="AL195" t="n">
         <v>6405</v>
@@ -27835,22 +27647,22 @@
         <v>3300</v>
       </c>
       <c r="AF196" t="n">
-        <v>6211</v>
+        <v>10405</v>
       </c>
       <c r="AG196" t="n">
-        <v>3936</v>
+        <v>7352</v>
       </c>
       <c r="AH196" t="n">
-        <v>2479</v>
+        <v>3053</v>
       </c>
       <c r="AI196" t="n">
-        <v>11446</v>
+        <v>12066</v>
       </c>
       <c r="AJ196" t="n">
-        <v>2464</v>
+        <v>984</v>
       </c>
       <c r="AK196" t="n">
-        <v>18883</v>
+        <v>43566</v>
       </c>
       <c r="AL196" t="n">
         <v>6370</v>
@@ -28014,22 +27826,22 @@
         <v>3371</v>
       </c>
       <c r="AF197" t="n">
-        <v>6117</v>
+        <v>10569</v>
       </c>
       <c r="AG197" t="n">
-        <v>4205</v>
+        <v>7425</v>
       </c>
       <c r="AH197" t="n">
-        <v>2824</v>
+        <v>3144</v>
       </c>
       <c r="AI197" t="n">
-        <v>13043</v>
+        <v>11402</v>
       </c>
       <c r="AJ197" t="n">
-        <v>2790</v>
+        <v>949</v>
       </c>
       <c r="AK197" t="n">
-        <v>21427</v>
+        <v>43615</v>
       </c>
       <c r="AL197" t="n">
         <v>6334</v>
@@ -28193,22 +28005,22 @@
         <v>3487</v>
       </c>
       <c r="AF198" t="n">
-        <v>4810</v>
+        <v>10471</v>
       </c>
       <c r="AG198" t="n">
-        <v>5156</v>
+        <v>7367</v>
       </c>
       <c r="AH198" t="n">
-        <v>2822</v>
+        <v>3104</v>
       </c>
       <c r="AI198" t="n">
-        <v>12895</v>
+        <v>10586</v>
       </c>
       <c r="AJ198" t="n">
-        <v>3007</v>
+        <v>853</v>
       </c>
       <c r="AK198" t="n">
-        <v>20688</v>
+        <v>45585</v>
       </c>
       <c r="AL198" t="n">
         <v>6583</v>
@@ -28336,22 +28148,22 @@
         <v>3498</v>
       </c>
       <c r="AF199" t="n">
-        <v>5520</v>
+        <v>10457</v>
       </c>
       <c r="AG199" t="n">
-        <v>4954</v>
+        <v>7288</v>
       </c>
       <c r="AH199" t="n">
-        <v>2664</v>
+        <v>3169</v>
       </c>
       <c r="AI199" t="n">
-        <v>12965</v>
+        <v>10759</v>
       </c>
       <c r="AJ199" t="n">
-        <v>2784</v>
+        <v>865</v>
       </c>
       <c r="AK199" t="n">
-        <v>20552</v>
+        <v>46389</v>
       </c>
       <c r="AL199" t="n">
         <v>6666</v>
@@ -28479,22 +28291,22 @@
         <v>3535</v>
       </c>
       <c r="AF200" t="n">
-        <v>4881</v>
+        <v>10632</v>
       </c>
       <c r="AG200" t="n">
-        <v>4869</v>
+        <v>7416</v>
       </c>
       <c r="AH200" t="n">
-        <v>2783</v>
+        <v>3216</v>
       </c>
       <c r="AI200" t="n">
-        <v>12995</v>
+        <v>10479</v>
       </c>
       <c r="AJ200" t="n">
-        <v>3024</v>
+        <v>896</v>
       </c>
       <c r="AK200" t="n">
-        <v>19201</v>
+        <v>46216</v>
       </c>
       <c r="AL200" t="n">
         <v>6693</v>
@@ -28622,22 +28434,22 @@
         <v>3731</v>
       </c>
       <c r="AF201" t="n">
-        <v>5642</v>
+        <v>10658</v>
       </c>
       <c r="AG201" t="n">
-        <v>4622</v>
+        <v>7395</v>
       </c>
       <c r="AH201" t="n">
-        <v>2402</v>
+        <v>3263</v>
       </c>
       <c r="AI201" t="n">
-        <v>12759</v>
+        <v>10831</v>
       </c>
       <c r="AJ201" t="n">
-        <v>2074</v>
+        <v>966</v>
       </c>
       <c r="AK201" t="n">
-        <v>19134</v>
+        <v>46495</v>
       </c>
       <c r="AL201" t="n">
         <v>6658</v>
@@ -28765,22 +28577,22 @@
         <v>3746</v>
       </c>
       <c r="AF202" t="n">
-        <v>5776</v>
+        <v>10592</v>
       </c>
       <c r="AG202" t="n">
-        <v>4350</v>
+        <v>7180</v>
       </c>
       <c r="AH202" t="n">
-        <v>2699</v>
+        <v>3412</v>
       </c>
       <c r="AI202" t="n">
-        <v>14318</v>
+        <v>11072</v>
       </c>
       <c r="AJ202" t="n">
-        <v>2436</v>
+        <v>943</v>
       </c>
       <c r="AK202" t="n">
-        <v>21542</v>
+        <v>44709</v>
       </c>
       <c r="AL202" t="n">
         <v>6661</v>
@@ -28841,23 +28653,23 @@
       <c r="I203" t="n">
         <v>-8803</v>
       </c>
-      <c r="J203" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K203" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L203" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M203" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N203" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O203" t="e">
-        <v>#NUM!</v>
+      <c r="J203" t="n">
+        <v>-17.0825082956695</v>
+      </c>
+      <c r="K203" t="n">
+        <v>-9.99958799059119</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.582909082077152</v>
+      </c>
+      <c r="M203" t="n">
+        <v>-28.2084143831261</v>
+      </c>
+      <c r="N203" t="n">
+        <v>-40.0190880941896</v>
+      </c>
+      <c r="O203" t="n">
+        <v>13.1259903811907</v>
       </c>
       <c r="P203" t="n">
         <v>3043574</v>
@@ -28908,22 +28720,22 @@
         <v>3781</v>
       </c>
       <c r="AF203" t="n">
-        <v>6087</v>
+        <v>10569</v>
       </c>
       <c r="AG203" t="n">
-        <v>4991</v>
+        <v>7372</v>
       </c>
       <c r="AH203" t="n">
-        <v>2888</v>
+        <v>3197</v>
       </c>
       <c r="AI203" t="n">
-        <v>14047</v>
+        <v>11167</v>
       </c>
       <c r="AJ203" t="n">
-        <v>1599</v>
+        <v>1004</v>
       </c>
       <c r="AK203" t="n">
-        <v>20093</v>
+        <v>43479</v>
       </c>
       <c r="AL203" t="n">
         <v>6633</v>
@@ -28984,23 +28796,23 @@
       <c r="I204" t="n">
         <v>314</v>
       </c>
-      <c r="J204" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K204" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L204" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M204" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N204" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O204" t="e">
-        <v>#NUM!</v>
+      <c r="J204" t="n">
+        <v>-15.9401416748129</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-7.92010509798683</v>
+      </c>
+      <c r="L204" t="n">
+        <v>10.2003060972767</v>
+      </c>
+      <c r="M204" t="n">
+        <v>-28.614112520912</v>
+      </c>
+      <c r="N204" t="n">
+        <v>-41.398782535091</v>
+      </c>
+      <c r="O204" t="n">
+        <v>14.6069416422282</v>
       </c>
       <c r="P204" t="n">
         <v>3104148</v>
@@ -29035,22 +28847,22 @@
       <c r="AD204"/>
       <c r="AE204"/>
       <c r="AF204" t="n">
-        <v>6068</v>
+        <v>10848</v>
       </c>
       <c r="AG204" t="n">
-        <v>4701</v>
+        <v>7567</v>
       </c>
       <c r="AH204" t="n">
-        <v>2811</v>
+        <v>3281</v>
       </c>
       <c r="AI204" t="n">
-        <v>13990</v>
+        <v>11461</v>
       </c>
       <c r="AJ204" t="n">
-        <v>2991</v>
+        <v>1088</v>
       </c>
       <c r="AK204" t="n">
-        <v>21265</v>
+        <v>43802</v>
       </c>
       <c r="AL204" t="n">
         <v>6654</v>
@@ -29178,22 +28990,22 @@
         <v>3987</v>
       </c>
       <c r="AF205" t="n">
-        <v>6149</v>
+        <v>10893</v>
       </c>
       <c r="AG205" t="n">
-        <v>5074</v>
+        <v>7564</v>
       </c>
       <c r="AH205" t="n">
-        <v>2704</v>
+        <v>3329</v>
       </c>
       <c r="AI205" t="n">
-        <v>12615</v>
+        <v>10520</v>
       </c>
       <c r="AJ205" t="n">
-        <v>2898</v>
+        <v>1031</v>
       </c>
       <c r="AK205" t="n">
-        <v>18985</v>
+        <v>45635</v>
       </c>
       <c r="AL205" t="n">
         <v>6794</v>
@@ -29249,16 +29061,16 @@
         <v>173</v>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>2574376</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>30305</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>157345</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J206" t="e">
         <v>#NUM!</v>
@@ -29278,15 +29090,27 @@
       <c r="O206" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P206"/>
-      <c r="Q206"/>
+      <c r="P206" t="n">
+        <v>3231931</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>233139</v>
+      </c>
       <c r="R206" t="n">
         <v>3465070</v>
       </c>
-      <c r="S206"/>
-      <c r="T206"/>
-      <c r="U206"/>
-      <c r="V206"/>
+      <c r="S206" t="n">
+        <v>0.1373</v>
+      </c>
+      <c r="T206" t="n">
+        <v>66373</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1194</v>
+      </c>
+      <c r="V206" t="n">
+        <v>67567</v>
+      </c>
       <c r="W206" t="n">
         <v>8858</v>
       </c>
@@ -29306,7 +29130,7 @@
         <v>907</v>
       </c>
       <c r="AC206" t="n">
-        <v>15497</v>
+        <v>12997</v>
       </c>
       <c r="AD206" t="n">
         <v>1724</v>
@@ -29315,22 +29139,22 @@
         <v>4440</v>
       </c>
       <c r="AF206" t="n">
-        <v>5578</v>
+        <v>8858</v>
       </c>
       <c r="AG206" t="n">
-        <v>4389</v>
+        <v>5698</v>
       </c>
       <c r="AH206" t="n">
-        <v>2833</v>
+        <v>3160</v>
       </c>
       <c r="AI206" t="n">
-        <v>11302</v>
+        <v>13476</v>
       </c>
       <c r="AJ206" t="n">
-        <v>4504</v>
+        <v>1267</v>
       </c>
       <c r="AK206" t="n">
-        <v>18371</v>
+        <v>36109</v>
       </c>
       <c r="AL206" t="n">
         <v>3758</v>
@@ -29364,45 +29188,111 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1"/>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-      <c r="K207"/>
-      <c r="L207"/>
-      <c r="M207"/>
-      <c r="N207"/>
-      <c r="O207"/>
+      <c r="A207" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="B207" t="n">
+        <v>369826</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8701</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4717</v>
+      </c>
+      <c r="E207" t="n">
+        <v>196</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K207" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L207" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M207" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N207" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O207" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="P207"/>
       <c r="Q207"/>
-      <c r="R207"/>
+      <c r="R207" t="n">
+        <v>3539452</v>
+      </c>
       <c r="S207"/>
       <c r="T207"/>
       <c r="U207"/>
       <c r="V207"/>
-      <c r="W207"/>
-      <c r="X207"/>
-      <c r="Y207"/>
-      <c r="Z207"/>
-      <c r="AA207"/>
-      <c r="AB207"/>
-      <c r="AC207"/>
-      <c r="AD207"/>
-      <c r="AE207"/>
-      <c r="AF207"/>
-      <c r="AG207"/>
-      <c r="AH207"/>
-      <c r="AI207"/>
-      <c r="AJ207"/>
-      <c r="AK207"/>
-      <c r="AL207"/>
-      <c r="AM207"/>
+      <c r="W207" t="n">
+        <v>10036</v>
+      </c>
+      <c r="X207" t="n">
+        <v>459</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1604</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>243</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>569</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>918</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>13489</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>1768</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>4677</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>10036</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>6808</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>3228</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>14441</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1396</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>44728</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>6552</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>4246</v>
+      </c>
       <c r="AN207"/>
       <c r="AO207"/>
       <c r="AP207"/>
@@ -29428,6 +29318,71 @@
         <v>29677668</v>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="1"/>
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+      <c r="Q208"/>
+      <c r="R208"/>
+      <c r="S208"/>
+      <c r="T208"/>
+      <c r="U208"/>
+      <c r="V208"/>
+      <c r="W208"/>
+      <c r="X208"/>
+      <c r="Y208"/>
+      <c r="Z208"/>
+      <c r="AA208"/>
+      <c r="AB208"/>
+      <c r="AC208"/>
+      <c r="AD208"/>
+      <c r="AE208"/>
+      <c r="AF208"/>
+      <c r="AG208"/>
+      <c r="AH208"/>
+      <c r="AI208"/>
+      <c r="AJ208"/>
+      <c r="AK208"/>
+      <c r="AL208"/>
+      <c r="AM208"/>
+      <c r="AN208"/>
+      <c r="AO208"/>
+      <c r="AP208"/>
+      <c r="AQ208"/>
+      <c r="AR208"/>
+      <c r="AS208"/>
+      <c r="AT208"/>
+      <c r="AU208"/>
+      <c r="AV208"/>
+      <c r="AW208"/>
+      <c r="AX208"/>
+      <c r="AY208"/>
+      <c r="AZ208"/>
+      <c r="BA208"/>
+      <c r="BB208"/>
+      <c r="BC208"/>
+      <c r="BD208"/>
+      <c r="BE208"/>
+      <c r="BF208"/>
+      <c r="BG208"/>
+      <c r="BH208"/>
+      <c r="BI208" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -29482,34 +29437,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>152778</v>
+        <v>152893</v>
       </c>
       <c r="C2" t="n">
-        <v>115759</v>
+        <v>116377</v>
       </c>
       <c r="D2" t="n">
-        <v>3349311</v>
+        <v>3423075</v>
       </c>
       <c r="E2" t="n">
-        <v>10394</v>
+        <v>10565</v>
       </c>
       <c r="F2" t="n">
-        <v>51031</v>
+        <v>61398</v>
       </c>
       <c r="G2" t="n">
-        <v>13476</v>
+        <v>14441</v>
       </c>
       <c r="H2" t="n">
-        <v>1267</v>
+        <v>1396</v>
       </c>
       <c r="I2" t="n">
-        <v>3320</v>
+        <v>4246</v>
       </c>
       <c r="J2" t="n">
-        <v>30343</v>
+        <v>31048</v>
       </c>
       <c r="K2" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -12457,18 +12457,22 @@
       <c r="AD104"/>
       <c r="AE104"/>
       <c r="AF104" t="n">
-        <v>1338</v>
+        <v>229</v>
       </c>
       <c r="AG104" t="n">
-        <v>775</v>
+        <v>189</v>
       </c>
       <c r="AH104" t="n">
-        <v>563</v>
-      </c>
-      <c r="AI104"/>
-      <c r="AJ104"/>
+        <v>182</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>247</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>237</v>
+      </c>
       <c r="AK104" t="n">
-        <v>27420</v>
+        <v>253</v>
       </c>
       <c r="AL104"/>
       <c r="AM104"/>
@@ -12602,18 +12606,22 @@
       <c r="AD105"/>
       <c r="AE105"/>
       <c r="AF105" t="n">
-        <v>1176</v>
+        <v>439</v>
       </c>
       <c r="AG105" t="n">
-        <v>585</v>
+        <v>358</v>
       </c>
       <c r="AH105" t="n">
-        <v>591</v>
-      </c>
-      <c r="AI105"/>
-      <c r="AJ105"/>
+        <v>308</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>638</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>472</v>
+      </c>
       <c r="AK105" t="n">
-        <v>26721</v>
+        <v>700</v>
       </c>
       <c r="AL105"/>
       <c r="AM105"/>
@@ -12747,18 +12755,22 @@
       <c r="AD106"/>
       <c r="AE106"/>
       <c r="AF106" t="n">
-        <v>1409</v>
+        <v>547</v>
       </c>
       <c r="AG106" t="n">
-        <v>815</v>
+        <v>413</v>
       </c>
       <c r="AH106" t="n">
-        <v>594</v>
-      </c>
-      <c r="AI106"/>
-      <c r="AJ106"/>
+        <v>359</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>988</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>809</v>
+      </c>
       <c r="AK106" t="n">
-        <v>28695</v>
+        <v>1199</v>
       </c>
       <c r="AL106"/>
       <c r="AM106"/>
@@ -12892,18 +12904,22 @@
       <c r="AD107"/>
       <c r="AE107"/>
       <c r="AF107" t="n">
-        <v>1568</v>
+        <v>581</v>
       </c>
       <c r="AG107" t="n">
-        <v>880</v>
+        <v>442</v>
       </c>
       <c r="AH107" t="n">
-        <v>688</v>
-      </c>
-      <c r="AI107"/>
-      <c r="AJ107"/>
+        <v>387</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1291</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>834</v>
+      </c>
       <c r="AK107" t="n">
-        <v>29892</v>
+        <v>1479</v>
       </c>
       <c r="AL107"/>
       <c r="AM107"/>
@@ -13037,18 +13053,22 @@
       <c r="AD108"/>
       <c r="AE108"/>
       <c r="AF108" t="n">
-        <v>1459</v>
+        <v>570</v>
       </c>
       <c r="AG108" t="n">
-        <v>796</v>
+        <v>472</v>
       </c>
       <c r="AH108" t="n">
-        <v>663</v>
-      </c>
-      <c r="AI108"/>
-      <c r="AJ108"/>
+        <v>448</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1656</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>976</v>
+      </c>
       <c r="AK108" t="n">
-        <v>30271</v>
+        <v>1889</v>
       </c>
       <c r="AL108"/>
       <c r="AM108"/>
@@ -13182,18 +13202,22 @@
       <c r="AD109"/>
       <c r="AE109"/>
       <c r="AF109" t="n">
-        <v>1522</v>
+        <v>673</v>
       </c>
       <c r="AG109" t="n">
-        <v>828</v>
+        <v>571</v>
       </c>
       <c r="AH109" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI109"/>
-      <c r="AJ109"/>
+        <v>442</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1937</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>996</v>
+      </c>
       <c r="AK109" t="n">
-        <v>30162</v>
+        <v>2217</v>
       </c>
       <c r="AL109"/>
       <c r="AM109"/>
@@ -13327,18 +13351,22 @@
       <c r="AD110"/>
       <c r="AE110"/>
       <c r="AF110" t="n">
-        <v>1321</v>
+        <v>827</v>
       </c>
       <c r="AG110" t="n">
-        <v>738</v>
+        <v>523</v>
       </c>
       <c r="AH110" t="n">
-        <v>583</v>
-      </c>
-      <c r="AI110"/>
-      <c r="AJ110"/>
+        <v>405</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2441</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1164</v>
+      </c>
       <c r="AK110" t="n">
-        <v>30333</v>
+        <v>2455</v>
       </c>
       <c r="AL110"/>
       <c r="AM110"/>
@@ -13472,18 +13500,22 @@
       <c r="AD111"/>
       <c r="AE111"/>
       <c r="AF111" t="n">
-        <v>1471</v>
+        <v>704</v>
       </c>
       <c r="AG111" t="n">
-        <v>847</v>
+        <v>515</v>
       </c>
       <c r="AH111" t="n">
-        <v>624</v>
-      </c>
-      <c r="AI111"/>
-      <c r="AJ111"/>
+        <v>383</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2790</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1257</v>
+      </c>
       <c r="AK111" t="n">
-        <v>29136</v>
+        <v>3008</v>
       </c>
       <c r="AL111"/>
       <c r="AM111"/>
@@ -13617,18 +13649,22 @@
       <c r="AD112"/>
       <c r="AE112"/>
       <c r="AF112" t="n">
-        <v>1414</v>
+        <v>739</v>
       </c>
       <c r="AG112" t="n">
-        <v>794</v>
+        <v>559</v>
       </c>
       <c r="AH112" t="n">
-        <v>620</v>
-      </c>
-      <c r="AI112"/>
-      <c r="AJ112"/>
+        <v>491</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2908</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1242</v>
+      </c>
       <c r="AK112" t="n">
-        <v>27057</v>
+        <v>3691</v>
       </c>
       <c r="AL112"/>
       <c r="AM112"/>
@@ -13762,18 +13798,22 @@
       <c r="AD113"/>
       <c r="AE113"/>
       <c r="AF113" t="n">
-        <v>1497</v>
+        <v>916</v>
       </c>
       <c r="AG113" t="n">
-        <v>861</v>
+        <v>666</v>
       </c>
       <c r="AH113" t="n">
-        <v>636</v>
-      </c>
-      <c r="AI113"/>
-      <c r="AJ113"/>
+        <v>541</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3305</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>971</v>
+      </c>
       <c r="AK113" t="n">
-        <v>29380</v>
+        <v>3909</v>
       </c>
       <c r="AL113"/>
       <c r="AM113"/>
@@ -13907,18 +13947,22 @@
       <c r="AD114"/>
       <c r="AE114"/>
       <c r="AF114" t="n">
-        <v>1678</v>
+        <v>1117</v>
       </c>
       <c r="AG114" t="n">
-        <v>987</v>
+        <v>749</v>
       </c>
       <c r="AH114" t="n">
-        <v>691</v>
-      </c>
-      <c r="AI114"/>
-      <c r="AJ114"/>
+        <v>612</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3687</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1190</v>
+      </c>
       <c r="AK114" t="n">
-        <v>32474</v>
+        <v>4356</v>
       </c>
       <c r="AL114"/>
       <c r="AM114"/>
@@ -14052,18 +14096,22 @@
       <c r="AD115"/>
       <c r="AE115"/>
       <c r="AF115" t="n">
-        <v>1649</v>
+        <v>1129</v>
       </c>
       <c r="AG115" t="n">
-        <v>960</v>
+        <v>557</v>
       </c>
       <c r="AH115" t="n">
-        <v>689</v>
-      </c>
-      <c r="AI115"/>
-      <c r="AJ115"/>
+        <v>652</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>4076</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1356</v>
+      </c>
       <c r="AK115" t="n">
-        <v>34032</v>
+        <v>4145</v>
       </c>
       <c r="AL115"/>
       <c r="AM115"/>
@@ -14197,18 +14245,22 @@
       <c r="AD116"/>
       <c r="AE116"/>
       <c r="AF116" t="n">
-        <v>1664</v>
+        <v>1092</v>
       </c>
       <c r="AG116" t="n">
-        <v>994</v>
+        <v>675</v>
       </c>
       <c r="AH116" t="n">
-        <v>670</v>
-      </c>
-      <c r="AI116"/>
-      <c r="AJ116"/>
+        <v>520</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3810</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1758</v>
+      </c>
       <c r="AK116" t="n">
-        <v>34788</v>
+        <v>4705</v>
       </c>
       <c r="AL116"/>
       <c r="AM116"/>
@@ -14342,18 +14394,22 @@
       <c r="AD117"/>
       <c r="AE117"/>
       <c r="AF117" t="n">
-        <v>1587</v>
+        <v>1110</v>
       </c>
       <c r="AG117" t="n">
-        <v>946</v>
+        <v>736</v>
       </c>
       <c r="AH117" t="n">
-        <v>651</v>
-      </c>
-      <c r="AI117"/>
-      <c r="AJ117"/>
+        <v>566</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3542</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1281</v>
+      </c>
       <c r="AK117" t="n">
-        <v>34687</v>
+        <v>4787</v>
       </c>
       <c r="AL117"/>
       <c r="AM117"/>
@@ -14487,18 +14543,22 @@
       <c r="AD118"/>
       <c r="AE118"/>
       <c r="AF118" t="n">
-        <v>1542</v>
+        <v>1076</v>
       </c>
       <c r="AG118" t="n">
-        <v>897</v>
+        <v>647</v>
       </c>
       <c r="AH118" t="n">
-        <v>645</v>
-      </c>
-      <c r="AI118"/>
-      <c r="AJ118"/>
+        <v>567</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>4386</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1409</v>
+      </c>
       <c r="AK118" t="n">
-        <v>33201</v>
+        <v>5091</v>
       </c>
       <c r="AL118"/>
       <c r="AM118"/>
@@ -14632,18 +14692,22 @@
       <c r="AD119"/>
       <c r="AE119"/>
       <c r="AF119" t="n">
-        <v>1563</v>
+        <v>1172</v>
       </c>
       <c r="AG119" t="n">
-        <v>903</v>
+        <v>644</v>
       </c>
       <c r="AH119" t="n">
-        <v>660</v>
-      </c>
-      <c r="AI119"/>
-      <c r="AJ119"/>
+        <v>578</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4789</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1579</v>
+      </c>
       <c r="AK119" t="n">
-        <v>31702</v>
+        <v>4700</v>
       </c>
       <c r="AL119"/>
       <c r="AM119"/>
@@ -14777,18 +14841,22 @@
       <c r="AD120"/>
       <c r="AE120"/>
       <c r="AF120" t="n">
-        <v>1682</v>
+        <v>1129</v>
       </c>
       <c r="AG120" t="n">
-        <v>998</v>
+        <v>721</v>
       </c>
       <c r="AH120" t="n">
-        <v>684</v>
-      </c>
-      <c r="AI120"/>
-      <c r="AJ120"/>
+        <v>490</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>5614</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1382</v>
+      </c>
       <c r="AK120" t="n">
-        <v>33473</v>
+        <v>5805</v>
       </c>
       <c r="AL120"/>
       <c r="AM120"/>
@@ -14922,18 +14990,22 @@
       <c r="AD121"/>
       <c r="AE121"/>
       <c r="AF121" t="n">
-        <v>1702</v>
+        <v>1278</v>
       </c>
       <c r="AG121" t="n">
-        <v>984</v>
+        <v>655</v>
       </c>
       <c r="AH121" t="n">
-        <v>718</v>
-      </c>
-      <c r="AI121"/>
-      <c r="AJ121"/>
+        <v>667</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>4831</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1750</v>
+      </c>
       <c r="AK121" t="n">
-        <v>35289</v>
+        <v>6501</v>
       </c>
       <c r="AL121"/>
       <c r="AM121"/>
@@ -15067,18 +15139,22 @@
       <c r="AD122"/>
       <c r="AE122"/>
       <c r="AF122" t="n">
-        <v>1686</v>
+        <v>1150</v>
       </c>
       <c r="AG122" t="n">
-        <v>982</v>
+        <v>877</v>
       </c>
       <c r="AH122" t="n">
-        <v>704</v>
-      </c>
-      <c r="AI122"/>
-      <c r="AJ122"/>
+        <v>552</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>5182</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1382</v>
+      </c>
       <c r="AK122" t="n">
-        <v>35604</v>
+        <v>6771</v>
       </c>
       <c r="AL122"/>
       <c r="AM122"/>
@@ -15212,18 +15288,22 @@
       <c r="AD123"/>
       <c r="AE123"/>
       <c r="AF123" t="n">
-        <v>1778</v>
+        <v>1283</v>
       </c>
       <c r="AG123" t="n">
-        <v>1042</v>
+        <v>609</v>
       </c>
       <c r="AH123" t="n">
-        <v>736</v>
-      </c>
-      <c r="AI123"/>
-      <c r="AJ123"/>
+        <v>549</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>5335</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2007</v>
+      </c>
       <c r="AK123" t="n">
-        <v>36409</v>
+        <v>7178</v>
       </c>
       <c r="AL123"/>
       <c r="AM123"/>
@@ -15357,18 +15437,22 @@
       <c r="AD124"/>
       <c r="AE124"/>
       <c r="AF124" t="n">
-        <v>1725</v>
+        <v>1091</v>
       </c>
       <c r="AG124" t="n">
-        <v>1014</v>
+        <v>853</v>
       </c>
       <c r="AH124" t="n">
-        <v>711</v>
-      </c>
-      <c r="AI124"/>
-      <c r="AJ124"/>
+        <v>684</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>5521</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1689</v>
+      </c>
       <c r="AK124" t="n">
-        <v>35692</v>
+        <v>6955</v>
       </c>
       <c r="AL124"/>
       <c r="AM124"/>
@@ -15502,18 +15586,22 @@
       <c r="AD125"/>
       <c r="AE125"/>
       <c r="AF125" t="n">
-        <v>1540</v>
+        <v>1125</v>
       </c>
       <c r="AG125" t="n">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="AH125" t="n">
-        <v>624</v>
-      </c>
-      <c r="AI125"/>
-      <c r="AJ125"/>
+        <v>546</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>5977</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1548</v>
+      </c>
       <c r="AK125" t="n">
-        <v>32012</v>
+        <v>6400</v>
       </c>
       <c r="AL125"/>
       <c r="AM125"/>
@@ -15647,18 +15735,22 @@
       <c r="AD126"/>
       <c r="AE126"/>
       <c r="AF126" t="n">
-        <v>1533</v>
+        <v>1114</v>
       </c>
       <c r="AG126" t="n">
-        <v>914</v>
+        <v>750</v>
       </c>
       <c r="AH126" t="n">
-        <v>619</v>
-      </c>
-      <c r="AI126"/>
-      <c r="AJ126"/>
+        <v>572</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>6021</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1505</v>
+      </c>
       <c r="AK126" t="n">
-        <v>32019</v>
+        <v>7057</v>
       </c>
       <c r="AL126"/>
       <c r="AM126"/>
@@ -15792,18 +15884,22 @@
       <c r="AD127"/>
       <c r="AE127"/>
       <c r="AF127" t="n">
-        <v>1888</v>
+        <v>1258</v>
       </c>
       <c r="AG127" t="n">
-        <v>1199</v>
+        <v>707</v>
       </c>
       <c r="AH127" t="n">
-        <v>689</v>
-      </c>
-      <c r="AI127"/>
-      <c r="AJ127"/>
+        <v>556</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>5631</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1947</v>
+      </c>
       <c r="AK127" t="n">
-        <v>34653</v>
+        <v>7607</v>
       </c>
       <c r="AL127"/>
       <c r="AM127"/>
@@ -15937,18 +16033,22 @@
       <c r="AD128"/>
       <c r="AE128"/>
       <c r="AF128" t="n">
-        <v>1812</v>
+        <v>1322</v>
       </c>
       <c r="AG128" t="n">
-        <v>1086</v>
+        <v>1020</v>
       </c>
       <c r="AH128" t="n">
-        <v>726</v>
-      </c>
-      <c r="AI128"/>
-      <c r="AJ128"/>
+        <v>658</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>7204</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1688</v>
+      </c>
       <c r="AK128" t="n">
-        <v>37421</v>
+        <v>7879</v>
       </c>
       <c r="AL128"/>
       <c r="AM128"/>
@@ -16082,18 +16182,22 @@
       <c r="AD129"/>
       <c r="AE129"/>
       <c r="AF129" t="n">
-        <v>1750</v>
+        <v>1089</v>
       </c>
       <c r="AG129" t="n">
-        <v>1034</v>
+        <v>784</v>
       </c>
       <c r="AH129" t="n">
-        <v>716</v>
-      </c>
-      <c r="AI129"/>
-      <c r="AJ129"/>
+        <v>634</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>6952</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1800</v>
+      </c>
       <c r="AK129" t="n">
-        <v>38722</v>
+        <v>8886</v>
       </c>
       <c r="AL129"/>
       <c r="AM129"/>
@@ -16227,18 +16331,22 @@
       <c r="AD130"/>
       <c r="AE130"/>
       <c r="AF130" t="n">
-        <v>1734</v>
+        <v>1327</v>
       </c>
       <c r="AG130" t="n">
-        <v>1037</v>
+        <v>851</v>
       </c>
       <c r="AH130" t="n">
-        <v>697</v>
-      </c>
-      <c r="AI130"/>
-      <c r="AJ130"/>
+        <v>649</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>6611</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1940</v>
+      </c>
       <c r="AK130" t="n">
-        <v>38516</v>
+        <v>8982</v>
       </c>
       <c r="AL130"/>
       <c r="AM130"/>
@@ -16376,18 +16484,22 @@
       <c r="AD131"/>
       <c r="AE131"/>
       <c r="AF131" t="n">
-        <v>1735</v>
+        <v>1623</v>
       </c>
       <c r="AG131" t="n">
-        <v>1061</v>
+        <v>975</v>
       </c>
       <c r="AH131" t="n">
-        <v>674</v>
-      </c>
-      <c r="AI131"/>
-      <c r="AJ131"/>
+        <v>537</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>6992</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1768</v>
+      </c>
       <c r="AK131" t="n">
-        <v>37977</v>
+        <v>8593</v>
       </c>
       <c r="AL131"/>
       <c r="AM131"/>
@@ -16525,18 +16637,22 @@
       <c r="AD132"/>
       <c r="AE132"/>
       <c r="AF132" t="n">
-        <v>1626</v>
+        <v>1333</v>
       </c>
       <c r="AG132" t="n">
-        <v>965</v>
+        <v>888</v>
       </c>
       <c r="AH132" t="n">
-        <v>661</v>
-      </c>
-      <c r="AI132"/>
-      <c r="AJ132"/>
+        <v>560</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>6987</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1795</v>
+      </c>
       <c r="AK132" t="n">
-        <v>35333</v>
+        <v>7667</v>
       </c>
       <c r="AL132"/>
       <c r="AM132"/>
@@ -16674,18 +16790,22 @@
       <c r="AD133"/>
       <c r="AE133"/>
       <c r="AF133" t="n">
-        <v>1525</v>
+        <v>1256</v>
       </c>
       <c r="AG133" t="n">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="AH133" t="n">
-        <v>610</v>
-      </c>
-      <c r="AI133"/>
-      <c r="AJ133"/>
+        <v>515</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>7179</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1393</v>
+      </c>
       <c r="AK133" t="n">
-        <v>32549</v>
+        <v>7984</v>
       </c>
       <c r="AL133"/>
       <c r="AM133"/>
@@ -16823,18 +16943,22 @@
       <c r="AD134"/>
       <c r="AE134"/>
       <c r="AF134" t="n">
-        <v>1725</v>
+        <v>1303</v>
       </c>
       <c r="AG134" t="n">
-        <v>1026</v>
+        <v>954</v>
       </c>
       <c r="AH134" t="n">
-        <v>699</v>
-      </c>
-      <c r="AI134"/>
-      <c r="AJ134"/>
+        <v>654</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>7293</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1278</v>
+      </c>
       <c r="AK134" t="n">
-        <v>34519</v>
+        <v>8896</v>
       </c>
       <c r="AL134"/>
       <c r="AM134"/>
@@ -16972,18 +17096,22 @@
       <c r="AD135"/>
       <c r="AE135"/>
       <c r="AF135" t="n">
-        <v>1676</v>
+        <v>1410</v>
       </c>
       <c r="AG135" t="n">
-        <v>1002</v>
+        <v>914</v>
       </c>
       <c r="AH135" t="n">
-        <v>674</v>
-      </c>
-      <c r="AI135"/>
-      <c r="AJ135"/>
+        <v>616</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>7568</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1799</v>
+      </c>
       <c r="AK135" t="n">
-        <v>38292</v>
+        <v>10658</v>
       </c>
       <c r="AL135"/>
       <c r="AM135"/>
@@ -17121,18 +17249,22 @@
       <c r="AD136"/>
       <c r="AE136"/>
       <c r="AF136" t="n">
-        <v>1648</v>
+        <v>1056</v>
       </c>
       <c r="AG136" t="n">
-        <v>975</v>
+        <v>1018</v>
       </c>
       <c r="AH136" t="n">
-        <v>673</v>
-      </c>
-      <c r="AI136"/>
-      <c r="AJ136"/>
+        <v>614</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>7695</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2062</v>
+      </c>
       <c r="AK136" t="n">
-        <v>38626</v>
+        <v>9833</v>
       </c>
       <c r="AL136"/>
       <c r="AM136"/>
@@ -17286,18 +17418,22 @@
         <v>494</v>
       </c>
       <c r="AF137" t="n">
-        <v>1716</v>
+        <v>1550</v>
       </c>
       <c r="AG137" t="n">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="AH137" t="n">
-        <v>683</v>
-      </c>
-      <c r="AI137"/>
-      <c r="AJ137"/>
+        <v>706</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>8067</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1959</v>
+      </c>
       <c r="AK137" t="n">
-        <v>39654</v>
+        <v>8352</v>
       </c>
       <c r="AL137"/>
       <c r="AM137"/>
@@ -17457,18 +17593,22 @@
         <v>530</v>
       </c>
       <c r="AF138" t="n">
-        <v>1791</v>
+        <v>1245</v>
       </c>
       <c r="AG138" t="n">
-        <v>1104</v>
+        <v>974</v>
       </c>
       <c r="AH138" t="n">
-        <v>687</v>
-      </c>
-      <c r="AI138"/>
-      <c r="AJ138"/>
+        <v>662</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>7500</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2123</v>
+      </c>
       <c r="AK138" t="n">
-        <v>39392</v>
+        <v>10382</v>
       </c>
       <c r="AL138"/>
       <c r="AM138"/>
@@ -17628,18 +17768,22 @@
         <v>531</v>
       </c>
       <c r="AF139" t="n">
-        <v>1512</v>
+        <v>1392</v>
       </c>
       <c r="AG139" t="n">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="AH139" t="n">
-        <v>604</v>
-      </c>
-      <c r="AI139"/>
-      <c r="AJ139"/>
+        <v>520</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>9004</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2340</v>
+      </c>
       <c r="AK139" t="n">
-        <v>34208</v>
+        <v>9405</v>
       </c>
       <c r="AL139"/>
       <c r="AM139"/>
@@ -17799,18 +17943,22 @@
         <v>575</v>
       </c>
       <c r="AF140" t="n">
-        <v>1551</v>
+        <v>1219</v>
       </c>
       <c r="AG140" t="n">
-        <v>933</v>
+        <v>847</v>
       </c>
       <c r="AH140" t="n">
-        <v>618</v>
-      </c>
-      <c r="AI140"/>
-      <c r="AJ140"/>
+        <v>517</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>9120</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2322</v>
+      </c>
       <c r="AK140" t="n">
-        <v>33455</v>
+        <v>9902</v>
       </c>
       <c r="AL140"/>
       <c r="AM140"/>
@@ -17970,18 +18118,22 @@
         <v>631</v>
       </c>
       <c r="AF141" t="n">
-        <v>1732</v>
+        <v>1353</v>
       </c>
       <c r="AG141" t="n">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="AH141" t="n">
-        <v>675</v>
-      </c>
-      <c r="AI141"/>
-      <c r="AJ141"/>
+        <v>542</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>7597</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1802</v>
+      </c>
       <c r="AK141" t="n">
-        <v>35767</v>
+        <v>11703</v>
       </c>
       <c r="AL141"/>
       <c r="AM141"/>
@@ -18141,18 +18293,22 @@
         <v>684</v>
       </c>
       <c r="AF142" t="n">
-        <v>1791</v>
+        <v>1613</v>
       </c>
       <c r="AG142" t="n">
-        <v>1097</v>
+        <v>1307</v>
       </c>
       <c r="AH142" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI142"/>
-      <c r="AJ142"/>
+        <v>663</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>8348</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1738</v>
+      </c>
       <c r="AK142" t="n">
-        <v>40313</v>
+        <v>10815</v>
       </c>
       <c r="AL142"/>
       <c r="AM142"/>
@@ -18312,18 +18468,22 @@
         <v>719</v>
       </c>
       <c r="AF143" t="n">
-        <v>1680</v>
+        <v>1510</v>
       </c>
       <c r="AG143" t="n">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="AH143" t="n">
-        <v>690</v>
-      </c>
-      <c r="AI143"/>
-      <c r="AJ143"/>
+        <v>655</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>9018</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2111</v>
+      </c>
       <c r="AK143" t="n">
-        <v>40321</v>
+        <v>12773</v>
       </c>
       <c r="AL143"/>
       <c r="AM143"/>
@@ -18483,18 +18643,22 @@
         <v>730</v>
       </c>
       <c r="AF144" t="n">
-        <v>1578</v>
+        <v>1446</v>
       </c>
       <c r="AG144" t="n">
-        <v>913</v>
+        <v>860</v>
       </c>
       <c r="AH144" t="n">
-        <v>665</v>
-      </c>
-      <c r="AI144"/>
-      <c r="AJ144"/>
+        <v>587</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>8725</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2469</v>
+      </c>
       <c r="AK144" t="n">
-        <v>40132</v>
+        <v>11710</v>
       </c>
       <c r="AL144"/>
       <c r="AM144"/>
@@ -18644,18 +18808,22 @@
         <v>800</v>
       </c>
       <c r="AF145" t="n">
-        <v>1688</v>
+        <v>1472</v>
       </c>
       <c r="AG145" t="n">
-        <v>1022</v>
+        <v>1123</v>
       </c>
       <c r="AH145" t="n">
-        <v>666</v>
-      </c>
-      <c r="AI145"/>
-      <c r="AJ145"/>
+        <v>521</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>9150</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2189</v>
+      </c>
       <c r="AK145" t="n">
-        <v>40977</v>
+        <v>13032</v>
       </c>
       <c r="AL145"/>
       <c r="AM145"/>
@@ -18815,18 +18983,22 @@
         <v>812</v>
       </c>
       <c r="AF146" t="n">
-        <v>1572</v>
+        <v>1652</v>
       </c>
       <c r="AG146" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AH146" t="n">
-        <v>643</v>
-      </c>
-      <c r="AI146"/>
-      <c r="AJ146"/>
+        <v>639</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>9702</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1603</v>
+      </c>
       <c r="AK146" t="n">
-        <v>35987</v>
+        <v>11813</v>
       </c>
       <c r="AL146"/>
       <c r="AM146"/>
@@ -18986,18 +19158,22 @@
         <v>885</v>
       </c>
       <c r="AF147" t="n">
-        <v>1511</v>
+        <v>1285</v>
       </c>
       <c r="AG147" t="n">
-        <v>854</v>
+        <v>1072</v>
       </c>
       <c r="AH147" t="n">
-        <v>657</v>
-      </c>
-      <c r="AI147"/>
-      <c r="AJ147"/>
+        <v>544</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>9172</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1931</v>
+      </c>
       <c r="AK147" t="n">
-        <v>33489</v>
+        <v>11316</v>
       </c>
       <c r="AL147"/>
       <c r="AM147"/>
@@ -19157,18 +19333,22 @@
         <v>940</v>
       </c>
       <c r="AF148" t="n">
-        <v>1534</v>
+        <v>1253</v>
       </c>
       <c r="AG148" t="n">
-        <v>887</v>
+        <v>992</v>
       </c>
       <c r="AH148" t="n">
-        <v>647</v>
-      </c>
-      <c r="AI148"/>
-      <c r="AJ148"/>
+        <v>711</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>8372</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2212</v>
+      </c>
       <c r="AK148" t="n">
-        <v>34246</v>
+        <v>13556</v>
       </c>
       <c r="AL148"/>
       <c r="AM148"/>
@@ -19328,18 +19508,22 @@
         <v>982</v>
       </c>
       <c r="AF149" t="n">
-        <v>1645</v>
+        <v>1295</v>
       </c>
       <c r="AG149" t="n">
-        <v>974</v>
+        <v>873</v>
       </c>
       <c r="AH149" t="n">
-        <v>671</v>
-      </c>
-      <c r="AI149"/>
-      <c r="AJ149"/>
+        <v>594</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>7783</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2088</v>
+      </c>
       <c r="AK149" t="n">
-        <v>36501</v>
+        <v>12457</v>
       </c>
       <c r="AL149"/>
       <c r="AM149"/>
@@ -19499,18 +19683,22 @@
         <v>996</v>
       </c>
       <c r="AF150" t="n">
-        <v>1692</v>
+        <v>1497</v>
       </c>
       <c r="AG150" t="n">
-        <v>998</v>
+        <v>838</v>
       </c>
       <c r="AH150" t="n">
-        <v>694</v>
-      </c>
-      <c r="AI150"/>
-      <c r="AJ150"/>
+        <v>660</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>9249</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2163</v>
+      </c>
       <c r="AK150" t="n">
-        <v>39561</v>
+        <v>13386</v>
       </c>
       <c r="AL150"/>
       <c r="AM150"/>
@@ -19670,22 +19858,22 @@
         <v>1074</v>
       </c>
       <c r="AF151" t="n">
-        <v>1622</v>
+        <v>1525</v>
       </c>
       <c r="AG151" t="n">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="AH151" t="n">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="AI151" t="n">
-        <v>16136</v>
+        <v>10697</v>
       </c>
       <c r="AJ151" t="n">
-        <v>1696</v>
+        <v>2595</v>
       </c>
       <c r="AK151" t="n">
-        <v>41521</v>
+        <v>12818</v>
       </c>
       <c r="AL151"/>
       <c r="AM151"/>
@@ -19839,22 +20027,22 @@
         <v>1155</v>
       </c>
       <c r="AF152" t="n">
-        <v>1752</v>
+        <v>1671</v>
       </c>
       <c r="AG152" t="n">
-        <v>999</v>
+        <v>1078</v>
       </c>
       <c r="AH152" t="n">
-        <v>753</v>
+        <v>592</v>
       </c>
       <c r="AI152" t="n">
-        <v>15599</v>
+        <v>10960</v>
       </c>
       <c r="AJ152" t="n">
-        <v>1697</v>
+        <v>2155</v>
       </c>
       <c r="AK152" t="n">
-        <v>41462</v>
+        <v>11075</v>
       </c>
       <c r="AL152"/>
       <c r="AM152"/>
@@ -20014,22 +20202,22 @@
         <v>1169</v>
       </c>
       <c r="AF153" t="n">
-        <v>1684</v>
+        <v>1540</v>
       </c>
       <c r="AG153" t="n">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="AH153" t="n">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="AI153" t="n">
-        <v>16127</v>
+        <v>10726</v>
       </c>
       <c r="AJ153" t="n">
-        <v>1698</v>
+        <v>2237</v>
       </c>
       <c r="AK153" t="n">
-        <v>39467</v>
+        <v>14796</v>
       </c>
       <c r="AL153"/>
       <c r="AM153"/>
@@ -20189,22 +20377,22 @@
         <v>1181</v>
       </c>
       <c r="AF154" t="n">
-        <v>1756</v>
+        <v>1302</v>
       </c>
       <c r="AG154" t="n">
-        <v>1008</v>
+        <v>1091</v>
       </c>
       <c r="AH154" t="n">
-        <v>748</v>
+        <v>687</v>
       </c>
       <c r="AI154" t="n">
-        <v>16330</v>
+        <v>10889</v>
       </c>
       <c r="AJ154" t="n">
-        <v>1784</v>
+        <v>2200</v>
       </c>
       <c r="AK154" t="n">
-        <v>38032</v>
+        <v>13357</v>
       </c>
       <c r="AL154" t="n">
         <v>5394</v>
@@ -20366,22 +20554,22 @@
         <v>1254</v>
       </c>
       <c r="AF155" t="n">
-        <v>1773</v>
+        <v>1656</v>
       </c>
       <c r="AG155" t="n">
-        <v>1011</v>
+        <v>1046</v>
       </c>
       <c r="AH155" t="n">
-        <v>762</v>
+        <v>689</v>
       </c>
       <c r="AI155" t="n">
-        <v>16575</v>
+        <v>10096</v>
       </c>
       <c r="AJ155" t="n">
-        <v>1764</v>
+        <v>2473</v>
       </c>
       <c r="AK155" t="n">
-        <v>37510</v>
+        <v>13409</v>
       </c>
       <c r="AL155" t="n">
         <v>5314</v>
@@ -20543,22 +20731,22 @@
         <v>1284</v>
       </c>
       <c r="AF156" t="n">
-        <v>1805</v>
+        <v>1230</v>
       </c>
       <c r="AG156" t="n">
-        <v>1057</v>
+        <v>1124</v>
       </c>
       <c r="AH156" t="n">
-        <v>748</v>
+        <v>653</v>
       </c>
       <c r="AI156" t="n">
-        <v>14948</v>
+        <v>9437</v>
       </c>
       <c r="AJ156" t="n">
-        <v>1621</v>
+        <v>2121</v>
       </c>
       <c r="AK156" t="n">
-        <v>36201</v>
+        <v>13209</v>
       </c>
       <c r="AL156" t="n">
         <v>5566</v>
@@ -20720,22 +20908,22 @@
         <v>1368</v>
       </c>
       <c r="AF157" t="n">
-        <v>1796</v>
+        <v>1401</v>
       </c>
       <c r="AG157" t="n">
-        <v>1066</v>
+        <v>1133</v>
       </c>
       <c r="AH157" t="n">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="AI157" t="n">
-        <v>15219</v>
+        <v>9869</v>
       </c>
       <c r="AJ157" t="n">
-        <v>1658</v>
+        <v>2026</v>
       </c>
       <c r="AK157" t="n">
-        <v>40783</v>
+        <v>11925</v>
       </c>
       <c r="AL157" t="n">
         <v>5577</v>
@@ -20897,22 +21085,22 @@
         <v>1437</v>
       </c>
       <c r="AF158" t="n">
-        <v>1855</v>
+        <v>1510</v>
       </c>
       <c r="AG158" t="n">
-        <v>1113</v>
+        <v>985</v>
       </c>
       <c r="AH158" t="n">
-        <v>742</v>
+        <v>818</v>
       </c>
       <c r="AI158" t="n">
-        <v>14674</v>
+        <v>10035</v>
       </c>
       <c r="AJ158" t="n">
-        <v>1625</v>
+        <v>2256</v>
       </c>
       <c r="AK158" t="n">
-        <v>42965</v>
+        <v>14360</v>
       </c>
       <c r="AL158" t="n">
         <v>5587</v>
@@ -21074,22 +21262,22 @@
         <v>1495</v>
       </c>
       <c r="AF159" t="n">
-        <v>1822</v>
+        <v>1584</v>
       </c>
       <c r="AG159" t="n">
-        <v>1085</v>
+        <v>924</v>
       </c>
       <c r="AH159" t="n">
-        <v>737</v>
+        <v>623</v>
       </c>
       <c r="AI159" t="n">
-        <v>15198</v>
+        <v>12167</v>
       </c>
       <c r="AJ159" t="n">
-        <v>1583</v>
+        <v>2461</v>
       </c>
       <c r="AK159" t="n">
-        <v>41603</v>
+        <v>14962</v>
       </c>
       <c r="AL159" t="n">
         <v>5623</v>
@@ -21251,22 +21439,22 @@
         <v>1499</v>
       </c>
       <c r="AF160" t="n">
-        <v>1878</v>
+        <v>1348</v>
       </c>
       <c r="AG160" t="n">
-        <v>1115</v>
+        <v>850</v>
       </c>
       <c r="AH160" t="n">
-        <v>763</v>
+        <v>831</v>
       </c>
       <c r="AI160" t="n">
-        <v>15942</v>
+        <v>11370</v>
       </c>
       <c r="AJ160" t="n">
-        <v>1680</v>
+        <v>2386</v>
       </c>
       <c r="AK160" t="n">
-        <v>40237</v>
+        <v>15834</v>
       </c>
       <c r="AL160" t="n">
         <v>5657</v>
@@ -21428,22 +21616,22 @@
         <v>1512</v>
       </c>
       <c r="AF161" t="n">
-        <v>1935</v>
+        <v>1439</v>
       </c>
       <c r="AG161" t="n">
-        <v>1192</v>
+        <v>1077</v>
       </c>
       <c r="AH161" t="n">
-        <v>743</v>
+        <v>800</v>
       </c>
       <c r="AI161" t="n">
-        <v>15070</v>
+        <v>10603</v>
       </c>
       <c r="AJ161" t="n">
-        <v>1619</v>
+        <v>2279</v>
       </c>
       <c r="AK161" t="n">
-        <v>37283</v>
+        <v>14681</v>
       </c>
       <c r="AL161" t="n">
         <v>5292</v>
@@ -21605,22 +21793,22 @@
         <v>1636</v>
       </c>
       <c r="AF162" t="n">
-        <v>2056</v>
+        <v>1827</v>
       </c>
       <c r="AG162" t="n">
-        <v>1272</v>
+        <v>1211</v>
       </c>
       <c r="AH162" t="n">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="AI162" t="n">
-        <v>15402</v>
+        <v>10720</v>
       </c>
       <c r="AJ162" t="n">
-        <v>1723</v>
+        <v>2505</v>
       </c>
       <c r="AK162" t="n">
-        <v>39336</v>
+        <v>14496</v>
       </c>
       <c r="AL162" t="n">
         <v>5500</v>
@@ -21782,22 +21970,22 @@
         <v>1739</v>
       </c>
       <c r="AF163" t="n">
-        <v>2153</v>
+        <v>1335</v>
       </c>
       <c r="AG163" t="n">
-        <v>1296</v>
+        <v>977</v>
       </c>
       <c r="AH163" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="AI163" t="n">
-        <v>13645</v>
+        <v>12449</v>
       </c>
       <c r="AJ163" t="n">
-        <v>1508</v>
+        <v>2626</v>
       </c>
       <c r="AK163" t="n">
-        <v>42410</v>
+        <v>16310</v>
       </c>
       <c r="AL163" t="n">
         <v>5622</v>
@@ -21959,22 +22147,22 @@
         <v>1831</v>
       </c>
       <c r="AF164" t="n">
-        <v>2059</v>
+        <v>1533</v>
       </c>
       <c r="AG164" t="n">
-        <v>1250</v>
+        <v>1137</v>
       </c>
       <c r="AH164" t="n">
-        <v>809</v>
+        <v>926</v>
       </c>
       <c r="AI164" t="n">
-        <v>13271</v>
+        <v>11954</v>
       </c>
       <c r="AJ164" t="n">
-        <v>1419</v>
+        <v>2363</v>
       </c>
       <c r="AK164" t="n">
-        <v>40724</v>
+        <v>15780</v>
       </c>
       <c r="AL164" t="n">
         <v>5667</v>
@@ -22136,22 +22324,22 @@
         <v>1908</v>
       </c>
       <c r="AF165" t="n">
-        <v>2166</v>
+        <v>1763</v>
       </c>
       <c r="AG165" t="n">
-        <v>1356</v>
+        <v>1327</v>
       </c>
       <c r="AH165" t="n">
-        <v>810</v>
+        <v>890</v>
       </c>
       <c r="AI165" t="n">
-        <v>14033</v>
+        <v>10899</v>
       </c>
       <c r="AJ165" t="n">
-        <v>1494</v>
+        <v>2337</v>
       </c>
       <c r="AK165" t="n">
-        <v>42995</v>
+        <v>15779</v>
       </c>
       <c r="AL165" t="n">
         <v>5726</v>
@@ -22313,22 +22501,22 @@
         <v>1939</v>
       </c>
       <c r="AF166" t="n">
-        <v>2242</v>
+        <v>1707</v>
       </c>
       <c r="AG166" t="n">
-        <v>1414</v>
+        <v>1126</v>
       </c>
       <c r="AH166" t="n">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="AI166" t="n">
-        <v>13571</v>
+        <v>13291</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1498</v>
+        <v>2395</v>
       </c>
       <c r="AK166" t="n">
-        <v>43025</v>
+        <v>14989</v>
       </c>
       <c r="AL166" t="n">
         <v>5710</v>
@@ -22490,22 +22678,22 @@
         <v>1939</v>
       </c>
       <c r="AF167" t="n">
-        <v>2287</v>
+        <v>1653</v>
       </c>
       <c r="AG167" t="n">
-        <v>1470</v>
+        <v>1278</v>
       </c>
       <c r="AH167" t="n">
-        <v>817</v>
+        <v>957</v>
       </c>
       <c r="AI167" t="n">
-        <v>14660</v>
+        <v>11542</v>
       </c>
       <c r="AJ167" t="n">
-        <v>1603</v>
+        <v>2776</v>
       </c>
       <c r="AK167" t="n">
-        <v>40548</v>
+        <v>15358</v>
       </c>
       <c r="AL167" t="n">
         <v>5633</v>
@@ -22667,22 +22855,22 @@
         <v>2015</v>
       </c>
       <c r="AF168" t="n">
-        <v>2326</v>
+        <v>1812</v>
       </c>
       <c r="AG168" t="n">
-        <v>1465</v>
+        <v>1209</v>
       </c>
       <c r="AH168" t="n">
-        <v>861</v>
+        <v>970</v>
       </c>
       <c r="AI168" t="n">
-        <v>14525</v>
+        <v>13354</v>
       </c>
       <c r="AJ168" t="n">
-        <v>1626</v>
+        <v>2638</v>
       </c>
       <c r="AK168" t="n">
-        <v>36840</v>
+        <v>17191</v>
       </c>
       <c r="AL168" t="n">
         <v>5289</v>
@@ -22844,22 +23032,22 @@
         <v>2141</v>
       </c>
       <c r="AF169" t="n">
-        <v>2518</v>
+        <v>1805</v>
       </c>
       <c r="AG169" t="n">
-        <v>1623</v>
+        <v>1494</v>
       </c>
       <c r="AH169" t="n">
-        <v>895</v>
+        <v>1044</v>
       </c>
       <c r="AI169" t="n">
-        <v>14993</v>
+        <v>11792</v>
       </c>
       <c r="AJ169" t="n">
-        <v>1675</v>
+        <v>2481</v>
       </c>
       <c r="AK169" t="n">
-        <v>39851</v>
+        <v>15636</v>
       </c>
       <c r="AL169" t="n">
         <v>5529</v>
@@ -23021,22 +23209,22 @@
         <v>2242</v>
       </c>
       <c r="AF170" t="n">
-        <v>2793</v>
+        <v>2071</v>
       </c>
       <c r="AG170" t="n">
-        <v>1829</v>
+        <v>1612</v>
       </c>
       <c r="AH170" t="n">
-        <v>964</v>
+        <v>1099</v>
       </c>
       <c r="AI170" t="n">
-        <v>13815</v>
+        <v>12273</v>
       </c>
       <c r="AJ170" t="n">
-        <v>1473</v>
+        <v>2537</v>
       </c>
       <c r="AK170" t="n">
-        <v>42379</v>
+        <v>17830</v>
       </c>
       <c r="AL170" t="n">
         <v>5782</v>
@@ -23198,22 +23386,22 @@
         <v>2290</v>
       </c>
       <c r="AF171" t="n">
-        <v>2947</v>
+        <v>2372</v>
       </c>
       <c r="AG171" t="n">
-        <v>1937</v>
+        <v>1656</v>
       </c>
       <c r="AH171" t="n">
-        <v>1010</v>
+        <v>1152</v>
       </c>
       <c r="AI171" t="n">
-        <v>13472</v>
+        <v>12102</v>
       </c>
       <c r="AJ171" t="n">
-        <v>1453</v>
+        <v>2413</v>
       </c>
       <c r="AK171" t="n">
-        <v>44041</v>
+        <v>16941</v>
       </c>
       <c r="AL171" t="n">
         <v>5856</v>
@@ -23375,22 +23563,22 @@
         <v>2373</v>
       </c>
       <c r="AF172" t="n">
-        <v>3148</v>
+        <v>2220</v>
       </c>
       <c r="AG172" t="n">
-        <v>2060</v>
+        <v>1618</v>
       </c>
       <c r="AH172" t="n">
-        <v>1088</v>
+        <v>1245</v>
       </c>
       <c r="AI172" t="n">
-        <v>13591</v>
+        <v>12213</v>
       </c>
       <c r="AJ172" t="n">
-        <v>1443</v>
+        <v>2411</v>
       </c>
       <c r="AK172" t="n">
-        <v>46232</v>
+        <v>17648</v>
       </c>
       <c r="AL172" t="n">
         <v>5841</v>
@@ -23552,22 +23740,22 @@
         <v>2437</v>
       </c>
       <c r="AF173" t="n">
-        <v>3247</v>
+        <v>2408</v>
       </c>
       <c r="AG173" t="n">
-        <v>2134</v>
+        <v>1374</v>
       </c>
       <c r="AH173" t="n">
-        <v>1113</v>
+        <v>1154</v>
       </c>
       <c r="AI173" t="n">
-        <v>13701</v>
+        <v>12085</v>
       </c>
       <c r="AJ173" t="n">
-        <v>1449</v>
+        <v>2716</v>
       </c>
       <c r="AK173" t="n">
-        <v>44293</v>
+        <v>18195</v>
       </c>
       <c r="AL173" t="n">
         <v>5807</v>
@@ -23729,22 +23917,22 @@
         <v>2454</v>
       </c>
       <c r="AF174" t="n">
-        <v>3409</v>
+        <v>2361</v>
       </c>
       <c r="AG174" t="n">
-        <v>2266</v>
+        <v>1735</v>
       </c>
       <c r="AH174" t="n">
-        <v>1143</v>
+        <v>1193</v>
       </c>
       <c r="AI174" t="n">
-        <v>14316</v>
+        <v>11995</v>
       </c>
       <c r="AJ174" t="n">
-        <v>1493</v>
+        <v>2748</v>
       </c>
       <c r="AK174" t="n">
-        <v>42815</v>
+        <v>14326</v>
       </c>
       <c r="AL174" t="n">
         <v>5701</v>
@@ -23906,22 +24094,22 @@
         <v>2481</v>
       </c>
       <c r="AF175" t="n">
-        <v>3711</v>
+        <v>2358</v>
       </c>
       <c r="AG175" t="n">
-        <v>2491</v>
+        <v>1653</v>
       </c>
       <c r="AH175" t="n">
-        <v>1220</v>
+        <v>1103</v>
       </c>
       <c r="AI175" t="n">
-        <v>14697</v>
+        <v>13009</v>
       </c>
       <c r="AJ175" t="n">
-        <v>1517</v>
+        <v>2442</v>
       </c>
       <c r="AK175" t="n">
-        <v>40607</v>
+        <v>14832</v>
       </c>
       <c r="AL175" t="n">
         <v>5712</v>
@@ -24083,22 +24271,22 @@
         <v>2501</v>
       </c>
       <c r="AF176" t="n">
-        <v>4092</v>
+        <v>2336</v>
       </c>
       <c r="AG176" t="n">
-        <v>2767</v>
+        <v>1700</v>
       </c>
       <c r="AH176" t="n">
-        <v>1325</v>
+        <v>1279</v>
       </c>
       <c r="AI176" t="n">
-        <v>14260</v>
+        <v>12454</v>
       </c>
       <c r="AJ176" t="n">
-        <v>1483</v>
+        <v>2760</v>
       </c>
       <c r="AK176" t="n">
-        <v>40382</v>
+        <v>14540</v>
       </c>
       <c r="AL176" t="n">
         <v>5762</v>
@@ -24260,22 +24448,22 @@
         <v>2557</v>
       </c>
       <c r="AF177" t="n">
-        <v>4389</v>
+        <v>2762</v>
       </c>
       <c r="AG177" t="n">
-        <v>2990</v>
+        <v>1848</v>
       </c>
       <c r="AH177" t="n">
-        <v>1399</v>
+        <v>1144</v>
       </c>
       <c r="AI177" t="n">
-        <v>12951</v>
+        <v>12303</v>
       </c>
       <c r="AJ177" t="n">
-        <v>1320</v>
+        <v>2226</v>
       </c>
       <c r="AK177" t="n">
-        <v>43756</v>
+        <v>17380</v>
       </c>
       <c r="AL177" t="n">
         <v>5968</v>
@@ -24437,22 +24625,22 @@
         <v>2629</v>
       </c>
       <c r="AF178" t="n">
-        <v>4739</v>
+        <v>2615</v>
       </c>
       <c r="AG178" t="n">
-        <v>3279</v>
+        <v>2202</v>
       </c>
       <c r="AH178" t="n">
-        <v>1460</v>
+        <v>1358</v>
       </c>
       <c r="AI178" t="n">
-        <v>12597</v>
+        <v>13664</v>
       </c>
       <c r="AJ178" t="n">
-        <v>1322</v>
+        <v>2419</v>
       </c>
       <c r="AK178" t="n">
-        <v>45208</v>
+        <v>17819</v>
       </c>
       <c r="AL178" t="n">
         <v>6051</v>
@@ -24614,22 +24802,22 @@
         <v>2684</v>
       </c>
       <c r="AF179" t="n">
-        <v>5102</v>
+        <v>3150</v>
       </c>
       <c r="AG179" t="n">
-        <v>3516</v>
+        <v>1971</v>
       </c>
       <c r="AH179" t="n">
-        <v>1586</v>
+        <v>1443</v>
       </c>
       <c r="AI179" t="n">
-        <v>12398</v>
+        <v>12702</v>
       </c>
       <c r="AJ179" t="n">
-        <v>1284</v>
+        <v>2572</v>
       </c>
       <c r="AK179" t="n">
-        <v>45535</v>
+        <v>19436</v>
       </c>
       <c r="AL179" t="n">
         <v>6150</v>
@@ -24791,22 +24979,22 @@
         <v>2705</v>
       </c>
       <c r="AF180" t="n">
-        <v>5523</v>
+        <v>2918</v>
       </c>
       <c r="AG180" t="n">
-        <v>3796</v>
+        <v>2038</v>
       </c>
       <c r="AH180" t="n">
-        <v>1727</v>
+        <v>1396</v>
       </c>
       <c r="AI180" t="n">
-        <v>12893</v>
+        <v>14063</v>
       </c>
       <c r="AJ180" t="n">
-        <v>1333</v>
+        <v>1962</v>
       </c>
       <c r="AK180" t="n">
-        <v>45318</v>
+        <v>19836</v>
       </c>
       <c r="AL180" t="n">
         <v>6165</v>
@@ -24968,22 +25156,22 @@
         <v>2707</v>
       </c>
       <c r="AF181" t="n">
-        <v>5497</v>
+        <v>3184</v>
       </c>
       <c r="AG181" t="n">
-        <v>3813</v>
+        <v>2172</v>
       </c>
       <c r="AH181" t="n">
-        <v>1684</v>
+        <v>1484</v>
       </c>
       <c r="AI181" t="n">
-        <v>12751</v>
+        <v>12438</v>
       </c>
       <c r="AJ181" t="n">
-        <v>1355</v>
+        <v>2154</v>
       </c>
       <c r="AK181" t="n">
-        <v>41950</v>
+        <v>16804</v>
       </c>
       <c r="AL181" t="n">
         <v>5999</v>
@@ -25145,22 +25333,22 @@
         <v>2723</v>
       </c>
       <c r="AF182" t="n">
-        <v>5913</v>
+        <v>2711</v>
       </c>
       <c r="AG182" t="n">
-        <v>4085</v>
+        <v>2406</v>
       </c>
       <c r="AH182" t="n">
-        <v>1828</v>
+        <v>1663</v>
       </c>
       <c r="AI182" t="n">
-        <v>13825</v>
+        <v>11778</v>
       </c>
       <c r="AJ182" t="n">
-        <v>1411</v>
+        <v>1987</v>
       </c>
       <c r="AK182" t="n">
-        <v>40419</v>
+        <v>17315</v>
       </c>
       <c r="AL182" t="n">
         <v>5931</v>
@@ -25322,22 +25510,22 @@
         <v>2759</v>
       </c>
       <c r="AF183" t="n">
-        <v>6533</v>
+        <v>3540</v>
       </c>
       <c r="AG183" t="n">
-        <v>4639</v>
+        <v>2251</v>
       </c>
       <c r="AH183" t="n">
-        <v>1894</v>
+        <v>1617</v>
       </c>
       <c r="AI183" t="n">
-        <v>13711</v>
+        <v>12688</v>
       </c>
       <c r="AJ183" t="n">
-        <v>1405</v>
+        <v>1987</v>
       </c>
       <c r="AK183" t="n">
-        <v>41555</v>
+        <v>17400</v>
       </c>
       <c r="AL183" t="n">
         <v>5921</v>
@@ -25499,22 +25687,22 @@
         <v>2824</v>
       </c>
       <c r="AF184" t="n">
-        <v>6904</v>
+        <v>3502</v>
       </c>
       <c r="AG184" t="n">
-        <v>4911</v>
+        <v>2892</v>
       </c>
       <c r="AH184" t="n">
-        <v>1993</v>
+        <v>1663</v>
       </c>
       <c r="AI184" t="n">
-        <v>12894</v>
+        <v>13517</v>
       </c>
       <c r="AJ184" t="n">
-        <v>1322</v>
+        <v>2928</v>
       </c>
       <c r="AK184" t="n">
-        <v>44333</v>
+        <v>17348</v>
       </c>
       <c r="AL184" t="n">
         <v>6017</v>
@@ -25678,22 +25866,22 @@
         <v>2847</v>
       </c>
       <c r="AF185" t="n">
-        <v>7382</v>
+        <v>3586</v>
       </c>
       <c r="AG185" t="n">
-        <v>5227</v>
+        <v>2776</v>
       </c>
       <c r="AH185" t="n">
-        <v>2155</v>
+        <v>1887</v>
       </c>
       <c r="AI185" t="n">
-        <v>11983</v>
+        <v>14349</v>
       </c>
       <c r="AJ185" t="n">
-        <v>1181</v>
+        <v>2509</v>
       </c>
       <c r="AK185" t="n">
-        <v>45687</v>
+        <v>19376</v>
       </c>
       <c r="AL185" t="n">
         <v>6147</v>
@@ -25857,22 +26045,22 @@
         <v>2880</v>
       </c>
       <c r="AF186" t="n">
-        <v>7652</v>
+        <v>4149</v>
       </c>
       <c r="AG186" t="n">
-        <v>5421</v>
+        <v>3041</v>
       </c>
       <c r="AH186" t="n">
-        <v>2231</v>
+        <v>1507</v>
       </c>
       <c r="AI186" t="n">
-        <v>12134</v>
+        <v>14997</v>
       </c>
       <c r="AJ186" t="n">
-        <v>1161</v>
+        <v>2218</v>
       </c>
       <c r="AK186" t="n">
-        <v>45619</v>
+        <v>21629</v>
       </c>
       <c r="AL186" t="n">
         <v>6045</v>
@@ -26036,22 +26224,22 @@
         <v>2939</v>
       </c>
       <c r="AF187" t="n">
-        <v>7890</v>
+        <v>4232</v>
       </c>
       <c r="AG187" t="n">
-        <v>5552</v>
+        <v>2609</v>
       </c>
       <c r="AH187" t="n">
-        <v>2338</v>
+        <v>1720</v>
       </c>
       <c r="AI187" t="n">
-        <v>12907</v>
+        <v>13500</v>
       </c>
       <c r="AJ187" t="n">
-        <v>1270</v>
+        <v>2113</v>
       </c>
       <c r="AK187" t="n">
-        <v>44252</v>
+        <v>21006</v>
       </c>
       <c r="AL187" t="n">
         <v>5952</v>
@@ -26215,22 +26403,22 @@
         <v>2975</v>
       </c>
       <c r="AF188" t="n">
-        <v>8181</v>
+        <v>3829</v>
       </c>
       <c r="AG188" t="n">
-        <v>5732</v>
+        <v>2944</v>
       </c>
       <c r="AH188" t="n">
-        <v>2449</v>
+        <v>1841</v>
       </c>
       <c r="AI188" t="n">
-        <v>13307</v>
+        <v>13479</v>
       </c>
       <c r="AJ188" t="n">
-        <v>1203</v>
+        <v>2072</v>
       </c>
       <c r="AK188" t="n">
-        <v>42564</v>
+        <v>19046</v>
       </c>
       <c r="AL188" t="n">
         <v>5946</v>
@@ -26394,22 +26582,22 @@
         <v>2993</v>
       </c>
       <c r="AF189" t="n">
-        <v>8698</v>
+        <v>4198</v>
       </c>
       <c r="AG189" t="n">
-        <v>6181</v>
+        <v>2864</v>
       </c>
       <c r="AH189" t="n">
-        <v>2517</v>
+        <v>2030</v>
       </c>
       <c r="AI189" t="n">
-        <v>12852</v>
+        <v>11538</v>
       </c>
       <c r="AJ189" t="n">
-        <v>1226</v>
+        <v>3000</v>
       </c>
       <c r="AK189" t="n">
-        <v>40828</v>
+        <v>17379</v>
       </c>
       <c r="AL189" t="n">
         <v>5913</v>
@@ -26573,22 +26761,22 @@
         <v>3034</v>
       </c>
       <c r="AF190" t="n">
-        <v>9286</v>
+        <v>4462</v>
       </c>
       <c r="AG190" t="n">
-        <v>6628</v>
+        <v>3686</v>
       </c>
       <c r="AH190" t="n">
-        <v>2658</v>
+        <v>2045</v>
       </c>
       <c r="AI190" t="n">
-        <v>12925</v>
+        <v>12326</v>
       </c>
       <c r="AJ190" t="n">
-        <v>1148</v>
+        <v>2241</v>
       </c>
       <c r="AK190" t="n">
-        <v>41819</v>
+        <v>19026</v>
       </c>
       <c r="AL190" t="n">
         <v>6087</v>
@@ -26752,22 +26940,22 @@
         <v>3055</v>
       </c>
       <c r="AF191" t="n">
-        <v>9610</v>
+        <v>4333</v>
       </c>
       <c r="AG191" t="n">
-        <v>6880</v>
+        <v>3286</v>
       </c>
       <c r="AH191" t="n">
-        <v>2730</v>
+        <v>2232</v>
       </c>
       <c r="AI191" t="n">
-        <v>11575</v>
+        <v>13315</v>
       </c>
       <c r="AJ191" t="n">
-        <v>1017</v>
+        <v>3357</v>
       </c>
       <c r="AK191" t="n">
-        <v>45016</v>
+        <v>16431</v>
       </c>
       <c r="AL191" t="n">
         <v>6322</v>
@@ -26931,22 +27119,22 @@
         <v>3106</v>
       </c>
       <c r="AF192" t="n">
-        <v>9689</v>
+        <v>4953</v>
       </c>
       <c r="AG192" t="n">
-        <v>6811</v>
+        <v>3820</v>
       </c>
       <c r="AH192" t="n">
-        <v>2878</v>
+        <v>2260</v>
       </c>
       <c r="AI192" t="n">
-        <v>11296</v>
+        <v>13132</v>
       </c>
       <c r="AJ192" t="n">
-        <v>953</v>
+        <v>2665</v>
       </c>
       <c r="AK192" t="n">
-        <v>46706</v>
+        <v>19688</v>
       </c>
       <c r="AL192" t="n">
         <v>6478</v>
@@ -27110,22 +27298,22 @@
         <v>3146</v>
       </c>
       <c r="AF193" t="n">
-        <v>10002</v>
+        <v>5308</v>
       </c>
       <c r="AG193" t="n">
-        <v>7079</v>
+        <v>3898</v>
       </c>
       <c r="AH193" t="n">
-        <v>2923</v>
+        <v>2489</v>
       </c>
       <c r="AI193" t="n">
-        <v>10698</v>
+        <v>12857</v>
       </c>
       <c r="AJ193" t="n">
-        <v>940</v>
+        <v>2703</v>
       </c>
       <c r="AK193" t="n">
-        <v>46943</v>
+        <v>22552</v>
       </c>
       <c r="AL193" t="n">
         <v>6379</v>
@@ -27289,22 +27477,22 @@
         <v>3190</v>
       </c>
       <c r="AF194" t="n">
-        <v>10083</v>
+        <v>4490</v>
       </c>
       <c r="AG194" t="n">
-        <v>7170</v>
+        <v>3972</v>
       </c>
       <c r="AH194" t="n">
-        <v>2913</v>
+        <v>2512</v>
       </c>
       <c r="AI194" t="n">
-        <v>11188</v>
+        <v>13228</v>
       </c>
       <c r="AJ194" t="n">
-        <v>930</v>
+        <v>2662</v>
       </c>
       <c r="AK194" t="n">
-        <v>46338</v>
+        <v>19705</v>
       </c>
       <c r="AL194" t="n">
         <v>6353</v>
@@ -27468,22 +27656,22 @@
         <v>3212</v>
       </c>
       <c r="AF195" t="n">
-        <v>10410</v>
+        <v>5408</v>
       </c>
       <c r="AG195" t="n">
-        <v>7415</v>
+        <v>4269</v>
       </c>
       <c r="AH195" t="n">
-        <v>2995</v>
+        <v>2507</v>
       </c>
       <c r="AI195" t="n">
-        <v>11726</v>
+        <v>14798</v>
       </c>
       <c r="AJ195" t="n">
-        <v>977</v>
+        <v>2779</v>
       </c>
       <c r="AK195" t="n">
-        <v>45740</v>
+        <v>21533</v>
       </c>
       <c r="AL195" t="n">
         <v>6405</v>
@@ -27647,22 +27835,22 @@
         <v>3300</v>
       </c>
       <c r="AF196" t="n">
-        <v>10405</v>
+        <v>6211</v>
       </c>
       <c r="AG196" t="n">
-        <v>7352</v>
+        <v>3936</v>
       </c>
       <c r="AH196" t="n">
-        <v>3053</v>
+        <v>2479</v>
       </c>
       <c r="AI196" t="n">
-        <v>12066</v>
+        <v>11446</v>
       </c>
       <c r="AJ196" t="n">
-        <v>984</v>
+        <v>2464</v>
       </c>
       <c r="AK196" t="n">
-        <v>43566</v>
+        <v>18883</v>
       </c>
       <c r="AL196" t="n">
         <v>6370</v>
@@ -27826,22 +28014,22 @@
         <v>3371</v>
       </c>
       <c r="AF197" t="n">
-        <v>10569</v>
+        <v>6117</v>
       </c>
       <c r="AG197" t="n">
-        <v>7425</v>
+        <v>4205</v>
       </c>
       <c r="AH197" t="n">
-        <v>3144</v>
+        <v>2824</v>
       </c>
       <c r="AI197" t="n">
-        <v>11402</v>
+        <v>13043</v>
       </c>
       <c r="AJ197" t="n">
-        <v>949</v>
+        <v>2790</v>
       </c>
       <c r="AK197" t="n">
-        <v>43615</v>
+        <v>21427</v>
       </c>
       <c r="AL197" t="n">
         <v>6334</v>
@@ -28005,22 +28193,22 @@
         <v>3487</v>
       </c>
       <c r="AF198" t="n">
-        <v>10471</v>
+        <v>4810</v>
       </c>
       <c r="AG198" t="n">
-        <v>7367</v>
+        <v>5156</v>
       </c>
       <c r="AH198" t="n">
-        <v>3104</v>
+        <v>2822</v>
       </c>
       <c r="AI198" t="n">
-        <v>10586</v>
+        <v>12895</v>
       </c>
       <c r="AJ198" t="n">
-        <v>853</v>
+        <v>3007</v>
       </c>
       <c r="AK198" t="n">
-        <v>45585</v>
+        <v>20688</v>
       </c>
       <c r="AL198" t="n">
         <v>6583</v>
@@ -28148,22 +28336,22 @@
         <v>3498</v>
       </c>
       <c r="AF199" t="n">
-        <v>10457</v>
+        <v>5520</v>
       </c>
       <c r="AG199" t="n">
-        <v>7288</v>
+        <v>4954</v>
       </c>
       <c r="AH199" t="n">
-        <v>3169</v>
+        <v>2664</v>
       </c>
       <c r="AI199" t="n">
-        <v>10759</v>
+        <v>12965</v>
       </c>
       <c r="AJ199" t="n">
-        <v>865</v>
+        <v>2784</v>
       </c>
       <c r="AK199" t="n">
-        <v>46389</v>
+        <v>20552</v>
       </c>
       <c r="AL199" t="n">
         <v>6666</v>
@@ -28291,22 +28479,22 @@
         <v>3535</v>
       </c>
       <c r="AF200" t="n">
-        <v>10632</v>
+        <v>4881</v>
       </c>
       <c r="AG200" t="n">
-        <v>7416</v>
+        <v>4869</v>
       </c>
       <c r="AH200" t="n">
-        <v>3216</v>
+        <v>2783</v>
       </c>
       <c r="AI200" t="n">
-        <v>10479</v>
+        <v>12995</v>
       </c>
       <c r="AJ200" t="n">
-        <v>896</v>
+        <v>3024</v>
       </c>
       <c r="AK200" t="n">
-        <v>46216</v>
+        <v>19201</v>
       </c>
       <c r="AL200" t="n">
         <v>6693</v>
@@ -28434,22 +28622,22 @@
         <v>3731</v>
       </c>
       <c r="AF201" t="n">
-        <v>10658</v>
+        <v>5642</v>
       </c>
       <c r="AG201" t="n">
-        <v>7395</v>
+        <v>4622</v>
       </c>
       <c r="AH201" t="n">
-        <v>3263</v>
+        <v>2402</v>
       </c>
       <c r="AI201" t="n">
-        <v>10831</v>
+        <v>12759</v>
       </c>
       <c r="AJ201" t="n">
-        <v>966</v>
+        <v>2074</v>
       </c>
       <c r="AK201" t="n">
-        <v>46495</v>
+        <v>19134</v>
       </c>
       <c r="AL201" t="n">
         <v>6658</v>
@@ -28577,22 +28765,22 @@
         <v>3746</v>
       </c>
       <c r="AF202" t="n">
-        <v>10592</v>
+        <v>5776</v>
       </c>
       <c r="AG202" t="n">
-        <v>7180</v>
+        <v>4350</v>
       </c>
       <c r="AH202" t="n">
-        <v>3412</v>
+        <v>2699</v>
       </c>
       <c r="AI202" t="n">
-        <v>11072</v>
+        <v>14318</v>
       </c>
       <c r="AJ202" t="n">
-        <v>943</v>
+        <v>2436</v>
       </c>
       <c r="AK202" t="n">
-        <v>44709</v>
+        <v>21542</v>
       </c>
       <c r="AL202" t="n">
         <v>6661</v>
@@ -28720,22 +28908,22 @@
         <v>3781</v>
       </c>
       <c r="AF203" t="n">
-        <v>10569</v>
+        <v>6087</v>
       </c>
       <c r="AG203" t="n">
-        <v>7372</v>
+        <v>4991</v>
       </c>
       <c r="AH203" t="n">
-        <v>3197</v>
+        <v>2888</v>
       </c>
       <c r="AI203" t="n">
-        <v>11167</v>
+        <v>14047</v>
       </c>
       <c r="AJ203" t="n">
-        <v>1004</v>
+        <v>1599</v>
       </c>
       <c r="AK203" t="n">
-        <v>43479</v>
+        <v>20093</v>
       </c>
       <c r="AL203" t="n">
         <v>6633</v>
@@ -28847,22 +29035,22 @@
       <c r="AD204"/>
       <c r="AE204"/>
       <c r="AF204" t="n">
-        <v>10848</v>
+        <v>6068</v>
       </c>
       <c r="AG204" t="n">
-        <v>7567</v>
+        <v>4701</v>
       </c>
       <c r="AH204" t="n">
-        <v>3281</v>
+        <v>2811</v>
       </c>
       <c r="AI204" t="n">
-        <v>11461</v>
+        <v>13990</v>
       </c>
       <c r="AJ204" t="n">
-        <v>1088</v>
+        <v>2991</v>
       </c>
       <c r="AK204" t="n">
-        <v>43802</v>
+        <v>21265</v>
       </c>
       <c r="AL204" t="n">
         <v>6654</v>
@@ -28990,22 +29178,22 @@
         <v>3987</v>
       </c>
       <c r="AF205" t="n">
-        <v>10893</v>
+        <v>6149</v>
       </c>
       <c r="AG205" t="n">
-        <v>7564</v>
+        <v>5074</v>
       </c>
       <c r="AH205" t="n">
-        <v>3329</v>
+        <v>2704</v>
       </c>
       <c r="AI205" t="n">
-        <v>10520</v>
+        <v>12615</v>
       </c>
       <c r="AJ205" t="n">
-        <v>1031</v>
+        <v>2898</v>
       </c>
       <c r="AK205" t="n">
-        <v>45635</v>
+        <v>18985</v>
       </c>
       <c r="AL205" t="n">
         <v>6794</v>
@@ -29139,22 +29327,22 @@
         <v>4440</v>
       </c>
       <c r="AF206" t="n">
-        <v>8858</v>
+        <v>5578</v>
       </c>
       <c r="AG206" t="n">
-        <v>5698</v>
+        <v>4389</v>
       </c>
       <c r="AH206" t="n">
-        <v>3160</v>
+        <v>2833</v>
       </c>
       <c r="AI206" t="n">
-        <v>13476</v>
+        <v>11302</v>
       </c>
       <c r="AJ206" t="n">
-        <v>1267</v>
+        <v>4504</v>
       </c>
       <c r="AK206" t="n">
-        <v>36109</v>
+        <v>18371</v>
       </c>
       <c r="AL206" t="n">
         <v>3758</v>
@@ -29270,22 +29458,22 @@
         <v>4677</v>
       </c>
       <c r="AF207" t="n">
-        <v>10036</v>
+        <v>6819</v>
       </c>
       <c r="AG207" t="n">
-        <v>6808</v>
+        <v>5005</v>
       </c>
       <c r="AH207" t="n">
-        <v>3228</v>
+        <v>3203</v>
       </c>
       <c r="AI207" t="n">
-        <v>14441</v>
+        <v>15606</v>
       </c>
       <c r="AJ207" t="n">
-        <v>1396</v>
+        <v>3505</v>
       </c>
       <c r="AK207" t="n">
-        <v>44728</v>
+        <v>21375</v>
       </c>
       <c r="AL207" t="n">
         <v>6552</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">212216.2</t>
+    <t xml:space="preserve">221510</t>
   </si>
 </sst>
 </file>
@@ -29392,16 +29392,16 @@
         <v>196</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>2609056</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>34680</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>159953</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>2608</v>
       </c>
       <c r="J207" t="e">
         <v>#NUM!</v>
@@ -29421,15 +29421,27 @@
       <c r="O207" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P207"/>
-      <c r="Q207"/>
+      <c r="P207" t="n">
+        <v>3306042</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>233410</v>
+      </c>
       <c r="R207" t="n">
         <v>3539452</v>
       </c>
-      <c r="S207"/>
-      <c r="T207"/>
-      <c r="U207"/>
-      <c r="V207"/>
+      <c r="S207" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="T207" t="n">
+        <v>66194</v>
+      </c>
+      <c r="U207" t="n">
+        <v>1211</v>
+      </c>
+      <c r="V207" t="n">
+        <v>67405</v>
+      </c>
       <c r="W207" t="n">
         <v>10036</v>
       </c>
@@ -29479,7 +29491,7 @@
         <v>6552</v>
       </c>
       <c r="AM207" t="n">
-        <v>4246</v>
+        <v>5578</v>
       </c>
       <c r="AN207"/>
       <c r="AO207"/>
@@ -29507,44 +29519,108 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1"/>
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
-      <c r="K208"/>
-      <c r="L208"/>
-      <c r="M208"/>
-      <c r="N208"/>
-      <c r="O208"/>
+      <c r="A208" s="1" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B208" t="n">
+        <v>375846</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6020</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4885</v>
+      </c>
+      <c r="E208" t="n">
+        <v>168</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K208" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L208" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M208" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N208" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O208" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="P208"/>
       <c r="Q208"/>
-      <c r="R208"/>
+      <c r="R208" t="n">
+        <v>3604509</v>
+      </c>
       <c r="S208"/>
       <c r="T208"/>
       <c r="U208"/>
       <c r="V208"/>
-      <c r="W208"/>
-      <c r="X208"/>
-      <c r="Y208"/>
-      <c r="Z208"/>
-      <c r="AA208"/>
-      <c r="AB208"/>
-      <c r="AC208"/>
-      <c r="AD208"/>
-      <c r="AE208"/>
-      <c r="AF208"/>
-      <c r="AG208"/>
-      <c r="AH208"/>
-      <c r="AI208"/>
-      <c r="AJ208"/>
-      <c r="AK208"/>
-      <c r="AL208"/>
+      <c r="W208" t="n">
+        <v>9827</v>
+      </c>
+      <c r="X208" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1651</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>247</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>571</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>925</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>13953</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>1824</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>5011</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>6619</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>5275</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>3466</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>16760</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>3750</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>22689</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>6932</v>
+      </c>
       <c r="AM208"/>
       <c r="AN208"/>
       <c r="AO208"/>
@@ -29571,6 +29647,71 @@
         <v>29677668</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209"/>
+      <c r="R209"/>
+      <c r="S209"/>
+      <c r="T209"/>
+      <c r="U209"/>
+      <c r="V209"/>
+      <c r="W209"/>
+      <c r="X209"/>
+      <c r="Y209"/>
+      <c r="Z209"/>
+      <c r="AA209"/>
+      <c r="AB209"/>
+      <c r="AC209"/>
+      <c r="AD209"/>
+      <c r="AE209"/>
+      <c r="AF209"/>
+      <c r="AG209"/>
+      <c r="AH209"/>
+      <c r="AI209"/>
+      <c r="AJ209"/>
+      <c r="AK209"/>
+      <c r="AL209"/>
+      <c r="AM209"/>
+      <c r="AN209"/>
+      <c r="AO209"/>
+      <c r="AP209"/>
+      <c r="AQ209"/>
+      <c r="AR209"/>
+      <c r="AS209"/>
+      <c r="AT209"/>
+      <c r="AU209"/>
+      <c r="AV209"/>
+      <c r="AW209"/>
+      <c r="AX209"/>
+      <c r="AY209"/>
+      <c r="AZ209"/>
+      <c r="BA209"/>
+      <c r="BB209"/>
+      <c r="BC209"/>
+      <c r="BD209"/>
+      <c r="BE209"/>
+      <c r="BF209"/>
+      <c r="BG209"/>
+      <c r="BH209"/>
+      <c r="BI209" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -29625,34 +29766,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>152893</v>
+        <v>149451</v>
       </c>
       <c r="C2" t="n">
-        <v>116377</v>
+        <v>116546</v>
       </c>
       <c r="D2" t="n">
-        <v>3423075</v>
+        <v>3487963</v>
       </c>
       <c r="E2" t="n">
-        <v>10565</v>
+        <v>10595</v>
       </c>
       <c r="F2" t="n">
-        <v>61398</v>
+        <v>64365</v>
       </c>
       <c r="G2" t="n">
-        <v>14441</v>
+        <v>13837</v>
       </c>
       <c r="H2" t="n">
-        <v>1396</v>
+        <v>1261</v>
       </c>
       <c r="I2" t="n">
-        <v>4246</v>
+        <v>5578</v>
       </c>
       <c r="J2" t="n">
-        <v>31048</v>
+        <v>31832</v>
       </c>
       <c r="K2" t="n">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">221510</t>
+    <t xml:space="preserve">229107.20000000001</t>
   </si>
 </sst>
 </file>
@@ -20515,7 +20515,7 @@
         <v>1117274</v>
       </c>
       <c r="S155" t="n">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T155" t="n">
         <v>21585</v>
@@ -20692,7 +20692,7 @@
         <v>1150868</v>
       </c>
       <c r="S156" t="n">
-        <v>0.0626</v>
+        <v>0.06259941815807</v>
       </c>
       <c r="T156" t="n">
         <v>23620</v>
@@ -20869,7 +20869,7 @@
         <v>1174948</v>
       </c>
       <c r="S157" t="n">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T157" t="n">
         <v>24043</v>
@@ -21046,7 +21046,7 @@
         <v>1209187</v>
       </c>
       <c r="S158" t="n">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T158" t="n">
         <v>23537</v>
@@ -21223,7 +21223,7 @@
         <v>1218955</v>
       </c>
       <c r="S159" t="n">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T159" t="n">
         <v>20021</v>
@@ -21577,7 +21577,7 @@
         <v>1286139</v>
       </c>
       <c r="S161" t="n">
-        <v>0.0666</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T161" t="n">
         <v>23019</v>
@@ -21754,7 +21754,7 @@
         <v>1302049</v>
       </c>
       <c r="S162" t="n">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T162" t="n">
         <v>22046</v>
@@ -21931,7 +21931,7 @@
         <v>1348893</v>
       </c>
       <c r="S163" t="n">
-        <v>0.0685</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T163" t="n">
         <v>23966</v>
@@ -22108,7 +22108,7 @@
         <v>1370131</v>
       </c>
       <c r="S164" t="n">
-        <v>0.0705</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T164" t="n">
         <v>23626</v>
@@ -22285,7 +22285,7 @@
         <v>1404369</v>
       </c>
       <c r="S165" t="n">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T165" t="n">
         <v>23863</v>
@@ -22462,7 +22462,7 @@
         <v>1442950</v>
       </c>
       <c r="S166" t="n">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T166" t="n">
         <v>29139</v>
@@ -22816,7 +22816,7 @@
         <v>1499015</v>
       </c>
       <c r="S168" t="n">
-        <v>0.0671</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T168" t="n">
         <v>28727</v>
@@ -22993,7 +22993,7 @@
         <v>1522434</v>
       </c>
       <c r="S169" t="n">
-        <v>0.0694</v>
+        <v>0.06941707304209</v>
       </c>
       <c r="T169" t="n">
         <v>29793</v>
@@ -23170,7 +23170,7 @@
         <v>1560537</v>
       </c>
       <c r="S170" t="n">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T170" t="n">
         <v>28774</v>
@@ -23524,7 +23524,7 @@
         <v>1622851</v>
       </c>
       <c r="S172" t="n">
-        <v>0.0894</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T172" t="n">
         <v>29011</v>
@@ -23701,7 +23701,7 @@
         <v>1690124</v>
       </c>
       <c r="S173" t="n">
-        <v>0.088</v>
+        <v>0.08795944343323</v>
       </c>
       <c r="T173" t="n">
         <v>32885</v>
@@ -24055,7 +24055,7 @@
         <v>1767701</v>
       </c>
       <c r="S175" t="n">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T175" t="n">
         <v>35550</v>
@@ -24232,7 +24232,7 @@
         <v>1805642</v>
       </c>
       <c r="S176" t="n">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T176" t="n">
         <v>37231</v>
@@ -24409,7 +24409,7 @@
         <v>1836037</v>
       </c>
       <c r="S177" t="n">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T177" t="n">
         <v>35943</v>
@@ -24586,7 +24586,7 @@
         <v>1875197</v>
       </c>
       <c r="S178" t="n">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T178" t="n">
         <v>39060</v>
@@ -24763,7 +24763,7 @@
         <v>1903661</v>
       </c>
       <c r="S179" t="n">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T179" t="n">
         <v>37061</v>
@@ -24940,7 +24940,7 @@
         <v>1959617</v>
       </c>
       <c r="S180" t="n">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T180" t="n">
         <v>35577</v>
@@ -25117,7 +25117,7 @@
         <v>2006724</v>
       </c>
       <c r="S181" t="n">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T181" t="n">
         <v>38597</v>
@@ -25294,7 +25294,7 @@
         <v>2061939</v>
       </c>
       <c r="S182" t="n">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T182" t="n">
         <v>38856</v>
@@ -25471,7 +25471,7 @@
         <v>2119036</v>
       </c>
       <c r="S183" t="n">
-        <v>0.1358</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T183" t="n">
         <v>41670</v>
@@ -25648,7 +25648,7 @@
         <v>2174548</v>
       </c>
       <c r="S184" t="n">
-        <v>0.1332</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T184" t="n">
         <v>45209</v>
@@ -25827,7 +25827,7 @@
         <v>2212947</v>
       </c>
       <c r="S185" t="n">
-        <v>0.1392</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T185" t="n">
         <v>45225</v>
@@ -26006,7 +26006,7 @@
         <v>2273591</v>
       </c>
       <c r="S186" t="n">
-        <v>0.1315</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T186" t="n">
         <v>49855</v>
@@ -26185,7 +26185,7 @@
         <v>2338098</v>
       </c>
       <c r="S187" t="n">
-        <v>0.1352</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T187" t="n">
         <v>51177</v>
@@ -26364,7 +26364,7 @@
         <v>2371709</v>
       </c>
       <c r="S188" t="n">
-        <v>0.135</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T188" t="n">
         <v>49220</v>
@@ -26543,7 +26543,7 @@
         <v>2431861</v>
       </c>
       <c r="S189" t="n">
-        <v>0.1351</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T189" t="n">
         <v>50286</v>
@@ -26722,7 +26722,7 @@
         <v>2471029</v>
       </c>
       <c r="S190" t="n">
-        <v>0.1503</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="T190" t="n">
         <v>48109</v>
@@ -26901,7 +26901,7 @@
         <v>2526940</v>
       </c>
       <c r="S191" t="n">
-        <v>0.1556</v>
+        <v>0.15560343677851</v>
       </c>
       <c r="T191" t="n">
         <v>48201</v>
@@ -27080,7 +27080,7 @@
         <v>2603903</v>
       </c>
       <c r="S192" t="n">
-        <v>0.1446</v>
+        <v>0.14464341297691</v>
       </c>
       <c r="T192" t="n">
         <v>53698</v>
@@ -27259,7 +27259,7 @@
         <v>2644496</v>
       </c>
       <c r="S193" t="n">
-        <v>0.1581</v>
+        <v>0.15812361136341</v>
       </c>
       <c r="T193" t="n">
         <v>51116</v>
@@ -27438,7 +27438,7 @@
         <v>2710290</v>
       </c>
       <c r="S194" t="n">
-        <v>0.1633</v>
+        <v>0.16329665986635</v>
       </c>
       <c r="T194" t="n">
         <v>51328</v>
@@ -27617,7 +27617,7 @@
         <v>2757859</v>
       </c>
       <c r="S195" t="n">
-        <v>0.1685</v>
+        <v>0.16849010085123</v>
       </c>
       <c r="T195" t="n">
         <v>53771</v>
@@ -27796,7 +27796,7 @@
         <v>2820803</v>
       </c>
       <c r="S196" t="n">
-        <v>0.1689</v>
+        <v>0.16893795062442</v>
       </c>
       <c r="T196" t="n">
         <v>53913</v>
@@ -27975,7 +27975,7 @@
         <v>2864541</v>
       </c>
       <c r="S197" t="n">
-        <v>0.1681</v>
+        <v>0.16812128576681</v>
       </c>
       <c r="T197" t="n">
         <v>54784</v>
@@ -28154,7 +28154,7 @@
         <v>2924288</v>
       </c>
       <c r="S198" t="n">
-        <v>0.1689</v>
+        <v>0.16885085207802</v>
       </c>
       <c r="T198" t="n">
         <v>55235</v>
@@ -28297,7 +28297,7 @@
         <v>2992102</v>
       </c>
       <c r="S199" t="n">
-        <v>0.1743</v>
+        <v>0.17427396882913</v>
       </c>
       <c r="T199" t="n">
         <v>53933</v>
@@ -28440,7 +28440,7 @@
         <v>3067620</v>
       </c>
       <c r="S200" t="n">
-        <v>0.1605</v>
+        <v>0.16047266626479</v>
       </c>
       <c r="T200" t="n">
         <v>59009</v>
@@ -28583,7 +28583,7 @@
         <v>3153623</v>
       </c>
       <c r="S201" t="n">
-        <v>0.1503</v>
+        <v>0.15034234890016</v>
       </c>
       <c r="T201" t="n">
         <v>62801</v>
@@ -28726,7 +28726,7 @@
         <v>3207857</v>
       </c>
       <c r="S202" t="n">
-        <v>0.1467</v>
+        <v>0.14669609768939</v>
       </c>
       <c r="T202" t="n">
         <v>63490</v>
@@ -28869,7 +28869,7 @@
         <v>3269897</v>
       </c>
       <c r="S203" t="n">
-        <v>0.1505</v>
+        <v>0.15047404550297</v>
       </c>
       <c r="T203" t="n">
         <v>63556</v>
@@ -29012,7 +29012,7 @@
         <v>3331844</v>
       </c>
       <c r="S204" t="n">
-        <v>0.1418</v>
+        <v>0.14180136768345</v>
       </c>
       <c r="T204" t="n">
         <v>65993</v>
@@ -29139,7 +29139,7 @@
         <v>3396677</v>
       </c>
       <c r="S205" t="n">
-        <v>0.139</v>
+        <v>0.13896915023849</v>
       </c>
       <c r="T205" t="n">
         <v>66400</v>
@@ -29288,7 +29288,7 @@
         <v>3465070</v>
       </c>
       <c r="S206" t="n">
-        <v>0.1373</v>
+        <v>0.13733884333097</v>
       </c>
       <c r="T206" t="n">
         <v>66373</v>
@@ -29431,7 +29431,7 @@
         <v>3539452</v>
       </c>
       <c r="S207" t="n">
-        <v>0.1344</v>
+        <v>0.13435428837808</v>
       </c>
       <c r="T207" t="n">
         <v>66194</v>
@@ -29535,16 +29535,16 @@
         <v>168</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>2637947</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>28891</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>161705</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="J208" t="e">
         <v>#NUM!</v>
@@ -29564,18 +29564,28 @@
       <c r="O208" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P208"/>
-      <c r="Q208"/>
+      <c r="P208" t="n">
+        <v>3369975</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>234534</v>
+      </c>
       <c r="R208" t="n">
         <v>3604509</v>
       </c>
-      <c r="S208"/>
-      <c r="T208"/>
-      <c r="U208"/>
-      <c r="V208"/>
-      <c r="W208" t="n">
-        <v>9827</v>
-      </c>
+      <c r="S208" t="n">
+        <v>0.1375833788456</v>
+      </c>
+      <c r="T208" t="n">
+        <v>62516</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1896</v>
+      </c>
+      <c r="V208" t="n">
+        <v>64412</v>
+      </c>
+      <c r="W208"/>
       <c r="X208" t="n">
         <v>470</v>
       </c>
@@ -29648,45 +29658,107 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1"/>
-      <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
-      <c r="K209"/>
-      <c r="L209"/>
-      <c r="M209"/>
-      <c r="N209"/>
-      <c r="O209"/>
+      <c r="A209" s="1" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B209" t="n">
+        <v>381656</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5810</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5038</v>
+      </c>
+      <c r="E209" t="n">
+        <v>153</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K209" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L209" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M209" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N209" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O209" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="P209"/>
       <c r="Q209"/>
-      <c r="R209"/>
+      <c r="R209" t="n">
+        <v>3664679</v>
+      </c>
       <c r="S209"/>
       <c r="T209"/>
       <c r="U209"/>
       <c r="V209"/>
       <c r="W209"/>
-      <c r="X209"/>
-      <c r="Y209"/>
-      <c r="Z209"/>
-      <c r="AA209"/>
-      <c r="AB209"/>
-      <c r="AC209"/>
-      <c r="AD209"/>
-      <c r="AE209"/>
-      <c r="AF209"/>
-      <c r="AG209"/>
-      <c r="AH209"/>
-      <c r="AI209"/>
-      <c r="AJ209"/>
-      <c r="AK209"/>
+      <c r="X209" t="n">
+        <v>474</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1673</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>253</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>576</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>931</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>14298</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>1869</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>5201</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>7429</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>4976</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>3463</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>14022</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>3460</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>21580</v>
+      </c>
       <c r="AL209"/>
-      <c r="AM209"/>
+      <c r="AM209" t="n">
+        <v>5544</v>
+      </c>
       <c r="AN209"/>
       <c r="AO209"/>
       <c r="AP209"/>
@@ -29766,34 +29838,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>149451</v>
+        <v>147511</v>
       </c>
       <c r="C2" t="n">
-        <v>116546</v>
+        <v>116595</v>
       </c>
       <c r="D2" t="n">
-        <v>3487963</v>
+        <v>3548084</v>
       </c>
       <c r="E2" t="n">
-        <v>10595</v>
+        <v>10751</v>
       </c>
       <c r="F2" t="n">
-        <v>64365</v>
+        <v>54974</v>
       </c>
       <c r="G2" t="n">
-        <v>13837</v>
+        <v>11443</v>
       </c>
       <c r="H2" t="n">
-        <v>1261</v>
+        <v>1243</v>
       </c>
       <c r="I2" t="n">
-        <v>5578</v>
+        <v>5544</v>
       </c>
       <c r="J2" t="n">
-        <v>31832</v>
+        <v>32202</v>
       </c>
       <c r="K2" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -8290,10 +8290,10 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -8421,10 +8421,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -8683,10 +8683,10 @@
         <v>34</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -9076,10 +9076,10 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
+        <v>13</v>
+      </c>
+      <c r="E79" t="n">
         <v>2</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>26</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>67</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -9469,10 +9469,10 @@
         <v>60</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -9600,10 +9600,10 @@
         <v>28</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>24</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -9862,10 +9862,10 @@
         <v>425</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -9993,10 +9993,10 @@
         <v>263</v>
       </c>
       <c r="D86" t="n">
+        <v>60</v>
+      </c>
+      <c r="E86" t="n">
         <v>12</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>419</v>
       </c>
       <c r="D87" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -10255,10 +10255,10 @@
         <v>337</v>
       </c>
       <c r="D88" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -10386,10 +10386,10 @@
         <v>317</v>
       </c>
       <c r="D89" t="n">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -10517,10 +10517,10 @@
         <v>504</v>
       </c>
       <c r="D90" t="n">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -10648,10 +10648,10 @@
         <v>322</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -10779,10 +10779,10 @@
         <v>392</v>
       </c>
       <c r="D92" t="n">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>730</v>
       </c>
       <c r="D93" t="n">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="E93" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>669</v>
       </c>
       <c r="D94" t="n">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -11172,10 +11172,10 @@
         <v>659</v>
       </c>
       <c r="D95" t="n">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="E95" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>788</v>
       </c>
       <c r="D96" t="n">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="E96" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -11440,10 +11440,10 @@
         <v>681</v>
       </c>
       <c r="D97" t="n">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="E97" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -11577,10 +11577,10 @@
         <v>480</v>
       </c>
       <c r="D98" t="n">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -11714,10 +11714,10 @@
         <v>988</v>
       </c>
       <c r="D99" t="n">
-        <v>154</v>
+        <v>361</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -11851,10 +11851,10 @@
         <v>1092</v>
       </c>
       <c r="D100" t="n">
-        <v>177</v>
+        <v>396</v>
       </c>
       <c r="E100" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -11988,10 +11988,10 @@
         <v>877</v>
       </c>
       <c r="D101" t="n">
-        <v>199</v>
+        <v>431</v>
       </c>
       <c r="E101" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -12125,10 +12125,10 @@
         <v>1441</v>
       </c>
       <c r="D102" t="n">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="E102" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         <v>890</v>
       </c>
       <c r="D103" t="n">
-        <v>254</v>
+        <v>498</v>
       </c>
       <c r="E103" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -12399,10 +12399,10 @@
         <v>923</v>
       </c>
       <c r="D104" t="n">
-        <v>271</v>
+        <v>535</v>
       </c>
       <c r="E104" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -12548,10 +12548,10 @@
         <v>422</v>
       </c>
       <c r="D105" t="n">
-        <v>287</v>
+        <v>567</v>
       </c>
       <c r="E105" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -12697,10 +12697,10 @@
         <v>718</v>
       </c>
       <c r="D106" t="n">
-        <v>318</v>
+        <v>605</v>
       </c>
       <c r="E106" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -12846,10 +12846,10 @@
         <v>868</v>
       </c>
       <c r="D107" t="n">
-        <v>364</v>
+        <v>634</v>
       </c>
       <c r="E107" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -12995,7 +12995,7 @@
         <v>963</v>
       </c>
       <c r="D108" t="n">
-        <v>393</v>
+        <v>663</v>
       </c>
       <c r="E108" t="n">
         <v>29</v>
@@ -13144,10 +13144,10 @@
         <v>916</v>
       </c>
       <c r="D109" t="n">
-        <v>428</v>
+        <v>690</v>
       </c>
       <c r="E109" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -13293,10 +13293,10 @@
         <v>889</v>
       </c>
       <c r="D110" t="n">
-        <v>453</v>
+        <v>731</v>
       </c>
       <c r="E110" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -13442,10 +13442,10 @@
         <v>663</v>
       </c>
       <c r="D111" t="n">
-        <v>477</v>
+        <v>762</v>
       </c>
       <c r="E111" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -13591,10 +13591,10 @@
         <v>535</v>
       </c>
       <c r="D112" t="n">
-        <v>495</v>
+        <v>801</v>
       </c>
       <c r="E112" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -13740,10 +13740,10 @@
         <v>738</v>
       </c>
       <c r="D113" t="n">
-        <v>517</v>
+        <v>834</v>
       </c>
       <c r="E113" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F113" t="n">
         <v>159732</v>
@@ -13889,10 +13889,10 @@
         <v>873</v>
       </c>
       <c r="D114" t="n">
-        <v>543</v>
+        <v>871</v>
       </c>
       <c r="E114" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F114" t="n">
         <v>166291</v>
@@ -14038,10 +14038,10 @@
         <v>875</v>
       </c>
       <c r="D115" t="n">
-        <v>561</v>
+        <v>902</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F115" t="n">
         <v>168259</v>
@@ -14187,10 +14187,10 @@
         <v>862</v>
       </c>
       <c r="D116" t="n">
-        <v>593</v>
+        <v>929</v>
       </c>
       <c r="E116" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F116" t="n">
         <v>192594</v>
@@ -14336,10 +14336,10 @@
         <v>967</v>
       </c>
       <c r="D117" t="n">
-        <v>623</v>
+        <v>965</v>
       </c>
       <c r="E117" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F117" t="n">
         <v>207176</v>
@@ -14485,7 +14485,7 @@
         <v>858</v>
       </c>
       <c r="D118" t="n">
-        <v>648</v>
+        <v>990</v>
       </c>
       <c r="E118" t="n">
         <v>25</v>
@@ -14634,10 +14634,10 @@
         <v>666</v>
       </c>
       <c r="D119" t="n">
-        <v>663</v>
+        <v>1026</v>
       </c>
       <c r="E119" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F119" t="n">
         <v>218668</v>
@@ -14783,10 +14783,10 @@
         <v>874</v>
       </c>
       <c r="D120" t="n">
-        <v>690</v>
+        <v>1070</v>
       </c>
       <c r="E120" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F120" t="n">
         <v>222037</v>
@@ -14932,10 +14932,10 @@
         <v>883</v>
       </c>
       <c r="D121" t="n">
-        <v>732</v>
+        <v>1103</v>
       </c>
       <c r="E121" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F121" t="n">
         <v>236697</v>
@@ -15081,10 +15081,10 @@
         <v>1033</v>
       </c>
       <c r="D122" t="n">
-        <v>782</v>
+        <v>1140</v>
       </c>
       <c r="E122" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F122" t="n">
         <v>247200</v>
@@ -15230,10 +15230,10 @@
         <v>1142</v>
       </c>
       <c r="D123" t="n">
-        <v>816</v>
+        <v>1171</v>
       </c>
       <c r="E123" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F123" t="n">
         <v>246567</v>
@@ -15379,10 +15379,10 @@
         <v>1293</v>
       </c>
       <c r="D124" t="n">
-        <v>847</v>
+        <v>1201</v>
       </c>
       <c r="E124" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F124" t="n">
         <v>257306</v>
@@ -15528,10 +15528,10 @@
         <v>1026</v>
       </c>
       <c r="D125" t="n">
-        <v>867</v>
+        <v>1234</v>
       </c>
       <c r="E125" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F125" t="n">
         <v>257977</v>
@@ -15677,10 +15677,10 @@
         <v>784</v>
       </c>
       <c r="D126" t="n">
-        <v>884</v>
+        <v>1271</v>
       </c>
       <c r="E126" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F126" t="n">
         <v>272725</v>
@@ -15826,10 +15826,10 @@
         <v>1037</v>
       </c>
       <c r="D127" t="n">
-        <v>906</v>
+        <v>1305</v>
       </c>
       <c r="E127" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -15975,10 +15975,10 @@
         <v>1053</v>
       </c>
       <c r="D128" t="n">
-        <v>948</v>
+        <v>1333</v>
       </c>
       <c r="E128" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F128" t="n">
         <v>292037</v>
@@ -16124,10 +16124,10 @@
         <v>968</v>
       </c>
       <c r="D129" t="n">
-        <v>973</v>
+        <v>1361</v>
       </c>
       <c r="E129" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F129" t="n">
         <v>314439</v>
@@ -16273,10 +16273,10 @@
         <v>1219</v>
       </c>
       <c r="D130" t="n">
-        <v>1004</v>
+        <v>1397</v>
       </c>
       <c r="E130" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F130" t="n">
         <v>341218</v>
@@ -16422,10 +16422,10 @@
         <v>1251</v>
       </c>
       <c r="D131" t="n">
-        <v>1049</v>
+        <v>1431</v>
       </c>
       <c r="E131" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F131" t="n">
         <v>363188</v>
@@ -16575,10 +16575,10 @@
         <v>1009</v>
       </c>
       <c r="D132" t="n">
-        <v>1088</v>
+        <v>1474</v>
       </c>
       <c r="E132" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F132" t="n">
         <v>387227</v>
@@ -16728,10 +16728,10 @@
         <v>1000</v>
       </c>
       <c r="D133" t="n">
-        <v>1100</v>
+        <v>1505</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F133" t="n">
         <v>407026</v>
@@ -16881,10 +16881,10 @@
         <v>1179</v>
       </c>
       <c r="D134" t="n">
-        <v>1133</v>
+        <v>1549</v>
       </c>
       <c r="E134" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F134" t="n">
         <v>440063</v>
@@ -17034,10 +17034,10 @@
         <v>1355</v>
       </c>
       <c r="D135" t="n">
-        <v>1158</v>
+        <v>1580</v>
       </c>
       <c r="E135" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F135" t="n">
         <v>459530</v>
@@ -17187,10 +17187,10 @@
         <v>1448</v>
       </c>
       <c r="D136" t="n">
-        <v>1216</v>
+        <v>1607</v>
       </c>
       <c r="E136" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F136" t="n">
         <v>488426</v>
@@ -17340,10 +17340,10 @@
         <v>1347</v>
       </c>
       <c r="D137" t="n">
-        <v>1272</v>
+        <v>1629</v>
       </c>
       <c r="E137" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F137" t="n">
         <v>494909</v>
@@ -17509,10 +17509,10 @@
         <v>1801</v>
       </c>
       <c r="D138" t="n">
-        <v>1305</v>
+        <v>1659</v>
       </c>
       <c r="E138" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F138" t="n">
         <v>514435</v>
@@ -17684,10 +17684,10 @@
         <v>785</v>
       </c>
       <c r="D139" t="n">
-        <v>1336</v>
+        <v>1681</v>
       </c>
       <c r="E139" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F139" t="n">
         <v>538559</v>
@@ -17859,10 +17859,10 @@
         <v>909</v>
       </c>
       <c r="D140" t="n">
-        <v>1347</v>
+        <v>1707</v>
       </c>
       <c r="E140" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F140" t="n">
         <v>567282</v>
@@ -18034,10 +18034,10 @@
         <v>1219</v>
       </c>
       <c r="D141" t="n">
-        <v>1369</v>
+        <v>1736</v>
       </c>
       <c r="E141" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F141" t="n">
         <v>600816</v>
@@ -18209,10 +18209,10 @@
         <v>1411</v>
       </c>
       <c r="D142" t="n">
-        <v>1419</v>
+        <v>1751</v>
       </c>
       <c r="E142" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F142" t="n">
         <v>624101</v>
@@ -18384,10 +18384,10 @@
         <v>945</v>
       </c>
       <c r="D143" t="n">
-        <v>1440</v>
+        <v>1785</v>
       </c>
       <c r="E143" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F143" t="n">
         <v>643274</v>
@@ -18559,10 +18559,10 @@
         <v>1181</v>
       </c>
       <c r="D144" t="n">
-        <v>1480</v>
+        <v>1816</v>
       </c>
       <c r="E144" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F144" t="n">
         <v>660292</v>
@@ -18734,10 +18734,10 @@
         <v>1060</v>
       </c>
       <c r="D145" t="n">
-        <v>1506</v>
+        <v>1839</v>
       </c>
       <c r="E145" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -18899,10 +18899,10 @@
         <v>839</v>
       </c>
       <c r="D146" t="n">
-        <v>1519</v>
+        <v>1862</v>
       </c>
       <c r="E146" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F146" t="n">
         <v>693081</v>
@@ -19074,10 +19074,10 @@
         <v>623</v>
       </c>
       <c r="D147" t="n">
-        <v>1527</v>
+        <v>1894</v>
       </c>
       <c r="E147" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F147" t="n">
         <v>715555</v>
@@ -19249,10 +19249,10 @@
         <v>589</v>
       </c>
       <c r="D148" t="n">
-        <v>1536</v>
+        <v>1930</v>
       </c>
       <c r="E148" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F148" t="n">
         <v>735081</v>
@@ -19424,10 +19424,10 @@
         <v>1361</v>
       </c>
       <c r="D149" t="n">
-        <v>1562</v>
+        <v>1961</v>
       </c>
       <c r="E149" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F149" t="n">
         <v>749249</v>
@@ -19599,10 +19599,10 @@
         <v>1855</v>
       </c>
       <c r="D150" t="n">
-        <v>1601</v>
+        <v>1975</v>
       </c>
       <c r="E150" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F150" t="n">
         <v>773877</v>
@@ -19774,10 +19774,10 @@
         <v>1230</v>
       </c>
       <c r="D151" t="n">
-        <v>1626</v>
+        <v>1996</v>
       </c>
       <c r="E151" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F151" t="n">
         <v>790564</v>
@@ -19949,10 +19949,10 @@
         <v>1332</v>
       </c>
       <c r="D152" t="n">
-        <v>1648</v>
+        <v>2024</v>
       </c>
       <c r="E152" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F152" t="n">
         <v>813397</v>
@@ -20118,10 +20118,10 @@
         <v>1949</v>
       </c>
       <c r="D153" t="n">
-        <v>1672</v>
+        <v>2056</v>
       </c>
       <c r="E153" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F153" t="n">
         <v>820912</v>
@@ -20293,10 +20293,10 @@
         <v>593</v>
       </c>
       <c r="D154" t="n">
-        <v>1678</v>
+        <v>2078</v>
       </c>
       <c r="E154" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F154" t="n">
         <v>865155</v>
@@ -20470,10 +20470,10 @@
         <v>1688</v>
       </c>
       <c r="D155" t="n">
-        <v>1698</v>
+        <v>2104</v>
       </c>
       <c r="E155" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F155" t="n">
         <v>903048</v>
@@ -20647,10 +20647,10 @@
         <v>1703</v>
       </c>
       <c r="D156" t="n">
-        <v>1734</v>
+        <v>2137</v>
       </c>
       <c r="E156" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F156" t="n">
         <v>899228</v>
@@ -20824,10 +20824,10 @@
         <v>1649</v>
       </c>
       <c r="D157" t="n">
-        <v>1767</v>
+        <v>2157</v>
       </c>
       <c r="E157" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F157" t="n">
         <v>923236</v>
@@ -21001,10 +21001,10 @@
         <v>1693</v>
       </c>
       <c r="D158" t="n">
-        <v>1788</v>
+        <v>2188</v>
       </c>
       <c r="E158" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F158" t="n">
         <v>935487</v>
@@ -21178,10 +21178,10 @@
         <v>1940</v>
       </c>
       <c r="D159" t="n">
-        <v>1819</v>
+        <v>2222</v>
       </c>
       <c r="E159" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F159" t="n">
         <v>960363</v>
@@ -21355,10 +21355,10 @@
         <v>1425</v>
       </c>
       <c r="D160" t="n">
-        <v>1830</v>
+        <v>2246</v>
       </c>
       <c r="E160" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F160" t="n">
         <v>1014824</v>
@@ -21532,10 +21532,10 @@
         <v>638</v>
       </c>
       <c r="D161" t="n">
-        <v>1836</v>
+        <v>2274</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F161" t="n">
         <v>1029197</v>
@@ -21709,10 +21709,10 @@
         <v>1637</v>
       </c>
       <c r="D162" t="n">
-        <v>1853</v>
+        <v>2309</v>
       </c>
       <c r="E162" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F162" t="n">
         <v>1051218</v>
@@ -21886,10 +21886,10 @@
         <v>2504</v>
       </c>
       <c r="D163" t="n">
-        <v>1885</v>
+        <v>2349</v>
       </c>
       <c r="E163" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -22063,10 +22063,10 @@
         <v>1826</v>
       </c>
       <c r="D164" t="n">
-        <v>1920</v>
+        <v>2395</v>
       </c>
       <c r="E164" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F164" t="n">
         <v>1070849</v>
@@ -22240,10 +22240,10 @@
         <v>2097</v>
       </c>
       <c r="D165" t="n">
-        <v>1939</v>
+        <v>2424</v>
       </c>
       <c r="E165" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F165" t="n">
         <v>1072466</v>
@@ -22417,10 +22417,10 @@
         <v>2331</v>
       </c>
       <c r="D166" t="n">
-        <v>1957</v>
+        <v>2469</v>
       </c>
       <c r="E166" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F166" t="n">
         <v>1088326</v>
@@ -22594,10 +22594,10 @@
         <v>1843</v>
       </c>
       <c r="D167" t="n">
-        <v>1976</v>
+        <v>2506</v>
       </c>
       <c r="E167" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F167" t="n">
         <v>1112677</v>
@@ -22771,10 +22771,10 @@
         <v>1254</v>
       </c>
       <c r="D168" t="n">
-        <v>1983</v>
+        <v>2548</v>
       </c>
       <c r="E168" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F168" t="n">
         <v>1135749</v>
@@ -22948,7 +22948,7 @@
         <v>4098</v>
       </c>
       <c r="D169" t="n">
-        <v>2029</v>
+        <v>2594</v>
       </c>
       <c r="E169" t="n">
         <v>46</v>
@@ -23125,10 +23125,10 @@
         <v>3129</v>
       </c>
       <c r="D170" t="n">
-        <v>2062</v>
+        <v>2641</v>
       </c>
       <c r="E170" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F170" t="n">
         <v>1187367</v>
@@ -23302,10 +23302,10 @@
         <v>3516</v>
       </c>
       <c r="D171" t="n">
-        <v>2105</v>
+        <v>2681</v>
       </c>
       <c r="E171" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F171" t="n">
         <v>1212302</v>
@@ -23479,10 +23479,10 @@
         <v>3454</v>
       </c>
       <c r="D172" t="n">
-        <v>2140</v>
+        <v>2724</v>
       </c>
       <c r="E172" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F172" t="n">
         <v>1249858</v>
@@ -23656,10 +23656,10 @@
         <v>4430</v>
       </c>
       <c r="D173" t="n">
-        <v>2165</v>
+        <v>2765</v>
       </c>
       <c r="E173" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F173" t="n">
         <v>1286735</v>
@@ -23833,10 +23833,10 @@
         <v>3866</v>
       </c>
       <c r="D174" t="n">
-        <v>2182</v>
+        <v>2837</v>
       </c>
       <c r="E174" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F174" t="n">
         <v>1313265</v>
@@ -24010,10 +24010,10 @@
         <v>3280</v>
       </c>
       <c r="D175" t="n">
-        <v>2192</v>
+        <v>2895</v>
       </c>
       <c r="E175" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F175" t="n">
         <v>1350920</v>
@@ -24187,10 +24187,10 @@
         <v>5489</v>
       </c>
       <c r="D176" t="n">
-        <v>2220</v>
+        <v>2961</v>
       </c>
       <c r="E176" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>5551</v>
       </c>
       <c r="D177" t="n">
-        <v>2249</v>
+        <v>3037</v>
       </c>
       <c r="E177" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F177" t="n">
         <v>1399304</v>
@@ -24541,10 +24541,10 @@
         <v>5996</v>
       </c>
       <c r="D178" t="n">
-        <v>2296</v>
+        <v>3124</v>
       </c>
       <c r="E178" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F178" t="n">
         <v>1409858</v>
@@ -24718,10 +24718,10 @@
         <v>5707</v>
       </c>
       <c r="D179" t="n">
-        <v>2324</v>
+        <v>3209</v>
       </c>
       <c r="E179" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="F179" t="n">
         <v>1444189</v>
@@ -24895,10 +24895,10 @@
         <v>5742</v>
       </c>
       <c r="D180" t="n">
-        <v>2366</v>
+        <v>3291</v>
       </c>
       <c r="E180" t="n">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F180" t="n">
         <v>1492340</v>
@@ -25072,10 +25072,10 @@
         <v>5357</v>
       </c>
       <c r="D181" t="n">
-        <v>2393</v>
+        <v>3380</v>
       </c>
       <c r="E181" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="F181" t="n">
         <v>1543186</v>
@@ -25249,10 +25249,10 @@
         <v>4288</v>
       </c>
       <c r="D182" t="n">
-        <v>2403</v>
+        <v>3482</v>
       </c>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F182" t="n">
         <v>1578667</v>
@@ -25426,10 +25426,10 @@
         <v>6975</v>
       </c>
       <c r="D183" t="n">
-        <v>2424</v>
+        <v>3600</v>
       </c>
       <c r="E183" t="n">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F183" t="n">
         <v>1612583</v>
@@ -25603,10 +25603,10 @@
         <v>8076</v>
       </c>
       <c r="D184" t="n">
-        <v>2481</v>
+        <v>3727</v>
       </c>
       <c r="E184" t="n">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="F184" t="n">
         <v>1653835</v>
@@ -25782,10 +25782,10 @@
         <v>7915</v>
       </c>
       <c r="D185" t="n">
-        <v>2525</v>
+        <v>3837</v>
       </c>
       <c r="E185" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F185" t="n">
         <v>1696809</v>
@@ -25961,10 +25961,10 @@
         <v>7555</v>
       </c>
       <c r="D186" t="n">
-        <v>2575</v>
+        <v>3951</v>
       </c>
       <c r="E186" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F186" t="n">
         <v>1741722</v>
@@ -26140,10 +26140,10 @@
         <v>8258</v>
       </c>
       <c r="D187" t="n">
-        <v>2608</v>
+        <v>4083</v>
       </c>
       <c r="E187" t="n">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="F187" t="n">
         <v>1785542</v>
@@ -26319,10 +26319,10 @@
         <v>3449</v>
       </c>
       <c r="D188" t="n">
-        <v>2637</v>
+        <v>4227</v>
       </c>
       <c r="E188" t="n">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F188" t="n">
         <v>1829966</v>
@@ -26498,10 +26498,10 @@
         <v>5318</v>
       </c>
       <c r="D189" t="n">
-        <v>2655</v>
+        <v>4359</v>
       </c>
       <c r="E189" t="n">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="F189" t="n">
         <v>1874626</v>
@@ -26677,10 +26677,10 @@
         <v>10028</v>
       </c>
       <c r="D190" t="n">
-        <v>2715</v>
+        <v>4504</v>
       </c>
       <c r="E190" t="n">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="F190" t="n">
         <v>1917116</v>
@@ -26856,10 +26856,10 @@
         <v>9979</v>
       </c>
       <c r="D191" t="n">
-        <v>2813</v>
+        <v>4641</v>
       </c>
       <c r="E191" t="n">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="F191" t="n">
         <v>1960005</v>
@@ -27035,10 +27035,10 @@
         <v>9782</v>
       </c>
       <c r="D192" t="n">
-        <v>2918</v>
+        <v>4810</v>
       </c>
       <c r="E192" t="n">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="F192" t="n">
         <v>2020405</v>
@@ -27214,10 +27214,10 @@
         <v>9765</v>
       </c>
       <c r="D193" t="n">
-        <v>3013</v>
+        <v>4946</v>
       </c>
       <c r="E193" t="n">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="F193" t="n">
         <v>2069122</v>
@@ -27393,10 +27393,10 @@
         <v>10351</v>
       </c>
       <c r="D194" t="n">
-        <v>3112</v>
+        <v>5101</v>
       </c>
       <c r="E194" t="n">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="F194" t="n">
         <v>2110922</v>
@@ -27572,10 +27572,10 @@
         <v>8196</v>
       </c>
       <c r="D195" t="n">
-        <v>3192</v>
+        <v>5232</v>
       </c>
       <c r="E195" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="F195" t="n">
         <v>2165623</v>
@@ -27751,10 +27751,10 @@
         <v>5655</v>
       </c>
       <c r="D196" t="n">
-        <v>3235</v>
+        <v>5338</v>
       </c>
       <c r="E196" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F196" t="n">
         <v>2205822</v>
@@ -27930,10 +27930,10 @@
         <v>10745</v>
       </c>
       <c r="D197" t="n">
-        <v>3322</v>
+        <v>5432</v>
       </c>
       <c r="E197" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F197" t="n">
         <v>2249060</v>
@@ -28109,10 +28109,10 @@
         <v>7307</v>
       </c>
       <c r="D198" t="n">
-        <v>3432</v>
+        <v>5509</v>
       </c>
       <c r="E198" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F198" t="n">
         <v>2286774</v>
@@ -28252,10 +28252,10 @@
         <v>10291</v>
       </c>
       <c r="D199" t="n">
-        <v>3561</v>
+        <v>5580</v>
       </c>
       <c r="E199" t="n">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="F199" t="n">
         <v>2301483</v>
@@ -28395,10 +28395,10 @@
         <v>14916</v>
       </c>
       <c r="D200" t="n">
-        <v>3735</v>
+        <v>5642</v>
       </c>
       <c r="E200" t="n">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="F200" t="n">
         <v>2343210</v>
@@ -28538,10 +28538,10 @@
         <v>10158</v>
       </c>
       <c r="D201" t="n">
-        <v>3865</v>
+        <v>5679</v>
       </c>
       <c r="E201" t="n">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="F201" t="n">
         <v>2384232</v>
@@ -28681,10 +28681,10 @@
         <v>7300</v>
       </c>
       <c r="D202" t="n">
-        <v>3958</v>
+        <v>5705</v>
       </c>
       <c r="E202" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F202" t="n">
         <v>2439082</v>
@@ -28824,10 +28824,10 @@
         <v>7404</v>
       </c>
       <c r="D203" t="n">
-        <v>4020</v>
+        <v>5710</v>
       </c>
       <c r="E203" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F203" t="n">
         <v>2473836</v>
@@ -28967,10 +28967,10 @@
         <v>9305</v>
       </c>
       <c r="D204" t="n">
-        <v>4151</v>
+        <v>5711</v>
       </c>
       <c r="E204" t="n">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
         <v>2514877</v>
@@ -29094,10 +29094,10 @@
         <v>9879</v>
       </c>
       <c r="D205" t="n">
-        <v>4348</v>
+        <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>2544071</v>
@@ -29243,10 +29243,10 @@
         <v>9507</v>
       </c>
       <c r="D206" t="n">
-        <v>4521</v>
+        <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
         <v>2574376</v>
@@ -29386,10 +29386,10 @@
         <v>8701</v>
       </c>
       <c r="D207" t="n">
-        <v>4717</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
         <v>2609056</v>
@@ -29529,10 +29529,10 @@
         <v>6020</v>
       </c>
       <c r="D208" t="n">
-        <v>4885</v>
+        <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
         <v>2637947</v>
@@ -29585,7 +29585,9 @@
       <c r="V208" t="n">
         <v>64412</v>
       </c>
-      <c r="W208"/>
+      <c r="W208" t="n">
+        <v>9827</v>
+      </c>
       <c r="X208" t="n">
         <v>470</v>
       </c>
@@ -29668,19 +29670,19 @@
         <v>5810</v>
       </c>
       <c r="D209" t="n">
-        <v>5038</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>2676478</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>38531</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>161705</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -29703,16 +29705,30 @@
       <c r="O209" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P209"/>
-      <c r="Q209"/>
+      <c r="P209" t="n">
+        <v>3428882</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>235797</v>
+      </c>
       <c r="R209" t="n">
         <v>3664679</v>
       </c>
-      <c r="S209"/>
-      <c r="T209"/>
-      <c r="U209"/>
-      <c r="V209"/>
-      <c r="W209"/>
+      <c r="S209" t="n">
+        <v>0.13215012333231</v>
+      </c>
+      <c r="T209" t="n">
+        <v>63475</v>
+      </c>
+      <c r="U209" t="n">
+        <v>1785</v>
+      </c>
+      <c r="V209" t="n">
+        <v>65260</v>
+      </c>
+      <c r="W209" t="n">
+        <v>10075</v>
+      </c>
       <c r="X209" t="n">
         <v>474</v>
       </c>
@@ -29784,6 +29800,137 @@
         <v>29677668</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B210" t="n">
+        <v>385924</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4268</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K210" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L210" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M210" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N210" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O210" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P210"/>
+      <c r="Q210"/>
+      <c r="R210" t="n">
+        <v>3714821</v>
+      </c>
+      <c r="S210"/>
+      <c r="T210"/>
+      <c r="U210"/>
+      <c r="V210"/>
+      <c r="W210" t="n">
+        <v>9781</v>
+      </c>
+      <c r="X210" t="n">
+        <v>480</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1694</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>255</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>568</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>937</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>14485</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>5257</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>6965</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>5574</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>3088</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>15026</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2233</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>22703</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>6989</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>6073</v>
+      </c>
+      <c r="AN210"/>
+      <c r="AO210"/>
+      <c r="AP210"/>
+      <c r="AQ210"/>
+      <c r="AR210"/>
+      <c r="AS210"/>
+      <c r="AT210"/>
+      <c r="AU210"/>
+      <c r="AV210"/>
+      <c r="AW210"/>
+      <c r="AX210"/>
+      <c r="AY210"/>
+      <c r="AZ210"/>
+      <c r="BA210"/>
+      <c r="BB210"/>
+      <c r="BC210"/>
+      <c r="BD210"/>
+      <c r="BE210"/>
+      <c r="BF210"/>
+      <c r="BG210"/>
+      <c r="BH210"/>
+      <c r="BI210" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -29838,34 +29985,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>147511</v>
+        <v>146836</v>
       </c>
       <c r="C2" t="n">
-        <v>116595</v>
+        <v>116670</v>
       </c>
       <c r="D2" t="n">
-        <v>3548084</v>
+        <v>3598151</v>
       </c>
       <c r="E2" t="n">
-        <v>10751</v>
+        <v>10921</v>
       </c>
       <c r="F2" t="n">
-        <v>54974</v>
+        <v>54271</v>
       </c>
       <c r="G2" t="n">
-        <v>11443</v>
+        <v>12723</v>
       </c>
       <c r="H2" t="n">
-        <v>1243</v>
+        <v>1345</v>
       </c>
       <c r="I2" t="n">
-        <v>5544</v>
+        <v>6073</v>
       </c>
       <c r="J2" t="n">
-        <v>32202</v>
+        <v>32258</v>
       </c>
       <c r="K2" t="n">
-        <v>787</v>
+        <v>5713</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -8290,10 +8290,10 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -8421,10 +8421,10 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -8683,10 +8683,10 @@
         <v>34</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -8814,10 +8814,10 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -9207,10 +9207,10 @@
         <v>26</v>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -9338,10 +9338,10 @@
         <v>67</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -9469,10 +9469,10 @@
         <v>60</v>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -9600,10 +9600,10 @@
         <v>28</v>
       </c>
       <c r="D83" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>24</v>
       </c>
       <c r="D84" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -9862,10 +9862,10 @@
         <v>425</v>
       </c>
       <c r="D85" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -9993,10 +9993,10 @@
         <v>263</v>
       </c>
       <c r="D86" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>419</v>
       </c>
       <c r="D87" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -10255,10 +10255,10 @@
         <v>337</v>
       </c>
       <c r="D88" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E88" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -10386,10 +10386,10 @@
         <v>317</v>
       </c>
       <c r="D89" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -10517,10 +10517,10 @@
         <v>504</v>
       </c>
       <c r="D90" t="n">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -10648,10 +10648,10 @@
         <v>322</v>
       </c>
       <c r="D91" t="n">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="E91" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -10779,10 +10779,10 @@
         <v>392</v>
       </c>
       <c r="D92" t="n">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="E92" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>730</v>
       </c>
       <c r="D93" t="n">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>669</v>
       </c>
       <c r="D94" t="n">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="E94" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -11172,10 +11172,10 @@
         <v>659</v>
       </c>
       <c r="D95" t="n">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="E95" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>788</v>
       </c>
       <c r="D96" t="n">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="E96" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -11440,10 +11440,10 @@
         <v>681</v>
       </c>
       <c r="D97" t="n">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="E97" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -11577,10 +11577,10 @@
         <v>480</v>
       </c>
       <c r="D98" t="n">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="E98" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -11714,10 +11714,10 @@
         <v>988</v>
       </c>
       <c r="D99" t="n">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -11851,10 +11851,10 @@
         <v>1092</v>
       </c>
       <c r="D100" t="n">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="E100" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -11988,7 +11988,7 @@
         <v>877</v>
       </c>
       <c r="D101" t="n">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="E101" t="n">
         <v>35</v>
@@ -12125,10 +12125,10 @@
         <v>1441</v>
       </c>
       <c r="D102" t="n">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="E102" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>890</v>
       </c>
       <c r="D103" t="n">
-        <v>498</v>
+        <v>396</v>
       </c>
       <c r="E103" t="n">
         <v>35</v>
@@ -12399,10 +12399,10 @@
         <v>923</v>
       </c>
       <c r="D104" t="n">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="E104" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>422</v>
       </c>
       <c r="D105" t="n">
-        <v>567</v>
+        <v>463</v>
       </c>
       <c r="E105" t="n">
         <v>32</v>
@@ -12697,10 +12697,10 @@
         <v>718</v>
       </c>
       <c r="D106" t="n">
-        <v>605</v>
+        <v>498</v>
       </c>
       <c r="E106" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -12846,10 +12846,10 @@
         <v>868</v>
       </c>
       <c r="D107" t="n">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="E107" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -12995,10 +12995,10 @@
         <v>963</v>
       </c>
       <c r="D108" t="n">
-        <v>663</v>
+        <v>567</v>
       </c>
       <c r="E108" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -13144,10 +13144,10 @@
         <v>916</v>
       </c>
       <c r="D109" t="n">
-        <v>690</v>
+        <v>605</v>
       </c>
       <c r="E109" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -13293,10 +13293,10 @@
         <v>889</v>
       </c>
       <c r="D110" t="n">
-        <v>731</v>
+        <v>634</v>
       </c>
       <c r="E110" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -13442,10 +13442,10 @@
         <v>663</v>
       </c>
       <c r="D111" t="n">
-        <v>762</v>
+        <v>663</v>
       </c>
       <c r="E111" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -13591,10 +13591,10 @@
         <v>535</v>
       </c>
       <c r="D112" t="n">
-        <v>801</v>
+        <v>690</v>
       </c>
       <c r="E112" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -13740,10 +13740,10 @@
         <v>738</v>
       </c>
       <c r="D113" t="n">
-        <v>834</v>
+        <v>731</v>
       </c>
       <c r="E113" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F113" t="n">
         <v>159732</v>
@@ -13889,10 +13889,10 @@
         <v>873</v>
       </c>
       <c r="D114" t="n">
-        <v>871</v>
+        <v>762</v>
       </c>
       <c r="E114" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F114" t="n">
         <v>166291</v>
@@ -14038,10 +14038,10 @@
         <v>875</v>
       </c>
       <c r="D115" t="n">
-        <v>902</v>
+        <v>801</v>
       </c>
       <c r="E115" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F115" t="n">
         <v>168259</v>
@@ -14187,10 +14187,10 @@
         <v>862</v>
       </c>
       <c r="D116" t="n">
-        <v>929</v>
+        <v>834</v>
       </c>
       <c r="E116" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F116" t="n">
         <v>192594</v>
@@ -14336,10 +14336,10 @@
         <v>967</v>
       </c>
       <c r="D117" t="n">
-        <v>965</v>
+        <v>871</v>
       </c>
       <c r="E117" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F117" t="n">
         <v>207176</v>
@@ -14485,10 +14485,10 @@
         <v>858</v>
       </c>
       <c r="D118" t="n">
-        <v>990</v>
+        <v>902</v>
       </c>
       <c r="E118" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F118" t="n">
         <v>209808</v>
@@ -14634,10 +14634,10 @@
         <v>666</v>
       </c>
       <c r="D119" t="n">
-        <v>1026</v>
+        <v>929</v>
       </c>
       <c r="E119" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F119" t="n">
         <v>218668</v>
@@ -14783,10 +14783,10 @@
         <v>874</v>
       </c>
       <c r="D120" t="n">
-        <v>1070</v>
+        <v>965</v>
       </c>
       <c r="E120" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F120" t="n">
         <v>222037</v>
@@ -14932,10 +14932,10 @@
         <v>883</v>
       </c>
       <c r="D121" t="n">
-        <v>1103</v>
+        <v>990</v>
       </c>
       <c r="E121" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F121" t="n">
         <v>236697</v>
@@ -15081,10 +15081,10 @@
         <v>1033</v>
       </c>
       <c r="D122" t="n">
-        <v>1140</v>
+        <v>1026</v>
       </c>
       <c r="E122" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="n">
         <v>247200</v>
@@ -15230,10 +15230,10 @@
         <v>1142</v>
       </c>
       <c r="D123" t="n">
-        <v>1171</v>
+        <v>1070</v>
       </c>
       <c r="E123" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F123" t="n">
         <v>246567</v>
@@ -15379,10 +15379,10 @@
         <v>1293</v>
       </c>
       <c r="D124" t="n">
-        <v>1201</v>
+        <v>1103</v>
       </c>
       <c r="E124" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F124" t="n">
         <v>257306</v>
@@ -15528,10 +15528,10 @@
         <v>1026</v>
       </c>
       <c r="D125" t="n">
-        <v>1234</v>
+        <v>1140</v>
       </c>
       <c r="E125" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F125" t="n">
         <v>257977</v>
@@ -15677,10 +15677,10 @@
         <v>784</v>
       </c>
       <c r="D126" t="n">
-        <v>1271</v>
+        <v>1171</v>
       </c>
       <c r="E126" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F126" t="n">
         <v>272725</v>
@@ -15826,10 +15826,10 @@
         <v>1037</v>
       </c>
       <c r="D127" t="n">
-        <v>1305</v>
+        <v>1201</v>
       </c>
       <c r="E127" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -15975,10 +15975,10 @@
         <v>1053</v>
       </c>
       <c r="D128" t="n">
-        <v>1333</v>
+        <v>1234</v>
       </c>
       <c r="E128" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F128" t="n">
         <v>292037</v>
@@ -16124,10 +16124,10 @@
         <v>968</v>
       </c>
       <c r="D129" t="n">
-        <v>1361</v>
+        <v>1271</v>
       </c>
       <c r="E129" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F129" t="n">
         <v>314439</v>
@@ -16273,10 +16273,10 @@
         <v>1219</v>
       </c>
       <c r="D130" t="n">
-        <v>1397</v>
+        <v>1305</v>
       </c>
       <c r="E130" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F130" t="n">
         <v>341218</v>
@@ -16422,10 +16422,10 @@
         <v>1251</v>
       </c>
       <c r="D131" t="n">
-        <v>1431</v>
+        <v>1333</v>
       </c>
       <c r="E131" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F131" t="n">
         <v>363188</v>
@@ -16575,10 +16575,10 @@
         <v>1009</v>
       </c>
       <c r="D132" t="n">
-        <v>1474</v>
+        <v>1361</v>
       </c>
       <c r="E132" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F132" t="n">
         <v>387227</v>
@@ -16728,10 +16728,10 @@
         <v>1000</v>
       </c>
       <c r="D133" t="n">
-        <v>1505</v>
+        <v>1397</v>
       </c>
       <c r="E133" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F133" t="n">
         <v>407026</v>
@@ -16881,10 +16881,10 @@
         <v>1179</v>
       </c>
       <c r="D134" t="n">
-        <v>1549</v>
+        <v>1431</v>
       </c>
       <c r="E134" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F134" t="n">
         <v>440063</v>
@@ -17034,10 +17034,10 @@
         <v>1355</v>
       </c>
       <c r="D135" t="n">
-        <v>1580</v>
+        <v>1474</v>
       </c>
       <c r="E135" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F135" t="n">
         <v>459530</v>
@@ -17187,10 +17187,10 @@
         <v>1448</v>
       </c>
       <c r="D136" t="n">
-        <v>1607</v>
+        <v>1505</v>
       </c>
       <c r="E136" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F136" t="n">
         <v>488426</v>
@@ -17340,10 +17340,10 @@
         <v>1347</v>
       </c>
       <c r="D137" t="n">
-        <v>1629</v>
+        <v>1549</v>
       </c>
       <c r="E137" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F137" t="n">
         <v>494909</v>
@@ -17509,10 +17509,10 @@
         <v>1801</v>
       </c>
       <c r="D138" t="n">
-        <v>1659</v>
+        <v>1580</v>
       </c>
       <c r="E138" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F138" t="n">
         <v>514435</v>
@@ -17684,10 +17684,10 @@
         <v>785</v>
       </c>
       <c r="D139" t="n">
-        <v>1681</v>
+        <v>1607</v>
       </c>
       <c r="E139" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F139" t="n">
         <v>538559</v>
@@ -17859,10 +17859,10 @@
         <v>909</v>
       </c>
       <c r="D140" t="n">
-        <v>1707</v>
+        <v>1629</v>
       </c>
       <c r="E140" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F140" t="n">
         <v>567282</v>
@@ -18034,10 +18034,10 @@
         <v>1219</v>
       </c>
       <c r="D141" t="n">
-        <v>1736</v>
+        <v>1659</v>
       </c>
       <c r="E141" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F141" t="n">
         <v>600816</v>
@@ -18209,10 +18209,10 @@
         <v>1411</v>
       </c>
       <c r="D142" t="n">
-        <v>1751</v>
+        <v>1681</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F142" t="n">
         <v>624101</v>
@@ -18384,10 +18384,10 @@
         <v>945</v>
       </c>
       <c r="D143" t="n">
-        <v>1785</v>
+        <v>1707</v>
       </c>
       <c r="E143" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F143" t="n">
         <v>643274</v>
@@ -18559,10 +18559,10 @@
         <v>1181</v>
       </c>
       <c r="D144" t="n">
-        <v>1816</v>
+        <v>1736</v>
       </c>
       <c r="E144" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F144" t="n">
         <v>660292</v>
@@ -18734,10 +18734,10 @@
         <v>1060</v>
       </c>
       <c r="D145" t="n">
-        <v>1839</v>
+        <v>1751</v>
       </c>
       <c r="E145" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -18899,10 +18899,10 @@
         <v>839</v>
       </c>
       <c r="D146" t="n">
-        <v>1862</v>
+        <v>1785</v>
       </c>
       <c r="E146" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F146" t="n">
         <v>693081</v>
@@ -19074,10 +19074,10 @@
         <v>623</v>
       </c>
       <c r="D147" t="n">
-        <v>1894</v>
+        <v>1816</v>
       </c>
       <c r="E147" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F147" t="n">
         <v>715555</v>
@@ -19249,10 +19249,10 @@
         <v>589</v>
       </c>
       <c r="D148" t="n">
-        <v>1930</v>
+        <v>1839</v>
       </c>
       <c r="E148" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F148" t="n">
         <v>735081</v>
@@ -19424,10 +19424,10 @@
         <v>1361</v>
       </c>
       <c r="D149" t="n">
-        <v>1961</v>
+        <v>1862</v>
       </c>
       <c r="E149" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F149" t="n">
         <v>749249</v>
@@ -19599,10 +19599,10 @@
         <v>1855</v>
       </c>
       <c r="D150" t="n">
-        <v>1975</v>
+        <v>1894</v>
       </c>
       <c r="E150" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F150" t="n">
         <v>773877</v>
@@ -19774,10 +19774,10 @@
         <v>1230</v>
       </c>
       <c r="D151" t="n">
-        <v>1996</v>
+        <v>1930</v>
       </c>
       <c r="E151" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F151" t="n">
         <v>790564</v>
@@ -19949,10 +19949,10 @@
         <v>1332</v>
       </c>
       <c r="D152" t="n">
-        <v>2024</v>
+        <v>1961</v>
       </c>
       <c r="E152" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F152" t="n">
         <v>813397</v>
@@ -20118,10 +20118,10 @@
         <v>1949</v>
       </c>
       <c r="D153" t="n">
-        <v>2056</v>
+        <v>1975</v>
       </c>
       <c r="E153" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F153" t="n">
         <v>820912</v>
@@ -20293,10 +20293,10 @@
         <v>593</v>
       </c>
       <c r="D154" t="n">
-        <v>2078</v>
+        <v>1996</v>
       </c>
       <c r="E154" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F154" t="n">
         <v>865155</v>
@@ -20470,10 +20470,10 @@
         <v>1688</v>
       </c>
       <c r="D155" t="n">
-        <v>2104</v>
+        <v>2024</v>
       </c>
       <c r="E155" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F155" t="n">
         <v>903048</v>
@@ -20647,10 +20647,10 @@
         <v>1703</v>
       </c>
       <c r="D156" t="n">
-        <v>2137</v>
+        <v>2056</v>
       </c>
       <c r="E156" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F156" t="n">
         <v>899228</v>
@@ -20824,10 +20824,10 @@
         <v>1649</v>
       </c>
       <c r="D157" t="n">
-        <v>2157</v>
+        <v>2078</v>
       </c>
       <c r="E157" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F157" t="n">
         <v>923236</v>
@@ -21001,10 +21001,10 @@
         <v>1693</v>
       </c>
       <c r="D158" t="n">
-        <v>2188</v>
+        <v>2104</v>
       </c>
       <c r="E158" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F158" t="n">
         <v>935487</v>
@@ -21178,10 +21178,10 @@
         <v>1940</v>
       </c>
       <c r="D159" t="n">
-        <v>2222</v>
+        <v>2137</v>
       </c>
       <c r="E159" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159" t="n">
         <v>960363</v>
@@ -21355,10 +21355,10 @@
         <v>1425</v>
       </c>
       <c r="D160" t="n">
-        <v>2246</v>
+        <v>2157</v>
       </c>
       <c r="E160" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F160" t="n">
         <v>1014824</v>
@@ -21532,10 +21532,10 @@
         <v>638</v>
       </c>
       <c r="D161" t="n">
-        <v>2274</v>
+        <v>2188</v>
       </c>
       <c r="E161" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F161" t="n">
         <v>1029197</v>
@@ -21709,10 +21709,10 @@
         <v>1637</v>
       </c>
       <c r="D162" t="n">
-        <v>2309</v>
+        <v>2222</v>
       </c>
       <c r="E162" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F162" t="n">
         <v>1051218</v>
@@ -21886,10 +21886,10 @@
         <v>2504</v>
       </c>
       <c r="D163" t="n">
-        <v>2349</v>
+        <v>2246</v>
       </c>
       <c r="E163" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -22063,10 +22063,10 @@
         <v>1826</v>
       </c>
       <c r="D164" t="n">
-        <v>2395</v>
+        <v>2274</v>
       </c>
       <c r="E164" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F164" t="n">
         <v>1070849</v>
@@ -22240,10 +22240,10 @@
         <v>2097</v>
       </c>
       <c r="D165" t="n">
-        <v>2424</v>
+        <v>2309</v>
       </c>
       <c r="E165" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F165" t="n">
         <v>1072466</v>
@@ -22417,10 +22417,10 @@
         <v>2331</v>
       </c>
       <c r="D166" t="n">
-        <v>2469</v>
+        <v>2349</v>
       </c>
       <c r="E166" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F166" t="n">
         <v>1088326</v>
@@ -22594,10 +22594,10 @@
         <v>1843</v>
       </c>
       <c r="D167" t="n">
-        <v>2506</v>
+        <v>2395</v>
       </c>
       <c r="E167" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F167" t="n">
         <v>1112677</v>
@@ -22771,10 +22771,10 @@
         <v>1254</v>
       </c>
       <c r="D168" t="n">
-        <v>2548</v>
+        <v>2424</v>
       </c>
       <c r="E168" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F168" t="n">
         <v>1135749</v>
@@ -22948,10 +22948,10 @@
         <v>4098</v>
       </c>
       <c r="D169" t="n">
-        <v>2594</v>
+        <v>2469</v>
       </c>
       <c r="E169" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F169" t="n">
         <v>1169385</v>
@@ -23125,10 +23125,10 @@
         <v>3129</v>
       </c>
       <c r="D170" t="n">
-        <v>2641</v>
+        <v>2506</v>
       </c>
       <c r="E170" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F170" t="n">
         <v>1187367</v>
@@ -23302,10 +23302,10 @@
         <v>3516</v>
       </c>
       <c r="D171" t="n">
-        <v>2681</v>
+        <v>2548</v>
       </c>
       <c r="E171" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F171" t="n">
         <v>1212302</v>
@@ -23479,10 +23479,10 @@
         <v>3454</v>
       </c>
       <c r="D172" t="n">
-        <v>2724</v>
+        <v>2594</v>
       </c>
       <c r="E172" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F172" t="n">
         <v>1249858</v>
@@ -23656,10 +23656,10 @@
         <v>4430</v>
       </c>
       <c r="D173" t="n">
-        <v>2765</v>
+        <v>2641</v>
       </c>
       <c r="E173" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F173" t="n">
         <v>1286735</v>
@@ -23833,10 +23833,10 @@
         <v>3866</v>
       </c>
       <c r="D174" t="n">
-        <v>2837</v>
+        <v>2681</v>
       </c>
       <c r="E174" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F174" t="n">
         <v>1313265</v>
@@ -24010,10 +24010,10 @@
         <v>3280</v>
       </c>
       <c r="D175" t="n">
-        <v>2895</v>
+        <v>2724</v>
       </c>
       <c r="E175" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F175" t="n">
         <v>1350920</v>
@@ -24187,10 +24187,10 @@
         <v>5489</v>
       </c>
       <c r="D176" t="n">
-        <v>2961</v>
+        <v>2765</v>
       </c>
       <c r="E176" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>5551</v>
       </c>
       <c r="D177" t="n">
-        <v>3037</v>
+        <v>2837</v>
       </c>
       <c r="E177" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F177" t="n">
         <v>1399304</v>
@@ -24541,10 +24541,10 @@
         <v>5996</v>
       </c>
       <c r="D178" t="n">
-        <v>3124</v>
+        <v>2895</v>
       </c>
       <c r="E178" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F178" t="n">
         <v>1409858</v>
@@ -24718,10 +24718,10 @@
         <v>5707</v>
       </c>
       <c r="D179" t="n">
-        <v>3209</v>
+        <v>2961</v>
       </c>
       <c r="E179" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F179" t="n">
         <v>1444189</v>
@@ -24895,10 +24895,10 @@
         <v>5742</v>
       </c>
       <c r="D180" t="n">
-        <v>3291</v>
+        <v>3037</v>
       </c>
       <c r="E180" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F180" t="n">
         <v>1492340</v>
@@ -25072,10 +25072,10 @@
         <v>5357</v>
       </c>
       <c r="D181" t="n">
-        <v>3380</v>
+        <v>3124</v>
       </c>
       <c r="E181" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F181" t="n">
         <v>1543186</v>
@@ -25249,10 +25249,10 @@
         <v>4288</v>
       </c>
       <c r="D182" t="n">
-        <v>3482</v>
+        <v>3209</v>
       </c>
       <c r="E182" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F182" t="n">
         <v>1578667</v>
@@ -25426,10 +25426,10 @@
         <v>6975</v>
       </c>
       <c r="D183" t="n">
-        <v>3600</v>
+        <v>3291</v>
       </c>
       <c r="E183" t="n">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F183" t="n">
         <v>1612583</v>
@@ -25603,10 +25603,10 @@
         <v>8076</v>
       </c>
       <c r="D184" t="n">
-        <v>3727</v>
+        <v>3380</v>
       </c>
       <c r="E184" t="n">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="F184" t="n">
         <v>1653835</v>
@@ -25782,10 +25782,10 @@
         <v>7915</v>
       </c>
       <c r="D185" t="n">
-        <v>3837</v>
+        <v>3482</v>
       </c>
       <c r="E185" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F185" t="n">
         <v>1696809</v>
@@ -25961,10 +25961,10 @@
         <v>7555</v>
       </c>
       <c r="D186" t="n">
-        <v>3951</v>
+        <v>3600</v>
       </c>
       <c r="E186" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F186" t="n">
         <v>1741722</v>
@@ -26140,10 +26140,10 @@
         <v>8258</v>
       </c>
       <c r="D187" t="n">
-        <v>4083</v>
+        <v>3727</v>
       </c>
       <c r="E187" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F187" t="n">
         <v>1785542</v>
@@ -26319,10 +26319,10 @@
         <v>3449</v>
       </c>
       <c r="D188" t="n">
-        <v>4227</v>
+        <v>3837</v>
       </c>
       <c r="E188" t="n">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F188" t="n">
         <v>1829966</v>
@@ -26498,10 +26498,10 @@
         <v>5318</v>
       </c>
       <c r="D189" t="n">
-        <v>4359</v>
+        <v>3951</v>
       </c>
       <c r="E189" t="n">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F189" t="n">
         <v>1874626</v>
@@ -26677,10 +26677,10 @@
         <v>10028</v>
       </c>
       <c r="D190" t="n">
-        <v>4504</v>
+        <v>4083</v>
       </c>
       <c r="E190" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F190" t="n">
         <v>1917116</v>
@@ -26856,10 +26856,10 @@
         <v>9979</v>
       </c>
       <c r="D191" t="n">
-        <v>4641</v>
+        <v>4227</v>
       </c>
       <c r="E191" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F191" t="n">
         <v>1960005</v>
@@ -27035,10 +27035,10 @@
         <v>9782</v>
       </c>
       <c r="D192" t="n">
-        <v>4810</v>
+        <v>4359</v>
       </c>
       <c r="E192" t="n">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="F192" t="n">
         <v>2020405</v>
@@ -27214,10 +27214,10 @@
         <v>9765</v>
       </c>
       <c r="D193" t="n">
-        <v>4946</v>
+        <v>4504</v>
       </c>
       <c r="E193" t="n">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F193" t="n">
         <v>2069122</v>
@@ -27393,10 +27393,10 @@
         <v>10351</v>
       </c>
       <c r="D194" t="n">
-        <v>5101</v>
+        <v>4641</v>
       </c>
       <c r="E194" t="n">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F194" t="n">
         <v>2110922</v>
@@ -27572,10 +27572,10 @@
         <v>8196</v>
       </c>
       <c r="D195" t="n">
-        <v>5232</v>
+        <v>4810</v>
       </c>
       <c r="E195" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="F195" t="n">
         <v>2165623</v>
@@ -27751,10 +27751,10 @@
         <v>5655</v>
       </c>
       <c r="D196" t="n">
-        <v>5338</v>
+        <v>4946</v>
       </c>
       <c r="E196" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F196" t="n">
         <v>2205822</v>
@@ -27930,10 +27930,10 @@
         <v>10745</v>
       </c>
       <c r="D197" t="n">
-        <v>5432</v>
+        <v>5101</v>
       </c>
       <c r="E197" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F197" t="n">
         <v>2249060</v>
@@ -28109,10 +28109,10 @@
         <v>7307</v>
       </c>
       <c r="D198" t="n">
-        <v>5509</v>
+        <v>5232</v>
       </c>
       <c r="E198" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F198" t="n">
         <v>2286774</v>
@@ -28252,10 +28252,10 @@
         <v>10291</v>
       </c>
       <c r="D199" t="n">
-        <v>5580</v>
+        <v>5338</v>
       </c>
       <c r="E199" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="F199" t="n">
         <v>2301483</v>
@@ -28395,10 +28395,10 @@
         <v>14916</v>
       </c>
       <c r="D200" t="n">
-        <v>5642</v>
+        <v>5432</v>
       </c>
       <c r="E200" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F200" t="n">
         <v>2343210</v>
@@ -28538,10 +28538,10 @@
         <v>10158</v>
       </c>
       <c r="D201" t="n">
-        <v>5679</v>
+        <v>5509</v>
       </c>
       <c r="E201" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F201" t="n">
         <v>2384232</v>
@@ -28681,10 +28681,10 @@
         <v>7300</v>
       </c>
       <c r="D202" t="n">
-        <v>5705</v>
+        <v>5580</v>
       </c>
       <c r="E202" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F202" t="n">
         <v>2439082</v>
@@ -28824,10 +28824,10 @@
         <v>7404</v>
       </c>
       <c r="D203" t="n">
-        <v>5710</v>
+        <v>5642</v>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F203" t="n">
         <v>2473836</v>
@@ -28967,10 +28967,10 @@
         <v>9305</v>
       </c>
       <c r="D204" t="n">
-        <v>5711</v>
+        <v>5679</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F204" t="n">
         <v>2514877</v>
@@ -29094,10 +29094,10 @@
         <v>9879</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F205" t="n">
         <v>2544071</v>
@@ -29219,15 +29219,9 @@
       <c r="BC205"/>
       <c r="BD205"/>
       <c r="BE205"/>
-      <c r="BF205" t="n">
-        <v>415</v>
-      </c>
-      <c r="BG205" t="n">
-        <v>482</v>
-      </c>
-      <c r="BH205" t="n">
-        <v>86.1</v>
-      </c>
+      <c r="BF205"/>
+      <c r="BG205"/>
+      <c r="BH205"/>
       <c r="BI205" t="n">
         <v>29677668</v>
       </c>
@@ -29243,10 +29237,10 @@
         <v>9507</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>5710</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F206" t="n">
         <v>2574376</v>
@@ -29386,10 +29380,10 @@
         <v>8701</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
         <v>2609056</v>
@@ -29682,10 +29676,10 @@
         <v>38531</v>
       </c>
       <c r="H209" t="n">
-        <v>161705</v>
+        <v>163376</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1671</v>
       </c>
       <c r="J209" t="e">
         <v>#NUM!</v>
@@ -29924,10 +29918,153 @@
       <c r="BC210"/>
       <c r="BD210"/>
       <c r="BE210"/>
-      <c r="BF210"/>
-      <c r="BG210"/>
-      <c r="BH210"/>
+      <c r="BF210" t="n">
+        <v>415</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>482</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>86.1</v>
+      </c>
       <c r="BI210" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B211" t="n">
+        <v>385924</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4268</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O211" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="R211" t="n">
+        <v>3714821</v>
+      </c>
+      <c r="S211"/>
+      <c r="T211"/>
+      <c r="U211"/>
+      <c r="V211"/>
+      <c r="W211" t="n">
+        <v>9781</v>
+      </c>
+      <c r="X211" t="n">
+        <v>480</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1694</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>255</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>568</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>937</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>14485</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>5257</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>6965</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>5574</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>3088</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>15026</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2233</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>22703</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>6989</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>6073</v>
+      </c>
+      <c r="AN211"/>
+      <c r="AO211"/>
+      <c r="AP211"/>
+      <c r="AQ211"/>
+      <c r="AR211"/>
+      <c r="AS211"/>
+      <c r="AT211"/>
+      <c r="AU211"/>
+      <c r="AV211"/>
+      <c r="AW211"/>
+      <c r="AX211"/>
+      <c r="AY211"/>
+      <c r="AZ211"/>
+      <c r="BA211"/>
+      <c r="BB211"/>
+      <c r="BC211"/>
+      <c r="BD211"/>
+      <c r="BE211"/>
+      <c r="BF211" t="n">
+        <v>467</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>507</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="BI211" t="n">
         <v>29677668</v>
       </c>
     </row>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -7629,7 +7629,7 @@
         <v>43897</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>43898</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>43904</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -15832,7 +15832,7 @@
         <v>30</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>272725</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -15984,7 +15984,7 @@
         <v>292037</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>19312</v>
       </c>
       <c r="H128" t="n">
         <v>19318</v>
@@ -18740,7 +18740,7 @@
         <v>15</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>660292</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -18908,7 +18908,7 @@
         <v>693081</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>32789</v>
       </c>
       <c r="H146" t="n">
         <v>27045</v>
@@ -21892,7 +21892,7 @@
         <v>24</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1051218</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -22072,7 +22072,7 @@
         <v>1070849</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>19631</v>
       </c>
       <c r="H164" t="n">
         <v>33639</v>
@@ -24193,7 +24193,7 @@
         <v>41</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1350920</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>6020</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -29664,7 +29664,7 @@
         <v>5810</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -29805,19 +29805,19 @@
         <v>4268</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>2676478</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>163376</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -29942,19 +29942,19 @@
         <v>4268</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>5711</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>2676478</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>163376</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -30068,6 +30068,89 @@
         <v>29677668</v>
       </c>
     </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212"/>
+      <c r="P212"/>
+      <c r="Q212"/>
+      <c r="R212"/>
+      <c r="S212"/>
+      <c r="T212"/>
+      <c r="U212"/>
+      <c r="V212"/>
+      <c r="W212"/>
+      <c r="X212" t="n">
+        <v>484</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1791</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>265</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>941</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>14867</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>1973</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>5544</v>
+      </c>
+      <c r="AF212"/>
+      <c r="AG212"/>
+      <c r="AH212"/>
+      <c r="AI212"/>
+      <c r="AJ212"/>
+      <c r="AK212"/>
+      <c r="AL212"/>
+      <c r="AM212"/>
+      <c r="AN212"/>
+      <c r="AO212"/>
+      <c r="AP212"/>
+      <c r="AQ212"/>
+      <c r="AR212"/>
+      <c r="AS212"/>
+      <c r="AT212"/>
+      <c r="AU212"/>
+      <c r="AV212"/>
+      <c r="AW212"/>
+      <c r="AX212"/>
+      <c r="AY212"/>
+      <c r="AZ212"/>
+      <c r="BA212"/>
+      <c r="BB212"/>
+      <c r="BC212"/>
+      <c r="BD212"/>
+      <c r="BE212"/>
+      <c r="BF212"/>
+      <c r="BG212"/>
+      <c r="BH212"/>
+      <c r="BI212" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">229107.20000000001</t>
+    <t xml:space="preserve">244449</t>
   </si>
 </sst>
 </file>
@@ -12472,7 +12472,7 @@
         <v>237</v>
       </c>
       <c r="AK104" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AL104"/>
       <c r="AM104"/>
@@ -12621,7 +12621,7 @@
         <v>472</v>
       </c>
       <c r="AK105" t="n">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="AL105"/>
       <c r="AM105"/>
@@ -12770,7 +12770,7 @@
         <v>809</v>
       </c>
       <c r="AK106" t="n">
-        <v>1199</v>
+        <v>809</v>
       </c>
       <c r="AL106"/>
       <c r="AM106"/>
@@ -12919,7 +12919,7 @@
         <v>834</v>
       </c>
       <c r="AK107" t="n">
-        <v>1479</v>
+        <v>834</v>
       </c>
       <c r="AL107"/>
       <c r="AM107"/>
@@ -13068,7 +13068,7 @@
         <v>976</v>
       </c>
       <c r="AK108" t="n">
-        <v>1889</v>
+        <v>976</v>
       </c>
       <c r="AL108"/>
       <c r="AM108"/>
@@ -13217,7 +13217,7 @@
         <v>996</v>
       </c>
       <c r="AK109" t="n">
-        <v>2217</v>
+        <v>996</v>
       </c>
       <c r="AL109"/>
       <c r="AM109"/>
@@ -13366,7 +13366,7 @@
         <v>1164</v>
       </c>
       <c r="AK110" t="n">
-        <v>2455</v>
+        <v>1164</v>
       </c>
       <c r="AL110"/>
       <c r="AM110"/>
@@ -13515,7 +13515,7 @@
         <v>1257</v>
       </c>
       <c r="AK111" t="n">
-        <v>3008</v>
+        <v>1257</v>
       </c>
       <c r="AL111"/>
       <c r="AM111"/>
@@ -13664,7 +13664,7 @@
         <v>1242</v>
       </c>
       <c r="AK112" t="n">
-        <v>3691</v>
+        <v>1242</v>
       </c>
       <c r="AL112"/>
       <c r="AM112"/>
@@ -13813,7 +13813,7 @@
         <v>971</v>
       </c>
       <c r="AK113" t="n">
-        <v>3909</v>
+        <v>971</v>
       </c>
       <c r="AL113"/>
       <c r="AM113"/>
@@ -13962,7 +13962,7 @@
         <v>1190</v>
       </c>
       <c r="AK114" t="n">
-        <v>4356</v>
+        <v>1190</v>
       </c>
       <c r="AL114"/>
       <c r="AM114"/>
@@ -14111,7 +14111,7 @@
         <v>1356</v>
       </c>
       <c r="AK115" t="n">
-        <v>4145</v>
+        <v>1356</v>
       </c>
       <c r="AL115"/>
       <c r="AM115"/>
@@ -14260,7 +14260,7 @@
         <v>1758</v>
       </c>
       <c r="AK116" t="n">
-        <v>4705</v>
+        <v>1758</v>
       </c>
       <c r="AL116"/>
       <c r="AM116"/>
@@ -14409,7 +14409,7 @@
         <v>1281</v>
       </c>
       <c r="AK117" t="n">
-        <v>4787</v>
+        <v>1281</v>
       </c>
       <c r="AL117"/>
       <c r="AM117"/>
@@ -14558,7 +14558,7 @@
         <v>1409</v>
       </c>
       <c r="AK118" t="n">
-        <v>5091</v>
+        <v>1409</v>
       </c>
       <c r="AL118"/>
       <c r="AM118"/>
@@ -14707,7 +14707,7 @@
         <v>1579</v>
       </c>
       <c r="AK119" t="n">
-        <v>4700</v>
+        <v>1579</v>
       </c>
       <c r="AL119"/>
       <c r="AM119"/>
@@ -14856,7 +14856,7 @@
         <v>1382</v>
       </c>
       <c r="AK120" t="n">
-        <v>5805</v>
+        <v>1382</v>
       </c>
       <c r="AL120"/>
       <c r="AM120"/>
@@ -15005,7 +15005,7 @@
         <v>1750</v>
       </c>
       <c r="AK121" t="n">
-        <v>6501</v>
+        <v>1750</v>
       </c>
       <c r="AL121"/>
       <c r="AM121"/>
@@ -15154,7 +15154,7 @@
         <v>1382</v>
       </c>
       <c r="AK122" t="n">
-        <v>6771</v>
+        <v>1382</v>
       </c>
       <c r="AL122"/>
       <c r="AM122"/>
@@ -15303,7 +15303,7 @@
         <v>2007</v>
       </c>
       <c r="AK123" t="n">
-        <v>7178</v>
+        <v>2007</v>
       </c>
       <c r="AL123"/>
       <c r="AM123"/>
@@ -15452,7 +15452,7 @@
         <v>1689</v>
       </c>
       <c r="AK124" t="n">
-        <v>6955</v>
+        <v>1689</v>
       </c>
       <c r="AL124"/>
       <c r="AM124"/>
@@ -15601,7 +15601,7 @@
         <v>1548</v>
       </c>
       <c r="AK125" t="n">
-        <v>6400</v>
+        <v>1548</v>
       </c>
       <c r="AL125"/>
       <c r="AM125"/>
@@ -15750,7 +15750,7 @@
         <v>1505</v>
       </c>
       <c r="AK126" t="n">
-        <v>7057</v>
+        <v>1505</v>
       </c>
       <c r="AL126"/>
       <c r="AM126"/>
@@ -15899,7 +15899,7 @@
         <v>1947</v>
       </c>
       <c r="AK127" t="n">
-        <v>7607</v>
+        <v>1947</v>
       </c>
       <c r="AL127"/>
       <c r="AM127"/>
@@ -16048,7 +16048,7 @@
         <v>1688</v>
       </c>
       <c r="AK128" t="n">
-        <v>7879</v>
+        <v>1688</v>
       </c>
       <c r="AL128"/>
       <c r="AM128"/>
@@ -16197,7 +16197,7 @@
         <v>1800</v>
       </c>
       <c r="AK129" t="n">
-        <v>8886</v>
+        <v>1800</v>
       </c>
       <c r="AL129"/>
       <c r="AM129"/>
@@ -16346,7 +16346,7 @@
         <v>1940</v>
       </c>
       <c r="AK130" t="n">
-        <v>8982</v>
+        <v>1940</v>
       </c>
       <c r="AL130"/>
       <c r="AM130"/>
@@ -16499,7 +16499,7 @@
         <v>1768</v>
       </c>
       <c r="AK131" t="n">
-        <v>8593</v>
+        <v>1768</v>
       </c>
       <c r="AL131"/>
       <c r="AM131"/>
@@ -16652,7 +16652,7 @@
         <v>1795</v>
       </c>
       <c r="AK132" t="n">
-        <v>7667</v>
+        <v>1795</v>
       </c>
       <c r="AL132"/>
       <c r="AM132"/>
@@ -16805,7 +16805,7 @@
         <v>1393</v>
       </c>
       <c r="AK133" t="n">
-        <v>7984</v>
+        <v>1393</v>
       </c>
       <c r="AL133"/>
       <c r="AM133"/>
@@ -16958,7 +16958,7 @@
         <v>1278</v>
       </c>
       <c r="AK134" t="n">
-        <v>8896</v>
+        <v>1278</v>
       </c>
       <c r="AL134"/>
       <c r="AM134"/>
@@ -17111,7 +17111,7 @@
         <v>1799</v>
       </c>
       <c r="AK135" t="n">
-        <v>10658</v>
+        <v>1799</v>
       </c>
       <c r="AL135"/>
       <c r="AM135"/>
@@ -17264,7 +17264,7 @@
         <v>2062</v>
       </c>
       <c r="AK136" t="n">
-        <v>9833</v>
+        <v>2062</v>
       </c>
       <c r="AL136"/>
       <c r="AM136"/>
@@ -17433,7 +17433,7 @@
         <v>1959</v>
       </c>
       <c r="AK137" t="n">
-        <v>8352</v>
+        <v>1959</v>
       </c>
       <c r="AL137"/>
       <c r="AM137"/>
@@ -17608,7 +17608,7 @@
         <v>2123</v>
       </c>
       <c r="AK138" t="n">
-        <v>10382</v>
+        <v>2123</v>
       </c>
       <c r="AL138"/>
       <c r="AM138"/>
@@ -17783,7 +17783,7 @@
         <v>2340</v>
       </c>
       <c r="AK139" t="n">
-        <v>9405</v>
+        <v>2340</v>
       </c>
       <c r="AL139"/>
       <c r="AM139"/>
@@ -17958,7 +17958,7 @@
         <v>2322</v>
       </c>
       <c r="AK140" t="n">
-        <v>9902</v>
+        <v>2322</v>
       </c>
       <c r="AL140"/>
       <c r="AM140"/>
@@ -18133,7 +18133,7 @@
         <v>1802</v>
       </c>
       <c r="AK141" t="n">
-        <v>11703</v>
+        <v>1802</v>
       </c>
       <c r="AL141"/>
       <c r="AM141"/>
@@ -18308,7 +18308,7 @@
         <v>1738</v>
       </c>
       <c r="AK142" t="n">
-        <v>10815</v>
+        <v>1738</v>
       </c>
       <c r="AL142"/>
       <c r="AM142"/>
@@ -18483,7 +18483,7 @@
         <v>2111</v>
       </c>
       <c r="AK143" t="n">
-        <v>12773</v>
+        <v>2111</v>
       </c>
       <c r="AL143"/>
       <c r="AM143"/>
@@ -18658,7 +18658,7 @@
         <v>2469</v>
       </c>
       <c r="AK144" t="n">
-        <v>11710</v>
+        <v>2469</v>
       </c>
       <c r="AL144"/>
       <c r="AM144"/>
@@ -18823,7 +18823,7 @@
         <v>2189</v>
       </c>
       <c r="AK145" t="n">
-        <v>13032</v>
+        <v>2189</v>
       </c>
       <c r="AL145"/>
       <c r="AM145"/>
@@ -18998,7 +18998,7 @@
         <v>1603</v>
       </c>
       <c r="AK146" t="n">
-        <v>11813</v>
+        <v>1603</v>
       </c>
       <c r="AL146"/>
       <c r="AM146"/>
@@ -19173,7 +19173,7 @@
         <v>1931</v>
       </c>
       <c r="AK147" t="n">
-        <v>11316</v>
+        <v>1931</v>
       </c>
       <c r="AL147"/>
       <c r="AM147"/>
@@ -19348,7 +19348,7 @@
         <v>2212</v>
       </c>
       <c r="AK148" t="n">
-        <v>13556</v>
+        <v>2212</v>
       </c>
       <c r="AL148"/>
       <c r="AM148"/>
@@ -19523,7 +19523,7 @@
         <v>2088</v>
       </c>
       <c r="AK149" t="n">
-        <v>12457</v>
+        <v>2088</v>
       </c>
       <c r="AL149"/>
       <c r="AM149"/>
@@ -19698,7 +19698,7 @@
         <v>2163</v>
       </c>
       <c r="AK150" t="n">
-        <v>13386</v>
+        <v>2163</v>
       </c>
       <c r="AL150"/>
       <c r="AM150"/>
@@ -19873,7 +19873,7 @@
         <v>2595</v>
       </c>
       <c r="AK151" t="n">
-        <v>12818</v>
+        <v>2595</v>
       </c>
       <c r="AL151"/>
       <c r="AM151"/>
@@ -20042,7 +20042,7 @@
         <v>2155</v>
       </c>
       <c r="AK152" t="n">
-        <v>11075</v>
+        <v>2155</v>
       </c>
       <c r="AL152"/>
       <c r="AM152"/>
@@ -20217,7 +20217,7 @@
         <v>2237</v>
       </c>
       <c r="AK153" t="n">
-        <v>14796</v>
+        <v>2237</v>
       </c>
       <c r="AL153"/>
       <c r="AM153"/>
@@ -20392,7 +20392,7 @@
         <v>2200</v>
       </c>
       <c r="AK154" t="n">
-        <v>13357</v>
+        <v>2200</v>
       </c>
       <c r="AL154" t="n">
         <v>5394</v>
@@ -20569,7 +20569,7 @@
         <v>2473</v>
       </c>
       <c r="AK155" t="n">
-        <v>13409</v>
+        <v>2473</v>
       </c>
       <c r="AL155" t="n">
         <v>5314</v>
@@ -20746,7 +20746,7 @@
         <v>2121</v>
       </c>
       <c r="AK156" t="n">
-        <v>13209</v>
+        <v>2121</v>
       </c>
       <c r="AL156" t="n">
         <v>5566</v>
@@ -20923,7 +20923,7 @@
         <v>2026</v>
       </c>
       <c r="AK157" t="n">
-        <v>11925</v>
+        <v>2026</v>
       </c>
       <c r="AL157" t="n">
         <v>5577</v>
@@ -21100,7 +21100,7 @@
         <v>2256</v>
       </c>
       <c r="AK158" t="n">
-        <v>14360</v>
+        <v>2256</v>
       </c>
       <c r="AL158" t="n">
         <v>5587</v>
@@ -21277,7 +21277,7 @@
         <v>2461</v>
       </c>
       <c r="AK159" t="n">
-        <v>14962</v>
+        <v>2461</v>
       </c>
       <c r="AL159" t="n">
         <v>5623</v>
@@ -21454,7 +21454,7 @@
         <v>2386</v>
       </c>
       <c r="AK160" t="n">
-        <v>15834</v>
+        <v>2386</v>
       </c>
       <c r="AL160" t="n">
         <v>5657</v>
@@ -21631,7 +21631,7 @@
         <v>2279</v>
       </c>
       <c r="AK161" t="n">
-        <v>14681</v>
+        <v>2279</v>
       </c>
       <c r="AL161" t="n">
         <v>5292</v>
@@ -21808,7 +21808,7 @@
         <v>2505</v>
       </c>
       <c r="AK162" t="n">
-        <v>14496</v>
+        <v>2505</v>
       </c>
       <c r="AL162" t="n">
         <v>5500</v>
@@ -21985,7 +21985,7 @@
         <v>2626</v>
       </c>
       <c r="AK163" t="n">
-        <v>16310</v>
+        <v>2626</v>
       </c>
       <c r="AL163" t="n">
         <v>5622</v>
@@ -22162,7 +22162,7 @@
         <v>2363</v>
       </c>
       <c r="AK164" t="n">
-        <v>15780</v>
+        <v>2363</v>
       </c>
       <c r="AL164" t="n">
         <v>5667</v>
@@ -22339,7 +22339,7 @@
         <v>2337</v>
       </c>
       <c r="AK165" t="n">
-        <v>15779</v>
+        <v>2337</v>
       </c>
       <c r="AL165" t="n">
         <v>5726</v>
@@ -22516,7 +22516,7 @@
         <v>2395</v>
       </c>
       <c r="AK166" t="n">
-        <v>14989</v>
+        <v>2395</v>
       </c>
       <c r="AL166" t="n">
         <v>5710</v>
@@ -22693,7 +22693,7 @@
         <v>2776</v>
       </c>
       <c r="AK167" t="n">
-        <v>15358</v>
+        <v>2776</v>
       </c>
       <c r="AL167" t="n">
         <v>5633</v>
@@ -22870,7 +22870,7 @@
         <v>2638</v>
       </c>
       <c r="AK168" t="n">
-        <v>17191</v>
+        <v>2638</v>
       </c>
       <c r="AL168" t="n">
         <v>5289</v>
@@ -23047,7 +23047,7 @@
         <v>2481</v>
       </c>
       <c r="AK169" t="n">
-        <v>15636</v>
+        <v>2481</v>
       </c>
       <c r="AL169" t="n">
         <v>5529</v>
@@ -23224,7 +23224,7 @@
         <v>2537</v>
       </c>
       <c r="AK170" t="n">
-        <v>17830</v>
+        <v>2537</v>
       </c>
       <c r="AL170" t="n">
         <v>5782</v>
@@ -23401,7 +23401,7 @@
         <v>2413</v>
       </c>
       <c r="AK171" t="n">
-        <v>16941</v>
+        <v>2413</v>
       </c>
       <c r="AL171" t="n">
         <v>5856</v>
@@ -23578,7 +23578,7 @@
         <v>2411</v>
       </c>
       <c r="AK172" t="n">
-        <v>17648</v>
+        <v>2411</v>
       </c>
       <c r="AL172" t="n">
         <v>5841</v>
@@ -23755,7 +23755,7 @@
         <v>2716</v>
       </c>
       <c r="AK173" t="n">
-        <v>18195</v>
+        <v>2716</v>
       </c>
       <c r="AL173" t="n">
         <v>5807</v>
@@ -23932,7 +23932,7 @@
         <v>2748</v>
       </c>
       <c r="AK174" t="n">
-        <v>14326</v>
+        <v>2748</v>
       </c>
       <c r="AL174" t="n">
         <v>5701</v>
@@ -24109,7 +24109,7 @@
         <v>2442</v>
       </c>
       <c r="AK175" t="n">
-        <v>14832</v>
+        <v>2442</v>
       </c>
       <c r="AL175" t="n">
         <v>5712</v>
@@ -24286,7 +24286,7 @@
         <v>2760</v>
       </c>
       <c r="AK176" t="n">
-        <v>14540</v>
+        <v>2760</v>
       </c>
       <c r="AL176" t="n">
         <v>5762</v>
@@ -24364,10 +24364,10 @@
         <v>5551</v>
       </c>
       <c r="D177" t="n">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E177" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F177" t="n">
         <v>1399304</v>
@@ -24463,7 +24463,7 @@
         <v>2226</v>
       </c>
       <c r="AK177" t="n">
-        <v>17380</v>
+        <v>2226</v>
       </c>
       <c r="AL177" t="n">
         <v>5968</v>
@@ -24541,7 +24541,7 @@
         <v>5996</v>
       </c>
       <c r="D178" t="n">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="E178" t="n">
         <v>58</v>
@@ -24640,7 +24640,7 @@
         <v>2419</v>
       </c>
       <c r="AK178" t="n">
-        <v>17819</v>
+        <v>2419</v>
       </c>
       <c r="AL178" t="n">
         <v>6051</v>
@@ -24718,10 +24718,10 @@
         <v>5707</v>
       </c>
       <c r="D179" t="n">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="E179" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F179" t="n">
         <v>1444189</v>
@@ -24817,7 +24817,7 @@
         <v>2572</v>
       </c>
       <c r="AK179" t="n">
-        <v>19436</v>
+        <v>2572</v>
       </c>
       <c r="AL179" t="n">
         <v>6150</v>
@@ -24895,10 +24895,10 @@
         <v>5742</v>
       </c>
       <c r="D180" t="n">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="E180" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F180" t="n">
         <v>1492340</v>
@@ -24994,7 +24994,7 @@
         <v>1962</v>
       </c>
       <c r="AK180" t="n">
-        <v>19836</v>
+        <v>1962</v>
       </c>
       <c r="AL180" t="n">
         <v>6165</v>
@@ -25072,7 +25072,7 @@
         <v>5357</v>
       </c>
       <c r="D181" t="n">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="E181" t="n">
         <v>87</v>
@@ -25171,7 +25171,7 @@
         <v>2154</v>
       </c>
       <c r="AK181" t="n">
-        <v>16804</v>
+        <v>2154</v>
       </c>
       <c r="AL181" t="n">
         <v>5999</v>
@@ -25249,7 +25249,7 @@
         <v>4288</v>
       </c>
       <c r="D182" t="n">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="E182" t="n">
         <v>85</v>
@@ -25348,7 +25348,7 @@
         <v>1987</v>
       </c>
       <c r="AK182" t="n">
-        <v>17315</v>
+        <v>1987</v>
       </c>
       <c r="AL182" t="n">
         <v>5931</v>
@@ -25426,10 +25426,10 @@
         <v>6975</v>
       </c>
       <c r="D183" t="n">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="E183" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F183" t="n">
         <v>1612583</v>
@@ -25525,7 +25525,7 @@
         <v>1987</v>
       </c>
       <c r="AK183" t="n">
-        <v>17400</v>
+        <v>1987</v>
       </c>
       <c r="AL183" t="n">
         <v>5921</v>
@@ -25603,7 +25603,7 @@
         <v>8076</v>
       </c>
       <c r="D184" t="n">
-        <v>3380</v>
+        <v>3384</v>
       </c>
       <c r="E184" t="n">
         <v>89</v>
@@ -25702,7 +25702,7 @@
         <v>2928</v>
       </c>
       <c r="AK184" t="n">
-        <v>17348</v>
+        <v>2928</v>
       </c>
       <c r="AL184" t="n">
         <v>6017</v>
@@ -25782,10 +25782,10 @@
         <v>7915</v>
       </c>
       <c r="D185" t="n">
-        <v>3482</v>
+        <v>3490</v>
       </c>
       <c r="E185" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F185" t="n">
         <v>1696809</v>
@@ -25881,7 +25881,7 @@
         <v>2509</v>
       </c>
       <c r="AK185" t="n">
-        <v>19376</v>
+        <v>2509</v>
       </c>
       <c r="AL185" t="n">
         <v>6147</v>
@@ -25961,10 +25961,10 @@
         <v>7555</v>
       </c>
       <c r="D186" t="n">
-        <v>3600</v>
+        <v>3611</v>
       </c>
       <c r="E186" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F186" t="n">
         <v>1741722</v>
@@ -26060,7 +26060,7 @@
         <v>2218</v>
       </c>
       <c r="AK186" t="n">
-        <v>21629</v>
+        <v>2218</v>
       </c>
       <c r="AL186" t="n">
         <v>6045</v>
@@ -26140,7 +26140,7 @@
         <v>8258</v>
       </c>
       <c r="D187" t="n">
-        <v>3727</v>
+        <v>3738</v>
       </c>
       <c r="E187" t="n">
         <v>127</v>
@@ -26239,7 +26239,7 @@
         <v>2113</v>
       </c>
       <c r="AK187" t="n">
-        <v>21006</v>
+        <v>2113</v>
       </c>
       <c r="AL187" t="n">
         <v>5952</v>
@@ -26319,10 +26319,10 @@
         <v>3449</v>
       </c>
       <c r="D188" t="n">
-        <v>3837</v>
+        <v>3849</v>
       </c>
       <c r="E188" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F188" t="n">
         <v>1829966</v>
@@ -26418,7 +26418,7 @@
         <v>2072</v>
       </c>
       <c r="AK188" t="n">
-        <v>19046</v>
+        <v>2072</v>
       </c>
       <c r="AL188" t="n">
         <v>5946</v>
@@ -26498,7 +26498,7 @@
         <v>5318</v>
       </c>
       <c r="D189" t="n">
-        <v>3951</v>
+        <v>3963</v>
       </c>
       <c r="E189" t="n">
         <v>114</v>
@@ -26597,7 +26597,7 @@
         <v>3000</v>
       </c>
       <c r="AK189" t="n">
-        <v>17379</v>
+        <v>3000</v>
       </c>
       <c r="AL189" t="n">
         <v>5913</v>
@@ -26677,10 +26677,10 @@
         <v>10028</v>
       </c>
       <c r="D190" t="n">
-        <v>4083</v>
+        <v>4096</v>
       </c>
       <c r="E190" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F190" t="n">
         <v>1917116</v>
@@ -26776,7 +26776,7 @@
         <v>2241</v>
       </c>
       <c r="AK190" t="n">
-        <v>19026</v>
+        <v>2241</v>
       </c>
       <c r="AL190" t="n">
         <v>6087</v>
@@ -26856,10 +26856,10 @@
         <v>9979</v>
       </c>
       <c r="D191" t="n">
-        <v>4227</v>
+        <v>4247</v>
       </c>
       <c r="E191" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F191" t="n">
         <v>1960005</v>
@@ -26955,7 +26955,7 @@
         <v>3357</v>
       </c>
       <c r="AK191" t="n">
-        <v>16431</v>
+        <v>3357</v>
       </c>
       <c r="AL191" t="n">
         <v>6322</v>
@@ -27035,10 +27035,10 @@
         <v>9782</v>
       </c>
       <c r="D192" t="n">
-        <v>4359</v>
+        <v>4383</v>
       </c>
       <c r="E192" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F192" t="n">
         <v>2020405</v>
@@ -27134,7 +27134,7 @@
         <v>2665</v>
       </c>
       <c r="AK192" t="n">
-        <v>19688</v>
+        <v>2665</v>
       </c>
       <c r="AL192" t="n">
         <v>6478</v>
@@ -27214,10 +27214,10 @@
         <v>9765</v>
       </c>
       <c r="D193" t="n">
-        <v>4504</v>
+        <v>4532</v>
       </c>
       <c r="E193" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F193" t="n">
         <v>2069122</v>
@@ -27313,7 +27313,7 @@
         <v>2703</v>
       </c>
       <c r="AK193" t="n">
-        <v>22552</v>
+        <v>2703</v>
       </c>
       <c r="AL193" t="n">
         <v>6379</v>
@@ -27393,10 +27393,10 @@
         <v>10351</v>
       </c>
       <c r="D194" t="n">
-        <v>4641</v>
+        <v>4672</v>
       </c>
       <c r="E194" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F194" t="n">
         <v>2110922</v>
@@ -27492,7 +27492,7 @@
         <v>2662</v>
       </c>
       <c r="AK194" t="n">
-        <v>19705</v>
+        <v>2662</v>
       </c>
       <c r="AL194" t="n">
         <v>6353</v>
@@ -27572,10 +27572,10 @@
         <v>8196</v>
       </c>
       <c r="D195" t="n">
-        <v>4810</v>
+        <v>4842</v>
       </c>
       <c r="E195" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F195" t="n">
         <v>2165623</v>
@@ -27671,7 +27671,7 @@
         <v>2779</v>
       </c>
       <c r="AK195" t="n">
-        <v>21533</v>
+        <v>2779</v>
       </c>
       <c r="AL195" t="n">
         <v>6405</v>
@@ -27751,10 +27751,10 @@
         <v>5655</v>
       </c>
       <c r="D196" t="n">
-        <v>4946</v>
+        <v>4983</v>
       </c>
       <c r="E196" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F196" t="n">
         <v>2205822</v>
@@ -27850,7 +27850,7 @@
         <v>2464</v>
       </c>
       <c r="AK196" t="n">
-        <v>18883</v>
+        <v>2464</v>
       </c>
       <c r="AL196" t="n">
         <v>6370</v>
@@ -27930,10 +27930,10 @@
         <v>10745</v>
       </c>
       <c r="D197" t="n">
-        <v>5101</v>
+        <v>5144</v>
       </c>
       <c r="E197" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F197" t="n">
         <v>2249060</v>
@@ -28029,7 +28029,7 @@
         <v>2790</v>
       </c>
       <c r="AK197" t="n">
-        <v>21427</v>
+        <v>2790</v>
       </c>
       <c r="AL197" t="n">
         <v>6334</v>
@@ -28109,10 +28109,10 @@
         <v>7307</v>
       </c>
       <c r="D198" t="n">
-        <v>5232</v>
+        <v>5285</v>
       </c>
       <c r="E198" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F198" t="n">
         <v>2286774</v>
@@ -28208,7 +28208,7 @@
         <v>3007</v>
       </c>
       <c r="AK198" t="n">
-        <v>20688</v>
+        <v>3007</v>
       </c>
       <c r="AL198" t="n">
         <v>6583</v>
@@ -28252,10 +28252,10 @@
         <v>10291</v>
       </c>
       <c r="D199" t="n">
-        <v>5338</v>
+        <v>5397</v>
       </c>
       <c r="E199" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F199" t="n">
         <v>2301483</v>
@@ -28351,7 +28351,7 @@
         <v>2784</v>
       </c>
       <c r="AK199" t="n">
-        <v>20552</v>
+        <v>2784</v>
       </c>
       <c r="AL199" t="n">
         <v>6666</v>
@@ -28395,10 +28395,10 @@
         <v>14916</v>
       </c>
       <c r="D200" t="n">
-        <v>5432</v>
+        <v>5451</v>
       </c>
       <c r="E200" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F200" t="n">
         <v>2343210</v>
@@ -28494,7 +28494,7 @@
         <v>3024</v>
       </c>
       <c r="AK200" t="n">
-        <v>19201</v>
+        <v>3024</v>
       </c>
       <c r="AL200" t="n">
         <v>6693</v>
@@ -28538,10 +28538,10 @@
         <v>10158</v>
       </c>
       <c r="D201" t="n">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="E201" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F201" t="n">
         <v>2384232</v>
@@ -28637,7 +28637,7 @@
         <v>2074</v>
       </c>
       <c r="AK201" t="n">
-        <v>19134</v>
+        <v>2074</v>
       </c>
       <c r="AL201" t="n">
         <v>6658</v>
@@ -28681,10 +28681,10 @@
         <v>7300</v>
       </c>
       <c r="D202" t="n">
-        <v>5580</v>
+        <v>5573</v>
       </c>
       <c r="E202" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F202" t="n">
         <v>2439082</v>
@@ -28780,7 +28780,7 @@
         <v>2436</v>
       </c>
       <c r="AK202" t="n">
-        <v>21542</v>
+        <v>2436</v>
       </c>
       <c r="AL202" t="n">
         <v>6661</v>
@@ -28824,10 +28824,10 @@
         <v>7404</v>
       </c>
       <c r="D203" t="n">
-        <v>5642</v>
+        <v>5670</v>
       </c>
       <c r="E203" t="n">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F203" t="n">
         <v>2473836</v>
@@ -28923,7 +28923,7 @@
         <v>1599</v>
       </c>
       <c r="AK203" t="n">
-        <v>20093</v>
+        <v>1599</v>
       </c>
       <c r="AL203" t="n">
         <v>6633</v>
@@ -28967,10 +28967,10 @@
         <v>9305</v>
       </c>
       <c r="D204" t="n">
-        <v>5679</v>
+        <v>5716</v>
       </c>
       <c r="E204" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F204" t="n">
         <v>2514877</v>
@@ -29050,7 +29050,7 @@
         <v>2991</v>
       </c>
       <c r="AK204" t="n">
-        <v>21265</v>
+        <v>2991</v>
       </c>
       <c r="AL204" t="n">
         <v>6654</v>
@@ -29094,10 +29094,10 @@
         <v>9879</v>
       </c>
       <c r="D205" t="n">
-        <v>5705</v>
+        <v>5743</v>
       </c>
       <c r="E205" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F205" t="n">
         <v>2544071</v>
@@ -29111,23 +29111,23 @@
       <c r="I205" t="n">
         <v>2722</v>
       </c>
-      <c r="J205" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K205" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L205" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M205" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N205" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O205" t="e">
-        <v>#NUM!</v>
+      <c r="J205" t="n">
+        <v>-15.159716386158</v>
+      </c>
+      <c r="K205" t="n">
+        <v>-6.11063405039203</v>
+      </c>
+      <c r="L205" t="n">
+        <v>16.8255561162888</v>
+      </c>
+      <c r="M205" t="n">
+        <v>-26.9475717603032</v>
+      </c>
+      <c r="N205" t="n">
+        <v>-39.2208933185602</v>
+      </c>
+      <c r="O205" t="n">
+        <v>13.9089769584217</v>
       </c>
       <c r="P205" t="n">
         <v>3164656</v>
@@ -29193,7 +29193,7 @@
         <v>2898</v>
       </c>
       <c r="AK205" t="n">
-        <v>18985</v>
+        <v>2898</v>
       </c>
       <c r="AL205" t="n">
         <v>6794</v>
@@ -29237,10 +29237,10 @@
         <v>9507</v>
       </c>
       <c r="D206" t="n">
-        <v>5710</v>
+        <v>5755</v>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F206" t="n">
         <v>2574376</v>
@@ -29254,23 +29254,23 @@
       <c r="I206" t="n">
         <v>2100</v>
       </c>
-      <c r="J206" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K206" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L206" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M206" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N206" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O206" t="e">
-        <v>#NUM!</v>
+      <c r="J206" t="n">
+        <v>-15.2546539357837</v>
+      </c>
+      <c r="K206" t="n">
+        <v>-5.19285989906256</v>
+      </c>
+      <c r="L206" t="n">
+        <v>20.6073565352649</v>
+      </c>
+      <c r="M206" t="n">
+        <v>-26.8484841314771</v>
+      </c>
+      <c r="N206" t="n">
+        <v>-39.8621106582454</v>
+      </c>
+      <c r="O206" t="n">
+        <v>13.3669166858273</v>
       </c>
       <c r="P206" t="n">
         <v>3231931</v>
@@ -29336,7 +29336,7 @@
         <v>4504</v>
       </c>
       <c r="AK206" t="n">
-        <v>18371</v>
+        <v>4504</v>
       </c>
       <c r="AL206" t="n">
         <v>3758</v>
@@ -29380,10 +29380,10 @@
         <v>8701</v>
       </c>
       <c r="D207" t="n">
-        <v>5711</v>
+        <v>5758</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F207" t="n">
         <v>2609056</v>
@@ -29397,23 +29397,23 @@
       <c r="I207" t="n">
         <v>2608</v>
       </c>
-      <c r="J207" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K207" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L207" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M207" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N207" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O207" t="e">
-        <v>#NUM!</v>
+      <c r="J207" t="n">
+        <v>-18.6449286655679</v>
+      </c>
+      <c r="K207" t="n">
+        <v>-4.82949683936082</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3.57229060557325</v>
+      </c>
+      <c r="M207" t="n">
+        <v>-26.6150582075491</v>
+      </c>
+      <c r="N207" t="n">
+        <v>-39.280763598386</v>
+      </c>
+      <c r="O207" t="n">
+        <v>13.9332397253871</v>
       </c>
       <c r="P207" t="n">
         <v>3306042</v>
@@ -29479,7 +29479,7 @@
         <v>3505</v>
       </c>
       <c r="AK207" t="n">
-        <v>21375</v>
+        <v>3505</v>
       </c>
       <c r="AL207" t="n">
         <v>6552</v>
@@ -29523,7 +29523,7 @@
         <v>6020</v>
       </c>
       <c r="D208" t="n">
-        <v>5711</v>
+        <v>5758</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -29540,23 +29540,23 @@
       <c r="I208" t="n">
         <v>1752</v>
       </c>
-      <c r="J208" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K208" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L208" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M208" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N208" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O208" t="e">
-        <v>#NUM!</v>
+      <c r="J208" t="n">
+        <v>-26.2298596465472</v>
+      </c>
+      <c r="K208" t="n">
+        <v>-11.2201313649376</v>
+      </c>
+      <c r="L208" t="n">
+        <v>-9.67752550754666</v>
+      </c>
+      <c r="M208" t="n">
+        <v>-31.3394966606893</v>
+      </c>
+      <c r="N208" t="n">
+        <v>-19.4241142004293</v>
+      </c>
+      <c r="O208" t="n">
+        <v>8.93922359621042</v>
       </c>
       <c r="P208" t="n">
         <v>3369975</v>
@@ -29622,7 +29622,7 @@
         <v>3750</v>
       </c>
       <c r="AK208" t="n">
-        <v>22689</v>
+        <v>3750</v>
       </c>
       <c r="AL208" t="n">
         <v>6932</v>
@@ -29664,10 +29664,10 @@
         <v>5810</v>
       </c>
       <c r="D209" t="n">
-        <v>5711</v>
+        <v>5759</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
         <v>2676478</v>
@@ -29763,7 +29763,7 @@
         <v>3460</v>
       </c>
       <c r="AK209" t="n">
-        <v>21580</v>
+        <v>3460</v>
       </c>
       <c r="AL209"/>
       <c r="AM209" t="n">
@@ -29799,28 +29799,28 @@
         <v>44039</v>
       </c>
       <c r="B210" t="n">
-        <v>385924</v>
+        <v>385923</v>
       </c>
       <c r="C210" t="n">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="D210" t="n">
-        <v>5711</v>
+        <v>5759</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>2676478</v>
+        <v>2718547</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>42069</v>
       </c>
       <c r="H210" t="n">
-        <v>163376</v>
+        <v>154817</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>-8559</v>
       </c>
       <c r="J210" t="e">
         <v>#NUM!</v>
@@ -29840,15 +29840,27 @@
       <c r="O210" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P210"/>
-      <c r="Q210"/>
+      <c r="P210" t="n">
+        <v>3476926</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>237895</v>
+      </c>
       <c r="R210" t="n">
         <v>3714821</v>
       </c>
-      <c r="S210"/>
-      <c r="T210"/>
-      <c r="U210"/>
-      <c r="V210"/>
+      <c r="S210" t="n">
+        <v>0.12825832118001</v>
+      </c>
+      <c r="T210" t="n">
+        <v>61907</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1653</v>
+      </c>
+      <c r="V210" t="n">
+        <v>63561</v>
+      </c>
       <c r="W210" t="n">
         <v>9781</v>
       </c>
@@ -29892,7 +29904,7 @@
         <v>2233</v>
       </c>
       <c r="AK210" t="n">
-        <v>22703</v>
+        <v>2233</v>
       </c>
       <c r="AL210" t="n">
         <v>6989</v>
@@ -29936,28 +29948,28 @@
         <v>44039</v>
       </c>
       <c r="B211" t="n">
-        <v>385924</v>
+        <v>385923</v>
       </c>
       <c r="C211" t="n">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="D211" t="n">
-        <v>5711</v>
+        <v>5759</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>2676478</v>
+        <v>2718547</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>42069</v>
       </c>
       <c r="H211" t="n">
-        <v>163376</v>
+        <v>154817</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>-8559</v>
       </c>
       <c r="J211" t="e">
         <v>#NUM!</v>
@@ -29977,15 +29989,27 @@
       <c r="O211" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P211"/>
-      <c r="Q211"/>
+      <c r="P211" t="n">
+        <v>3476926</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>237895</v>
+      </c>
       <c r="R211" t="n">
         <v>3714821</v>
       </c>
-      <c r="S211"/>
-      <c r="T211"/>
-      <c r="U211"/>
-      <c r="V211"/>
+      <c r="S211" t="n">
+        <v>0.12825832118001</v>
+      </c>
+      <c r="T211" t="n">
+        <v>61907</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1653</v>
+      </c>
+      <c r="V211" t="n">
+        <v>63561</v>
+      </c>
       <c r="W211" t="n">
         <v>9781</v>
       </c>
@@ -30029,7 +30053,7 @@
         <v>2233</v>
       </c>
       <c r="AK211" t="n">
-        <v>22703</v>
+        <v>2233</v>
       </c>
       <c r="AL211" t="n">
         <v>6989</v>
@@ -30072,28 +30096,60 @@
       <c r="A212" s="1" t="n">
         <v>44040</v>
       </c>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-      <c r="K212"/>
-      <c r="L212"/>
-      <c r="M212"/>
-      <c r="N212"/>
-      <c r="O212"/>
+      <c r="B212" t="n">
+        <v>394265</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8342</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5759</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2718547</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>154817</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K212" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L212" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M212" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N212" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O212" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="P212"/>
       <c r="Q212"/>
-      <c r="R212"/>
+      <c r="R212" t="n">
+        <v>3777263</v>
+      </c>
       <c r="S212"/>
       <c r="T212"/>
       <c r="U212"/>
       <c r="V212"/>
-      <c r="W212"/>
+      <c r="W212" t="n">
+        <v>9593</v>
+      </c>
       <c r="X212" t="n">
         <v>484</v>
       </c>
@@ -30118,14 +30174,30 @@
       <c r="AE212" t="n">
         <v>5544</v>
       </c>
-      <c r="AF212"/>
-      <c r="AG212"/>
-      <c r="AH212"/>
-      <c r="AI212"/>
-      <c r="AJ212"/>
-      <c r="AK212"/>
-      <c r="AL212"/>
-      <c r="AM212"/>
+      <c r="AF212" t="n">
+        <v>6751</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>5541</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>3014</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>13647</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2674</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>2674</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>7319</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>6243</v>
+      </c>
       <c r="AN212"/>
       <c r="AO212"/>
       <c r="AP212"/>
@@ -30205,34 +30277,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>146836</v>
+        <v>143939</v>
       </c>
       <c r="C2" t="n">
-        <v>116670</v>
+        <v>116857</v>
       </c>
       <c r="D2" t="n">
-        <v>3598151</v>
+        <v>3660406</v>
       </c>
       <c r="E2" t="n">
-        <v>10921</v>
+        <v>11227</v>
       </c>
       <c r="F2" t="n">
-        <v>54271</v>
+        <v>57146</v>
       </c>
       <c r="G2" t="n">
-        <v>12723</v>
+        <v>13444</v>
       </c>
       <c r="H2" t="n">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="I2" t="n">
-        <v>6073</v>
+        <v>6243</v>
       </c>
       <c r="J2" t="n">
-        <v>32258</v>
+        <v>33078</v>
       </c>
       <c r="K2" t="n">
-        <v>5713</v>
+        <v>5877</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">244449</t>
+    <t xml:space="preserve">251346.4</t>
   </si>
 </sst>
 </file>
@@ -15379,10 +15379,10 @@
         <v>1293</v>
       </c>
       <c r="D124" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E124" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F124" t="n">
         <v>257306</v>
@@ -15528,7 +15528,7 @@
         <v>1026</v>
       </c>
       <c r="D125" t="n">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E125" t="n">
         <v>37</v>
@@ -15677,7 +15677,7 @@
         <v>784</v>
       </c>
       <c r="D126" t="n">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E126" t="n">
         <v>31</v>
@@ -15826,7 +15826,7 @@
         <v>1037</v>
       </c>
       <c r="D127" t="n">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E127" t="n">
         <v>30</v>
@@ -15975,7 +15975,7 @@
         <v>1053</v>
       </c>
       <c r="D128" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E128" t="n">
         <v>33</v>
@@ -16124,7 +16124,7 @@
         <v>968</v>
       </c>
       <c r="D129" t="n">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E129" t="n">
         <v>37</v>
@@ -16273,7 +16273,7 @@
         <v>1219</v>
       </c>
       <c r="D130" t="n">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E130" t="n">
         <v>34</v>
@@ -16422,7 +16422,7 @@
         <v>1251</v>
       </c>
       <c r="D131" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E131" t="n">
         <v>28</v>
@@ -16575,7 +16575,7 @@
         <v>1009</v>
       </c>
       <c r="D132" t="n">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E132" t="n">
         <v>28</v>
@@ -16728,7 +16728,7 @@
         <v>1000</v>
       </c>
       <c r="D133" t="n">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E133" t="n">
         <v>36</v>
@@ -16881,7 +16881,7 @@
         <v>1179</v>
       </c>
       <c r="D134" t="n">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E134" t="n">
         <v>34</v>
@@ -17034,7 +17034,7 @@
         <v>1355</v>
       </c>
       <c r="D135" t="n">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E135" t="n">
         <v>43</v>
@@ -17187,7 +17187,7 @@
         <v>1448</v>
       </c>
       <c r="D136" t="n">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E136" t="n">
         <v>31</v>
@@ -17340,7 +17340,7 @@
         <v>1347</v>
       </c>
       <c r="D137" t="n">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="E137" t="n">
         <v>44</v>
@@ -17509,7 +17509,7 @@
         <v>1801</v>
       </c>
       <c r="D138" t="n">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="E138" t="n">
         <v>31</v>
@@ -17684,7 +17684,7 @@
         <v>785</v>
       </c>
       <c r="D139" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E139" t="n">
         <v>27</v>
@@ -17859,7 +17859,7 @@
         <v>909</v>
       </c>
       <c r="D140" t="n">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="E140" t="n">
         <v>22</v>
@@ -18034,7 +18034,7 @@
         <v>1219</v>
       </c>
       <c r="D141" t="n">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E141" t="n">
         <v>30</v>
@@ -18209,7 +18209,7 @@
         <v>1411</v>
       </c>
       <c r="D142" t="n">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E142" t="n">
         <v>22</v>
@@ -18384,7 +18384,7 @@
         <v>945</v>
       </c>
       <c r="D143" t="n">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="E143" t="n">
         <v>26</v>
@@ -18559,7 +18559,7 @@
         <v>1181</v>
       </c>
       <c r="D144" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="E144" t="n">
         <v>29</v>
@@ -18734,7 +18734,7 @@
         <v>1060</v>
       </c>
       <c r="D145" t="n">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="E145" t="n">
         <v>15</v>
@@ -18899,7 +18899,7 @@
         <v>839</v>
       </c>
       <c r="D146" t="n">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E146" t="n">
         <v>34</v>
@@ -19074,7 +19074,7 @@
         <v>623</v>
       </c>
       <c r="D147" t="n">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E147" t="n">
         <v>31</v>
@@ -19249,7 +19249,7 @@
         <v>589</v>
       </c>
       <c r="D148" t="n">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="E148" t="n">
         <v>23</v>
@@ -19424,7 +19424,7 @@
         <v>1361</v>
       </c>
       <c r="D149" t="n">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E149" t="n">
         <v>23</v>
@@ -19599,7 +19599,7 @@
         <v>1855</v>
       </c>
       <c r="D150" t="n">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E150" t="n">
         <v>32</v>
@@ -19774,7 +19774,7 @@
         <v>1230</v>
       </c>
       <c r="D151" t="n">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="E151" t="n">
         <v>36</v>
@@ -19949,10 +19949,10 @@
         <v>1332</v>
       </c>
       <c r="D152" t="n">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="E152" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F152" t="n">
         <v>813397</v>
@@ -20118,7 +20118,7 @@
         <v>1949</v>
       </c>
       <c r="D153" t="n">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="E153" t="n">
         <v>14</v>
@@ -20293,7 +20293,7 @@
         <v>593</v>
       </c>
       <c r="D154" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="E154" t="n">
         <v>21</v>
@@ -20470,7 +20470,7 @@
         <v>1688</v>
       </c>
       <c r="D155" t="n">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="E155" t="n">
         <v>28</v>
@@ -20647,7 +20647,7 @@
         <v>1703</v>
       </c>
       <c r="D156" t="n">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="E156" t="n">
         <v>32</v>
@@ -20824,7 +20824,7 @@
         <v>1649</v>
       </c>
       <c r="D157" t="n">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="E157" t="n">
         <v>22</v>
@@ -21001,7 +21001,7 @@
         <v>1693</v>
       </c>
       <c r="D158" t="n">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="E158" t="n">
         <v>26</v>
@@ -21178,10 +21178,10 @@
         <v>1940</v>
       </c>
       <c r="D159" t="n">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="E159" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F159" t="n">
         <v>960363</v>
@@ -21355,7 +21355,7 @@
         <v>1425</v>
       </c>
       <c r="D160" t="n">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="E160" t="n">
         <v>20</v>
@@ -21532,7 +21532,7 @@
         <v>638</v>
       </c>
       <c r="D161" t="n">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="E161" t="n">
         <v>31</v>
@@ -21709,7 +21709,7 @@
         <v>1637</v>
       </c>
       <c r="D162" t="n">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="E162" t="n">
         <v>34</v>
@@ -21886,7 +21886,7 @@
         <v>2504</v>
       </c>
       <c r="D163" t="n">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="E163" t="n">
         <v>24</v>
@@ -22063,7 +22063,7 @@
         <v>1826</v>
       </c>
       <c r="D164" t="n">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="E164" t="n">
         <v>28</v>
@@ -22240,7 +22240,7 @@
         <v>2097</v>
       </c>
       <c r="D165" t="n">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="E165" t="n">
         <v>35</v>
@@ -22417,7 +22417,7 @@
         <v>2331</v>
       </c>
       <c r="D166" t="n">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="E166" t="n">
         <v>40</v>
@@ -22594,7 +22594,7 @@
         <v>1843</v>
       </c>
       <c r="D167" t="n">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="E167" t="n">
         <v>46</v>
@@ -22771,10 +22771,10 @@
         <v>1254</v>
       </c>
       <c r="D168" t="n">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="E168" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F168" t="n">
         <v>1135749</v>
@@ -22948,7 +22948,7 @@
         <v>4098</v>
       </c>
       <c r="D169" t="n">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="E169" t="n">
         <v>45</v>
@@ -23125,7 +23125,7 @@
         <v>3129</v>
       </c>
       <c r="D170" t="n">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="E170" t="n">
         <v>37</v>
@@ -23302,7 +23302,7 @@
         <v>3516</v>
       </c>
       <c r="D171" t="n">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="E171" t="n">
         <v>42</v>
@@ -23479,7 +23479,7 @@
         <v>3454</v>
       </c>
       <c r="D172" t="n">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="E172" t="n">
         <v>46</v>
@@ -23656,10 +23656,10 @@
         <v>4430</v>
       </c>
       <c r="D173" t="n">
-        <v>2641</v>
+        <v>2646</v>
       </c>
       <c r="E173" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F173" t="n">
         <v>1286735</v>
@@ -23833,7 +23833,7 @@
         <v>3866</v>
       </c>
       <c r="D174" t="n">
-        <v>2681</v>
+        <v>2686</v>
       </c>
       <c r="E174" t="n">
         <v>40</v>
@@ -24010,10 +24010,10 @@
         <v>3280</v>
       </c>
       <c r="D175" t="n">
-        <v>2724</v>
+        <v>2731</v>
       </c>
       <c r="E175" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F175" t="n">
         <v>1350920</v>
@@ -24187,7 +24187,7 @@
         <v>5489</v>
       </c>
       <c r="D176" t="n">
-        <v>2765</v>
+        <v>2772</v>
       </c>
       <c r="E176" t="n">
         <v>41</v>
@@ -24364,10 +24364,10 @@
         <v>5551</v>
       </c>
       <c r="D177" t="n">
-        <v>2838</v>
+        <v>2846</v>
       </c>
       <c r="E177" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F177" t="n">
         <v>1399304</v>
@@ -24541,7 +24541,7 @@
         <v>5996</v>
       </c>
       <c r="D178" t="n">
-        <v>2896</v>
+        <v>2904</v>
       </c>
       <c r="E178" t="n">
         <v>58</v>
@@ -24718,7 +24718,7 @@
         <v>5707</v>
       </c>
       <c r="D179" t="n">
-        <v>2963</v>
+        <v>2971</v>
       </c>
       <c r="E179" t="n">
         <v>67</v>
@@ -24895,10 +24895,10 @@
         <v>5742</v>
       </c>
       <c r="D180" t="n">
-        <v>3040</v>
+        <v>3049</v>
       </c>
       <c r="E180" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F180" t="n">
         <v>1492340</v>
@@ -25072,10 +25072,10 @@
         <v>5357</v>
       </c>
       <c r="D181" t="n">
-        <v>3127</v>
+        <v>3137</v>
       </c>
       <c r="E181" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F181" t="n">
         <v>1543186</v>
@@ -25249,10 +25249,10 @@
         <v>4288</v>
       </c>
       <c r="D182" t="n">
-        <v>3212</v>
+        <v>3223</v>
       </c>
       <c r="E182" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F182" t="n">
         <v>1578667</v>
@@ -25426,10 +25426,10 @@
         <v>6975</v>
       </c>
       <c r="D183" t="n">
-        <v>3295</v>
+        <v>3308</v>
       </c>
       <c r="E183" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F183" t="n">
         <v>1612583</v>
@@ -25603,7 +25603,7 @@
         <v>8076</v>
       </c>
       <c r="D184" t="n">
-        <v>3384</v>
+        <v>3397</v>
       </c>
       <c r="E184" t="n">
         <v>89</v>
@@ -25782,10 +25782,10 @@
         <v>7915</v>
       </c>
       <c r="D185" t="n">
-        <v>3490</v>
+        <v>3504</v>
       </c>
       <c r="E185" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F185" t="n">
         <v>1696809</v>
@@ -25961,10 +25961,10 @@
         <v>7555</v>
       </c>
       <c r="D186" t="n">
-        <v>3611</v>
+        <v>3627</v>
       </c>
       <c r="E186" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F186" t="n">
         <v>1741722</v>
@@ -26140,10 +26140,10 @@
         <v>8258</v>
       </c>
       <c r="D187" t="n">
-        <v>3738</v>
+        <v>3755</v>
       </c>
       <c r="E187" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F187" t="n">
         <v>1785542</v>
@@ -26319,10 +26319,10 @@
         <v>3449</v>
       </c>
       <c r="D188" t="n">
-        <v>3849</v>
+        <v>3867</v>
       </c>
       <c r="E188" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F188" t="n">
         <v>1829966</v>
@@ -26498,10 +26498,10 @@
         <v>5318</v>
       </c>
       <c r="D189" t="n">
-        <v>3963</v>
+        <v>3987</v>
       </c>
       <c r="E189" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F189" t="n">
         <v>1874626</v>
@@ -26677,10 +26677,10 @@
         <v>10028</v>
       </c>
       <c r="D190" t="n">
-        <v>4096</v>
+        <v>4127</v>
       </c>
       <c r="E190" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F190" t="n">
         <v>1917116</v>
@@ -26856,10 +26856,10 @@
         <v>9979</v>
       </c>
       <c r="D191" t="n">
-        <v>4247</v>
+        <v>4283</v>
       </c>
       <c r="E191" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F191" t="n">
         <v>1960005</v>
@@ -27035,10 +27035,10 @@
         <v>9782</v>
       </c>
       <c r="D192" t="n">
-        <v>4383</v>
+        <v>4426</v>
       </c>
       <c r="E192" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F192" t="n">
         <v>2020405</v>
@@ -27214,10 +27214,10 @@
         <v>9765</v>
       </c>
       <c r="D193" t="n">
-        <v>4532</v>
+        <v>4584</v>
       </c>
       <c r="E193" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F193" t="n">
         <v>2069122</v>
@@ -27393,10 +27393,10 @@
         <v>10351</v>
       </c>
       <c r="D194" t="n">
-        <v>4672</v>
+        <v>4731</v>
       </c>
       <c r="E194" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F194" t="n">
         <v>2110922</v>
@@ -27572,10 +27572,10 @@
         <v>8196</v>
       </c>
       <c r="D195" t="n">
-        <v>4842</v>
+        <v>4909</v>
       </c>
       <c r="E195" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F195" t="n">
         <v>2165623</v>
@@ -27751,10 +27751,10 @@
         <v>5655</v>
       </c>
       <c r="D196" t="n">
-        <v>4983</v>
+        <v>5061</v>
       </c>
       <c r="E196" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F196" t="n">
         <v>2205822</v>
@@ -27930,10 +27930,10 @@
         <v>10745</v>
       </c>
       <c r="D197" t="n">
-        <v>5144</v>
+        <v>5238</v>
       </c>
       <c r="E197" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F197" t="n">
         <v>2249060</v>
@@ -28109,10 +28109,10 @@
         <v>7307</v>
       </c>
       <c r="D198" t="n">
-        <v>5285</v>
+        <v>5394</v>
       </c>
       <c r="E198" t="n">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F198" t="n">
         <v>2286774</v>
@@ -28252,10 +28252,10 @@
         <v>10291</v>
       </c>
       <c r="D199" t="n">
-        <v>5397</v>
+        <v>5526</v>
       </c>
       <c r="E199" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F199" t="n">
         <v>2301483</v>
@@ -28395,10 +28395,10 @@
         <v>14916</v>
       </c>
       <c r="D200" t="n">
-        <v>5451</v>
+        <v>5586</v>
       </c>
       <c r="E200" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F200" t="n">
         <v>2343210</v>
@@ -28538,10 +28538,10 @@
         <v>10158</v>
       </c>
       <c r="D201" t="n">
-        <v>5511</v>
+        <v>5673</v>
       </c>
       <c r="E201" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F201" t="n">
         <v>2384232</v>
@@ -28681,10 +28681,10 @@
         <v>7300</v>
       </c>
       <c r="D202" t="n">
-        <v>5573</v>
+        <v>5749</v>
       </c>
       <c r="E202" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F202" t="n">
         <v>2439082</v>
@@ -28824,10 +28824,10 @@
         <v>7404</v>
       </c>
       <c r="D203" t="n">
-        <v>5670</v>
+        <v>5848</v>
       </c>
       <c r="E203" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F203" t="n">
         <v>2473836</v>
@@ -28967,10 +28967,10 @@
         <v>9305</v>
       </c>
       <c r="D204" t="n">
-        <v>5716</v>
+        <v>5911</v>
       </c>
       <c r="E204" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F204" t="n">
         <v>2514877</v>
@@ -29094,10 +29094,10 @@
         <v>9879</v>
       </c>
       <c r="D205" t="n">
-        <v>5743</v>
+        <v>5955</v>
       </c>
       <c r="E205" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F205" t="n">
         <v>2544071</v>
@@ -29237,10 +29237,10 @@
         <v>9507</v>
       </c>
       <c r="D206" t="n">
-        <v>5755</v>
+        <v>6016</v>
       </c>
       <c r="E206" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F206" t="n">
         <v>2574376</v>
@@ -29380,10 +29380,10 @@
         <v>8701</v>
       </c>
       <c r="D207" t="n">
-        <v>5758</v>
+        <v>6034</v>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F207" t="n">
         <v>2609056</v>
@@ -29523,10 +29523,10 @@
         <v>6020</v>
       </c>
       <c r="D208" t="n">
-        <v>5758</v>
+        <v>6056</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F208" t="n">
         <v>2637947</v>
@@ -29664,10 +29664,10 @@
         <v>5810</v>
       </c>
       <c r="D209" t="n">
-        <v>5759</v>
+        <v>6061</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F209" t="n">
         <v>2676478</v>
@@ -29805,10 +29805,10 @@
         <v>4267</v>
       </c>
       <c r="D210" t="n">
-        <v>5759</v>
+        <v>6064</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F210" t="n">
         <v>2718547</v>
@@ -29930,46 +29930,40 @@
       <c r="BC210"/>
       <c r="BD210"/>
       <c r="BE210"/>
-      <c r="BF210" t="n">
-        <v>415</v>
-      </c>
-      <c r="BG210" t="n">
-        <v>482</v>
-      </c>
-      <c r="BH210" t="n">
-        <v>86.1</v>
-      </c>
+      <c r="BF210"/>
+      <c r="BG210"/>
+      <c r="BH210"/>
       <c r="BI210" t="n">
         <v>29677668</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B211" t="n">
-        <v>385923</v>
+        <v>394265</v>
       </c>
       <c r="C211" t="n">
-        <v>4267</v>
+        <v>8342</v>
       </c>
       <c r="D211" t="n">
-        <v>5759</v>
+        <v>6064</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>2718547</v>
+        <v>2737350</v>
       </c>
       <c r="G211" t="n">
-        <v>42069</v>
+        <v>18803</v>
       </c>
       <c r="H211" t="n">
-        <v>154817</v>
+        <v>156910</v>
       </c>
       <c r="I211" t="n">
-        <v>-8559</v>
+        <v>2093</v>
       </c>
       <c r="J211" t="e">
         <v>#NUM!</v>
@@ -29990,76 +29984,74 @@
         <v>#NUM!</v>
       </c>
       <c r="P211" t="n">
-        <v>3476926</v>
+        <v>3539368</v>
       </c>
       <c r="Q211" t="n">
         <v>237895</v>
       </c>
       <c r="R211" t="n">
-        <v>3714821</v>
+        <v>3777263</v>
       </c>
       <c r="S211" t="n">
-        <v>0.12825832118001</v>
+        <v>0.12549515187721</v>
       </c>
       <c r="T211" t="n">
-        <v>61907</v>
+        <v>62174</v>
       </c>
       <c r="U211" t="n">
-        <v>1653</v>
+        <v>1457</v>
       </c>
       <c r="V211" t="n">
-        <v>63561</v>
-      </c>
-      <c r="W211" t="n">
-        <v>9781</v>
-      </c>
+        <v>63631</v>
+      </c>
+      <c r="W211"/>
       <c r="X211" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Y211" t="n">
-        <v>1694</v>
+        <v>1791</v>
       </c>
       <c r="Z211" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AA211" t="n">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="AB211" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="AC211" t="n">
-        <v>14485</v>
+        <v>14867</v>
       </c>
       <c r="AD211" t="n">
-        <v>1894</v>
+        <v>1973</v>
       </c>
       <c r="AE211" t="n">
-        <v>5257</v>
+        <v>5544</v>
       </c>
       <c r="AF211" t="n">
-        <v>6965</v>
+        <v>6751</v>
       </c>
       <c r="AG211" t="n">
-        <v>5574</v>
+        <v>5541</v>
       </c>
       <c r="AH211" t="n">
-        <v>3088</v>
+        <v>3014</v>
       </c>
       <c r="AI211" t="n">
-        <v>15026</v>
+        <v>13647</v>
       </c>
       <c r="AJ211" t="n">
-        <v>2233</v>
+        <v>2674</v>
       </c>
       <c r="AK211" t="n">
-        <v>2233</v>
+        <v>2674</v>
       </c>
       <c r="AL211" t="n">
-        <v>6989</v>
+        <v>7319</v>
       </c>
       <c r="AM211" t="n">
-        <v>6073</v>
+        <v>6243</v>
       </c>
       <c r="AN211"/>
       <c r="AO211"/>
@@ -30080,13 +30072,13 @@
       <c r="BD211"/>
       <c r="BE211"/>
       <c r="BF211" t="n">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="BG211" t="n">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="BH211" t="n">
-        <v>92.11</v>
+        <v>86.1</v>
       </c>
       <c r="BI211" t="n">
         <v>29677668</v>
@@ -30103,22 +30095,22 @@
         <v>8342</v>
       </c>
       <c r="D212" t="n">
-        <v>5759</v>
+        <v>6064</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>2718547</v>
+        <v>2737350</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>18803</v>
       </c>
       <c r="H212" t="n">
-        <v>154817</v>
+        <v>156910</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>2093</v>
       </c>
       <c r="J212" t="e">
         <v>#NUM!</v>
@@ -30138,18 +30130,28 @@
       <c r="O212" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P212"/>
-      <c r="Q212"/>
+      <c r="P212" t="n">
+        <v>3539368</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>237895</v>
+      </c>
       <c r="R212" t="n">
         <v>3777263</v>
       </c>
-      <c r="S212"/>
-      <c r="T212"/>
-      <c r="U212"/>
-      <c r="V212"/>
-      <c r="W212" t="n">
-        <v>9593</v>
-      </c>
+      <c r="S212" t="n">
+        <v>0.12549515187721</v>
+      </c>
+      <c r="T212" t="n">
+        <v>62174</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1457</v>
+      </c>
+      <c r="V212" t="n">
+        <v>63631</v>
+      </c>
+      <c r="W212"/>
       <c r="X212" t="n">
         <v>484</v>
       </c>
@@ -30216,10 +30218,276 @@
       <c r="BC212"/>
       <c r="BD212"/>
       <c r="BE212"/>
-      <c r="BF212"/>
-      <c r="BG212"/>
-      <c r="BH212"/>
+      <c r="BF212" t="n">
+        <v>467</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>507</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>92.11</v>
+      </c>
       <c r="BI212" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>44040</v>
+      </c>
+      <c r="B213" t="n">
+        <v>394265</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8342</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6064</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2737350</v>
+      </c>
+      <c r="G213" t="n">
+        <v>18803</v>
+      </c>
+      <c r="H213" t="n">
+        <v>156910</v>
+      </c>
+      <c r="I213" t="n">
+        <v>2093</v>
+      </c>
+      <c r="J213" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K213" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L213" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M213" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N213" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O213" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P213" t="n">
+        <v>3539368</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>237895</v>
+      </c>
+      <c r="R213" t="n">
+        <v>3777263</v>
+      </c>
+      <c r="S213" t="n">
+        <v>0.12549515187721</v>
+      </c>
+      <c r="T213" t="n">
+        <v>62174</v>
+      </c>
+      <c r="U213" t="n">
+        <v>1457</v>
+      </c>
+      <c r="V213" t="n">
+        <v>63631</v>
+      </c>
+      <c r="W213"/>
+      <c r="X213" t="n">
+        <v>484</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1791</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>265</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>941</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>14867</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>1973</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>5544</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>6751</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>5541</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>3014</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>13647</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2674</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>2674</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>7319</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>6243</v>
+      </c>
+      <c r="AN213"/>
+      <c r="AO213"/>
+      <c r="AP213"/>
+      <c r="AQ213"/>
+      <c r="AR213"/>
+      <c r="AS213"/>
+      <c r="AT213"/>
+      <c r="AU213"/>
+      <c r="AV213"/>
+      <c r="AW213"/>
+      <c r="AX213"/>
+      <c r="AY213"/>
+      <c r="AZ213"/>
+      <c r="BA213"/>
+      <c r="BB213"/>
+      <c r="BC213"/>
+      <c r="BD213"/>
+      <c r="BE213"/>
+      <c r="BF213" t="n">
+        <v>467</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>507</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B214" t="n">
+        <v>403307</v>
+      </c>
+      <c r="C214" t="n">
+        <v>9042</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6064</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2737350</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>156910</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K214" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L214" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M214" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N214" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O214" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P214"/>
+      <c r="Q214"/>
+      <c r="R214" t="n">
+        <v>3849040</v>
+      </c>
+      <c r="S214"/>
+      <c r="T214"/>
+      <c r="U214"/>
+      <c r="V214"/>
+      <c r="W214"/>
+      <c r="X214"/>
+      <c r="Y214"/>
+      <c r="Z214"/>
+      <c r="AA214"/>
+      <c r="AB214"/>
+      <c r="AC214"/>
+      <c r="AD214"/>
+      <c r="AE214"/>
+      <c r="AF214" t="n">
+        <v>7203</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>4491</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>3198</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>14651</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2914</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>6232</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>7418</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>6035</v>
+      </c>
+      <c r="AN214"/>
+      <c r="AO214"/>
+      <c r="AP214"/>
+      <c r="AQ214"/>
+      <c r="AR214"/>
+      <c r="AS214"/>
+      <c r="AT214"/>
+      <c r="AU214"/>
+      <c r="AV214"/>
+      <c r="AW214"/>
+      <c r="AX214"/>
+      <c r="AY214"/>
+      <c r="AZ214"/>
+      <c r="BA214"/>
+      <c r="BB214"/>
+      <c r="BC214"/>
+      <c r="BD214"/>
+      <c r="BE214"/>
+      <c r="BF214"/>
+      <c r="BG214"/>
+      <c r="BH214"/>
+      <c r="BI214" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -30277,34 +30545,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>143939</v>
+        <v>145771</v>
       </c>
       <c r="C2" t="n">
-        <v>116857</v>
+        <v>117218</v>
       </c>
       <c r="D2" t="n">
-        <v>3660406</v>
+        <v>3731822</v>
       </c>
       <c r="E2" t="n">
         <v>11227</v>
       </c>
       <c r="F2" t="n">
-        <v>57146</v>
+        <v>59086</v>
       </c>
       <c r="G2" t="n">
-        <v>13444</v>
+        <v>12201</v>
       </c>
       <c r="H2" t="n">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="I2" t="n">
-        <v>6243</v>
+        <v>6035</v>
       </c>
       <c r="J2" t="n">
-        <v>33078</v>
+        <v>33857</v>
       </c>
       <c r="K2" t="n">
-        <v>5877</v>
+        <v>6190</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">251346.4</t>
+    <t xml:space="preserve">260542</t>
   </si>
 </sst>
 </file>
@@ -7635,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -8683,10 +8683,10 @@
         <v>34</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -8945,7 +8945,7 @@
         <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -9076,7 +9076,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -9207,7 +9207,7 @@
         <v>26</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>67</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
         <v>4</v>
@@ -9469,7 +9469,7 @@
         <v>60</v>
       </c>
       <c r="D82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -9600,7 +9600,7 @@
         <v>28</v>
       </c>
       <c r="D83" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -9731,7 +9731,7 @@
         <v>24</v>
       </c>
       <c r="D84" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -9862,7 +9862,7 @@
         <v>425</v>
       </c>
       <c r="D85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E85" t="n">
         <v>6</v>
@@ -9993,7 +9993,7 @@
         <v>263</v>
       </c>
       <c r="D86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E86" t="n">
         <v>6</v>
@@ -10124,7 +10124,7 @@
         <v>419</v>
       </c>
       <c r="D87" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E87" t="n">
         <v>11</v>
@@ -10255,7 +10255,7 @@
         <v>337</v>
       </c>
       <c r="D88" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E88" t="n">
         <v>9</v>
@@ -10386,7 +10386,7 @@
         <v>317</v>
       </c>
       <c r="D89" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E89" t="n">
         <v>12</v>
@@ -10517,10 +10517,10 @@
         <v>504</v>
       </c>
       <c r="D90" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -10648,7 +10648,7 @@
         <v>322</v>
       </c>
       <c r="D91" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E91" t="n">
         <v>18</v>
@@ -10779,10 +10779,10 @@
         <v>392</v>
       </c>
       <c r="D92" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -10910,10 +10910,10 @@
         <v>730</v>
       </c>
       <c r="D93" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>669</v>
       </c>
       <c r="D94" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E94" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>659</v>
       </c>
       <c r="D95" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E95" t="n">
         <v>20</v>
@@ -11303,7 +11303,7 @@
         <v>788</v>
       </c>
       <c r="D96" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E96" t="n">
         <v>21</v>
@@ -11440,10 +11440,10 @@
         <v>681</v>
       </c>
       <c r="D97" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E97" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -11577,10 +11577,10 @@
         <v>480</v>
       </c>
       <c r="D98" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E98" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -11714,10 +11714,10 @@
         <v>988</v>
       </c>
       <c r="D99" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E99" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -11851,10 +11851,10 @@
         <v>1092</v>
       </c>
       <c r="D100" t="n">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E100" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -11988,10 +11988,10 @@
         <v>877</v>
       </c>
       <c r="D101" t="n">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -12125,7 +12125,7 @@
         <v>1441</v>
       </c>
       <c r="D102" t="n">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E102" t="n">
         <v>29</v>
@@ -12262,10 +12262,10 @@
         <v>890</v>
       </c>
       <c r="D103" t="n">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E103" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -12399,10 +12399,10 @@
         <v>923</v>
       </c>
       <c r="D104" t="n">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E104" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -12472,7 +12472,7 @@
         <v>237</v>
       </c>
       <c r="AK104" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="AL104"/>
       <c r="AM104"/>
@@ -12548,10 +12548,10 @@
         <v>422</v>
       </c>
       <c r="D105" t="n">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -12621,7 +12621,7 @@
         <v>472</v>
       </c>
       <c r="AK105" t="n">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="AL105"/>
       <c r="AM105"/>
@@ -12697,10 +12697,10 @@
         <v>718</v>
       </c>
       <c r="D106" t="n">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E106" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -12770,7 +12770,7 @@
         <v>809</v>
       </c>
       <c r="AK106" t="n">
-        <v>809</v>
+        <v>1199</v>
       </c>
       <c r="AL106"/>
       <c r="AM106"/>
@@ -12846,10 +12846,10 @@
         <v>868</v>
       </c>
       <c r="D107" t="n">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="E107" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -12919,7 +12919,7 @@
         <v>834</v>
       </c>
       <c r="AK107" t="n">
-        <v>834</v>
+        <v>1479</v>
       </c>
       <c r="AL107"/>
       <c r="AM107"/>
@@ -12995,7 +12995,7 @@
         <v>963</v>
       </c>
       <c r="D108" t="n">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="E108" t="n">
         <v>32</v>
@@ -13068,7 +13068,7 @@
         <v>976</v>
       </c>
       <c r="AK108" t="n">
-        <v>976</v>
+        <v>1889</v>
       </c>
       <c r="AL108"/>
       <c r="AM108"/>
@@ -13144,7 +13144,7 @@
         <v>916</v>
       </c>
       <c r="D109" t="n">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E109" t="n">
         <v>38</v>
@@ -13217,7 +13217,7 @@
         <v>996</v>
       </c>
       <c r="AK109" t="n">
-        <v>996</v>
+        <v>2217</v>
       </c>
       <c r="AL109"/>
       <c r="AM109"/>
@@ -13293,7 +13293,7 @@
         <v>889</v>
       </c>
       <c r="D110" t="n">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="E110" t="n">
         <v>29</v>
@@ -13366,7 +13366,7 @@
         <v>1164</v>
       </c>
       <c r="AK110" t="n">
-        <v>1164</v>
+        <v>2455</v>
       </c>
       <c r="AL110"/>
       <c r="AM110"/>
@@ -13442,10 +13442,10 @@
         <v>663</v>
       </c>
       <c r="D111" t="n">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="E111" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -13515,7 +13515,7 @@
         <v>1257</v>
       </c>
       <c r="AK111" t="n">
-        <v>1257</v>
+        <v>3008</v>
       </c>
       <c r="AL111"/>
       <c r="AM111"/>
@@ -13591,10 +13591,10 @@
         <v>535</v>
       </c>
       <c r="D112" t="n">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="E112" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -13664,7 +13664,7 @@
         <v>1242</v>
       </c>
       <c r="AK112" t="n">
-        <v>1242</v>
+        <v>3691</v>
       </c>
       <c r="AL112"/>
       <c r="AM112"/>
@@ -13740,10 +13740,10 @@
         <v>738</v>
       </c>
       <c r="D113" t="n">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="E113" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F113" t="n">
         <v>159732</v>
@@ -13813,7 +13813,7 @@
         <v>971</v>
       </c>
       <c r="AK113" t="n">
-        <v>971</v>
+        <v>3909</v>
       </c>
       <c r="AL113"/>
       <c r="AM113"/>
@@ -13889,10 +13889,10 @@
         <v>873</v>
       </c>
       <c r="D114" t="n">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="E114" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F114" t="n">
         <v>166291</v>
@@ -13962,7 +13962,7 @@
         <v>1190</v>
       </c>
       <c r="AK114" t="n">
-        <v>1190</v>
+        <v>4356</v>
       </c>
       <c r="AL114"/>
       <c r="AM114"/>
@@ -14038,10 +14038,10 @@
         <v>875</v>
       </c>
       <c r="D115" t="n">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="E115" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F115" t="n">
         <v>168259</v>
@@ -14111,7 +14111,7 @@
         <v>1356</v>
       </c>
       <c r="AK115" t="n">
-        <v>1356</v>
+        <v>4145</v>
       </c>
       <c r="AL115"/>
       <c r="AM115"/>
@@ -14187,7 +14187,7 @@
         <v>862</v>
       </c>
       <c r="D116" t="n">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="E116" t="n">
         <v>33</v>
@@ -14260,7 +14260,7 @@
         <v>1758</v>
       </c>
       <c r="AK116" t="n">
-        <v>1758</v>
+        <v>4705</v>
       </c>
       <c r="AL116"/>
       <c r="AM116"/>
@@ -14336,7 +14336,7 @@
         <v>967</v>
       </c>
       <c r="D117" t="n">
-        <v>871</v>
+        <v>843</v>
       </c>
       <c r="E117" t="n">
         <v>37</v>
@@ -14409,7 +14409,7 @@
         <v>1281</v>
       </c>
       <c r="AK117" t="n">
-        <v>1281</v>
+        <v>4787</v>
       </c>
       <c r="AL117"/>
       <c r="AM117"/>
@@ -14485,10 +14485,10 @@
         <v>858</v>
       </c>
       <c r="D118" t="n">
-        <v>902</v>
+        <v>873</v>
       </c>
       <c r="E118" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F118" t="n">
         <v>209808</v>
@@ -14558,7 +14558,7 @@
         <v>1409</v>
       </c>
       <c r="AK118" t="n">
-        <v>1409</v>
+        <v>5091</v>
       </c>
       <c r="AL118"/>
       <c r="AM118"/>
@@ -14634,10 +14634,10 @@
         <v>666</v>
       </c>
       <c r="D119" t="n">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="E119" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F119" t="n">
         <v>218668</v>
@@ -14707,7 +14707,7 @@
         <v>1579</v>
       </c>
       <c r="AK119" t="n">
-        <v>1579</v>
+        <v>4700</v>
       </c>
       <c r="AL119"/>
       <c r="AM119"/>
@@ -14783,10 +14783,10 @@
         <v>874</v>
       </c>
       <c r="D120" t="n">
-        <v>965</v>
+        <v>932</v>
       </c>
       <c r="E120" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F120" t="n">
         <v>222037</v>
@@ -14856,7 +14856,7 @@
         <v>1382</v>
       </c>
       <c r="AK120" t="n">
-        <v>1382</v>
+        <v>5805</v>
       </c>
       <c r="AL120"/>
       <c r="AM120"/>
@@ -14932,10 +14932,10 @@
         <v>883</v>
       </c>
       <c r="D121" t="n">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="E121" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F121" t="n">
         <v>236697</v>
@@ -15005,7 +15005,7 @@
         <v>1750</v>
       </c>
       <c r="AK121" t="n">
-        <v>1750</v>
+        <v>6501</v>
       </c>
       <c r="AL121"/>
       <c r="AM121"/>
@@ -15081,10 +15081,10 @@
         <v>1033</v>
       </c>
       <c r="D122" t="n">
-        <v>1026</v>
+        <v>986</v>
       </c>
       <c r="E122" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F122" t="n">
         <v>247200</v>
@@ -15154,7 +15154,7 @@
         <v>1382</v>
       </c>
       <c r="AK122" t="n">
-        <v>1382</v>
+        <v>6771</v>
       </c>
       <c r="AL122"/>
       <c r="AM122"/>
@@ -15230,10 +15230,10 @@
         <v>1142</v>
       </c>
       <c r="D123" t="n">
-        <v>1070</v>
+        <v>1029</v>
       </c>
       <c r="E123" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F123" t="n">
         <v>246567</v>
@@ -15303,7 +15303,7 @@
         <v>2007</v>
       </c>
       <c r="AK123" t="n">
-        <v>2007</v>
+        <v>7178</v>
       </c>
       <c r="AL123"/>
       <c r="AM123"/>
@@ -15379,7 +15379,7 @@
         <v>1293</v>
       </c>
       <c r="D124" t="n">
-        <v>1104</v>
+        <v>1063</v>
       </c>
       <c r="E124" t="n">
         <v>34</v>
@@ -15452,7 +15452,7 @@
         <v>1689</v>
       </c>
       <c r="AK124" t="n">
-        <v>1689</v>
+        <v>6955</v>
       </c>
       <c r="AL124"/>
       <c r="AM124"/>
@@ -15528,10 +15528,10 @@
         <v>1026</v>
       </c>
       <c r="D125" t="n">
-        <v>1141</v>
+        <v>1098</v>
       </c>
       <c r="E125" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F125" t="n">
         <v>257977</v>
@@ -15601,7 +15601,7 @@
         <v>1548</v>
       </c>
       <c r="AK125" t="n">
-        <v>1548</v>
+        <v>6400</v>
       </c>
       <c r="AL125"/>
       <c r="AM125"/>
@@ -15677,10 +15677,10 @@
         <v>784</v>
       </c>
       <c r="D126" t="n">
-        <v>1172</v>
+        <v>1128</v>
       </c>
       <c r="E126" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F126" t="n">
         <v>272725</v>
@@ -15750,7 +15750,7 @@
         <v>1505</v>
       </c>
       <c r="AK126" t="n">
-        <v>1505</v>
+        <v>7057</v>
       </c>
       <c r="AL126"/>
       <c r="AM126"/>
@@ -15826,7 +15826,7 @@
         <v>1037</v>
       </c>
       <c r="D127" t="n">
-        <v>1202</v>
+        <v>1158</v>
       </c>
       <c r="E127" t="n">
         <v>30</v>
@@ -15899,7 +15899,7 @@
         <v>1947</v>
       </c>
       <c r="AK127" t="n">
-        <v>1947</v>
+        <v>7607</v>
       </c>
       <c r="AL127"/>
       <c r="AM127"/>
@@ -15975,10 +15975,10 @@
         <v>1053</v>
       </c>
       <c r="D128" t="n">
-        <v>1235</v>
+        <v>1190</v>
       </c>
       <c r="E128" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F128" t="n">
         <v>292037</v>
@@ -16048,7 +16048,7 @@
         <v>1688</v>
       </c>
       <c r="AK128" t="n">
-        <v>1688</v>
+        <v>7879</v>
       </c>
       <c r="AL128"/>
       <c r="AM128"/>
@@ -16124,10 +16124,10 @@
         <v>968</v>
       </c>
       <c r="D129" t="n">
-        <v>1272</v>
+        <v>1225</v>
       </c>
       <c r="E129" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F129" t="n">
         <v>314439</v>
@@ -16197,7 +16197,7 @@
         <v>1800</v>
       </c>
       <c r="AK129" t="n">
-        <v>1800</v>
+        <v>8886</v>
       </c>
       <c r="AL129"/>
       <c r="AM129"/>
@@ -16273,10 +16273,10 @@
         <v>1219</v>
       </c>
       <c r="D130" t="n">
-        <v>1306</v>
+        <v>1258</v>
       </c>
       <c r="E130" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" t="n">
         <v>341218</v>
@@ -16346,7 +16346,7 @@
         <v>1940</v>
       </c>
       <c r="AK130" t="n">
-        <v>1940</v>
+        <v>8982</v>
       </c>
       <c r="AL130"/>
       <c r="AM130"/>
@@ -16422,10 +16422,10 @@
         <v>1251</v>
       </c>
       <c r="D131" t="n">
-        <v>1334</v>
+        <v>1285</v>
       </c>
       <c r="E131" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F131" t="n">
         <v>363188</v>
@@ -16499,7 +16499,7 @@
         <v>1768</v>
       </c>
       <c r="AK131" t="n">
-        <v>1768</v>
+        <v>8593</v>
       </c>
       <c r="AL131"/>
       <c r="AM131"/>
@@ -16575,10 +16575,10 @@
         <v>1009</v>
       </c>
       <c r="D132" t="n">
-        <v>1362</v>
+        <v>1311</v>
       </c>
       <c r="E132" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F132" t="n">
         <v>387227</v>
@@ -16652,7 +16652,7 @@
         <v>1795</v>
       </c>
       <c r="AK132" t="n">
-        <v>1795</v>
+        <v>7667</v>
       </c>
       <c r="AL132"/>
       <c r="AM132"/>
@@ -16728,10 +16728,10 @@
         <v>1000</v>
       </c>
       <c r="D133" t="n">
-        <v>1398</v>
+        <v>1344</v>
       </c>
       <c r="E133" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F133" t="n">
         <v>407026</v>
@@ -16805,7 +16805,7 @@
         <v>1393</v>
       </c>
       <c r="AK133" t="n">
-        <v>1393</v>
+        <v>7984</v>
       </c>
       <c r="AL133"/>
       <c r="AM133"/>
@@ -16881,10 +16881,10 @@
         <v>1179</v>
       </c>
       <c r="D134" t="n">
-        <v>1432</v>
+        <v>1376</v>
       </c>
       <c r="E134" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F134" t="n">
         <v>440063</v>
@@ -16958,7 +16958,7 @@
         <v>1278</v>
       </c>
       <c r="AK134" t="n">
-        <v>1278</v>
+        <v>8896</v>
       </c>
       <c r="AL134"/>
       <c r="AM134"/>
@@ -17034,10 +17034,10 @@
         <v>1355</v>
       </c>
       <c r="D135" t="n">
-        <v>1475</v>
+        <v>1417</v>
       </c>
       <c r="E135" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F135" t="n">
         <v>459530</v>
@@ -17111,7 +17111,7 @@
         <v>1799</v>
       </c>
       <c r="AK135" t="n">
-        <v>1799</v>
+        <v>10658</v>
       </c>
       <c r="AL135"/>
       <c r="AM135"/>
@@ -17187,7 +17187,7 @@
         <v>1448</v>
       </c>
       <c r="D136" t="n">
-        <v>1506</v>
+        <v>1448</v>
       </c>
       <c r="E136" t="n">
         <v>31</v>
@@ -17264,7 +17264,7 @@
         <v>2062</v>
       </c>
       <c r="AK136" t="n">
-        <v>2062</v>
+        <v>9833</v>
       </c>
       <c r="AL136"/>
       <c r="AM136"/>
@@ -17340,10 +17340,10 @@
         <v>1347</v>
       </c>
       <c r="D137" t="n">
-        <v>1550</v>
+        <v>1488</v>
       </c>
       <c r="E137" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F137" t="n">
         <v>494909</v>
@@ -17433,7 +17433,7 @@
         <v>1959</v>
       </c>
       <c r="AK137" t="n">
-        <v>1959</v>
+        <v>8352</v>
       </c>
       <c r="AL137"/>
       <c r="AM137"/>
@@ -17509,10 +17509,10 @@
         <v>1801</v>
       </c>
       <c r="D138" t="n">
-        <v>1581</v>
+        <v>1518</v>
       </c>
       <c r="E138" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F138" t="n">
         <v>514435</v>
@@ -17608,7 +17608,7 @@
         <v>2123</v>
       </c>
       <c r="AK138" t="n">
-        <v>2123</v>
+        <v>10382</v>
       </c>
       <c r="AL138"/>
       <c r="AM138"/>
@@ -17684,10 +17684,10 @@
         <v>785</v>
       </c>
       <c r="D139" t="n">
-        <v>1608</v>
+        <v>1543</v>
       </c>
       <c r="E139" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F139" t="n">
         <v>538559</v>
@@ -17783,7 +17783,7 @@
         <v>2340</v>
       </c>
       <c r="AK139" t="n">
-        <v>2340</v>
+        <v>9405</v>
       </c>
       <c r="AL139"/>
       <c r="AM139"/>
@@ -17859,7 +17859,7 @@
         <v>909</v>
       </c>
       <c r="D140" t="n">
-        <v>1630</v>
+        <v>1565</v>
       </c>
       <c r="E140" t="n">
         <v>22</v>
@@ -17958,7 +17958,7 @@
         <v>2322</v>
       </c>
       <c r="AK140" t="n">
-        <v>2322</v>
+        <v>9902</v>
       </c>
       <c r="AL140"/>
       <c r="AM140"/>
@@ -18034,10 +18034,10 @@
         <v>1219</v>
       </c>
       <c r="D141" t="n">
-        <v>1660</v>
+        <v>1593</v>
       </c>
       <c r="E141" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F141" t="n">
         <v>600816</v>
@@ -18133,7 +18133,7 @@
         <v>1802</v>
       </c>
       <c r="AK141" t="n">
-        <v>1802</v>
+        <v>11703</v>
       </c>
       <c r="AL141"/>
       <c r="AM141"/>
@@ -18209,10 +18209,10 @@
         <v>1411</v>
       </c>
       <c r="D142" t="n">
-        <v>1682</v>
+        <v>1614</v>
       </c>
       <c r="E142" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F142" t="n">
         <v>624101</v>
@@ -18308,7 +18308,7 @@
         <v>1738</v>
       </c>
       <c r="AK142" t="n">
-        <v>1738</v>
+        <v>10815</v>
       </c>
       <c r="AL142"/>
       <c r="AM142"/>
@@ -18384,10 +18384,10 @@
         <v>945</v>
       </c>
       <c r="D143" t="n">
-        <v>1708</v>
+        <v>1638</v>
       </c>
       <c r="E143" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F143" t="n">
         <v>643274</v>
@@ -18483,7 +18483,7 @@
         <v>2111</v>
       </c>
       <c r="AK143" t="n">
-        <v>2111</v>
+        <v>12773</v>
       </c>
       <c r="AL143"/>
       <c r="AM143"/>
@@ -18559,7 +18559,7 @@
         <v>1181</v>
       </c>
       <c r="D144" t="n">
-        <v>1737</v>
+        <v>1667</v>
       </c>
       <c r="E144" t="n">
         <v>29</v>
@@ -18658,7 +18658,7 @@
         <v>2469</v>
       </c>
       <c r="AK144" t="n">
-        <v>2469</v>
+        <v>11710</v>
       </c>
       <c r="AL144"/>
       <c r="AM144"/>
@@ -18734,7 +18734,7 @@
         <v>1060</v>
       </c>
       <c r="D145" t="n">
-        <v>1752</v>
+        <v>1682</v>
       </c>
       <c r="E145" t="n">
         <v>15</v>
@@ -18823,7 +18823,7 @@
         <v>2189</v>
       </c>
       <c r="AK145" t="n">
-        <v>2189</v>
+        <v>13032</v>
       </c>
       <c r="AL145"/>
       <c r="AM145"/>
@@ -18899,10 +18899,10 @@
         <v>839</v>
       </c>
       <c r="D146" t="n">
-        <v>1786</v>
+        <v>1713</v>
       </c>
       <c r="E146" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F146" t="n">
         <v>693081</v>
@@ -18998,7 +18998,7 @@
         <v>1603</v>
       </c>
       <c r="AK146" t="n">
-        <v>1603</v>
+        <v>11813</v>
       </c>
       <c r="AL146"/>
       <c r="AM146"/>
@@ -19074,7 +19074,7 @@
         <v>623</v>
       </c>
       <c r="D147" t="n">
-        <v>1817</v>
+        <v>1744</v>
       </c>
       <c r="E147" t="n">
         <v>31</v>
@@ -19173,7 +19173,7 @@
         <v>1931</v>
       </c>
       <c r="AK147" t="n">
-        <v>1931</v>
+        <v>11316</v>
       </c>
       <c r="AL147"/>
       <c r="AM147"/>
@@ -19249,10 +19249,10 @@
         <v>589</v>
       </c>
       <c r="D148" t="n">
-        <v>1840</v>
+        <v>1764</v>
       </c>
       <c r="E148" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F148" t="n">
         <v>735081</v>
@@ -19348,7 +19348,7 @@
         <v>2212</v>
       </c>
       <c r="AK148" t="n">
-        <v>2212</v>
+        <v>13556</v>
       </c>
       <c r="AL148"/>
       <c r="AM148"/>
@@ -19424,10 +19424,10 @@
         <v>1361</v>
       </c>
       <c r="D149" t="n">
-        <v>1863</v>
+        <v>1786</v>
       </c>
       <c r="E149" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149" t="n">
         <v>749249</v>
@@ -19523,7 +19523,7 @@
         <v>2088</v>
       </c>
       <c r="AK149" t="n">
-        <v>2088</v>
+        <v>12457</v>
       </c>
       <c r="AL149"/>
       <c r="AM149"/>
@@ -19599,10 +19599,10 @@
         <v>1855</v>
       </c>
       <c r="D150" t="n">
-        <v>1895</v>
+        <v>1817</v>
       </c>
       <c r="E150" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F150" t="n">
         <v>773877</v>
@@ -19698,7 +19698,7 @@
         <v>2163</v>
       </c>
       <c r="AK150" t="n">
-        <v>2163</v>
+        <v>13386</v>
       </c>
       <c r="AL150"/>
       <c r="AM150"/>
@@ -19774,10 +19774,10 @@
         <v>1230</v>
       </c>
       <c r="D151" t="n">
-        <v>1931</v>
+        <v>1852</v>
       </c>
       <c r="E151" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F151" t="n">
         <v>790564</v>
@@ -19867,13 +19867,13 @@
         <v>714</v>
       </c>
       <c r="AI151" t="n">
-        <v>10697</v>
+        <v>14179</v>
       </c>
       <c r="AJ151" t="n">
-        <v>2595</v>
+        <v>5858</v>
       </c>
       <c r="AK151" t="n">
-        <v>2595</v>
+        <v>12818</v>
       </c>
       <c r="AL151"/>
       <c r="AM151"/>
@@ -19949,7 +19949,7 @@
         <v>1332</v>
       </c>
       <c r="D152" t="n">
-        <v>1963</v>
+        <v>1884</v>
       </c>
       <c r="E152" t="n">
         <v>32</v>
@@ -20036,13 +20036,13 @@
         <v>592</v>
       </c>
       <c r="AI152" t="n">
-        <v>10960</v>
+        <v>14623</v>
       </c>
       <c r="AJ152" t="n">
-        <v>2155</v>
+        <v>6102</v>
       </c>
       <c r="AK152" t="n">
-        <v>2155</v>
+        <v>11075</v>
       </c>
       <c r="AL152"/>
       <c r="AM152"/>
@@ -20118,10 +20118,10 @@
         <v>1949</v>
       </c>
       <c r="D153" t="n">
-        <v>1977</v>
+        <v>1897</v>
       </c>
       <c r="E153" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F153" t="n">
         <v>820912</v>
@@ -20211,13 +20211,13 @@
         <v>820</v>
       </c>
       <c r="AI153" t="n">
-        <v>10726</v>
+        <v>15018</v>
       </c>
       <c r="AJ153" t="n">
-        <v>2237</v>
+        <v>6295</v>
       </c>
       <c r="AK153" t="n">
-        <v>2237</v>
+        <v>14796</v>
       </c>
       <c r="AL153"/>
       <c r="AM153"/>
@@ -20293,10 +20293,10 @@
         <v>593</v>
       </c>
       <c r="D154" t="n">
-        <v>1998</v>
+        <v>1917</v>
       </c>
       <c r="E154" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F154" t="n">
         <v>865155</v>
@@ -20386,13 +20386,13 @@
         <v>687</v>
       </c>
       <c r="AI154" t="n">
-        <v>10889</v>
+        <v>15449</v>
       </c>
       <c r="AJ154" t="n">
-        <v>2200</v>
+        <v>6516</v>
       </c>
       <c r="AK154" t="n">
-        <v>2200</v>
+        <v>13357</v>
       </c>
       <c r="AL154" t="n">
         <v>5394</v>
@@ -20470,7 +20470,7 @@
         <v>1688</v>
       </c>
       <c r="D155" t="n">
-        <v>2026</v>
+        <v>1945</v>
       </c>
       <c r="E155" t="n">
         <v>28</v>
@@ -20563,13 +20563,13 @@
         <v>689</v>
       </c>
       <c r="AI155" t="n">
-        <v>10096</v>
+        <v>15773</v>
       </c>
       <c r="AJ155" t="n">
-        <v>2473</v>
+        <v>6601</v>
       </c>
       <c r="AK155" t="n">
-        <v>2473</v>
+        <v>13409</v>
       </c>
       <c r="AL155" t="n">
         <v>5314</v>
@@ -20647,10 +20647,10 @@
         <v>1703</v>
       </c>
       <c r="D156" t="n">
-        <v>2058</v>
+        <v>1976</v>
       </c>
       <c r="E156" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F156" t="n">
         <v>899228</v>
@@ -20740,13 +20740,13 @@
         <v>653</v>
       </c>
       <c r="AI156" t="n">
-        <v>9437</v>
+        <v>16168</v>
       </c>
       <c r="AJ156" t="n">
-        <v>2121</v>
+        <v>6465</v>
       </c>
       <c r="AK156" t="n">
-        <v>2121</v>
+        <v>13209</v>
       </c>
       <c r="AL156" t="n">
         <v>5566</v>
@@ -20824,10 +20824,10 @@
         <v>1649</v>
       </c>
       <c r="D157" t="n">
-        <v>2080</v>
+        <v>1996</v>
       </c>
       <c r="E157" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F157" t="n">
         <v>923236</v>
@@ -20917,13 +20917,13 @@
         <v>709</v>
       </c>
       <c r="AI157" t="n">
-        <v>9869</v>
+        <v>16616</v>
       </c>
       <c r="AJ157" t="n">
-        <v>2026</v>
+        <v>6777</v>
       </c>
       <c r="AK157" t="n">
-        <v>2026</v>
+        <v>11925</v>
       </c>
       <c r="AL157" t="n">
         <v>5577</v>
@@ -21001,10 +21001,10 @@
         <v>1693</v>
       </c>
       <c r="D158" t="n">
-        <v>2106</v>
+        <v>2020</v>
       </c>
       <c r="E158" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F158" t="n">
         <v>935487</v>
@@ -21094,13 +21094,13 @@
         <v>818</v>
       </c>
       <c r="AI158" t="n">
-        <v>10035</v>
+        <v>17156</v>
       </c>
       <c r="AJ158" t="n">
-        <v>2256</v>
+        <v>6431</v>
       </c>
       <c r="AK158" t="n">
-        <v>2256</v>
+        <v>14360</v>
       </c>
       <c r="AL158" t="n">
         <v>5587</v>
@@ -21178,10 +21178,10 @@
         <v>1940</v>
       </c>
       <c r="D159" t="n">
-        <v>2140</v>
+        <v>2052</v>
       </c>
       <c r="E159" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" t="n">
         <v>960363</v>
@@ -21271,13 +21271,13 @@
         <v>623</v>
       </c>
       <c r="AI159" t="n">
-        <v>12167</v>
+        <v>17334</v>
       </c>
       <c r="AJ159" t="n">
-        <v>2461</v>
+        <v>6653</v>
       </c>
       <c r="AK159" t="n">
-        <v>2461</v>
+        <v>14962</v>
       </c>
       <c r="AL159" t="n">
         <v>5623</v>
@@ -21355,10 +21355,10 @@
         <v>1425</v>
       </c>
       <c r="D160" t="n">
-        <v>2160</v>
+        <v>2070</v>
       </c>
       <c r="E160" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F160" t="n">
         <v>1014824</v>
@@ -21448,13 +21448,13 @@
         <v>831</v>
       </c>
       <c r="AI160" t="n">
-        <v>11370</v>
+        <v>17569</v>
       </c>
       <c r="AJ160" t="n">
-        <v>2386</v>
+        <v>6836</v>
       </c>
       <c r="AK160" t="n">
-        <v>2386</v>
+        <v>15834</v>
       </c>
       <c r="AL160" t="n">
         <v>5657</v>
@@ -21532,10 +21532,10 @@
         <v>638</v>
       </c>
       <c r="D161" t="n">
-        <v>2191</v>
+        <v>2100</v>
       </c>
       <c r="E161" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F161" t="n">
         <v>1029197</v>
@@ -21625,13 +21625,13 @@
         <v>800</v>
       </c>
       <c r="AI161" t="n">
-        <v>10603</v>
+        <v>17766</v>
       </c>
       <c r="AJ161" t="n">
-        <v>2279</v>
+        <v>6857</v>
       </c>
       <c r="AK161" t="n">
-        <v>2279</v>
+        <v>14681</v>
       </c>
       <c r="AL161" t="n">
         <v>5292</v>
@@ -21709,10 +21709,10 @@
         <v>1637</v>
       </c>
       <c r="D162" t="n">
-        <v>2225</v>
+        <v>2133</v>
       </c>
       <c r="E162" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F162" t="n">
         <v>1051218</v>
@@ -21802,13 +21802,13 @@
         <v>789</v>
       </c>
       <c r="AI162" t="n">
-        <v>10720</v>
+        <v>17900</v>
       </c>
       <c r="AJ162" t="n">
-        <v>2505</v>
+        <v>6867</v>
       </c>
       <c r="AK162" t="n">
-        <v>2505</v>
+        <v>14496</v>
       </c>
       <c r="AL162" t="n">
         <v>5500</v>
@@ -21886,10 +21886,10 @@
         <v>2504</v>
       </c>
       <c r="D163" t="n">
-        <v>2249</v>
+        <v>2155</v>
       </c>
       <c r="E163" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F163" t="n">
         <v>1051218</v>
@@ -21979,13 +21979,13 @@
         <v>861</v>
       </c>
       <c r="AI163" t="n">
-        <v>12449</v>
+        <v>17945</v>
       </c>
       <c r="AJ163" t="n">
-        <v>2626</v>
+        <v>6796</v>
       </c>
       <c r="AK163" t="n">
-        <v>2626</v>
+        <v>16310</v>
       </c>
       <c r="AL163" t="n">
         <v>5622</v>
@@ -22063,7 +22063,7 @@
         <v>1826</v>
       </c>
       <c r="D164" t="n">
-        <v>2277</v>
+        <v>2183</v>
       </c>
       <c r="E164" t="n">
         <v>28</v>
@@ -22156,13 +22156,13 @@
         <v>926</v>
       </c>
       <c r="AI164" t="n">
-        <v>11954</v>
+        <v>18666</v>
       </c>
       <c r="AJ164" t="n">
-        <v>2363</v>
+        <v>6785</v>
       </c>
       <c r="AK164" t="n">
-        <v>2363</v>
+        <v>15780</v>
       </c>
       <c r="AL164" t="n">
         <v>5667</v>
@@ -22240,10 +22240,10 @@
         <v>2097</v>
       </c>
       <c r="D165" t="n">
-        <v>2312</v>
+        <v>2215</v>
       </c>
       <c r="E165" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F165" t="n">
         <v>1072466</v>
@@ -22333,13 +22333,13 @@
         <v>890</v>
       </c>
       <c r="AI165" t="n">
-        <v>10899</v>
+        <v>18455</v>
       </c>
       <c r="AJ165" t="n">
-        <v>2337</v>
+        <v>6933</v>
       </c>
       <c r="AK165" t="n">
-        <v>2337</v>
+        <v>15779</v>
       </c>
       <c r="AL165" t="n">
         <v>5726</v>
@@ -22417,10 +22417,10 @@
         <v>2331</v>
       </c>
       <c r="D166" t="n">
-        <v>2352</v>
+        <v>2252</v>
       </c>
       <c r="E166" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F166" t="n">
         <v>1088326</v>
@@ -22510,13 +22510,13 @@
         <v>802</v>
       </c>
       <c r="AI166" t="n">
-        <v>13291</v>
+        <v>18677</v>
       </c>
       <c r="AJ166" t="n">
-        <v>2395</v>
+        <v>6906</v>
       </c>
       <c r="AK166" t="n">
-        <v>2395</v>
+        <v>14989</v>
       </c>
       <c r="AL166" t="n">
         <v>5710</v>
@@ -22594,10 +22594,10 @@
         <v>1843</v>
       </c>
       <c r="D167" t="n">
-        <v>2398</v>
+        <v>2294</v>
       </c>
       <c r="E167" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F167" t="n">
         <v>1112677</v>
@@ -22687,13 +22687,13 @@
         <v>957</v>
       </c>
       <c r="AI167" t="n">
-        <v>11542</v>
+        <v>18969</v>
       </c>
       <c r="AJ167" t="n">
-        <v>2776</v>
+        <v>7116</v>
       </c>
       <c r="AK167" t="n">
-        <v>2776</v>
+        <v>15358</v>
       </c>
       <c r="AL167" t="n">
         <v>5633</v>
@@ -22771,10 +22771,10 @@
         <v>1254</v>
       </c>
       <c r="D168" t="n">
-        <v>2428</v>
+        <v>2323</v>
       </c>
       <c r="E168" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F168" t="n">
         <v>1135749</v>
@@ -22864,13 +22864,13 @@
         <v>970</v>
       </c>
       <c r="AI168" t="n">
-        <v>13354</v>
+        <v>19374</v>
       </c>
       <c r="AJ168" t="n">
-        <v>2638</v>
+        <v>6847</v>
       </c>
       <c r="AK168" t="n">
-        <v>2638</v>
+        <v>17191</v>
       </c>
       <c r="AL168" t="n">
         <v>5289</v>
@@ -22948,10 +22948,10 @@
         <v>4098</v>
       </c>
       <c r="D169" t="n">
-        <v>2473</v>
+        <v>2367</v>
       </c>
       <c r="E169" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F169" t="n">
         <v>1169385</v>
@@ -23041,13 +23041,13 @@
         <v>1044</v>
       </c>
       <c r="AI169" t="n">
-        <v>11792</v>
+        <v>18940</v>
       </c>
       <c r="AJ169" t="n">
-        <v>2481</v>
+        <v>7015</v>
       </c>
       <c r="AK169" t="n">
-        <v>2481</v>
+        <v>15636</v>
       </c>
       <c r="AL169" t="n">
         <v>5529</v>
@@ -23125,7 +23125,7 @@
         <v>3129</v>
       </c>
       <c r="D170" t="n">
-        <v>2510</v>
+        <v>2404</v>
       </c>
       <c r="E170" t="n">
         <v>37</v>
@@ -23218,13 +23218,13 @@
         <v>1099</v>
       </c>
       <c r="AI170" t="n">
-        <v>12273</v>
+        <v>19602</v>
       </c>
       <c r="AJ170" t="n">
-        <v>2537</v>
+        <v>7218</v>
       </c>
       <c r="AK170" t="n">
-        <v>2537</v>
+        <v>17830</v>
       </c>
       <c r="AL170" t="n">
         <v>5782</v>
@@ -23302,10 +23302,10 @@
         <v>3516</v>
       </c>
       <c r="D171" t="n">
-        <v>2552</v>
+        <v>2443</v>
       </c>
       <c r="E171" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F171" t="n">
         <v>1212302</v>
@@ -23395,13 +23395,13 @@
         <v>1152</v>
       </c>
       <c r="AI171" t="n">
-        <v>12102</v>
+        <v>20029</v>
       </c>
       <c r="AJ171" t="n">
-        <v>2413</v>
+        <v>7611</v>
       </c>
       <c r="AK171" t="n">
-        <v>2413</v>
+        <v>16941</v>
       </c>
       <c r="AL171" t="n">
         <v>5856</v>
@@ -23479,10 +23479,10 @@
         <v>3454</v>
       </c>
       <c r="D172" t="n">
-        <v>2598</v>
+        <v>2487</v>
       </c>
       <c r="E172" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F172" t="n">
         <v>1249858</v>
@@ -23572,13 +23572,13 @@
         <v>1245</v>
       </c>
       <c r="AI172" t="n">
-        <v>12213</v>
+        <v>20501</v>
       </c>
       <c r="AJ172" t="n">
-        <v>2411</v>
+        <v>7130</v>
       </c>
       <c r="AK172" t="n">
-        <v>2411</v>
+        <v>17648</v>
       </c>
       <c r="AL172" t="n">
         <v>5841</v>
@@ -23656,10 +23656,10 @@
         <v>4430</v>
       </c>
       <c r="D173" t="n">
-        <v>2646</v>
+        <v>2531</v>
       </c>
       <c r="E173" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F173" t="n">
         <v>1286735</v>
@@ -23749,13 +23749,13 @@
         <v>1154</v>
       </c>
       <c r="AI173" t="n">
-        <v>12085</v>
+        <v>19559</v>
       </c>
       <c r="AJ173" t="n">
-        <v>2716</v>
+        <v>7088</v>
       </c>
       <c r="AK173" t="n">
-        <v>2716</v>
+        <v>18195</v>
       </c>
       <c r="AL173" t="n">
         <v>5807</v>
@@ -23833,10 +23833,10 @@
         <v>3866</v>
       </c>
       <c r="D174" t="n">
-        <v>2686</v>
+        <v>2566</v>
       </c>
       <c r="E174" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F174" t="n">
         <v>1313265</v>
@@ -23926,13 +23926,13 @@
         <v>1193</v>
       </c>
       <c r="AI174" t="n">
-        <v>11995</v>
+        <v>19071</v>
       </c>
       <c r="AJ174" t="n">
-        <v>2748</v>
+        <v>7267</v>
       </c>
       <c r="AK174" t="n">
-        <v>2748</v>
+        <v>14326</v>
       </c>
       <c r="AL174" t="n">
         <v>5701</v>
@@ -24010,10 +24010,10 @@
         <v>3280</v>
       </c>
       <c r="D175" t="n">
-        <v>2731</v>
+        <v>2607</v>
       </c>
       <c r="E175" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F175" t="n">
         <v>1350920</v>
@@ -24103,13 +24103,13 @@
         <v>1103</v>
       </c>
       <c r="AI175" t="n">
-        <v>13009</v>
+        <v>19828</v>
       </c>
       <c r="AJ175" t="n">
-        <v>2442</v>
+        <v>6944</v>
       </c>
       <c r="AK175" t="n">
-        <v>2442</v>
+        <v>14832</v>
       </c>
       <c r="AL175" t="n">
         <v>5712</v>
@@ -24187,10 +24187,10 @@
         <v>5489</v>
       </c>
       <c r="D176" t="n">
-        <v>2772</v>
+        <v>2647</v>
       </c>
       <c r="E176" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F176" t="n">
         <v>1350920</v>
@@ -24280,13 +24280,13 @@
         <v>1279</v>
       </c>
       <c r="AI176" t="n">
-        <v>12454</v>
+        <v>21289</v>
       </c>
       <c r="AJ176" t="n">
-        <v>2760</v>
+        <v>7263</v>
       </c>
       <c r="AK176" t="n">
-        <v>2760</v>
+        <v>14540</v>
       </c>
       <c r="AL176" t="n">
         <v>5762</v>
@@ -24364,10 +24364,10 @@
         <v>5551</v>
       </c>
       <c r="D177" t="n">
-        <v>2846</v>
+        <v>2712</v>
       </c>
       <c r="E177" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F177" t="n">
         <v>1399304</v>
@@ -24457,13 +24457,13 @@
         <v>1144</v>
       </c>
       <c r="AI177" t="n">
-        <v>12303</v>
+        <v>21266</v>
       </c>
       <c r="AJ177" t="n">
-        <v>2226</v>
+        <v>7212</v>
       </c>
       <c r="AK177" t="n">
-        <v>2226</v>
+        <v>17380</v>
       </c>
       <c r="AL177" t="n">
         <v>5968</v>
@@ -24541,7 +24541,7 @@
         <v>5996</v>
       </c>
       <c r="D178" t="n">
-        <v>2904</v>
+        <v>2770</v>
       </c>
       <c r="E178" t="n">
         <v>58</v>
@@ -24634,13 +24634,13 @@
         <v>1358</v>
       </c>
       <c r="AI178" t="n">
-        <v>13664</v>
+        <v>19872</v>
       </c>
       <c r="AJ178" t="n">
-        <v>2419</v>
+        <v>7223</v>
       </c>
       <c r="AK178" t="n">
-        <v>2419</v>
+        <v>17819</v>
       </c>
       <c r="AL178" t="n">
         <v>6051</v>
@@ -24718,10 +24718,10 @@
         <v>5707</v>
       </c>
       <c r="D179" t="n">
-        <v>2971</v>
+        <v>2836</v>
       </c>
       <c r="E179" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F179" t="n">
         <v>1444189</v>
@@ -24811,13 +24811,13 @@
         <v>1443</v>
       </c>
       <c r="AI179" t="n">
-        <v>12702</v>
+        <v>20575</v>
       </c>
       <c r="AJ179" t="n">
-        <v>2572</v>
+        <v>7142</v>
       </c>
       <c r="AK179" t="n">
-        <v>2572</v>
+        <v>19436</v>
       </c>
       <c r="AL179" t="n">
         <v>6150</v>
@@ -24895,10 +24895,10 @@
         <v>5742</v>
       </c>
       <c r="D180" t="n">
-        <v>3049</v>
+        <v>2912</v>
       </c>
       <c r="E180" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F180" t="n">
         <v>1492340</v>
@@ -24988,13 +24988,13 @@
         <v>1396</v>
       </c>
       <c r="AI180" t="n">
-        <v>14063</v>
+        <v>21026</v>
       </c>
       <c r="AJ180" t="n">
-        <v>1962</v>
+        <v>6863</v>
       </c>
       <c r="AK180" t="n">
-        <v>1962</v>
+        <v>19836</v>
       </c>
       <c r="AL180" t="n">
         <v>6165</v>
@@ -25072,10 +25072,10 @@
         <v>5357</v>
       </c>
       <c r="D181" t="n">
-        <v>3137</v>
+        <v>2997</v>
       </c>
       <c r="E181" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F181" t="n">
         <v>1543186</v>
@@ -25165,13 +25165,13 @@
         <v>1484</v>
       </c>
       <c r="AI181" t="n">
-        <v>12438</v>
+        <v>19678</v>
       </c>
       <c r="AJ181" t="n">
-        <v>2154</v>
+        <v>7003</v>
       </c>
       <c r="AK181" t="n">
-        <v>2154</v>
+        <v>16804</v>
       </c>
       <c r="AL181" t="n">
         <v>5999</v>
@@ -25249,10 +25249,10 @@
         <v>4288</v>
       </c>
       <c r="D182" t="n">
-        <v>3223</v>
+        <v>3079</v>
       </c>
       <c r="E182" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F182" t="n">
         <v>1578667</v>
@@ -25342,13 +25342,13 @@
         <v>1663</v>
       </c>
       <c r="AI182" t="n">
-        <v>11778</v>
+        <v>21937</v>
       </c>
       <c r="AJ182" t="n">
-        <v>1987</v>
+        <v>7054</v>
       </c>
       <c r="AK182" t="n">
-        <v>1987</v>
+        <v>17315</v>
       </c>
       <c r="AL182" t="n">
         <v>5931</v>
@@ -25426,10 +25426,10 @@
         <v>6975</v>
       </c>
       <c r="D183" t="n">
-        <v>3308</v>
+        <v>3162</v>
       </c>
       <c r="E183" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F183" t="n">
         <v>1612583</v>
@@ -25519,13 +25519,13 @@
         <v>1617</v>
       </c>
       <c r="AI183" t="n">
-        <v>12688</v>
+        <v>22030</v>
       </c>
       <c r="AJ183" t="n">
-        <v>1987</v>
+        <v>7084</v>
       </c>
       <c r="AK183" t="n">
-        <v>1987</v>
+        <v>17400</v>
       </c>
       <c r="AL183" t="n">
         <v>5921</v>
@@ -25603,10 +25603,10 @@
         <v>8076</v>
       </c>
       <c r="D184" t="n">
-        <v>3397</v>
+        <v>3252</v>
       </c>
       <c r="E184" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F184" t="n">
         <v>1653835</v>
@@ -25696,13 +25696,13 @@
         <v>1663</v>
       </c>
       <c r="AI184" t="n">
-        <v>13517</v>
+        <v>21558</v>
       </c>
       <c r="AJ184" t="n">
-        <v>2928</v>
+        <v>6988</v>
       </c>
       <c r="AK184" t="n">
-        <v>2928</v>
+        <v>17348</v>
       </c>
       <c r="AL184" t="n">
         <v>6017</v>
@@ -25782,10 +25782,10 @@
         <v>7915</v>
       </c>
       <c r="D185" t="n">
-        <v>3504</v>
+        <v>3356</v>
       </c>
       <c r="E185" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F185" t="n">
         <v>1696809</v>
@@ -25875,13 +25875,13 @@
         <v>1887</v>
       </c>
       <c r="AI185" t="n">
-        <v>14349</v>
+        <v>21049</v>
       </c>
       <c r="AJ185" t="n">
-        <v>2509</v>
+        <v>7029</v>
       </c>
       <c r="AK185" t="n">
-        <v>2509</v>
+        <v>19376</v>
       </c>
       <c r="AL185" t="n">
         <v>6147</v>
@@ -25961,10 +25961,10 @@
         <v>7555</v>
       </c>
       <c r="D186" t="n">
-        <v>3627</v>
+        <v>3478</v>
       </c>
       <c r="E186" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F186" t="n">
         <v>1741722</v>
@@ -26054,13 +26054,13 @@
         <v>1507</v>
       </c>
       <c r="AI186" t="n">
-        <v>14997</v>
+        <v>22048</v>
       </c>
       <c r="AJ186" t="n">
-        <v>2218</v>
+        <v>7000</v>
       </c>
       <c r="AK186" t="n">
-        <v>2218</v>
+        <v>21629</v>
       </c>
       <c r="AL186" t="n">
         <v>6045</v>
@@ -26140,10 +26140,10 @@
         <v>8258</v>
       </c>
       <c r="D187" t="n">
-        <v>3755</v>
+        <v>3605</v>
       </c>
       <c r="E187" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F187" t="n">
         <v>1785542</v>
@@ -26233,13 +26233,13 @@
         <v>1720</v>
       </c>
       <c r="AI187" t="n">
-        <v>13500</v>
+        <v>21903</v>
       </c>
       <c r="AJ187" t="n">
-        <v>2113</v>
+        <v>7158</v>
       </c>
       <c r="AK187" t="n">
-        <v>2113</v>
+        <v>21006</v>
       </c>
       <c r="AL187" t="n">
         <v>5952</v>
@@ -26319,10 +26319,10 @@
         <v>3449</v>
       </c>
       <c r="D188" t="n">
-        <v>3867</v>
+        <v>3716</v>
       </c>
       <c r="E188" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F188" t="n">
         <v>1829966</v>
@@ -26412,13 +26412,13 @@
         <v>1841</v>
       </c>
       <c r="AI188" t="n">
-        <v>13479</v>
+        <v>21386</v>
       </c>
       <c r="AJ188" t="n">
-        <v>2072</v>
+        <v>7402</v>
       </c>
       <c r="AK188" t="n">
-        <v>2072</v>
+        <v>19046</v>
       </c>
       <c r="AL188" t="n">
         <v>5946</v>
@@ -26498,7 +26498,7 @@
         <v>5318</v>
       </c>
       <c r="D189" t="n">
-        <v>3987</v>
+        <v>3836</v>
       </c>
       <c r="E189" t="n">
         <v>120</v>
@@ -26591,13 +26591,13 @@
         <v>2030</v>
       </c>
       <c r="AI189" t="n">
-        <v>11538</v>
+        <v>20629</v>
       </c>
       <c r="AJ189" t="n">
-        <v>3000</v>
+        <v>7219</v>
       </c>
       <c r="AK189" t="n">
-        <v>3000</v>
+        <v>17379</v>
       </c>
       <c r="AL189" t="n">
         <v>5913</v>
@@ -26677,10 +26677,10 @@
         <v>10028</v>
       </c>
       <c r="D190" t="n">
-        <v>4127</v>
+        <v>3974</v>
       </c>
       <c r="E190" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F190" t="n">
         <v>1917116</v>
@@ -26770,13 +26770,13 @@
         <v>2045</v>
       </c>
       <c r="AI190" t="n">
-        <v>12326</v>
+        <v>22766</v>
       </c>
       <c r="AJ190" t="n">
-        <v>2241</v>
+        <v>7474</v>
       </c>
       <c r="AK190" t="n">
-        <v>2241</v>
+        <v>19026</v>
       </c>
       <c r="AL190" t="n">
         <v>6087</v>
@@ -26856,10 +26856,10 @@
         <v>9979</v>
       </c>
       <c r="D191" t="n">
-        <v>4283</v>
+        <v>4128</v>
       </c>
       <c r="E191" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F191" t="n">
         <v>1960005</v>
@@ -26949,13 +26949,13 @@
         <v>2232</v>
       </c>
       <c r="AI191" t="n">
-        <v>13315</v>
+        <v>22830</v>
       </c>
       <c r="AJ191" t="n">
-        <v>3357</v>
+        <v>7490</v>
       </c>
       <c r="AK191" t="n">
-        <v>3357</v>
+        <v>16431</v>
       </c>
       <c r="AL191" t="n">
         <v>6322</v>
@@ -27035,10 +27035,10 @@
         <v>9782</v>
       </c>
       <c r="D192" t="n">
-        <v>4426</v>
+        <v>4270</v>
       </c>
       <c r="E192" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F192" t="n">
         <v>2020405</v>
@@ -27128,13 +27128,13 @@
         <v>2260</v>
       </c>
       <c r="AI192" t="n">
-        <v>13132</v>
+        <v>21396</v>
       </c>
       <c r="AJ192" t="n">
-        <v>2665</v>
+        <v>7694</v>
       </c>
       <c r="AK192" t="n">
-        <v>2665</v>
+        <v>19688</v>
       </c>
       <c r="AL192" t="n">
         <v>6478</v>
@@ -27214,10 +27214,10 @@
         <v>9765</v>
       </c>
       <c r="D193" t="n">
-        <v>4584</v>
+        <v>4426</v>
       </c>
       <c r="E193" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F193" t="n">
         <v>2069122</v>
@@ -27307,13 +27307,13 @@
         <v>2489</v>
       </c>
       <c r="AI193" t="n">
-        <v>12857</v>
+        <v>21676</v>
       </c>
       <c r="AJ193" t="n">
-        <v>2703</v>
+        <v>7207</v>
       </c>
       <c r="AK193" t="n">
-        <v>2703</v>
+        <v>22552</v>
       </c>
       <c r="AL193" t="n">
         <v>6379</v>
@@ -27393,10 +27393,10 @@
         <v>10351</v>
       </c>
       <c r="D194" t="n">
-        <v>4731</v>
+        <v>4578</v>
       </c>
       <c r="E194" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F194" t="n">
         <v>2110922</v>
@@ -27486,13 +27486,13 @@
         <v>2512</v>
       </c>
       <c r="AI194" t="n">
-        <v>13228</v>
+        <v>21631</v>
       </c>
       <c r="AJ194" t="n">
-        <v>2662</v>
+        <v>7366</v>
       </c>
       <c r="AK194" t="n">
-        <v>2662</v>
+        <v>19705</v>
       </c>
       <c r="AL194" t="n">
         <v>6353</v>
@@ -27572,10 +27572,10 @@
         <v>8196</v>
       </c>
       <c r="D195" t="n">
-        <v>4909</v>
+        <v>4750</v>
       </c>
       <c r="E195" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F195" t="n">
         <v>2165623</v>
@@ -27665,13 +27665,13 @@
         <v>2507</v>
       </c>
       <c r="AI195" t="n">
-        <v>14798</v>
+        <v>23344</v>
       </c>
       <c r="AJ195" t="n">
-        <v>2779</v>
+        <v>7422</v>
       </c>
       <c r="AK195" t="n">
-        <v>2779</v>
+        <v>21533</v>
       </c>
       <c r="AL195" t="n">
         <v>6405</v>
@@ -27751,10 +27751,10 @@
         <v>5655</v>
       </c>
       <c r="D196" t="n">
-        <v>5061</v>
+        <v>4912</v>
       </c>
       <c r="E196" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F196" t="n">
         <v>2205822</v>
@@ -27844,13 +27844,13 @@
         <v>2479</v>
       </c>
       <c r="AI196" t="n">
-        <v>11446</v>
+        <v>23245</v>
       </c>
       <c r="AJ196" t="n">
-        <v>2464</v>
+        <v>7696</v>
       </c>
       <c r="AK196" t="n">
-        <v>2464</v>
+        <v>18883</v>
       </c>
       <c r="AL196" t="n">
         <v>6370</v>
@@ -27930,10 +27930,10 @@
         <v>10745</v>
       </c>
       <c r="D197" t="n">
-        <v>5238</v>
+        <v>5093</v>
       </c>
       <c r="E197" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F197" t="n">
         <v>2249060</v>
@@ -28023,13 +28023,13 @@
         <v>2824</v>
       </c>
       <c r="AI197" t="n">
-        <v>13043</v>
+        <v>22663</v>
       </c>
       <c r="AJ197" t="n">
-        <v>2790</v>
+        <v>7560</v>
       </c>
       <c r="AK197" t="n">
-        <v>2790</v>
+        <v>21427</v>
       </c>
       <c r="AL197" t="n">
         <v>6334</v>
@@ -28109,10 +28109,10 @@
         <v>7307</v>
       </c>
       <c r="D198" t="n">
-        <v>5394</v>
+        <v>5260</v>
       </c>
       <c r="E198" t="n">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F198" t="n">
         <v>2286774</v>
@@ -28202,13 +28202,13 @@
         <v>2822</v>
       </c>
       <c r="AI198" t="n">
-        <v>12895</v>
+        <v>23733</v>
       </c>
       <c r="AJ198" t="n">
-        <v>3007</v>
+        <v>7700</v>
       </c>
       <c r="AK198" t="n">
-        <v>3007</v>
+        <v>20688</v>
       </c>
       <c r="AL198" t="n">
         <v>6583</v>
@@ -28252,10 +28252,10 @@
         <v>10291</v>
       </c>
       <c r="D199" t="n">
-        <v>5526</v>
+        <v>5409</v>
       </c>
       <c r="E199" t="n">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F199" t="n">
         <v>2301483</v>
@@ -28345,13 +28345,13 @@
         <v>2664</v>
       </c>
       <c r="AI199" t="n">
-        <v>12965</v>
+        <v>22798</v>
       </c>
       <c r="AJ199" t="n">
-        <v>2784</v>
+        <v>7080</v>
       </c>
       <c r="AK199" t="n">
-        <v>2784</v>
+        <v>20552</v>
       </c>
       <c r="AL199" t="n">
         <v>6666</v>
@@ -28395,10 +28395,10 @@
         <v>14916</v>
       </c>
       <c r="D200" t="n">
-        <v>5586</v>
+        <v>5476</v>
       </c>
       <c r="E200" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F200" t="n">
         <v>2343210</v>
@@ -28488,13 +28488,13 @@
         <v>2783</v>
       </c>
       <c r="AI200" t="n">
-        <v>12995</v>
+        <v>23969</v>
       </c>
       <c r="AJ200" t="n">
-        <v>3024</v>
+        <v>7800</v>
       </c>
       <c r="AK200" t="n">
-        <v>3024</v>
+        <v>19201</v>
       </c>
       <c r="AL200" t="n">
         <v>6693</v>
@@ -28538,10 +28538,10 @@
         <v>10158</v>
       </c>
       <c r="D201" t="n">
-        <v>5673</v>
+        <v>5556</v>
       </c>
       <c r="E201" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F201" t="n">
         <v>2384232</v>
@@ -28631,13 +28631,13 @@
         <v>2402</v>
       </c>
       <c r="AI201" t="n">
-        <v>12759</v>
+        <v>22622</v>
       </c>
       <c r="AJ201" t="n">
-        <v>2074</v>
+        <v>7198</v>
       </c>
       <c r="AK201" t="n">
-        <v>2074</v>
+        <v>19134</v>
       </c>
       <c r="AL201" t="n">
         <v>6658</v>
@@ -28681,10 +28681,10 @@
         <v>7300</v>
       </c>
       <c r="D202" t="n">
-        <v>5749</v>
+        <v>5610</v>
       </c>
       <c r="E202" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F202" t="n">
         <v>2439082</v>
@@ -28774,13 +28774,13 @@
         <v>2699</v>
       </c>
       <c r="AI202" t="n">
-        <v>14318</v>
+        <v>23411</v>
       </c>
       <c r="AJ202" t="n">
-        <v>2436</v>
+        <v>7648</v>
       </c>
       <c r="AK202" t="n">
-        <v>2436</v>
+        <v>21542</v>
       </c>
       <c r="AL202" t="n">
         <v>6661</v>
@@ -28824,10 +28824,10 @@
         <v>7404</v>
       </c>
       <c r="D203" t="n">
-        <v>5848</v>
+        <v>5706</v>
       </c>
       <c r="E203" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F203" t="n">
         <v>2473836</v>
@@ -28917,13 +28917,13 @@
         <v>2888</v>
       </c>
       <c r="AI203" t="n">
-        <v>14047</v>
+        <v>22604</v>
       </c>
       <c r="AJ203" t="n">
-        <v>1599</v>
+        <v>7326</v>
       </c>
       <c r="AK203" t="n">
-        <v>1599</v>
+        <v>20093</v>
       </c>
       <c r="AL203" t="n">
         <v>6633</v>
@@ -28967,10 +28967,10 @@
         <v>9305</v>
       </c>
       <c r="D204" t="n">
-        <v>5911</v>
+        <v>5781</v>
       </c>
       <c r="E204" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F204" t="n">
         <v>2514877</v>
@@ -29044,13 +29044,13 @@
         <v>2811</v>
       </c>
       <c r="AI204" t="n">
-        <v>13990</v>
+        <v>22294</v>
       </c>
       <c r="AJ204" t="n">
-        <v>2991</v>
+        <v>7543</v>
       </c>
       <c r="AK204" t="n">
-        <v>2991</v>
+        <v>21265</v>
       </c>
       <c r="AL204" t="n">
         <v>6654</v>
@@ -29094,10 +29094,10 @@
         <v>9879</v>
       </c>
       <c r="D205" t="n">
-        <v>5955</v>
+        <v>5826</v>
       </c>
       <c r="E205" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F205" t="n">
         <v>2544071</v>
@@ -29187,13 +29187,13 @@
         <v>2704</v>
       </c>
       <c r="AI205" t="n">
-        <v>12615</v>
+        <v>24411</v>
       </c>
       <c r="AJ205" t="n">
-        <v>2898</v>
+        <v>7421</v>
       </c>
       <c r="AK205" t="n">
-        <v>2898</v>
+        <v>18985</v>
       </c>
       <c r="AL205" t="n">
         <v>6794</v>
@@ -29237,10 +29237,10 @@
         <v>9507</v>
       </c>
       <c r="D206" t="n">
-        <v>6016</v>
+        <v>5882</v>
       </c>
       <c r="E206" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F206" t="n">
         <v>2574376</v>
@@ -29330,13 +29330,13 @@
         <v>2833</v>
       </c>
       <c r="AI206" t="n">
-        <v>11302</v>
+        <v>23230</v>
       </c>
       <c r="AJ206" t="n">
-        <v>4504</v>
+        <v>8490</v>
       </c>
       <c r="AK206" t="n">
-        <v>4504</v>
+        <v>18371</v>
       </c>
       <c r="AL206" t="n">
         <v>3758</v>
@@ -29380,10 +29380,10 @@
         <v>8701</v>
       </c>
       <c r="D207" t="n">
-        <v>6034</v>
+        <v>5905</v>
       </c>
       <c r="E207" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F207" t="n">
         <v>2609056</v>
@@ -29473,13 +29473,13 @@
         <v>3203</v>
       </c>
       <c r="AI207" t="n">
-        <v>15606</v>
+        <v>23305</v>
       </c>
       <c r="AJ207" t="n">
-        <v>3505</v>
+        <v>8149</v>
       </c>
       <c r="AK207" t="n">
-        <v>3505</v>
+        <v>21375</v>
       </c>
       <c r="AL207" t="n">
         <v>6552</v>
@@ -29523,10 +29523,10 @@
         <v>6020</v>
       </c>
       <c r="D208" t="n">
-        <v>6056</v>
+        <v>5949</v>
       </c>
       <c r="E208" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F208" t="n">
         <v>2637947</v>
@@ -29616,13 +29616,13 @@
         <v>3466</v>
       </c>
       <c r="AI208" t="n">
-        <v>16760</v>
+        <v>23988</v>
       </c>
       <c r="AJ208" t="n">
-        <v>3750</v>
+        <v>8136</v>
       </c>
       <c r="AK208" t="n">
-        <v>3750</v>
+        <v>22689</v>
       </c>
       <c r="AL208" t="n">
         <v>6932</v>
@@ -29664,10 +29664,10 @@
         <v>5810</v>
       </c>
       <c r="D209" t="n">
-        <v>6061</v>
+        <v>5971</v>
       </c>
       <c r="E209" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F209" t="n">
         <v>2676478</v>
@@ -29681,23 +29681,23 @@
       <c r="I209" t="n">
         <v>1671</v>
       </c>
-      <c r="J209" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K209" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L209" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M209" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N209" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O209" t="e">
-        <v>#NUM!</v>
+      <c r="J209" t="n">
+        <v>-23.365385088659</v>
+      </c>
+      <c r="K209" t="n">
+        <v>-14.7098249854943</v>
+      </c>
+      <c r="L209" t="n">
+        <v>-11.8736507242493</v>
+      </c>
+      <c r="M209" t="n">
+        <v>-32.2113136201112</v>
+      </c>
+      <c r="N209" t="n">
+        <v>-20.4971065146472</v>
+      </c>
+      <c r="O209" t="n">
+        <v>6.92709070349465</v>
       </c>
       <c r="P209" t="n">
         <v>3428882</v>
@@ -29757,13 +29757,13 @@
         <v>3463</v>
       </c>
       <c r="AI209" t="n">
-        <v>14022</v>
+        <v>24608</v>
       </c>
       <c r="AJ209" t="n">
-        <v>3460</v>
+        <v>7823</v>
       </c>
       <c r="AK209" t="n">
-        <v>3460</v>
+        <v>21580</v>
       </c>
       <c r="AL209"/>
       <c r="AM209" t="n">
@@ -29805,10 +29805,10 @@
         <v>4267</v>
       </c>
       <c r="D210" t="n">
-        <v>6064</v>
+        <v>5980</v>
       </c>
       <c r="E210" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F210" t="n">
         <v>2718547</v>
@@ -29817,28 +29817,28 @@
         <v>42069</v>
       </c>
       <c r="H210" t="n">
-        <v>154817</v>
+        <v>155037</v>
       </c>
       <c r="I210" t="n">
-        <v>-8559</v>
-      </c>
-      <c r="J210" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K210" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L210" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="M210" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N210" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="O210" t="e">
-        <v>#NUM!</v>
+        <v>-8339</v>
+      </c>
+      <c r="J210" t="n">
+        <v>-15.9789561256605</v>
+      </c>
+      <c r="K210" t="n">
+        <v>-10.6080697568495</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1.92368307311038</v>
+      </c>
+      <c r="M210" t="n">
+        <v>-29.8374902520712</v>
+      </c>
+      <c r="N210" t="n">
+        <v>-40.296943315849</v>
+      </c>
+      <c r="O210" t="n">
+        <v>12.7971468121032</v>
       </c>
       <c r="P210" t="n">
         <v>3476926</v>
@@ -29898,13 +29898,13 @@
         <v>3088</v>
       </c>
       <c r="AI210" t="n">
-        <v>15026</v>
+        <v>25226</v>
       </c>
       <c r="AJ210" t="n">
-        <v>2233</v>
+        <v>7611</v>
       </c>
       <c r="AK210" t="n">
-        <v>2233</v>
+        <v>22703</v>
       </c>
       <c r="AL210" t="n">
         <v>6989</v>
@@ -29948,7 +29948,7 @@
         <v>8342</v>
       </c>
       <c r="D211" t="n">
-        <v>6064</v>
+        <v>5980</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -29960,10 +29960,10 @@
         <v>18803</v>
       </c>
       <c r="H211" t="n">
-        <v>156910</v>
+        <v>157135</v>
       </c>
       <c r="I211" t="n">
-        <v>2093</v>
+        <v>2098</v>
       </c>
       <c r="J211" t="e">
         <v>#NUM!</v>
@@ -30004,7 +30004,9 @@
       <c r="V211" t="n">
         <v>63631</v>
       </c>
-      <c r="W211"/>
+      <c r="W211" t="n">
+        <v>9593</v>
+      </c>
       <c r="X211" t="n">
         <v>484</v>
       </c>
@@ -30039,13 +30041,13 @@
         <v>3014</v>
       </c>
       <c r="AI211" t="n">
-        <v>13647</v>
+        <v>25930</v>
       </c>
       <c r="AJ211" t="n">
-        <v>2674</v>
+        <v>7563</v>
       </c>
       <c r="AK211" t="n">
-        <v>2674</v>
+        <v>21262</v>
       </c>
       <c r="AL211" t="n">
         <v>7319</v>
@@ -30071,46 +30073,40 @@
       <c r="BC211"/>
       <c r="BD211"/>
       <c r="BE211"/>
-      <c r="BF211" t="n">
-        <v>415</v>
-      </c>
-      <c r="BG211" t="n">
-        <v>482</v>
-      </c>
-      <c r="BH211" t="n">
-        <v>86.1</v>
-      </c>
+      <c r="BF211"/>
+      <c r="BG211"/>
+      <c r="BH211"/>
       <c r="BI211" t="n">
         <v>29677668</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B212" t="n">
-        <v>394265</v>
+        <v>403307</v>
       </c>
       <c r="C212" t="n">
-        <v>8342</v>
+        <v>9042</v>
       </c>
       <c r="D212" t="n">
-        <v>6064</v>
+        <v>5981</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>2737350</v>
+        <v>2763050</v>
       </c>
       <c r="G212" t="n">
-        <v>18803</v>
+        <v>25700</v>
       </c>
       <c r="H212" t="n">
-        <v>156910</v>
+        <v>160063</v>
       </c>
       <c r="I212" t="n">
-        <v>2093</v>
+        <v>2928</v>
       </c>
       <c r="J212" t="e">
         <v>#NUM!</v>
@@ -30131,74 +30127,58 @@
         <v>#NUM!</v>
       </c>
       <c r="P212" t="n">
-        <v>3539368</v>
+        <v>3609474</v>
       </c>
       <c r="Q212" t="n">
-        <v>237895</v>
+        <v>239566</v>
       </c>
       <c r="R212" t="n">
-        <v>3777263</v>
+        <v>3849040</v>
       </c>
       <c r="S212" t="n">
-        <v>0.12549515187721</v>
+        <v>0.12090562881898</v>
       </c>
       <c r="T212" t="n">
-        <v>62174</v>
+        <v>63545</v>
       </c>
       <c r="U212" t="n">
-        <v>1457</v>
+        <v>1078</v>
       </c>
       <c r="V212" t="n">
-        <v>63631</v>
+        <v>64623</v>
       </c>
       <c r="W212"/>
-      <c r="X212" t="n">
-        <v>484</v>
-      </c>
-      <c r="Y212" t="n">
-        <v>1791</v>
-      </c>
-      <c r="Z212" t="n">
-        <v>265</v>
-      </c>
-      <c r="AA212" t="n">
-        <v>600</v>
-      </c>
-      <c r="AB212" t="n">
-        <v>941</v>
-      </c>
-      <c r="AC212" t="n">
-        <v>14867</v>
-      </c>
-      <c r="AD212" t="n">
-        <v>1973</v>
-      </c>
-      <c r="AE212" t="n">
-        <v>5544</v>
-      </c>
+      <c r="X212"/>
+      <c r="Y212"/>
+      <c r="Z212"/>
+      <c r="AA212"/>
+      <c r="AB212"/>
+      <c r="AC212"/>
+      <c r="AD212"/>
+      <c r="AE212"/>
       <c r="AF212" t="n">
-        <v>6751</v>
+        <v>7203</v>
       </c>
       <c r="AG212" t="n">
-        <v>5541</v>
+        <v>4491</v>
       </c>
       <c r="AH212" t="n">
-        <v>3014</v>
+        <v>3198</v>
       </c>
       <c r="AI212" t="n">
-        <v>13647</v>
+        <v>25325</v>
       </c>
       <c r="AJ212" t="n">
-        <v>2674</v>
+        <v>7791</v>
       </c>
       <c r="AK212" t="n">
-        <v>2674</v>
+        <v>19881</v>
       </c>
       <c r="AL212" t="n">
-        <v>7319</v>
+        <v>7418</v>
       </c>
       <c r="AM212" t="n">
-        <v>6243</v>
+        <v>6035</v>
       </c>
       <c r="AN212"/>
       <c r="AO212"/>
@@ -30218,46 +30198,40 @@
       <c r="BC212"/>
       <c r="BD212"/>
       <c r="BE212"/>
-      <c r="BF212" t="n">
-        <v>467</v>
-      </c>
-      <c r="BG212" t="n">
-        <v>507</v>
-      </c>
-      <c r="BH212" t="n">
-        <v>92.11</v>
-      </c>
+      <c r="BF212"/>
+      <c r="BG212"/>
+      <c r="BH212"/>
       <c r="BI212" t="n">
         <v>29677668</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44040</v>
+        <v>44042</v>
       </c>
       <c r="B213" t="n">
-        <v>394265</v>
+        <v>412107</v>
       </c>
       <c r="C213" t="n">
-        <v>8342</v>
+        <v>8800</v>
       </c>
       <c r="D213" t="n">
-        <v>6064</v>
+        <v>5981</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>2737350</v>
+        <v>2763050</v>
       </c>
       <c r="G213" t="n">
-        <v>18803</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>156910</v>
+        <v>160063</v>
       </c>
       <c r="I213" t="n">
-        <v>2093</v>
+        <v>0</v>
       </c>
       <c r="J213" t="e">
         <v>#NUM!</v>
@@ -30277,75 +30251,47 @@
       <c r="O213" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P213" t="n">
-        <v>3539368</v>
-      </c>
-      <c r="Q213" t="n">
-        <v>237895</v>
-      </c>
+      <c r="P213"/>
+      <c r="Q213"/>
       <c r="R213" t="n">
-        <v>3777263</v>
-      </c>
-      <c r="S213" t="n">
-        <v>0.12549515187721</v>
-      </c>
-      <c r="T213" t="n">
-        <v>62174</v>
-      </c>
-      <c r="U213" t="n">
-        <v>1457</v>
-      </c>
-      <c r="V213" t="n">
-        <v>63631</v>
-      </c>
+        <v>3911270</v>
+      </c>
+      <c r="S213"/>
+      <c r="T213"/>
+      <c r="U213"/>
+      <c r="V213"/>
       <c r="W213"/>
-      <c r="X213" t="n">
-        <v>484</v>
-      </c>
-      <c r="Y213" t="n">
-        <v>1791</v>
-      </c>
-      <c r="Z213" t="n">
-        <v>265</v>
-      </c>
-      <c r="AA213" t="n">
-        <v>600</v>
-      </c>
-      <c r="AB213" t="n">
-        <v>941</v>
-      </c>
-      <c r="AC213" t="n">
-        <v>14867</v>
-      </c>
-      <c r="AD213" t="n">
-        <v>1973</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>5544</v>
-      </c>
+      <c r="X213"/>
+      <c r="Y213"/>
+      <c r="Z213"/>
+      <c r="AA213"/>
+      <c r="AB213"/>
+      <c r="AC213"/>
+      <c r="AD213"/>
+      <c r="AE213"/>
       <c r="AF213" t="n">
-        <v>6751</v>
+        <v>7357</v>
       </c>
       <c r="AG213" t="n">
-        <v>5541</v>
+        <v>5499</v>
       </c>
       <c r="AH213" t="n">
-        <v>3014</v>
+        <v>3121</v>
       </c>
       <c r="AI213" t="n">
-        <v>13647</v>
+        <v>25495</v>
       </c>
       <c r="AJ213" t="n">
-        <v>2674</v>
+        <v>7651</v>
       </c>
       <c r="AK213" t="n">
-        <v>2674</v>
+        <v>19385</v>
       </c>
       <c r="AL213" t="n">
-        <v>7319</v>
+        <v>6893</v>
       </c>
       <c r="AM213" t="n">
-        <v>6243</v>
+        <v>6195</v>
       </c>
       <c r="AN213"/>
       <c r="AO213"/>
@@ -30366,13 +30312,13 @@
       <c r="BD213"/>
       <c r="BE213"/>
       <c r="BF213" t="n">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="BG213" t="n">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="BH213" t="n">
-        <v>92.11</v>
+        <v>86.1</v>
       </c>
       <c r="BI213" t="n">
         <v>29677668</v>
@@ -30380,28 +30326,28 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B214" t="n">
-        <v>403307</v>
+        <v>412107</v>
       </c>
       <c r="C214" t="n">
-        <v>9042</v>
+        <v>8800</v>
       </c>
       <c r="D214" t="n">
-        <v>6064</v>
+        <v>5981</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>2737350</v>
+        <v>2763050</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>156910</v>
+        <v>160063</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -30427,7 +30373,7 @@
       <c r="P214"/>
       <c r="Q214"/>
       <c r="R214" t="n">
-        <v>3849040</v>
+        <v>3911270</v>
       </c>
       <c r="S214"/>
       <c r="T214"/>
@@ -30443,28 +30389,28 @@
       <c r="AD214"/>
       <c r="AE214"/>
       <c r="AF214" t="n">
-        <v>7203</v>
+        <v>7357</v>
       </c>
       <c r="AG214" t="n">
-        <v>4491</v>
+        <v>5499</v>
       </c>
       <c r="AH214" t="n">
-        <v>3198</v>
+        <v>3121</v>
       </c>
       <c r="AI214" t="n">
-        <v>14651</v>
+        <v>25495</v>
       </c>
       <c r="AJ214" t="n">
-        <v>2914</v>
+        <v>7651</v>
       </c>
       <c r="AK214" t="n">
-        <v>6232</v>
+        <v>19385</v>
       </c>
       <c r="AL214" t="n">
-        <v>7418</v>
+        <v>6893</v>
       </c>
       <c r="AM214" t="n">
-        <v>6035</v>
+        <v>6195</v>
       </c>
       <c r="AN214"/>
       <c r="AO214"/>
@@ -30484,10 +30430,254 @@
       <c r="BC214"/>
       <c r="BD214"/>
       <c r="BE214"/>
-      <c r="BF214"/>
-      <c r="BG214"/>
-      <c r="BH214"/>
+      <c r="BF214" t="n">
+        <v>467</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>507</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>92.11</v>
+      </c>
       <c r="BI214" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B215" t="n">
+        <v>412107</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5981</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2763050</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>160063</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K215" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L215" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M215" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N215" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O215" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P215"/>
+      <c r="Q215"/>
+      <c r="R215" t="n">
+        <v>3911270</v>
+      </c>
+      <c r="S215"/>
+      <c r="T215"/>
+      <c r="U215"/>
+      <c r="V215"/>
+      <c r="W215"/>
+      <c r="X215"/>
+      <c r="Y215"/>
+      <c r="Z215"/>
+      <c r="AA215"/>
+      <c r="AB215"/>
+      <c r="AC215"/>
+      <c r="AD215"/>
+      <c r="AE215"/>
+      <c r="AF215" t="n">
+        <v>7357</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>3121</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>25495</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>7651</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>19385</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>6893</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>6195</v>
+      </c>
+      <c r="AN215"/>
+      <c r="AO215"/>
+      <c r="AP215"/>
+      <c r="AQ215"/>
+      <c r="AR215"/>
+      <c r="AS215"/>
+      <c r="AT215"/>
+      <c r="AU215"/>
+      <c r="AV215"/>
+      <c r="AW215"/>
+      <c r="AX215"/>
+      <c r="AY215"/>
+      <c r="AZ215"/>
+      <c r="BA215"/>
+      <c r="BB215"/>
+      <c r="BC215"/>
+      <c r="BD215"/>
+      <c r="BE215"/>
+      <c r="BF215" t="n">
+        <v>467</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>507</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B216" t="n">
+        <v>412107</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5981</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2763050</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>160063</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K216" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L216" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M216" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N216" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O216" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P216"/>
+      <c r="Q216"/>
+      <c r="R216" t="n">
+        <v>3911270</v>
+      </c>
+      <c r="S216"/>
+      <c r="T216"/>
+      <c r="U216"/>
+      <c r="V216"/>
+      <c r="W216"/>
+      <c r="X216"/>
+      <c r="Y216"/>
+      <c r="Z216"/>
+      <c r="AA216"/>
+      <c r="AB216"/>
+      <c r="AC216"/>
+      <c r="AD216"/>
+      <c r="AE216"/>
+      <c r="AF216" t="n">
+        <v>7357</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>3121</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>25495</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>7651</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>19385</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>6893</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>6195</v>
+      </c>
+      <c r="AN216"/>
+      <c r="AO216"/>
+      <c r="AP216"/>
+      <c r="AQ216"/>
+      <c r="AR216"/>
+      <c r="AS216"/>
+      <c r="AT216"/>
+      <c r="AU216"/>
+      <c r="AV216"/>
+      <c r="AW216"/>
+      <c r="AX216"/>
+      <c r="AY216"/>
+      <c r="AZ216"/>
+      <c r="BA216"/>
+      <c r="BB216"/>
+      <c r="BC216"/>
+      <c r="BD216"/>
+      <c r="BE216"/>
+      <c r="BF216" t="n">
+        <v>468</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>505</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>92.67</v>
+      </c>
+      <c r="BI216" t="n">
         <v>29677668</v>
       </c>
     </row>
@@ -30545,34 +30735,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>145771</v>
+        <v>145291</v>
       </c>
       <c r="C2" t="n">
-        <v>117218</v>
+        <v>117567</v>
       </c>
       <c r="D2" t="n">
-        <v>3731822</v>
+        <v>3793703</v>
       </c>
       <c r="E2" t="n">
-        <v>11227</v>
+        <v>11430</v>
       </c>
       <c r="F2" t="n">
-        <v>59086</v>
+        <v>54499</v>
       </c>
       <c r="G2" t="n">
-        <v>12201</v>
+        <v>10906</v>
       </c>
       <c r="H2" t="n">
-        <v>1362</v>
+        <v>1080</v>
       </c>
       <c r="I2" t="n">
-        <v>6035</v>
+        <v>6195</v>
       </c>
       <c r="J2" t="n">
-        <v>33857</v>
+        <v>34684</v>
       </c>
       <c r="K2" t="n">
-        <v>6190</v>
+        <v>6274</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">260542</t>
+    <t xml:space="preserve">273191.2</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5511,10 +5511,10 @@
         <v>877</v>
       </c>
       <c r="D38" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E38" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -5648,7 +5648,7 @@
         <v>1441</v>
       </c>
       <c r="D39" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E39" t="n">
         <v>29</v>
@@ -5785,7 +5785,7 @@
         <v>890</v>
       </c>
       <c r="D40" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E40" t="n">
         <v>33</v>
@@ -5922,7 +5922,7 @@
         <v>923</v>
       </c>
       <c r="D41" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E41" t="n">
         <v>34</v>
@@ -6071,7 +6071,7 @@
         <v>422</v>
       </c>
       <c r="D42" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E42" t="n">
         <v>31</v>
@@ -6220,7 +6220,7 @@
         <v>718</v>
       </c>
       <c r="D43" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E43" t="n">
         <v>32</v>
@@ -6369,7 +6369,7 @@
         <v>868</v>
       </c>
       <c r="D44" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E44" t="n">
         <v>36</v>
@@ -6518,7 +6518,7 @@
         <v>963</v>
       </c>
       <c r="D45" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E45" t="n">
         <v>32</v>
@@ -6667,7 +6667,7 @@
         <v>916</v>
       </c>
       <c r="D46" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E46" t="n">
         <v>38</v>
@@ -6816,7 +6816,7 @@
         <v>889</v>
       </c>
       <c r="D47" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E47" t="n">
         <v>29</v>
@@ -6965,7 +6965,7 @@
         <v>663</v>
       </c>
       <c r="D48" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E48" t="n">
         <v>28</v>
@@ -7114,7 +7114,7 @@
         <v>535</v>
       </c>
       <c r="D49" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E49" t="n">
         <v>25</v>
@@ -7263,7 +7263,7 @@
         <v>738</v>
       </c>
       <c r="D50" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E50" t="n">
         <v>40</v>
@@ -7412,7 +7412,7 @@
         <v>873</v>
       </c>
       <c r="D51" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -7561,7 +7561,7 @@
         <v>875</v>
       </c>
       <c r="D52" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E52" t="n">
         <v>36</v>
@@ -7710,7 +7710,7 @@
         <v>862</v>
       </c>
       <c r="D53" t="n">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E53" t="n">
         <v>33</v>
@@ -7859,7 +7859,7 @@
         <v>967</v>
       </c>
       <c r="D54" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E54" t="n">
         <v>37</v>
@@ -8008,7 +8008,7 @@
         <v>858</v>
       </c>
       <c r="D55" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -8157,7 +8157,7 @@
         <v>666</v>
       </c>
       <c r="D56" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E56" t="n">
         <v>25</v>
@@ -8306,7 +8306,7 @@
         <v>874</v>
       </c>
       <c r="D57" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E57" t="n">
         <v>34</v>
@@ -8455,7 +8455,7 @@
         <v>883</v>
       </c>
       <c r="D58" t="n">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E58" t="n">
         <v>23</v>
@@ -8604,7 +8604,7 @@
         <v>1033</v>
       </c>
       <c r="D59" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E59" t="n">
         <v>31</v>
@@ -8753,7 +8753,7 @@
         <v>1142</v>
       </c>
       <c r="D60" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E60" t="n">
         <v>43</v>
@@ -8902,7 +8902,7 @@
         <v>1293</v>
       </c>
       <c r="D61" t="n">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E61" t="n">
         <v>34</v>
@@ -9051,7 +9051,7 @@
         <v>1026</v>
       </c>
       <c r="D62" t="n">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E62" t="n">
         <v>35</v>
@@ -9200,7 +9200,7 @@
         <v>784</v>
       </c>
       <c r="D63" t="n">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -9349,7 +9349,7 @@
         <v>1037</v>
       </c>
       <c r="D64" t="n">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E64" t="n">
         <v>30</v>
@@ -9498,7 +9498,7 @@
         <v>1053</v>
       </c>
       <c r="D65" t="n">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E65" t="n">
         <v>32</v>
@@ -9647,7 +9647,7 @@
         <v>968</v>
       </c>
       <c r="D66" t="n">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E66" t="n">
         <v>35</v>
@@ -9796,7 +9796,7 @@
         <v>1219</v>
       </c>
       <c r="D67" t="n">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E67" t="n">
         <v>33</v>
@@ -9945,7 +9945,7 @@
         <v>1251</v>
       </c>
       <c r="D68" t="n">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E68" t="n">
         <v>27</v>
@@ -10098,7 +10098,7 @@
         <v>1009</v>
       </c>
       <c r="D69" t="n">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E69" t="n">
         <v>26</v>
@@ -10251,7 +10251,7 @@
         <v>1000</v>
       </c>
       <c r="D70" t="n">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E70" t="n">
         <v>33</v>
@@ -10407,7 +10407,7 @@
         <v>1376</v>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F71" t="n">
         <v>440063</v>
@@ -13390,10 +13390,10 @@
         <v>714</v>
       </c>
       <c r="AI88" t="n">
-        <v>14179</v>
+        <v>10697</v>
       </c>
       <c r="AJ88" t="n">
-        <v>5858</v>
+        <v>2595</v>
       </c>
       <c r="AK88" t="n">
         <v>12818</v>
@@ -13559,10 +13559,10 @@
         <v>592</v>
       </c>
       <c r="AI89" t="n">
-        <v>14623</v>
+        <v>10960</v>
       </c>
       <c r="AJ89" t="n">
-        <v>6102</v>
+        <v>2155</v>
       </c>
       <c r="AK89" t="n">
         <v>11075</v>
@@ -13734,10 +13734,10 @@
         <v>820</v>
       </c>
       <c r="AI90" t="n">
-        <v>15018</v>
+        <v>10726</v>
       </c>
       <c r="AJ90" t="n">
-        <v>6295</v>
+        <v>2237</v>
       </c>
       <c r="AK90" t="n">
         <v>14796</v>
@@ -13909,10 +13909,10 @@
         <v>687</v>
       </c>
       <c r="AI91" t="n">
-        <v>15449</v>
+        <v>10889</v>
       </c>
       <c r="AJ91" t="n">
-        <v>6516</v>
+        <v>2200</v>
       </c>
       <c r="AK91" t="n">
         <v>13357</v>
@@ -14086,10 +14086,10 @@
         <v>689</v>
       </c>
       <c r="AI92" t="n">
-        <v>15773</v>
+        <v>10096</v>
       </c>
       <c r="AJ92" t="n">
-        <v>6601</v>
+        <v>2473</v>
       </c>
       <c r="AK92" t="n">
         <v>13409</v>
@@ -14263,10 +14263,10 @@
         <v>653</v>
       </c>
       <c r="AI93" t="n">
-        <v>16168</v>
+        <v>9437</v>
       </c>
       <c r="AJ93" t="n">
-        <v>6465</v>
+        <v>2121</v>
       </c>
       <c r="AK93" t="n">
         <v>13209</v>
@@ -14440,10 +14440,10 @@
         <v>709</v>
       </c>
       <c r="AI94" t="n">
-        <v>16616</v>
+        <v>9869</v>
       </c>
       <c r="AJ94" t="n">
-        <v>6777</v>
+        <v>2026</v>
       </c>
       <c r="AK94" t="n">
         <v>11925</v>
@@ -14617,10 +14617,10 @@
         <v>818</v>
       </c>
       <c r="AI95" t="n">
-        <v>17156</v>
+        <v>10035</v>
       </c>
       <c r="AJ95" t="n">
-        <v>6431</v>
+        <v>2256</v>
       </c>
       <c r="AK95" t="n">
         <v>14360</v>
@@ -14794,10 +14794,10 @@
         <v>623</v>
       </c>
       <c r="AI96" t="n">
-        <v>17334</v>
+        <v>12167</v>
       </c>
       <c r="AJ96" t="n">
-        <v>6653</v>
+        <v>2461</v>
       </c>
       <c r="AK96" t="n">
         <v>14962</v>
@@ -14971,10 +14971,10 @@
         <v>831</v>
       </c>
       <c r="AI97" t="n">
-        <v>17569</v>
+        <v>11370</v>
       </c>
       <c r="AJ97" t="n">
-        <v>6836</v>
+        <v>2386</v>
       </c>
       <c r="AK97" t="n">
         <v>15834</v>
@@ -15148,10 +15148,10 @@
         <v>800</v>
       </c>
       <c r="AI98" t="n">
-        <v>17766</v>
+        <v>10603</v>
       </c>
       <c r="AJ98" t="n">
-        <v>6857</v>
+        <v>2279</v>
       </c>
       <c r="AK98" t="n">
         <v>14681</v>
@@ -15325,10 +15325,10 @@
         <v>789</v>
       </c>
       <c r="AI99" t="n">
-        <v>17900</v>
+        <v>10720</v>
       </c>
       <c r="AJ99" t="n">
-        <v>6867</v>
+        <v>2505</v>
       </c>
       <c r="AK99" t="n">
         <v>14496</v>
@@ -15502,10 +15502,10 @@
         <v>861</v>
       </c>
       <c r="AI100" t="n">
-        <v>17945</v>
+        <v>12449</v>
       </c>
       <c r="AJ100" t="n">
-        <v>6796</v>
+        <v>2626</v>
       </c>
       <c r="AK100" t="n">
         <v>16310</v>
@@ -15679,10 +15679,10 @@
         <v>926</v>
       </c>
       <c r="AI101" t="n">
-        <v>18666</v>
+        <v>11954</v>
       </c>
       <c r="AJ101" t="n">
-        <v>6785</v>
+        <v>2363</v>
       </c>
       <c r="AK101" t="n">
         <v>15780</v>
@@ -15763,10 +15763,10 @@
         <v>2097</v>
       </c>
       <c r="D102" t="n">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="E102" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F102" t="n">
         <v>1072466</v>
@@ -15856,10 +15856,10 @@
         <v>890</v>
       </c>
       <c r="AI102" t="n">
-        <v>18455</v>
+        <v>10899</v>
       </c>
       <c r="AJ102" t="n">
-        <v>6933</v>
+        <v>2337</v>
       </c>
       <c r="AK102" t="n">
         <v>15779</v>
@@ -15940,7 +15940,7 @@
         <v>2331</v>
       </c>
       <c r="D103" t="n">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E103" t="n">
         <v>37</v>
@@ -16033,10 +16033,10 @@
         <v>802</v>
       </c>
       <c r="AI103" t="n">
-        <v>18677</v>
+        <v>13291</v>
       </c>
       <c r="AJ103" t="n">
-        <v>6906</v>
+        <v>2395</v>
       </c>
       <c r="AK103" t="n">
         <v>14989</v>
@@ -16117,7 +16117,7 @@
         <v>1843</v>
       </c>
       <c r="D104" t="n">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="E104" t="n">
         <v>42</v>
@@ -16210,10 +16210,10 @@
         <v>957</v>
       </c>
       <c r="AI104" t="n">
-        <v>18969</v>
+        <v>11542</v>
       </c>
       <c r="AJ104" t="n">
-        <v>7116</v>
+        <v>2776</v>
       </c>
       <c r="AK104" t="n">
         <v>15358</v>
@@ -16294,7 +16294,7 @@
         <v>1254</v>
       </c>
       <c r="D105" t="n">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E105" t="n">
         <v>29</v>
@@ -16387,10 +16387,10 @@
         <v>970</v>
       </c>
       <c r="AI105" t="n">
-        <v>19374</v>
+        <v>13354</v>
       </c>
       <c r="AJ105" t="n">
-        <v>6847</v>
+        <v>2638</v>
       </c>
       <c r="AK105" t="n">
         <v>17191</v>
@@ -16471,7 +16471,7 @@
         <v>4098</v>
       </c>
       <c r="D106" t="n">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="E106" t="n">
         <v>44</v>
@@ -16564,10 +16564,10 @@
         <v>1044</v>
       </c>
       <c r="AI106" t="n">
-        <v>18940</v>
+        <v>11792</v>
       </c>
       <c r="AJ106" t="n">
-        <v>7015</v>
+        <v>2481</v>
       </c>
       <c r="AK106" t="n">
         <v>15636</v>
@@ -16648,7 +16648,7 @@
         <v>3129</v>
       </c>
       <c r="D107" t="n">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="E107" t="n">
         <v>37</v>
@@ -16741,10 +16741,10 @@
         <v>1099</v>
       </c>
       <c r="AI107" t="n">
-        <v>19602</v>
+        <v>12273</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7218</v>
+        <v>2537</v>
       </c>
       <c r="AK107" t="n">
         <v>17830</v>
@@ -16825,7 +16825,7 @@
         <v>3516</v>
       </c>
       <c r="D108" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="E108" t="n">
         <v>39</v>
@@ -16918,10 +16918,10 @@
         <v>1152</v>
       </c>
       <c r="AI108" t="n">
-        <v>20029</v>
+        <v>12102</v>
       </c>
       <c r="AJ108" t="n">
-        <v>7611</v>
+        <v>2413</v>
       </c>
       <c r="AK108" t="n">
         <v>16941</v>
@@ -17002,7 +17002,7 @@
         <v>3454</v>
       </c>
       <c r="D109" t="n">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="E109" t="n">
         <v>44</v>
@@ -17095,10 +17095,10 @@
         <v>1245</v>
       </c>
       <c r="AI109" t="n">
-        <v>20501</v>
+        <v>12213</v>
       </c>
       <c r="AJ109" t="n">
-        <v>7130</v>
+        <v>2411</v>
       </c>
       <c r="AK109" t="n">
         <v>17648</v>
@@ -17179,7 +17179,7 @@
         <v>4430</v>
       </c>
       <c r="D110" t="n">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="E110" t="n">
         <v>44</v>
@@ -17272,10 +17272,10 @@
         <v>1154</v>
       </c>
       <c r="AI110" t="n">
-        <v>19559</v>
+        <v>12085</v>
       </c>
       <c r="AJ110" t="n">
-        <v>7088</v>
+        <v>2716</v>
       </c>
       <c r="AK110" t="n">
         <v>18195</v>
@@ -17356,7 +17356,7 @@
         <v>3866</v>
       </c>
       <c r="D111" t="n">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="E111" t="n">
         <v>35</v>
@@ -17449,10 +17449,10 @@
         <v>1193</v>
       </c>
       <c r="AI111" t="n">
-        <v>19071</v>
+        <v>11995</v>
       </c>
       <c r="AJ111" t="n">
-        <v>7267</v>
+        <v>2748</v>
       </c>
       <c r="AK111" t="n">
         <v>14326</v>
@@ -17533,7 +17533,7 @@
         <v>3280</v>
       </c>
       <c r="D112" t="n">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="E112" t="n">
         <v>41</v>
@@ -17626,10 +17626,10 @@
         <v>1103</v>
       </c>
       <c r="AI112" t="n">
-        <v>19828</v>
+        <v>13009</v>
       </c>
       <c r="AJ112" t="n">
-        <v>6944</v>
+        <v>2442</v>
       </c>
       <c r="AK112" t="n">
         <v>14832</v>
@@ -17710,7 +17710,7 @@
         <v>5489</v>
       </c>
       <c r="D113" t="n">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -17803,10 +17803,10 @@
         <v>1279</v>
       </c>
       <c r="AI113" t="n">
-        <v>21289</v>
+        <v>12454</v>
       </c>
       <c r="AJ113" t="n">
-        <v>7263</v>
+        <v>2760</v>
       </c>
       <c r="AK113" t="n">
         <v>14540</v>
@@ -17887,7 +17887,7 @@
         <v>5551</v>
       </c>
       <c r="D114" t="n">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E114" t="n">
         <v>65</v>
@@ -17980,10 +17980,10 @@
         <v>1144</v>
       </c>
       <c r="AI114" t="n">
-        <v>21266</v>
+        <v>12303</v>
       </c>
       <c r="AJ114" t="n">
-        <v>7212</v>
+        <v>2226</v>
       </c>
       <c r="AK114" t="n">
         <v>17380</v>
@@ -18064,7 +18064,7 @@
         <v>5996</v>
       </c>
       <c r="D115" t="n">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="E115" t="n">
         <v>58</v>
@@ -18157,10 +18157,10 @@
         <v>1358</v>
       </c>
       <c r="AI115" t="n">
-        <v>19872</v>
+        <v>13664</v>
       </c>
       <c r="AJ115" t="n">
-        <v>7223</v>
+        <v>2419</v>
       </c>
       <c r="AK115" t="n">
         <v>17819</v>
@@ -18241,10 +18241,10 @@
         <v>5707</v>
       </c>
       <c r="D116" t="n">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="E116" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F116" t="n">
         <v>1444189</v>
@@ -18334,10 +18334,10 @@
         <v>1443</v>
       </c>
       <c r="AI116" t="n">
-        <v>20575</v>
+        <v>12702</v>
       </c>
       <c r="AJ116" t="n">
-        <v>7142</v>
+        <v>2572</v>
       </c>
       <c r="AK116" t="n">
         <v>19436</v>
@@ -18418,7 +18418,7 @@
         <v>5742</v>
       </c>
       <c r="D117" t="n">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="E117" t="n">
         <v>76</v>
@@ -18511,10 +18511,10 @@
         <v>1396</v>
       </c>
       <c r="AI117" t="n">
-        <v>21026</v>
+        <v>14063</v>
       </c>
       <c r="AJ117" t="n">
-        <v>6863</v>
+        <v>1962</v>
       </c>
       <c r="AK117" t="n">
         <v>19836</v>
@@ -18595,10 +18595,10 @@
         <v>5357</v>
       </c>
       <c r="D118" t="n">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="E118" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F118" t="n">
         <v>1543186</v>
@@ -18688,10 +18688,10 @@
         <v>1484</v>
       </c>
       <c r="AI118" t="n">
-        <v>19678</v>
+        <v>12438</v>
       </c>
       <c r="AJ118" t="n">
-        <v>7003</v>
+        <v>2154</v>
       </c>
       <c r="AK118" t="n">
         <v>16804</v>
@@ -18772,10 +18772,10 @@
         <v>4288</v>
       </c>
       <c r="D119" t="n">
-        <v>3079</v>
+        <v>3084</v>
       </c>
       <c r="E119" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F119" t="n">
         <v>1578667</v>
@@ -18865,10 +18865,10 @@
         <v>1663</v>
       </c>
       <c r="AI119" t="n">
-        <v>21937</v>
+        <v>11778</v>
       </c>
       <c r="AJ119" t="n">
-        <v>7054</v>
+        <v>1987</v>
       </c>
       <c r="AK119" t="n">
         <v>17315</v>
@@ -18949,10 +18949,10 @@
         <v>6975</v>
       </c>
       <c r="D120" t="n">
-        <v>3162</v>
+        <v>3168</v>
       </c>
       <c r="E120" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F120" t="n">
         <v>1612583</v>
@@ -19042,10 +19042,10 @@
         <v>1617</v>
       </c>
       <c r="AI120" t="n">
-        <v>22030</v>
+        <v>12688</v>
       </c>
       <c r="AJ120" t="n">
-        <v>7084</v>
+        <v>1987</v>
       </c>
       <c r="AK120" t="n">
         <v>17400</v>
@@ -19126,7 +19126,7 @@
         <v>8076</v>
       </c>
       <c r="D121" t="n">
-        <v>3252</v>
+        <v>3258</v>
       </c>
       <c r="E121" t="n">
         <v>90</v>
@@ -19219,10 +19219,10 @@
         <v>1663</v>
       </c>
       <c r="AI121" t="n">
-        <v>21558</v>
+        <v>13517</v>
       </c>
       <c r="AJ121" t="n">
-        <v>6988</v>
+        <v>2928</v>
       </c>
       <c r="AK121" t="n">
         <v>17348</v>
@@ -19305,7 +19305,7 @@
         <v>7915</v>
       </c>
       <c r="D122" t="n">
-        <v>3356</v>
+        <v>3362</v>
       </c>
       <c r="E122" t="n">
         <v>104</v>
@@ -19398,10 +19398,10 @@
         <v>1887</v>
       </c>
       <c r="AI122" t="n">
-        <v>21049</v>
+        <v>14349</v>
       </c>
       <c r="AJ122" t="n">
-        <v>7029</v>
+        <v>2509</v>
       </c>
       <c r="AK122" t="n">
         <v>19376</v>
@@ -19484,10 +19484,10 @@
         <v>7555</v>
       </c>
       <c r="D123" t="n">
-        <v>3478</v>
+        <v>3486</v>
       </c>
       <c r="E123" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F123" t="n">
         <v>1741722</v>
@@ -19577,10 +19577,10 @@
         <v>1507</v>
       </c>
       <c r="AI123" t="n">
-        <v>22048</v>
+        <v>14997</v>
       </c>
       <c r="AJ123" t="n">
-        <v>7000</v>
+        <v>2218</v>
       </c>
       <c r="AK123" t="n">
         <v>21629</v>
@@ -19663,10 +19663,10 @@
         <v>8258</v>
       </c>
       <c r="D124" t="n">
-        <v>3605</v>
+        <v>3616</v>
       </c>
       <c r="E124" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F124" t="n">
         <v>1785542</v>
@@ -19756,10 +19756,10 @@
         <v>1720</v>
       </c>
       <c r="AI124" t="n">
-        <v>21903</v>
+        <v>13500</v>
       </c>
       <c r="AJ124" t="n">
-        <v>7158</v>
+        <v>2113</v>
       </c>
       <c r="AK124" t="n">
         <v>21006</v>
@@ -19842,10 +19842,10 @@
         <v>3449</v>
       </c>
       <c r="D125" t="n">
-        <v>3716</v>
+        <v>3728</v>
       </c>
       <c r="E125" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F125" t="n">
         <v>1829966</v>
@@ -19935,10 +19935,10 @@
         <v>1841</v>
       </c>
       <c r="AI125" t="n">
-        <v>21386</v>
+        <v>13479</v>
       </c>
       <c r="AJ125" t="n">
-        <v>7402</v>
+        <v>2072</v>
       </c>
       <c r="AK125" t="n">
         <v>19046</v>
@@ -20021,10 +20021,10 @@
         <v>5318</v>
       </c>
       <c r="D126" t="n">
-        <v>3836</v>
+        <v>3851</v>
       </c>
       <c r="E126" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F126" t="n">
         <v>1874626</v>
@@ -20114,10 +20114,10 @@
         <v>2030</v>
       </c>
       <c r="AI126" t="n">
-        <v>20629</v>
+        <v>11538</v>
       </c>
       <c r="AJ126" t="n">
-        <v>7219</v>
+        <v>3000</v>
       </c>
       <c r="AK126" t="n">
         <v>17379</v>
@@ -20200,10 +20200,10 @@
         <v>10028</v>
       </c>
       <c r="D127" t="n">
-        <v>3974</v>
+        <v>3991</v>
       </c>
       <c r="E127" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F127" t="n">
         <v>1917116</v>
@@ -20293,10 +20293,10 @@
         <v>2045</v>
       </c>
       <c r="AI127" t="n">
-        <v>22766</v>
+        <v>12326</v>
       </c>
       <c r="AJ127" t="n">
-        <v>7474</v>
+        <v>2241</v>
       </c>
       <c r="AK127" t="n">
         <v>19026</v>
@@ -20379,10 +20379,10 @@
         <v>9979</v>
       </c>
       <c r="D128" t="n">
-        <v>4128</v>
+        <v>4149</v>
       </c>
       <c r="E128" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F128" t="n">
         <v>1960005</v>
@@ -20472,10 +20472,10 @@
         <v>2232</v>
       </c>
       <c r="AI128" t="n">
-        <v>22830</v>
+        <v>13315</v>
       </c>
       <c r="AJ128" t="n">
-        <v>7490</v>
+        <v>3357</v>
       </c>
       <c r="AK128" t="n">
         <v>16431</v>
@@ -20558,10 +20558,10 @@
         <v>9782</v>
       </c>
       <c r="D129" t="n">
-        <v>4270</v>
+        <v>4297</v>
       </c>
       <c r="E129" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F129" t="n">
         <v>2020405</v>
@@ -20651,10 +20651,10 @@
         <v>2260</v>
       </c>
       <c r="AI129" t="n">
-        <v>21396</v>
+        <v>13132</v>
       </c>
       <c r="AJ129" t="n">
-        <v>7694</v>
+        <v>2665</v>
       </c>
       <c r="AK129" t="n">
         <v>19688</v>
@@ -20737,10 +20737,10 @@
         <v>9765</v>
       </c>
       <c r="D130" t="n">
-        <v>4426</v>
+        <v>4457</v>
       </c>
       <c r="E130" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F130" t="n">
         <v>2069122</v>
@@ -20830,10 +20830,10 @@
         <v>2489</v>
       </c>
       <c r="AI130" t="n">
-        <v>21676</v>
+        <v>12857</v>
       </c>
       <c r="AJ130" t="n">
-        <v>7207</v>
+        <v>2703</v>
       </c>
       <c r="AK130" t="n">
         <v>22552</v>
@@ -20916,10 +20916,10 @@
         <v>10351</v>
       </c>
       <c r="D131" t="n">
-        <v>4578</v>
+        <v>4614</v>
       </c>
       <c r="E131" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F131" t="n">
         <v>2110922</v>
@@ -21009,10 +21009,10 @@
         <v>2512</v>
       </c>
       <c r="AI131" t="n">
-        <v>21631</v>
+        <v>13228</v>
       </c>
       <c r="AJ131" t="n">
-        <v>7366</v>
+        <v>2662</v>
       </c>
       <c r="AK131" t="n">
         <v>19705</v>
@@ -21095,10 +21095,10 @@
         <v>8196</v>
       </c>
       <c r="D132" t="n">
-        <v>4750</v>
+        <v>4794</v>
       </c>
       <c r="E132" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F132" t="n">
         <v>2165623</v>
@@ -21188,10 +21188,10 @@
         <v>2507</v>
       </c>
       <c r="AI132" t="n">
-        <v>23344</v>
+        <v>14798</v>
       </c>
       <c r="AJ132" t="n">
-        <v>7422</v>
+        <v>2779</v>
       </c>
       <c r="AK132" t="n">
         <v>21533</v>
@@ -21274,10 +21274,10 @@
         <v>5655</v>
       </c>
       <c r="D133" t="n">
-        <v>4912</v>
+        <v>4961</v>
       </c>
       <c r="E133" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F133" t="n">
         <v>2205822</v>
@@ -21367,10 +21367,10 @@
         <v>2479</v>
       </c>
       <c r="AI133" t="n">
-        <v>23245</v>
+        <v>11446</v>
       </c>
       <c r="AJ133" t="n">
-        <v>7696</v>
+        <v>2464</v>
       </c>
       <c r="AK133" t="n">
         <v>18883</v>
@@ -21453,10 +21453,10 @@
         <v>10745</v>
       </c>
       <c r="D134" t="n">
-        <v>5093</v>
+        <v>5148</v>
       </c>
       <c r="E134" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F134" t="n">
         <v>2249060</v>
@@ -21546,10 +21546,10 @@
         <v>2824</v>
       </c>
       <c r="AI134" t="n">
-        <v>22663</v>
+        <v>13043</v>
       </c>
       <c r="AJ134" t="n">
-        <v>7560</v>
+        <v>2790</v>
       </c>
       <c r="AK134" t="n">
         <v>21427</v>
@@ -21632,10 +21632,10 @@
         <v>7307</v>
       </c>
       <c r="D135" t="n">
-        <v>5260</v>
+        <v>5322</v>
       </c>
       <c r="E135" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F135" t="n">
         <v>2286774</v>
@@ -21725,10 +21725,10 @@
         <v>2822</v>
       </c>
       <c r="AI135" t="n">
-        <v>23733</v>
+        <v>12895</v>
       </c>
       <c r="AJ135" t="n">
-        <v>7700</v>
+        <v>3007</v>
       </c>
       <c r="AK135" t="n">
         <v>20688</v>
@@ -21775,10 +21775,10 @@
         <v>10291</v>
       </c>
       <c r="D136" t="n">
-        <v>5409</v>
+        <v>5483</v>
       </c>
       <c r="E136" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F136" t="n">
         <v>2301483</v>
@@ -21868,10 +21868,10 @@
         <v>2664</v>
       </c>
       <c r="AI136" t="n">
-        <v>22798</v>
+        <v>12965</v>
       </c>
       <c r="AJ136" t="n">
-        <v>7080</v>
+        <v>2784</v>
       </c>
       <c r="AK136" t="n">
         <v>20552</v>
@@ -21918,10 +21918,10 @@
         <v>14916</v>
       </c>
       <c r="D137" t="n">
-        <v>5476</v>
+        <v>5560</v>
       </c>
       <c r="E137" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F137" t="n">
         <v>2343210</v>
@@ -22011,10 +22011,10 @@
         <v>2783</v>
       </c>
       <c r="AI137" t="n">
-        <v>23969</v>
+        <v>12995</v>
       </c>
       <c r="AJ137" t="n">
-        <v>7800</v>
+        <v>3024</v>
       </c>
       <c r="AK137" t="n">
         <v>19201</v>
@@ -22061,10 +22061,10 @@
         <v>10158</v>
       </c>
       <c r="D138" t="n">
-        <v>5556</v>
+        <v>5646</v>
       </c>
       <c r="E138" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F138" t="n">
         <v>2384232</v>
@@ -22154,10 +22154,10 @@
         <v>2402</v>
       </c>
       <c r="AI138" t="n">
-        <v>22622</v>
+        <v>12759</v>
       </c>
       <c r="AJ138" t="n">
-        <v>7198</v>
+        <v>2074</v>
       </c>
       <c r="AK138" t="n">
         <v>19134</v>
@@ -22204,10 +22204,10 @@
         <v>7300</v>
       </c>
       <c r="D139" t="n">
-        <v>5610</v>
+        <v>5776</v>
       </c>
       <c r="E139" t="n">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="F139" t="n">
         <v>2439082</v>
@@ -22297,10 +22297,10 @@
         <v>2699</v>
       </c>
       <c r="AI139" t="n">
-        <v>23411</v>
+        <v>14318</v>
       </c>
       <c r="AJ139" t="n">
-        <v>7648</v>
+        <v>2436</v>
       </c>
       <c r="AK139" t="n">
         <v>21542</v>
@@ -22347,10 +22347,10 @@
         <v>7404</v>
       </c>
       <c r="D140" t="n">
-        <v>5706</v>
+        <v>5875</v>
       </c>
       <c r="E140" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F140" t="n">
         <v>2473836</v>
@@ -22440,10 +22440,10 @@
         <v>2888</v>
       </c>
       <c r="AI140" t="n">
-        <v>22604</v>
+        <v>14047</v>
       </c>
       <c r="AJ140" t="n">
-        <v>7326</v>
+        <v>1599</v>
       </c>
       <c r="AK140" t="n">
         <v>20093</v>
@@ -22490,10 +22490,10 @@
         <v>9305</v>
       </c>
       <c r="D141" t="n">
-        <v>5781</v>
+        <v>5958</v>
       </c>
       <c r="E141" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F141" t="n">
         <v>2514877</v>
@@ -22567,10 +22567,10 @@
         <v>2811</v>
       </c>
       <c r="AI141" t="n">
-        <v>22294</v>
+        <v>13990</v>
       </c>
       <c r="AJ141" t="n">
-        <v>7543</v>
+        <v>2991</v>
       </c>
       <c r="AK141" t="n">
         <v>21265</v>
@@ -22617,10 +22617,10 @@
         <v>9879</v>
       </c>
       <c r="D142" t="n">
-        <v>5826</v>
+        <v>6018</v>
       </c>
       <c r="E142" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F142" t="n">
         <v>2544071</v>
@@ -22710,10 +22710,10 @@
         <v>2704</v>
       </c>
       <c r="AI142" t="n">
-        <v>24411</v>
+        <v>12615</v>
       </c>
       <c r="AJ142" t="n">
-        <v>7421</v>
+        <v>2898</v>
       </c>
       <c r="AK142" t="n">
         <v>18985</v>
@@ -22766,10 +22766,10 @@
         <v>9507</v>
       </c>
       <c r="D143" t="n">
-        <v>5882</v>
+        <v>6136</v>
       </c>
       <c r="E143" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F143" t="n">
         <v>2574376</v>
@@ -22859,10 +22859,10 @@
         <v>2833</v>
       </c>
       <c r="AI143" t="n">
-        <v>23230</v>
+        <v>11302</v>
       </c>
       <c r="AJ143" t="n">
-        <v>8490</v>
+        <v>4504</v>
       </c>
       <c r="AK143" t="n">
         <v>18371</v>
@@ -22909,10 +22909,10 @@
         <v>8701</v>
       </c>
       <c r="D144" t="n">
-        <v>5905</v>
+        <v>6184</v>
       </c>
       <c r="E144" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F144" t="n">
         <v>2609056</v>
@@ -23002,10 +23002,10 @@
         <v>3203</v>
       </c>
       <c r="AI144" t="n">
-        <v>23305</v>
+        <v>15606</v>
       </c>
       <c r="AJ144" t="n">
-        <v>8149</v>
+        <v>3505</v>
       </c>
       <c r="AK144" t="n">
         <v>21375</v>
@@ -23052,10 +23052,10 @@
         <v>6020</v>
       </c>
       <c r="D145" t="n">
-        <v>5949</v>
+        <v>6201</v>
       </c>
       <c r="E145" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F145" t="n">
         <v>2637947</v>
@@ -23145,10 +23145,10 @@
         <v>3466</v>
       </c>
       <c r="AI145" t="n">
-        <v>23988</v>
+        <v>16760</v>
       </c>
       <c r="AJ145" t="n">
-        <v>8136</v>
+        <v>3750</v>
       </c>
       <c r="AK145" t="n">
         <v>22689</v>
@@ -23193,10 +23193,10 @@
         <v>5810</v>
       </c>
       <c r="D146" t="n">
-        <v>5971</v>
+        <v>6295</v>
       </c>
       <c r="E146" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F146" t="n">
         <v>2676478</v>
@@ -23250,7 +23250,7 @@
         <v>65260</v>
       </c>
       <c r="W146" t="n">
-        <v>10075</v>
+        <v>9794</v>
       </c>
       <c r="X146" t="n">
         <v>474</v>
@@ -23286,15 +23286,17 @@
         <v>3463</v>
       </c>
       <c r="AI146" t="n">
-        <v>24608</v>
+        <v>14022</v>
       </c>
       <c r="AJ146" t="n">
-        <v>7823</v>
+        <v>3460</v>
       </c>
       <c r="AK146" t="n">
-        <v>21580</v>
-      </c>
-      <c r="AL146"/>
+        <v>26080</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>7225</v>
+      </c>
       <c r="AM146" t="n">
         <v>5544</v>
       </c>
@@ -23334,10 +23336,10 @@
         <v>4267</v>
       </c>
       <c r="D147" t="n">
-        <v>5980</v>
+        <v>6310</v>
       </c>
       <c r="E147" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F147" t="n">
         <v>2718547</v>
@@ -23418,22 +23420,22 @@
         <v>5257</v>
       </c>
       <c r="AF147" t="n">
-        <v>6965</v>
+        <v>7050</v>
       </c>
       <c r="AG147" t="n">
-        <v>5574</v>
+        <v>5578</v>
       </c>
       <c r="AH147" t="n">
-        <v>3088</v>
+        <v>3104</v>
       </c>
       <c r="AI147" t="n">
-        <v>25226</v>
+        <v>14759</v>
       </c>
       <c r="AJ147" t="n">
-        <v>7611</v>
+        <v>2336</v>
       </c>
       <c r="AK147" t="n">
-        <v>22703</v>
+        <v>22680</v>
       </c>
       <c r="AL147" t="n">
         <v>6989</v>
@@ -23483,10 +23485,10 @@
         <v>8342</v>
       </c>
       <c r="D148" t="n">
-        <v>5980</v>
+        <v>6348</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F148" t="n">
         <v>2737350</v>
@@ -23567,22 +23569,22 @@
         <v>5544</v>
       </c>
       <c r="AF148" t="n">
-        <v>6751</v>
+        <v>6756</v>
       </c>
       <c r="AG148" t="n">
-        <v>5541</v>
+        <v>5549</v>
       </c>
       <c r="AH148" t="n">
-        <v>3014</v>
+        <v>3019</v>
       </c>
       <c r="AI148" t="n">
-        <v>25930</v>
+        <v>13637</v>
       </c>
       <c r="AJ148" t="n">
-        <v>7563</v>
+        <v>2674</v>
       </c>
       <c r="AK148" t="n">
-        <v>21262</v>
+        <v>21252</v>
       </c>
       <c r="AL148" t="n">
         <v>7319</v>
@@ -23632,10 +23634,10 @@
         <v>9042</v>
       </c>
       <c r="D149" t="n">
-        <v>5981</v>
+        <v>6351</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F149" t="n">
         <v>2763050</v>
@@ -23688,7 +23690,9 @@
       <c r="V149" t="n">
         <v>64623</v>
       </c>
-      <c r="W149"/>
+      <c r="W149" t="n">
+        <v>9595</v>
+      </c>
       <c r="X149"/>
       <c r="Y149"/>
       <c r="Z149"/>
@@ -23698,22 +23702,22 @@
       <c r="AD149"/>
       <c r="AE149"/>
       <c r="AF149" t="n">
-        <v>7203</v>
+        <v>7211</v>
       </c>
       <c r="AG149" t="n">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="AH149" t="n">
-        <v>3198</v>
+        <v>3204</v>
       </c>
       <c r="AI149" t="n">
-        <v>25325</v>
+        <v>14637</v>
       </c>
       <c r="AJ149" t="n">
-        <v>7791</v>
+        <v>2914</v>
       </c>
       <c r="AK149" t="n">
-        <v>19881</v>
+        <v>19873</v>
       </c>
       <c r="AL149" t="n">
         <v>7418</v>
@@ -23757,22 +23761,22 @@
         <v>8800</v>
       </c>
       <c r="D150" t="n">
-        <v>5981</v>
+        <v>6351</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>2763050</v>
+        <v>2807010</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>43960</v>
       </c>
       <c r="H150" t="n">
-        <v>160063</v>
+        <v>159931</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>-132</v>
       </c>
       <c r="J150" t="e">
         <v>#NUM!</v>
@@ -23792,15 +23796,27 @@
       <c r="O150" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="P150" t="n">
+        <v>3669752</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>241518</v>
+      </c>
       <c r="R150" t="n">
         <v>3911270</v>
       </c>
-      <c r="S150"/>
-      <c r="T150"/>
-      <c r="U150"/>
-      <c r="V150"/>
+      <c r="S150" t="n">
+        <v>0.12122305691139</v>
+      </c>
+      <c r="T150" t="n">
+        <v>62546</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1197</v>
+      </c>
+      <c r="V150" t="n">
+        <v>63743</v>
+      </c>
       <c r="W150"/>
       <c r="X150"/>
       <c r="Y150"/>
@@ -23811,22 +23827,22 @@
       <c r="AD150"/>
       <c r="AE150"/>
       <c r="AF150" t="n">
-        <v>7357</v>
+        <v>7364</v>
       </c>
       <c r="AG150" t="n">
-        <v>5499</v>
+        <v>5503</v>
       </c>
       <c r="AH150" t="n">
-        <v>3121</v>
+        <v>3126</v>
       </c>
       <c r="AI150" t="n">
-        <v>25495</v>
+        <v>12143</v>
       </c>
       <c r="AJ150" t="n">
-        <v>7651</v>
+        <v>3358</v>
       </c>
       <c r="AK150" t="n">
-        <v>19385</v>
+        <v>19378</v>
       </c>
       <c r="AL150" t="n">
         <v>6893</v>
@@ -23865,6 +23881,119 @@
         <v>29677668</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B151" t="n">
+        <v>420946</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8839</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6351</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2807010</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>159931</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K151" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L151" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M151" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N151" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O151" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151" t="n">
+        <v>3990030</v>
+      </c>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+      <c r="AC151"/>
+      <c r="AD151"/>
+      <c r="AE151"/>
+      <c r="AF151" t="n">
+        <v>7554</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>4362</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>3174</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>12989</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>3065</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>24760</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>6898</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>6264</v>
+      </c>
+      <c r="AN151"/>
+      <c r="AO151"/>
+      <c r="AP151"/>
+      <c r="AQ151"/>
+      <c r="AR151"/>
+      <c r="AS151"/>
+      <c r="AT151"/>
+      <c r="AU151"/>
+      <c r="AV151"/>
+      <c r="AW151"/>
+      <c r="AX151"/>
+      <c r="AY151"/>
+      <c r="AZ151"/>
+      <c r="BA151"/>
+      <c r="BB151"/>
+      <c r="BC151"/>
+      <c r="BD151"/>
+      <c r="BE151"/>
+      <c r="BF151"/>
+      <c r="BG151"/>
+      <c r="BH151"/>
+      <c r="BI151" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23919,34 +24048,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>145291</v>
+        <v>141186</v>
       </c>
       <c r="C2" t="n">
-        <v>117567</v>
+        <v>117941</v>
       </c>
       <c r="D2" t="n">
-        <v>3793703</v>
+        <v>3872089</v>
       </c>
       <c r="E2" t="n">
-        <v>11430</v>
+        <v>11712</v>
       </c>
       <c r="F2" t="n">
-        <v>54499</v>
+        <v>50178</v>
       </c>
       <c r="G2" t="n">
-        <v>10906</v>
+        <v>11412</v>
       </c>
       <c r="H2" t="n">
-        <v>1080</v>
+        <v>1112</v>
       </c>
       <c r="I2" t="n">
-        <v>6195</v>
+        <v>6264</v>
       </c>
       <c r="J2" t="n">
-        <v>34684</v>
+        <v>35552</v>
       </c>
       <c r="K2" t="n">
-        <v>6274</v>
+        <v>6569</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">Death_Investigations</t>
   </si>
   <si>
-    <t xml:space="preserve">273191.2</t>
+    <t xml:space="preserve">282604.40000000002</t>
   </si>
 </sst>
 </file>
@@ -4171,10 +4171,10 @@
         <v>322</v>
       </c>
       <c r="D28" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>392</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
@@ -4433,7 +4433,7 @@
         <v>730</v>
       </c>
       <c r="D30" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
@@ -4564,7 +4564,7 @@
         <v>669</v>
       </c>
       <c r="D31" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" t="n">
         <v>21</v>
@@ -4695,7 +4695,7 @@
         <v>659</v>
       </c>
       <c r="D32" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -4826,7 +4826,7 @@
         <v>788</v>
       </c>
       <c r="D33" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E33" t="n">
         <v>21</v>
@@ -4963,7 +4963,7 @@
         <v>681</v>
       </c>
       <c r="D34" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E34" t="n">
         <v>38</v>
@@ -5100,7 +5100,7 @@
         <v>480</v>
       </c>
       <c r="D35" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E35" t="n">
         <v>25</v>
@@ -5237,7 +5237,7 @@
         <v>988</v>
       </c>
       <c r="D36" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E36" t="n">
         <v>16</v>
@@ -5374,7 +5374,7 @@
         <v>1092</v>
       </c>
       <c r="D37" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E37" t="n">
         <v>24</v>
@@ -5511,7 +5511,7 @@
         <v>877</v>
       </c>
       <c r="D38" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" t="n">
         <v>33</v>
@@ -5648,7 +5648,7 @@
         <v>1441</v>
       </c>
       <c r="D39" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E39" t="n">
         <v>29</v>
@@ -5785,10 +5785,10 @@
         <v>890</v>
       </c>
       <c r="D40" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>923</v>
       </c>
       <c r="D41" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E41" t="n">
         <v>34</v>
@@ -6071,7 +6071,7 @@
         <v>422</v>
       </c>
       <c r="D42" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E42" t="n">
         <v>31</v>
@@ -6220,7 +6220,7 @@
         <v>718</v>
       </c>
       <c r="D43" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E43" t="n">
         <v>32</v>
@@ -6369,7 +6369,7 @@
         <v>868</v>
       </c>
       <c r="D44" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E44" t="n">
         <v>36</v>
@@ -6518,7 +6518,7 @@
         <v>963</v>
       </c>
       <c r="D45" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E45" t="n">
         <v>32</v>
@@ -6667,7 +6667,7 @@
         <v>916</v>
       </c>
       <c r="D46" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E46" t="n">
         <v>38</v>
@@ -6816,7 +6816,7 @@
         <v>889</v>
       </c>
       <c r="D47" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E47" t="n">
         <v>29</v>
@@ -6965,7 +6965,7 @@
         <v>663</v>
       </c>
       <c r="D48" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E48" t="n">
         <v>28</v>
@@ -7114,7 +7114,7 @@
         <v>535</v>
       </c>
       <c r="D49" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E49" t="n">
         <v>25</v>
@@ -7263,7 +7263,7 @@
         <v>738</v>
       </c>
       <c r="D50" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E50" t="n">
         <v>40</v>
@@ -7412,7 +7412,7 @@
         <v>873</v>
       </c>
       <c r="D51" t="n">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -7561,7 +7561,7 @@
         <v>875</v>
       </c>
       <c r="D52" t="n">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E52" t="n">
         <v>36</v>
@@ -7710,7 +7710,7 @@
         <v>862</v>
       </c>
       <c r="D53" t="n">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E53" t="n">
         <v>33</v>
@@ -7859,7 +7859,7 @@
         <v>967</v>
       </c>
       <c r="D54" t="n">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E54" t="n">
         <v>37</v>
@@ -8008,7 +8008,7 @@
         <v>858</v>
       </c>
       <c r="D55" t="n">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -8157,7 +8157,7 @@
         <v>666</v>
       </c>
       <c r="D56" t="n">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E56" t="n">
         <v>25</v>
@@ -8306,7 +8306,7 @@
         <v>874</v>
       </c>
       <c r="D57" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E57" t="n">
         <v>34</v>
@@ -8455,7 +8455,7 @@
         <v>883</v>
       </c>
       <c r="D58" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E58" t="n">
         <v>23</v>
@@ -8604,7 +8604,7 @@
         <v>1033</v>
       </c>
       <c r="D59" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E59" t="n">
         <v>31</v>
@@ -8753,7 +8753,7 @@
         <v>1142</v>
       </c>
       <c r="D60" t="n">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E60" t="n">
         <v>43</v>
@@ -8902,7 +8902,7 @@
         <v>1293</v>
       </c>
       <c r="D61" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E61" t="n">
         <v>34</v>
@@ -9051,7 +9051,7 @@
         <v>1026</v>
       </c>
       <c r="D62" t="n">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E62" t="n">
         <v>35</v>
@@ -9200,7 +9200,7 @@
         <v>784</v>
       </c>
       <c r="D63" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E63" t="n">
         <v>30</v>
@@ -9349,7 +9349,7 @@
         <v>1037</v>
       </c>
       <c r="D64" t="n">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E64" t="n">
         <v>30</v>
@@ -9498,7 +9498,7 @@
         <v>1053</v>
       </c>
       <c r="D65" t="n">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="E65" t="n">
         <v>32</v>
@@ -9647,7 +9647,7 @@
         <v>968</v>
       </c>
       <c r="D66" t="n">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E66" t="n">
         <v>35</v>
@@ -9796,7 +9796,7 @@
         <v>1219</v>
       </c>
       <c r="D67" t="n">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E67" t="n">
         <v>33</v>
@@ -9945,7 +9945,7 @@
         <v>1251</v>
       </c>
       <c r="D68" t="n">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E68" t="n">
         <v>27</v>
@@ -10098,7 +10098,7 @@
         <v>1009</v>
       </c>
       <c r="D69" t="n">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E69" t="n">
         <v>26</v>
@@ -10251,7 +10251,7 @@
         <v>1000</v>
       </c>
       <c r="D70" t="n">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="E70" t="n">
         <v>33</v>
@@ -10404,7 +10404,7 @@
         <v>1179</v>
       </c>
       <c r="D71" t="n">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="E71" t="n">
         <v>33</v>
@@ -10557,7 +10557,7 @@
         <v>1355</v>
       </c>
       <c r="D72" t="n">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="E72" t="n">
         <v>41</v>
@@ -10710,7 +10710,7 @@
         <v>1448</v>
       </c>
       <c r="D73" t="n">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="E73" t="n">
         <v>31</v>
@@ -10863,7 +10863,7 @@
         <v>1347</v>
       </c>
       <c r="D74" t="n">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="E74" t="n">
         <v>40</v>
@@ -11032,7 +11032,7 @@
         <v>1801</v>
       </c>
       <c r="D75" t="n">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="E75" t="n">
         <v>30</v>
@@ -11207,7 +11207,7 @@
         <v>785</v>
       </c>
       <c r="D76" t="n">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="E76" t="n">
         <v>25</v>
@@ -11382,7 +11382,7 @@
         <v>909</v>
       </c>
       <c r="D77" t="n">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="E77" t="n">
         <v>22</v>
@@ -11557,7 +11557,7 @@
         <v>1219</v>
       </c>
       <c r="D78" t="n">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="E78" t="n">
         <v>28</v>
@@ -11732,7 +11732,7 @@
         <v>1411</v>
       </c>
       <c r="D79" t="n">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="E79" t="n">
         <v>21</v>
@@ -11907,7 +11907,7 @@
         <v>945</v>
       </c>
       <c r="D80" t="n">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="E80" t="n">
         <v>24</v>
@@ -12082,7 +12082,7 @@
         <v>1181</v>
       </c>
       <c r="D81" t="n">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="E81" t="n">
         <v>29</v>
@@ -12257,7 +12257,7 @@
         <v>1060</v>
       </c>
       <c r="D82" t="n">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="E82" t="n">
         <v>15</v>
@@ -12422,7 +12422,7 @@
         <v>839</v>
       </c>
       <c r="D83" t="n">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="E83" t="n">
         <v>31</v>
@@ -12597,7 +12597,7 @@
         <v>623</v>
       </c>
       <c r="D84" t="n">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="E84" t="n">
         <v>31</v>
@@ -12772,7 +12772,7 @@
         <v>589</v>
       </c>
       <c r="D85" t="n">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="E85" t="n">
         <v>20</v>
@@ -12947,7 +12947,7 @@
         <v>1361</v>
       </c>
       <c r="D86" t="n">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="E86" t="n">
         <v>22</v>
@@ -13122,7 +13122,7 @@
         <v>1855</v>
       </c>
       <c r="D87" t="n">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="E87" t="n">
         <v>31</v>
@@ -13297,7 +13297,7 @@
         <v>1230</v>
       </c>
       <c r="D88" t="n">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="E88" t="n">
         <v>35</v>
@@ -13390,10 +13390,10 @@
         <v>714</v>
       </c>
       <c r="AI88" t="n">
-        <v>10697</v>
+        <v>14179</v>
       </c>
       <c r="AJ88" t="n">
-        <v>2595</v>
+        <v>5858</v>
       </c>
       <c r="AK88" t="n">
         <v>12818</v>
@@ -13472,7 +13472,7 @@
         <v>1332</v>
       </c>
       <c r="D89" t="n">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="E89" t="n">
         <v>32</v>
@@ -13559,10 +13559,10 @@
         <v>592</v>
       </c>
       <c r="AI89" t="n">
-        <v>10960</v>
+        <v>14623</v>
       </c>
       <c r="AJ89" t="n">
-        <v>2155</v>
+        <v>6102</v>
       </c>
       <c r="AK89" t="n">
         <v>11075</v>
@@ -13641,7 +13641,7 @@
         <v>1949</v>
       </c>
       <c r="D90" t="n">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -13734,10 +13734,10 @@
         <v>820</v>
       </c>
       <c r="AI90" t="n">
-        <v>10726</v>
+        <v>15018</v>
       </c>
       <c r="AJ90" t="n">
-        <v>2237</v>
+        <v>6295</v>
       </c>
       <c r="AK90" t="n">
         <v>14796</v>
@@ -13816,7 +13816,7 @@
         <v>593</v>
       </c>
       <c r="D91" t="n">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E91" t="n">
         <v>20</v>
@@ -13909,10 +13909,10 @@
         <v>687</v>
       </c>
       <c r="AI91" t="n">
-        <v>10889</v>
+        <v>15449</v>
       </c>
       <c r="AJ91" t="n">
-        <v>2200</v>
+        <v>6516</v>
       </c>
       <c r="AK91" t="n">
         <v>13357</v>
@@ -13993,7 +13993,7 @@
         <v>1688</v>
       </c>
       <c r="D92" t="n">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="E92" t="n">
         <v>28</v>
@@ -14038,7 +14038,7 @@
         <v>1117274</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T92" t="n">
         <v>21585</v>
@@ -14086,10 +14086,10 @@
         <v>689</v>
       </c>
       <c r="AI92" t="n">
-        <v>10096</v>
+        <v>15773</v>
       </c>
       <c r="AJ92" t="n">
-        <v>2473</v>
+        <v>6601</v>
       </c>
       <c r="AK92" t="n">
         <v>13409</v>
@@ -14170,7 +14170,7 @@
         <v>1703</v>
       </c>
       <c r="D93" t="n">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="E93" t="n">
         <v>31</v>
@@ -14215,7 +14215,7 @@
         <v>1150868</v>
       </c>
       <c r="S93" t="n">
-        <v>0.06259941815807</v>
+        <v>0.0626</v>
       </c>
       <c r="T93" t="n">
         <v>23620</v>
@@ -14263,10 +14263,10 @@
         <v>653</v>
       </c>
       <c r="AI93" t="n">
-        <v>9437</v>
+        <v>16168</v>
       </c>
       <c r="AJ93" t="n">
-        <v>2121</v>
+        <v>6465</v>
       </c>
       <c r="AK93" t="n">
         <v>13209</v>
@@ -14347,7 +14347,7 @@
         <v>1649</v>
       </c>
       <c r="D94" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="E94" t="n">
         <v>20</v>
@@ -14392,7 +14392,7 @@
         <v>1174948</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T94" t="n">
         <v>24043</v>
@@ -14440,10 +14440,10 @@
         <v>709</v>
       </c>
       <c r="AI94" t="n">
-        <v>9869</v>
+        <v>16616</v>
       </c>
       <c r="AJ94" t="n">
-        <v>2026</v>
+        <v>6777</v>
       </c>
       <c r="AK94" t="n">
         <v>11925</v>
@@ -14524,7 +14524,7 @@
         <v>1693</v>
       </c>
       <c r="D95" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E95" t="n">
         <v>24</v>
@@ -14569,7 +14569,7 @@
         <v>1209187</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T95" t="n">
         <v>23537</v>
@@ -14617,10 +14617,10 @@
         <v>818</v>
       </c>
       <c r="AI95" t="n">
-        <v>10035</v>
+        <v>17156</v>
       </c>
       <c r="AJ95" t="n">
-        <v>2256</v>
+        <v>6431</v>
       </c>
       <c r="AK95" t="n">
         <v>14360</v>
@@ -14701,7 +14701,7 @@
         <v>1940</v>
       </c>
       <c r="D96" t="n">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="E96" t="n">
         <v>32</v>
@@ -14746,7 +14746,7 @@
         <v>1218955</v>
       </c>
       <c r="S96" t="n">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T96" t="n">
         <v>20021</v>
@@ -14794,10 +14794,10 @@
         <v>623</v>
       </c>
       <c r="AI96" t="n">
-        <v>12167</v>
+        <v>17334</v>
       </c>
       <c r="AJ96" t="n">
-        <v>2461</v>
+        <v>6653</v>
       </c>
       <c r="AK96" t="n">
         <v>14962</v>
@@ -14878,7 +14878,7 @@
         <v>1425</v>
       </c>
       <c r="D97" t="n">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="E97" t="n">
         <v>18</v>
@@ -14971,10 +14971,10 @@
         <v>831</v>
       </c>
       <c r="AI97" t="n">
-        <v>11370</v>
+        <v>17569</v>
       </c>
       <c r="AJ97" t="n">
-        <v>2386</v>
+        <v>6836</v>
       </c>
       <c r="AK97" t="n">
         <v>15834</v>
@@ -15055,7 +15055,7 @@
         <v>638</v>
       </c>
       <c r="D98" t="n">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="E98" t="n">
         <v>30</v>
@@ -15100,7 +15100,7 @@
         <v>1286139</v>
       </c>
       <c r="S98" t="n">
-        <v>0.06662901614215</v>
+        <v>0.0666</v>
       </c>
       <c r="T98" t="n">
         <v>23019</v>
@@ -15148,10 +15148,10 @@
         <v>800</v>
       </c>
       <c r="AI98" t="n">
-        <v>10603</v>
+        <v>17766</v>
       </c>
       <c r="AJ98" t="n">
-        <v>2279</v>
+        <v>6857</v>
       </c>
       <c r="AK98" t="n">
         <v>14681</v>
@@ -15232,7 +15232,7 @@
         <v>1637</v>
       </c>
       <c r="D99" t="n">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="E99" t="n">
         <v>33</v>
@@ -15277,7 +15277,7 @@
         <v>1302049</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T99" t="n">
         <v>22046</v>
@@ -15325,10 +15325,10 @@
         <v>789</v>
       </c>
       <c r="AI99" t="n">
-        <v>10720</v>
+        <v>17900</v>
       </c>
       <c r="AJ99" t="n">
-        <v>2505</v>
+        <v>6867</v>
       </c>
       <c r="AK99" t="n">
         <v>14496</v>
@@ -15409,7 +15409,7 @@
         <v>2504</v>
       </c>
       <c r="D100" t="n">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="E100" t="n">
         <v>22</v>
@@ -15454,7 +15454,7 @@
         <v>1348893</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06846481685691</v>
+        <v>0.0685</v>
       </c>
       <c r="T100" t="n">
         <v>23966</v>
@@ -15502,10 +15502,10 @@
         <v>861</v>
       </c>
       <c r="AI100" t="n">
-        <v>12449</v>
+        <v>17945</v>
       </c>
       <c r="AJ100" t="n">
-        <v>2626</v>
+        <v>6796</v>
       </c>
       <c r="AK100" t="n">
         <v>16310</v>
@@ -15586,7 +15586,7 @@
         <v>1826</v>
       </c>
       <c r="D101" t="n">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="E101" t="n">
         <v>28</v>
@@ -15631,7 +15631,7 @@
         <v>1370131</v>
       </c>
       <c r="S101" t="n">
-        <v>0.07052200676015</v>
+        <v>0.0705</v>
       </c>
       <c r="T101" t="n">
         <v>23626</v>
@@ -15679,10 +15679,10 @@
         <v>926</v>
       </c>
       <c r="AI101" t="n">
-        <v>11954</v>
+        <v>18666</v>
       </c>
       <c r="AJ101" t="n">
-        <v>2363</v>
+        <v>6785</v>
       </c>
       <c r="AK101" t="n">
         <v>15780</v>
@@ -15763,7 +15763,7 @@
         <v>2097</v>
       </c>
       <c r="D102" t="n">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="E102" t="n">
         <v>33</v>
@@ -15808,7 +15808,7 @@
         <v>1404369</v>
       </c>
       <c r="S102" t="n">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T102" t="n">
         <v>23863</v>
@@ -15856,10 +15856,10 @@
         <v>890</v>
       </c>
       <c r="AI102" t="n">
-        <v>10899</v>
+        <v>18455</v>
       </c>
       <c r="AJ102" t="n">
-        <v>2337</v>
+        <v>6933</v>
       </c>
       <c r="AK102" t="n">
         <v>15779</v>
@@ -15940,7 +15940,7 @@
         <v>2331</v>
       </c>
       <c r="D103" t="n">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="E103" t="n">
         <v>37</v>
@@ -15985,7 +15985,7 @@
         <v>1442950</v>
       </c>
       <c r="S103" t="n">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T103" t="n">
         <v>29139</v>
@@ -16033,10 +16033,10 @@
         <v>802</v>
       </c>
       <c r="AI103" t="n">
-        <v>13291</v>
+        <v>18677</v>
       </c>
       <c r="AJ103" t="n">
-        <v>2395</v>
+        <v>6906</v>
       </c>
       <c r="AK103" t="n">
         <v>14989</v>
@@ -16117,7 +16117,7 @@
         <v>1843</v>
       </c>
       <c r="D104" t="n">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="E104" t="n">
         <v>42</v>
@@ -16210,10 +16210,10 @@
         <v>957</v>
       </c>
       <c r="AI104" t="n">
-        <v>11542</v>
+        <v>18969</v>
       </c>
       <c r="AJ104" t="n">
-        <v>2776</v>
+        <v>7116</v>
       </c>
       <c r="AK104" t="n">
         <v>15358</v>
@@ -16294,7 +16294,7 @@
         <v>1254</v>
       </c>
       <c r="D105" t="n">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="E105" t="n">
         <v>29</v>
@@ -16339,7 +16339,7 @@
         <v>1499015</v>
       </c>
       <c r="S105" t="n">
-        <v>0.06709533684425</v>
+        <v>0.0671</v>
       </c>
       <c r="T105" t="n">
         <v>28727</v>
@@ -16387,10 +16387,10 @@
         <v>970</v>
       </c>
       <c r="AI105" t="n">
-        <v>13354</v>
+        <v>19374</v>
       </c>
       <c r="AJ105" t="n">
-        <v>2638</v>
+        <v>6847</v>
       </c>
       <c r="AK105" t="n">
         <v>17191</v>
@@ -16471,7 +16471,7 @@
         <v>4098</v>
       </c>
       <c r="D106" t="n">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="E106" t="n">
         <v>44</v>
@@ -16516,7 +16516,7 @@
         <v>1522434</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06941707304209</v>
+        <v>0.0694</v>
       </c>
       <c r="T106" t="n">
         <v>29793</v>
@@ -16564,10 +16564,10 @@
         <v>1044</v>
       </c>
       <c r="AI106" t="n">
-        <v>11792</v>
+        <v>18940</v>
       </c>
       <c r="AJ106" t="n">
-        <v>2481</v>
+        <v>7015</v>
       </c>
       <c r="AK106" t="n">
         <v>15636</v>
@@ -16648,7 +16648,7 @@
         <v>3129</v>
       </c>
       <c r="D107" t="n">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="E107" t="n">
         <v>37</v>
@@ -16693,7 +16693,7 @@
         <v>1560537</v>
       </c>
       <c r="S107" t="n">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T107" t="n">
         <v>28774</v>
@@ -16741,10 +16741,10 @@
         <v>1099</v>
       </c>
       <c r="AI107" t="n">
-        <v>12273</v>
+        <v>19602</v>
       </c>
       <c r="AJ107" t="n">
-        <v>2537</v>
+        <v>7218</v>
       </c>
       <c r="AK107" t="n">
         <v>17830</v>
@@ -16825,10 +16825,10 @@
         <v>3516</v>
       </c>
       <c r="D108" t="n">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="E108" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F108" t="n">
         <v>1212302</v>
@@ -16918,10 +16918,10 @@
         <v>1152</v>
       </c>
       <c r="AI108" t="n">
-        <v>12102</v>
+        <v>20029</v>
       </c>
       <c r="AJ108" t="n">
-        <v>2413</v>
+        <v>7611</v>
       </c>
       <c r="AK108" t="n">
         <v>16941</v>
@@ -17002,7 +17002,7 @@
         <v>3454</v>
       </c>
       <c r="D109" t="n">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="E109" t="n">
         <v>44</v>
@@ -17047,7 +17047,7 @@
         <v>1622851</v>
       </c>
       <c r="S109" t="n">
-        <v>0.08936916175479</v>
+        <v>0.0894</v>
       </c>
       <c r="T109" t="n">
         <v>29011</v>
@@ -17095,10 +17095,10 @@
         <v>1245</v>
       </c>
       <c r="AI109" t="n">
-        <v>12213</v>
+        <v>20501</v>
       </c>
       <c r="AJ109" t="n">
-        <v>2411</v>
+        <v>7130</v>
       </c>
       <c r="AK109" t="n">
         <v>17648</v>
@@ -17179,7 +17179,7 @@
         <v>4430</v>
       </c>
       <c r="D110" t="n">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="E110" t="n">
         <v>44</v>
@@ -17224,7 +17224,7 @@
         <v>1690124</v>
       </c>
       <c r="S110" t="n">
-        <v>0.08795944343323</v>
+        <v>0.088</v>
       </c>
       <c r="T110" t="n">
         <v>32885</v>
@@ -17272,10 +17272,10 @@
         <v>1154</v>
       </c>
       <c r="AI110" t="n">
-        <v>12085</v>
+        <v>19559</v>
       </c>
       <c r="AJ110" t="n">
-        <v>2716</v>
+        <v>7088</v>
       </c>
       <c r="AK110" t="n">
         <v>18195</v>
@@ -17356,7 +17356,7 @@
         <v>3866</v>
       </c>
       <c r="D111" t="n">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="E111" t="n">
         <v>35</v>
@@ -17449,10 +17449,10 @@
         <v>1193</v>
       </c>
       <c r="AI111" t="n">
-        <v>11995</v>
+        <v>19071</v>
       </c>
       <c r="AJ111" t="n">
-        <v>2748</v>
+        <v>7267</v>
       </c>
       <c r="AK111" t="n">
         <v>14326</v>
@@ -17533,10 +17533,10 @@
         <v>3280</v>
       </c>
       <c r="D112" t="n">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="E112" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F112" t="n">
         <v>1350920</v>
@@ -17578,7 +17578,7 @@
         <v>1767701</v>
       </c>
       <c r="S112" t="n">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="T112" t="n">
         <v>35550</v>
@@ -17626,10 +17626,10 @@
         <v>1103</v>
       </c>
       <c r="AI112" t="n">
-        <v>13009</v>
+        <v>19828</v>
       </c>
       <c r="AJ112" t="n">
-        <v>2442</v>
+        <v>6944</v>
       </c>
       <c r="AK112" t="n">
         <v>14832</v>
@@ -17710,7 +17710,7 @@
         <v>5489</v>
       </c>
       <c r="D113" t="n">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -17755,7 +17755,7 @@
         <v>1805642</v>
       </c>
       <c r="S113" t="n">
-        <v>0.10422837848208</v>
+        <v>0.1042</v>
       </c>
       <c r="T113" t="n">
         <v>37231</v>
@@ -17803,10 +17803,10 @@
         <v>1279</v>
       </c>
       <c r="AI113" t="n">
-        <v>12454</v>
+        <v>21289</v>
       </c>
       <c r="AJ113" t="n">
-        <v>2760</v>
+        <v>7263</v>
       </c>
       <c r="AK113" t="n">
         <v>14540</v>
@@ -17887,7 +17887,7 @@
         <v>5551</v>
       </c>
       <c r="D114" t="n">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="E114" t="n">
         <v>65</v>
@@ -17932,7 +17932,7 @@
         <v>1836037</v>
       </c>
       <c r="S114" t="n">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="T114" t="n">
         <v>35943</v>
@@ -17980,10 +17980,10 @@
         <v>1144</v>
       </c>
       <c r="AI114" t="n">
-        <v>12303</v>
+        <v>21266</v>
       </c>
       <c r="AJ114" t="n">
-        <v>2226</v>
+        <v>7212</v>
       </c>
       <c r="AK114" t="n">
         <v>17380</v>
@@ -18064,7 +18064,7 @@
         <v>5996</v>
       </c>
       <c r="D115" t="n">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="E115" t="n">
         <v>58</v>
@@ -18109,7 +18109,7 @@
         <v>1875197</v>
       </c>
       <c r="S115" t="n">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="T115" t="n">
         <v>39060</v>
@@ -18157,10 +18157,10 @@
         <v>1358</v>
       </c>
       <c r="AI115" t="n">
-        <v>13664</v>
+        <v>19872</v>
       </c>
       <c r="AJ115" t="n">
-        <v>2419</v>
+        <v>7223</v>
       </c>
       <c r="AK115" t="n">
         <v>17819</v>
@@ -18241,7 +18241,7 @@
         <v>5707</v>
       </c>
       <c r="D116" t="n">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="E116" t="n">
         <v>67</v>
@@ -18286,7 +18286,7 @@
         <v>1903661</v>
       </c>
       <c r="S116" t="n">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="T116" t="n">
         <v>37061</v>
@@ -18334,10 +18334,10 @@
         <v>1443</v>
       </c>
       <c r="AI116" t="n">
-        <v>12702</v>
+        <v>20575</v>
       </c>
       <c r="AJ116" t="n">
-        <v>2572</v>
+        <v>7142</v>
       </c>
       <c r="AK116" t="n">
         <v>19436</v>
@@ -18418,10 +18418,10 @@
         <v>5742</v>
       </c>
       <c r="D117" t="n">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E117" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F117" t="n">
         <v>1492340</v>
@@ -18463,7 +18463,7 @@
         <v>1959617</v>
       </c>
       <c r="S117" t="n">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="T117" t="n">
         <v>35577</v>
@@ -18511,10 +18511,10 @@
         <v>1396</v>
       </c>
       <c r="AI117" t="n">
-        <v>14063</v>
+        <v>21026</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1962</v>
+        <v>6863</v>
       </c>
       <c r="AK117" t="n">
         <v>19836</v>
@@ -18595,7 +18595,7 @@
         <v>5357</v>
       </c>
       <c r="D118" t="n">
-        <v>3000</v>
+        <v>3005</v>
       </c>
       <c r="E118" t="n">
         <v>86</v>
@@ -18640,7 +18640,7 @@
         <v>2006724</v>
       </c>
       <c r="S118" t="n">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="T118" t="n">
         <v>38597</v>
@@ -18688,10 +18688,10 @@
         <v>1484</v>
       </c>
       <c r="AI118" t="n">
-        <v>12438</v>
+        <v>19678</v>
       </c>
       <c r="AJ118" t="n">
-        <v>2154</v>
+        <v>7003</v>
       </c>
       <c r="AK118" t="n">
         <v>16804</v>
@@ -18772,10 +18772,10 @@
         <v>4288</v>
       </c>
       <c r="D119" t="n">
-        <v>3084</v>
+        <v>3090</v>
       </c>
       <c r="E119" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F119" t="n">
         <v>1578667</v>
@@ -18817,7 +18817,7 @@
         <v>2061939</v>
       </c>
       <c r="S119" t="n">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="T119" t="n">
         <v>38856</v>
@@ -18865,10 +18865,10 @@
         <v>1663</v>
       </c>
       <c r="AI119" t="n">
-        <v>11778</v>
+        <v>21937</v>
       </c>
       <c r="AJ119" t="n">
-        <v>1987</v>
+        <v>7054</v>
       </c>
       <c r="AK119" t="n">
         <v>17315</v>
@@ -18949,10 +18949,10 @@
         <v>6975</v>
       </c>
       <c r="D120" t="n">
-        <v>3168</v>
+        <v>3175</v>
       </c>
       <c r="E120" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F120" t="n">
         <v>1612583</v>
@@ -18994,7 +18994,7 @@
         <v>2119036</v>
       </c>
       <c r="S120" t="n">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="T120" t="n">
         <v>41670</v>
@@ -19042,10 +19042,10 @@
         <v>1617</v>
       </c>
       <c r="AI120" t="n">
-        <v>12688</v>
+        <v>22030</v>
       </c>
       <c r="AJ120" t="n">
-        <v>1987</v>
+        <v>7084</v>
       </c>
       <c r="AK120" t="n">
         <v>17400</v>
@@ -19126,10 +19126,10 @@
         <v>8076</v>
       </c>
       <c r="D121" t="n">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="E121" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F121" t="n">
         <v>1653835</v>
@@ -19171,7 +19171,7 @@
         <v>2174548</v>
       </c>
       <c r="S121" t="n">
-        <v>0.13316248660981</v>
+        <v>0.1332</v>
       </c>
       <c r="T121" t="n">
         <v>45209</v>
@@ -19219,10 +19219,10 @@
         <v>1663</v>
       </c>
       <c r="AI121" t="n">
-        <v>13517</v>
+        <v>21558</v>
       </c>
       <c r="AJ121" t="n">
-        <v>2928</v>
+        <v>6988</v>
       </c>
       <c r="AK121" t="n">
         <v>17348</v>
@@ -19305,10 +19305,10 @@
         <v>7915</v>
       </c>
       <c r="D122" t="n">
-        <v>3362</v>
+        <v>3371</v>
       </c>
       <c r="E122" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F122" t="n">
         <v>1696809</v>
@@ -19350,7 +19350,7 @@
         <v>2212947</v>
       </c>
       <c r="S122" t="n">
-        <v>0.13917844913637</v>
+        <v>0.1392</v>
       </c>
       <c r="T122" t="n">
         <v>45225</v>
@@ -19398,10 +19398,10 @@
         <v>1887</v>
       </c>
       <c r="AI122" t="n">
-        <v>14349</v>
+        <v>21049</v>
       </c>
       <c r="AJ122" t="n">
-        <v>2509</v>
+        <v>7029</v>
       </c>
       <c r="AK122" t="n">
         <v>19376</v>
@@ -19484,10 +19484,10 @@
         <v>7555</v>
       </c>
       <c r="D123" t="n">
-        <v>3486</v>
+        <v>3496</v>
       </c>
       <c r="E123" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F123" t="n">
         <v>1741722</v>
@@ -19529,7 +19529,7 @@
         <v>2273591</v>
       </c>
       <c r="S123" t="n">
-        <v>0.13154795505798</v>
+        <v>0.1315</v>
       </c>
       <c r="T123" t="n">
         <v>49855</v>
@@ -19577,10 +19577,10 @@
         <v>1507</v>
       </c>
       <c r="AI123" t="n">
-        <v>14997</v>
+        <v>22048</v>
       </c>
       <c r="AJ123" t="n">
-        <v>2218</v>
+        <v>7000</v>
       </c>
       <c r="AK123" t="n">
         <v>21629</v>
@@ -19663,7 +19663,7 @@
         <v>8258</v>
       </c>
       <c r="D124" t="n">
-        <v>3616</v>
+        <v>3626</v>
       </c>
       <c r="E124" t="n">
         <v>130</v>
@@ -19708,7 +19708,7 @@
         <v>2338098</v>
       </c>
       <c r="S124" t="n">
-        <v>0.13517270641306</v>
+        <v>0.1352</v>
       </c>
       <c r="T124" t="n">
         <v>51177</v>
@@ -19756,10 +19756,10 @@
         <v>1720</v>
       </c>
       <c r="AI124" t="n">
-        <v>13500</v>
+        <v>21903</v>
       </c>
       <c r="AJ124" t="n">
-        <v>2113</v>
+        <v>7158</v>
       </c>
       <c r="AK124" t="n">
         <v>21006</v>
@@ -19842,7 +19842,7 @@
         <v>3449</v>
       </c>
       <c r="D125" t="n">
-        <v>3728</v>
+        <v>3738</v>
       </c>
       <c r="E125" t="n">
         <v>112</v>
@@ -19887,7 +19887,7 @@
         <v>2371709</v>
       </c>
       <c r="S125" t="n">
-        <v>0.13500899750392</v>
+        <v>0.135</v>
       </c>
       <c r="T125" t="n">
         <v>49220</v>
@@ -19935,10 +19935,10 @@
         <v>1841</v>
       </c>
       <c r="AI125" t="n">
-        <v>13479</v>
+        <v>21386</v>
       </c>
       <c r="AJ125" t="n">
-        <v>2072</v>
+        <v>7402</v>
       </c>
       <c r="AK125" t="n">
         <v>19046</v>
@@ -20021,10 +20021,10 @@
         <v>5318</v>
       </c>
       <c r="D126" t="n">
-        <v>3851</v>
+        <v>3865</v>
       </c>
       <c r="E126" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F126" t="n">
         <v>1874626</v>
@@ -20066,7 +20066,7 @@
         <v>2431861</v>
       </c>
       <c r="S126" t="n">
-        <v>0.13507194500078</v>
+        <v>0.1351</v>
       </c>
       <c r="T126" t="n">
         <v>50286</v>
@@ -20114,10 +20114,10 @@
         <v>2030</v>
       </c>
       <c r="AI126" t="n">
-        <v>11538</v>
+        <v>20629</v>
       </c>
       <c r="AJ126" t="n">
-        <v>3000</v>
+        <v>7219</v>
       </c>
       <c r="AK126" t="n">
         <v>17379</v>
@@ -20200,10 +20200,10 @@
         <v>10028</v>
       </c>
       <c r="D127" t="n">
-        <v>3991</v>
+        <v>4006</v>
       </c>
       <c r="E127" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F127" t="n">
         <v>1917116</v>
@@ -20245,7 +20245,7 @@
         <v>2471029</v>
       </c>
       <c r="S127" t="n">
-        <v>0.15025240527379</v>
+        <v>0.1503</v>
       </c>
       <c r="T127" t="n">
         <v>48109</v>
@@ -20293,10 +20293,10 @@
         <v>2045</v>
       </c>
       <c r="AI127" t="n">
-        <v>12326</v>
+        <v>22766</v>
       </c>
       <c r="AJ127" t="n">
-        <v>2241</v>
+        <v>7474</v>
       </c>
       <c r="AK127" t="n">
         <v>19026</v>
@@ -20379,10 +20379,10 @@
         <v>9979</v>
       </c>
       <c r="D128" t="n">
-        <v>4149</v>
+        <v>4166</v>
       </c>
       <c r="E128" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F128" t="n">
         <v>1960005</v>
@@ -20424,7 +20424,7 @@
         <v>2526940</v>
       </c>
       <c r="S128" t="n">
-        <v>0.15560343677851</v>
+        <v>0.1556</v>
       </c>
       <c r="T128" t="n">
         <v>48201</v>
@@ -20472,10 +20472,10 @@
         <v>2232</v>
       </c>
       <c r="AI128" t="n">
-        <v>13315</v>
+        <v>22830</v>
       </c>
       <c r="AJ128" t="n">
-        <v>3357</v>
+        <v>7490</v>
       </c>
       <c r="AK128" t="n">
         <v>16431</v>
@@ -20558,10 +20558,10 @@
         <v>9782</v>
       </c>
       <c r="D129" t="n">
-        <v>4297</v>
+        <v>4319</v>
       </c>
       <c r="E129" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F129" t="n">
         <v>2020405</v>
@@ -20603,7 +20603,7 @@
         <v>2603903</v>
       </c>
       <c r="S129" t="n">
-        <v>0.14464341297691</v>
+        <v>0.1446</v>
       </c>
       <c r="T129" t="n">
         <v>53698</v>
@@ -20651,10 +20651,10 @@
         <v>2260</v>
       </c>
       <c r="AI129" t="n">
-        <v>13132</v>
+        <v>21396</v>
       </c>
       <c r="AJ129" t="n">
-        <v>2665</v>
+        <v>7694</v>
       </c>
       <c r="AK129" t="n">
         <v>19688</v>
@@ -20737,10 +20737,10 @@
         <v>9765</v>
       </c>
       <c r="D130" t="n">
-        <v>4457</v>
+        <v>4485</v>
       </c>
       <c r="E130" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F130" t="n">
         <v>2069122</v>
@@ -20782,7 +20782,7 @@
         <v>2644496</v>
       </c>
       <c r="S130" t="n">
-        <v>0.15812361136341</v>
+        <v>0.1581</v>
       </c>
       <c r="T130" t="n">
         <v>51116</v>
@@ -20830,10 +20830,10 @@
         <v>2489</v>
       </c>
       <c r="AI130" t="n">
-        <v>12857</v>
+        <v>21676</v>
       </c>
       <c r="AJ130" t="n">
-        <v>2703</v>
+        <v>7207</v>
       </c>
       <c r="AK130" t="n">
         <v>22552</v>
@@ -20916,10 +20916,10 @@
         <v>10351</v>
       </c>
       <c r="D131" t="n">
-        <v>4614</v>
+        <v>4650</v>
       </c>
       <c r="E131" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F131" t="n">
         <v>2110922</v>
@@ -20961,7 +20961,7 @@
         <v>2710290</v>
       </c>
       <c r="S131" t="n">
-        <v>0.16329665986635</v>
+        <v>0.1633</v>
       </c>
       <c r="T131" t="n">
         <v>51328</v>
@@ -21009,10 +21009,10 @@
         <v>2512</v>
       </c>
       <c r="AI131" t="n">
-        <v>13228</v>
+        <v>21631</v>
       </c>
       <c r="AJ131" t="n">
-        <v>2662</v>
+        <v>7366</v>
       </c>
       <c r="AK131" t="n">
         <v>19705</v>
@@ -21095,10 +21095,10 @@
         <v>8196</v>
       </c>
       <c r="D132" t="n">
-        <v>4794</v>
+        <v>4834</v>
       </c>
       <c r="E132" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F132" t="n">
         <v>2165623</v>
@@ -21140,7 +21140,7 @@
         <v>2757859</v>
       </c>
       <c r="S132" t="n">
-        <v>0.16849010085123</v>
+        <v>0.1685</v>
       </c>
       <c r="T132" t="n">
         <v>53771</v>
@@ -21188,10 +21188,10 @@
         <v>2507</v>
       </c>
       <c r="AI132" t="n">
-        <v>14798</v>
+        <v>23344</v>
       </c>
       <c r="AJ132" t="n">
-        <v>2779</v>
+        <v>7422</v>
       </c>
       <c r="AK132" t="n">
         <v>21533</v>
@@ -21274,10 +21274,10 @@
         <v>5655</v>
       </c>
       <c r="D133" t="n">
-        <v>4961</v>
+        <v>5008</v>
       </c>
       <c r="E133" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F133" t="n">
         <v>2205822</v>
@@ -21319,7 +21319,7 @@
         <v>2820803</v>
       </c>
       <c r="S133" t="n">
-        <v>0.16893795062442</v>
+        <v>0.1689</v>
       </c>
       <c r="T133" t="n">
         <v>53913</v>
@@ -21367,10 +21367,10 @@
         <v>2479</v>
       </c>
       <c r="AI133" t="n">
-        <v>11446</v>
+        <v>23245</v>
       </c>
       <c r="AJ133" t="n">
-        <v>2464</v>
+        <v>7696</v>
       </c>
       <c r="AK133" t="n">
         <v>18883</v>
@@ -21453,10 +21453,10 @@
         <v>10745</v>
       </c>
       <c r="D134" t="n">
-        <v>5148</v>
+        <v>5205</v>
       </c>
       <c r="E134" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F134" t="n">
         <v>2249060</v>
@@ -21498,7 +21498,7 @@
         <v>2864541</v>
       </c>
       <c r="S134" t="n">
-        <v>0.16812128576681</v>
+        <v>0.1681</v>
       </c>
       <c r="T134" t="n">
         <v>54784</v>
@@ -21546,10 +21546,10 @@
         <v>2824</v>
       </c>
       <c r="AI134" t="n">
-        <v>13043</v>
+        <v>22663</v>
       </c>
       <c r="AJ134" t="n">
-        <v>2790</v>
+        <v>7560</v>
       </c>
       <c r="AK134" t="n">
         <v>21427</v>
@@ -21632,10 +21632,10 @@
         <v>7307</v>
       </c>
       <c r="D135" t="n">
-        <v>5322</v>
+        <v>5389</v>
       </c>
       <c r="E135" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F135" t="n">
         <v>2286774</v>
@@ -21677,7 +21677,7 @@
         <v>2924288</v>
       </c>
       <c r="S135" t="n">
-        <v>0.16885085207802</v>
+        <v>0.1689</v>
       </c>
       <c r="T135" t="n">
         <v>55235</v>
@@ -21725,10 +21725,10 @@
         <v>2822</v>
       </c>
       <c r="AI135" t="n">
-        <v>12895</v>
+        <v>23733</v>
       </c>
       <c r="AJ135" t="n">
-        <v>3007</v>
+        <v>7700</v>
       </c>
       <c r="AK135" t="n">
         <v>20688</v>
@@ -21775,10 +21775,10 @@
         <v>10291</v>
       </c>
       <c r="D136" t="n">
-        <v>5483</v>
+        <v>5566</v>
       </c>
       <c r="E136" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="F136" t="n">
         <v>2301483</v>
@@ -21820,7 +21820,7 @@
         <v>2992102</v>
       </c>
       <c r="S136" t="n">
-        <v>0.17427396882913</v>
+        <v>0.1743</v>
       </c>
       <c r="T136" t="n">
         <v>53933</v>
@@ -21868,10 +21868,10 @@
         <v>2664</v>
       </c>
       <c r="AI136" t="n">
-        <v>12965</v>
+        <v>22798</v>
       </c>
       <c r="AJ136" t="n">
-        <v>2784</v>
+        <v>7080</v>
       </c>
       <c r="AK136" t="n">
         <v>20552</v>
@@ -21918,10 +21918,10 @@
         <v>14916</v>
       </c>
       <c r="D137" t="n">
-        <v>5560</v>
+        <v>5634</v>
       </c>
       <c r="E137" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F137" t="n">
         <v>2343210</v>
@@ -21963,7 +21963,7 @@
         <v>3067620</v>
       </c>
       <c r="S137" t="n">
-        <v>0.16047266626479</v>
+        <v>0.1605</v>
       </c>
       <c r="T137" t="n">
         <v>59009</v>
@@ -22011,10 +22011,10 @@
         <v>2783</v>
       </c>
       <c r="AI137" t="n">
-        <v>12995</v>
+        <v>23969</v>
       </c>
       <c r="AJ137" t="n">
-        <v>3024</v>
+        <v>7800</v>
       </c>
       <c r="AK137" t="n">
         <v>19201</v>
@@ -22061,10 +22061,10 @@
         <v>10158</v>
       </c>
       <c r="D138" t="n">
-        <v>5646</v>
+        <v>5683</v>
       </c>
       <c r="E138" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F138" t="n">
         <v>2384232</v>
@@ -22106,7 +22106,7 @@
         <v>3153623</v>
       </c>
       <c r="S138" t="n">
-        <v>0.15034234890016</v>
+        <v>0.1503</v>
       </c>
       <c r="T138" t="n">
         <v>62801</v>
@@ -22154,10 +22154,10 @@
         <v>2402</v>
       </c>
       <c r="AI138" t="n">
-        <v>12759</v>
+        <v>22622</v>
       </c>
       <c r="AJ138" t="n">
-        <v>2074</v>
+        <v>7198</v>
       </c>
       <c r="AK138" t="n">
         <v>19134</v>
@@ -22204,10 +22204,10 @@
         <v>7300</v>
       </c>
       <c r="D139" t="n">
-        <v>5776</v>
+        <v>5787</v>
       </c>
       <c r="E139" t="n">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F139" t="n">
         <v>2439082</v>
@@ -22249,7 +22249,7 @@
         <v>3207857</v>
       </c>
       <c r="S139" t="n">
-        <v>0.14669609768939</v>
+        <v>0.1467</v>
       </c>
       <c r="T139" t="n">
         <v>63490</v>
@@ -22297,10 +22297,10 @@
         <v>2699</v>
       </c>
       <c r="AI139" t="n">
-        <v>14318</v>
+        <v>23411</v>
       </c>
       <c r="AJ139" t="n">
-        <v>2436</v>
+        <v>7648</v>
       </c>
       <c r="AK139" t="n">
         <v>21542</v>
@@ -22347,10 +22347,10 @@
         <v>7404</v>
       </c>
       <c r="D140" t="n">
-        <v>5875</v>
+        <v>6032</v>
       </c>
       <c r="E140" t="n">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="F140" t="n">
         <v>2473836</v>
@@ -22392,7 +22392,7 @@
         <v>3269897</v>
       </c>
       <c r="S140" t="n">
-        <v>0.15047404550297</v>
+        <v>0.1505</v>
       </c>
       <c r="T140" t="n">
         <v>63556</v>
@@ -22440,10 +22440,10 @@
         <v>2888</v>
       </c>
       <c r="AI140" t="n">
-        <v>14047</v>
+        <v>22604</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1599</v>
+        <v>7326</v>
       </c>
       <c r="AK140" t="n">
         <v>20093</v>
@@ -22490,7 +22490,7 @@
         <v>9305</v>
       </c>
       <c r="D141" t="n">
-        <v>5958</v>
+        <v>6115</v>
       </c>
       <c r="E141" t="n">
         <v>83</v>
@@ -22535,7 +22535,7 @@
         <v>3331844</v>
       </c>
       <c r="S141" t="n">
-        <v>0.14180136768345</v>
+        <v>0.1418</v>
       </c>
       <c r="T141" t="n">
         <v>65993</v>
@@ -22567,10 +22567,10 @@
         <v>2811</v>
       </c>
       <c r="AI141" t="n">
-        <v>13990</v>
+        <v>22294</v>
       </c>
       <c r="AJ141" t="n">
-        <v>2991</v>
+        <v>7543</v>
       </c>
       <c r="AK141" t="n">
         <v>21265</v>
@@ -22617,10 +22617,10 @@
         <v>9879</v>
       </c>
       <c r="D142" t="n">
-        <v>6018</v>
+        <v>6190</v>
       </c>
       <c r="E142" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F142" t="n">
         <v>2544071</v>
@@ -22662,7 +22662,7 @@
         <v>3396677</v>
       </c>
       <c r="S142" t="n">
-        <v>0.13896915023849</v>
+        <v>0.139</v>
       </c>
       <c r="T142" t="n">
         <v>66400</v>
@@ -22710,10 +22710,10 @@
         <v>2704</v>
       </c>
       <c r="AI142" t="n">
-        <v>12615</v>
+        <v>24411</v>
       </c>
       <c r="AJ142" t="n">
-        <v>2898</v>
+        <v>7421</v>
       </c>
       <c r="AK142" t="n">
         <v>18985</v>
@@ -22766,10 +22766,10 @@
         <v>9507</v>
       </c>
       <c r="D143" t="n">
-        <v>6136</v>
+        <v>6270</v>
       </c>
       <c r="E143" t="n">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F143" t="n">
         <v>2574376</v>
@@ -22811,7 +22811,7 @@
         <v>3465070</v>
       </c>
       <c r="S143" t="n">
-        <v>0.13733884333097</v>
+        <v>0.1373</v>
       </c>
       <c r="T143" t="n">
         <v>66373</v>
@@ -22859,10 +22859,10 @@
         <v>2833</v>
       </c>
       <c r="AI143" t="n">
-        <v>11302</v>
+        <v>23230</v>
       </c>
       <c r="AJ143" t="n">
-        <v>4504</v>
+        <v>8490</v>
       </c>
       <c r="AK143" t="n">
         <v>18371</v>
@@ -22909,10 +22909,10 @@
         <v>8701</v>
       </c>
       <c r="D144" t="n">
-        <v>6184</v>
+        <v>6336</v>
       </c>
       <c r="E144" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F144" t="n">
         <v>2609056</v>
@@ -22954,7 +22954,7 @@
         <v>3539452</v>
       </c>
       <c r="S144" t="n">
-        <v>0.13435428837808</v>
+        <v>0.1344</v>
       </c>
       <c r="T144" t="n">
         <v>66194</v>
@@ -23002,10 +23002,10 @@
         <v>3203</v>
       </c>
       <c r="AI144" t="n">
-        <v>15606</v>
+        <v>23305</v>
       </c>
       <c r="AJ144" t="n">
-        <v>3505</v>
+        <v>8149</v>
       </c>
       <c r="AK144" t="n">
         <v>21375</v>
@@ -23052,10 +23052,10 @@
         <v>6020</v>
       </c>
       <c r="D145" t="n">
-        <v>6201</v>
+        <v>6392</v>
       </c>
       <c r="E145" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F145" t="n">
         <v>2637947</v>
@@ -23145,10 +23145,10 @@
         <v>3466</v>
       </c>
       <c r="AI145" t="n">
-        <v>16760</v>
+        <v>23988</v>
       </c>
       <c r="AJ145" t="n">
-        <v>3750</v>
+        <v>8136</v>
       </c>
       <c r="AK145" t="n">
         <v>22689</v>
@@ -23193,10 +23193,10 @@
         <v>5810</v>
       </c>
       <c r="D146" t="n">
-        <v>6295</v>
+        <v>6447</v>
       </c>
       <c r="E146" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F146" t="n">
         <v>2676478</v>
@@ -23238,7 +23238,7 @@
         <v>3664679</v>
       </c>
       <c r="S146" t="n">
-        <v>0.13215012333231</v>
+        <v>0.1322</v>
       </c>
       <c r="T146" t="n">
         <v>63475</v>
@@ -23286,10 +23286,10 @@
         <v>3463</v>
       </c>
       <c r="AI146" t="n">
-        <v>14022</v>
+        <v>24608</v>
       </c>
       <c r="AJ146" t="n">
-        <v>3460</v>
+        <v>7823</v>
       </c>
       <c r="AK146" t="n">
         <v>26080</v>
@@ -23336,10 +23336,10 @@
         <v>4267</v>
       </c>
       <c r="D147" t="n">
-        <v>6310</v>
+        <v>6470</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F147" t="n">
         <v>2718547</v>
@@ -23381,7 +23381,7 @@
         <v>3714821</v>
       </c>
       <c r="S147" t="n">
-        <v>0.12825832118001</v>
+        <v>0.1283</v>
       </c>
       <c r="T147" t="n">
         <v>61907</v>
@@ -23429,10 +23429,10 @@
         <v>3104</v>
       </c>
       <c r="AI147" t="n">
-        <v>14759</v>
+        <v>24823</v>
       </c>
       <c r="AJ147" t="n">
-        <v>2336</v>
+        <v>7454</v>
       </c>
       <c r="AK147" t="n">
         <v>22680</v>
@@ -23485,10 +23485,10 @@
         <v>8342</v>
       </c>
       <c r="D148" t="n">
-        <v>6348</v>
+        <v>6488</v>
       </c>
       <c r="E148" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F148" t="n">
         <v>2737350</v>
@@ -23530,7 +23530,7 @@
         <v>3777263</v>
       </c>
       <c r="S148" t="n">
-        <v>0.12549515187721</v>
+        <v>0.1255</v>
       </c>
       <c r="T148" t="n">
         <v>62174</v>
@@ -23578,10 +23578,10 @@
         <v>3019</v>
       </c>
       <c r="AI148" t="n">
-        <v>13637</v>
+        <v>25912</v>
       </c>
       <c r="AJ148" t="n">
-        <v>2674</v>
+        <v>7563</v>
       </c>
       <c r="AK148" t="n">
         <v>21252</v>
@@ -23634,10 +23634,10 @@
         <v>9042</v>
       </c>
       <c r="D149" t="n">
-        <v>6351</v>
+        <v>6495</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F149" t="n">
         <v>2763050</v>
@@ -23679,7 +23679,7 @@
         <v>3849040</v>
       </c>
       <c r="S149" t="n">
-        <v>0.12090562881898</v>
+        <v>0.1209</v>
       </c>
       <c r="T149" t="n">
         <v>63545</v>
@@ -23711,10 +23711,10 @@
         <v>3204</v>
       </c>
       <c r="AI149" t="n">
-        <v>14637</v>
+        <v>25305</v>
       </c>
       <c r="AJ149" t="n">
-        <v>2914</v>
+        <v>7791</v>
       </c>
       <c r="AK149" t="n">
         <v>19873</v>
@@ -23761,10 +23761,10 @@
         <v>8800</v>
       </c>
       <c r="D150" t="n">
-        <v>6351</v>
+        <v>6497</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F150" t="n">
         <v>2807010</v>
@@ -23806,7 +23806,7 @@
         <v>3911270</v>
       </c>
       <c r="S150" t="n">
-        <v>0.12122305691139</v>
+        <v>0.1212</v>
       </c>
       <c r="T150" t="n">
         <v>62546</v>
@@ -23817,7 +23817,9 @@
       <c r="V150" t="n">
         <v>63743</v>
       </c>
-      <c r="W150"/>
+      <c r="W150" t="n">
+        <v>9296</v>
+      </c>
       <c r="X150"/>
       <c r="Y150"/>
       <c r="Z150"/>
@@ -23836,10 +23838,10 @@
         <v>3126</v>
       </c>
       <c r="AI150" t="n">
-        <v>12143</v>
+        <v>25475</v>
       </c>
       <c r="AJ150" t="n">
-        <v>3358</v>
+        <v>7651</v>
       </c>
       <c r="AK150" t="n">
         <v>19378</v>
@@ -23892,22 +23894,22 @@
         <v>8839</v>
       </c>
       <c r="D151" t="n">
-        <v>6351</v>
+        <v>6497</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>2807010</v>
+        <v>2848974</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>41964</v>
       </c>
       <c r="H151" t="n">
-        <v>159931</v>
+        <v>161680</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="J151" t="e">
         <v>#NUM!</v>
@@ -23927,16 +23929,30 @@
       <c r="O151" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="P151"/>
-      <c r="Q151"/>
+      <c r="P151" t="n">
+        <v>3747779</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>242251</v>
+      </c>
       <c r="R151" t="n">
         <v>3990030</v>
       </c>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
-      <c r="V151"/>
-      <c r="W151"/>
+      <c r="S151" t="n">
+        <v>0.1205</v>
+      </c>
+      <c r="T151" t="n">
+        <v>63105</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1263</v>
+      </c>
+      <c r="V151" t="n">
+        <v>64368</v>
+      </c>
+      <c r="W151" t="n">
+        <v>9336</v>
+      </c>
       <c r="X151"/>
       <c r="Y151"/>
       <c r="Z151"/>
@@ -23955,10 +23971,10 @@
         <v>3174</v>
       </c>
       <c r="AI151" t="n">
-        <v>12989</v>
+        <v>25143</v>
       </c>
       <c r="AJ151" t="n">
-        <v>3065</v>
+        <v>7090</v>
       </c>
       <c r="AK151" t="n">
         <v>24760</v>
@@ -23994,6 +24010,121 @@
         <v>29677668</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B152" t="n">
+        <v>430485</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9539</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6497</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2848974</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>161680</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K152" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L152" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M152" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N152" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="O152" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152" t="n">
+        <v>4028966</v>
+      </c>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152" t="n">
+        <v>8969</v>
+      </c>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AD152"/>
+      <c r="AE152"/>
+      <c r="AF152" t="n">
+        <v>6163</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>5007</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>3553</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>25310</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>7314</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>21894</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>6169</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>6457</v>
+      </c>
+      <c r="AN152"/>
+      <c r="AO152"/>
+      <c r="AP152"/>
+      <c r="AQ152"/>
+      <c r="AR152"/>
+      <c r="AS152"/>
+      <c r="AT152"/>
+      <c r="AU152"/>
+      <c r="AV152"/>
+      <c r="AW152"/>
+      <c r="AX152"/>
+      <c r="AY152"/>
+      <c r="AZ152"/>
+      <c r="BA152"/>
+      <c r="BB152"/>
+      <c r="BC152"/>
+      <c r="BD152"/>
+      <c r="BE152"/>
+      <c r="BF152"/>
+      <c r="BG152"/>
+      <c r="BH152"/>
+      <c r="BI152" t="n">
+        <v>29677668</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -24048,34 +24179,34 @@
         <v>72</v>
       </c>
       <c r="B2" t="n">
-        <v>141186</v>
+        <v>141044</v>
       </c>
       <c r="C2" t="n">
-        <v>117941</v>
+        <v>118140</v>
       </c>
       <c r="D2" t="n">
-        <v>3872089</v>
+        <v>3910826</v>
       </c>
       <c r="E2" t="n">
-        <v>11712</v>
+        <v>11812</v>
       </c>
       <c r="F2" t="n">
-        <v>50178</v>
+        <v>54779</v>
       </c>
       <c r="G2" t="n">
-        <v>11412</v>
+        <v>11674</v>
       </c>
       <c r="H2" t="n">
-        <v>1112</v>
+        <v>1170</v>
       </c>
       <c r="I2" t="n">
-        <v>6264</v>
+        <v>6457</v>
       </c>
       <c r="J2" t="n">
-        <v>35552</v>
+        <v>36446</v>
       </c>
       <c r="K2" t="n">
-        <v>6569</v>
+        <v>6837</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -4856,22 +4856,16 @@
         <v>1338</v>
       </c>
       <c r="AF41">
-        <v>229</v>
+        <v>1338</v>
       </c>
       <c r="AG41">
-        <v>189</v>
+        <v>775</v>
       </c>
       <c r="AH41">
-        <v>182</v>
-      </c>
-      <c r="AI41">
-        <v>247</v>
-      </c>
-      <c r="AJ41">
-        <v>237</v>
+        <v>563</v>
       </c>
       <c r="AK41">
-        <v>253</v>
+        <v>27420</v>
       </c>
       <c r="AN41">
         <v>29035.98470826723</v>
@@ -4987,22 +4981,16 @@
         <v>1176</v>
       </c>
       <c r="AF42">
-        <v>439</v>
+        <v>1176</v>
       </c>
       <c r="AG42">
-        <v>358</v>
+        <v>585</v>
       </c>
       <c r="AH42">
-        <v>308</v>
-      </c>
-      <c r="AI42">
-        <v>638</v>
-      </c>
-      <c r="AJ42">
-        <v>472</v>
+        <v>591</v>
       </c>
       <c r="AK42">
-        <v>700</v>
+        <v>26721</v>
       </c>
       <c r="AN42">
         <v>28825.46103115658</v>
@@ -5118,22 +5106,16 @@
         <v>1409</v>
       </c>
       <c r="AF43">
-        <v>547</v>
+        <v>1409</v>
       </c>
       <c r="AG43">
-        <v>413</v>
+        <v>815</v>
       </c>
       <c r="AH43">
-        <v>359</v>
-      </c>
-      <c r="AI43">
-        <v>988</v>
-      </c>
-      <c r="AJ43">
-        <v>809</v>
+        <v>594</v>
       </c>
       <c r="AK43">
-        <v>1199</v>
+        <v>28695</v>
       </c>
       <c r="AN43">
         <v>31752.6202178227</v>
@@ -5249,22 +5231,16 @@
         <v>1538</v>
       </c>
       <c r="AF44">
-        <v>581</v>
+        <v>1568</v>
       </c>
       <c r="AG44">
-        <v>442</v>
+        <v>880</v>
       </c>
       <c r="AH44">
-        <v>387</v>
-      </c>
-      <c r="AI44">
-        <v>1291</v>
-      </c>
-      <c r="AJ44">
-        <v>834</v>
+        <v>688</v>
       </c>
       <c r="AK44">
-        <v>1479</v>
+        <v>29892</v>
       </c>
       <c r="AN44">
         <v>31813.96100657447</v>
@@ -5380,22 +5356,16 @@
         <v>1459</v>
       </c>
       <c r="AF45">
-        <v>570</v>
+        <v>1459</v>
       </c>
       <c r="AG45">
-        <v>472</v>
+        <v>796</v>
       </c>
       <c r="AH45">
-        <v>448</v>
-      </c>
-      <c r="AI45">
-        <v>1656</v>
-      </c>
-      <c r="AJ45">
-        <v>976</v>
+        <v>663</v>
       </c>
       <c r="AK45">
-        <v>1889</v>
+        <v>30271</v>
       </c>
       <c r="AN45">
         <v>32902.65852646294</v>
@@ -5511,22 +5481,16 @@
         <v>1522</v>
       </c>
       <c r="AF46">
-        <v>673</v>
+        <v>1522</v>
       </c>
       <c r="AG46">
-        <v>571</v>
+        <v>828</v>
       </c>
       <c r="AH46">
-        <v>442</v>
-      </c>
-      <c r="AI46">
-        <v>1937</v>
-      </c>
-      <c r="AJ46">
-        <v>996</v>
+        <v>694</v>
       </c>
       <c r="AK46">
-        <v>2217</v>
+        <v>30162</v>
       </c>
       <c r="AN46">
         <v>33022.9761352849</v>
@@ -5642,22 +5606,16 @@
         <v>1321</v>
       </c>
       <c r="AF47">
-        <v>827</v>
+        <v>1321</v>
       </c>
       <c r="AG47">
-        <v>523</v>
+        <v>738</v>
       </c>
       <c r="AH47">
-        <v>405</v>
-      </c>
-      <c r="AI47">
-        <v>2441</v>
-      </c>
-      <c r="AJ47">
-        <v>1164</v>
+        <v>583</v>
       </c>
       <c r="AK47">
-        <v>2455</v>
+        <v>30333</v>
       </c>
       <c r="AN47">
         <v>32155.1932118547</v>
@@ -5773,22 +5731,16 @@
         <v>1471</v>
       </c>
       <c r="AF48">
-        <v>704</v>
+        <v>1471</v>
       </c>
       <c r="AG48">
-        <v>515</v>
+        <v>847</v>
       </c>
       <c r="AH48">
-        <v>383</v>
-      </c>
-      <c r="AI48">
-        <v>2790</v>
-      </c>
-      <c r="AJ48">
-        <v>1257</v>
+        <v>624</v>
       </c>
       <c r="AK48">
-        <v>3008</v>
+        <v>29136</v>
       </c>
       <c r="AN48">
         <v>31120.76245246267</v>
@@ -5904,22 +5856,16 @@
         <v>1411</v>
       </c>
       <c r="AF49">
-        <v>739</v>
+        <v>1414</v>
       </c>
       <c r="AG49">
-        <v>559</v>
+        <v>794</v>
       </c>
       <c r="AH49">
-        <v>491</v>
-      </c>
-      <c r="AI49">
-        <v>2908</v>
-      </c>
-      <c r="AJ49">
-        <v>1242</v>
+        <v>620</v>
       </c>
       <c r="AK49">
-        <v>3691</v>
+        <v>27057</v>
       </c>
       <c r="AN49">
         <v>32267.95564097237</v>
@@ -6035,22 +5981,16 @@
         <v>1419</v>
       </c>
       <c r="AF50">
-        <v>916</v>
+        <v>1497</v>
       </c>
       <c r="AG50">
-        <v>666</v>
+        <v>861</v>
       </c>
       <c r="AH50">
-        <v>541</v>
-      </c>
-      <c r="AI50">
-        <v>3305</v>
-      </c>
-      <c r="AJ50">
-        <v>971</v>
+        <v>636</v>
       </c>
       <c r="AK50">
-        <v>3909</v>
+        <v>29380</v>
       </c>
       <c r="AN50">
         <v>34405.61838918673</v>
@@ -6166,22 +6106,16 @@
         <v>1678</v>
       </c>
       <c r="AF51">
-        <v>1117</v>
+        <v>1678</v>
       </c>
       <c r="AG51">
-        <v>749</v>
+        <v>987</v>
       </c>
       <c r="AH51">
-        <v>612</v>
-      </c>
-      <c r="AI51">
-        <v>3687</v>
-      </c>
-      <c r="AJ51">
-        <v>1190</v>
+        <v>691</v>
       </c>
       <c r="AK51">
-        <v>4356</v>
+        <v>32474</v>
       </c>
       <c r="AN51">
         <v>34727.73740020218</v>
@@ -6297,22 +6231,16 @@
         <v>1649</v>
       </c>
       <c r="AF52">
-        <v>1129</v>
+        <v>1649</v>
       </c>
       <c r="AG52">
-        <v>557</v>
+        <v>960</v>
       </c>
       <c r="AH52">
-        <v>652</v>
-      </c>
-      <c r="AI52">
-        <v>4076</v>
-      </c>
-      <c r="AJ52">
-        <v>1356</v>
+        <v>689</v>
       </c>
       <c r="AK52">
-        <v>4145</v>
+        <v>34032</v>
       </c>
       <c r="AN52">
         <v>34790.47844708776</v>
@@ -6428,22 +6356,16 @@
         <v>1674</v>
       </c>
       <c r="AF53">
-        <v>1092</v>
+        <v>1664</v>
       </c>
       <c r="AG53">
-        <v>675</v>
+        <v>994</v>
       </c>
       <c r="AH53">
-        <v>520</v>
-      </c>
-      <c r="AI53">
-        <v>3810</v>
-      </c>
-      <c r="AJ53">
-        <v>1758</v>
+        <v>670</v>
       </c>
       <c r="AK53">
-        <v>4705</v>
+        <v>34788</v>
       </c>
       <c r="AN53">
         <v>35467.93083732159</v>
@@ -6559,22 +6481,16 @@
         <v>1597</v>
       </c>
       <c r="AF54">
-        <v>1110</v>
+        <v>1587</v>
       </c>
       <c r="AG54">
-        <v>736</v>
+        <v>946</v>
       </c>
       <c r="AH54">
-        <v>566</v>
-      </c>
-      <c r="AI54">
-        <v>3542</v>
-      </c>
-      <c r="AJ54">
-        <v>1281</v>
+        <v>651</v>
       </c>
       <c r="AK54">
-        <v>4787</v>
+        <v>34687</v>
       </c>
       <c r="AN54">
         <v>33774.36982228375</v>
@@ -6690,22 +6606,16 @@
         <v>1542</v>
       </c>
       <c r="AF55">
-        <v>1076</v>
+        <v>1542</v>
       </c>
       <c r="AG55">
-        <v>647</v>
+        <v>897</v>
       </c>
       <c r="AH55">
-        <v>567</v>
-      </c>
-      <c r="AI55">
-        <v>4386</v>
-      </c>
-      <c r="AJ55">
-        <v>1409</v>
+        <v>645</v>
       </c>
       <c r="AK55">
-        <v>5091</v>
+        <v>33201</v>
       </c>
       <c r="AN55">
         <v>33154.08506676356</v>
@@ -6821,22 +6731,16 @@
         <v>1563</v>
       </c>
       <c r="AF56">
-        <v>1172</v>
+        <v>1563</v>
       </c>
       <c r="AG56">
-        <v>644</v>
+        <v>903</v>
       </c>
       <c r="AH56">
-        <v>578</v>
-      </c>
-      <c r="AI56">
-        <v>4789</v>
-      </c>
-      <c r="AJ56">
-        <v>1579</v>
+        <v>660</v>
       </c>
       <c r="AK56">
-        <v>4700</v>
+        <v>31702</v>
       </c>
       <c r="AN56">
         <v>33843.43827408803</v>
@@ -6952,22 +6856,16 @@
         <v>1682</v>
       </c>
       <c r="AF57">
-        <v>1129</v>
+        <v>1682</v>
       </c>
       <c r="AG57">
-        <v>721</v>
+        <v>998</v>
       </c>
       <c r="AH57">
-        <v>490</v>
-      </c>
-      <c r="AI57">
-        <v>5614</v>
-      </c>
-      <c r="AJ57">
-        <v>1382</v>
+        <v>684</v>
       </c>
       <c r="AK57">
-        <v>5805</v>
+        <v>33473</v>
       </c>
       <c r="AN57">
         <v>35746.9254658385</v>
@@ -7083,22 +6981,16 @@
         <v>1702</v>
       </c>
       <c r="AF58">
-        <v>1278</v>
+        <v>1702</v>
       </c>
       <c r="AG58">
-        <v>655</v>
+        <v>984</v>
       </c>
       <c r="AH58">
-        <v>667</v>
-      </c>
-      <c r="AI58">
-        <v>4831</v>
-      </c>
-      <c r="AJ58">
-        <v>1750</v>
+        <v>718</v>
       </c>
       <c r="AK58">
-        <v>6501</v>
+        <v>35289</v>
       </c>
       <c r="AN58">
         <v>36408.60414932941</v>
@@ -7214,22 +7106,16 @@
         <v>1686</v>
       </c>
       <c r="AF59">
-        <v>1150</v>
+        <v>1686</v>
       </c>
       <c r="AG59">
-        <v>877</v>
+        <v>982</v>
       </c>
       <c r="AH59">
-        <v>552</v>
-      </c>
-      <c r="AI59">
-        <v>5182</v>
-      </c>
-      <c r="AJ59">
-        <v>1382</v>
+        <v>704</v>
       </c>
       <c r="AK59">
-        <v>6771</v>
+        <v>35604</v>
       </c>
       <c r="AN59">
         <v>36360.70649995992</v>
@@ -7345,22 +7231,16 @@
         <v>1778</v>
       </c>
       <c r="AF60">
-        <v>1283</v>
+        <v>1778</v>
       </c>
       <c r="AG60">
-        <v>609</v>
+        <v>1042</v>
       </c>
       <c r="AH60">
-        <v>549</v>
-      </c>
-      <c r="AI60">
-        <v>5335</v>
-      </c>
-      <c r="AJ60">
-        <v>2007</v>
+        <v>736</v>
       </c>
       <c r="AK60">
-        <v>7178</v>
+        <v>36409</v>
       </c>
       <c r="AN60">
         <v>35631.30094526693</v>
@@ -7476,22 +7356,16 @@
         <v>1725</v>
       </c>
       <c r="AF61">
-        <v>1091</v>
+        <v>1725</v>
       </c>
       <c r="AG61">
-        <v>853</v>
+        <v>1014</v>
       </c>
       <c r="AH61">
-        <v>684</v>
-      </c>
-      <c r="AI61">
-        <v>5521</v>
-      </c>
-      <c r="AJ61">
-        <v>1689</v>
+        <v>711</v>
       </c>
       <c r="AK61">
-        <v>6955</v>
+        <v>35692</v>
       </c>
       <c r="AN61">
         <v>34916.65057895484</v>
@@ -7607,22 +7481,16 @@
         <v>1540</v>
       </c>
       <c r="AF62">
-        <v>1125</v>
+        <v>1540</v>
       </c>
       <c r="AG62">
-        <v>958</v>
+        <v>916</v>
       </c>
       <c r="AH62">
-        <v>546</v>
-      </c>
-      <c r="AI62">
-        <v>5977</v>
-      </c>
-      <c r="AJ62">
-        <v>1548</v>
+        <v>624</v>
       </c>
       <c r="AK62">
-        <v>6400</v>
+        <v>32012</v>
       </c>
       <c r="AN62">
         <v>34225.37768214206</v>
@@ -7738,22 +7606,16 @@
         <v>1533</v>
       </c>
       <c r="AF63">
-        <v>1114</v>
+        <v>1533</v>
       </c>
       <c r="AG63">
-        <v>750</v>
+        <v>914</v>
       </c>
       <c r="AH63">
-        <v>572</v>
-      </c>
-      <c r="AI63">
-        <v>6021</v>
-      </c>
-      <c r="AJ63">
-        <v>1505</v>
+        <v>619</v>
       </c>
       <c r="AK63">
-        <v>7057</v>
+        <v>32019</v>
       </c>
       <c r="AN63">
         <v>35433.20080251558</v>
@@ -7869,22 +7731,16 @@
         <v>1888</v>
       </c>
       <c r="AF64">
-        <v>1258</v>
+        <v>1888</v>
       </c>
       <c r="AG64">
-        <v>707</v>
+        <v>1199</v>
       </c>
       <c r="AH64">
-        <v>556</v>
-      </c>
-      <c r="AI64">
-        <v>5631</v>
-      </c>
-      <c r="AJ64">
-        <v>1947</v>
+        <v>689</v>
       </c>
       <c r="AK64">
-        <v>7607</v>
+        <v>34653</v>
       </c>
       <c r="AN64">
         <v>37685.83486469234</v>
@@ -8000,22 +7856,16 @@
         <v>1812</v>
       </c>
       <c r="AF65">
-        <v>1322</v>
+        <v>1812</v>
       </c>
       <c r="AG65">
-        <v>1020</v>
+        <v>1086</v>
       </c>
       <c r="AH65">
-        <v>658</v>
-      </c>
-      <c r="AI65">
-        <v>7204</v>
-      </c>
-      <c r="AJ65">
-        <v>1688</v>
+        <v>726</v>
       </c>
       <c r="AK65">
-        <v>7879</v>
+        <v>37421</v>
       </c>
       <c r="AN65">
         <v>38789.7745921801</v>
@@ -8131,22 +7981,16 @@
         <v>1750</v>
       </c>
       <c r="AF66">
-        <v>1089</v>
+        <v>1750</v>
       </c>
       <c r="AG66">
-        <v>784</v>
+        <v>1034</v>
       </c>
       <c r="AH66">
-        <v>634</v>
-      </c>
-      <c r="AI66">
-        <v>6952</v>
-      </c>
-      <c r="AJ66">
-        <v>1800</v>
+        <v>716</v>
       </c>
       <c r="AK66">
-        <v>8886</v>
+        <v>38722</v>
       </c>
       <c r="AN66">
         <v>38425.01917592684</v>
@@ -8262,22 +8106,16 @@
         <v>1734</v>
       </c>
       <c r="AF67">
-        <v>1327</v>
+        <v>1734</v>
       </c>
       <c r="AG67">
-        <v>851</v>
+        <v>1037</v>
       </c>
       <c r="AH67">
-        <v>649</v>
-      </c>
-      <c r="AI67">
-        <v>6611</v>
-      </c>
-      <c r="AJ67">
-        <v>1940</v>
+        <v>697</v>
       </c>
       <c r="AK67">
-        <v>8982</v>
+        <v>38516</v>
       </c>
       <c r="AN67">
         <v>37904.79560820685</v>
@@ -8399,22 +8237,16 @@
         <v>1735</v>
       </c>
       <c r="AF68">
-        <v>1623</v>
+        <v>1735</v>
       </c>
       <c r="AG68">
-        <v>975</v>
+        <v>1061</v>
       </c>
       <c r="AH68">
-        <v>537</v>
-      </c>
-      <c r="AI68">
-        <v>6992</v>
-      </c>
-      <c r="AJ68">
-        <v>1768</v>
+        <v>674</v>
       </c>
       <c r="AK68">
-        <v>8593</v>
+        <v>37977</v>
       </c>
       <c r="AN68">
         <v>36082.18332613036</v>
@@ -8536,22 +8368,16 @@
         <v>1626</v>
       </c>
       <c r="AF69">
-        <v>1333</v>
+        <v>1626</v>
       </c>
       <c r="AG69">
-        <v>888</v>
+        <v>965</v>
       </c>
       <c r="AH69">
-        <v>560</v>
-      </c>
-      <c r="AI69">
-        <v>6987</v>
-      </c>
-      <c r="AJ69">
-        <v>1795</v>
+        <v>661</v>
       </c>
       <c r="AK69">
-        <v>7667</v>
+        <v>35333</v>
       </c>
       <c r="AN69">
         <v>34567.59939467562</v>
@@ -8673,22 +8499,16 @@
         <v>1525</v>
       </c>
       <c r="AF70">
-        <v>1256</v>
+        <v>1525</v>
       </c>
       <c r="AG70">
-        <v>890</v>
+        <v>915</v>
       </c>
       <c r="AH70">
-        <v>515</v>
-      </c>
-      <c r="AI70">
-        <v>7179</v>
-      </c>
-      <c r="AJ70">
-        <v>1393</v>
+        <v>610</v>
       </c>
       <c r="AK70">
-        <v>7984</v>
+        <v>32549</v>
       </c>
       <c r="AN70">
         <v>35910.12239490647</v>
@@ -8810,22 +8630,16 @@
         <v>1725</v>
       </c>
       <c r="AF71">
-        <v>1303</v>
+        <v>1725</v>
       </c>
       <c r="AG71">
-        <v>954</v>
+        <v>1026</v>
       </c>
       <c r="AH71">
-        <v>654</v>
-      </c>
-      <c r="AI71">
-        <v>7293</v>
-      </c>
-      <c r="AJ71">
-        <v>1278</v>
+        <v>699</v>
       </c>
       <c r="AK71">
-        <v>8896</v>
+        <v>34519</v>
       </c>
       <c r="AN71">
         <v>37795.2508037951</v>
@@ -8947,22 +8761,16 @@
         <v>1676</v>
       </c>
       <c r="AF72">
-        <v>1410</v>
+        <v>1676</v>
       </c>
       <c r="AG72">
-        <v>914</v>
+        <v>1002</v>
       </c>
       <c r="AH72">
-        <v>616</v>
-      </c>
-      <c r="AI72">
-        <v>7568</v>
-      </c>
-      <c r="AJ72">
-        <v>1799</v>
+        <v>674</v>
       </c>
       <c r="AK72">
-        <v>10658</v>
+        <v>38292</v>
       </c>
       <c r="AN72">
         <v>38947.37170394264</v>
@@ -9084,22 +8892,16 @@
         <v>1648</v>
       </c>
       <c r="AF73">
-        <v>1056</v>
+        <v>1648</v>
       </c>
       <c r="AG73">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="AH73">
-        <v>614</v>
-      </c>
-      <c r="AI73">
-        <v>7695</v>
-      </c>
-      <c r="AJ73">
-        <v>2062</v>
+        <v>673</v>
       </c>
       <c r="AK73">
-        <v>9833</v>
+        <v>38626</v>
       </c>
       <c r="AN73">
         <v>39385.60682618964</v>
@@ -9245,22 +9047,16 @@
         <v>494</v>
       </c>
       <c r="AF74">
-        <v>1550</v>
+        <v>1716</v>
       </c>
       <c r="AG74">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="AH74">
-        <v>706</v>
-      </c>
-      <c r="AI74">
-        <v>8067</v>
-      </c>
-      <c r="AJ74">
-        <v>1959</v>
+        <v>683</v>
       </c>
       <c r="AK74">
-        <v>8352</v>
+        <v>39654</v>
       </c>
       <c r="AN74">
         <v>39049.043149967</v>
@@ -9415,22 +9211,16 @@
         <v>530</v>
       </c>
       <c r="AF75">
-        <v>1245</v>
+        <v>1791</v>
       </c>
       <c r="AG75">
-        <v>974</v>
+        <v>1104</v>
       </c>
       <c r="AH75">
-        <v>662</v>
-      </c>
-      <c r="AI75">
-        <v>7500</v>
-      </c>
-      <c r="AJ75">
-        <v>2123</v>
+        <v>687</v>
       </c>
       <c r="AK75">
-        <v>10382</v>
+        <v>39392</v>
       </c>
       <c r="AN75">
         <v>36487.94347595329</v>
@@ -9585,22 +9375,16 @@
         <v>531</v>
       </c>
       <c r="AF76">
-        <v>1392</v>
+        <v>1512</v>
       </c>
       <c r="AG76">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="AH76">
-        <v>520</v>
-      </c>
-      <c r="AI76">
-        <v>9004</v>
-      </c>
-      <c r="AJ76">
-        <v>2340</v>
+        <v>604</v>
       </c>
       <c r="AK76">
-        <v>9405</v>
+        <v>34208</v>
       </c>
       <c r="AN76">
         <v>35651.80314401623</v>
@@ -9755,22 +9539,16 @@
         <v>575</v>
       </c>
       <c r="AF77">
-        <v>1219</v>
+        <v>1551</v>
       </c>
       <c r="AG77">
-        <v>847</v>
+        <v>933</v>
       </c>
       <c r="AH77">
-        <v>517</v>
-      </c>
-      <c r="AI77">
-        <v>9120</v>
-      </c>
-      <c r="AJ77">
-        <v>2322</v>
+        <v>618</v>
       </c>
       <c r="AK77">
-        <v>9902</v>
+        <v>33455</v>
       </c>
       <c r="AN77">
         <v>37230.45407108596</v>
@@ -9925,22 +9703,16 @@
         <v>631</v>
       </c>
       <c r="AF78">
-        <v>1353</v>
+        <v>1732</v>
       </c>
       <c r="AG78">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AH78">
-        <v>542</v>
-      </c>
-      <c r="AI78">
-        <v>7597</v>
-      </c>
-      <c r="AJ78">
-        <v>1802</v>
+        <v>675</v>
       </c>
       <c r="AK78">
-        <v>11703</v>
+        <v>35767</v>
       </c>
       <c r="AN78">
         <v>40050.25805684386</v>
@@ -10095,22 +9867,16 @@
         <v>684</v>
       </c>
       <c r="AF79">
-        <v>1613</v>
+        <v>1791</v>
       </c>
       <c r="AG79">
-        <v>1307</v>
+        <v>1097</v>
       </c>
       <c r="AH79">
-        <v>663</v>
-      </c>
-      <c r="AI79">
-        <v>8348</v>
-      </c>
-      <c r="AJ79">
-        <v>1738</v>
+        <v>694</v>
       </c>
       <c r="AK79">
-        <v>10815</v>
+        <v>40313</v>
       </c>
       <c r="AN79">
         <v>41497.40748947485</v>
@@ -10265,22 +10031,16 @@
         <v>719</v>
       </c>
       <c r="AF80">
-        <v>1510</v>
+        <v>1680</v>
       </c>
       <c r="AG80">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="AH80">
-        <v>655</v>
-      </c>
-      <c r="AI80">
-        <v>9018</v>
-      </c>
-      <c r="AJ80">
-        <v>2111</v>
+        <v>690</v>
       </c>
       <c r="AK80">
-        <v>12773</v>
+        <v>40321</v>
       </c>
       <c r="AN80">
         <v>41292.61982144648</v>
@@ -10435,22 +10195,16 @@
         <v>730</v>
       </c>
       <c r="AF81">
-        <v>1446</v>
+        <v>1578</v>
       </c>
       <c r="AG81">
-        <v>860</v>
+        <v>913</v>
       </c>
       <c r="AH81">
-        <v>587</v>
-      </c>
-      <c r="AI81">
-        <v>8725</v>
-      </c>
-      <c r="AJ81">
-        <v>2469</v>
+        <v>665</v>
       </c>
       <c r="AK81">
-        <v>11710</v>
+        <v>40132</v>
       </c>
       <c r="AN81">
         <v>40674.18455489584</v>
@@ -10590,22 +10344,16 @@
         <v>800</v>
       </c>
       <c r="AF82">
-        <v>1472</v>
+        <v>1688</v>
       </c>
       <c r="AG82">
-        <v>1123</v>
+        <v>1022</v>
       </c>
       <c r="AH82">
-        <v>521</v>
-      </c>
-      <c r="AI82">
-        <v>9150</v>
-      </c>
-      <c r="AJ82">
-        <v>2189</v>
+        <v>666</v>
       </c>
       <c r="AK82">
-        <v>13032</v>
+        <v>40977</v>
       </c>
       <c r="AN82">
         <v>39147.50616003113</v>
@@ -10760,22 +10508,16 @@
         <v>812</v>
       </c>
       <c r="AF83">
-        <v>1652</v>
+        <v>1572</v>
       </c>
       <c r="AG83">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="AH83">
-        <v>639</v>
-      </c>
-      <c r="AI83">
-        <v>9702</v>
-      </c>
-      <c r="AJ83">
-        <v>1603</v>
+        <v>643</v>
       </c>
       <c r="AK83">
-        <v>11813</v>
+        <v>35987</v>
       </c>
       <c r="AN83">
         <v>37612.64530774832</v>
@@ -10930,22 +10672,16 @@
         <v>885</v>
       </c>
       <c r="AF84">
-        <v>1285</v>
+        <v>1511</v>
       </c>
       <c r="AG84">
-        <v>1072</v>
+        <v>854</v>
       </c>
       <c r="AH84">
-        <v>544</v>
-      </c>
-      <c r="AI84">
-        <v>9172</v>
-      </c>
-      <c r="AJ84">
-        <v>1931</v>
+        <v>657</v>
       </c>
       <c r="AK84">
-        <v>11316</v>
+        <v>33489</v>
       </c>
       <c r="AN84">
         <v>37863.02706368687</v>
@@ -11100,22 +10836,16 @@
         <v>940</v>
       </c>
       <c r="AF85">
-        <v>1253</v>
+        <v>1534</v>
       </c>
       <c r="AG85">
-        <v>992</v>
+        <v>887</v>
       </c>
       <c r="AH85">
-        <v>711</v>
-      </c>
-      <c r="AI85">
-        <v>8372</v>
-      </c>
-      <c r="AJ85">
-        <v>2212</v>
+        <v>647</v>
       </c>
       <c r="AK85">
-        <v>13556</v>
+        <v>34246</v>
       </c>
       <c r="AN85">
         <v>38886.3669035533</v>
@@ -11270,22 +11000,16 @@
         <v>982</v>
       </c>
       <c r="AF86">
-        <v>1295</v>
+        <v>1645</v>
       </c>
       <c r="AG86">
-        <v>873</v>
+        <v>974</v>
       </c>
       <c r="AH86">
-        <v>594</v>
-      </c>
-      <c r="AI86">
-        <v>7783</v>
-      </c>
-      <c r="AJ86">
-        <v>2088</v>
+        <v>671</v>
       </c>
       <c r="AK86">
-        <v>12457</v>
+        <v>36501</v>
       </c>
       <c r="AN86">
         <v>41229.61555479576</v>
@@ -11440,22 +11164,16 @@
         <v>996</v>
       </c>
       <c r="AF87">
-        <v>1497</v>
+        <v>1692</v>
       </c>
       <c r="AG87">
-        <v>838</v>
+        <v>998</v>
       </c>
       <c r="AH87">
-        <v>660</v>
-      </c>
-      <c r="AI87">
-        <v>9249</v>
-      </c>
-      <c r="AJ87">
-        <v>2163</v>
+        <v>694</v>
       </c>
       <c r="AK87">
-        <v>13386</v>
+        <v>39561</v>
       </c>
       <c r="AN87">
         <v>41951.73687016795</v>
@@ -11610,22 +11328,22 @@
         <v>1074</v>
       </c>
       <c r="AF88">
-        <v>1525</v>
+        <v>1622</v>
       </c>
       <c r="AG88">
-        <v>823</v>
+        <v>875</v>
       </c>
       <c r="AH88">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="AI88">
-        <v>14179</v>
+        <v>16136</v>
       </c>
       <c r="AJ88">
-        <v>5858</v>
+        <v>1696</v>
       </c>
       <c r="AK88">
-        <v>12818</v>
+        <v>41521</v>
       </c>
       <c r="AN88">
         <v>41348.15712741879</v>
@@ -11771,22 +11489,22 @@
         <v>1155</v>
       </c>
       <c r="AF89">
-        <v>1671</v>
+        <v>1752</v>
       </c>
       <c r="AG89">
-        <v>1078</v>
+        <v>999</v>
       </c>
       <c r="AH89">
-        <v>592</v>
+        <v>753</v>
       </c>
       <c r="AI89">
-        <v>14623</v>
+        <v>15599</v>
       </c>
       <c r="AJ89">
-        <v>6102</v>
+        <v>1697</v>
       </c>
       <c r="AK89">
-        <v>11075</v>
+        <v>41462</v>
       </c>
       <c r="AN89">
         <v>39328.28048149107</v>
@@ -11941,22 +11659,22 @@
         <v>1169</v>
       </c>
       <c r="AF90">
-        <v>1540</v>
+        <v>1684</v>
       </c>
       <c r="AG90">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="AH90">
-        <v>820</v>
+        <v>731</v>
       </c>
       <c r="AI90">
-        <v>15018</v>
+        <v>16127</v>
       </c>
       <c r="AJ90">
-        <v>6295</v>
+        <v>1698</v>
       </c>
       <c r="AK90">
-        <v>14796</v>
+        <v>39467</v>
       </c>
       <c r="AN90">
         <v>38190.0334571706</v>
@@ -12111,22 +11829,22 @@
         <v>1181</v>
       </c>
       <c r="AF91">
-        <v>1302</v>
+        <v>1756</v>
       </c>
       <c r="AG91">
-        <v>1091</v>
+        <v>1008</v>
       </c>
       <c r="AH91">
-        <v>687</v>
+        <v>748</v>
       </c>
       <c r="AI91">
-        <v>15449</v>
+        <v>16330</v>
       </c>
       <c r="AJ91">
-        <v>6516</v>
+        <v>1784</v>
       </c>
       <c r="AK91">
-        <v>13357</v>
+        <v>38032</v>
       </c>
       <c r="AL91">
         <v>5394</v>
@@ -12284,22 +12002,22 @@
         <v>1254</v>
       </c>
       <c r="AF92">
-        <v>1656</v>
+        <v>1773</v>
       </c>
       <c r="AG92">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="AH92">
-        <v>689</v>
+        <v>762</v>
       </c>
       <c r="AI92">
-        <v>15773</v>
+        <v>16575</v>
       </c>
       <c r="AJ92">
-        <v>6601</v>
+        <v>1764</v>
       </c>
       <c r="AK92">
-        <v>13409</v>
+        <v>37510</v>
       </c>
       <c r="AL92">
         <v>5314</v>
@@ -12457,22 +12175,22 @@
         <v>1284</v>
       </c>
       <c r="AF93">
-        <v>1230</v>
+        <v>1805</v>
       </c>
       <c r="AG93">
-        <v>1124</v>
+        <v>1057</v>
       </c>
       <c r="AH93">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="AI93">
-        <v>16168</v>
+        <v>14948</v>
       </c>
       <c r="AJ93">
-        <v>6465</v>
+        <v>1621</v>
       </c>
       <c r="AK93">
-        <v>13209</v>
+        <v>36201</v>
       </c>
       <c r="AL93">
         <v>5566</v>
@@ -12630,22 +12348,22 @@
         <v>1368</v>
       </c>
       <c r="AF94">
-        <v>1401</v>
+        <v>1796</v>
       </c>
       <c r="AG94">
-        <v>1133</v>
+        <v>1066</v>
       </c>
       <c r="AH94">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="AI94">
-        <v>16616</v>
+        <v>15219</v>
       </c>
       <c r="AJ94">
-        <v>6777</v>
+        <v>1658</v>
       </c>
       <c r="AK94">
-        <v>11925</v>
+        <v>40783</v>
       </c>
       <c r="AL94">
         <v>5577</v>
@@ -12803,22 +12521,22 @@
         <v>1437</v>
       </c>
       <c r="AF95">
-        <v>1510</v>
+        <v>1855</v>
       </c>
       <c r="AG95">
-        <v>985</v>
+        <v>1113</v>
       </c>
       <c r="AH95">
-        <v>818</v>
+        <v>742</v>
       </c>
       <c r="AI95">
-        <v>17156</v>
+        <v>14674</v>
       </c>
       <c r="AJ95">
-        <v>6431</v>
+        <v>1625</v>
       </c>
       <c r="AK95">
-        <v>14360</v>
+        <v>42965</v>
       </c>
       <c r="AL95">
         <v>5587</v>
@@ -12976,22 +12694,22 @@
         <v>1495</v>
       </c>
       <c r="AF96">
-        <v>1584</v>
+        <v>1822</v>
       </c>
       <c r="AG96">
-        <v>924</v>
+        <v>1085</v>
       </c>
       <c r="AH96">
-        <v>623</v>
+        <v>737</v>
       </c>
       <c r="AI96">
-        <v>17334</v>
+        <v>15198</v>
       </c>
       <c r="AJ96">
-        <v>6653</v>
+        <v>1583</v>
       </c>
       <c r="AK96">
-        <v>14962</v>
+        <v>41603</v>
       </c>
       <c r="AL96">
         <v>5623</v>
@@ -13149,22 +12867,22 @@
         <v>1499</v>
       </c>
       <c r="AF97">
-        <v>1348</v>
+        <v>1878</v>
       </c>
       <c r="AG97">
-        <v>850</v>
+        <v>1115</v>
       </c>
       <c r="AH97">
-        <v>831</v>
+        <v>763</v>
       </c>
       <c r="AI97">
-        <v>17569</v>
+        <v>15942</v>
       </c>
       <c r="AJ97">
-        <v>6836</v>
+        <v>1680</v>
       </c>
       <c r="AK97">
-        <v>15834</v>
+        <v>40237</v>
       </c>
       <c r="AL97">
         <v>5657</v>
@@ -13322,22 +13040,22 @@
         <v>1512</v>
       </c>
       <c r="AF98">
-        <v>1439</v>
+        <v>1935</v>
       </c>
       <c r="AG98">
-        <v>1077</v>
+        <v>1192</v>
       </c>
       <c r="AH98">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="AI98">
-        <v>17766</v>
+        <v>15070</v>
       </c>
       <c r="AJ98">
-        <v>6857</v>
+        <v>1619</v>
       </c>
       <c r="AK98">
-        <v>14681</v>
+        <v>37283</v>
       </c>
       <c r="AL98">
         <v>5292</v>
@@ -13495,22 +13213,22 @@
         <v>1636</v>
       </c>
       <c r="AF99">
-        <v>1827</v>
+        <v>2056</v>
       </c>
       <c r="AG99">
-        <v>1211</v>
+        <v>1272</v>
       </c>
       <c r="AH99">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AI99">
-        <v>17900</v>
+        <v>15402</v>
       </c>
       <c r="AJ99">
-        <v>6867</v>
+        <v>1723</v>
       </c>
       <c r="AK99">
-        <v>14496</v>
+        <v>39336</v>
       </c>
       <c r="AL99">
         <v>5500</v>
@@ -13668,22 +13386,22 @@
         <v>1739</v>
       </c>
       <c r="AF100">
-        <v>1335</v>
+        <v>2153</v>
       </c>
       <c r="AG100">
-        <v>977</v>
+        <v>1296</v>
       </c>
       <c r="AH100">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="AI100">
-        <v>17945</v>
+        <v>13645</v>
       </c>
       <c r="AJ100">
-        <v>6796</v>
+        <v>1508</v>
       </c>
       <c r="AK100">
-        <v>16310</v>
+        <v>42410</v>
       </c>
       <c r="AL100">
         <v>5622</v>
@@ -13841,22 +13559,22 @@
         <v>1831</v>
       </c>
       <c r="AF101">
-        <v>1533</v>
+        <v>2059</v>
       </c>
       <c r="AG101">
-        <v>1137</v>
+        <v>1250</v>
       </c>
       <c r="AH101">
-        <v>926</v>
+        <v>809</v>
       </c>
       <c r="AI101">
-        <v>18666</v>
+        <v>13271</v>
       </c>
       <c r="AJ101">
-        <v>6785</v>
+        <v>1419</v>
       </c>
       <c r="AK101">
-        <v>15780</v>
+        <v>40724</v>
       </c>
       <c r="AL101">
         <v>5667</v>
@@ -14014,22 +13732,22 @@
         <v>1908</v>
       </c>
       <c r="AF102">
-        <v>1763</v>
+        <v>2166</v>
       </c>
       <c r="AG102">
-        <v>1327</v>
+        <v>1356</v>
       </c>
       <c r="AH102">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="AI102">
-        <v>18455</v>
+        <v>14033</v>
       </c>
       <c r="AJ102">
-        <v>6933</v>
+        <v>1494</v>
       </c>
       <c r="AK102">
-        <v>15779</v>
+        <v>42995</v>
       </c>
       <c r="AL102">
         <v>5726</v>
@@ -14187,22 +13905,22 @@
         <v>1939</v>
       </c>
       <c r="AF103">
-        <v>1707</v>
+        <v>2242</v>
       </c>
       <c r="AG103">
-        <v>1126</v>
+        <v>1414</v>
       </c>
       <c r="AH103">
-        <v>802</v>
+        <v>828</v>
       </c>
       <c r="AI103">
-        <v>18677</v>
+        <v>13571</v>
       </c>
       <c r="AJ103">
-        <v>6906</v>
+        <v>1498</v>
       </c>
       <c r="AK103">
-        <v>14989</v>
+        <v>43025</v>
       </c>
       <c r="AL103">
         <v>5710</v>
@@ -14360,22 +14078,22 @@
         <v>1939</v>
       </c>
       <c r="AF104">
-        <v>1653</v>
+        <v>2287</v>
       </c>
       <c r="AG104">
-        <v>1278</v>
+        <v>1470</v>
       </c>
       <c r="AH104">
-        <v>957</v>
+        <v>817</v>
       </c>
       <c r="AI104">
-        <v>18969</v>
+        <v>14660</v>
       </c>
       <c r="AJ104">
-        <v>7116</v>
+        <v>1603</v>
       </c>
       <c r="AK104">
-        <v>15358</v>
+        <v>40548</v>
       </c>
       <c r="AL104">
         <v>5633</v>
@@ -14533,22 +14251,22 @@
         <v>2015</v>
       </c>
       <c r="AF105">
-        <v>1812</v>
+        <v>2326</v>
       </c>
       <c r="AG105">
-        <v>1209</v>
+        <v>1465</v>
       </c>
       <c r="AH105">
-        <v>970</v>
+        <v>861</v>
       </c>
       <c r="AI105">
-        <v>19374</v>
+        <v>14525</v>
       </c>
       <c r="AJ105">
-        <v>6847</v>
+        <v>1626</v>
       </c>
       <c r="AK105">
-        <v>17191</v>
+        <v>36840</v>
       </c>
       <c r="AL105">
         <v>5289</v>
@@ -14706,22 +14424,22 @@
         <v>2141</v>
       </c>
       <c r="AF106">
-        <v>1805</v>
+        <v>2518</v>
       </c>
       <c r="AG106">
-        <v>1494</v>
+        <v>1623</v>
       </c>
       <c r="AH106">
-        <v>1044</v>
+        <v>895</v>
       </c>
       <c r="AI106">
-        <v>18940</v>
+        <v>14993</v>
       </c>
       <c r="AJ106">
-        <v>7015</v>
+        <v>1675</v>
       </c>
       <c r="AK106">
-        <v>15636</v>
+        <v>39851</v>
       </c>
       <c r="AL106">
         <v>5529</v>
@@ -14879,22 +14597,22 @@
         <v>2242</v>
       </c>
       <c r="AF107">
-        <v>2071</v>
+        <v>2793</v>
       </c>
       <c r="AG107">
-        <v>1612</v>
+        <v>1829</v>
       </c>
       <c r="AH107">
-        <v>1099</v>
+        <v>964</v>
       </c>
       <c r="AI107">
-        <v>19602</v>
+        <v>13815</v>
       </c>
       <c r="AJ107">
-        <v>7218</v>
+        <v>1473</v>
       </c>
       <c r="AK107">
-        <v>17830</v>
+        <v>42379</v>
       </c>
       <c r="AL107">
         <v>5782</v>
@@ -15052,22 +14770,22 @@
         <v>2290</v>
       </c>
       <c r="AF108">
-        <v>2372</v>
+        <v>2947</v>
       </c>
       <c r="AG108">
-        <v>1656</v>
+        <v>1937</v>
       </c>
       <c r="AH108">
-        <v>1152</v>
+        <v>1010</v>
       </c>
       <c r="AI108">
-        <v>20029</v>
+        <v>13472</v>
       </c>
       <c r="AJ108">
-        <v>7611</v>
+        <v>1453</v>
       </c>
       <c r="AK108">
-        <v>16941</v>
+        <v>44041</v>
       </c>
       <c r="AL108">
         <v>5856</v>
@@ -15225,22 +14943,22 @@
         <v>2373</v>
       </c>
       <c r="AF109">
-        <v>2220</v>
+        <v>3148</v>
       </c>
       <c r="AG109">
-        <v>1618</v>
+        <v>2060</v>
       </c>
       <c r="AH109">
-        <v>1245</v>
+        <v>1088</v>
       </c>
       <c r="AI109">
-        <v>20501</v>
+        <v>13591</v>
       </c>
       <c r="AJ109">
-        <v>7130</v>
+        <v>1443</v>
       </c>
       <c r="AK109">
-        <v>17648</v>
+        <v>46232</v>
       </c>
       <c r="AL109">
         <v>5841</v>
@@ -15398,22 +15116,22 @@
         <v>2437</v>
       </c>
       <c r="AF110">
-        <v>2408</v>
+        <v>3247</v>
       </c>
       <c r="AG110">
-        <v>1374</v>
+        <v>2134</v>
       </c>
       <c r="AH110">
-        <v>1154</v>
+        <v>1113</v>
       </c>
       <c r="AI110">
-        <v>19559</v>
+        <v>13701</v>
       </c>
       <c r="AJ110">
-        <v>7088</v>
+        <v>1449</v>
       </c>
       <c r="AK110">
-        <v>18195</v>
+        <v>44293</v>
       </c>
       <c r="AL110">
         <v>5807</v>
@@ -15571,22 +15289,22 @@
         <v>2454</v>
       </c>
       <c r="AF111">
-        <v>2361</v>
+        <v>3409</v>
       </c>
       <c r="AG111">
-        <v>1735</v>
+        <v>2266</v>
       </c>
       <c r="AH111">
-        <v>1193</v>
+        <v>1143</v>
       </c>
       <c r="AI111">
-        <v>19071</v>
+        <v>14316</v>
       </c>
       <c r="AJ111">
-        <v>7267</v>
+        <v>1493</v>
       </c>
       <c r="AK111">
-        <v>14326</v>
+        <v>42815</v>
       </c>
       <c r="AL111">
         <v>5701</v>
@@ -15744,22 +15462,22 @@
         <v>2481</v>
       </c>
       <c r="AF112">
-        <v>2358</v>
+        <v>3711</v>
       </c>
       <c r="AG112">
-        <v>1653</v>
+        <v>2491</v>
       </c>
       <c r="AH112">
-        <v>1103</v>
+        <v>1220</v>
       </c>
       <c r="AI112">
-        <v>19828</v>
+        <v>14697</v>
       </c>
       <c r="AJ112">
-        <v>6944</v>
+        <v>1517</v>
       </c>
       <c r="AK112">
-        <v>14832</v>
+        <v>40607</v>
       </c>
       <c r="AL112">
         <v>5712</v>
@@ -15917,22 +15635,22 @@
         <v>2501</v>
       </c>
       <c r="AF113">
-        <v>2336</v>
+        <v>4092</v>
       </c>
       <c r="AG113">
-        <v>1700</v>
+        <v>2767</v>
       </c>
       <c r="AH113">
-        <v>1279</v>
+        <v>1325</v>
       </c>
       <c r="AI113">
-        <v>21289</v>
+        <v>14260</v>
       </c>
       <c r="AJ113">
-        <v>7263</v>
+        <v>1483</v>
       </c>
       <c r="AK113">
-        <v>14540</v>
+        <v>40382</v>
       </c>
       <c r="AL113">
         <v>5762</v>
@@ -16090,22 +15808,22 @@
         <v>2557</v>
       </c>
       <c r="AF114">
-        <v>2762</v>
+        <v>4389</v>
       </c>
       <c r="AG114">
-        <v>1848</v>
+        <v>2990</v>
       </c>
       <c r="AH114">
-        <v>1144</v>
+        <v>1399</v>
       </c>
       <c r="AI114">
-        <v>21266</v>
+        <v>12951</v>
       </c>
       <c r="AJ114">
-        <v>7212</v>
+        <v>1320</v>
       </c>
       <c r="AK114">
-        <v>17380</v>
+        <v>43756</v>
       </c>
       <c r="AL114">
         <v>5968</v>
@@ -16263,22 +15981,22 @@
         <v>2629</v>
       </c>
       <c r="AF115">
-        <v>2615</v>
+        <v>4739</v>
       </c>
       <c r="AG115">
-        <v>2202</v>
+        <v>3279</v>
       </c>
       <c r="AH115">
-        <v>1358</v>
+        <v>1460</v>
       </c>
       <c r="AI115">
-        <v>19872</v>
+        <v>12597</v>
       </c>
       <c r="AJ115">
-        <v>7223</v>
+        <v>1322</v>
       </c>
       <c r="AK115">
-        <v>17819</v>
+        <v>45208</v>
       </c>
       <c r="AL115">
         <v>6051</v>
@@ -16436,22 +16154,22 @@
         <v>2684</v>
       </c>
       <c r="AF116">
-        <v>3150</v>
+        <v>5102</v>
       </c>
       <c r="AG116">
-        <v>1971</v>
+        <v>3516</v>
       </c>
       <c r="AH116">
-        <v>1443</v>
+        <v>1586</v>
       </c>
       <c r="AI116">
-        <v>20575</v>
+        <v>12398</v>
       </c>
       <c r="AJ116">
-        <v>7142</v>
+        <v>1284</v>
       </c>
       <c r="AK116">
-        <v>19436</v>
+        <v>45535</v>
       </c>
       <c r="AL116">
         <v>6150</v>
@@ -16609,22 +16327,22 @@
         <v>2705</v>
       </c>
       <c r="AF117">
-        <v>2918</v>
+        <v>5523</v>
       </c>
       <c r="AG117">
-        <v>2038</v>
+        <v>3796</v>
       </c>
       <c r="AH117">
-        <v>1396</v>
+        <v>1727</v>
       </c>
       <c r="AI117">
-        <v>21026</v>
+        <v>12893</v>
       </c>
       <c r="AJ117">
-        <v>6863</v>
+        <v>1333</v>
       </c>
       <c r="AK117">
-        <v>19836</v>
+        <v>45318</v>
       </c>
       <c r="AL117">
         <v>6165</v>
@@ -16782,22 +16500,22 @@
         <v>2707</v>
       </c>
       <c r="AF118">
-        <v>3184</v>
+        <v>5497</v>
       </c>
       <c r="AG118">
-        <v>2172</v>
+        <v>3813</v>
       </c>
       <c r="AH118">
-        <v>1484</v>
+        <v>1684</v>
       </c>
       <c r="AI118">
-        <v>19678</v>
+        <v>12751</v>
       </c>
       <c r="AJ118">
-        <v>7003</v>
+        <v>1355</v>
       </c>
       <c r="AK118">
-        <v>16804</v>
+        <v>41950</v>
       </c>
       <c r="AL118">
         <v>5999</v>
@@ -16955,22 +16673,22 @@
         <v>2723</v>
       </c>
       <c r="AF119">
-        <v>2711</v>
+        <v>5913</v>
       </c>
       <c r="AG119">
-        <v>2406</v>
+        <v>4085</v>
       </c>
       <c r="AH119">
-        <v>1663</v>
+        <v>1828</v>
       </c>
       <c r="AI119">
-        <v>21937</v>
+        <v>13825</v>
       </c>
       <c r="AJ119">
-        <v>7054</v>
+        <v>1411</v>
       </c>
       <c r="AK119">
-        <v>17315</v>
+        <v>40419</v>
       </c>
       <c r="AL119">
         <v>5931</v>
@@ -17128,22 +16846,22 @@
         <v>2759</v>
       </c>
       <c r="AF120">
-        <v>3540</v>
+        <v>6533</v>
       </c>
       <c r="AG120">
-        <v>2251</v>
+        <v>4639</v>
       </c>
       <c r="AH120">
-        <v>1617</v>
+        <v>1894</v>
       </c>
       <c r="AI120">
-        <v>22030</v>
+        <v>13711</v>
       </c>
       <c r="AJ120">
-        <v>7084</v>
+        <v>1405</v>
       </c>
       <c r="AK120">
-        <v>17400</v>
+        <v>41555</v>
       </c>
       <c r="AL120">
         <v>5921</v>
@@ -17301,22 +17019,22 @@
         <v>2824</v>
       </c>
       <c r="AF121">
-        <v>3502</v>
+        <v>6904</v>
       </c>
       <c r="AG121">
-        <v>2892</v>
+        <v>4911</v>
       </c>
       <c r="AH121">
-        <v>1663</v>
+        <v>1993</v>
       </c>
       <c r="AI121">
-        <v>21558</v>
+        <v>12894</v>
       </c>
       <c r="AJ121">
-        <v>6988</v>
+        <v>1322</v>
       </c>
       <c r="AK121">
-        <v>17348</v>
+        <v>44333</v>
       </c>
       <c r="AL121">
         <v>6017</v>
@@ -17477,22 +17195,22 @@
         <v>2847</v>
       </c>
       <c r="AF122">
-        <v>3586</v>
+        <v>7382</v>
       </c>
       <c r="AG122">
-        <v>2776</v>
+        <v>5227</v>
       </c>
       <c r="AH122">
-        <v>1887</v>
+        <v>2155</v>
       </c>
       <c r="AI122">
-        <v>21049</v>
+        <v>11983</v>
       </c>
       <c r="AJ122">
-        <v>7029</v>
+        <v>1181</v>
       </c>
       <c r="AK122">
-        <v>19376</v>
+        <v>45687</v>
       </c>
       <c r="AL122">
         <v>6147</v>
@@ -17653,22 +17371,22 @@
         <v>2880</v>
       </c>
       <c r="AF123">
-        <v>4149</v>
+        <v>7652</v>
       </c>
       <c r="AG123">
-        <v>3041</v>
+        <v>5421</v>
       </c>
       <c r="AH123">
-        <v>1507</v>
+        <v>2231</v>
       </c>
       <c r="AI123">
-        <v>22048</v>
+        <v>12134</v>
       </c>
       <c r="AJ123">
-        <v>7000</v>
+        <v>1161</v>
       </c>
       <c r="AK123">
-        <v>21629</v>
+        <v>45619</v>
       </c>
       <c r="AL123">
         <v>6045</v>
@@ -17829,22 +17547,22 @@
         <v>2939</v>
       </c>
       <c r="AF124">
-        <v>4232</v>
+        <v>7890</v>
       </c>
       <c r="AG124">
-        <v>2609</v>
+        <v>5552</v>
       </c>
       <c r="AH124">
-        <v>1720</v>
+        <v>2338</v>
       </c>
       <c r="AI124">
-        <v>21903</v>
+        <v>12907</v>
       </c>
       <c r="AJ124">
-        <v>7158</v>
+        <v>1270</v>
       </c>
       <c r="AK124">
-        <v>21006</v>
+        <v>44252</v>
       </c>
       <c r="AL124">
         <v>5952</v>
@@ -18005,22 +17723,22 @@
         <v>2975</v>
       </c>
       <c r="AF125">
-        <v>3829</v>
+        <v>8181</v>
       </c>
       <c r="AG125">
-        <v>2944</v>
+        <v>5732</v>
       </c>
       <c r="AH125">
-        <v>1841</v>
+        <v>2449</v>
       </c>
       <c r="AI125">
-        <v>21386</v>
+        <v>13307</v>
       </c>
       <c r="AJ125">
-        <v>7402</v>
+        <v>1203</v>
       </c>
       <c r="AK125">
-        <v>19046</v>
+        <v>42564</v>
       </c>
       <c r="AL125">
         <v>5946</v>
@@ -18181,22 +17899,22 @@
         <v>2993</v>
       </c>
       <c r="AF126">
-        <v>4198</v>
+        <v>8698</v>
       </c>
       <c r="AG126">
-        <v>2864</v>
+        <v>6181</v>
       </c>
       <c r="AH126">
-        <v>2030</v>
+        <v>2517</v>
       </c>
       <c r="AI126">
-        <v>20629</v>
+        <v>12852</v>
       </c>
       <c r="AJ126">
-        <v>7219</v>
+        <v>1226</v>
       </c>
       <c r="AK126">
-        <v>17379</v>
+        <v>40828</v>
       </c>
       <c r="AL126">
         <v>5913</v>
@@ -18357,22 +18075,22 @@
         <v>3034</v>
       </c>
       <c r="AF127">
-        <v>4462</v>
+        <v>9286</v>
       </c>
       <c r="AG127">
-        <v>3686</v>
+        <v>6628</v>
       </c>
       <c r="AH127">
-        <v>2045</v>
+        <v>2658</v>
       </c>
       <c r="AI127">
-        <v>22766</v>
+        <v>12925</v>
       </c>
       <c r="AJ127">
-        <v>7474</v>
+        <v>1148</v>
       </c>
       <c r="AK127">
-        <v>19026</v>
+        <v>41819</v>
       </c>
       <c r="AL127">
         <v>6087</v>
@@ -18533,22 +18251,22 @@
         <v>3055</v>
       </c>
       <c r="AF128">
-        <v>4333</v>
+        <v>9610</v>
       </c>
       <c r="AG128">
-        <v>3286</v>
+        <v>6880</v>
       </c>
       <c r="AH128">
-        <v>2232</v>
+        <v>2730</v>
       </c>
       <c r="AI128">
-        <v>22830</v>
+        <v>11575</v>
       </c>
       <c r="AJ128">
-        <v>7490</v>
+        <v>1017</v>
       </c>
       <c r="AK128">
-        <v>16431</v>
+        <v>45016</v>
       </c>
       <c r="AL128">
         <v>6322</v>
@@ -18709,22 +18427,22 @@
         <v>3106</v>
       </c>
       <c r="AF129">
-        <v>4953</v>
+        <v>9689</v>
       </c>
       <c r="AG129">
-        <v>3820</v>
+        <v>6811</v>
       </c>
       <c r="AH129">
-        <v>2260</v>
+        <v>2878</v>
       </c>
       <c r="AI129">
-        <v>21396</v>
+        <v>11296</v>
       </c>
       <c r="AJ129">
-        <v>7694</v>
+        <v>953</v>
       </c>
       <c r="AK129">
-        <v>19688</v>
+        <v>46706</v>
       </c>
       <c r="AL129">
         <v>6478</v>
@@ -18885,22 +18603,22 @@
         <v>3146</v>
       </c>
       <c r="AF130">
-        <v>5308</v>
+        <v>10002</v>
       </c>
       <c r="AG130">
-        <v>3898</v>
+        <v>7079</v>
       </c>
       <c r="AH130">
-        <v>2489</v>
+        <v>2923</v>
       </c>
       <c r="AI130">
-        <v>21676</v>
+        <v>10698</v>
       </c>
       <c r="AJ130">
-        <v>7207</v>
+        <v>940</v>
       </c>
       <c r="AK130">
-        <v>22552</v>
+        <v>46943</v>
       </c>
       <c r="AL130">
         <v>6379</v>
@@ -19061,22 +18779,22 @@
         <v>3190</v>
       </c>
       <c r="AF131">
-        <v>4490</v>
+        <v>10083</v>
       </c>
       <c r="AG131">
-        <v>3972</v>
+        <v>7170</v>
       </c>
       <c r="AH131">
-        <v>2512</v>
+        <v>2913</v>
       </c>
       <c r="AI131">
-        <v>21631</v>
+        <v>11188</v>
       </c>
       <c r="AJ131">
-        <v>7366</v>
+        <v>930</v>
       </c>
       <c r="AK131">
-        <v>19705</v>
+        <v>46338</v>
       </c>
       <c r="AL131">
         <v>6353</v>
@@ -19237,22 +18955,22 @@
         <v>3212</v>
       </c>
       <c r="AF132">
-        <v>5408</v>
+        <v>10410</v>
       </c>
       <c r="AG132">
-        <v>4269</v>
+        <v>7415</v>
       </c>
       <c r="AH132">
-        <v>2507</v>
+        <v>2995</v>
       </c>
       <c r="AI132">
-        <v>23344</v>
+        <v>11726</v>
       </c>
       <c r="AJ132">
-        <v>7422</v>
+        <v>977</v>
       </c>
       <c r="AK132">
-        <v>21533</v>
+        <v>45740</v>
       </c>
       <c r="AL132">
         <v>6405</v>
@@ -19413,22 +19131,22 @@
         <v>3300</v>
       </c>
       <c r="AF133">
-        <v>6211</v>
+        <v>10405</v>
       </c>
       <c r="AG133">
-        <v>3936</v>
+        <v>7352</v>
       </c>
       <c r="AH133">
-        <v>2479</v>
+        <v>3053</v>
       </c>
       <c r="AI133">
-        <v>23245</v>
+        <v>12066</v>
       </c>
       <c r="AJ133">
-        <v>7696</v>
+        <v>984</v>
       </c>
       <c r="AK133">
-        <v>18883</v>
+        <v>43566</v>
       </c>
       <c r="AL133">
         <v>6370</v>
@@ -19589,22 +19307,22 @@
         <v>3371</v>
       </c>
       <c r="AF134">
-        <v>6117</v>
+        <v>10569</v>
       </c>
       <c r="AG134">
-        <v>4205</v>
+        <v>7425</v>
       </c>
       <c r="AH134">
-        <v>2824</v>
+        <v>3144</v>
       </c>
       <c r="AI134">
-        <v>22663</v>
+        <v>11402</v>
       </c>
       <c r="AJ134">
-        <v>7560</v>
+        <v>949</v>
       </c>
       <c r="AK134">
-        <v>21427</v>
+        <v>43615</v>
       </c>
       <c r="AL134">
         <v>6334</v>
@@ -19765,22 +19483,22 @@
         <v>3487</v>
       </c>
       <c r="AF135">
-        <v>4810</v>
+        <v>10471</v>
       </c>
       <c r="AG135">
-        <v>5156</v>
+        <v>7367</v>
       </c>
       <c r="AH135">
-        <v>2822</v>
+        <v>3104</v>
       </c>
       <c r="AI135">
-        <v>23733</v>
+        <v>10586</v>
       </c>
       <c r="AJ135">
-        <v>7700</v>
+        <v>853</v>
       </c>
       <c r="AK135">
-        <v>20688</v>
+        <v>45585</v>
       </c>
       <c r="AL135">
         <v>6583</v>
@@ -19887,22 +19605,22 @@
         <v>3498</v>
       </c>
       <c r="AF136">
-        <v>5520</v>
+        <v>10457</v>
       </c>
       <c r="AG136">
-        <v>4954</v>
+        <v>7288</v>
       </c>
       <c r="AH136">
-        <v>2664</v>
+        <v>3169</v>
       </c>
       <c r="AI136">
-        <v>22798</v>
+        <v>10759</v>
       </c>
       <c r="AJ136">
-        <v>7080</v>
+        <v>865</v>
       </c>
       <c r="AK136">
-        <v>20552</v>
+        <v>46389</v>
       </c>
       <c r="AL136">
         <v>6666</v>
@@ -20009,22 +19727,22 @@
         <v>3535</v>
       </c>
       <c r="AF137">
-        <v>4881</v>
+        <v>10632</v>
       </c>
       <c r="AG137">
-        <v>4869</v>
+        <v>7416</v>
       </c>
       <c r="AH137">
-        <v>2783</v>
+        <v>3216</v>
       </c>
       <c r="AI137">
-        <v>23969</v>
+        <v>10479</v>
       </c>
       <c r="AJ137">
-        <v>7800</v>
+        <v>896</v>
       </c>
       <c r="AK137">
-        <v>19201</v>
+        <v>46216</v>
       </c>
       <c r="AL137">
         <v>6693</v>
@@ -20131,22 +19849,22 @@
         <v>3731</v>
       </c>
       <c r="AF138">
-        <v>5642</v>
+        <v>10658</v>
       </c>
       <c r="AG138">
-        <v>4622</v>
+        <v>7395</v>
       </c>
       <c r="AH138">
-        <v>2402</v>
+        <v>3263</v>
       </c>
       <c r="AI138">
-        <v>22622</v>
+        <v>10831</v>
       </c>
       <c r="AJ138">
-        <v>7198</v>
+        <v>966</v>
       </c>
       <c r="AK138">
-        <v>19134</v>
+        <v>46495</v>
       </c>
       <c r="AL138">
         <v>6658</v>
@@ -20253,22 +19971,22 @@
         <v>3746</v>
       </c>
       <c r="AF139">
-        <v>5776</v>
+        <v>10592</v>
       </c>
       <c r="AG139">
-        <v>4350</v>
+        <v>7180</v>
       </c>
       <c r="AH139">
-        <v>2699</v>
+        <v>3412</v>
       </c>
       <c r="AI139">
-        <v>23411</v>
+        <v>11072</v>
       </c>
       <c r="AJ139">
-        <v>7648</v>
+        <v>943</v>
       </c>
       <c r="AK139">
-        <v>21542</v>
+        <v>44709</v>
       </c>
       <c r="AL139">
         <v>6661</v>
@@ -20375,22 +20093,22 @@
         <v>3781</v>
       </c>
       <c r="AF140">
-        <v>6087</v>
+        <v>10569</v>
       </c>
       <c r="AG140">
-        <v>4991</v>
+        <v>7372</v>
       </c>
       <c r="AH140">
-        <v>2888</v>
+        <v>3197</v>
       </c>
       <c r="AI140">
-        <v>22604</v>
+        <v>11167</v>
       </c>
       <c r="AJ140">
-        <v>7326</v>
+        <v>1004</v>
       </c>
       <c r="AK140">
-        <v>20093</v>
+        <v>43479</v>
       </c>
       <c r="AL140">
         <v>6633</v>
@@ -20473,22 +20191,22 @@
         <v>10848</v>
       </c>
       <c r="AF141">
-        <v>6068</v>
+        <v>10848</v>
       </c>
       <c r="AG141">
-        <v>4701</v>
+        <v>7567</v>
       </c>
       <c r="AH141">
-        <v>2811</v>
+        <v>3281</v>
       </c>
       <c r="AI141">
-        <v>22294</v>
+        <v>11461</v>
       </c>
       <c r="AJ141">
-        <v>7543</v>
+        <v>1088</v>
       </c>
       <c r="AK141">
-        <v>21265</v>
+        <v>43802</v>
       </c>
       <c r="AL141">
         <v>6654</v>
@@ -20595,22 +20313,22 @@
         <v>3987</v>
       </c>
       <c r="AF142">
-        <v>6149</v>
+        <v>10893</v>
       </c>
       <c r="AG142">
-        <v>5074</v>
+        <v>7564</v>
       </c>
       <c r="AH142">
-        <v>2704</v>
+        <v>3329</v>
       </c>
       <c r="AI142">
-        <v>24411</v>
+        <v>10520</v>
       </c>
       <c r="AJ142">
-        <v>7421</v>
+        <v>1031</v>
       </c>
       <c r="AK142">
-        <v>18985</v>
+        <v>45635</v>
       </c>
       <c r="AL142">
         <v>6794</v>
@@ -20726,22 +20444,22 @@
         <v>4440</v>
       </c>
       <c r="AF143">
-        <v>5578</v>
+        <v>8858</v>
       </c>
       <c r="AG143">
-        <v>4389</v>
+        <v>5698</v>
       </c>
       <c r="AH143">
-        <v>2833</v>
+        <v>3160</v>
       </c>
       <c r="AI143">
-        <v>23230</v>
+        <v>13476</v>
       </c>
       <c r="AJ143">
-        <v>8490</v>
+        <v>1267</v>
       </c>
       <c r="AK143">
-        <v>18371</v>
+        <v>36109</v>
       </c>
       <c r="AL143">
         <v>3758</v>
@@ -20848,22 +20566,22 @@
         <v>4677</v>
       </c>
       <c r="AF144">
-        <v>6819</v>
+        <v>10036</v>
       </c>
       <c r="AG144">
-        <v>5005</v>
+        <v>6808</v>
       </c>
       <c r="AH144">
-        <v>3203</v>
+        <v>3228</v>
       </c>
       <c r="AI144">
-        <v>23305</v>
+        <v>14441</v>
       </c>
       <c r="AJ144">
-        <v>8149</v>
+        <v>1396</v>
       </c>
       <c r="AK144">
-        <v>21375</v>
+        <v>44728</v>
       </c>
       <c r="AL144">
         <v>6552</v>
@@ -20970,22 +20688,22 @@
         <v>5011</v>
       </c>
       <c r="AF145">
-        <v>6619</v>
+        <v>9827</v>
       </c>
       <c r="AG145">
-        <v>5275</v>
+        <v>6647</v>
       </c>
       <c r="AH145">
-        <v>3466</v>
+        <v>3180</v>
       </c>
       <c r="AI145">
-        <v>23988</v>
+        <v>13837</v>
       </c>
       <c r="AJ145">
-        <v>8136</v>
+        <v>1261</v>
       </c>
       <c r="AK145">
-        <v>22689</v>
+        <v>47982</v>
       </c>
       <c r="AL145">
         <v>6932</v>
@@ -21089,22 +20807,22 @@
         <v>5201</v>
       </c>
       <c r="AF146">
-        <v>7429</v>
+        <v>10075</v>
       </c>
       <c r="AG146">
-        <v>4976</v>
+        <v>6849</v>
       </c>
       <c r="AH146">
-        <v>3463</v>
+        <v>3209</v>
       </c>
       <c r="AI146">
-        <v>24608</v>
+        <v>11443</v>
       </c>
       <c r="AJ146">
-        <v>7823</v>
+        <v>1243</v>
       </c>
       <c r="AK146">
-        <v>26080</v>
+        <v>23089</v>
       </c>
       <c r="AL146">
         <v>7225</v>
@@ -21211,22 +20929,22 @@
         <v>5257</v>
       </c>
       <c r="AF147">
-        <v>7050</v>
+        <v>9794</v>
       </c>
       <c r="AG147">
-        <v>5578</v>
+        <v>6424</v>
       </c>
       <c r="AH147">
-        <v>3104</v>
+        <v>3352</v>
       </c>
       <c r="AI147">
-        <v>24823</v>
+        <v>12279</v>
       </c>
       <c r="AJ147">
-        <v>7454</v>
+        <v>1353</v>
       </c>
       <c r="AK147">
-        <v>22680</v>
+        <v>41548</v>
       </c>
       <c r="AL147">
         <v>6989</v>
@@ -21324,22 +21042,22 @@
         <v>5544</v>
       </c>
       <c r="AF148">
-        <v>6756</v>
+        <v>9593</v>
       </c>
       <c r="AG148">
-        <v>5549</v>
+        <v>6457</v>
       </c>
       <c r="AH148">
-        <v>3019</v>
+        <v>3136</v>
       </c>
       <c r="AI148">
-        <v>25912</v>
+        <v>13444</v>
       </c>
       <c r="AJ148">
-        <v>7563</v>
+        <v>1348</v>
       </c>
       <c r="AK148">
-        <v>21252</v>
+        <v>45221</v>
       </c>
       <c r="AL148">
         <v>7319</v>
@@ -21413,22 +21131,22 @@
         <v>9595</v>
       </c>
       <c r="AF149">
-        <v>7211</v>
+        <v>9595</v>
       </c>
       <c r="AG149">
-        <v>4496</v>
+        <v>6508</v>
       </c>
       <c r="AH149">
-        <v>3204</v>
+        <v>3087</v>
       </c>
       <c r="AI149">
-        <v>25305</v>
+        <v>12201</v>
       </c>
       <c r="AJ149">
-        <v>7791</v>
+        <v>1362</v>
       </c>
       <c r="AK149">
-        <v>19873</v>
+        <v>42902</v>
       </c>
       <c r="AL149">
         <v>7418</v>
@@ -21493,22 +21211,22 @@
         <v>9296</v>
       </c>
       <c r="AF150">
-        <v>7364</v>
+        <v>9296</v>
       </c>
       <c r="AG150">
-        <v>5503</v>
+        <v>6141</v>
       </c>
       <c r="AH150">
-        <v>3126</v>
+        <v>3036</v>
       </c>
       <c r="AI150">
-        <v>25475</v>
+        <v>10906</v>
       </c>
       <c r="AJ150">
-        <v>7651</v>
+        <v>1080</v>
       </c>
       <c r="AK150">
-        <v>19378</v>
+        <v>43593</v>
       </c>
       <c r="AL150">
         <v>6893</v>
@@ -21517,13 +21235,13 @@
         <v>6195</v>
       </c>
       <c r="BF150">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="BG150">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="BH150">
-        <v>92.67</v>
+        <v>84.73</v>
       </c>
       <c r="BI150">
         <v>29677668</v>
@@ -21582,22 +21300,22 @@
         <v>9336</v>
       </c>
       <c r="AF151">
-        <v>7554</v>
+        <v>9336</v>
       </c>
       <c r="AG151">
-        <v>4362</v>
+        <v>6165</v>
       </c>
       <c r="AH151">
-        <v>3174</v>
+        <v>3117</v>
       </c>
       <c r="AI151">
-        <v>25143</v>
+        <v>11412</v>
       </c>
       <c r="AJ151">
-        <v>7090</v>
+        <v>1112</v>
       </c>
       <c r="AK151">
-        <v>24760</v>
+        <v>34808</v>
       </c>
       <c r="AL151">
         <v>6898</v>
@@ -21644,22 +21362,22 @@
         <v>8969</v>
       </c>
       <c r="AF152">
-        <v>6163</v>
+        <v>8969</v>
       </c>
       <c r="AG152">
-        <v>5007</v>
+        <v>5794</v>
       </c>
       <c r="AH152">
-        <v>3553</v>
+        <v>3115</v>
       </c>
       <c r="AI152">
-        <v>25310</v>
+        <v>11674</v>
       </c>
       <c r="AJ152">
-        <v>7314</v>
+        <v>1170</v>
       </c>
       <c r="AK152">
-        <v>21894</v>
+        <v>43105</v>
       </c>
       <c r="AL152">
         <v>6169</v>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI153"/>
+  <dimension ref="A1:BI154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16589,10 +16589,10 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E119">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F119">
         <v>1578667</v>
@@ -16762,10 +16762,10 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="E120">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F120">
         <v>1612583</v>
@@ -16935,7 +16935,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="E121">
         <v>91</v>
@@ -17111,10 +17111,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3371</v>
+        <v>3377</v>
       </c>
       <c r="E122">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17287,7 +17287,7 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3496</v>
+        <v>3502</v>
       </c>
       <c r="E123">
         <v>125</v>
@@ -17463,10 +17463,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3626</v>
+        <v>3633</v>
       </c>
       <c r="E124">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17639,7 +17639,7 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3738</v>
+        <v>3745</v>
       </c>
       <c r="E125">
         <v>112</v>
@@ -17815,10 +17815,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3865</v>
+        <v>3874</v>
       </c>
       <c r="E126">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -17991,10 +17991,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4006</v>
+        <v>4017</v>
       </c>
       <c r="E127">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18167,10 +18167,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4166</v>
+        <v>4183</v>
       </c>
       <c r="E128">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18343,10 +18343,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4319</v>
+        <v>4339</v>
       </c>
       <c r="E129">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18519,10 +18519,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4485</v>
+        <v>4509</v>
       </c>
       <c r="E130">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18695,10 +18695,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4650</v>
+        <v>4680</v>
       </c>
       <c r="E131">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -18871,10 +18871,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4834</v>
+        <v>4866</v>
       </c>
       <c r="E132">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -19047,10 +19047,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5008</v>
+        <v>5044</v>
       </c>
       <c r="E133">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19223,10 +19223,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5205</v>
+        <v>5244</v>
       </c>
       <c r="E134">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19399,10 +19399,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5389</v>
+        <v>5436</v>
       </c>
       <c r="E135">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19521,10 +19521,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5566</v>
+        <v>5619</v>
       </c>
       <c r="E136">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19643,10 +19643,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5634</v>
+        <v>5705</v>
       </c>
       <c r="E137">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19765,10 +19765,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>5683</v>
+        <v>5751</v>
       </c>
       <c r="E138">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -19887,10 +19887,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>5787</v>
+        <v>5876</v>
       </c>
       <c r="E139">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20009,10 +20009,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6032</v>
+        <v>6042</v>
       </c>
       <c r="E140">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20131,7 +20131,7 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6115</v>
+        <v>6125</v>
       </c>
       <c r="E141">
         <v>83</v>
@@ -20229,10 +20229,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6190</v>
+        <v>6246</v>
       </c>
       <c r="E142">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20360,10 +20360,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6270</v>
+        <v>6376</v>
       </c>
       <c r="E143">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20482,10 +20482,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>6336</v>
+        <v>6428</v>
       </c>
       <c r="E144">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20604,10 +20604,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>6392</v>
+        <v>6526</v>
       </c>
       <c r="E145">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20723,10 +20723,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>6447</v>
+        <v>6558</v>
       </c>
       <c r="E146">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20845,10 +20845,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>6470</v>
+        <v>6594</v>
       </c>
       <c r="E147">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -20976,10 +20976,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>6488</v>
+        <v>6621</v>
       </c>
       <c r="E148">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21089,10 +21089,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>6495</v>
+        <v>6651</v>
       </c>
       <c r="E149">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21169,10 +21169,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>6497</v>
+        <v>6656</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21258,7 +21258,7 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>6497</v>
+        <v>6656</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -21338,25 +21338,43 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>6497</v>
+        <v>6656</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2848974</v>
+        <v>2900992</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>52018</v>
       </c>
       <c r="H152">
-        <v>161680</v>
+        <v>146073</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>-15607</v>
+      </c>
+      <c r="P152">
+        <v>3786548</v>
+      </c>
+      <c r="Q152">
+        <v>242418</v>
       </c>
       <c r="R152">
         <v>4028966</v>
+      </c>
+      <c r="S152">
+        <v>0.1312</v>
+      </c>
+      <c r="T152">
+        <v>59510</v>
+      </c>
+      <c r="U152">
+        <v>1126</v>
+      </c>
+      <c r="V152">
+        <v>60637</v>
       </c>
       <c r="W152">
         <v>8969</v>
@@ -21394,33 +21412,140 @@
         <v>44045</v>
       </c>
       <c r="B153">
-        <v>430485</v>
+        <v>436711</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="D153">
-        <v>6497</v>
+        <v>6656</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>2848974</v>
+        <v>3001635</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>100643</v>
       </c>
       <c r="H153">
-        <v>161680</v>
+        <v>147261</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1188</v>
+      </c>
+      <c r="P153">
+        <v>3834586</v>
+      </c>
+      <c r="Q153">
+        <v>243777</v>
+      </c>
+      <c r="R153">
+        <v>4078363</v>
+      </c>
+      <c r="S153">
+        <v>0.1357023840041</v>
+      </c>
+      <c r="T153">
+        <v>57958</v>
+      </c>
+      <c r="U153">
+        <v>1140</v>
+      </c>
+      <c r="V153">
+        <v>59098</v>
+      </c>
+      <c r="W153">
+        <v>8610</v>
+      </c>
+      <c r="AF153">
+        <v>8610</v>
+      </c>
+      <c r="AG153">
+        <v>5534</v>
+      </c>
+      <c r="AH153">
+        <v>3014</v>
+      </c>
+      <c r="AI153">
+        <v>12126</v>
+      </c>
+      <c r="AJ153">
+        <v>1227</v>
+      </c>
+      <c r="AK153">
+        <v>41667</v>
+      </c>
+      <c r="AL153">
+        <v>6201</v>
       </c>
       <c r="AM153">
         <v>6457</v>
       </c>
       <c r="BI153">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B154">
+        <v>442014</v>
+      </c>
+      <c r="C154">
+        <v>5303</v>
+      </c>
+      <c r="D154">
+        <v>6656</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>3001635</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>147261</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>4143342</v>
+      </c>
+      <c r="W154">
+        <v>8819</v>
+      </c>
+      <c r="AF154">
+        <v>8819</v>
+      </c>
+      <c r="AG154">
+        <v>5714</v>
+      </c>
+      <c r="AH154">
+        <v>3045</v>
+      </c>
+      <c r="AI154">
+        <v>11916</v>
+      </c>
+      <c r="AJ154">
+        <v>1101</v>
+      </c>
+      <c r="AK154">
+        <v>40284</v>
+      </c>
+      <c r="AL154">
+        <v>6968</v>
+      </c>
+      <c r="AM154">
+        <v>6563</v>
+      </c>
+      <c r="BI154">
         <v>29677668</v>
       </c>
     </row>
@@ -21497,38 +21622,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>282604.40000000002</t>
+          <t>297421.59999999998</t>
         </is>
       </c>
       <c r="B2">
-        <v>141044</v>
+        <v>137576</v>
       </c>
       <c r="C2">
-        <v>118140</v>
+        <v>118496</v>
       </c>
       <c r="D2">
-        <v>3910826</v>
+        <v>4024846</v>
       </c>
       <c r="E2">
-        <v>11812</v>
+        <v>12054</v>
       </c>
       <c r="F2">
-        <v>54779</v>
+        <v>52200</v>
       </c>
       <c r="G2">
-        <v>11674</v>
+        <v>11916</v>
       </c>
       <c r="H2">
-        <v>1170</v>
+        <v>1101</v>
       </c>
       <c r="I2">
-        <v>6457</v>
+        <v>6563</v>
       </c>
       <c r="J2">
-        <v>36446</v>
+        <v>36574</v>
       </c>
       <c r="K2">
-        <v>6837</v>
+        <v>7016</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI154"/>
+  <dimension ref="A1:BI155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,17 +653,17 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>HHS_fac_reporting</t>
+          <t>HHS_reporting_hospitals</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>HHS_definitive_fac</t>
+          <t>HHS_total_hospitals</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>HHS_pct_fac_reporting_def</t>
+          <t>HHS_percent_reporting</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
@@ -989,7 +989,7 @@
         <v>43897</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>43898</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>43904</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>56</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -7692,7 +7692,7 @@
         <v>30</v>
       </c>
       <c r="F64">
-        <v>272725</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>292037</v>
       </c>
       <c r="G65">
-        <v>19312</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>19318</v>
@@ -10281,7 +10281,7 @@
         <v>15</v>
       </c>
       <c r="F82">
-        <v>660292</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>693081</v>
       </c>
       <c r="G83">
-        <v>32789</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>27045</v>
@@ -11963,7 +11963,7 @@
         <v>1117274</v>
       </c>
       <c r="S92">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92">
         <v>21585</v>
@@ -12091,10 +12091,10 @@
         <v>1703</v>
       </c>
       <c r="D93">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="E93">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F93">
         <v>899228</v>
@@ -12136,7 +12136,7 @@
         <v>1150868</v>
       </c>
       <c r="S93">
-        <v>0.0626</v>
+        <v>0.06259941815807001</v>
       </c>
       <c r="T93">
         <v>23620</v>
@@ -12264,7 +12264,7 @@
         <v>1649</v>
       </c>
       <c r="D94">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -12309,7 +12309,7 @@
         <v>1174948</v>
       </c>
       <c r="S94">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94">
         <v>24043</v>
@@ -12437,7 +12437,7 @@
         <v>1693</v>
       </c>
       <c r="D95">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -12482,7 +12482,7 @@
         <v>1209187</v>
       </c>
       <c r="S95">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95">
         <v>23537</v>
@@ -12610,7 +12610,7 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="E96">
         <v>32</v>
@@ -12655,7 +12655,7 @@
         <v>1218955</v>
       </c>
       <c r="S96">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96">
         <v>20021</v>
@@ -12783,7 +12783,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -12956,7 +12956,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13001,7 +13001,7 @@
         <v>1286139</v>
       </c>
       <c r="S98">
-        <v>0.06660000000000001</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98">
         <v>23019</v>
@@ -13129,7 +13129,7 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E99">
         <v>33</v>
@@ -13174,7 +13174,7 @@
         <v>1302049</v>
       </c>
       <c r="S99">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99">
         <v>22046</v>
@@ -13302,13 +13302,13 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="E100">
         <v>22</v>
       </c>
       <c r="F100">
-        <v>1051218</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -13347,7 +13347,7 @@
         <v>1348893</v>
       </c>
       <c r="S100">
-        <v>0.06850000000000001</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100">
         <v>23966</v>
@@ -13475,7 +13475,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -13484,7 +13484,7 @@
         <v>1070849</v>
       </c>
       <c r="G101">
-        <v>19631</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>33639</v>
@@ -13520,7 +13520,7 @@
         <v>1370131</v>
       </c>
       <c r="S101">
-        <v>0.07049999999999999</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101">
         <v>23626</v>
@@ -13648,7 +13648,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13693,7 +13693,7 @@
         <v>1404369</v>
       </c>
       <c r="S102">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102">
         <v>23863</v>
@@ -13821,7 +13821,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -13866,7 +13866,7 @@
         <v>1442950</v>
       </c>
       <c r="S103">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103">
         <v>29139</v>
@@ -13994,7 +13994,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14167,7 +14167,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -14212,7 +14212,7 @@
         <v>1499015</v>
       </c>
       <c r="S105">
-        <v>0.06710000000000001</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105">
         <v>28727</v>
@@ -14340,7 +14340,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14385,7 +14385,7 @@
         <v>1522434</v>
       </c>
       <c r="S106">
-        <v>0.0694</v>
+        <v>0.06941707304208999</v>
       </c>
       <c r="T106">
         <v>29793</v>
@@ -14513,7 +14513,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="E107">
         <v>37</v>
@@ -14558,7 +14558,7 @@
         <v>1560537</v>
       </c>
       <c r="S107">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107">
         <v>28774</v>
@@ -14686,7 +14686,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -14859,7 +14859,7 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -14904,7 +14904,7 @@
         <v>1622851</v>
       </c>
       <c r="S109">
-        <v>0.08939999999999999</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109">
         <v>29011</v>
@@ -15032,7 +15032,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15077,7 +15077,7 @@
         <v>1690124</v>
       </c>
       <c r="S110">
-        <v>0.088</v>
+        <v>0.08795944343323001</v>
       </c>
       <c r="T110">
         <v>32885</v>
@@ -15205,10 +15205,10 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="E111">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F111">
         <v>1313265</v>
@@ -15378,7 +15378,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15423,7 +15423,7 @@
         <v>1767701</v>
       </c>
       <c r="S112">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112">
         <v>35550</v>
@@ -15551,13 +15551,13 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113">
-        <v>1350920</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -15596,7 +15596,7 @@
         <v>1805642</v>
       </c>
       <c r="S113">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T113">
         <v>37231</v>
@@ -15724,7 +15724,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -15733,7 +15733,7 @@
         <v>1399304</v>
       </c>
       <c r="G114">
-        <v>48384</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>58304</v>
@@ -15769,7 +15769,7 @@
         <v>1836037</v>
       </c>
       <c r="S114">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114">
         <v>35943</v>
@@ -15897,7 +15897,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="E115">
         <v>58</v>
@@ -15942,7 +15942,7 @@
         <v>1875197</v>
       </c>
       <c r="S115">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115">
         <v>39060</v>
@@ -16070,7 +16070,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="E116">
         <v>67</v>
@@ -16115,7 +16115,7 @@
         <v>1903661</v>
       </c>
       <c r="S116">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116">
         <v>37061</v>
@@ -16243,10 +16243,10 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="E117">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F117">
         <v>1492340</v>
@@ -16288,7 +16288,7 @@
         <v>1959617</v>
       </c>
       <c r="S117">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117">
         <v>35577</v>
@@ -16416,7 +16416,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="E118">
         <v>86</v>
@@ -16461,7 +16461,7 @@
         <v>2006724</v>
       </c>
       <c r="S118">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118">
         <v>38597</v>
@@ -16589,7 +16589,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16634,7 +16634,7 @@
         <v>2061939</v>
       </c>
       <c r="S119">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119">
         <v>38856</v>
@@ -16762,7 +16762,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="E120">
         <v>87</v>
@@ -16807,7 +16807,7 @@
         <v>2119036</v>
       </c>
       <c r="S120">
-        <v>0.1358</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T120">
         <v>41670</v>
@@ -16935,7 +16935,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="E121">
         <v>91</v>
@@ -16980,7 +16980,7 @@
         <v>2174548</v>
       </c>
       <c r="S121">
-        <v>0.1332</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T121">
         <v>45209</v>
@@ -17111,10 +17111,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3377</v>
+        <v>3381</v>
       </c>
       <c r="E122">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17156,7 +17156,7 @@
         <v>2212947</v>
       </c>
       <c r="S122">
-        <v>0.1392</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T122">
         <v>45225</v>
@@ -17287,10 +17287,10 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3502</v>
+        <v>3507</v>
       </c>
       <c r="E123">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F123">
         <v>1741722</v>
@@ -17332,7 +17332,7 @@
         <v>2273591</v>
       </c>
       <c r="S123">
-        <v>0.1315</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T123">
         <v>49855</v>
@@ -17463,7 +17463,7 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3633</v>
+        <v>3638</v>
       </c>
       <c r="E124">
         <v>131</v>
@@ -17508,7 +17508,7 @@
         <v>2338098</v>
       </c>
       <c r="S124">
-        <v>0.1352</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T124">
         <v>51177</v>
@@ -17639,10 +17639,10 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3745</v>
+        <v>3752</v>
       </c>
       <c r="E125">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F125">
         <v>1829966</v>
@@ -17684,7 +17684,7 @@
         <v>2371709</v>
       </c>
       <c r="S125">
-        <v>0.135</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T125">
         <v>49220</v>
@@ -17815,10 +17815,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3874</v>
+        <v>3883</v>
       </c>
       <c r="E126">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -17860,7 +17860,7 @@
         <v>2431861</v>
       </c>
       <c r="S126">
-        <v>0.1351</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T126">
         <v>50286</v>
@@ -17991,10 +17991,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4017</v>
+        <v>4027</v>
       </c>
       <c r="E127">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18036,7 +18036,7 @@
         <v>2471029</v>
       </c>
       <c r="S127">
-        <v>0.1503</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="T127">
         <v>48109</v>
@@ -18167,10 +18167,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4183</v>
+        <v>4195</v>
       </c>
       <c r="E128">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18212,7 +18212,7 @@
         <v>2526940</v>
       </c>
       <c r="S128">
-        <v>0.1556</v>
+        <v>0.15560343677851</v>
       </c>
       <c r="T128">
         <v>48201</v>
@@ -18343,10 +18343,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4339</v>
+        <v>4352</v>
       </c>
       <c r="E129">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18388,7 +18388,7 @@
         <v>2603903</v>
       </c>
       <c r="S129">
-        <v>0.1446</v>
+        <v>0.14464341297691</v>
       </c>
       <c r="T129">
         <v>53698</v>
@@ -18519,10 +18519,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4509</v>
+        <v>4524</v>
       </c>
       <c r="E130">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18564,7 +18564,7 @@
         <v>2644496</v>
       </c>
       <c r="S130">
-        <v>0.1581</v>
+        <v>0.15812361136341</v>
       </c>
       <c r="T130">
         <v>51116</v>
@@ -18695,10 +18695,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4680</v>
+        <v>4698</v>
       </c>
       <c r="E131">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -18740,7 +18740,7 @@
         <v>2710290</v>
       </c>
       <c r="S131">
-        <v>0.1633</v>
+        <v>0.16329665986635</v>
       </c>
       <c r="T131">
         <v>51328</v>
@@ -18871,10 +18871,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4866</v>
+        <v>4888</v>
       </c>
       <c r="E132">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -18916,7 +18916,7 @@
         <v>2757859</v>
       </c>
       <c r="S132">
-        <v>0.1685</v>
+        <v>0.16849010085123</v>
       </c>
       <c r="T132">
         <v>53771</v>
@@ -19047,10 +19047,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5044</v>
+        <v>5072</v>
       </c>
       <c r="E133">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19092,7 +19092,7 @@
         <v>2820803</v>
       </c>
       <c r="S133">
-        <v>0.1689</v>
+        <v>0.16893795062442</v>
       </c>
       <c r="T133">
         <v>53913</v>
@@ -19223,10 +19223,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5244</v>
+        <v>5277</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19268,7 +19268,7 @@
         <v>2864541</v>
       </c>
       <c r="S134">
-        <v>0.1681</v>
+        <v>0.16812128576681</v>
       </c>
       <c r="T134">
         <v>54784</v>
@@ -19399,10 +19399,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5436</v>
+        <v>5474</v>
       </c>
       <c r="E135">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19444,7 +19444,7 @@
         <v>2924288</v>
       </c>
       <c r="S135">
-        <v>0.1689</v>
+        <v>0.16885085207802</v>
       </c>
       <c r="T135">
         <v>55235</v>
@@ -19521,10 +19521,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5619</v>
+        <v>5666</v>
       </c>
       <c r="E136">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19566,7 +19566,7 @@
         <v>2992102</v>
       </c>
       <c r="S136">
-        <v>0.1743</v>
+        <v>0.17427396882913</v>
       </c>
       <c r="T136">
         <v>53933</v>
@@ -19643,10 +19643,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5705</v>
+        <v>5837</v>
       </c>
       <c r="E137">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19688,7 +19688,7 @@
         <v>3067620</v>
       </c>
       <c r="S137">
-        <v>0.1605</v>
+        <v>0.16047266626479</v>
       </c>
       <c r="T137">
         <v>59009</v>
@@ -19765,10 +19765,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>5751</v>
+        <v>5983</v>
       </c>
       <c r="E138">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -19810,7 +19810,7 @@
         <v>3153623</v>
       </c>
       <c r="S138">
-        <v>0.1503</v>
+        <v>0.15034234890016</v>
       </c>
       <c r="T138">
         <v>62801</v>
@@ -19887,10 +19887,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>5876</v>
+        <v>6151</v>
       </c>
       <c r="E139">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -19932,7 +19932,7 @@
         <v>3207857</v>
       </c>
       <c r="S139">
-        <v>0.1467</v>
+        <v>0.14669609768939</v>
       </c>
       <c r="T139">
         <v>63490</v>
@@ -20009,10 +20009,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6042</v>
+        <v>6331</v>
       </c>
       <c r="E140">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20054,7 +20054,7 @@
         <v>3269897</v>
       </c>
       <c r="S140">
-        <v>0.1505</v>
+        <v>0.15047404550297</v>
       </c>
       <c r="T140">
         <v>63556</v>
@@ -20131,10 +20131,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6125</v>
+        <v>6487</v>
       </c>
       <c r="E141">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20176,7 +20176,7 @@
         <v>3331844</v>
       </c>
       <c r="S141">
-        <v>0.1418</v>
+        <v>0.14180136768345</v>
       </c>
       <c r="T141">
         <v>65993</v>
@@ -20229,10 +20229,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6246</v>
+        <v>6648</v>
       </c>
       <c r="E142">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20274,7 +20274,7 @@
         <v>3396677</v>
       </c>
       <c r="S142">
-        <v>0.139</v>
+        <v>0.13896915023849</v>
       </c>
       <c r="T142">
         <v>66400</v>
@@ -20360,10 +20360,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6376</v>
+        <v>6792</v>
       </c>
       <c r="E143">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20405,7 +20405,7 @@
         <v>3465070</v>
       </c>
       <c r="S143">
-        <v>0.1373</v>
+        <v>0.13733884333097</v>
       </c>
       <c r="T143">
         <v>66373</v>
@@ -20482,10 +20482,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>6428</v>
+        <v>6914</v>
       </c>
       <c r="E144">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20527,7 +20527,7 @@
         <v>3539452</v>
       </c>
       <c r="S144">
-        <v>0.1344</v>
+        <v>0.13435428837808</v>
       </c>
       <c r="T144">
         <v>66194</v>
@@ -20604,10 +20604,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>6526</v>
+        <v>6991</v>
       </c>
       <c r="E145">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20723,10 +20723,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>6558</v>
+        <v>7067</v>
       </c>
       <c r="E146">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20768,7 +20768,7 @@
         <v>3664679</v>
       </c>
       <c r="S146">
-        <v>0.1322</v>
+        <v>0.13215012333231</v>
       </c>
       <c r="T146">
         <v>63475</v>
@@ -20825,7 +20825,7 @@
         <v>23089</v>
       </c>
       <c r="AL146">
-        <v>7225</v>
+        <v>4317</v>
       </c>
       <c r="AM146">
         <v>5544</v>
@@ -20845,10 +20845,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>6594</v>
+        <v>7134</v>
       </c>
       <c r="E147">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -20890,7 +20890,7 @@
         <v>3714821</v>
       </c>
       <c r="S147">
-        <v>0.1283</v>
+        <v>0.12825832118001</v>
       </c>
       <c r="T147">
         <v>61907</v>
@@ -20947,7 +20947,7 @@
         <v>41548</v>
       </c>
       <c r="AL147">
-        <v>6989</v>
+        <v>7225</v>
       </c>
       <c r="AM147">
         <v>6073</v>
@@ -20976,10 +20976,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>6621</v>
+        <v>7194</v>
       </c>
       <c r="E148">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -20993,6 +20993,24 @@
       <c r="I148">
         <v>2098</v>
       </c>
+      <c r="J148">
+        <v>-16.5150265565553</v>
+      </c>
+      <c r="K148">
+        <v>-9.987090144147429</v>
+      </c>
+      <c r="L148">
+        <v>-0.2711892738901361</v>
+      </c>
+      <c r="M148">
+        <v>-30.0777536758457</v>
+      </c>
+      <c r="N148">
+        <v>-40.5918859676484</v>
+      </c>
+      <c r="O148">
+        <v>14.45254356911702</v>
+      </c>
       <c r="P148">
         <v>3539368</v>
       </c>
@@ -21003,7 +21021,7 @@
         <v>3777263</v>
       </c>
       <c r="S148">
-        <v>0.1255</v>
+        <v>0.12549515187721</v>
       </c>
       <c r="T148">
         <v>62174</v>
@@ -21089,10 +21107,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>6651</v>
+        <v>7229</v>
       </c>
       <c r="E149">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21106,6 +21124,24 @@
       <c r="I149">
         <v>2928</v>
       </c>
+      <c r="J149">
+        <v>-14.11367162884997</v>
+      </c>
+      <c r="K149">
+        <v>-6.739877531605456</v>
+      </c>
+      <c r="L149">
+        <v>14.28892753277488</v>
+      </c>
+      <c r="M149">
+        <v>-26.45015896693403</v>
+      </c>
+      <c r="N149">
+        <v>-39.80553946748246</v>
+      </c>
+      <c r="O149">
+        <v>13.37839965977586</v>
+      </c>
       <c r="P149">
         <v>3609474</v>
       </c>
@@ -21116,7 +21152,7 @@
         <v>3849040</v>
       </c>
       <c r="S149">
-        <v>0.1209</v>
+        <v>0.12090562881898</v>
       </c>
       <c r="T149">
         <v>63545</v>
@@ -21169,10 +21205,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>6656</v>
+        <v>7244</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21186,6 +21222,24 @@
       <c r="I150">
         <v>-132</v>
       </c>
+      <c r="J150">
+        <v>-13.70090586575886</v>
+      </c>
+      <c r="K150">
+        <v>-5.702339388470691</v>
+      </c>
+      <c r="L150">
+        <v>20.14579079961497</v>
+      </c>
+      <c r="M150">
+        <v>-26.34138001065905</v>
+      </c>
+      <c r="N150">
+        <v>-40.45105931454205</v>
+      </c>
+      <c r="O150">
+        <v>12.89669508357715</v>
+      </c>
       <c r="P150">
         <v>3669752</v>
       </c>
@@ -21196,7 +21250,7 @@
         <v>3911270</v>
       </c>
       <c r="S150">
-        <v>0.1212</v>
+        <v>0.12122305691139</v>
       </c>
       <c r="T150">
         <v>62546</v>
@@ -21258,10 +21312,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>6656</v>
+        <v>7257</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21275,6 +21329,24 @@
       <c r="I151">
         <v>1749</v>
       </c>
+      <c r="J151">
+        <v>-15.74787725136722</v>
+      </c>
+      <c r="K151">
+        <v>-5.099006266626936</v>
+      </c>
+      <c r="L151">
+        <v>8.331248232347948</v>
+      </c>
+      <c r="M151">
+        <v>-23.54953996975026</v>
+      </c>
+      <c r="N151">
+        <v>-39.4720352353423</v>
+      </c>
+      <c r="O151">
+        <v>12.56435940782596</v>
+      </c>
       <c r="P151">
         <v>3747779</v>
       </c>
@@ -21285,7 +21357,7 @@
         <v>3990030</v>
       </c>
       <c r="S151">
-        <v>0.1205</v>
+        <v>0.12046081718308</v>
       </c>
       <c r="T151">
         <v>63105</v>
@@ -21338,7 +21410,7 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>6656</v>
+        <v>7257</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -21365,7 +21437,7 @@
         <v>4028966</v>
       </c>
       <c r="S152">
-        <v>0.1312</v>
+        <v>0.13116308546161</v>
       </c>
       <c r="T152">
         <v>59510</v>
@@ -21418,10 +21490,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>6656</v>
+        <v>7259</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21498,28 +21570,43 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>6656</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>3001635</v>
+        <v>3113249</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>111614</v>
       </c>
       <c r="H154">
-        <v>147261</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
+      </c>
+      <c r="P154">
+        <v>3884848</v>
+      </c>
+      <c r="Q154">
+        <v>258494</v>
       </c>
       <c r="R154">
         <v>4143342</v>
       </c>
-      <c r="W154">
-        <v>8819</v>
+      <c r="S154">
+        <v>0.13881820544124</v>
+      </c>
+      <c r="T154">
+        <v>58275</v>
+      </c>
+      <c r="U154">
+        <v>2943</v>
+      </c>
+      <c r="V154">
+        <v>61217</v>
       </c>
       <c r="AF154">
         <v>8819</v>
@@ -21546,6 +21633,74 @@
         <v>6563</v>
       </c>
       <c r="BI154">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B155">
+        <v>451181</v>
+      </c>
+      <c r="C155">
+        <v>9167</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>4178213</v>
+      </c>
+      <c r="AF155">
+        <v>8674</v>
+      </c>
+      <c r="AG155">
+        <v>5628</v>
+      </c>
+      <c r="AH155">
+        <v>3006</v>
+      </c>
+      <c r="AI155">
+        <v>12902</v>
+      </c>
+      <c r="AJ155">
+        <v>1272</v>
+      </c>
+      <c r="AK155">
+        <v>40911</v>
+      </c>
+      <c r="AL155">
+        <v>6864</v>
+      </c>
+      <c r="AM155">
+        <v>6504</v>
+      </c>
+      <c r="BF155">
+        <v>576</v>
+      </c>
+      <c r="BG155">
+        <v>605</v>
+      </c>
+      <c r="BH155">
+        <v>95.20999999999999</v>
+      </c>
+      <c r="BI155">
         <v>29677668</v>
       </c>
     </row>
@@ -21622,38 +21777,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>297421.59999999998</t>
+          <t>306261.8</t>
         </is>
       </c>
       <c r="B2">
-        <v>137576</v>
+        <v>137658</v>
       </c>
       <c r="C2">
-        <v>118496</v>
+        <v>119762</v>
       </c>
       <c r="D2">
-        <v>4024846</v>
+        <v>4058451</v>
       </c>
       <c r="E2">
-        <v>12054</v>
+        <v>13478</v>
       </c>
       <c r="F2">
-        <v>52200</v>
+        <v>53813</v>
       </c>
       <c r="G2">
-        <v>11916</v>
+        <v>12902</v>
       </c>
       <c r="H2">
-        <v>1101</v>
+        <v>1272</v>
       </c>
       <c r="I2">
-        <v>6563</v>
+        <v>6504</v>
       </c>
       <c r="J2">
-        <v>36574</v>
+        <v>36963</v>
       </c>
       <c r="K2">
-        <v>7016</v>
+        <v>7261</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI155"/>
+  <dimension ref="A1:BI156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -989,7 +989,7 @@
         <v>43897</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>43898</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>43904</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>56</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -7692,7 +7692,7 @@
         <v>30</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>272725</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>292037</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>19312</v>
       </c>
       <c r="H65">
         <v>19318</v>
@@ -10281,7 +10281,7 @@
         <v>15</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>660292</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>693081</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>32789</v>
       </c>
       <c r="H83">
         <v>27045</v>
@@ -11575,10 +11575,10 @@
         <v>1949</v>
       </c>
       <c r="D90">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90">
         <v>820912</v>
@@ -11745,7 +11745,7 @@
         <v>593</v>
       </c>
       <c r="D91">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -11918,7 +11918,7 @@
         <v>1688</v>
       </c>
       <c r="D92">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E92">
         <v>28</v>
@@ -11963,7 +11963,7 @@
         <v>1117274</v>
       </c>
       <c r="S92">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="T92">
         <v>21585</v>
@@ -12091,7 +12091,7 @@
         <v>1703</v>
       </c>
       <c r="D93">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -12136,7 +12136,7 @@
         <v>1150868</v>
       </c>
       <c r="S93">
-        <v>0.06259941815807001</v>
+        <v>0.0626</v>
       </c>
       <c r="T93">
         <v>23620</v>
@@ -12264,7 +12264,7 @@
         <v>1649</v>
       </c>
       <c r="D94">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -12309,7 +12309,7 @@
         <v>1174948</v>
       </c>
       <c r="S94">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="T94">
         <v>24043</v>
@@ -12437,7 +12437,7 @@
         <v>1693</v>
       </c>
       <c r="D95">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -12482,7 +12482,7 @@
         <v>1209187</v>
       </c>
       <c r="S95">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="T95">
         <v>23537</v>
@@ -12610,7 +12610,7 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="E96">
         <v>32</v>
@@ -12655,7 +12655,7 @@
         <v>1218955</v>
       </c>
       <c r="S96">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="T96">
         <v>20021</v>
@@ -12783,7 +12783,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -12956,7 +12956,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13001,7 +13001,7 @@
         <v>1286139</v>
       </c>
       <c r="S98">
-        <v>0.06662901614215</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="T98">
         <v>23019</v>
@@ -13129,7 +13129,7 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="E99">
         <v>33</v>
@@ -13174,7 +13174,7 @@
         <v>1302049</v>
       </c>
       <c r="S99">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="T99">
         <v>22046</v>
@@ -13302,13 +13302,13 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E100">
         <v>22</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1051218</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -13347,7 +13347,7 @@
         <v>1348893</v>
       </c>
       <c r="S100">
-        <v>0.06846481685691</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="T100">
         <v>23966</v>
@@ -13475,7 +13475,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -13484,7 +13484,7 @@
         <v>1070849</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>19631</v>
       </c>
       <c r="H101">
         <v>33639</v>
@@ -13520,7 +13520,7 @@
         <v>1370131</v>
       </c>
       <c r="S101">
-        <v>0.07052200676015</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="T101">
         <v>23626</v>
@@ -13648,7 +13648,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13693,7 +13693,7 @@
         <v>1404369</v>
       </c>
       <c r="S102">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="T102">
         <v>23863</v>
@@ -13821,7 +13821,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -13866,7 +13866,7 @@
         <v>1442950</v>
       </c>
       <c r="S103">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="T103">
         <v>29139</v>
@@ -13994,7 +13994,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14167,7 +14167,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -14212,7 +14212,7 @@
         <v>1499015</v>
       </c>
       <c r="S105">
-        <v>0.06709533684425</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="T105">
         <v>28727</v>
@@ -14340,7 +14340,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14385,7 +14385,7 @@
         <v>1522434</v>
       </c>
       <c r="S106">
-        <v>0.06941707304208999</v>
+        <v>0.0694</v>
       </c>
       <c r="T106">
         <v>29793</v>
@@ -14513,7 +14513,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="E107">
         <v>37</v>
@@ -14558,7 +14558,7 @@
         <v>1560537</v>
       </c>
       <c r="S107">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="T107">
         <v>28774</v>
@@ -14686,7 +14686,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -14859,7 +14859,7 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -14904,7 +14904,7 @@
         <v>1622851</v>
       </c>
       <c r="S109">
-        <v>0.08936916175479</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="T109">
         <v>29011</v>
@@ -15032,7 +15032,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15077,7 +15077,7 @@
         <v>1690124</v>
       </c>
       <c r="S110">
-        <v>0.08795944343323001</v>
+        <v>0.088</v>
       </c>
       <c r="T110">
         <v>32885</v>
@@ -15205,7 +15205,7 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -15378,7 +15378,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15423,7 +15423,7 @@
         <v>1767701</v>
       </c>
       <c r="S112">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="T112">
         <v>35550</v>
@@ -15551,13 +15551,13 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="E113">
         <v>40</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1350920</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -15596,7 +15596,7 @@
         <v>1805642</v>
       </c>
       <c r="S113">
-        <v>0.10422837848208</v>
+        <v>0.1042</v>
       </c>
       <c r="T113">
         <v>37231</v>
@@ -15724,7 +15724,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -15733,7 +15733,7 @@
         <v>1399304</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>48384</v>
       </c>
       <c r="H114">
         <v>58304</v>
@@ -15769,7 +15769,7 @@
         <v>1836037</v>
       </c>
       <c r="S114">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="T114">
         <v>35943</v>
@@ -15897,7 +15897,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="E115">
         <v>58</v>
@@ -15942,7 +15942,7 @@
         <v>1875197</v>
       </c>
       <c r="S115">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="T115">
         <v>39060</v>
@@ -16070,7 +16070,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="E116">
         <v>67</v>
@@ -16115,7 +16115,7 @@
         <v>1903661</v>
       </c>
       <c r="S116">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="T116">
         <v>37061</v>
@@ -16243,10 +16243,10 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="E117">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F117">
         <v>1492340</v>
@@ -16288,7 +16288,7 @@
         <v>1959617</v>
       </c>
       <c r="S117">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="T117">
         <v>35577</v>
@@ -16416,7 +16416,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="E118">
         <v>86</v>
@@ -16461,7 +16461,7 @@
         <v>2006724</v>
       </c>
       <c r="S118">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="T118">
         <v>38597</v>
@@ -16589,7 +16589,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16634,7 +16634,7 @@
         <v>2061939</v>
       </c>
       <c r="S119">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="T119">
         <v>38856</v>
@@ -16762,7 +16762,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="E120">
         <v>87</v>
@@ -16807,7 +16807,7 @@
         <v>2119036</v>
       </c>
       <c r="S120">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="T120">
         <v>41670</v>
@@ -16935,7 +16935,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="E121">
         <v>91</v>
@@ -16980,7 +16980,7 @@
         <v>2174548</v>
       </c>
       <c r="S121">
-        <v>0.13316248660981</v>
+        <v>0.1332</v>
       </c>
       <c r="T121">
         <v>45209</v>
@@ -17111,10 +17111,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="E122">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17156,7 +17156,7 @@
         <v>2212947</v>
       </c>
       <c r="S122">
-        <v>0.13917844913637</v>
+        <v>0.1392</v>
       </c>
       <c r="T122">
         <v>45225</v>
@@ -17287,7 +17287,7 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="E123">
         <v>126</v>
@@ -17332,7 +17332,7 @@
         <v>2273591</v>
       </c>
       <c r="S123">
-        <v>0.13154795505798</v>
+        <v>0.1315</v>
       </c>
       <c r="T123">
         <v>49855</v>
@@ -17463,10 +17463,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3638</v>
+        <v>3642</v>
       </c>
       <c r="E124">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17508,7 +17508,7 @@
         <v>2338098</v>
       </c>
       <c r="S124">
-        <v>0.13517270641306</v>
+        <v>0.1352</v>
       </c>
       <c r="T124">
         <v>51177</v>
@@ -17639,10 +17639,10 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3752</v>
+        <v>3759</v>
       </c>
       <c r="E125">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F125">
         <v>1829966</v>
@@ -17684,7 +17684,7 @@
         <v>2371709</v>
       </c>
       <c r="S125">
-        <v>0.13500899750392</v>
+        <v>0.135</v>
       </c>
       <c r="T125">
         <v>49220</v>
@@ -17815,7 +17815,7 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3883</v>
+        <v>3890</v>
       </c>
       <c r="E126">
         <v>131</v>
@@ -17860,7 +17860,7 @@
         <v>2431861</v>
       </c>
       <c r="S126">
-        <v>0.13507194500078</v>
+        <v>0.1351</v>
       </c>
       <c r="T126">
         <v>50286</v>
@@ -17991,10 +17991,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4027</v>
+        <v>4036</v>
       </c>
       <c r="E127">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18036,7 +18036,7 @@
         <v>2471029</v>
       </c>
       <c r="S127">
-        <v>0.15025240527379</v>
+        <v>0.1503</v>
       </c>
       <c r="T127">
         <v>48109</v>
@@ -18167,10 +18167,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4195</v>
+        <v>4206</v>
       </c>
       <c r="E128">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18212,7 +18212,7 @@
         <v>2526940</v>
       </c>
       <c r="S128">
-        <v>0.15560343677851</v>
+        <v>0.1556</v>
       </c>
       <c r="T128">
         <v>48201</v>
@@ -18343,10 +18343,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4352</v>
+        <v>4365</v>
       </c>
       <c r="E129">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18388,7 +18388,7 @@
         <v>2603903</v>
       </c>
       <c r="S129">
-        <v>0.14464341297691</v>
+        <v>0.1446</v>
       </c>
       <c r="T129">
         <v>53698</v>
@@ -18519,10 +18519,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4524</v>
+        <v>4540</v>
       </c>
       <c r="E130">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18564,7 +18564,7 @@
         <v>2644496</v>
       </c>
       <c r="S130">
-        <v>0.15812361136341</v>
+        <v>0.1581</v>
       </c>
       <c r="T130">
         <v>51116</v>
@@ -18695,10 +18695,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4698</v>
+        <v>4715</v>
       </c>
       <c r="E131">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -18740,7 +18740,7 @@
         <v>2710290</v>
       </c>
       <c r="S131">
-        <v>0.16329665986635</v>
+        <v>0.1633</v>
       </c>
       <c r="T131">
         <v>51328</v>
@@ -18871,10 +18871,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4888</v>
+        <v>4906</v>
       </c>
       <c r="E132">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -18916,7 +18916,7 @@
         <v>2757859</v>
       </c>
       <c r="S132">
-        <v>0.16849010085123</v>
+        <v>0.1685</v>
       </c>
       <c r="T132">
         <v>53771</v>
@@ -19047,10 +19047,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5072</v>
+        <v>5092</v>
       </c>
       <c r="E133">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19092,7 +19092,7 @@
         <v>2820803</v>
       </c>
       <c r="S133">
-        <v>0.16893795062442</v>
+        <v>0.1689</v>
       </c>
       <c r="T133">
         <v>53913</v>
@@ -19223,10 +19223,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5277</v>
+        <v>5301</v>
       </c>
       <c r="E134">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19268,7 +19268,7 @@
         <v>2864541</v>
       </c>
       <c r="S134">
-        <v>0.16812128576681</v>
+        <v>0.1681</v>
       </c>
       <c r="T134">
         <v>54784</v>
@@ -19399,10 +19399,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5474</v>
+        <v>5506</v>
       </c>
       <c r="E135">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19444,7 +19444,7 @@
         <v>2924288</v>
       </c>
       <c r="S135">
-        <v>0.16885085207802</v>
+        <v>0.1689</v>
       </c>
       <c r="T135">
         <v>55235</v>
@@ -19521,10 +19521,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5666</v>
+        <v>5704</v>
       </c>
       <c r="E136">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19566,7 +19566,7 @@
         <v>2992102</v>
       </c>
       <c r="S136">
-        <v>0.17427396882913</v>
+        <v>0.1743</v>
       </c>
       <c r="T136">
         <v>53933</v>
@@ -19643,10 +19643,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5837</v>
+        <v>5882</v>
       </c>
       <c r="E137">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19688,7 +19688,7 @@
         <v>3067620</v>
       </c>
       <c r="S137">
-        <v>0.16047266626479</v>
+        <v>0.1605</v>
       </c>
       <c r="T137">
         <v>59009</v>
@@ -19765,10 +19765,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>5983</v>
+        <v>6036</v>
       </c>
       <c r="E138">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -19810,7 +19810,7 @@
         <v>3153623</v>
       </c>
       <c r="S138">
-        <v>0.15034234890016</v>
+        <v>0.1503</v>
       </c>
       <c r="T138">
         <v>62801</v>
@@ -19887,10 +19887,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6151</v>
+        <v>6211</v>
       </c>
       <c r="E139">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -19932,7 +19932,7 @@
         <v>3207857</v>
       </c>
       <c r="S139">
-        <v>0.14669609768939</v>
+        <v>0.1467</v>
       </c>
       <c r="T139">
         <v>63490</v>
@@ -20009,10 +20009,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6331</v>
+        <v>6395</v>
       </c>
       <c r="E140">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20054,7 +20054,7 @@
         <v>3269897</v>
       </c>
       <c r="S140">
-        <v>0.15047404550297</v>
+        <v>0.1505</v>
       </c>
       <c r="T140">
         <v>63556</v>
@@ -20131,10 +20131,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6487</v>
+        <v>6562</v>
       </c>
       <c r="E141">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20176,7 +20176,7 @@
         <v>3331844</v>
       </c>
       <c r="S141">
-        <v>0.14180136768345</v>
+        <v>0.1418</v>
       </c>
       <c r="T141">
         <v>65993</v>
@@ -20229,10 +20229,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6648</v>
+        <v>6735</v>
       </c>
       <c r="E142">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20274,7 +20274,7 @@
         <v>3396677</v>
       </c>
       <c r="S142">
-        <v>0.13896915023849</v>
+        <v>0.139</v>
       </c>
       <c r="T142">
         <v>66400</v>
@@ -20360,10 +20360,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6792</v>
+        <v>6893</v>
       </c>
       <c r="E143">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20405,7 +20405,7 @@
         <v>3465070</v>
       </c>
       <c r="S143">
-        <v>0.13733884333097</v>
+        <v>0.1373</v>
       </c>
       <c r="T143">
         <v>66373</v>
@@ -20482,10 +20482,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>6914</v>
+        <v>7033</v>
       </c>
       <c r="E144">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20527,7 +20527,7 @@
         <v>3539452</v>
       </c>
       <c r="S144">
-        <v>0.13435428837808</v>
+        <v>0.1344</v>
       </c>
       <c r="T144">
         <v>66194</v>
@@ -20604,10 +20604,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>6991</v>
+        <v>7125</v>
       </c>
       <c r="E145">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20723,10 +20723,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7067</v>
+        <v>7214</v>
       </c>
       <c r="E146">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20768,7 +20768,7 @@
         <v>3664679</v>
       </c>
       <c r="S146">
-        <v>0.13215012333231</v>
+        <v>0.1322</v>
       </c>
       <c r="T146">
         <v>63475</v>
@@ -20845,10 +20845,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7134</v>
+        <v>7294</v>
       </c>
       <c r="E147">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -20890,7 +20890,7 @@
         <v>3714821</v>
       </c>
       <c r="S147">
-        <v>0.12825832118001</v>
+        <v>0.1283</v>
       </c>
       <c r="T147">
         <v>61907</v>
@@ -20976,10 +20976,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7194</v>
+        <v>7377</v>
       </c>
       <c r="E148">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21021,7 +21021,7 @@
         <v>3777263</v>
       </c>
       <c r="S148">
-        <v>0.12549515187721</v>
+        <v>0.1255</v>
       </c>
       <c r="T148">
         <v>62174</v>
@@ -21107,10 +21107,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7229</v>
+        <v>7428</v>
       </c>
       <c r="E149">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21152,7 +21152,7 @@
         <v>3849040</v>
       </c>
       <c r="S149">
-        <v>0.12090562881898</v>
+        <v>0.1209</v>
       </c>
       <c r="T149">
         <v>63545</v>
@@ -21205,10 +21205,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7244</v>
+        <v>7457</v>
       </c>
       <c r="E150">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21250,7 +21250,7 @@
         <v>3911270</v>
       </c>
       <c r="S150">
-        <v>0.12122305691139</v>
+        <v>0.1212</v>
       </c>
       <c r="T150">
         <v>62546</v>
@@ -21312,10 +21312,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>7257</v>
+        <v>7480</v>
       </c>
       <c r="E151">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21357,7 +21357,7 @@
         <v>3990030</v>
       </c>
       <c r="S151">
-        <v>0.12046081718308</v>
+        <v>0.1205</v>
       </c>
       <c r="T151">
         <v>63105</v>
@@ -21410,10 +21410,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>7257</v>
+        <v>7488</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21437,7 +21437,7 @@
         <v>4028966</v>
       </c>
       <c r="S152">
-        <v>0.13116308546161</v>
+        <v>0.1312</v>
       </c>
       <c r="T152">
         <v>59510</v>
@@ -21490,10 +21490,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>7259</v>
+        <v>7494</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21570,7 +21570,7 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>7494</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -21582,10 +21582,10 @@
         <v>111614</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>139229</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>-8032</v>
       </c>
       <c r="P154">
         <v>3884848</v>
@@ -21597,7 +21597,7 @@
         <v>4143342</v>
       </c>
       <c r="S154">
-        <v>0.13881820544124</v>
+        <v>0.1388</v>
       </c>
       <c r="T154">
         <v>58275</v>
@@ -21607,6 +21607,9 @@
       </c>
       <c r="V154">
         <v>61217</v>
+      </c>
+      <c r="W154">
+        <v>8819</v>
       </c>
       <c r="AF154">
         <v>8819</v>
@@ -21647,25 +21650,43 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>7495</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>3170743</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>57494</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>139229</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
+      <c r="P155">
+        <v>3908235</v>
+      </c>
+      <c r="Q155">
+        <v>268978</v>
+      </c>
       <c r="R155">
-        <v>4178213</v>
+        <v>4177213</v>
+      </c>
+      <c r="S155">
+        <v>0.1558</v>
+      </c>
+      <c r="T155">
+        <v>52695</v>
+      </c>
+      <c r="U155">
+        <v>4440</v>
+      </c>
+      <c r="V155">
+        <v>57136</v>
       </c>
       <c r="AF155">
         <v>8674</v>
@@ -21701,6 +21722,65 @@
         <v>95.20999999999999</v>
       </c>
       <c r="BI155">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B156">
+        <v>459887</v>
+      </c>
+      <c r="C156">
+        <v>8706</v>
+      </c>
+      <c r="D156">
+        <v>7495</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>3170743</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>139229</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>4221329</v>
+      </c>
+      <c r="AF156">
+        <v>8455</v>
+      </c>
+      <c r="AG156">
+        <v>5490</v>
+      </c>
+      <c r="AH156">
+        <v>2917</v>
+      </c>
+      <c r="AI156">
+        <v>11328</v>
+      </c>
+      <c r="AJ156">
+        <v>1155</v>
+      </c>
+      <c r="AK156">
+        <v>43359</v>
+      </c>
+      <c r="AL156">
+        <v>6925</v>
+      </c>
+      <c r="AM156">
+        <v>6544</v>
+      </c>
+      <c r="BI156">
         <v>29677668</v>
       </c>
     </row>
@@ -21777,38 +21857,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>306261.8</t>
+          <t>315652.40000000002</t>
         </is>
       </c>
       <c r="B2">
-        <v>137658</v>
+        <v>136738</v>
       </c>
       <c r="C2">
-        <v>119762</v>
+        <v>118851</v>
       </c>
       <c r="D2">
-        <v>4058451</v>
+        <v>4102478</v>
       </c>
       <c r="E2">
-        <v>13478</v>
+        <v>14535</v>
       </c>
       <c r="F2">
-        <v>53813</v>
+        <v>54687</v>
       </c>
       <c r="G2">
-        <v>12902</v>
+        <v>11328</v>
       </c>
       <c r="H2">
-        <v>1272</v>
+        <v>1155</v>
       </c>
       <c r="I2">
-        <v>6504</v>
+        <v>6544</v>
       </c>
       <c r="J2">
-        <v>36963</v>
+        <v>38144</v>
       </c>
       <c r="K2">
-        <v>7261</v>
+        <v>7497</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI156"/>
+  <dimension ref="A1:BI157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11963,7 +11963,7 @@
         <v>1117274</v>
       </c>
       <c r="S92">
-        <v>0.0662</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92">
         <v>21585</v>
@@ -12136,7 +12136,7 @@
         <v>1150868</v>
       </c>
       <c r="S93">
-        <v>0.0626</v>
+        <v>0.06259941815807001</v>
       </c>
       <c r="T93">
         <v>23620</v>
@@ -12264,10 +12264,10 @@
         <v>1649</v>
       </c>
       <c r="D94">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F94">
         <v>923236</v>
@@ -12309,7 +12309,7 @@
         <v>1174948</v>
       </c>
       <c r="S94">
-        <v>0.0603</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94">
         <v>24043</v>
@@ -12437,7 +12437,7 @@
         <v>1693</v>
       </c>
       <c r="D95">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -12482,7 +12482,7 @@
         <v>1209187</v>
       </c>
       <c r="S95">
-        <v>0.0644</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95">
         <v>23537</v>
@@ -12610,7 +12610,7 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="E96">
         <v>32</v>
@@ -12655,7 +12655,7 @@
         <v>1218955</v>
       </c>
       <c r="S96">
-        <v>0.08</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96">
         <v>20021</v>
@@ -12783,7 +12783,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -12956,7 +12956,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13001,7 +13001,7 @@
         <v>1286139</v>
       </c>
       <c r="S98">
-        <v>0.06660000000000001</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98">
         <v>23019</v>
@@ -13129,7 +13129,7 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="E99">
         <v>33</v>
@@ -13174,7 +13174,7 @@
         <v>1302049</v>
       </c>
       <c r="S99">
-        <v>0.0692</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99">
         <v>22046</v>
@@ -13302,7 +13302,7 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E100">
         <v>22</v>
@@ -13347,7 +13347,7 @@
         <v>1348893</v>
       </c>
       <c r="S100">
-        <v>0.06850000000000001</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100">
         <v>23966</v>
@@ -13475,7 +13475,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -13520,7 +13520,7 @@
         <v>1370131</v>
       </c>
       <c r="S101">
-        <v>0.07049999999999999</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101">
         <v>23626</v>
@@ -13648,7 +13648,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13693,7 +13693,7 @@
         <v>1404369</v>
       </c>
       <c r="S102">
-        <v>0.0722</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102">
         <v>23863</v>
@@ -13821,7 +13821,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -13866,7 +13866,7 @@
         <v>1442950</v>
       </c>
       <c r="S103">
-        <v>0.0611</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103">
         <v>29139</v>
@@ -13994,7 +13994,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14167,7 +14167,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -14212,7 +14212,7 @@
         <v>1499015</v>
       </c>
       <c r="S105">
-        <v>0.06710000000000001</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105">
         <v>28727</v>
@@ -14340,7 +14340,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14385,7 +14385,7 @@
         <v>1522434</v>
       </c>
       <c r="S106">
-        <v>0.0694</v>
+        <v>0.06941707304208999</v>
       </c>
       <c r="T106">
         <v>29793</v>
@@ -14513,7 +14513,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="E107">
         <v>37</v>
@@ -14558,7 +14558,7 @@
         <v>1560537</v>
       </c>
       <c r="S107">
-        <v>0.075</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107">
         <v>28774</v>
@@ -14686,7 +14686,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -14859,7 +14859,7 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -14904,7 +14904,7 @@
         <v>1622851</v>
       </c>
       <c r="S109">
-        <v>0.08939999999999999</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109">
         <v>29011</v>
@@ -15032,7 +15032,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15077,7 +15077,7 @@
         <v>1690124</v>
       </c>
       <c r="S110">
-        <v>0.088</v>
+        <v>0.08795944343323001</v>
       </c>
       <c r="T110">
         <v>32885</v>
@@ -15205,7 +15205,7 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -15378,7 +15378,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15423,7 +15423,7 @@
         <v>1767701</v>
       </c>
       <c r="S112">
-        <v>0.0964</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112">
         <v>35550</v>
@@ -15551,7 +15551,7 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="E113">
         <v>40</v>
@@ -15596,7 +15596,7 @@
         <v>1805642</v>
       </c>
       <c r="S113">
-        <v>0.1042</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T113">
         <v>37231</v>
@@ -15724,7 +15724,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -15769,7 +15769,7 @@
         <v>1836037</v>
       </c>
       <c r="S114">
-        <v>0.1176</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114">
         <v>35943</v>
@@ -15897,7 +15897,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E115">
         <v>58</v>
@@ -15942,7 +15942,7 @@
         <v>1875197</v>
       </c>
       <c r="S115">
-        <v>0.1173</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115">
         <v>39060</v>
@@ -16070,7 +16070,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="E116">
         <v>67</v>
@@ -16115,7 +16115,7 @@
         <v>1903661</v>
       </c>
       <c r="S116">
-        <v>0.1323</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116">
         <v>37061</v>
@@ -16243,7 +16243,7 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="E117">
         <v>79</v>
@@ -16288,7 +16288,7 @@
         <v>1959617</v>
       </c>
       <c r="S117">
-        <v>0.1431</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117">
         <v>35577</v>
@@ -16416,7 +16416,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="E118">
         <v>86</v>
@@ -16461,7 +16461,7 @@
         <v>2006724</v>
       </c>
       <c r="S118">
-        <v>0.1374</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118">
         <v>38597</v>
@@ -16589,7 +16589,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16634,7 +16634,7 @@
         <v>2061939</v>
       </c>
       <c r="S119">
-        <v>0.1402</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119">
         <v>38856</v>
@@ -16762,7 +16762,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="E120">
         <v>87</v>
@@ -16807,7 +16807,7 @@
         <v>2119036</v>
       </c>
       <c r="S120">
-        <v>0.1358</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T120">
         <v>41670</v>
@@ -16935,7 +16935,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E121">
         <v>91</v>
@@ -16980,7 +16980,7 @@
         <v>2174548</v>
       </c>
       <c r="S121">
-        <v>0.1332</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T121">
         <v>45209</v>
@@ -17111,10 +17111,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="E122">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17156,7 +17156,7 @@
         <v>2212947</v>
       </c>
       <c r="S122">
-        <v>0.1392</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T122">
         <v>45225</v>
@@ -17287,10 +17287,10 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="E123">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F123">
         <v>1741722</v>
@@ -17332,7 +17332,7 @@
         <v>2273591</v>
       </c>
       <c r="S123">
-        <v>0.1315</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T123">
         <v>49855</v>
@@ -17463,7 +17463,7 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="E124">
         <v>132</v>
@@ -17508,7 +17508,7 @@
         <v>2338098</v>
       </c>
       <c r="S124">
-        <v>0.1352</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T124">
         <v>51177</v>
@@ -17639,10 +17639,10 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3759</v>
+        <v>3764</v>
       </c>
       <c r="E125">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F125">
         <v>1829966</v>
@@ -17684,7 +17684,7 @@
         <v>2371709</v>
       </c>
       <c r="S125">
-        <v>0.135</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T125">
         <v>49220</v>
@@ -17815,10 +17815,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3890</v>
+        <v>3897</v>
       </c>
       <c r="E126">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -17860,7 +17860,7 @@
         <v>2431861</v>
       </c>
       <c r="S126">
-        <v>0.1351</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T126">
         <v>50286</v>
@@ -17991,10 +17991,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4036</v>
+        <v>4045</v>
       </c>
       <c r="E127">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18036,7 +18036,7 @@
         <v>2471029</v>
       </c>
       <c r="S127">
-        <v>0.1503</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="T127">
         <v>48109</v>
@@ -18167,10 +18167,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4206</v>
+        <v>4216</v>
       </c>
       <c r="E128">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18212,7 +18212,7 @@
         <v>2526940</v>
       </c>
       <c r="S128">
-        <v>0.1556</v>
+        <v>0.15560343677851</v>
       </c>
       <c r="T128">
         <v>48201</v>
@@ -18343,7 +18343,7 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4365</v>
+        <v>4375</v>
       </c>
       <c r="E129">
         <v>159</v>
@@ -18388,7 +18388,7 @@
         <v>2603903</v>
       </c>
       <c r="S129">
-        <v>0.1446</v>
+        <v>0.14464341297691</v>
       </c>
       <c r="T129">
         <v>53698</v>
@@ -18519,10 +18519,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4540</v>
+        <v>4553</v>
       </c>
       <c r="E130">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18564,7 +18564,7 @@
         <v>2644496</v>
       </c>
       <c r="S130">
-        <v>0.1581</v>
+        <v>0.15812361136341</v>
       </c>
       <c r="T130">
         <v>51116</v>
@@ -18695,10 +18695,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4715</v>
+        <v>4732</v>
       </c>
       <c r="E131">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -18740,7 +18740,7 @@
         <v>2710290</v>
       </c>
       <c r="S131">
-        <v>0.1633</v>
+        <v>0.16329665986635</v>
       </c>
       <c r="T131">
         <v>51328</v>
@@ -18871,10 +18871,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4906</v>
+        <v>4928</v>
       </c>
       <c r="E132">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -18916,7 +18916,7 @@
         <v>2757859</v>
       </c>
       <c r="S132">
-        <v>0.1685</v>
+        <v>0.16849010085123</v>
       </c>
       <c r="T132">
         <v>53771</v>
@@ -19047,10 +19047,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5092</v>
+        <v>5117</v>
       </c>
       <c r="E133">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19092,7 +19092,7 @@
         <v>2820803</v>
       </c>
       <c r="S133">
-        <v>0.1689</v>
+        <v>0.16893795062442</v>
       </c>
       <c r="T133">
         <v>53913</v>
@@ -19223,10 +19223,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5301</v>
+        <v>5331</v>
       </c>
       <c r="E134">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19268,7 +19268,7 @@
         <v>2864541</v>
       </c>
       <c r="S134">
-        <v>0.1681</v>
+        <v>0.16812128576681</v>
       </c>
       <c r="T134">
         <v>54784</v>
@@ -19399,10 +19399,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5506</v>
+        <v>5541</v>
       </c>
       <c r="E135">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19444,7 +19444,7 @@
         <v>2924288</v>
       </c>
       <c r="S135">
-        <v>0.1689</v>
+        <v>0.16885085207802</v>
       </c>
       <c r="T135">
         <v>55235</v>
@@ -19521,10 +19521,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5704</v>
+        <v>5746</v>
       </c>
       <c r="E136">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19566,7 +19566,7 @@
         <v>2992102</v>
       </c>
       <c r="S136">
-        <v>0.1743</v>
+        <v>0.17427396882913</v>
       </c>
       <c r="T136">
         <v>53933</v>
@@ -19643,10 +19643,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5882</v>
+        <v>5932</v>
       </c>
       <c r="E137">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19688,7 +19688,7 @@
         <v>3067620</v>
       </c>
       <c r="S137">
-        <v>0.1605</v>
+        <v>0.16047266626479</v>
       </c>
       <c r="T137">
         <v>59009</v>
@@ -19765,10 +19765,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6036</v>
+        <v>6093</v>
       </c>
       <c r="E138">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -19810,7 +19810,7 @@
         <v>3153623</v>
       </c>
       <c r="S138">
-        <v>0.1503</v>
+        <v>0.15034234890016</v>
       </c>
       <c r="T138">
         <v>62801</v>
@@ -19887,10 +19887,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6211</v>
+        <v>6270</v>
       </c>
       <c r="E139">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -19932,7 +19932,7 @@
         <v>3207857</v>
       </c>
       <c r="S139">
-        <v>0.1467</v>
+        <v>0.14669609768939</v>
       </c>
       <c r="T139">
         <v>63490</v>
@@ -20009,10 +20009,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6395</v>
+        <v>6463</v>
       </c>
       <c r="E140">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20054,7 +20054,7 @@
         <v>3269897</v>
       </c>
       <c r="S140">
-        <v>0.1505</v>
+        <v>0.15047404550297</v>
       </c>
       <c r="T140">
         <v>63556</v>
@@ -20131,10 +20131,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6562</v>
+        <v>6642</v>
       </c>
       <c r="E141">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20176,7 +20176,7 @@
         <v>3331844</v>
       </c>
       <c r="S141">
-        <v>0.1418</v>
+        <v>0.14180136768345</v>
       </c>
       <c r="T141">
         <v>65993</v>
@@ -20229,10 +20229,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6735</v>
+        <v>6826</v>
       </c>
       <c r="E142">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20274,7 +20274,7 @@
         <v>3396677</v>
       </c>
       <c r="S142">
-        <v>0.139</v>
+        <v>0.13896915023849</v>
       </c>
       <c r="T142">
         <v>66400</v>
@@ -20360,10 +20360,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6893</v>
+        <v>7003</v>
       </c>
       <c r="E143">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20405,7 +20405,7 @@
         <v>3465070</v>
       </c>
       <c r="S143">
-        <v>0.1373</v>
+        <v>0.13733884333097</v>
       </c>
       <c r="T143">
         <v>66373</v>
@@ -20482,10 +20482,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>7033</v>
+        <v>7156</v>
       </c>
       <c r="E144">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20527,7 +20527,7 @@
         <v>3539452</v>
       </c>
       <c r="S144">
-        <v>0.1344</v>
+        <v>0.13435428837808</v>
       </c>
       <c r="T144">
         <v>66194</v>
@@ -20604,10 +20604,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>7125</v>
+        <v>7269</v>
       </c>
       <c r="E145">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20723,10 +20723,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7214</v>
+        <v>7374</v>
       </c>
       <c r="E146">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20768,7 +20768,7 @@
         <v>3664679</v>
       </c>
       <c r="S146">
-        <v>0.1322</v>
+        <v>0.13215012333231</v>
       </c>
       <c r="T146">
         <v>63475</v>
@@ -20845,10 +20845,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7294</v>
+        <v>7479</v>
       </c>
       <c r="E147">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -20890,7 +20890,7 @@
         <v>3714821</v>
       </c>
       <c r="S147">
-        <v>0.1283</v>
+        <v>0.12825832118001</v>
       </c>
       <c r="T147">
         <v>61907</v>
@@ -20976,10 +20976,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7377</v>
+        <v>7588</v>
       </c>
       <c r="E148">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21021,7 +21021,7 @@
         <v>3777263</v>
       </c>
       <c r="S148">
-        <v>0.1255</v>
+        <v>0.12549515187721</v>
       </c>
       <c r="T148">
         <v>62174</v>
@@ -21107,10 +21107,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7428</v>
+        <v>7652</v>
       </c>
       <c r="E149">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21152,7 +21152,7 @@
         <v>3849040</v>
       </c>
       <c r="S149">
-        <v>0.1209</v>
+        <v>0.12090562881898</v>
       </c>
       <c r="T149">
         <v>63545</v>
@@ -21205,10 +21205,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7457</v>
+        <v>7707</v>
       </c>
       <c r="E150">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21250,7 +21250,7 @@
         <v>3911270</v>
       </c>
       <c r="S150">
-        <v>0.1212</v>
+        <v>0.12122305691139</v>
       </c>
       <c r="T150">
         <v>62546</v>
@@ -21312,10 +21312,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>7480</v>
+        <v>7749</v>
       </c>
       <c r="E151">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21357,7 +21357,7 @@
         <v>3990030</v>
       </c>
       <c r="S151">
-        <v>0.1205</v>
+        <v>0.12046081718308</v>
       </c>
       <c r="T151">
         <v>63105</v>
@@ -21410,10 +21410,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>7488</v>
+        <v>7774</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21427,6 +21427,24 @@
       <c r="I152">
         <v>-15607</v>
       </c>
+      <c r="J152">
+        <v>-19.63649882088066</v>
+      </c>
+      <c r="K152">
+        <v>-5.42679559197109</v>
+      </c>
+      <c r="L152">
+        <v>-0.2339131617641246</v>
+      </c>
+      <c r="M152">
+        <v>-24.19348644324804</v>
+      </c>
+      <c r="N152">
+        <v>-17.13431588375954</v>
+      </c>
+      <c r="O152">
+        <v>6.640404998842771</v>
+      </c>
       <c r="P152">
         <v>3786548</v>
       </c>
@@ -21437,7 +21455,7 @@
         <v>4028966</v>
       </c>
       <c r="S152">
-        <v>0.1312</v>
+        <v>0.13116308546161</v>
       </c>
       <c r="T152">
         <v>59510</v>
@@ -21490,10 +21508,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>7494</v>
+        <v>7794</v>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21506,6 +21524,24 @@
       </c>
       <c r="I153">
         <v>1188</v>
+      </c>
+      <c r="J153">
+        <v>-17.10449511211334</v>
+      </c>
+      <c r="K153">
+        <v>-9.41080408714299</v>
+      </c>
+      <c r="L153">
+        <v>-0.3672765696560648</v>
+      </c>
+      <c r="M153">
+        <v>-25.21842774979175</v>
+      </c>
+      <c r="N153">
+        <v>-17.58045849311478</v>
+      </c>
+      <c r="O153">
+        <v>5.396788225058272</v>
       </c>
       <c r="P153">
         <v>3834586</v>
@@ -21570,10 +21606,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>7494</v>
+        <v>7800</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21597,7 +21633,7 @@
         <v>4143342</v>
       </c>
       <c r="S154">
-        <v>0.1388</v>
+        <v>0.13881820544124</v>
       </c>
       <c r="T154">
         <v>58275</v>
@@ -21650,7 +21686,7 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>7495</v>
+        <v>7801</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -21677,7 +21713,7 @@
         <v>4177213</v>
       </c>
       <c r="S155">
-        <v>0.1558</v>
+        <v>0.15575261544134</v>
       </c>
       <c r="T155">
         <v>52695</v>
@@ -21687,6 +21723,9 @@
       </c>
       <c r="V155">
         <v>57136</v>
+      </c>
+      <c r="W155">
+        <v>8674</v>
       </c>
       <c r="AF155">
         <v>8674</v>
@@ -21736,26 +21775,44 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>7495</v>
+        <v>7801</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <v>3170743</v>
+        <v>3238265</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>67522</v>
       </c>
       <c r="H156">
-        <v>139229</v>
+        <v>142825</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>3596</v>
+      </c>
+      <c r="P156">
+        <v>3944480</v>
+      </c>
+      <c r="Q156">
+        <v>276849</v>
       </c>
       <c r="R156">
         <v>4221329</v>
       </c>
+      <c r="S156">
+        <v>0.1704924687916</v>
+      </c>
+      <c r="T156">
+        <v>47858</v>
+      </c>
+      <c r="U156">
+        <v>5326</v>
+      </c>
+      <c r="V156">
+        <v>53184</v>
+      </c>
       <c r="AF156">
         <v>8455</v>
       </c>
@@ -21781,6 +21838,65 @@
         <v>6544</v>
       </c>
       <c r="BI156">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B157">
+        <v>467485</v>
+      </c>
+      <c r="C157">
+        <v>7598</v>
+      </c>
+      <c r="D157">
+        <v>7801</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>3238265</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>142825</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>4263342</v>
+      </c>
+      <c r="AF157">
+        <v>8302</v>
+      </c>
+      <c r="AG157">
+        <v>5387</v>
+      </c>
+      <c r="AH157">
+        <v>2863</v>
+      </c>
+      <c r="AI157">
+        <v>11666</v>
+      </c>
+      <c r="AJ157">
+        <v>1139</v>
+      </c>
+      <c r="AK157">
+        <v>44588</v>
+      </c>
+      <c r="AL157">
+        <v>6947</v>
+      </c>
+      <c r="AM157">
+        <v>6553</v>
+      </c>
+      <c r="BI157">
         <v>29677668</v>
       </c>
     </row>
@@ -21857,38 +21973,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>315652.40000000002</t>
+          <t>323803.59999999998</t>
         </is>
       </c>
       <c r="B2">
-        <v>136738</v>
+        <v>135878</v>
       </c>
       <c r="C2">
-        <v>118851</v>
+        <v>119495</v>
       </c>
       <c r="D2">
-        <v>4102478</v>
+        <v>4143847</v>
       </c>
       <c r="E2">
-        <v>14535</v>
+        <v>15364</v>
       </c>
       <c r="F2">
-        <v>54687</v>
+        <v>56254</v>
       </c>
       <c r="G2">
-        <v>11328</v>
+        <v>11666</v>
       </c>
       <c r="H2">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="I2">
-        <v>6544</v>
+        <v>6553</v>
       </c>
       <c r="J2">
-        <v>38144</v>
+        <v>38950</v>
       </c>
       <c r="K2">
-        <v>7497</v>
+        <v>7803</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ158"/>
+  <dimension ref="A1:BJ159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Antigen_Tests</t>
+          <t>Antigen Tests</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -4869,6 +4869,12 @@
       <c r="AI41">
         <v>563</v>
       </c>
+      <c r="AJ41">
+        <v>563</v>
+      </c>
+      <c r="AK41">
+        <v>563</v>
+      </c>
       <c r="AL41">
         <v>27420</v>
       </c>
@@ -4994,6 +5000,12 @@
       <c r="AI42">
         <v>591</v>
       </c>
+      <c r="AJ42">
+        <v>591</v>
+      </c>
+      <c r="AK42">
+        <v>591</v>
+      </c>
       <c r="AL42">
         <v>26721</v>
       </c>
@@ -5119,6 +5131,12 @@
       <c r="AI43">
         <v>594</v>
       </c>
+      <c r="AJ43">
+        <v>594</v>
+      </c>
+      <c r="AK43">
+        <v>594</v>
+      </c>
       <c r="AL43">
         <v>28695</v>
       </c>
@@ -5244,6 +5262,12 @@
       <c r="AI44">
         <v>688</v>
       </c>
+      <c r="AJ44">
+        <v>688</v>
+      </c>
+      <c r="AK44">
+        <v>688</v>
+      </c>
       <c r="AL44">
         <v>29892</v>
       </c>
@@ -5369,6 +5393,12 @@
       <c r="AI45">
         <v>663</v>
       </c>
+      <c r="AJ45">
+        <v>663</v>
+      </c>
+      <c r="AK45">
+        <v>663</v>
+      </c>
       <c r="AL45">
         <v>30271</v>
       </c>
@@ -5494,6 +5524,12 @@
       <c r="AI46">
         <v>694</v>
       </c>
+      <c r="AJ46">
+        <v>694</v>
+      </c>
+      <c r="AK46">
+        <v>694</v>
+      </c>
       <c r="AL46">
         <v>30162</v>
       </c>
@@ -5619,6 +5655,12 @@
       <c r="AI47">
         <v>583</v>
       </c>
+      <c r="AJ47">
+        <v>583</v>
+      </c>
+      <c r="AK47">
+        <v>583</v>
+      </c>
       <c r="AL47">
         <v>30333</v>
       </c>
@@ -5744,6 +5786,12 @@
       <c r="AI48">
         <v>624</v>
       </c>
+      <c r="AJ48">
+        <v>624</v>
+      </c>
+      <c r="AK48">
+        <v>624</v>
+      </c>
       <c r="AL48">
         <v>29136</v>
       </c>
@@ -5869,6 +5917,12 @@
       <c r="AI49">
         <v>620</v>
       </c>
+      <c r="AJ49">
+        <v>620</v>
+      </c>
+      <c r="AK49">
+        <v>620</v>
+      </c>
       <c r="AL49">
         <v>27057</v>
       </c>
@@ -5994,6 +6048,12 @@
       <c r="AI50">
         <v>636</v>
       </c>
+      <c r="AJ50">
+        <v>636</v>
+      </c>
+      <c r="AK50">
+        <v>636</v>
+      </c>
       <c r="AL50">
         <v>29380</v>
       </c>
@@ -6119,6 +6179,12 @@
       <c r="AI51">
         <v>691</v>
       </c>
+      <c r="AJ51">
+        <v>691</v>
+      </c>
+      <c r="AK51">
+        <v>691</v>
+      </c>
       <c r="AL51">
         <v>32474</v>
       </c>
@@ -6244,6 +6310,12 @@
       <c r="AI52">
         <v>689</v>
       </c>
+      <c r="AJ52">
+        <v>689</v>
+      </c>
+      <c r="AK52">
+        <v>689</v>
+      </c>
       <c r="AL52">
         <v>34032</v>
       </c>
@@ -6369,6 +6441,12 @@
       <c r="AI53">
         <v>670</v>
       </c>
+      <c r="AJ53">
+        <v>670</v>
+      </c>
+      <c r="AK53">
+        <v>670</v>
+      </c>
       <c r="AL53">
         <v>34788</v>
       </c>
@@ -6494,6 +6572,12 @@
       <c r="AI54">
         <v>651</v>
       </c>
+      <c r="AJ54">
+        <v>651</v>
+      </c>
+      <c r="AK54">
+        <v>651</v>
+      </c>
       <c r="AL54">
         <v>34687</v>
       </c>
@@ -6619,6 +6703,12 @@
       <c r="AI55">
         <v>645</v>
       </c>
+      <c r="AJ55">
+        <v>645</v>
+      </c>
+      <c r="AK55">
+        <v>645</v>
+      </c>
       <c r="AL55">
         <v>33201</v>
       </c>
@@ -6744,6 +6834,12 @@
       <c r="AI56">
         <v>660</v>
       </c>
+      <c r="AJ56">
+        <v>660</v>
+      </c>
+      <c r="AK56">
+        <v>660</v>
+      </c>
       <c r="AL56">
         <v>31702</v>
       </c>
@@ -6869,6 +6965,12 @@
       <c r="AI57">
         <v>684</v>
       </c>
+      <c r="AJ57">
+        <v>684</v>
+      </c>
+      <c r="AK57">
+        <v>684</v>
+      </c>
       <c r="AL57">
         <v>33473</v>
       </c>
@@ -6994,6 +7096,12 @@
       <c r="AI58">
         <v>718</v>
       </c>
+      <c r="AJ58">
+        <v>718</v>
+      </c>
+      <c r="AK58">
+        <v>718</v>
+      </c>
       <c r="AL58">
         <v>35289</v>
       </c>
@@ -7119,6 +7227,12 @@
       <c r="AI59">
         <v>704</v>
       </c>
+      <c r="AJ59">
+        <v>704</v>
+      </c>
+      <c r="AK59">
+        <v>704</v>
+      </c>
       <c r="AL59">
         <v>35604</v>
       </c>
@@ -7244,6 +7358,12 @@
       <c r="AI60">
         <v>736</v>
       </c>
+      <c r="AJ60">
+        <v>736</v>
+      </c>
+      <c r="AK60">
+        <v>736</v>
+      </c>
       <c r="AL60">
         <v>36409</v>
       </c>
@@ -7369,6 +7489,12 @@
       <c r="AI61">
         <v>711</v>
       </c>
+      <c r="AJ61">
+        <v>711</v>
+      </c>
+      <c r="AK61">
+        <v>711</v>
+      </c>
       <c r="AL61">
         <v>35692</v>
       </c>
@@ -7494,6 +7620,12 @@
       <c r="AI62">
         <v>624</v>
       </c>
+      <c r="AJ62">
+        <v>624</v>
+      </c>
+      <c r="AK62">
+        <v>624</v>
+      </c>
       <c r="AL62">
         <v>32012</v>
       </c>
@@ -7619,6 +7751,12 @@
       <c r="AI63">
         <v>619</v>
       </c>
+      <c r="AJ63">
+        <v>619</v>
+      </c>
+      <c r="AK63">
+        <v>619</v>
+      </c>
       <c r="AL63">
         <v>32019</v>
       </c>
@@ -7744,6 +7882,12 @@
       <c r="AI64">
         <v>689</v>
       </c>
+      <c r="AJ64">
+        <v>689</v>
+      </c>
+      <c r="AK64">
+        <v>689</v>
+      </c>
       <c r="AL64">
         <v>34653</v>
       </c>
@@ -7869,6 +8013,12 @@
       <c r="AI65">
         <v>726</v>
       </c>
+      <c r="AJ65">
+        <v>726</v>
+      </c>
+      <c r="AK65">
+        <v>726</v>
+      </c>
       <c r="AL65">
         <v>37421</v>
       </c>
@@ -7994,6 +8144,12 @@
       <c r="AI66">
         <v>716</v>
       </c>
+      <c r="AJ66">
+        <v>716</v>
+      </c>
+      <c r="AK66">
+        <v>716</v>
+      </c>
       <c r="AL66">
         <v>38722</v>
       </c>
@@ -8119,6 +8275,12 @@
       <c r="AI67">
         <v>697</v>
       </c>
+      <c r="AJ67">
+        <v>697</v>
+      </c>
+      <c r="AK67">
+        <v>697</v>
+      </c>
       <c r="AL67">
         <v>38516</v>
       </c>
@@ -8250,6 +8412,12 @@
       <c r="AI68">
         <v>674</v>
       </c>
+      <c r="AJ68">
+        <v>674</v>
+      </c>
+      <c r="AK68">
+        <v>674</v>
+      </c>
       <c r="AL68">
         <v>37977</v>
       </c>
@@ -8381,6 +8549,12 @@
       <c r="AI69">
         <v>661</v>
       </c>
+      <c r="AJ69">
+        <v>661</v>
+      </c>
+      <c r="AK69">
+        <v>661</v>
+      </c>
       <c r="AL69">
         <v>35333</v>
       </c>
@@ -8512,6 +8686,12 @@
       <c r="AI70">
         <v>610</v>
       </c>
+      <c r="AJ70">
+        <v>610</v>
+      </c>
+      <c r="AK70">
+        <v>610</v>
+      </c>
       <c r="AL70">
         <v>32549</v>
       </c>
@@ -8643,6 +8823,12 @@
       <c r="AI71">
         <v>699</v>
       </c>
+      <c r="AJ71">
+        <v>699</v>
+      </c>
+      <c r="AK71">
+        <v>699</v>
+      </c>
       <c r="AL71">
         <v>34519</v>
       </c>
@@ -8774,6 +8960,12 @@
       <c r="AI72">
         <v>674</v>
       </c>
+      <c r="AJ72">
+        <v>674</v>
+      </c>
+      <c r="AK72">
+        <v>674</v>
+      </c>
       <c r="AL72">
         <v>38292</v>
       </c>
@@ -8905,6 +9097,12 @@
       <c r="AI73">
         <v>673</v>
       </c>
+      <c r="AJ73">
+        <v>673</v>
+      </c>
+      <c r="AK73">
+        <v>673</v>
+      </c>
       <c r="AL73">
         <v>38626</v>
       </c>
@@ -9060,6 +9258,12 @@
       <c r="AI74">
         <v>683</v>
       </c>
+      <c r="AJ74">
+        <v>683</v>
+      </c>
+      <c r="AK74">
+        <v>683</v>
+      </c>
       <c r="AL74">
         <v>39654</v>
       </c>
@@ -9224,6 +9428,12 @@
       <c r="AI75">
         <v>687</v>
       </c>
+      <c r="AJ75">
+        <v>687</v>
+      </c>
+      <c r="AK75">
+        <v>687</v>
+      </c>
       <c r="AL75">
         <v>39392</v>
       </c>
@@ -9388,6 +9598,12 @@
       <c r="AI76">
         <v>604</v>
       </c>
+      <c r="AJ76">
+        <v>604</v>
+      </c>
+      <c r="AK76">
+        <v>604</v>
+      </c>
       <c r="AL76">
         <v>34208</v>
       </c>
@@ -9552,6 +9768,12 @@
       <c r="AI77">
         <v>618</v>
       </c>
+      <c r="AJ77">
+        <v>618</v>
+      </c>
+      <c r="AK77">
+        <v>618</v>
+      </c>
       <c r="AL77">
         <v>33455</v>
       </c>
@@ -9716,6 +9938,12 @@
       <c r="AI78">
         <v>675</v>
       </c>
+      <c r="AJ78">
+        <v>675</v>
+      </c>
+      <c r="AK78">
+        <v>675</v>
+      </c>
       <c r="AL78">
         <v>35767</v>
       </c>
@@ -9880,6 +10108,12 @@
       <c r="AI79">
         <v>694</v>
       </c>
+      <c r="AJ79">
+        <v>694</v>
+      </c>
+      <c r="AK79">
+        <v>694</v>
+      </c>
       <c r="AL79">
         <v>40313</v>
       </c>
@@ -10044,6 +10278,12 @@
       <c r="AI80">
         <v>690</v>
       </c>
+      <c r="AJ80">
+        <v>690</v>
+      </c>
+      <c r="AK80">
+        <v>690</v>
+      </c>
       <c r="AL80">
         <v>40321</v>
       </c>
@@ -10208,6 +10448,12 @@
       <c r="AI81">
         <v>665</v>
       </c>
+      <c r="AJ81">
+        <v>665</v>
+      </c>
+      <c r="AK81">
+        <v>665</v>
+      </c>
       <c r="AL81">
         <v>40132</v>
       </c>
@@ -10357,6 +10603,12 @@
       <c r="AI82">
         <v>666</v>
       </c>
+      <c r="AJ82">
+        <v>666</v>
+      </c>
+      <c r="AK82">
+        <v>666</v>
+      </c>
       <c r="AL82">
         <v>40977</v>
       </c>
@@ -10521,6 +10773,12 @@
       <c r="AI83">
         <v>643</v>
       </c>
+      <c r="AJ83">
+        <v>643</v>
+      </c>
+      <c r="AK83">
+        <v>643</v>
+      </c>
       <c r="AL83">
         <v>35987</v>
       </c>
@@ -10685,6 +10943,12 @@
       <c r="AI84">
         <v>657</v>
       </c>
+      <c r="AJ84">
+        <v>657</v>
+      </c>
+      <c r="AK84">
+        <v>657</v>
+      </c>
       <c r="AL84">
         <v>33489</v>
       </c>
@@ -10849,6 +11113,12 @@
       <c r="AI85">
         <v>647</v>
       </c>
+      <c r="AJ85">
+        <v>647</v>
+      </c>
+      <c r="AK85">
+        <v>647</v>
+      </c>
       <c r="AL85">
         <v>34246</v>
       </c>
@@ -11013,6 +11283,12 @@
       <c r="AI86">
         <v>671</v>
       </c>
+      <c r="AJ86">
+        <v>671</v>
+      </c>
+      <c r="AK86">
+        <v>671</v>
+      </c>
       <c r="AL86">
         <v>36501</v>
       </c>
@@ -11177,6 +11453,12 @@
       <c r="AI87">
         <v>694</v>
       </c>
+      <c r="AJ87">
+        <v>694</v>
+      </c>
+      <c r="AK87">
+        <v>694</v>
+      </c>
       <c r="AL87">
         <v>39561</v>
       </c>
@@ -11342,10 +11624,10 @@
         <v>747</v>
       </c>
       <c r="AJ88">
-        <v>16136</v>
+        <v>747</v>
       </c>
       <c r="AK88">
-        <v>1696</v>
+        <v>747</v>
       </c>
       <c r="AL88">
         <v>41521</v>
@@ -11503,10 +11785,10 @@
         <v>753</v>
       </c>
       <c r="AJ89">
-        <v>15599</v>
+        <v>753</v>
       </c>
       <c r="AK89">
-        <v>1697</v>
+        <v>753</v>
       </c>
       <c r="AL89">
         <v>41462</v>
@@ -11673,10 +11955,10 @@
         <v>731</v>
       </c>
       <c r="AJ90">
-        <v>16127</v>
+        <v>731</v>
       </c>
       <c r="AK90">
-        <v>1698</v>
+        <v>731</v>
       </c>
       <c r="AL90">
         <v>39467</v>
@@ -11843,10 +12125,10 @@
         <v>748</v>
       </c>
       <c r="AJ91">
-        <v>16330</v>
+        <v>748</v>
       </c>
       <c r="AK91">
-        <v>1784</v>
+        <v>748</v>
       </c>
       <c r="AL91">
         <v>38032</v>
@@ -11968,7 +12250,7 @@
         <v>1117274</v>
       </c>
       <c r="T92">
-        <v>0.06623691212093</v>
+        <v>0.0662</v>
       </c>
       <c r="U92">
         <v>21585</v>
@@ -12016,10 +12298,10 @@
         <v>762</v>
       </c>
       <c r="AJ92">
-        <v>16575</v>
+        <v>762</v>
       </c>
       <c r="AK92">
-        <v>1764</v>
+        <v>762</v>
       </c>
       <c r="AL92">
         <v>37510</v>
@@ -12141,7 +12423,7 @@
         <v>1150868</v>
       </c>
       <c r="T93">
-        <v>0.06259941815807001</v>
+        <v>0.0626</v>
       </c>
       <c r="U93">
         <v>23620</v>
@@ -12189,10 +12471,10 @@
         <v>748</v>
       </c>
       <c r="AJ93">
-        <v>14948</v>
+        <v>748</v>
       </c>
       <c r="AK93">
-        <v>1621</v>
+        <v>748</v>
       </c>
       <c r="AL93">
         <v>36201</v>
@@ -12314,7 +12596,7 @@
         <v>1174948</v>
       </c>
       <c r="T94">
-        <v>0.06027296332167</v>
+        <v>0.0603</v>
       </c>
       <c r="U94">
         <v>24043</v>
@@ -12362,10 +12644,10 @@
         <v>730</v>
       </c>
       <c r="AJ94">
-        <v>15219</v>
+        <v>730</v>
       </c>
       <c r="AK94">
-        <v>1658</v>
+        <v>730</v>
       </c>
       <c r="AL94">
         <v>40783</v>
@@ -12487,7 +12769,7 @@
         <v>1209187</v>
       </c>
       <c r="T95">
-        <v>0.06437848992474</v>
+        <v>0.0644</v>
       </c>
       <c r="U95">
         <v>23537</v>
@@ -12535,10 +12817,10 @@
         <v>742</v>
       </c>
       <c r="AJ95">
-        <v>14674</v>
+        <v>742</v>
       </c>
       <c r="AK95">
-        <v>1625</v>
+        <v>742</v>
       </c>
       <c r="AL95">
         <v>42965</v>
@@ -12615,10 +12897,10 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="E96">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96">
         <v>960363</v>
@@ -12660,7 +12942,7 @@
         <v>1218955</v>
       </c>
       <c r="T96">
-        <v>0.08002311858263</v>
+        <v>0.08</v>
       </c>
       <c r="U96">
         <v>20021</v>
@@ -12708,10 +12990,10 @@
         <v>737</v>
       </c>
       <c r="AJ96">
-        <v>15198</v>
+        <v>737</v>
       </c>
       <c r="AK96">
-        <v>1583</v>
+        <v>737</v>
       </c>
       <c r="AL96">
         <v>41603</v>
@@ -12788,7 +13070,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -12881,10 +13163,10 @@
         <v>763</v>
       </c>
       <c r="AJ97">
-        <v>15942</v>
+        <v>763</v>
       </c>
       <c r="AK97">
-        <v>1680</v>
+        <v>763</v>
       </c>
       <c r="AL97">
         <v>40237</v>
@@ -12961,7 +13243,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13006,7 +13288,7 @@
         <v>1286139</v>
       </c>
       <c r="T98">
-        <v>0.06662901614215</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="U98">
         <v>23019</v>
@@ -13054,10 +13336,10 @@
         <v>743</v>
       </c>
       <c r="AJ98">
-        <v>15070</v>
+        <v>743</v>
       </c>
       <c r="AK98">
-        <v>1619</v>
+        <v>743</v>
       </c>
       <c r="AL98">
         <v>37283</v>
@@ -13134,7 +13416,7 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="E99">
         <v>33</v>
@@ -13179,7 +13461,7 @@
         <v>1302049</v>
       </c>
       <c r="T99">
-        <v>0.06923969180723</v>
+        <v>0.0692</v>
       </c>
       <c r="U99">
         <v>22046</v>
@@ -13227,10 +13509,10 @@
         <v>784</v>
       </c>
       <c r="AJ99">
-        <v>15402</v>
+        <v>784</v>
       </c>
       <c r="AK99">
-        <v>1723</v>
+        <v>784</v>
       </c>
       <c r="AL99">
         <v>39336</v>
@@ -13307,7 +13589,7 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E100">
         <v>23</v>
@@ -13352,7 +13634,7 @@
         <v>1348893</v>
       </c>
       <c r="T100">
-        <v>0.06846481685691</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="U100">
         <v>23966</v>
@@ -13400,10 +13682,10 @@
         <v>857</v>
       </c>
       <c r="AJ100">
-        <v>13645</v>
+        <v>857</v>
       </c>
       <c r="AK100">
-        <v>1508</v>
+        <v>857</v>
       </c>
       <c r="AL100">
         <v>42410</v>
@@ -13480,7 +13762,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -13525,7 +13807,7 @@
         <v>1370131</v>
       </c>
       <c r="T101">
-        <v>0.07052200676015</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="U101">
         <v>23626</v>
@@ -13573,10 +13855,10 @@
         <v>809</v>
       </c>
       <c r="AJ101">
-        <v>13271</v>
+        <v>809</v>
       </c>
       <c r="AK101">
-        <v>1419</v>
+        <v>809</v>
       </c>
       <c r="AL101">
         <v>40724</v>
@@ -13653,7 +13935,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13698,7 +13980,7 @@
         <v>1404369</v>
       </c>
       <c r="T102">
-        <v>0.07223931705799</v>
+        <v>0.0722</v>
       </c>
       <c r="U102">
         <v>23863</v>
@@ -13746,10 +14028,10 @@
         <v>810</v>
       </c>
       <c r="AJ102">
-        <v>14033</v>
+        <v>810</v>
       </c>
       <c r="AK102">
-        <v>1494</v>
+        <v>810</v>
       </c>
       <c r="AL102">
         <v>42995</v>
@@ -13826,7 +14108,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -13871,7 +14153,7 @@
         <v>1442950</v>
       </c>
       <c r="T103">
-        <v>0.06107731000976</v>
+        <v>0.0611</v>
       </c>
       <c r="U103">
         <v>29139</v>
@@ -13919,10 +14201,10 @@
         <v>828</v>
       </c>
       <c r="AJ103">
-        <v>13571</v>
+        <v>828</v>
       </c>
       <c r="AK103">
-        <v>1498</v>
+        <v>828</v>
       </c>
       <c r="AL103">
         <v>43025</v>
@@ -13999,7 +14281,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14092,10 +14374,10 @@
         <v>817</v>
       </c>
       <c r="AJ104">
-        <v>14660</v>
+        <v>817</v>
       </c>
       <c r="AK104">
-        <v>1603</v>
+        <v>817</v>
       </c>
       <c r="AL104">
         <v>40548</v>
@@ -14172,7 +14454,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -14217,7 +14499,7 @@
         <v>1499015</v>
       </c>
       <c r="T105">
-        <v>0.06709533684425</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="U105">
         <v>28727</v>
@@ -14265,10 +14547,10 @@
         <v>861</v>
       </c>
       <c r="AJ105">
-        <v>14525</v>
+        <v>861</v>
       </c>
       <c r="AK105">
-        <v>1626</v>
+        <v>861</v>
       </c>
       <c r="AL105">
         <v>36840</v>
@@ -14345,7 +14627,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14390,7 +14672,7 @@
         <v>1522434</v>
       </c>
       <c r="T106">
-        <v>0.06941707304208999</v>
+        <v>0.0694</v>
       </c>
       <c r="U106">
         <v>29793</v>
@@ -14438,10 +14720,10 @@
         <v>895</v>
       </c>
       <c r="AJ106">
-        <v>14993</v>
+        <v>895</v>
       </c>
       <c r="AK106">
-        <v>1675</v>
+        <v>895</v>
       </c>
       <c r="AL106">
         <v>39851</v>
@@ -14518,7 +14800,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="E107">
         <v>37</v>
@@ -14563,7 +14845,7 @@
         <v>1560537</v>
       </c>
       <c r="T107">
-        <v>0.07497728638027</v>
+        <v>0.075</v>
       </c>
       <c r="U107">
         <v>28774</v>
@@ -14611,10 +14893,10 @@
         <v>964</v>
       </c>
       <c r="AJ107">
-        <v>13815</v>
+        <v>964</v>
       </c>
       <c r="AK107">
-        <v>1473</v>
+        <v>964</v>
       </c>
       <c r="AL107">
         <v>42379</v>
@@ -14691,7 +14973,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -14784,10 +15066,10 @@
         <v>1010</v>
       </c>
       <c r="AJ108">
-        <v>13472</v>
+        <v>1010</v>
       </c>
       <c r="AK108">
-        <v>1453</v>
+        <v>1010</v>
       </c>
       <c r="AL108">
         <v>44041</v>
@@ -14867,7 +15149,7 @@
         <v>2495</v>
       </c>
       <c r="E109">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F109">
         <v>1249858</v>
@@ -14909,7 +15191,7 @@
         <v>1622851</v>
       </c>
       <c r="T109">
-        <v>0.08936916175479</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="U109">
         <v>29011</v>
@@ -14957,10 +15239,10 @@
         <v>1088</v>
       </c>
       <c r="AJ109">
-        <v>13591</v>
+        <v>1088</v>
       </c>
       <c r="AK109">
-        <v>1443</v>
+        <v>1088</v>
       </c>
       <c r="AL109">
         <v>46232</v>
@@ -15082,7 +15364,7 @@
         <v>1690124</v>
       </c>
       <c r="T110">
-        <v>0.08795944343323001</v>
+        <v>0.088</v>
       </c>
       <c r="U110">
         <v>32885</v>
@@ -15130,10 +15412,10 @@
         <v>1113</v>
       </c>
       <c r="AJ110">
-        <v>13701</v>
+        <v>1113</v>
       </c>
       <c r="AK110">
-        <v>1449</v>
+        <v>1113</v>
       </c>
       <c r="AL110">
         <v>44293</v>
@@ -15303,10 +15585,10 @@
         <v>1143</v>
       </c>
       <c r="AJ111">
-        <v>14316</v>
+        <v>1143</v>
       </c>
       <c r="AK111">
-        <v>1493</v>
+        <v>1143</v>
       </c>
       <c r="AL111">
         <v>42815</v>
@@ -15428,7 +15710,7 @@
         <v>1767701</v>
       </c>
       <c r="T112">
-        <v>0.09640261560072</v>
+        <v>0.0964</v>
       </c>
       <c r="U112">
         <v>35550</v>
@@ -15476,10 +15758,10 @@
         <v>1220</v>
       </c>
       <c r="AJ112">
-        <v>14697</v>
+        <v>1220</v>
       </c>
       <c r="AK112">
-        <v>1517</v>
+        <v>1220</v>
       </c>
       <c r="AL112">
         <v>40607</v>
@@ -15601,7 +15883,7 @@
         <v>1805642</v>
       </c>
       <c r="T113">
-        <v>0.10422837848208</v>
+        <v>0.1042</v>
       </c>
       <c r="U113">
         <v>37231</v>
@@ -15649,10 +15931,10 @@
         <v>1325</v>
       </c>
       <c r="AJ113">
-        <v>14260</v>
+        <v>1325</v>
       </c>
       <c r="AK113">
-        <v>1483</v>
+        <v>1325</v>
       </c>
       <c r="AL113">
         <v>40382</v>
@@ -15774,7 +16056,7 @@
         <v>1836037</v>
       </c>
       <c r="T114">
-        <v>0.11759188232068</v>
+        <v>0.1176</v>
       </c>
       <c r="U114">
         <v>35943</v>
@@ -15822,10 +16104,10 @@
         <v>1399</v>
       </c>
       <c r="AJ114">
-        <v>12951</v>
+        <v>1399</v>
       </c>
       <c r="AK114">
-        <v>1320</v>
+        <v>1399</v>
       </c>
       <c r="AL114">
         <v>43756</v>
@@ -15947,7 +16229,7 @@
         <v>1875197</v>
       </c>
       <c r="T115">
-        <v>0.11727744861385</v>
+        <v>0.1173</v>
       </c>
       <c r="U115">
         <v>39060</v>
@@ -15995,10 +16277,10 @@
         <v>1460</v>
       </c>
       <c r="AJ115">
-        <v>12597</v>
+        <v>1460</v>
       </c>
       <c r="AK115">
-        <v>1322</v>
+        <v>1460</v>
       </c>
       <c r="AL115">
         <v>45208</v>
@@ -16120,7 +16402,7 @@
         <v>1903661</v>
       </c>
       <c r="T116">
-        <v>0.13228718565459</v>
+        <v>0.1323</v>
       </c>
       <c r="U116">
         <v>37061</v>
@@ -16168,10 +16450,10 @@
         <v>1586</v>
       </c>
       <c r="AJ116">
-        <v>12398</v>
+        <v>1586</v>
       </c>
       <c r="AK116">
-        <v>1284</v>
+        <v>1586</v>
       </c>
       <c r="AL116">
         <v>45535</v>
@@ -16248,10 +16530,10 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="E117">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F117">
         <v>1492340</v>
@@ -16293,7 +16575,7 @@
         <v>1959617</v>
       </c>
       <c r="T117">
-        <v>0.14309405354181</v>
+        <v>0.1431</v>
       </c>
       <c r="U117">
         <v>35577</v>
@@ -16341,10 +16623,10 @@
         <v>1727</v>
       </c>
       <c r="AJ117">
-        <v>12893</v>
+        <v>1727</v>
       </c>
       <c r="AK117">
-        <v>1333</v>
+        <v>1727</v>
       </c>
       <c r="AL117">
         <v>45318</v>
@@ -16421,7 +16703,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="E118">
         <v>86</v>
@@ -16466,7 +16748,7 @@
         <v>2006724</v>
       </c>
       <c r="T118">
-        <v>0.13739729069509</v>
+        <v>0.1374</v>
       </c>
       <c r="U118">
         <v>38597</v>
@@ -16514,10 +16796,10 @@
         <v>1684</v>
       </c>
       <c r="AJ118">
-        <v>12751</v>
+        <v>1684</v>
       </c>
       <c r="AK118">
-        <v>1355</v>
+        <v>1684</v>
       </c>
       <c r="AL118">
         <v>41950</v>
@@ -16594,7 +16876,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16639,7 +16921,7 @@
         <v>2061939</v>
       </c>
       <c r="T119">
-        <v>0.14018794670431</v>
+        <v>0.1402</v>
       </c>
       <c r="U119">
         <v>38856</v>
@@ -16687,10 +16969,10 @@
         <v>1828</v>
       </c>
       <c r="AJ119">
-        <v>13825</v>
+        <v>1828</v>
       </c>
       <c r="AK119">
-        <v>1411</v>
+        <v>1828</v>
       </c>
       <c r="AL119">
         <v>40419</v>
@@ -16767,7 +17049,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E120">
         <v>88</v>
@@ -16812,7 +17094,7 @@
         <v>2119036</v>
       </c>
       <c r="T120">
-        <v>0.13581542048065</v>
+        <v>0.1358</v>
       </c>
       <c r="U120">
         <v>41670</v>
@@ -16860,10 +17142,10 @@
         <v>1894</v>
       </c>
       <c r="AJ120">
-        <v>13711</v>
+        <v>1894</v>
       </c>
       <c r="AK120">
-        <v>1405</v>
+        <v>1894</v>
       </c>
       <c r="AL120">
         <v>41555</v>
@@ -16940,7 +17222,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E121">
         <v>92</v>
@@ -16985,7 +17267,7 @@
         <v>2174548</v>
       </c>
       <c r="T121">
-        <v>0.13316248660981</v>
+        <v>0.1332</v>
       </c>
       <c r="U121">
         <v>45209</v>
@@ -17033,10 +17315,10 @@
         <v>1993</v>
       </c>
       <c r="AJ121">
-        <v>12894</v>
+        <v>1993</v>
       </c>
       <c r="AK121">
-        <v>1322</v>
+        <v>1993</v>
       </c>
       <c r="AL121">
         <v>44333</v>
@@ -17116,10 +17398,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="E122">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17161,7 +17443,7 @@
         <v>2212947</v>
       </c>
       <c r="T122">
-        <v>0.13917844913637</v>
+        <v>0.1392</v>
       </c>
       <c r="U122">
         <v>45225</v>
@@ -17209,10 +17491,10 @@
         <v>2155</v>
       </c>
       <c r="AJ122">
-        <v>11983</v>
+        <v>2155</v>
       </c>
       <c r="AK122">
-        <v>1181</v>
+        <v>2155</v>
       </c>
       <c r="AL122">
         <v>45687</v>
@@ -17292,10 +17574,10 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="E123">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F123">
         <v>1741722</v>
@@ -17337,7 +17619,7 @@
         <v>2273591</v>
       </c>
       <c r="T123">
-        <v>0.13154795505798</v>
+        <v>0.1315</v>
       </c>
       <c r="U123">
         <v>49855</v>
@@ -17385,10 +17667,10 @@
         <v>2231</v>
       </c>
       <c r="AJ123">
-        <v>12134</v>
+        <v>2231</v>
       </c>
       <c r="AK123">
-        <v>1161</v>
+        <v>2231</v>
       </c>
       <c r="AL123">
         <v>45619</v>
@@ -17468,7 +17750,7 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="E124">
         <v>132</v>
@@ -17513,7 +17795,7 @@
         <v>2338098</v>
       </c>
       <c r="T124">
-        <v>0.13517270641306</v>
+        <v>0.1352</v>
       </c>
       <c r="U124">
         <v>51177</v>
@@ -17561,10 +17843,10 @@
         <v>2338</v>
       </c>
       <c r="AJ124">
-        <v>12907</v>
+        <v>2338</v>
       </c>
       <c r="AK124">
-        <v>1270</v>
+        <v>2338</v>
       </c>
       <c r="AL124">
         <v>44252</v>
@@ -17644,7 +17926,7 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="E125">
         <v>121</v>
@@ -17689,7 +17971,7 @@
         <v>2371709</v>
       </c>
       <c r="T125">
-        <v>0.13500899750392</v>
+        <v>0.135</v>
       </c>
       <c r="U125">
         <v>49220</v>
@@ -17737,10 +18019,10 @@
         <v>2449</v>
       </c>
       <c r="AJ125">
-        <v>13307</v>
+        <v>2449</v>
       </c>
       <c r="AK125">
-        <v>1203</v>
+        <v>2449</v>
       </c>
       <c r="AL125">
         <v>42564</v>
@@ -17820,7 +18102,7 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3905</v>
+        <v>3908</v>
       </c>
       <c r="E126">
         <v>134</v>
@@ -17865,7 +18147,7 @@
         <v>2431861</v>
       </c>
       <c r="T126">
-        <v>0.13507194500078</v>
+        <v>0.1351</v>
       </c>
       <c r="U126">
         <v>50286</v>
@@ -17913,10 +18195,10 @@
         <v>2517</v>
       </c>
       <c r="AJ126">
-        <v>12852</v>
+        <v>2517</v>
       </c>
       <c r="AK126">
-        <v>1226</v>
+        <v>2517</v>
       </c>
       <c r="AL126">
         <v>40828</v>
@@ -17996,10 +18278,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="E127">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18041,7 +18323,7 @@
         <v>2471029</v>
       </c>
       <c r="T127">
-        <v>0.15025240527379</v>
+        <v>0.1503</v>
       </c>
       <c r="U127">
         <v>48109</v>
@@ -18089,10 +18371,10 @@
         <v>2658</v>
       </c>
       <c r="AJ127">
-        <v>12925</v>
+        <v>2658</v>
       </c>
       <c r="AK127">
-        <v>1148</v>
+        <v>2658</v>
       </c>
       <c r="AL127">
         <v>41819</v>
@@ -18172,10 +18454,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4229</v>
+        <v>4234</v>
       </c>
       <c r="E128">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18217,7 +18499,7 @@
         <v>2526940</v>
       </c>
       <c r="T128">
-        <v>0.15560343677851</v>
+        <v>0.1556</v>
       </c>
       <c r="U128">
         <v>48201</v>
@@ -18265,10 +18547,10 @@
         <v>2730</v>
       </c>
       <c r="AJ128">
-        <v>11575</v>
+        <v>2730</v>
       </c>
       <c r="AK128">
-        <v>1017</v>
+        <v>2730</v>
       </c>
       <c r="AL128">
         <v>45016</v>
@@ -18348,10 +18630,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4388</v>
+        <v>4394</v>
       </c>
       <c r="E129">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18393,7 +18675,7 @@
         <v>2603903</v>
       </c>
       <c r="T129">
-        <v>0.14464341297691</v>
+        <v>0.1446</v>
       </c>
       <c r="U129">
         <v>53698</v>
@@ -18441,10 +18723,10 @@
         <v>2878</v>
       </c>
       <c r="AJ129">
-        <v>11296</v>
+        <v>2878</v>
       </c>
       <c r="AK129">
-        <v>953</v>
+        <v>2878</v>
       </c>
       <c r="AL129">
         <v>46706</v>
@@ -18524,10 +18806,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4569</v>
+        <v>4576</v>
       </c>
       <c r="E130">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18569,7 +18851,7 @@
         <v>2644496</v>
       </c>
       <c r="T130">
-        <v>0.15812361136341</v>
+        <v>0.1581</v>
       </c>
       <c r="U130">
         <v>51116</v>
@@ -18617,10 +18899,10 @@
         <v>2923</v>
       </c>
       <c r="AJ130">
-        <v>10698</v>
+        <v>2923</v>
       </c>
       <c r="AK130">
-        <v>940</v>
+        <v>2923</v>
       </c>
       <c r="AL130">
         <v>46943</v>
@@ -18700,10 +18982,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4749</v>
+        <v>4759</v>
       </c>
       <c r="E131">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -18745,7 +19027,7 @@
         <v>2710290</v>
       </c>
       <c r="T131">
-        <v>0.16329665986635</v>
+        <v>0.1633</v>
       </c>
       <c r="U131">
         <v>51328</v>
@@ -18793,10 +19075,10 @@
         <v>2913</v>
       </c>
       <c r="AJ131">
-        <v>11188</v>
+        <v>2913</v>
       </c>
       <c r="AK131">
-        <v>930</v>
+        <v>2913</v>
       </c>
       <c r="AL131">
         <v>46338</v>
@@ -18876,10 +19158,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4945</v>
+        <v>4960</v>
       </c>
       <c r="E132">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -18921,7 +19203,7 @@
         <v>2757859</v>
       </c>
       <c r="T132">
-        <v>0.16849010085123</v>
+        <v>0.1685</v>
       </c>
       <c r="U132">
         <v>53771</v>
@@ -18969,10 +19251,10 @@
         <v>2995</v>
       </c>
       <c r="AJ132">
-        <v>11726</v>
+        <v>2995</v>
       </c>
       <c r="AK132">
-        <v>977</v>
+        <v>2995</v>
       </c>
       <c r="AL132">
         <v>45740</v>
@@ -19052,10 +19334,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5138</v>
+        <v>5157</v>
       </c>
       <c r="E133">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19097,7 +19379,7 @@
         <v>2820803</v>
       </c>
       <c r="T133">
-        <v>0.16893795062442</v>
+        <v>0.1689</v>
       </c>
       <c r="U133">
         <v>53913</v>
@@ -19145,10 +19427,10 @@
         <v>3053</v>
       </c>
       <c r="AJ133">
-        <v>12066</v>
+        <v>3053</v>
       </c>
       <c r="AK133">
-        <v>984</v>
+        <v>3053</v>
       </c>
       <c r="AL133">
         <v>43566</v>
@@ -19228,10 +19510,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5356</v>
+        <v>5378</v>
       </c>
       <c r="E134">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19273,7 +19555,7 @@
         <v>2864541</v>
       </c>
       <c r="T134">
-        <v>0.16812128576681</v>
+        <v>0.1681</v>
       </c>
       <c r="U134">
         <v>54784</v>
@@ -19321,10 +19603,10 @@
         <v>3144</v>
       </c>
       <c r="AJ134">
-        <v>11402</v>
+        <v>3144</v>
       </c>
       <c r="AK134">
-        <v>949</v>
+        <v>3144</v>
       </c>
       <c r="AL134">
         <v>43615</v>
@@ -19404,10 +19686,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5568</v>
+        <v>5592</v>
       </c>
       <c r="E135">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19449,7 +19731,7 @@
         <v>2924288</v>
       </c>
       <c r="T135">
-        <v>0.16885085207802</v>
+        <v>0.1689</v>
       </c>
       <c r="U135">
         <v>55235</v>
@@ -19497,10 +19779,10 @@
         <v>3104</v>
       </c>
       <c r="AJ135">
-        <v>10586</v>
+        <v>3104</v>
       </c>
       <c r="AK135">
-        <v>853</v>
+        <v>3104</v>
       </c>
       <c r="AL135">
         <v>45585</v>
@@ -19526,10 +19808,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5779</v>
+        <v>5808</v>
       </c>
       <c r="E136">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19571,7 +19853,7 @@
         <v>2992102</v>
       </c>
       <c r="T136">
-        <v>0.17427396882913</v>
+        <v>0.1743</v>
       </c>
       <c r="U136">
         <v>53933</v>
@@ -19619,10 +19901,10 @@
         <v>3169</v>
       </c>
       <c r="AJ136">
-        <v>10759</v>
+        <v>3169</v>
       </c>
       <c r="AK136">
-        <v>865</v>
+        <v>3169</v>
       </c>
       <c r="AL136">
         <v>46389</v>
@@ -19648,10 +19930,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5970</v>
+        <v>6001</v>
       </c>
       <c r="E137">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19693,7 +19975,7 @@
         <v>3067620</v>
       </c>
       <c r="T137">
-        <v>0.16047266626479</v>
+        <v>0.1605</v>
       </c>
       <c r="U137">
         <v>59009</v>
@@ -19741,10 +20023,10 @@
         <v>3216</v>
       </c>
       <c r="AJ137">
-        <v>10479</v>
+        <v>3216</v>
       </c>
       <c r="AK137">
-        <v>896</v>
+        <v>3216</v>
       </c>
       <c r="AL137">
         <v>46216</v>
@@ -19770,10 +20052,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6137</v>
+        <v>6174</v>
       </c>
       <c r="E138">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -19815,7 +20097,7 @@
         <v>3153623</v>
       </c>
       <c r="T138">
-        <v>0.15034234890016</v>
+        <v>0.1503</v>
       </c>
       <c r="U138">
         <v>62801</v>
@@ -19863,10 +20145,10 @@
         <v>3263</v>
       </c>
       <c r="AJ138">
-        <v>10831</v>
+        <v>3263</v>
       </c>
       <c r="AK138">
-        <v>966</v>
+        <v>3263</v>
       </c>
       <c r="AL138">
         <v>46495</v>
@@ -19892,10 +20174,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6322</v>
+        <v>6365</v>
       </c>
       <c r="E139">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -19937,7 +20219,7 @@
         <v>3207857</v>
       </c>
       <c r="T139">
-        <v>0.14669609768939</v>
+        <v>0.1467</v>
       </c>
       <c r="U139">
         <v>63490</v>
@@ -19985,10 +20267,10 @@
         <v>3412</v>
       </c>
       <c r="AJ139">
-        <v>11072</v>
+        <v>3412</v>
       </c>
       <c r="AK139">
-        <v>943</v>
+        <v>3412</v>
       </c>
       <c r="AL139">
         <v>44709</v>
@@ -20014,10 +20296,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6515</v>
+        <v>6562</v>
       </c>
       <c r="E140">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20059,7 +20341,7 @@
         <v>3269897</v>
       </c>
       <c r="T140">
-        <v>0.15047404550297</v>
+        <v>0.1505</v>
       </c>
       <c r="U140">
         <v>63556</v>
@@ -20107,10 +20389,10 @@
         <v>3197</v>
       </c>
       <c r="AJ140">
-        <v>11167</v>
+        <v>3197</v>
       </c>
       <c r="AK140">
-        <v>1004</v>
+        <v>3197</v>
       </c>
       <c r="AL140">
         <v>43479</v>
@@ -20136,10 +20418,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6701</v>
+        <v>6752</v>
       </c>
       <c r="E141">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20181,7 +20463,7 @@
         <v>3331844</v>
       </c>
       <c r="T141">
-        <v>0.14180136768345</v>
+        <v>0.1418</v>
       </c>
       <c r="U141">
         <v>65993</v>
@@ -20205,10 +20487,10 @@
         <v>3281</v>
       </c>
       <c r="AJ141">
-        <v>11461</v>
+        <v>3281</v>
       </c>
       <c r="AK141">
-        <v>1088</v>
+        <v>3281</v>
       </c>
       <c r="AL141">
         <v>43802</v>
@@ -20234,10 +20516,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6897</v>
+        <v>6957</v>
       </c>
       <c r="E142">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20279,7 +20561,7 @@
         <v>3396677</v>
       </c>
       <c r="T142">
-        <v>0.13896915023849</v>
+        <v>0.139</v>
       </c>
       <c r="U142">
         <v>66400</v>
@@ -20327,10 +20609,10 @@
         <v>3329</v>
       </c>
       <c r="AJ142">
-        <v>10520</v>
+        <v>3329</v>
       </c>
       <c r="AK142">
-        <v>1031</v>
+        <v>3329</v>
       </c>
       <c r="AL142">
         <v>45635</v>
@@ -20365,10 +20647,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>7080</v>
+        <v>7142</v>
       </c>
       <c r="E143">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20410,7 +20692,7 @@
         <v>3465070</v>
       </c>
       <c r="T143">
-        <v>0.13733884333097</v>
+        <v>0.1373</v>
       </c>
       <c r="U143">
         <v>66373</v>
@@ -20458,10 +20740,10 @@
         <v>3160</v>
       </c>
       <c r="AJ143">
-        <v>13476</v>
+        <v>3160</v>
       </c>
       <c r="AK143">
-        <v>1267</v>
+        <v>3160</v>
       </c>
       <c r="AL143">
         <v>36109</v>
@@ -20487,10 +20769,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>7248</v>
+        <v>7318</v>
       </c>
       <c r="E144">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20532,7 +20814,7 @@
         <v>3539452</v>
       </c>
       <c r="T144">
-        <v>0.13435428837808</v>
+        <v>0.1344</v>
       </c>
       <c r="U144">
         <v>66194</v>
@@ -20580,10 +20862,10 @@
         <v>3228</v>
       </c>
       <c r="AJ144">
-        <v>14441</v>
+        <v>3228</v>
       </c>
       <c r="AK144">
-        <v>1396</v>
+        <v>3228</v>
       </c>
       <c r="AL144">
         <v>44728</v>
@@ -20609,10 +20891,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>7383</v>
+        <v>7469</v>
       </c>
       <c r="E145">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20702,10 +20984,10 @@
         <v>3180</v>
       </c>
       <c r="AJ145">
-        <v>13837</v>
+        <v>3180</v>
       </c>
       <c r="AK145">
-        <v>1261</v>
+        <v>3180</v>
       </c>
       <c r="AL145">
         <v>47982</v>
@@ -20728,10 +21010,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7496</v>
+        <v>7590</v>
       </c>
       <c r="E146">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20773,7 +21055,7 @@
         <v>3664679</v>
       </c>
       <c r="T146">
-        <v>0.13215012333231</v>
+        <v>0.1322</v>
       </c>
       <c r="U146">
         <v>63475</v>
@@ -20821,10 +21103,10 @@
         <v>3209</v>
       </c>
       <c r="AJ146">
-        <v>11443</v>
+        <v>3209</v>
       </c>
       <c r="AK146">
-        <v>1243</v>
+        <v>3209</v>
       </c>
       <c r="AL146">
         <v>23089</v>
@@ -20850,10 +21132,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7619</v>
+        <v>7723</v>
       </c>
       <c r="E147">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -20895,7 +21177,7 @@
         <v>3714821</v>
       </c>
       <c r="T147">
-        <v>0.12825832118001</v>
+        <v>0.1283</v>
       </c>
       <c r="U147">
         <v>61907</v>
@@ -20943,10 +21225,10 @@
         <v>3352</v>
       </c>
       <c r="AJ147">
-        <v>12279</v>
+        <v>3352</v>
       </c>
       <c r="AK147">
-        <v>1353</v>
+        <v>3352</v>
       </c>
       <c r="AL147">
         <v>41548</v>
@@ -20981,10 +21263,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7746</v>
+        <v>7863</v>
       </c>
       <c r="E148">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21026,7 +21308,7 @@
         <v>3777263</v>
       </c>
       <c r="T148">
-        <v>0.12549515187721</v>
+        <v>0.1255</v>
       </c>
       <c r="U148">
         <v>62174</v>
@@ -21074,10 +21356,10 @@
         <v>3136</v>
       </c>
       <c r="AJ148">
-        <v>13444</v>
+        <v>3136</v>
       </c>
       <c r="AK148">
-        <v>1348</v>
+        <v>3136</v>
       </c>
       <c r="AL148">
         <v>45221</v>
@@ -21112,10 +21394,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7829</v>
+        <v>7960</v>
       </c>
       <c r="E149">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21157,7 +21439,7 @@
         <v>3849040</v>
       </c>
       <c r="T149">
-        <v>0.12090562881898</v>
+        <v>0.1209</v>
       </c>
       <c r="U149">
         <v>63545</v>
@@ -21181,10 +21463,10 @@
         <v>3087</v>
       </c>
       <c r="AJ149">
-        <v>12201</v>
+        <v>3087</v>
       </c>
       <c r="AK149">
-        <v>1362</v>
+        <v>3087</v>
       </c>
       <c r="AL149">
         <v>42902</v>
@@ -21210,10 +21492,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7910</v>
+        <v>8060</v>
       </c>
       <c r="E150">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21255,7 +21537,7 @@
         <v>3911270</v>
       </c>
       <c r="T150">
-        <v>0.12122305691139</v>
+        <v>0.1212</v>
       </c>
       <c r="U150">
         <v>62546</v>
@@ -21279,10 +21561,10 @@
         <v>3036</v>
       </c>
       <c r="AJ150">
-        <v>10906</v>
+        <v>3036</v>
       </c>
       <c r="AK150">
-        <v>1080</v>
+        <v>3036</v>
       </c>
       <c r="AL150">
         <v>43593</v>
@@ -21317,10 +21599,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>7975</v>
+        <v>8146</v>
       </c>
       <c r="E151">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21362,7 +21644,7 @@
         <v>3990030</v>
       </c>
       <c r="T151">
-        <v>0.12046081718308</v>
+        <v>0.1205</v>
       </c>
       <c r="U151">
         <v>63105</v>
@@ -21386,10 +21668,10 @@
         <v>3117</v>
       </c>
       <c r="AJ151">
-        <v>11412</v>
+        <v>3117</v>
       </c>
       <c r="AK151">
-        <v>1112</v>
+        <v>3117</v>
       </c>
       <c r="AL151">
         <v>34808</v>
@@ -21415,10 +21697,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>8018</v>
+        <v>8204</v>
       </c>
       <c r="E152">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21460,7 +21742,7 @@
         <v>4028966</v>
       </c>
       <c r="T152">
-        <v>0.13116308546161</v>
+        <v>0.1312</v>
       </c>
       <c r="U152">
         <v>59510</v>
@@ -21484,10 +21766,10 @@
         <v>3115</v>
       </c>
       <c r="AJ152">
-        <v>11674</v>
+        <v>3115</v>
       </c>
       <c r="AK152">
-        <v>1170</v>
+        <v>3115</v>
       </c>
       <c r="AL152">
         <v>43105</v>
@@ -21513,10 +21795,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>8058</v>
+        <v>8263</v>
       </c>
       <c r="E153">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21582,10 +21864,10 @@
         <v>3014</v>
       </c>
       <c r="AJ153">
-        <v>12126</v>
+        <v>3014</v>
       </c>
       <c r="AK153">
-        <v>1227</v>
+        <v>3014</v>
       </c>
       <c r="AL153">
         <v>41667</v>
@@ -21611,10 +21893,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>8083</v>
+        <v>8304</v>
       </c>
       <c r="E154">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21656,7 +21938,7 @@
         <v>4143342</v>
       </c>
       <c r="T154">
-        <v>0.13881820544124</v>
+        <v>0.1388</v>
       </c>
       <c r="U154">
         <v>58275</v>
@@ -21680,10 +21962,10 @@
         <v>3045</v>
       </c>
       <c r="AJ154">
-        <v>11916</v>
+        <v>3045</v>
       </c>
       <c r="AK154">
-        <v>1101</v>
+        <v>3045</v>
       </c>
       <c r="AL154">
         <v>40284</v>
@@ -21709,10 +21991,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>8090</v>
+        <v>8322</v>
       </c>
       <c r="E155">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -21754,7 +22036,7 @@
         <v>4177213</v>
       </c>
       <c r="T155">
-        <v>0.15575261544134</v>
+        <v>0.1558</v>
       </c>
       <c r="U155">
         <v>52695</v>
@@ -21778,10 +22060,10 @@
         <v>3006</v>
       </c>
       <c r="AJ155">
-        <v>12902</v>
+        <v>3006</v>
       </c>
       <c r="AK155">
-        <v>1272</v>
+        <v>3006</v>
       </c>
       <c r="AL155">
         <v>40911</v>
@@ -21816,10 +22098,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>8094</v>
+        <v>8340</v>
       </c>
       <c r="E156">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -21867,10 +22149,10 @@
         <v>2917</v>
       </c>
       <c r="AJ156">
-        <v>11328</v>
+        <v>2917</v>
       </c>
       <c r="AK156">
-        <v>1155</v>
+        <v>2917</v>
       </c>
       <c r="AL156">
         <v>43359</v>
@@ -21896,10 +22178,10 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>8094</v>
+        <v>8341</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
         <v>3283328</v>
@@ -21926,17 +22208,20 @@
         <v>4263342</v>
       </c>
       <c r="T157">
-        <v>0.1679169694822005</v>
+        <v>0.1679169694822</v>
       </c>
       <c r="U157">
-        <v>47254.28571428572</v>
+        <v>47254</v>
       </c>
       <c r="V157">
-        <v>2726.571428571428</v>
+        <v>2727</v>
       </c>
       <c r="W157">
         <v>50296</v>
       </c>
+      <c r="X157">
+        <v>8302</v>
+      </c>
       <c r="AG157">
         <v>8302</v>
       </c>
@@ -21947,10 +22232,10 @@
         <v>2863</v>
       </c>
       <c r="AJ157">
-        <v>11666</v>
+        <v>2863</v>
       </c>
       <c r="AK157">
-        <v>1139</v>
+        <v>2863</v>
       </c>
       <c r="AL157">
         <v>44588</v>
@@ -21985,26 +22270,50 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>8094</v>
+        <v>8341</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>3283328</v>
+        <v>3477261</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>193933</v>
       </c>
       <c r="H158">
-        <v>142723</v>
+        <v>145596</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2873</v>
+      </c>
+      <c r="P158">
+        <v>4012657</v>
+      </c>
+      <c r="Q158">
+        <v>280434</v>
+      </c>
+      <c r="R158">
+        <v>13887</v>
       </c>
       <c r="S158">
         <v>4306978</v>
       </c>
+      <c r="T158">
+        <v>0.1941</v>
+      </c>
+      <c r="U158">
+        <v>37840</v>
+      </c>
+      <c r="V158">
+        <v>5455</v>
+      </c>
+      <c r="W158">
+        <v>45278</v>
+      </c>
+      <c r="X158">
+        <v>8065</v>
+      </c>
       <c r="AG158">
         <v>8065</v>
       </c>
@@ -22015,10 +22324,10 @@
         <v>2742</v>
       </c>
       <c r="AJ158">
-        <v>11601</v>
+        <v>2742</v>
       </c>
       <c r="AK158">
-        <v>1159</v>
+        <v>2742</v>
       </c>
       <c r="AL158">
         <v>44766</v>
@@ -22030,6 +22339,68 @@
         <v>6673</v>
       </c>
       <c r="BJ158">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B159">
+        <v>481483</v>
+      </c>
+      <c r="C159">
+        <v>6959</v>
+      </c>
+      <c r="D159">
+        <v>8341</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>3477261</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>145596</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>4329258</v>
+      </c>
+      <c r="X159">
+        <v>7872</v>
+      </c>
+      <c r="AG159">
+        <v>7872</v>
+      </c>
+      <c r="AH159">
+        <v>5003</v>
+      </c>
+      <c r="AI159">
+        <v>2730</v>
+      </c>
+      <c r="AJ159">
+        <v>11396</v>
+      </c>
+      <c r="AK159">
+        <v>1115</v>
+      </c>
+      <c r="AL159">
+        <v>43503</v>
+      </c>
+      <c r="AM159">
+        <v>6809</v>
+      </c>
+      <c r="AN159">
+        <v>6619</v>
+      </c>
+      <c r="BJ159">
         <v>29677668</v>
       </c>
     </row>
@@ -22040,7 +22411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22069,35 +22440,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Antibody_Tests_Positive</t>
+          <t>Antigen_Tests_Total</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Antigen_Tests_Positive</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Antibody_Tests_Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Antibody_tests_Positive</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hospital_Bed_Total</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Hospital_Bed_Available</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ICU_Bed_Available</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Ventilator_Available</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Case_Investigations</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Death_Investigations</t>
         </is>
@@ -22106,38 +22492,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>331667.60000000003</t>
+          <t>338342.8</t>
         </is>
       </c>
       <c r="B2">
-        <v>134760</v>
+        <v>134797</v>
       </c>
       <c r="C2">
-        <v>120161</v>
+        <v>120362</v>
       </c>
       <c r="D2">
-        <v>4186817</v>
+        <v>4208896</v>
       </c>
       <c r="E2">
-        <v>13741</v>
+        <v>13887</v>
       </c>
       <c r="F2">
-        <v>56367</v>
+        <v>2227</v>
       </c>
       <c r="G2">
-        <v>11601</v>
+        <v>280434</v>
       </c>
       <c r="H2">
-        <v>1159</v>
+        <v>16924</v>
       </c>
       <c r="I2">
-        <v>6673</v>
+        <v>54899</v>
       </c>
       <c r="J2">
-        <v>39555</v>
+        <v>11396</v>
       </c>
       <c r="K2">
-        <v>8096</v>
+        <v>1115</v>
+      </c>
+      <c r="L2">
+        <v>6619</v>
+      </c>
+      <c r="M2">
+        <v>40111</v>
+      </c>
+      <c r="N2">
+        <v>8343</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ159"/>
+  <dimension ref="A1:BJ160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3947,10 +3947,10 @@
       <c r="O33">
         <v>18.76389877754985</v>
       </c>
+      <c r="R33">
+        <v>63751</v>
+      </c>
       <c r="S33">
-        <v>63751</v>
-      </c>
-      <c r="T33">
         <v>0.1056</v>
       </c>
       <c r="X33">
@@ -4060,10 +4060,10 @@
       <c r="O34">
         <v>14.31448255720468</v>
       </c>
+      <c r="R34">
+        <v>70938</v>
+      </c>
       <c r="S34">
-        <v>70938</v>
-      </c>
-      <c r="T34">
         <v>0.09329999999999999</v>
       </c>
       <c r="X34">
@@ -4173,10 +4173,10 @@
       <c r="O35">
         <v>20.40663876642308</v>
       </c>
+      <c r="R35">
+        <v>85357</v>
+      </c>
       <c r="S35">
-        <v>85357</v>
-      </c>
-      <c r="T35">
         <v>0.0889099985852</v>
       </c>
       <c r="X35">
@@ -4286,10 +4286,10 @@
       <c r="O36">
         <v>21.12506485668765</v>
       </c>
+      <c r="R36">
+        <v>88649</v>
+      </c>
       <c r="S36">
-        <v>88649</v>
-      </c>
-      <c r="T36">
         <v>0.1094</v>
       </c>
       <c r="X36">
@@ -4399,10 +4399,10 @@
       <c r="O37">
         <v>20.97866630805693</v>
       </c>
+      <c r="R37">
+        <v>96258</v>
+      </c>
       <c r="S37">
-        <v>96258</v>
-      </c>
-      <c r="T37">
         <v>0.1107</v>
       </c>
       <c r="X37">
@@ -4512,10 +4512,10 @@
       <c r="O38">
         <v>21.80183858517587</v>
       </c>
+      <c r="R38">
+        <v>106134</v>
+      </c>
       <c r="S38">
-        <v>106134</v>
-      </c>
-      <c r="T38">
         <v>0.100351636462</v>
       </c>
       <c r="X38">
@@ -4625,10 +4625,10 @@
       <c r="O39">
         <v>25.16265513986641</v>
       </c>
+      <c r="R39">
+        <v>115918</v>
+      </c>
       <c r="S39">
-        <v>115918</v>
-      </c>
-      <c r="T39">
         <v>0.1055125178708</v>
       </c>
       <c r="X39">
@@ -4738,10 +4738,10 @@
       <c r="O40">
         <v>16.98981936867992</v>
       </c>
+      <c r="R40">
+        <v>120533</v>
+      </c>
       <c r="S40">
-        <v>120533</v>
-      </c>
-      <c r="T40">
         <v>0.1136</v>
       </c>
       <c r="X40">
@@ -4851,10 +4851,10 @@
       <c r="O41">
         <v>13.80615054182571</v>
       </c>
+      <c r="R41">
+        <v>124553</v>
+      </c>
       <c r="S41">
-        <v>124553</v>
-      </c>
-      <c r="T41">
         <v>0.1248</v>
       </c>
       <c r="X41">
@@ -4982,10 +4982,10 @@
       <c r="O42">
         <v>19.97373431113056</v>
       </c>
+      <c r="R42">
+        <v>133226</v>
+      </c>
       <c r="S42">
-        <v>133226</v>
-      </c>
-      <c r="T42">
         <v>0.1386</v>
       </c>
       <c r="X42">
@@ -5113,10 +5113,10 @@
       <c r="O43">
         <v>21.37151493280279</v>
       </c>
+      <c r="R43">
+        <v>146467</v>
+      </c>
       <c r="S43">
-        <v>146467</v>
-      </c>
-      <c r="T43">
         <v>0.1101</v>
       </c>
       <c r="X43">
@@ -5244,10 +5244,10 @@
       <c r="O44">
         <v>19.92159053790046</v>
       </c>
+      <c r="R44">
+        <v>151810</v>
+      </c>
       <c r="S44">
-        <v>151810</v>
-      </c>
-      <c r="T44">
         <v>0.1105</v>
       </c>
       <c r="X44">
@@ -5375,10 +5375,10 @@
       <c r="O45">
         <v>20.33118292743112</v>
       </c>
+      <c r="R45">
+        <v>158547</v>
+      </c>
       <c r="S45">
-        <v>158547</v>
-      </c>
-      <c r="T45">
         <v>0.1188</v>
       </c>
       <c r="X45">
@@ -5506,10 +5506,10 @@
       <c r="O46">
         <v>22.18715809525528</v>
       </c>
+      <c r="R46">
+        <v>169536</v>
+      </c>
       <c r="S46">
-        <v>169536</v>
-      </c>
-      <c r="T46">
         <v>0.1063</v>
       </c>
       <c r="X46">
@@ -5637,10 +5637,10 @@
       <c r="O47">
         <v>14.8943942447753</v>
       </c>
+      <c r="R47">
+        <v>176239</v>
+      </c>
       <c r="S47">
-        <v>176239</v>
-      </c>
-      <c r="T47">
         <v>0.1023</v>
       </c>
       <c r="X47">
@@ -5768,10 +5768,10 @@
       <c r="O48">
         <v>13.05324295849369</v>
       </c>
+      <c r="R48">
+        <v>182710</v>
+      </c>
       <c r="S48">
-        <v>182710</v>
-      </c>
-      <c r="T48">
         <v>0.0935</v>
       </c>
       <c r="X48">
@@ -5899,10 +5899,10 @@
       <c r="O49">
         <v>18.71716742983336</v>
       </c>
+      <c r="R49">
+        <v>190394</v>
+      </c>
       <c r="S49">
-        <v>190394</v>
-      </c>
-      <c r="T49">
         <v>0.09711726840190001</v>
       </c>
       <c r="X49">
@@ -6030,10 +6030,10 @@
       <c r="O50">
         <v>19.86054647694573</v>
       </c>
+      <c r="R50">
+        <v>205399</v>
+      </c>
       <c r="S50">
-        <v>205399</v>
-      </c>
-      <c r="T50">
         <v>0.0945</v>
       </c>
       <c r="X50">
@@ -6161,10 +6161,10 @@
       <c r="O51">
         <v>20.80398792261366</v>
       </c>
+      <c r="R51">
+        <v>216783</v>
+      </c>
       <c r="S51">
-        <v>216783</v>
-      </c>
-      <c r="T51">
         <v>0.0858</v>
       </c>
       <c r="X51">
@@ -6292,10 +6292,10 @@
       <c r="O52">
         <v>19.41281090558118</v>
       </c>
+      <c r="R52">
+        <v>225078</v>
+      </c>
       <c r="S52">
-        <v>225078</v>
-      </c>
-      <c r="T52">
         <v>0.0825</v>
       </c>
       <c r="X52">
@@ -6423,10 +6423,10 @@
       <c r="O53">
         <v>20.35444502904312</v>
       </c>
+      <c r="R53">
+        <v>242547</v>
+      </c>
       <c r="S53">
-        <v>242547</v>
-      </c>
-      <c r="T53">
         <v>0.07439999999999999</v>
       </c>
       <c r="X53">
@@ -6554,10 +6554,10 @@
       <c r="O54">
         <v>12.6445152051925</v>
       </c>
+      <c r="R54">
+        <v>262816</v>
+      </c>
       <c r="S54">
-        <v>262816</v>
-      </c>
-      <c r="T54">
         <v>0.06370000000000001</v>
       </c>
       <c r="X54">
@@ -6685,10 +6685,10 @@
       <c r="O55">
         <v>10.82622847288675</v>
       </c>
+      <c r="R55">
+        <v>276021</v>
+      </c>
       <c r="S55">
-        <v>276021</v>
-      </c>
-      <c r="T55">
         <v>0.0612</v>
       </c>
       <c r="X55">
@@ -6816,10 +6816,10 @@
       <c r="O56">
         <v>17.92361084678433</v>
       </c>
+      <c r="R56">
+        <v>290517</v>
+      </c>
       <c r="S56">
-        <v>290517</v>
-      </c>
-      <c r="T56">
         <v>0.0583</v>
       </c>
       <c r="X56">
@@ -6947,10 +6947,10 @@
       <c r="O57">
         <v>13.40123395048519</v>
       </c>
+      <c r="R57">
+        <v>300384</v>
+      </c>
       <c r="S57">
-        <v>300384</v>
-      </c>
-      <c r="T57">
         <v>0.0629</v>
       </c>
       <c r="X57">
@@ -7078,10 +7078,10 @@
       <c r="O58">
         <v>19.16850211791719</v>
       </c>
+      <c r="R58">
+        <v>314790</v>
+      </c>
       <c r="S58">
-        <v>314790</v>
-      </c>
-      <c r="T58">
         <v>0.0610670666381</v>
       </c>
       <c r="X58">
@@ -7209,10 +7209,10 @@
       <c r="O59">
         <v>18.20118073504363</v>
       </c>
+      <c r="R59">
+        <v>330300</v>
+      </c>
       <c r="S59">
-        <v>330300</v>
-      </c>
-      <c r="T59">
         <v>0.0583813270989</v>
       </c>
       <c r="X59">
@@ -7340,10 +7340,10 @@
       <c r="O60">
         <v>17.99770410832057</v>
       </c>
+      <c r="R60">
+        <v>351775</v>
+      </c>
       <c r="S60">
-        <v>351775</v>
-      </c>
-      <c r="T60">
         <v>0.0588</v>
       </c>
       <c r="X60">
@@ -7471,10 +7471,10 @@
       <c r="O61">
         <v>10.60317788198348</v>
       </c>
+      <c r="R61">
+        <v>380648</v>
+      </c>
       <c r="S61">
-        <v>380648</v>
-      </c>
-      <c r="T61">
         <v>0.0573</v>
       </c>
       <c r="X61">
@@ -7602,10 +7602,10 @@
       <c r="O62">
         <v>8.988903319265766</v>
       </c>
+      <c r="R62">
+        <v>390560</v>
+      </c>
       <c r="S62">
-        <v>390560</v>
-      </c>
-      <c r="T62">
         <v>0.0604</v>
       </c>
       <c r="X62">
@@ -7698,10 +7698,10 @@
         <v>784</v>
       </c>
       <c r="D63">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F63">
         <v>272725</v>
@@ -7733,10 +7733,10 @@
       <c r="O63">
         <v>15.79859908321837</v>
       </c>
+      <c r="R63">
+        <v>407398</v>
+      </c>
       <c r="S63">
-        <v>407398</v>
-      </c>
-      <c r="T63">
         <v>0.0602</v>
       </c>
       <c r="X63">
@@ -7829,7 +7829,7 @@
         <v>1037</v>
       </c>
       <c r="D64">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -7864,10 +7864,10 @@
       <c r="O64">
         <v>17.14491484092203</v>
       </c>
+      <c r="R64">
+        <v>427210</v>
+      </c>
       <c r="S64">
-        <v>427210</v>
-      </c>
-      <c r="T64">
         <v>0.0567549240692</v>
       </c>
       <c r="X64">
@@ -7960,7 +7960,7 @@
         <v>1053</v>
       </c>
       <c r="D65">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E65">
         <v>32</v>
@@ -7995,10 +7995,10 @@
       <c r="O65">
         <v>16.55087115394742</v>
       </c>
+      <c r="R65">
+        <v>438938</v>
+      </c>
       <c r="S65">
-        <v>438938</v>
-      </c>
-      <c r="T65">
         <v>0.0593</v>
       </c>
       <c r="X65">
@@ -8091,7 +8091,7 @@
         <v>968</v>
       </c>
       <c r="D66">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E66">
         <v>35</v>
@@ -8126,10 +8126,10 @@
       <c r="O66">
         <v>16.79766943823035</v>
       </c>
+      <c r="R66">
+        <v>455162</v>
+      </c>
       <c r="S66">
-        <v>455162</v>
-      </c>
-      <c r="T66">
         <v>0.0585</v>
       </c>
       <c r="X66">
@@ -8222,7 +8222,7 @@
         <v>1219</v>
       </c>
       <c r="D67">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E67">
         <v>33</v>
@@ -8257,10 +8257,10 @@
       <c r="O67">
         <v>17.17742629656268</v>
       </c>
+      <c r="R67">
+        <v>477118</v>
+      </c>
       <c r="S67">
-        <v>477118</v>
-      </c>
-      <c r="T67">
         <v>0.0589</v>
       </c>
       <c r="X67">
@@ -8353,7 +8353,7 @@
         <v>1251</v>
       </c>
       <c r="D68">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E68">
         <v>27</v>
@@ -8394,10 +8394,10 @@
       <c r="Q68">
         <v>16512</v>
       </c>
+      <c r="R68">
+        <v>489294</v>
+      </c>
       <c r="S68">
-        <v>489294</v>
-      </c>
-      <c r="T68">
         <v>0.0675</v>
       </c>
       <c r="X68">
@@ -8490,7 +8490,7 @@
         <v>1009</v>
       </c>
       <c r="D69">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E69">
         <v>26</v>
@@ -8531,10 +8531,10 @@
       <c r="Q69">
         <v>17650</v>
       </c>
+      <c r="R69">
+        <v>513978</v>
+      </c>
       <c r="S69">
-        <v>513978</v>
-      </c>
-      <c r="T69">
         <v>0.0593</v>
       </c>
       <c r="X69">
@@ -8627,7 +8627,7 @@
         <v>1000</v>
       </c>
       <c r="D70">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E70">
         <v>33</v>
@@ -8668,10 +8668,10 @@
       <c r="Q70">
         <v>18926</v>
       </c>
+      <c r="R70">
+        <v>525697</v>
+      </c>
       <c r="S70">
-        <v>525697</v>
-      </c>
-      <c r="T70">
         <v>0.0637114430384</v>
       </c>
       <c r="X70">
@@ -8764,7 +8764,7 @@
         <v>1179</v>
       </c>
       <c r="D71">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E71">
         <v>33</v>
@@ -8805,10 +8805,10 @@
       <c r="Q71">
         <v>26787</v>
       </c>
+      <c r="R71">
+        <v>538172</v>
+      </c>
       <c r="S71">
-        <v>538172</v>
-      </c>
-      <c r="T71">
         <v>0.0692</v>
       </c>
       <c r="X71">
@@ -8901,7 +8901,7 @@
         <v>1355</v>
       </c>
       <c r="D72">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E72">
         <v>41</v>
@@ -8942,10 +8942,10 @@
       <c r="Q72">
         <v>30655</v>
       </c>
+      <c r="R72">
+        <v>587431</v>
+      </c>
       <c r="S72">
-        <v>587431</v>
-      </c>
-      <c r="T72">
         <v>0.0537</v>
       </c>
       <c r="X72">
@@ -9038,7 +9038,7 @@
         <v>1448</v>
       </c>
       <c r="D73">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E73">
         <v>31</v>
@@ -9079,10 +9079,10 @@
       <c r="Q73">
         <v>35971</v>
       </c>
+      <c r="R73">
+        <v>623284</v>
+      </c>
       <c r="S73">
-        <v>623284</v>
-      </c>
-      <c r="T73">
         <v>0.0503</v>
       </c>
       <c r="X73">
@@ -9175,7 +9175,7 @@
         <v>1347</v>
       </c>
       <c r="D74">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="E74">
         <v>40</v>
@@ -9216,10 +9216,10 @@
       <c r="Q74">
         <v>36362</v>
       </c>
+      <c r="R74">
+        <v>645992</v>
+      </c>
       <c r="S74">
-        <v>645992</v>
-      </c>
-      <c r="T74">
         <v>0.0509</v>
       </c>
       <c r="X74">
@@ -9336,7 +9336,7 @@
         <v>1801</v>
       </c>
       <c r="D75">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="E75">
         <v>30</v>
@@ -9377,19 +9377,19 @@
       <c r="Q75">
         <v>39732</v>
       </c>
+      <c r="R75">
+        <v>678471</v>
+      </c>
       <c r="S75">
-        <v>678471</v>
+        <v>0.0483</v>
       </c>
       <c r="T75">
-        <v>0.0483</v>
+        <v>23708</v>
       </c>
       <c r="U75">
-        <v>23708</v>
+        <v>3317</v>
       </c>
       <c r="V75">
-        <v>3317</v>
-      </c>
-      <c r="W75">
         <v>27025</v>
       </c>
       <c r="X75">
@@ -9506,7 +9506,7 @@
         <v>785</v>
       </c>
       <c r="D76">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E76">
         <v>25</v>
@@ -9547,19 +9547,19 @@
       <c r="Q76">
         <v>42921</v>
       </c>
+      <c r="R76">
+        <v>693276</v>
+      </c>
       <c r="S76">
-        <v>693276</v>
+        <v>0.0497</v>
       </c>
       <c r="T76">
-        <v>0.0497</v>
+        <v>22004</v>
       </c>
       <c r="U76">
-        <v>22004</v>
+        <v>3610</v>
       </c>
       <c r="V76">
-        <v>3610</v>
-      </c>
-      <c r="W76">
         <v>25614</v>
       </c>
       <c r="X76">
@@ -9676,7 +9676,7 @@
         <v>909</v>
       </c>
       <c r="D77">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="E77">
         <v>22</v>
@@ -9717,19 +9717,19 @@
       <c r="Q77">
         <v>43168</v>
       </c>
+      <c r="R77">
+        <v>723013</v>
+      </c>
       <c r="S77">
-        <v>723013</v>
+        <v>0.044720144337</v>
       </c>
       <c r="T77">
-        <v>0.044720144337</v>
+        <v>24725</v>
       </c>
       <c r="U77">
-        <v>24725</v>
+        <v>3463</v>
       </c>
       <c r="V77">
-        <v>3463</v>
-      </c>
-      <c r="W77">
         <v>28188</v>
       </c>
       <c r="X77">
@@ -9846,7 +9846,7 @@
         <v>1219</v>
       </c>
       <c r="D78">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E78">
         <v>28</v>
@@ -9887,19 +9887,19 @@
       <c r="Q78">
         <v>44791</v>
       </c>
+      <c r="R78">
+        <v>744937</v>
+      </c>
       <c r="S78">
-        <v>744937</v>
+        <v>0.047</v>
       </c>
       <c r="T78">
-        <v>0.047</v>
+        <v>26966</v>
       </c>
       <c r="U78">
-        <v>26966</v>
+        <v>2572</v>
       </c>
       <c r="V78">
-        <v>2572</v>
-      </c>
-      <c r="W78">
         <v>29538</v>
       </c>
       <c r="X78">
@@ -10016,7 +10016,7 @@
         <v>1411</v>
       </c>
       <c r="D79">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E79">
         <v>21</v>
@@ -10057,19 +10057,19 @@
       <c r="Q79">
         <v>49313</v>
       </c>
+      <c r="R79">
+        <v>770241</v>
+      </c>
       <c r="S79">
-        <v>770241</v>
+        <v>0.0543</v>
       </c>
       <c r="T79">
-        <v>0.0543</v>
+        <v>23450</v>
       </c>
       <c r="U79">
-        <v>23450</v>
+        <v>2665</v>
       </c>
       <c r="V79">
-        <v>2665</v>
-      </c>
-      <c r="W79">
         <v>26116</v>
       </c>
       <c r="X79">
@@ -10186,7 +10186,7 @@
         <v>945</v>
       </c>
       <c r="D80">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="E80">
         <v>24</v>
@@ -10227,19 +10227,19 @@
       <c r="Q80">
         <v>60252</v>
       </c>
+      <c r="R80">
+        <v>800433</v>
+      </c>
       <c r="S80">
-        <v>800433</v>
+        <v>0.0551</v>
       </c>
       <c r="T80">
-        <v>0.0551</v>
+        <v>21838</v>
       </c>
       <c r="U80">
-        <v>21838</v>
+        <v>3469</v>
       </c>
       <c r="V80">
-        <v>3469</v>
-      </c>
-      <c r="W80">
         <v>25307</v>
       </c>
       <c r="X80">
@@ -10356,7 +10356,7 @@
         <v>1181</v>
       </c>
       <c r="D81">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E81">
         <v>29</v>
@@ -10397,19 +10397,19 @@
       <c r="Q81">
         <v>71731</v>
       </c>
+      <c r="R81">
+        <v>834437</v>
+      </c>
       <c r="S81">
-        <v>834437</v>
+        <v>0.0539</v>
       </c>
       <c r="T81">
-        <v>0.0539</v>
+        <v>21868</v>
       </c>
       <c r="U81">
-        <v>21868</v>
+        <v>5053</v>
       </c>
       <c r="V81">
-        <v>5053</v>
-      </c>
-      <c r="W81">
         <v>26921</v>
       </c>
       <c r="X81">
@@ -10526,7 +10526,7 @@
         <v>1060</v>
       </c>
       <c r="D82">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="E82">
         <v>15</v>
@@ -10561,10 +10561,10 @@
       <c r="O82">
         <v>6.800538902448421</v>
       </c>
-      <c r="S82">
+      <c r="R82">
         <v>870935</v>
       </c>
-      <c r="W82">
+      <c r="V82">
         <v>27495</v>
       </c>
       <c r="X82">
@@ -10681,7 +10681,7 @@
         <v>839</v>
       </c>
       <c r="D83">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="E83">
         <v>31</v>
@@ -10722,19 +10722,19 @@
       <c r="Q83">
         <v>80700</v>
       </c>
+      <c r="R83">
+        <v>886354</v>
+      </c>
       <c r="S83">
-        <v>886354</v>
+        <v>0.0487</v>
       </c>
       <c r="T83">
-        <v>0.0487</v>
+        <v>22186</v>
       </c>
       <c r="U83">
-        <v>22186</v>
+        <v>5397</v>
       </c>
       <c r="V83">
-        <v>5397</v>
-      </c>
-      <c r="W83">
         <v>27583</v>
       </c>
       <c r="X83">
@@ -10851,7 +10851,7 @@
         <v>623</v>
       </c>
       <c r="D84">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="E84">
         <v>31</v>
@@ -10892,19 +10892,19 @@
       <c r="Q84">
         <v>84841</v>
       </c>
+      <c r="R84">
+        <v>906074</v>
+      </c>
       <c r="S84">
-        <v>906074</v>
+        <v>0.0515</v>
       </c>
       <c r="T84">
-        <v>0.0515</v>
+        <v>20198</v>
       </c>
       <c r="U84">
-        <v>20198</v>
+        <v>5953</v>
       </c>
       <c r="V84">
-        <v>5953</v>
-      </c>
-      <c r="W84">
         <v>26152</v>
       </c>
       <c r="X84">
@@ -11021,7 +11021,7 @@
         <v>589</v>
       </c>
       <c r="D85">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -11062,19 +11062,19 @@
       <c r="Q85">
         <v>87565</v>
       </c>
+      <c r="R85">
+        <v>943239</v>
+      </c>
       <c r="S85">
-        <v>943239</v>
+        <v>0.0427</v>
       </c>
       <c r="T85">
-        <v>0.0427</v>
+        <v>22218</v>
       </c>
       <c r="U85">
-        <v>22218</v>
+        <v>6111</v>
       </c>
       <c r="V85">
-        <v>6111</v>
-      </c>
-      <c r="W85">
         <v>28329</v>
       </c>
       <c r="X85">
@@ -11191,7 +11191,7 @@
         <v>1361</v>
       </c>
       <c r="D86">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E86">
         <v>22</v>
@@ -11232,19 +11232,19 @@
       <c r="Q86">
         <v>88643</v>
       </c>
+      <c r="R86">
+        <v>961861</v>
+      </c>
       <c r="S86">
-        <v>961861</v>
+        <v>0.0433</v>
       </c>
       <c r="T86">
-        <v>0.0433</v>
+        <v>21756</v>
       </c>
       <c r="U86">
-        <v>21756</v>
+        <v>5619</v>
       </c>
       <c r="V86">
-        <v>5619</v>
-      </c>
-      <c r="W86">
         <v>27374</v>
       </c>
       <c r="X86">
@@ -11361,7 +11361,7 @@
         <v>1855</v>
       </c>
       <c r="D87">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E87">
         <v>31</v>
@@ -11402,19 +11402,19 @@
       <c r="Q87">
         <v>96719</v>
       </c>
+      <c r="R87">
+        <v>989994</v>
+      </c>
       <c r="S87">
-        <v>989994</v>
+        <v>0.049</v>
       </c>
       <c r="T87">
-        <v>0.049</v>
+        <v>21871</v>
       </c>
       <c r="U87">
-        <v>21871</v>
+        <v>5210</v>
       </c>
       <c r="V87">
-        <v>5210</v>
-      </c>
-      <c r="W87">
         <v>27080</v>
       </c>
       <c r="X87">
@@ -11531,7 +11531,7 @@
         <v>1230</v>
       </c>
       <c r="D88">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E88">
         <v>35</v>
@@ -11572,19 +11572,19 @@
       <c r="Q88">
         <v>98932</v>
       </c>
+      <c r="R88">
+        <v>1027449</v>
+      </c>
       <c r="S88">
-        <v>1027449</v>
+        <v>0.0456</v>
       </c>
       <c r="T88">
-        <v>0.0456</v>
+        <v>23687</v>
       </c>
       <c r="U88">
-        <v>23687</v>
+        <v>3886</v>
       </c>
       <c r="V88">
-        <v>3886</v>
-      </c>
-      <c r="W88">
         <v>27573</v>
       </c>
       <c r="X88">
@@ -11701,7 +11701,7 @@
         <v>1332</v>
       </c>
       <c r="D89">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="E89">
         <v>32</v>
@@ -11742,10 +11742,10 @@
       <c r="Q89">
         <v>102928</v>
       </c>
-      <c r="S89">
+      <c r="R89">
         <v>1054793</v>
       </c>
-      <c r="W89">
+      <c r="V89">
         <v>26265</v>
       </c>
       <c r="X89">
@@ -11862,7 +11862,7 @@
         <v>1949</v>
       </c>
       <c r="D90">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E90">
         <v>14</v>
@@ -11903,19 +11903,19 @@
       <c r="Q90">
         <v>103460</v>
       </c>
+      <c r="R90">
+        <v>1073491</v>
+      </c>
       <c r="S90">
-        <v>1073491</v>
+        <v>0.0543810873784</v>
       </c>
       <c r="T90">
-        <v>0.0543810873784</v>
+        <v>23482</v>
       </c>
       <c r="U90">
-        <v>23482</v>
+        <v>3251</v>
       </c>
       <c r="V90">
-        <v>3251</v>
-      </c>
-      <c r="W90">
         <v>26734</v>
       </c>
       <c r="X90">
@@ -12032,7 +12032,7 @@
         <v>593</v>
       </c>
       <c r="D91">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -12073,19 +12073,19 @@
       <c r="Q91">
         <v>107452</v>
       </c>
+      <c r="R91">
+        <v>1093676</v>
+      </c>
       <c r="S91">
-        <v>1093676</v>
+        <v>0.054</v>
       </c>
       <c r="T91">
-        <v>0.054</v>
+        <v>23570</v>
       </c>
       <c r="U91">
-        <v>23570</v>
+        <v>3230</v>
       </c>
       <c r="V91">
-        <v>3230</v>
-      </c>
-      <c r="W91">
         <v>26800</v>
       </c>
       <c r="X91">
@@ -12205,7 +12205,7 @@
         <v>1688</v>
       </c>
       <c r="D92">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E92">
         <v>28</v>
@@ -12246,19 +12246,19 @@
       <c r="Q92">
         <v>110506</v>
       </c>
+      <c r="R92">
+        <v>1117274</v>
+      </c>
       <c r="S92">
-        <v>1117274</v>
+        <v>0.06623691212093</v>
       </c>
       <c r="T92">
-        <v>0.0662</v>
+        <v>21585</v>
       </c>
       <c r="U92">
-        <v>21585</v>
+        <v>3277</v>
       </c>
       <c r="V92">
-        <v>3277</v>
-      </c>
-      <c r="W92">
         <v>24862</v>
       </c>
       <c r="X92">
@@ -12378,7 +12378,7 @@
         <v>1703</v>
       </c>
       <c r="D93">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -12419,19 +12419,19 @@
       <c r="Q93">
         <v>112313</v>
       </c>
+      <c r="R93">
+        <v>1150868</v>
+      </c>
       <c r="S93">
-        <v>1150868</v>
+        <v>0.06259941815807001</v>
       </c>
       <c r="T93">
-        <v>0.0626</v>
+        <v>23620</v>
       </c>
       <c r="U93">
-        <v>23620</v>
+        <v>3381</v>
       </c>
       <c r="V93">
-        <v>3381</v>
-      </c>
-      <c r="W93">
         <v>27001</v>
       </c>
       <c r="X93">
@@ -12551,7 +12551,7 @@
         <v>1649</v>
       </c>
       <c r="D94">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E94">
         <v>21</v>
@@ -12592,19 +12592,19 @@
       <c r="Q94">
         <v>113372</v>
       </c>
+      <c r="R94">
+        <v>1174948</v>
+      </c>
       <c r="S94">
-        <v>1174948</v>
+        <v>0.06027296332167</v>
       </c>
       <c r="T94">
-        <v>0.0603</v>
+        <v>24043</v>
       </c>
       <c r="U94">
-        <v>24043</v>
+        <v>2379</v>
       </c>
       <c r="V94">
-        <v>2379</v>
-      </c>
-      <c r="W94">
         <v>26422</v>
       </c>
       <c r="X94">
@@ -12724,7 +12724,7 @@
         <v>1693</v>
       </c>
       <c r="D95">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -12765,19 +12765,19 @@
       <c r="Q95">
         <v>115910</v>
       </c>
+      <c r="R95">
+        <v>1209187</v>
+      </c>
       <c r="S95">
-        <v>1209187</v>
+        <v>0.06437848992474</v>
       </c>
       <c r="T95">
-        <v>0.0644</v>
+        <v>23537</v>
       </c>
       <c r="U95">
-        <v>23537</v>
+        <v>2425</v>
       </c>
       <c r="V95">
-        <v>2425</v>
-      </c>
-      <c r="W95">
         <v>25963</v>
       </c>
       <c r="X95">
@@ -12897,7 +12897,7 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="E96">
         <v>33</v>
@@ -12938,19 +12938,19 @@
       <c r="Q96">
         <v>126943</v>
       </c>
+      <c r="R96">
+        <v>1218955</v>
+      </c>
       <c r="S96">
-        <v>1218955</v>
+        <v>0.08002311858263</v>
       </c>
       <c r="T96">
-        <v>0.08</v>
+        <v>20021</v>
       </c>
       <c r="U96">
-        <v>20021</v>
+        <v>3431</v>
       </c>
       <c r="V96">
-        <v>3431</v>
-      </c>
-      <c r="W96">
         <v>23452</v>
       </c>
       <c r="X96">
@@ -13070,7 +13070,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -13111,19 +13111,19 @@
       <c r="Q97">
         <v>135583</v>
       </c>
+      <c r="R97">
+        <v>1255899</v>
+      </c>
       <c r="S97">
-        <v>1255899</v>
+        <v>0.0711381708088</v>
       </c>
       <c r="T97">
-        <v>0.0711381708088</v>
+        <v>21469</v>
       </c>
       <c r="U97">
-        <v>21469</v>
+        <v>4589</v>
       </c>
       <c r="V97">
-        <v>4589</v>
-      </c>
-      <c r="W97">
         <v>26058</v>
       </c>
       <c r="X97">
@@ -13243,7 +13243,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13284,19 +13284,19 @@
       <c r="Q98">
         <v>138784</v>
       </c>
+      <c r="R98">
+        <v>1286139</v>
+      </c>
       <c r="S98">
-        <v>1286139</v>
+        <v>0.06662901614215</v>
       </c>
       <c r="T98">
-        <v>0.06660000000000001</v>
+        <v>23019</v>
       </c>
       <c r="U98">
-        <v>23019</v>
+        <v>4476</v>
       </c>
       <c r="V98">
-        <v>4476</v>
-      </c>
-      <c r="W98">
         <v>27495</v>
       </c>
       <c r="X98">
@@ -13416,10 +13416,10 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="E99">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99">
         <v>1051218</v>
@@ -13457,19 +13457,19 @@
       <c r="Q99">
         <v>140962</v>
       </c>
+      <c r="R99">
+        <v>1302049</v>
+      </c>
       <c r="S99">
-        <v>1302049</v>
+        <v>0.06923969180723</v>
       </c>
       <c r="T99">
-        <v>0.0692</v>
+        <v>22046</v>
       </c>
       <c r="U99">
-        <v>22046</v>
+        <v>4351</v>
       </c>
       <c r="V99">
-        <v>4351</v>
-      </c>
-      <c r="W99">
         <v>26396</v>
       </c>
       <c r="X99">
@@ -13589,7 +13589,7 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="E100">
         <v>23</v>
@@ -13630,19 +13630,19 @@
       <c r="Q100">
         <v>142573</v>
       </c>
+      <c r="R100">
+        <v>1348893</v>
+      </c>
       <c r="S100">
-        <v>1348893</v>
+        <v>0.06846481685691</v>
       </c>
       <c r="T100">
-        <v>0.06850000000000001</v>
+        <v>23966</v>
       </c>
       <c r="U100">
-        <v>23966</v>
+        <v>4323</v>
       </c>
       <c r="V100">
-        <v>4323</v>
-      </c>
-      <c r="W100">
         <v>28289</v>
       </c>
       <c r="X100">
@@ -13762,7 +13762,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="E101">
         <v>28</v>
@@ -13803,19 +13803,19 @@
       <c r="Q101">
         <v>143174</v>
       </c>
+      <c r="R101">
+        <v>1370131</v>
+      </c>
       <c r="S101">
-        <v>1370131</v>
+        <v>0.07052200676015</v>
       </c>
       <c r="T101">
-        <v>0.07049999999999999</v>
+        <v>23626</v>
       </c>
       <c r="U101">
-        <v>23626</v>
+        <v>4257</v>
       </c>
       <c r="V101">
-        <v>4257</v>
-      </c>
-      <c r="W101">
         <v>27883</v>
       </c>
       <c r="X101">
@@ -13935,7 +13935,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13976,19 +13976,19 @@
       <c r="Q102">
         <v>144050</v>
       </c>
+      <c r="R102">
+        <v>1404369</v>
+      </c>
       <c r="S102">
-        <v>1404369</v>
+        <v>0.07223931705799</v>
       </c>
       <c r="T102">
-        <v>0.0722</v>
+        <v>23863</v>
       </c>
       <c r="U102">
-        <v>23863</v>
+        <v>4020</v>
       </c>
       <c r="V102">
-        <v>4020</v>
-      </c>
-      <c r="W102">
         <v>27883</v>
       </c>
       <c r="X102">
@@ -14108,7 +14108,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -14149,19 +14149,19 @@
       <c r="Q103">
         <v>146967</v>
       </c>
+      <c r="R103">
+        <v>1442950</v>
+      </c>
       <c r="S103">
-        <v>1442950</v>
+        <v>0.06107731000976</v>
       </c>
       <c r="T103">
-        <v>0.0611</v>
+        <v>29139</v>
       </c>
       <c r="U103">
-        <v>29139</v>
+        <v>2861</v>
       </c>
       <c r="V103">
-        <v>2861</v>
-      </c>
-      <c r="W103">
         <v>31999</v>
       </c>
       <c r="X103">
@@ -14281,7 +14281,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14322,19 +14322,19 @@
       <c r="Q104">
         <v>149090</v>
       </c>
+      <c r="R104">
+        <v>1463851</v>
+      </c>
       <c r="S104">
-        <v>1463851</v>
+        <v>0.0662192393736</v>
       </c>
       <c r="T104">
-        <v>0.0662192393736</v>
+        <v>27778</v>
       </c>
       <c r="U104">
-        <v>27778</v>
+        <v>1930</v>
       </c>
       <c r="V104">
-        <v>1930</v>
-      </c>
-      <c r="W104">
         <v>29707</v>
       </c>
       <c r="X104">
@@ -14454,7 +14454,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="E105">
         <v>29</v>
@@ -14495,19 +14495,19 @@
       <c r="Q105">
         <v>150573</v>
       </c>
+      <c r="R105">
+        <v>1499015</v>
+      </c>
       <c r="S105">
-        <v>1499015</v>
+        <v>0.06709533684425</v>
       </c>
       <c r="T105">
-        <v>0.06710000000000001</v>
+        <v>28727</v>
       </c>
       <c r="U105">
-        <v>28727</v>
+        <v>1684</v>
       </c>
       <c r="V105">
-        <v>1684</v>
-      </c>
-      <c r="W105">
         <v>30411</v>
       </c>
       <c r="X105">
@@ -14627,7 +14627,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14668,19 +14668,19 @@
       <c r="Q106">
         <v>152796</v>
       </c>
+      <c r="R106">
+        <v>1522434</v>
+      </c>
       <c r="S106">
-        <v>1522434</v>
+        <v>0.06941707304208999</v>
       </c>
       <c r="T106">
-        <v>0.0694</v>
+        <v>29793</v>
       </c>
       <c r="U106">
-        <v>29793</v>
+        <v>1691</v>
       </c>
       <c r="V106">
-        <v>1691</v>
-      </c>
-      <c r="W106">
         <v>31484</v>
       </c>
       <c r="X106">
@@ -14800,7 +14800,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="E107">
         <v>37</v>
@@ -14841,19 +14841,19 @@
       <c r="Q107">
         <v>152796</v>
       </c>
+      <c r="R107">
+        <v>1560537</v>
+      </c>
       <c r="S107">
-        <v>1560537</v>
+        <v>0.07497728638027</v>
       </c>
       <c r="T107">
-        <v>0.075</v>
+        <v>28774</v>
       </c>
       <c r="U107">
-        <v>28774</v>
+        <v>1460</v>
       </c>
       <c r="V107">
-        <v>1460</v>
-      </c>
-      <c r="W107">
         <v>30235</v>
       </c>
       <c r="X107">
@@ -14973,7 +14973,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -15014,19 +15014,19 @@
       <c r="Q108">
         <v>153011</v>
       </c>
+      <c r="R108">
+        <v>1576925</v>
+      </c>
       <c r="S108">
-        <v>1576925</v>
+        <v>0.0852571881172</v>
       </c>
       <c r="T108">
-        <v>0.0852571881172</v>
+        <v>28137</v>
       </c>
       <c r="U108">
-        <v>28137</v>
+        <v>1405</v>
       </c>
       <c r="V108">
-        <v>1405</v>
-      </c>
-      <c r="W108">
         <v>29542</v>
       </c>
       <c r="X108">
@@ -15146,10 +15146,10 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="E109">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109">
         <v>1249858</v>
@@ -15187,19 +15187,19 @@
       <c r="Q109">
         <v>159453</v>
       </c>
+      <c r="R109">
+        <v>1622851</v>
+      </c>
       <c r="S109">
-        <v>1622851</v>
+        <v>0.08936916175479</v>
       </c>
       <c r="T109">
-        <v>0.08939999999999999</v>
+        <v>29011</v>
       </c>
       <c r="U109">
-        <v>29011</v>
+        <v>2200</v>
       </c>
       <c r="V109">
-        <v>2200</v>
-      </c>
-      <c r="W109">
         <v>31212</v>
       </c>
       <c r="X109">
@@ -15319,7 +15319,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15360,19 +15360,19 @@
       <c r="Q110">
         <v>163944</v>
       </c>
+      <c r="R110">
+        <v>1690124</v>
+      </c>
       <c r="S110">
-        <v>1690124</v>
+        <v>0.08795944343323001</v>
       </c>
       <c r="T110">
-        <v>0.088</v>
+        <v>32885</v>
       </c>
       <c r="U110">
-        <v>32885</v>
+        <v>2425</v>
       </c>
       <c r="V110">
-        <v>2425</v>
-      </c>
-      <c r="W110">
         <v>35311</v>
       </c>
       <c r="X110">
@@ -15492,7 +15492,7 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -15533,19 +15533,19 @@
       <c r="Q111">
         <v>166168</v>
       </c>
+      <c r="R111">
+        <v>1715177</v>
+      </c>
       <c r="S111">
-        <v>1715177</v>
+        <v>0.0951</v>
       </c>
       <c r="T111">
-        <v>0.0951</v>
+        <v>33464</v>
       </c>
       <c r="U111">
-        <v>33464</v>
+        <v>2440</v>
       </c>
       <c r="V111">
-        <v>2440</v>
-      </c>
-      <c r="W111">
         <v>35904</v>
       </c>
       <c r="X111">
@@ -15665,7 +15665,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15706,19 +15706,19 @@
       <c r="Q112">
         <v>170411</v>
       </c>
+      <c r="R112">
+        <v>1767701</v>
+      </c>
       <c r="S112">
-        <v>1767701</v>
+        <v>0.09640261560072</v>
       </c>
       <c r="T112">
-        <v>0.0964</v>
+        <v>35550</v>
       </c>
       <c r="U112">
-        <v>35550</v>
+        <v>2834</v>
       </c>
       <c r="V112">
-        <v>2834</v>
-      </c>
-      <c r="W112">
         <v>38384</v>
       </c>
       <c r="X112">
@@ -15838,7 +15838,7 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="E113">
         <v>40</v>
@@ -15879,19 +15879,19 @@
       <c r="Q113">
         <v>175384</v>
       </c>
+      <c r="R113">
+        <v>1805642</v>
+      </c>
       <c r="S113">
-        <v>1805642</v>
+        <v>0.10422837848208</v>
       </c>
       <c r="T113">
-        <v>0.1042</v>
+        <v>37231</v>
       </c>
       <c r="U113">
-        <v>37231</v>
+        <v>3227</v>
       </c>
       <c r="V113">
-        <v>3227</v>
-      </c>
-      <c r="W113">
         <v>40458</v>
       </c>
       <c r="X113">
@@ -16011,7 +16011,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -16052,19 +16052,19 @@
       <c r="Q114">
         <v>176697</v>
       </c>
+      <c r="R114">
+        <v>1836037</v>
+      </c>
       <c r="S114">
-        <v>1836037</v>
+        <v>0.11759188232068</v>
       </c>
       <c r="T114">
-        <v>0.1176</v>
+        <v>35943</v>
       </c>
       <c r="U114">
-        <v>35943</v>
+        <v>3414</v>
       </c>
       <c r="V114">
-        <v>3414</v>
-      </c>
-      <c r="W114">
         <v>39357</v>
       </c>
       <c r="X114">
@@ -16184,7 +16184,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="E115">
         <v>59</v>
@@ -16225,19 +16225,19 @@
       <c r="Q115">
         <v>177863</v>
       </c>
+      <c r="R115">
+        <v>1875197</v>
+      </c>
       <c r="S115">
-        <v>1875197</v>
+        <v>0.11727744861385</v>
       </c>
       <c r="T115">
-        <v>0.1173</v>
+        <v>39060</v>
       </c>
       <c r="U115">
-        <v>39060</v>
+        <v>3550</v>
       </c>
       <c r="V115">
-        <v>3550</v>
-      </c>
-      <c r="W115">
         <v>42610</v>
       </c>
       <c r="X115">
@@ -16357,7 +16357,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="E116">
         <v>67</v>
@@ -16398,19 +16398,19 @@
       <c r="Q116">
         <v>180835</v>
       </c>
+      <c r="R116">
+        <v>1903661</v>
+      </c>
       <c r="S116">
-        <v>1903661</v>
+        <v>0.13228718565459</v>
       </c>
       <c r="T116">
-        <v>0.1323</v>
+        <v>37061</v>
       </c>
       <c r="U116">
-        <v>37061</v>
+        <v>3055</v>
       </c>
       <c r="V116">
-        <v>3055</v>
-      </c>
-      <c r="W116">
         <v>40116</v>
       </c>
       <c r="X116">
@@ -16530,7 +16530,7 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="E117">
         <v>80</v>
@@ -16571,19 +16571,19 @@
       <c r="Q117">
         <v>184398</v>
       </c>
+      <c r="R117">
+        <v>1959617</v>
+      </c>
       <c r="S117">
-        <v>1959617</v>
+        <v>0.14309405354181</v>
       </c>
       <c r="T117">
-        <v>0.1431</v>
+        <v>35577</v>
       </c>
       <c r="U117">
-        <v>35577</v>
+        <v>2922</v>
       </c>
       <c r="V117">
-        <v>2922</v>
-      </c>
-      <c r="W117">
         <v>38499</v>
       </c>
       <c r="X117">
@@ -16703,7 +16703,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3014</v>
+        <v>3017</v>
       </c>
       <c r="E118">
         <v>86</v>
@@ -16744,19 +16744,19 @@
       <c r="Q118">
         <v>187535</v>
       </c>
+      <c r="R118">
+        <v>2006724</v>
+      </c>
       <c r="S118">
-        <v>2006724</v>
+        <v>0.13739729069509</v>
       </c>
       <c r="T118">
-        <v>0.1374</v>
+        <v>38597</v>
       </c>
       <c r="U118">
-        <v>38597</v>
+        <v>3052</v>
       </c>
       <c r="V118">
-        <v>3052</v>
-      </c>
-      <c r="W118">
         <v>41650</v>
       </c>
       <c r="X118">
@@ -16876,7 +16876,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16917,19 +16917,19 @@
       <c r="Q119">
         <v>192657</v>
       </c>
+      <c r="R119">
+        <v>2061939</v>
+      </c>
       <c r="S119">
-        <v>2061939</v>
+        <v>0.14018794670431</v>
       </c>
       <c r="T119">
-        <v>0.1402</v>
+        <v>38856</v>
       </c>
       <c r="U119">
-        <v>38856</v>
+        <v>3178</v>
       </c>
       <c r="V119">
-        <v>3178</v>
-      </c>
-      <c r="W119">
         <v>42034</v>
       </c>
       <c r="X119">
@@ -17049,7 +17049,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="E120">
         <v>88</v>
@@ -17090,19 +17090,19 @@
       <c r="Q120">
         <v>197088</v>
       </c>
+      <c r="R120">
+        <v>2119036</v>
+      </c>
       <c r="S120">
-        <v>2119036</v>
+        <v>0.13581542048065</v>
       </c>
       <c r="T120">
-        <v>0.1358</v>
+        <v>41670</v>
       </c>
       <c r="U120">
-        <v>41670</v>
+        <v>3101</v>
       </c>
       <c r="V120">
-        <v>3101</v>
-      </c>
-      <c r="W120">
         <v>44771</v>
       </c>
       <c r="X120">
@@ -17222,7 +17222,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="E121">
         <v>92</v>
@@ -17263,19 +17263,19 @@
       <c r="Q121">
         <v>198745</v>
       </c>
+      <c r="R121">
+        <v>2174548</v>
+      </c>
       <c r="S121">
-        <v>2174548</v>
+        <v>0.13316248660981</v>
       </c>
       <c r="T121">
-        <v>0.1332</v>
+        <v>45209</v>
       </c>
       <c r="U121">
-        <v>45209</v>
+        <v>3150</v>
       </c>
       <c r="V121">
-        <v>3150</v>
-      </c>
-      <c r="W121">
         <v>48359</v>
       </c>
       <c r="X121">
@@ -17398,7 +17398,7 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="E122">
         <v>113</v>
@@ -17439,19 +17439,19 @@
       <c r="Q122">
         <v>199041</v>
       </c>
+      <c r="R122">
+        <v>2212947</v>
+      </c>
       <c r="S122">
-        <v>2212947</v>
+        <v>0.13917844913637</v>
       </c>
       <c r="T122">
-        <v>0.1392</v>
+        <v>45225</v>
       </c>
       <c r="U122">
-        <v>45225</v>
+        <v>3025</v>
       </c>
       <c r="V122">
-        <v>3025</v>
-      </c>
-      <c r="W122">
         <v>48250</v>
       </c>
       <c r="X122">
@@ -17574,7 +17574,7 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="E123">
         <v>128</v>
@@ -17615,19 +17615,19 @@
       <c r="Q123">
         <v>201782</v>
       </c>
+      <c r="R123">
+        <v>2273591</v>
+      </c>
       <c r="S123">
-        <v>2273591</v>
+        <v>0.13154795505798</v>
       </c>
       <c r="T123">
-        <v>0.1315</v>
+        <v>49855</v>
       </c>
       <c r="U123">
-        <v>49855</v>
+        <v>2992</v>
       </c>
       <c r="V123">
-        <v>2992</v>
-      </c>
-      <c r="W123">
         <v>52847</v>
       </c>
       <c r="X123">
@@ -17750,10 +17750,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="E124">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17791,19 +17791,19 @@
       <c r="Q124">
         <v>204641</v>
       </c>
+      <c r="R124">
+        <v>2338098</v>
+      </c>
       <c r="S124">
-        <v>2338098</v>
+        <v>0.13517270641306</v>
       </c>
       <c r="T124">
-        <v>0.1352</v>
+        <v>51177</v>
       </c>
       <c r="U124">
-        <v>51177</v>
+        <v>2892</v>
       </c>
       <c r="V124">
-        <v>2892</v>
-      </c>
-      <c r="W124">
         <v>54069</v>
       </c>
       <c r="X124">
@@ -17926,7 +17926,7 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="E125">
         <v>121</v>
@@ -17967,19 +17967,19 @@
       <c r="Q125">
         <v>207980</v>
       </c>
+      <c r="R125">
+        <v>2371709</v>
+      </c>
       <c r="S125">
-        <v>2371709</v>
+        <v>0.13500899750392</v>
       </c>
       <c r="T125">
-        <v>0.135</v>
+        <v>49220</v>
       </c>
       <c r="U125">
-        <v>49220</v>
+        <v>2921</v>
       </c>
       <c r="V125">
-        <v>2921</v>
-      </c>
-      <c r="W125">
         <v>52141</v>
       </c>
       <c r="X125">
@@ -18102,10 +18102,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3908</v>
+        <v>3913</v>
       </c>
       <c r="E126">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -18143,19 +18143,19 @@
       <c r="Q126">
         <v>210574</v>
       </c>
+      <c r="R126">
+        <v>2431861</v>
+      </c>
       <c r="S126">
-        <v>2431861</v>
+        <v>0.13507194500078</v>
       </c>
       <c r="T126">
-        <v>0.1351</v>
+        <v>50286</v>
       </c>
       <c r="U126">
-        <v>50286</v>
+        <v>2560</v>
       </c>
       <c r="V126">
-        <v>2560</v>
-      </c>
-      <c r="W126">
         <v>52846</v>
       </c>
       <c r="X126">
@@ -18278,10 +18278,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4061</v>
+        <v>4067</v>
       </c>
       <c r="E127">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18319,19 +18319,19 @@
       <c r="Q127">
         <v>212321</v>
       </c>
+      <c r="R127">
+        <v>2471029</v>
+      </c>
       <c r="S127">
-        <v>2471029</v>
+        <v>0.15025240527379</v>
       </c>
       <c r="T127">
-        <v>0.1503</v>
+        <v>48109</v>
       </c>
       <c r="U127">
-        <v>48109</v>
+        <v>2176</v>
       </c>
       <c r="V127">
-        <v>2176</v>
-      </c>
-      <c r="W127">
         <v>50285</v>
       </c>
       <c r="X127">
@@ -18454,7 +18454,7 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4234</v>
+        <v>4240</v>
       </c>
       <c r="E128">
         <v>173</v>
@@ -18495,19 +18495,19 @@
       <c r="Q128">
         <v>213728</v>
       </c>
+      <c r="R128">
+        <v>2526940</v>
+      </c>
       <c r="S128">
-        <v>2526940</v>
+        <v>0.15560343677851</v>
       </c>
       <c r="T128">
-        <v>0.1556</v>
+        <v>48201</v>
       </c>
       <c r="U128">
-        <v>48201</v>
+        <v>2140</v>
       </c>
       <c r="V128">
-        <v>2140</v>
-      </c>
-      <c r="W128">
         <v>50342</v>
       </c>
       <c r="X128">
@@ -18630,10 +18630,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4394</v>
+        <v>4401</v>
       </c>
       <c r="E129">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18671,19 +18671,19 @@
       <c r="Q129">
         <v>214114</v>
       </c>
+      <c r="R129">
+        <v>2603903</v>
+      </c>
       <c r="S129">
-        <v>2603903</v>
+        <v>0.14464341297691</v>
       </c>
       <c r="T129">
-        <v>0.1446</v>
+        <v>53698</v>
       </c>
       <c r="U129">
-        <v>53698</v>
+        <v>2153</v>
       </c>
       <c r="V129">
-        <v>2153</v>
-      </c>
-      <c r="W129">
         <v>55851</v>
       </c>
       <c r="X129">
@@ -18806,10 +18806,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4576</v>
+        <v>4585</v>
       </c>
       <c r="E130">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18847,19 +18847,19 @@
       <c r="Q130">
         <v>214872</v>
       </c>
+      <c r="R130">
+        <v>2644496</v>
+      </c>
       <c r="S130">
-        <v>2644496</v>
+        <v>0.15812361136341</v>
       </c>
       <c r="T130">
-        <v>0.1581</v>
+        <v>51116</v>
       </c>
       <c r="U130">
-        <v>51116</v>
+        <v>1870</v>
       </c>
       <c r="V130">
-        <v>1870</v>
-      </c>
-      <c r="W130">
         <v>52986</v>
       </c>
       <c r="X130">
@@ -18982,7 +18982,7 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4759</v>
+        <v>4768</v>
       </c>
       <c r="E131">
         <v>183</v>
@@ -19023,19 +19023,19 @@
       <c r="Q131">
         <v>217536</v>
       </c>
+      <c r="R131">
+        <v>2710290</v>
+      </c>
       <c r="S131">
-        <v>2710290</v>
+        <v>0.16329665986635</v>
       </c>
       <c r="T131">
-        <v>0.1633</v>
+        <v>51328</v>
       </c>
       <c r="U131">
-        <v>51328</v>
+        <v>1842</v>
       </c>
       <c r="V131">
-        <v>1842</v>
-      </c>
-      <c r="W131">
         <v>53170</v>
       </c>
       <c r="X131">
@@ -19158,7 +19158,7 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4960</v>
+        <v>4969</v>
       </c>
       <c r="E132">
         <v>201</v>
@@ -19199,19 +19199,19 @@
       <c r="Q132">
         <v>217734</v>
       </c>
+      <c r="R132">
+        <v>2757859</v>
+      </c>
       <c r="S132">
-        <v>2757859</v>
+        <v>0.16849010085123</v>
       </c>
       <c r="T132">
-        <v>0.1685</v>
+        <v>53771</v>
       </c>
       <c r="U132">
-        <v>53771</v>
+        <v>1393</v>
       </c>
       <c r="V132">
-        <v>1393</v>
-      </c>
-      <c r="W132">
         <v>55164</v>
       </c>
       <c r="X132">
@@ -19334,10 +19334,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5157</v>
+        <v>5167</v>
       </c>
       <c r="E133">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19375,19 +19375,19 @@
       <c r="Q133">
         <v>222123</v>
       </c>
+      <c r="R133">
+        <v>2820803</v>
+      </c>
       <c r="S133">
-        <v>2820803</v>
+        <v>0.16893795062442</v>
       </c>
       <c r="T133">
-        <v>0.1689</v>
+        <v>53913</v>
       </c>
       <c r="U133">
-        <v>53913</v>
+        <v>1650</v>
       </c>
       <c r="V133">
-        <v>1650</v>
-      </c>
-      <c r="W133">
         <v>55563</v>
       </c>
       <c r="X133">
@@ -19510,7 +19510,7 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5378</v>
+        <v>5388</v>
       </c>
       <c r="E134">
         <v>221</v>
@@ -19551,19 +19551,19 @@
       <c r="Q134">
         <v>222342</v>
       </c>
+      <c r="R134">
+        <v>2864541</v>
+      </c>
       <c r="S134">
-        <v>2864541</v>
+        <v>0.16812128576681</v>
       </c>
       <c r="T134">
-        <v>0.1681</v>
+        <v>54784</v>
       </c>
       <c r="U134">
-        <v>54784</v>
+        <v>1432</v>
       </c>
       <c r="V134">
-        <v>1432</v>
-      </c>
-      <c r="W134">
         <v>56216</v>
       </c>
       <c r="X134">
@@ -19686,10 +19686,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5592</v>
+        <v>5604</v>
       </c>
       <c r="E135">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19727,19 +19727,19 @@
       <c r="Q135">
         <v>224433</v>
       </c>
+      <c r="R135">
+        <v>2924288</v>
+      </c>
       <c r="S135">
-        <v>2924288</v>
+        <v>0.16885085207802</v>
       </c>
       <c r="T135">
-        <v>0.1689</v>
+        <v>55235</v>
       </c>
       <c r="U135">
-        <v>55235</v>
+        <v>1529</v>
       </c>
       <c r="V135">
-        <v>1529</v>
-      </c>
-      <c r="W135">
         <v>56764</v>
       </c>
       <c r="X135">
@@ -19808,10 +19808,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5808</v>
+        <v>5821</v>
       </c>
       <c r="E136">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19849,19 +19849,19 @@
       <c r="Q136">
         <v>224781</v>
       </c>
+      <c r="R136">
+        <v>2992102</v>
+      </c>
       <c r="S136">
-        <v>2992102</v>
+        <v>0.17427396882913</v>
       </c>
       <c r="T136">
-        <v>0.1743</v>
+        <v>53933</v>
       </c>
       <c r="U136">
-        <v>53933</v>
+        <v>1524</v>
       </c>
       <c r="V136">
-        <v>1524</v>
-      </c>
-      <c r="W136">
         <v>55457</v>
       </c>
       <c r="X136">
@@ -19930,10 +19930,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>6001</v>
+        <v>6015</v>
       </c>
       <c r="E137">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19971,19 +19971,19 @@
       <c r="Q137">
         <v>224935</v>
       </c>
+      <c r="R137">
+        <v>3067620</v>
+      </c>
       <c r="S137">
-        <v>3067620</v>
+        <v>0.16047266626479</v>
       </c>
       <c r="T137">
-        <v>0.1605</v>
+        <v>59009</v>
       </c>
       <c r="U137">
-        <v>59009</v>
+        <v>1438</v>
       </c>
       <c r="V137">
-        <v>1438</v>
-      </c>
-      <c r="W137">
         <v>60446</v>
       </c>
       <c r="X137">
@@ -20052,10 +20052,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6174</v>
+        <v>6189</v>
       </c>
       <c r="E138">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -20093,19 +20093,19 @@
       <c r="Q138">
         <v>221259</v>
       </c>
+      <c r="R138">
+        <v>3153623</v>
+      </c>
       <c r="S138">
-        <v>3153623</v>
+        <v>0.15034234890016</v>
       </c>
       <c r="T138">
-        <v>0.1503</v>
+        <v>62801</v>
       </c>
       <c r="U138">
-        <v>62801</v>
+        <v>532</v>
       </c>
       <c r="V138">
-        <v>532</v>
-      </c>
-      <c r="W138">
         <v>63333</v>
       </c>
       <c r="X138">
@@ -20174,10 +20174,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6365</v>
+        <v>6381</v>
       </c>
       <c r="E139">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20215,19 +20215,19 @@
       <c r="Q139">
         <v>223303</v>
       </c>
+      <c r="R139">
+        <v>3207857</v>
+      </c>
       <c r="S139">
-        <v>3207857</v>
+        <v>0.14669609768939</v>
       </c>
       <c r="T139">
-        <v>0.1467</v>
+        <v>63490</v>
       </c>
       <c r="U139">
-        <v>63490</v>
+        <v>796</v>
       </c>
       <c r="V139">
-        <v>796</v>
-      </c>
-      <c r="W139">
         <v>64285</v>
       </c>
       <c r="X139">
@@ -20296,10 +20296,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6562</v>
+        <v>6580</v>
       </c>
       <c r="E140">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20337,19 +20337,19 @@
       <c r="Q140">
         <v>226323</v>
       </c>
+      <c r="R140">
+        <v>3269897</v>
+      </c>
       <c r="S140">
-        <v>3269897</v>
+        <v>0.15047404550297</v>
       </c>
       <c r="T140">
-        <v>0.1505</v>
+        <v>63556</v>
       </c>
       <c r="U140">
-        <v>63556</v>
+        <v>600</v>
       </c>
       <c r="V140">
-        <v>600</v>
-      </c>
-      <c r="W140">
         <v>64156</v>
       </c>
       <c r="X140">
@@ -20418,10 +20418,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6752</v>
+        <v>6775</v>
       </c>
       <c r="E141">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20459,19 +20459,19 @@
       <c r="Q141">
         <v>227696</v>
       </c>
+      <c r="R141">
+        <v>3331844</v>
+      </c>
       <c r="S141">
-        <v>3331844</v>
+        <v>0.14180136768345</v>
       </c>
       <c r="T141">
-        <v>0.1418</v>
+        <v>65993</v>
       </c>
       <c r="U141">
-        <v>65993</v>
+        <v>765</v>
       </c>
       <c r="V141">
-        <v>765</v>
-      </c>
-      <c r="W141">
         <v>66758</v>
       </c>
       <c r="X141">
@@ -20516,7 +20516,7 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6957</v>
+        <v>6980</v>
       </c>
       <c r="E142">
         <v>205</v>
@@ -20557,19 +20557,19 @@
       <c r="Q142">
         <v>232021</v>
       </c>
+      <c r="R142">
+        <v>3396677</v>
+      </c>
       <c r="S142">
-        <v>3396677</v>
+        <v>0.13896915023849</v>
       </c>
       <c r="T142">
-        <v>0.139</v>
+        <v>66400</v>
       </c>
       <c r="U142">
-        <v>66400</v>
+        <v>1084</v>
       </c>
       <c r="V142">
-        <v>1084</v>
-      </c>
-      <c r="W142">
         <v>67484</v>
       </c>
       <c r="X142">
@@ -20647,10 +20647,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>7142</v>
+        <v>7172</v>
       </c>
       <c r="E143">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20688,19 +20688,19 @@
       <c r="Q143">
         <v>233139</v>
       </c>
+      <c r="R143">
+        <v>3465070</v>
+      </c>
       <c r="S143">
-        <v>3465070</v>
+        <v>0.13733884333097</v>
       </c>
       <c r="T143">
-        <v>0.1373</v>
+        <v>66373</v>
       </c>
       <c r="U143">
-        <v>66373</v>
+        <v>1194</v>
       </c>
       <c r="V143">
-        <v>1194</v>
-      </c>
-      <c r="W143">
         <v>67567</v>
       </c>
       <c r="X143">
@@ -20769,10 +20769,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>7318</v>
+        <v>7354</v>
       </c>
       <c r="E144">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20810,19 +20810,19 @@
       <c r="Q144">
         <v>233410</v>
       </c>
+      <c r="R144">
+        <v>3539452</v>
+      </c>
       <c r="S144">
-        <v>3539452</v>
+        <v>0.13435428837808</v>
       </c>
       <c r="T144">
-        <v>0.1344</v>
+        <v>66194</v>
       </c>
       <c r="U144">
-        <v>66194</v>
+        <v>1211</v>
       </c>
       <c r="V144">
-        <v>1211</v>
-      </c>
-      <c r="W144">
         <v>67405</v>
       </c>
       <c r="X144">
@@ -20891,10 +20891,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>7469</v>
+        <v>7508</v>
       </c>
       <c r="E145">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20932,19 +20932,19 @@
       <c r="Q145">
         <v>234534</v>
       </c>
+      <c r="R145">
+        <v>3604509</v>
+      </c>
       <c r="S145">
-        <v>3604509</v>
+        <v>0.1375833788456</v>
       </c>
       <c r="T145">
-        <v>0.1375833788456</v>
+        <v>62516</v>
       </c>
       <c r="U145">
-        <v>62516</v>
+        <v>1896</v>
       </c>
       <c r="V145">
-        <v>1896</v>
-      </c>
-      <c r="W145">
         <v>64412</v>
       </c>
       <c r="X145">
@@ -21010,10 +21010,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7590</v>
+        <v>7634</v>
       </c>
       <c r="E146">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -21051,19 +21051,19 @@
       <c r="Q146">
         <v>235797</v>
       </c>
+      <c r="R146">
+        <v>3664679</v>
+      </c>
       <c r="S146">
-        <v>3664679</v>
+        <v>0.13215012333231</v>
       </c>
       <c r="T146">
-        <v>0.1322</v>
+        <v>63475</v>
       </c>
       <c r="U146">
-        <v>63475</v>
+        <v>1785</v>
       </c>
       <c r="V146">
-        <v>1785</v>
-      </c>
-      <c r="W146">
         <v>65260</v>
       </c>
       <c r="X146">
@@ -21132,10 +21132,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7723</v>
+        <v>7775</v>
       </c>
       <c r="E147">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -21173,19 +21173,19 @@
       <c r="Q147">
         <v>237895</v>
       </c>
+      <c r="R147">
+        <v>3714821</v>
+      </c>
       <c r="S147">
-        <v>3714821</v>
+        <v>0.12825832118001</v>
       </c>
       <c r="T147">
-        <v>0.1283</v>
+        <v>61907</v>
       </c>
       <c r="U147">
-        <v>61907</v>
+        <v>1653</v>
       </c>
       <c r="V147">
-        <v>1653</v>
-      </c>
-      <c r="W147">
         <v>63561</v>
       </c>
       <c r="X147">
@@ -21263,10 +21263,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7863</v>
+        <v>7924</v>
       </c>
       <c r="E148">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21304,19 +21304,19 @@
       <c r="Q148">
         <v>237895</v>
       </c>
+      <c r="R148">
+        <v>3777263</v>
+      </c>
       <c r="S148">
-        <v>3777263</v>
+        <v>0.12549515187721</v>
       </c>
       <c r="T148">
-        <v>0.1255</v>
+        <v>62174</v>
       </c>
       <c r="U148">
-        <v>62174</v>
+        <v>1457</v>
       </c>
       <c r="V148">
-        <v>1457</v>
-      </c>
-      <c r="W148">
         <v>63631</v>
       </c>
       <c r="X148">
@@ -21394,10 +21394,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7960</v>
+        <v>8029</v>
       </c>
       <c r="E149">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21435,19 +21435,19 @@
       <c r="Q149">
         <v>239566</v>
       </c>
+      <c r="R149">
+        <v>3849040</v>
+      </c>
       <c r="S149">
-        <v>3849040</v>
+        <v>0.12090562881898</v>
       </c>
       <c r="T149">
-        <v>0.1209</v>
+        <v>63545</v>
       </c>
       <c r="U149">
-        <v>63545</v>
+        <v>1078</v>
       </c>
       <c r="V149">
-        <v>1078</v>
-      </c>
-      <c r="W149">
         <v>64623</v>
       </c>
       <c r="X149">
@@ -21492,10 +21492,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>8060</v>
+        <v>8133</v>
       </c>
       <c r="E150">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21533,19 +21533,19 @@
       <c r="Q150">
         <v>241518</v>
       </c>
+      <c r="R150">
+        <v>3911270</v>
+      </c>
       <c r="S150">
-        <v>3911270</v>
+        <v>0.12122305691139</v>
       </c>
       <c r="T150">
-        <v>0.1212</v>
+        <v>62546</v>
       </c>
       <c r="U150">
-        <v>62546</v>
+        <v>1197</v>
       </c>
       <c r="V150">
-        <v>1197</v>
-      </c>
-      <c r="W150">
         <v>63743</v>
       </c>
       <c r="X150">
@@ -21599,10 +21599,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>8146</v>
+        <v>8225</v>
       </c>
       <c r="E151">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21640,19 +21640,19 @@
       <c r="Q151">
         <v>242251</v>
       </c>
+      <c r="R151">
+        <v>3990030</v>
+      </c>
       <c r="S151">
-        <v>3990030</v>
+        <v>0.12046081718308</v>
       </c>
       <c r="T151">
-        <v>0.1205</v>
+        <v>63105</v>
       </c>
       <c r="U151">
-        <v>63105</v>
+        <v>1263</v>
       </c>
       <c r="V151">
-        <v>1263</v>
-      </c>
-      <c r="W151">
         <v>64368</v>
       </c>
       <c r="X151">
@@ -21697,10 +21697,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>8204</v>
+        <v>8287</v>
       </c>
       <c r="E152">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21738,19 +21738,19 @@
       <c r="Q152">
         <v>242418</v>
       </c>
+      <c r="R152">
+        <v>4028966</v>
+      </c>
       <c r="S152">
-        <v>4028966</v>
+        <v>0.13116308546161</v>
       </c>
       <c r="T152">
-        <v>0.1312</v>
+        <v>59510</v>
       </c>
       <c r="U152">
-        <v>59510</v>
+        <v>1126</v>
       </c>
       <c r="V152">
-        <v>1126</v>
-      </c>
-      <c r="W152">
         <v>60637</v>
       </c>
       <c r="X152">
@@ -21795,10 +21795,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>8263</v>
+        <v>8356</v>
       </c>
       <c r="E153">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21836,19 +21836,19 @@
       <c r="Q153">
         <v>243777</v>
       </c>
+      <c r="R153">
+        <v>4078363</v>
+      </c>
       <c r="S153">
-        <v>4078363</v>
+        <v>0.1357023840041</v>
       </c>
       <c r="T153">
-        <v>0.1357023840041</v>
+        <v>57958</v>
       </c>
       <c r="U153">
-        <v>57958</v>
+        <v>1140</v>
       </c>
       <c r="V153">
-        <v>1140</v>
-      </c>
-      <c r="W153">
         <v>59098</v>
       </c>
       <c r="X153">
@@ -21893,10 +21893,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>8304</v>
+        <v>8403</v>
       </c>
       <c r="E154">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21934,19 +21934,19 @@
       <c r="Q154">
         <v>258494</v>
       </c>
+      <c r="R154">
+        <v>4143342</v>
+      </c>
       <c r="S154">
-        <v>4143342</v>
+        <v>0.13881820544124</v>
       </c>
       <c r="T154">
-        <v>0.1388</v>
+        <v>58275</v>
       </c>
       <c r="U154">
-        <v>58275</v>
+        <v>2943</v>
       </c>
       <c r="V154">
-        <v>2943</v>
-      </c>
-      <c r="W154">
         <v>61217</v>
       </c>
       <c r="X154">
@@ -21991,10 +21991,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>8322</v>
+        <v>8430</v>
       </c>
       <c r="E155">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -22032,19 +22032,19 @@
       <c r="Q155">
         <v>268978</v>
       </c>
+      <c r="R155">
+        <v>4177213</v>
+      </c>
       <c r="S155">
-        <v>4177213</v>
+        <v>0.15575261544134</v>
       </c>
       <c r="T155">
-        <v>0.1558</v>
+        <v>52695</v>
       </c>
       <c r="U155">
-        <v>52695</v>
+        <v>4440</v>
       </c>
       <c r="V155">
-        <v>4440</v>
-      </c>
-      <c r="W155">
         <v>57136</v>
       </c>
       <c r="X155">
@@ -22098,10 +22098,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>8340</v>
+        <v>8454</v>
       </c>
       <c r="E156">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -22121,19 +22121,19 @@
       <c r="Q156">
         <v>276849</v>
       </c>
+      <c r="R156">
+        <v>4221329</v>
+      </c>
       <c r="S156">
-        <v>4221329</v>
+        <v>0.1704924687916</v>
       </c>
       <c r="T156">
-        <v>0.1704924687916</v>
+        <v>47858</v>
       </c>
       <c r="U156">
-        <v>47858</v>
+        <v>5326</v>
       </c>
       <c r="V156">
-        <v>5326</v>
-      </c>
-      <c r="W156">
         <v>53184</v>
       </c>
       <c r="X156">
@@ -22178,7 +22178,7 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>8341</v>
+        <v>8455</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -22202,22 +22202,22 @@
         <v>260604</v>
       </c>
       <c r="R157">
+        <v>4263342</v>
+      </c>
+      <c r="S157">
+        <v>0.1679169694822</v>
+      </c>
+      <c r="T157">
+        <v>47254</v>
+      </c>
+      <c r="U157">
+        <v>2727</v>
+      </c>
+      <c r="V157">
+        <v>50296</v>
+      </c>
+      <c r="W157">
         <v>2206</v>
-      </c>
-      <c r="S157">
-        <v>4263342</v>
-      </c>
-      <c r="T157">
-        <v>0.1679169694822</v>
-      </c>
-      <c r="U157">
-        <v>47254</v>
-      </c>
-      <c r="V157">
-        <v>2727</v>
-      </c>
-      <c r="W157">
-        <v>50296</v>
       </c>
       <c r="X157">
         <v>8302</v>
@@ -22270,10 +22270,10 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>8341</v>
+        <v>8457</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F158">
         <v>3477261</v>
@@ -22294,22 +22294,22 @@
         <v>280434</v>
       </c>
       <c r="R158">
+        <v>4306978</v>
+      </c>
+      <c r="S158">
+        <v>0.19412049575808</v>
+      </c>
+      <c r="T158">
+        <v>37840</v>
+      </c>
+      <c r="U158">
+        <v>5455</v>
+      </c>
+      <c r="V158">
+        <v>45278</v>
+      </c>
+      <c r="W158">
         <v>13887</v>
-      </c>
-      <c r="S158">
-        <v>4306978</v>
-      </c>
-      <c r="T158">
-        <v>0.1941</v>
-      </c>
-      <c r="U158">
-        <v>37840</v>
-      </c>
-      <c r="V158">
-        <v>5455</v>
-      </c>
-      <c r="W158">
-        <v>45278</v>
       </c>
       <c r="X158">
         <v>8065</v>
@@ -22353,28 +22353,46 @@
         <v>6959</v>
       </c>
       <c r="D159">
-        <v>8341</v>
+        <v>8457</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>3477261</v>
+        <v>3651644</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>174383</v>
       </c>
       <c r="H159">
-        <v>145596</v>
+        <v>146208</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>612</v>
+      </c>
+      <c r="P159">
+        <v>4025864</v>
+      </c>
+      <c r="Q159">
+        <v>288928</v>
+      </c>
+      <c r="R159">
+        <v>4329258</v>
       </c>
       <c r="S159">
-        <v>4329258</v>
-      </c>
-      <c r="X159">
-        <v>7872</v>
+        <v>0.20306404709554</v>
+      </c>
+      <c r="T159">
+        <v>34188</v>
+      </c>
+      <c r="U159">
+        <v>6644</v>
+      </c>
+      <c r="V159">
+        <v>42899</v>
+      </c>
+      <c r="W159">
+        <v>14466</v>
       </c>
       <c r="AG159">
         <v>7872</v>
@@ -22401,6 +22419,65 @@
         <v>6619</v>
       </c>
       <c r="BJ159">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B160">
+        <v>486362</v>
+      </c>
+      <c r="C160">
+        <v>4879</v>
+      </c>
+      <c r="D160">
+        <v>8457</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>3651644</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>146208</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>4379446</v>
+      </c>
+      <c r="AG160">
+        <v>7437</v>
+      </c>
+      <c r="AH160">
+        <v>4697</v>
+      </c>
+      <c r="AI160">
+        <v>2608</v>
+      </c>
+      <c r="AJ160">
+        <v>11749</v>
+      </c>
+      <c r="AK160">
+        <v>1123</v>
+      </c>
+      <c r="AL160">
+        <v>42537</v>
+      </c>
+      <c r="AM160">
+        <v>6726</v>
+      </c>
+      <c r="AN160">
+        <v>6596</v>
+      </c>
+      <c r="BJ160">
         <v>29677668</v>
       </c>
     </row>
@@ -22492,47 +22569,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>338342.8</t>
+          <t>344844.6</t>
         </is>
       </c>
       <c r="B2">
-        <v>134797</v>
+        <v>133058</v>
       </c>
       <c r="C2">
-        <v>120362</v>
+        <v>120758</v>
       </c>
       <c r="D2">
-        <v>4208896</v>
+        <v>4258688</v>
       </c>
       <c r="E2">
-        <v>13887</v>
+        <v>14466</v>
       </c>
       <c r="F2">
-        <v>2227</v>
+        <v>2319</v>
       </c>
       <c r="G2">
-        <v>280434</v>
+        <v>288928</v>
       </c>
       <c r="H2">
-        <v>16924</v>
+        <v>18561</v>
       </c>
       <c r="I2">
-        <v>54899</v>
+        <v>54286</v>
       </c>
       <c r="J2">
-        <v>11396</v>
+        <v>11749</v>
       </c>
       <c r="K2">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="L2">
-        <v>6619</v>
+        <v>6596</v>
       </c>
       <c r="M2">
-        <v>40111</v>
+        <v>40535</v>
       </c>
       <c r="N2">
-        <v>8343</v>
+        <v>8459</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ160"/>
+  <dimension ref="A1:BJ161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22115,6 +22115,24 @@
       <c r="I156">
         <v>3596</v>
       </c>
+      <c r="J156">
+        <v>-12.07962448980283</v>
+      </c>
+      <c r="K156">
+        <v>-4.654219809413621</v>
+      </c>
+      <c r="L156">
+        <v>27.47625007952969</v>
+      </c>
+      <c r="M156">
+        <v>-24.79580159183981</v>
+      </c>
+      <c r="N156">
+        <v>-39.04360375911887</v>
+      </c>
+      <c r="O156">
+        <v>12.46432168208384</v>
+      </c>
       <c r="P156">
         <v>3944480</v>
       </c>
@@ -22195,6 +22213,24 @@
       <c r="I157">
         <v>-102</v>
       </c>
+      <c r="J157">
+        <v>-14.00816893837389</v>
+      </c>
+      <c r="K157">
+        <v>-5.733387113611403</v>
+      </c>
+      <c r="L157">
+        <v>25.70640072830761</v>
+      </c>
+      <c r="M157">
+        <v>-24.79094486608284</v>
+      </c>
+      <c r="N157">
+        <v>-39.83189370733694</v>
+      </c>
+      <c r="O157">
+        <v>12.36706396230819</v>
+      </c>
       <c r="P157">
         <v>4000532</v>
       </c>
@@ -22287,6 +22323,24 @@
       <c r="I158">
         <v>2873</v>
       </c>
+      <c r="J158">
+        <v>-16.47279512285575</v>
+      </c>
+      <c r="K158">
+        <v>-6.202710579276388</v>
+      </c>
+      <c r="L158">
+        <v>10.41468816075692</v>
+      </c>
+      <c r="M158">
+        <v>-23.03616624169658</v>
+      </c>
+      <c r="N158">
+        <v>-38.36133991820197</v>
+      </c>
+      <c r="O158">
+        <v>11.95872266370792</v>
+      </c>
       <c r="P158">
         <v>4012657</v>
       </c>
@@ -22478,6 +22532,41 @@
         <v>6596</v>
       </c>
       <c r="BJ160">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B161">
+        <v>486362</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>8457</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>3651644</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>146208</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>6596</v>
+      </c>
+      <c r="BJ161">
         <v>29677668</v>
       </c>
     </row>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ161"/>
+  <dimension ref="A1:BJ162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3947,10 +3947,10 @@
       <c r="O33">
         <v>18.76389877754985</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>63751</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.1056</v>
       </c>
       <c r="X33">
@@ -4060,10 +4060,10 @@
       <c r="O34">
         <v>14.31448255720468</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>70938</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.09329999999999999</v>
       </c>
       <c r="X34">
@@ -4173,10 +4173,10 @@
       <c r="O35">
         <v>20.40663876642308</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>85357</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.0889099985852</v>
       </c>
       <c r="X35">
@@ -4286,10 +4286,10 @@
       <c r="O36">
         <v>21.12506485668765</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>88649</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.1094</v>
       </c>
       <c r="X36">
@@ -4399,10 +4399,10 @@
       <c r="O37">
         <v>20.97866630805693</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>96258</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.1107</v>
       </c>
       <c r="X37">
@@ -4512,10 +4512,10 @@
       <c r="O38">
         <v>21.80183858517587</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>106134</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.100351636462</v>
       </c>
       <c r="X38">
@@ -4625,10 +4625,10 @@
       <c r="O39">
         <v>25.16265513986641</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>115918</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.1055125178708</v>
       </c>
       <c r="X39">
@@ -4738,10 +4738,10 @@
       <c r="O40">
         <v>16.98981936867992</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>120533</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>0.1136</v>
       </c>
       <c r="X40">
@@ -4851,10 +4851,10 @@
       <c r="O41">
         <v>13.80615054182571</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>124553</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>0.1248</v>
       </c>
       <c r="X41">
@@ -4867,9 +4867,6 @@
         <v>775</v>
       </c>
       <c r="AI41">
-        <v>563</v>
-      </c>
-      <c r="AJ41">
         <v>563</v>
       </c>
       <c r="AK41">
@@ -4982,10 +4979,10 @@
       <c r="O42">
         <v>19.97373431113056</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>133226</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>0.1386</v>
       </c>
       <c r="X42">
@@ -4998,9 +4995,6 @@
         <v>585</v>
       </c>
       <c r="AI42">
-        <v>591</v>
-      </c>
-      <c r="AJ42">
         <v>591</v>
       </c>
       <c r="AK42">
@@ -5113,10 +5107,10 @@
       <c r="O43">
         <v>21.37151493280279</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>146467</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>0.1101</v>
       </c>
       <c r="X43">
@@ -5129,9 +5123,6 @@
         <v>815</v>
       </c>
       <c r="AI43">
-        <v>594</v>
-      </c>
-      <c r="AJ43">
         <v>594</v>
       </c>
       <c r="AK43">
@@ -5244,10 +5235,10 @@
       <c r="O44">
         <v>19.92159053790046</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>151810</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>0.1105</v>
       </c>
       <c r="X44">
@@ -5260,9 +5251,6 @@
         <v>880</v>
       </c>
       <c r="AI44">
-        <v>688</v>
-      </c>
-      <c r="AJ44">
         <v>688</v>
       </c>
       <c r="AK44">
@@ -5375,10 +5363,10 @@
       <c r="O45">
         <v>20.33118292743112</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>158547</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>0.1188</v>
       </c>
       <c r="X45">
@@ -5391,9 +5379,6 @@
         <v>796</v>
       </c>
       <c r="AI45">
-        <v>663</v>
-      </c>
-      <c r="AJ45">
         <v>663</v>
       </c>
       <c r="AK45">
@@ -5506,10 +5491,10 @@
       <c r="O46">
         <v>22.18715809525528</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>169536</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>0.1063</v>
       </c>
       <c r="X46">
@@ -5522,9 +5507,6 @@
         <v>828</v>
       </c>
       <c r="AI46">
-        <v>694</v>
-      </c>
-      <c r="AJ46">
         <v>694</v>
       </c>
       <c r="AK46">
@@ -5637,10 +5619,10 @@
       <c r="O47">
         <v>14.8943942447753</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>176239</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>0.1023</v>
       </c>
       <c r="X47">
@@ -5653,9 +5635,6 @@
         <v>738</v>
       </c>
       <c r="AI47">
-        <v>583</v>
-      </c>
-      <c r="AJ47">
         <v>583</v>
       </c>
       <c r="AK47">
@@ -5768,10 +5747,10 @@
       <c r="O48">
         <v>13.05324295849369</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>182710</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>0.0935</v>
       </c>
       <c r="X48">
@@ -5784,9 +5763,6 @@
         <v>847</v>
       </c>
       <c r="AI48">
-        <v>624</v>
-      </c>
-      <c r="AJ48">
         <v>624</v>
       </c>
       <c r="AK48">
@@ -5899,10 +5875,10 @@
       <c r="O49">
         <v>18.71716742983336</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>190394</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>0.09711726840190001</v>
       </c>
       <c r="X49">
@@ -5915,9 +5891,6 @@
         <v>794</v>
       </c>
       <c r="AI49">
-        <v>620</v>
-      </c>
-      <c r="AJ49">
         <v>620</v>
       </c>
       <c r="AK49">
@@ -6030,10 +6003,10 @@
       <c r="O50">
         <v>19.86054647694573</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>205399</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>0.0945</v>
       </c>
       <c r="X50">
@@ -6046,9 +6019,6 @@
         <v>861</v>
       </c>
       <c r="AI50">
-        <v>636</v>
-      </c>
-      <c r="AJ50">
         <v>636</v>
       </c>
       <c r="AK50">
@@ -6161,10 +6131,10 @@
       <c r="O51">
         <v>20.80398792261366</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>216783</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>0.0858</v>
       </c>
       <c r="X51">
@@ -6177,9 +6147,6 @@
         <v>987</v>
       </c>
       <c r="AI51">
-        <v>691</v>
-      </c>
-      <c r="AJ51">
         <v>691</v>
       </c>
       <c r="AK51">
@@ -6292,10 +6259,10 @@
       <c r="O52">
         <v>19.41281090558118</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>225078</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>0.0825</v>
       </c>
       <c r="X52">
@@ -6308,9 +6275,6 @@
         <v>960</v>
       </c>
       <c r="AI52">
-        <v>689</v>
-      </c>
-      <c r="AJ52">
         <v>689</v>
       </c>
       <c r="AK52">
@@ -6423,10 +6387,10 @@
       <c r="O53">
         <v>20.35444502904312</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>242547</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>0.07439999999999999</v>
       </c>
       <c r="X53">
@@ -6439,9 +6403,6 @@
         <v>994</v>
       </c>
       <c r="AI53">
-        <v>670</v>
-      </c>
-      <c r="AJ53">
         <v>670</v>
       </c>
       <c r="AK53">
@@ -6554,10 +6515,10 @@
       <c r="O54">
         <v>12.6445152051925</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>262816</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>0.06370000000000001</v>
       </c>
       <c r="X54">
@@ -6570,9 +6531,6 @@
         <v>946</v>
       </c>
       <c r="AI54">
-        <v>651</v>
-      </c>
-      <c r="AJ54">
         <v>651</v>
       </c>
       <c r="AK54">
@@ -6685,10 +6643,10 @@
       <c r="O55">
         <v>10.82622847288675</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>276021</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>0.0612</v>
       </c>
       <c r="X55">
@@ -6701,9 +6659,6 @@
         <v>897</v>
       </c>
       <c r="AI55">
-        <v>645</v>
-      </c>
-      <c r="AJ55">
         <v>645</v>
       </c>
       <c r="AK55">
@@ -6816,10 +6771,10 @@
       <c r="O56">
         <v>17.92361084678433</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>290517</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>0.0583</v>
       </c>
       <c r="X56">
@@ -6832,9 +6787,6 @@
         <v>903</v>
       </c>
       <c r="AI56">
-        <v>660</v>
-      </c>
-      <c r="AJ56">
         <v>660</v>
       </c>
       <c r="AK56">
@@ -6947,10 +6899,10 @@
       <c r="O57">
         <v>13.40123395048519</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>300384</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>0.0629</v>
       </c>
       <c r="X57">
@@ -6963,9 +6915,6 @@
         <v>998</v>
       </c>
       <c r="AI57">
-        <v>684</v>
-      </c>
-      <c r="AJ57">
         <v>684</v>
       </c>
       <c r="AK57">
@@ -7078,10 +7027,10 @@
       <c r="O58">
         <v>19.16850211791719</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>314790</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>0.0610670666381</v>
       </c>
       <c r="X58">
@@ -7094,9 +7043,6 @@
         <v>984</v>
       </c>
       <c r="AI58">
-        <v>718</v>
-      </c>
-      <c r="AJ58">
         <v>718</v>
       </c>
       <c r="AK58">
@@ -7209,10 +7155,10 @@
       <c r="O59">
         <v>18.20118073504363</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>330300</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>0.0583813270989</v>
       </c>
       <c r="X59">
@@ -7225,9 +7171,6 @@
         <v>982</v>
       </c>
       <c r="AI59">
-        <v>704</v>
-      </c>
-      <c r="AJ59">
         <v>704</v>
       </c>
       <c r="AK59">
@@ -7340,10 +7283,10 @@
       <c r="O60">
         <v>17.99770410832057</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>351775</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>0.0588</v>
       </c>
       <c r="X60">
@@ -7356,9 +7299,6 @@
         <v>1042</v>
       </c>
       <c r="AI60">
-        <v>736</v>
-      </c>
-      <c r="AJ60">
         <v>736</v>
       </c>
       <c r="AK60">
@@ -7471,10 +7411,10 @@
       <c r="O61">
         <v>10.60317788198348</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>380648</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>0.0573</v>
       </c>
       <c r="X61">
@@ -7487,9 +7427,6 @@
         <v>1014</v>
       </c>
       <c r="AI61">
-        <v>711</v>
-      </c>
-      <c r="AJ61">
         <v>711</v>
       </c>
       <c r="AK61">
@@ -7602,10 +7539,10 @@
       <c r="O62">
         <v>8.988903319265766</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>390560</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>0.0604</v>
       </c>
       <c r="X62">
@@ -7618,9 +7555,6 @@
         <v>916</v>
       </c>
       <c r="AI62">
-        <v>624</v>
-      </c>
-      <c r="AJ62">
         <v>624</v>
       </c>
       <c r="AK62">
@@ -7733,10 +7667,10 @@
       <c r="O63">
         <v>15.79859908321837</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>407398</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>0.0602</v>
       </c>
       <c r="X63">
@@ -7749,9 +7683,6 @@
         <v>914</v>
       </c>
       <c r="AI63">
-        <v>619</v>
-      </c>
-      <c r="AJ63">
         <v>619</v>
       </c>
       <c r="AK63">
@@ -7864,10 +7795,10 @@
       <c r="O64">
         <v>17.14491484092203</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>427210</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>0.0567549240692</v>
       </c>
       <c r="X64">
@@ -7880,9 +7811,6 @@
         <v>1199</v>
       </c>
       <c r="AI64">
-        <v>689</v>
-      </c>
-      <c r="AJ64">
         <v>689</v>
       </c>
       <c r="AK64">
@@ -7995,10 +7923,10 @@
       <c r="O65">
         <v>16.55087115394742</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>438938</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>0.0593</v>
       </c>
       <c r="X65">
@@ -8011,9 +7939,6 @@
         <v>1086</v>
       </c>
       <c r="AI65">
-        <v>726</v>
-      </c>
-      <c r="AJ65">
         <v>726</v>
       </c>
       <c r="AK65">
@@ -8126,10 +8051,10 @@
       <c r="O66">
         <v>16.79766943823035</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>455162</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>0.0585</v>
       </c>
       <c r="X66">
@@ -8142,9 +8067,6 @@
         <v>1034</v>
       </c>
       <c r="AI66">
-        <v>716</v>
-      </c>
-      <c r="AJ66">
         <v>716</v>
       </c>
       <c r="AK66">
@@ -8257,10 +8179,10 @@
       <c r="O67">
         <v>17.17742629656268</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>477118</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>0.0589</v>
       </c>
       <c r="X67">
@@ -8273,9 +8195,6 @@
         <v>1037</v>
       </c>
       <c r="AI67">
-        <v>697</v>
-      </c>
-      <c r="AJ67">
         <v>697</v>
       </c>
       <c r="AK67">
@@ -8394,10 +8313,10 @@
       <c r="Q68">
         <v>16512</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>489294</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>0.0675</v>
       </c>
       <c r="X68">
@@ -8410,9 +8329,6 @@
         <v>1061</v>
       </c>
       <c r="AI68">
-        <v>674</v>
-      </c>
-      <c r="AJ68">
         <v>674</v>
       </c>
       <c r="AK68">
@@ -8531,10 +8447,10 @@
       <c r="Q69">
         <v>17650</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>513978</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>0.0593</v>
       </c>
       <c r="X69">
@@ -8547,9 +8463,6 @@
         <v>965</v>
       </c>
       <c r="AI69">
-        <v>661</v>
-      </c>
-      <c r="AJ69">
         <v>661</v>
       </c>
       <c r="AK69">
@@ -8668,10 +8581,10 @@
       <c r="Q70">
         <v>18926</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>525697</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>0.0637114430384</v>
       </c>
       <c r="X70">
@@ -8684,9 +8597,6 @@
         <v>915</v>
       </c>
       <c r="AI70">
-        <v>610</v>
-      </c>
-      <c r="AJ70">
         <v>610</v>
       </c>
       <c r="AK70">
@@ -8805,10 +8715,10 @@
       <c r="Q71">
         <v>26787</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>538172</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>0.0692</v>
       </c>
       <c r="X71">
@@ -8821,9 +8731,6 @@
         <v>1026</v>
       </c>
       <c r="AI71">
-        <v>699</v>
-      </c>
-      <c r="AJ71">
         <v>699</v>
       </c>
       <c r="AK71">
@@ -8942,10 +8849,10 @@
       <c r="Q72">
         <v>30655</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>587431</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>0.0537</v>
       </c>
       <c r="X72">
@@ -8958,9 +8865,6 @@
         <v>1002</v>
       </c>
       <c r="AI72">
-        <v>674</v>
-      </c>
-      <c r="AJ72">
         <v>674</v>
       </c>
       <c r="AK72">
@@ -9079,10 +8983,10 @@
       <c r="Q73">
         <v>35971</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>623284</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>0.0503</v>
       </c>
       <c r="X73">
@@ -9095,9 +8999,6 @@
         <v>975</v>
       </c>
       <c r="AI73">
-        <v>673</v>
-      </c>
-      <c r="AJ73">
         <v>673</v>
       </c>
       <c r="AK73">
@@ -9216,10 +9117,10 @@
       <c r="Q74">
         <v>36362</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>645992</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>0.0509</v>
       </c>
       <c r="X74">
@@ -9256,9 +9157,6 @@
         <v>1033</v>
       </c>
       <c r="AI74">
-        <v>683</v>
-      </c>
-      <c r="AJ74">
         <v>683</v>
       </c>
       <c r="AK74">
@@ -9377,19 +9275,19 @@
       <c r="Q75">
         <v>39732</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>678471</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>0.0483</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>23708</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>3317</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>27025</v>
       </c>
       <c r="X75">
@@ -9426,9 +9324,6 @@
         <v>1104</v>
       </c>
       <c r="AI75">
-        <v>687</v>
-      </c>
-      <c r="AJ75">
         <v>687</v>
       </c>
       <c r="AK75">
@@ -9547,19 +9442,19 @@
       <c r="Q76">
         <v>42921</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>693276</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>0.0497</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>22004</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>3610</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>25614</v>
       </c>
       <c r="X76">
@@ -9596,9 +9491,6 @@
         <v>908</v>
       </c>
       <c r="AI76">
-        <v>604</v>
-      </c>
-      <c r="AJ76">
         <v>604</v>
       </c>
       <c r="AK76">
@@ -9717,19 +9609,19 @@
       <c r="Q77">
         <v>43168</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>723013</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>0.044720144337</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>24725</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>3463</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>28188</v>
       </c>
       <c r="X77">
@@ -9766,9 +9658,6 @@
         <v>933</v>
       </c>
       <c r="AI77">
-        <v>618</v>
-      </c>
-      <c r="AJ77">
         <v>618</v>
       </c>
       <c r="AK77">
@@ -9887,19 +9776,19 @@
       <c r="Q78">
         <v>44791</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>744937</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>0.047</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>26966</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>2572</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>29538</v>
       </c>
       <c r="X78">
@@ -9936,9 +9825,6 @@
         <v>1057</v>
       </c>
       <c r="AI78">
-        <v>675</v>
-      </c>
-      <c r="AJ78">
         <v>675</v>
       </c>
       <c r="AK78">
@@ -10057,19 +9943,19 @@
       <c r="Q79">
         <v>49313</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>770241</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>0.0543</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>23450</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>2665</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>26116</v>
       </c>
       <c r="X79">
@@ -10106,9 +9992,6 @@
         <v>1097</v>
       </c>
       <c r="AI79">
-        <v>694</v>
-      </c>
-      <c r="AJ79">
         <v>694</v>
       </c>
       <c r="AK79">
@@ -10227,19 +10110,19 @@
       <c r="Q80">
         <v>60252</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>800433</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>0.0551</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>21838</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>3469</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>25307</v>
       </c>
       <c r="X80">
@@ -10276,9 +10159,6 @@
         <v>990</v>
       </c>
       <c r="AI80">
-        <v>690</v>
-      </c>
-      <c r="AJ80">
         <v>690</v>
       </c>
       <c r="AK80">
@@ -10397,19 +10277,19 @@
       <c r="Q81">
         <v>71731</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>834437</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>0.0539</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>21868</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>5053</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>26921</v>
       </c>
       <c r="X81">
@@ -10446,9 +10326,6 @@
         <v>913</v>
       </c>
       <c r="AI81">
-        <v>665</v>
-      </c>
-      <c r="AJ81">
         <v>665</v>
       </c>
       <c r="AK81">
@@ -10561,10 +10438,10 @@
       <c r="O82">
         <v>6.800538902448421</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>870935</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>27495</v>
       </c>
       <c r="X82">
@@ -10601,9 +10478,6 @@
         <v>1022</v>
       </c>
       <c r="AI82">
-        <v>666</v>
-      </c>
-      <c r="AJ82">
         <v>666</v>
       </c>
       <c r="AK82">
@@ -10722,19 +10596,19 @@
       <c r="Q83">
         <v>80700</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>886354</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>0.0487</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>22186</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>5397</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>27583</v>
       </c>
       <c r="X83">
@@ -10771,9 +10645,6 @@
         <v>929</v>
       </c>
       <c r="AI83">
-        <v>643</v>
-      </c>
-      <c r="AJ83">
         <v>643</v>
       </c>
       <c r="AK83">
@@ -10892,19 +10763,19 @@
       <c r="Q84">
         <v>84841</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>906074</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>0.0515</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>20198</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>5953</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>26152</v>
       </c>
       <c r="X84">
@@ -10941,9 +10812,6 @@
         <v>854</v>
       </c>
       <c r="AI84">
-        <v>657</v>
-      </c>
-      <c r="AJ84">
         <v>657</v>
       </c>
       <c r="AK84">
@@ -11062,19 +10930,19 @@
       <c r="Q85">
         <v>87565</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>943239</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>0.0427</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>22218</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>6111</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>28329</v>
       </c>
       <c r="X85">
@@ -11111,9 +10979,6 @@
         <v>887</v>
       </c>
       <c r="AI85">
-        <v>647</v>
-      </c>
-      <c r="AJ85">
         <v>647</v>
       </c>
       <c r="AK85">
@@ -11232,19 +11097,19 @@
       <c r="Q86">
         <v>88643</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>961861</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>0.0433</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>21756</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>5619</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>27374</v>
       </c>
       <c r="X86">
@@ -11281,9 +11146,6 @@
         <v>974</v>
       </c>
       <c r="AI86">
-        <v>671</v>
-      </c>
-      <c r="AJ86">
         <v>671</v>
       </c>
       <c r="AK86">
@@ -11402,19 +11264,19 @@
       <c r="Q87">
         <v>96719</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>989994</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>0.049</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>21871</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>5210</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>27080</v>
       </c>
       <c r="X87">
@@ -11451,9 +11313,6 @@
         <v>998</v>
       </c>
       <c r="AI87">
-        <v>694</v>
-      </c>
-      <c r="AJ87">
         <v>694</v>
       </c>
       <c r="AK87">
@@ -11572,19 +11431,19 @@
       <c r="Q88">
         <v>98932</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>1027449</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>0.0456</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>23687</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>3886</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>27573</v>
       </c>
       <c r="X88">
@@ -11624,7 +11483,7 @@
         <v>747</v>
       </c>
       <c r="AJ88">
-        <v>747</v>
+        <v>16136</v>
       </c>
       <c r="AK88">
         <v>747</v>
@@ -11742,10 +11601,10 @@
       <c r="Q89">
         <v>102928</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>1054793</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>26265</v>
       </c>
       <c r="X89">
@@ -11785,7 +11644,7 @@
         <v>753</v>
       </c>
       <c r="AJ89">
-        <v>753</v>
+        <v>15599</v>
       </c>
       <c r="AK89">
         <v>753</v>
@@ -11903,19 +11762,19 @@
       <c r="Q90">
         <v>103460</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>1073491</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>0.0543810873784</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>23482</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>3251</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>26734</v>
       </c>
       <c r="X90">
@@ -11955,7 +11814,7 @@
         <v>731</v>
       </c>
       <c r="AJ90">
-        <v>731</v>
+        <v>16127</v>
       </c>
       <c r="AK90">
         <v>731</v>
@@ -12073,19 +11932,19 @@
       <c r="Q91">
         <v>107452</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>1093676</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>0.054</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>23570</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>3230</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>26800</v>
       </c>
       <c r="X91">
@@ -12125,7 +11984,7 @@
         <v>748</v>
       </c>
       <c r="AJ91">
-        <v>748</v>
+        <v>16330</v>
       </c>
       <c r="AK91">
         <v>748</v>
@@ -12246,19 +12105,19 @@
       <c r="Q92">
         <v>110506</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>1117274</v>
       </c>
-      <c r="S92">
-        <v>0.06623691212093</v>
-      </c>
       <c r="T92">
+        <v>0.0662</v>
+      </c>
+      <c r="U92">
         <v>21585</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>3277</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>24862</v>
       </c>
       <c r="X92">
@@ -12298,7 +12157,7 @@
         <v>762</v>
       </c>
       <c r="AJ92">
-        <v>762</v>
+        <v>16575</v>
       </c>
       <c r="AK92">
         <v>762</v>
@@ -12419,19 +12278,19 @@
       <c r="Q93">
         <v>112313</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>1150868</v>
       </c>
-      <c r="S93">
-        <v>0.06259941815807001</v>
-      </c>
       <c r="T93">
+        <v>0.0626</v>
+      </c>
+      <c r="U93">
         <v>23620</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>3381</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>27001</v>
       </c>
       <c r="X93">
@@ -12471,7 +12330,7 @@
         <v>748</v>
       </c>
       <c r="AJ93">
-        <v>748</v>
+        <v>14948</v>
       </c>
       <c r="AK93">
         <v>748</v>
@@ -12592,19 +12451,19 @@
       <c r="Q94">
         <v>113372</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>1174948</v>
       </c>
-      <c r="S94">
-        <v>0.06027296332167</v>
-      </c>
       <c r="T94">
+        <v>0.0603</v>
+      </c>
+      <c r="U94">
         <v>24043</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>2379</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>26422</v>
       </c>
       <c r="X94">
@@ -12644,7 +12503,7 @@
         <v>730</v>
       </c>
       <c r="AJ94">
-        <v>730</v>
+        <v>15219</v>
       </c>
       <c r="AK94">
         <v>730</v>
@@ -12765,19 +12624,19 @@
       <c r="Q95">
         <v>115910</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>1209187</v>
       </c>
-      <c r="S95">
-        <v>0.06437848992474</v>
-      </c>
       <c r="T95">
+        <v>0.0644</v>
+      </c>
+      <c r="U95">
         <v>23537</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>2425</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>25963</v>
       </c>
       <c r="X95">
@@ -12817,7 +12676,7 @@
         <v>742</v>
       </c>
       <c r="AJ95">
-        <v>742</v>
+        <v>14674</v>
       </c>
       <c r="AK95">
         <v>742</v>
@@ -12938,19 +12797,19 @@
       <c r="Q96">
         <v>126943</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>1218955</v>
       </c>
-      <c r="S96">
-        <v>0.08002311858263</v>
-      </c>
       <c r="T96">
+        <v>0.08</v>
+      </c>
+      <c r="U96">
         <v>20021</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>3431</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>23452</v>
       </c>
       <c r="X96">
@@ -12990,7 +12849,7 @@
         <v>737</v>
       </c>
       <c r="AJ96">
-        <v>737</v>
+        <v>15198</v>
       </c>
       <c r="AK96">
         <v>737</v>
@@ -13111,19 +12970,19 @@
       <c r="Q97">
         <v>135583</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <v>1255899</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <v>0.0711381708088</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>21469</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>4589</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>26058</v>
       </c>
       <c r="X97">
@@ -13163,7 +13022,7 @@
         <v>763</v>
       </c>
       <c r="AJ97">
-        <v>763</v>
+        <v>15942</v>
       </c>
       <c r="AK97">
         <v>763</v>
@@ -13284,19 +13143,19 @@
       <c r="Q98">
         <v>138784</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>1286139</v>
       </c>
-      <c r="S98">
-        <v>0.06662901614215</v>
-      </c>
       <c r="T98">
+        <v>0.06660000000000001</v>
+      </c>
+      <c r="U98">
         <v>23019</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>4476</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>27495</v>
       </c>
       <c r="X98">
@@ -13336,7 +13195,7 @@
         <v>743</v>
       </c>
       <c r="AJ98">
-        <v>743</v>
+        <v>15070</v>
       </c>
       <c r="AK98">
         <v>743</v>
@@ -13457,19 +13316,19 @@
       <c r="Q99">
         <v>140962</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>1302049</v>
       </c>
-      <c r="S99">
-        <v>0.06923969180723</v>
-      </c>
       <c r="T99">
+        <v>0.0692</v>
+      </c>
+      <c r="U99">
         <v>22046</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>4351</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>26396</v>
       </c>
       <c r="X99">
@@ -13509,7 +13368,7 @@
         <v>784</v>
       </c>
       <c r="AJ99">
-        <v>784</v>
+        <v>15402</v>
       </c>
       <c r="AK99">
         <v>784</v>
@@ -13630,19 +13489,19 @@
       <c r="Q100">
         <v>142573</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <v>1348893</v>
       </c>
-      <c r="S100">
-        <v>0.06846481685691</v>
-      </c>
       <c r="T100">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="U100">
         <v>23966</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>4323</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>28289</v>
       </c>
       <c r="X100">
@@ -13682,7 +13541,7 @@
         <v>857</v>
       </c>
       <c r="AJ100">
-        <v>857</v>
+        <v>13645</v>
       </c>
       <c r="AK100">
         <v>857</v>
@@ -13803,19 +13662,19 @@
       <c r="Q101">
         <v>143174</v>
       </c>
-      <c r="R101">
+      <c r="S101">
         <v>1370131</v>
       </c>
-      <c r="S101">
-        <v>0.07052200676015</v>
-      </c>
       <c r="T101">
+        <v>0.07049999999999999</v>
+      </c>
+      <c r="U101">
         <v>23626</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>4257</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>27883</v>
       </c>
       <c r="X101">
@@ -13855,7 +13714,7 @@
         <v>809</v>
       </c>
       <c r="AJ101">
-        <v>809</v>
+        <v>13271</v>
       </c>
       <c r="AK101">
         <v>809</v>
@@ -13976,19 +13835,19 @@
       <c r="Q102">
         <v>144050</v>
       </c>
-      <c r="R102">
+      <c r="S102">
         <v>1404369</v>
       </c>
-      <c r="S102">
-        <v>0.07223931705799</v>
-      </c>
       <c r="T102">
+        <v>0.0722</v>
+      </c>
+      <c r="U102">
         <v>23863</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>4020</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>27883</v>
       </c>
       <c r="X102">
@@ -14028,7 +13887,7 @@
         <v>810</v>
       </c>
       <c r="AJ102">
-        <v>810</v>
+        <v>14033</v>
       </c>
       <c r="AK102">
         <v>810</v>
@@ -14149,19 +14008,19 @@
       <c r="Q103">
         <v>146967</v>
       </c>
-      <c r="R103">
+      <c r="S103">
         <v>1442950</v>
       </c>
-      <c r="S103">
-        <v>0.06107731000976</v>
-      </c>
       <c r="T103">
+        <v>0.0611</v>
+      </c>
+      <c r="U103">
         <v>29139</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>2861</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>31999</v>
       </c>
       <c r="X103">
@@ -14201,7 +14060,7 @@
         <v>828</v>
       </c>
       <c r="AJ103">
-        <v>828</v>
+        <v>13571</v>
       </c>
       <c r="AK103">
         <v>828</v>
@@ -14322,19 +14181,19 @@
       <c r="Q104">
         <v>149090</v>
       </c>
-      <c r="R104">
+      <c r="S104">
         <v>1463851</v>
       </c>
-      <c r="S104">
+      <c r="T104">
         <v>0.0662192393736</v>
       </c>
-      <c r="T104">
+      <c r="U104">
         <v>27778</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>1930</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>29707</v>
       </c>
       <c r="X104">
@@ -14374,7 +14233,7 @@
         <v>817</v>
       </c>
       <c r="AJ104">
-        <v>817</v>
+        <v>14660</v>
       </c>
       <c r="AK104">
         <v>817</v>
@@ -14495,19 +14354,19 @@
       <c r="Q105">
         <v>150573</v>
       </c>
-      <c r="R105">
+      <c r="S105">
         <v>1499015</v>
       </c>
-      <c r="S105">
-        <v>0.06709533684425</v>
-      </c>
       <c r="T105">
+        <v>0.06710000000000001</v>
+      </c>
+      <c r="U105">
         <v>28727</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>1684</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>30411</v>
       </c>
       <c r="X105">
@@ -14547,7 +14406,7 @@
         <v>861</v>
       </c>
       <c r="AJ105">
-        <v>861</v>
+        <v>14525</v>
       </c>
       <c r="AK105">
         <v>861</v>
@@ -14668,19 +14527,19 @@
       <c r="Q106">
         <v>152796</v>
       </c>
-      <c r="R106">
+      <c r="S106">
         <v>1522434</v>
       </c>
-      <c r="S106">
-        <v>0.06941707304208999</v>
-      </c>
       <c r="T106">
+        <v>0.0694</v>
+      </c>
+      <c r="U106">
         <v>29793</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>1691</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>31484</v>
       </c>
       <c r="X106">
@@ -14720,7 +14579,7 @@
         <v>895</v>
       </c>
       <c r="AJ106">
-        <v>895</v>
+        <v>14993</v>
       </c>
       <c r="AK106">
         <v>895</v>
@@ -14841,19 +14700,19 @@
       <c r="Q107">
         <v>152796</v>
       </c>
-      <c r="R107">
+      <c r="S107">
         <v>1560537</v>
       </c>
-      <c r="S107">
-        <v>0.07497728638027</v>
-      </c>
       <c r="T107">
+        <v>0.075</v>
+      </c>
+      <c r="U107">
         <v>28774</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>1460</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>30235</v>
       </c>
       <c r="X107">
@@ -14893,7 +14752,7 @@
         <v>964</v>
       </c>
       <c r="AJ107">
-        <v>964</v>
+        <v>13815</v>
       </c>
       <c r="AK107">
         <v>964</v>
@@ -15014,19 +14873,19 @@
       <c r="Q108">
         <v>153011</v>
       </c>
-      <c r="R108">
+      <c r="S108">
         <v>1576925</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <v>0.0852571881172</v>
       </c>
-      <c r="T108">
+      <c r="U108">
         <v>28137</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>1405</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>29542</v>
       </c>
       <c r="X108">
@@ -15066,7 +14925,7 @@
         <v>1010</v>
       </c>
       <c r="AJ108">
-        <v>1010</v>
+        <v>13472</v>
       </c>
       <c r="AK108">
         <v>1010</v>
@@ -15187,19 +15046,19 @@
       <c r="Q109">
         <v>159453</v>
       </c>
-      <c r="R109">
+      <c r="S109">
         <v>1622851</v>
       </c>
-      <c r="S109">
-        <v>0.08936916175479</v>
-      </c>
       <c r="T109">
+        <v>0.08939999999999999</v>
+      </c>
+      <c r="U109">
         <v>29011</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>2200</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>31212</v>
       </c>
       <c r="X109">
@@ -15239,7 +15098,7 @@
         <v>1088</v>
       </c>
       <c r="AJ109">
-        <v>1088</v>
+        <v>13591</v>
       </c>
       <c r="AK109">
         <v>1088</v>
@@ -15360,19 +15219,19 @@
       <c r="Q110">
         <v>163944</v>
       </c>
-      <c r="R110">
+      <c r="S110">
         <v>1690124</v>
       </c>
-      <c r="S110">
-        <v>0.08795944343323001</v>
-      </c>
       <c r="T110">
+        <v>0.088</v>
+      </c>
+      <c r="U110">
         <v>32885</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>2425</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>35311</v>
       </c>
       <c r="X110">
@@ -15412,7 +15271,7 @@
         <v>1113</v>
       </c>
       <c r="AJ110">
-        <v>1113</v>
+        <v>13701</v>
       </c>
       <c r="AK110">
         <v>1113</v>
@@ -15533,19 +15392,19 @@
       <c r="Q111">
         <v>166168</v>
       </c>
-      <c r="R111">
+      <c r="S111">
         <v>1715177</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <v>0.0951</v>
       </c>
-      <c r="T111">
+      <c r="U111">
         <v>33464</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>2440</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>35904</v>
       </c>
       <c r="X111">
@@ -15585,7 +15444,7 @@
         <v>1143</v>
       </c>
       <c r="AJ111">
-        <v>1143</v>
+        <v>14316</v>
       </c>
       <c r="AK111">
         <v>1143</v>
@@ -15706,19 +15565,19 @@
       <c r="Q112">
         <v>170411</v>
       </c>
-      <c r="R112">
+      <c r="S112">
         <v>1767701</v>
       </c>
-      <c r="S112">
-        <v>0.09640261560072</v>
-      </c>
       <c r="T112">
+        <v>0.0964</v>
+      </c>
+      <c r="U112">
         <v>35550</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>2834</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>38384</v>
       </c>
       <c r="X112">
@@ -15758,7 +15617,7 @@
         <v>1220</v>
       </c>
       <c r="AJ112">
-        <v>1220</v>
+        <v>14697</v>
       </c>
       <c r="AK112">
         <v>1220</v>
@@ -15879,19 +15738,19 @@
       <c r="Q113">
         <v>175384</v>
       </c>
-      <c r="R113">
+      <c r="S113">
         <v>1805642</v>
       </c>
-      <c r="S113">
-        <v>0.10422837848208</v>
-      </c>
       <c r="T113">
+        <v>0.1042</v>
+      </c>
+      <c r="U113">
         <v>37231</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>3227</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>40458</v>
       </c>
       <c r="X113">
@@ -15931,7 +15790,7 @@
         <v>1325</v>
       </c>
       <c r="AJ113">
-        <v>1325</v>
+        <v>14260</v>
       </c>
       <c r="AK113">
         <v>1325</v>
@@ -16052,19 +15911,19 @@
       <c r="Q114">
         <v>176697</v>
       </c>
-      <c r="R114">
+      <c r="S114">
         <v>1836037</v>
       </c>
-      <c r="S114">
-        <v>0.11759188232068</v>
-      </c>
       <c r="T114">
+        <v>0.1176</v>
+      </c>
+      <c r="U114">
         <v>35943</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>3414</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>39357</v>
       </c>
       <c r="X114">
@@ -16104,7 +15963,7 @@
         <v>1399</v>
       </c>
       <c r="AJ114">
-        <v>1399</v>
+        <v>12951</v>
       </c>
       <c r="AK114">
         <v>1399</v>
@@ -16225,19 +16084,19 @@
       <c r="Q115">
         <v>177863</v>
       </c>
-      <c r="R115">
+      <c r="S115">
         <v>1875197</v>
       </c>
-      <c r="S115">
-        <v>0.11727744861385</v>
-      </c>
       <c r="T115">
+        <v>0.1173</v>
+      </c>
+      <c r="U115">
         <v>39060</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>3550</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>42610</v>
       </c>
       <c r="X115">
@@ -16277,7 +16136,7 @@
         <v>1460</v>
       </c>
       <c r="AJ115">
-        <v>1460</v>
+        <v>12597</v>
       </c>
       <c r="AK115">
         <v>1460</v>
@@ -16398,19 +16257,19 @@
       <c r="Q116">
         <v>180835</v>
       </c>
-      <c r="R116">
+      <c r="S116">
         <v>1903661</v>
       </c>
-      <c r="S116">
-        <v>0.13228718565459</v>
-      </c>
       <c r="T116">
+        <v>0.1323</v>
+      </c>
+      <c r="U116">
         <v>37061</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>3055</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>40116</v>
       </c>
       <c r="X116">
@@ -16450,7 +16309,7 @@
         <v>1586</v>
       </c>
       <c r="AJ116">
-        <v>1586</v>
+        <v>12398</v>
       </c>
       <c r="AK116">
         <v>1586</v>
@@ -16571,19 +16430,19 @@
       <c r="Q117">
         <v>184398</v>
       </c>
-      <c r="R117">
+      <c r="S117">
         <v>1959617</v>
       </c>
-      <c r="S117">
-        <v>0.14309405354181</v>
-      </c>
       <c r="T117">
+        <v>0.1431</v>
+      </c>
+      <c r="U117">
         <v>35577</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>2922</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>38499</v>
       </c>
       <c r="X117">
@@ -16623,7 +16482,7 @@
         <v>1727</v>
       </c>
       <c r="AJ117">
-        <v>1727</v>
+        <v>12893</v>
       </c>
       <c r="AK117">
         <v>1727</v>
@@ -16744,19 +16603,19 @@
       <c r="Q118">
         <v>187535</v>
       </c>
-      <c r="R118">
+      <c r="S118">
         <v>2006724</v>
       </c>
-      <c r="S118">
-        <v>0.13739729069509</v>
-      </c>
       <c r="T118">
+        <v>0.1374</v>
+      </c>
+      <c r="U118">
         <v>38597</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>3052</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>41650</v>
       </c>
       <c r="X118">
@@ -16796,7 +16655,7 @@
         <v>1684</v>
       </c>
       <c r="AJ118">
-        <v>1684</v>
+        <v>12751</v>
       </c>
       <c r="AK118">
         <v>1684</v>
@@ -16917,19 +16776,19 @@
       <c r="Q119">
         <v>192657</v>
       </c>
-      <c r="R119">
+      <c r="S119">
         <v>2061939</v>
       </c>
-      <c r="S119">
-        <v>0.14018794670431</v>
-      </c>
       <c r="T119">
+        <v>0.1402</v>
+      </c>
+      <c r="U119">
         <v>38856</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>3178</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>42034</v>
       </c>
       <c r="X119">
@@ -16969,7 +16828,7 @@
         <v>1828</v>
       </c>
       <c r="AJ119">
-        <v>1828</v>
+        <v>13825</v>
       </c>
       <c r="AK119">
         <v>1828</v>
@@ -17090,19 +16949,19 @@
       <c r="Q120">
         <v>197088</v>
       </c>
-      <c r="R120">
+      <c r="S120">
         <v>2119036</v>
       </c>
-      <c r="S120">
-        <v>0.13581542048065</v>
-      </c>
       <c r="T120">
+        <v>0.1358</v>
+      </c>
+      <c r="U120">
         <v>41670</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>3101</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>44771</v>
       </c>
       <c r="X120">
@@ -17142,7 +17001,7 @@
         <v>1894</v>
       </c>
       <c r="AJ120">
-        <v>1894</v>
+        <v>13711</v>
       </c>
       <c r="AK120">
         <v>1894</v>
@@ -17263,19 +17122,19 @@
       <c r="Q121">
         <v>198745</v>
       </c>
-      <c r="R121">
+      <c r="S121">
         <v>2174548</v>
       </c>
-      <c r="S121">
-        <v>0.13316248660981</v>
-      </c>
       <c r="T121">
+        <v>0.1332</v>
+      </c>
+      <c r="U121">
         <v>45209</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>3150</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>48359</v>
       </c>
       <c r="X121">
@@ -17315,7 +17174,7 @@
         <v>1993</v>
       </c>
       <c r="AJ121">
-        <v>1993</v>
+        <v>12894</v>
       </c>
       <c r="AK121">
         <v>1993</v>
@@ -17439,19 +17298,19 @@
       <c r="Q122">
         <v>199041</v>
       </c>
-      <c r="R122">
+      <c r="S122">
         <v>2212947</v>
       </c>
-      <c r="S122">
-        <v>0.13917844913637</v>
-      </c>
       <c r="T122">
+        <v>0.1392</v>
+      </c>
+      <c r="U122">
         <v>45225</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>3025</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>48250</v>
       </c>
       <c r="X122">
@@ -17491,7 +17350,7 @@
         <v>2155</v>
       </c>
       <c r="AJ122">
-        <v>2155</v>
+        <v>11983</v>
       </c>
       <c r="AK122">
         <v>2155</v>
@@ -17615,19 +17474,19 @@
       <c r="Q123">
         <v>201782</v>
       </c>
-      <c r="R123">
+      <c r="S123">
         <v>2273591</v>
       </c>
-      <c r="S123">
-        <v>0.13154795505798</v>
-      </c>
       <c r="T123">
+        <v>0.1315</v>
+      </c>
+      <c r="U123">
         <v>49855</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>2992</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>52847</v>
       </c>
       <c r="X123">
@@ -17667,7 +17526,7 @@
         <v>2231</v>
       </c>
       <c r="AJ123">
-        <v>2231</v>
+        <v>12134</v>
       </c>
       <c r="AK123">
         <v>2231</v>
@@ -17791,19 +17650,19 @@
       <c r="Q124">
         <v>204641</v>
       </c>
-      <c r="R124">
+      <c r="S124">
         <v>2338098</v>
       </c>
-      <c r="S124">
-        <v>0.13517270641306</v>
-      </c>
       <c r="T124">
+        <v>0.1352</v>
+      </c>
+      <c r="U124">
         <v>51177</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>2892</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>54069</v>
       </c>
       <c r="X124">
@@ -17843,7 +17702,7 @@
         <v>2338</v>
       </c>
       <c r="AJ124">
-        <v>2338</v>
+        <v>12907</v>
       </c>
       <c r="AK124">
         <v>2338</v>
@@ -17967,19 +17826,19 @@
       <c r="Q125">
         <v>207980</v>
       </c>
-      <c r="R125">
+      <c r="S125">
         <v>2371709</v>
       </c>
-      <c r="S125">
-        <v>0.13500899750392</v>
-      </c>
       <c r="T125">
+        <v>0.135</v>
+      </c>
+      <c r="U125">
         <v>49220</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>2921</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>52141</v>
       </c>
       <c r="X125">
@@ -18019,7 +17878,7 @@
         <v>2449</v>
       </c>
       <c r="AJ125">
-        <v>2449</v>
+        <v>13307</v>
       </c>
       <c r="AK125">
         <v>2449</v>
@@ -18143,19 +18002,19 @@
       <c r="Q126">
         <v>210574</v>
       </c>
-      <c r="R126">
+      <c r="S126">
         <v>2431861</v>
       </c>
-      <c r="S126">
-        <v>0.13507194500078</v>
-      </c>
       <c r="T126">
+        <v>0.1351</v>
+      </c>
+      <c r="U126">
         <v>50286</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>2560</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>52846</v>
       </c>
       <c r="X126">
@@ -18195,7 +18054,7 @@
         <v>2517</v>
       </c>
       <c r="AJ126">
-        <v>2517</v>
+        <v>12852</v>
       </c>
       <c r="AK126">
         <v>2517</v>
@@ -18319,19 +18178,19 @@
       <c r="Q127">
         <v>212321</v>
       </c>
-      <c r="R127">
+      <c r="S127">
         <v>2471029</v>
       </c>
-      <c r="S127">
-        <v>0.15025240527379</v>
-      </c>
       <c r="T127">
+        <v>0.1503</v>
+      </c>
+      <c r="U127">
         <v>48109</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>2176</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>50285</v>
       </c>
       <c r="X127">
@@ -18371,7 +18230,7 @@
         <v>2658</v>
       </c>
       <c r="AJ127">
-        <v>2658</v>
+        <v>12925</v>
       </c>
       <c r="AK127">
         <v>2658</v>
@@ -18495,19 +18354,19 @@
       <c r="Q128">
         <v>213728</v>
       </c>
-      <c r="R128">
+      <c r="S128">
         <v>2526940</v>
       </c>
-      <c r="S128">
-        <v>0.15560343677851</v>
-      </c>
       <c r="T128">
+        <v>0.1556</v>
+      </c>
+      <c r="U128">
         <v>48201</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>2140</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>50342</v>
       </c>
       <c r="X128">
@@ -18547,7 +18406,7 @@
         <v>2730</v>
       </c>
       <c r="AJ128">
-        <v>2730</v>
+        <v>11575</v>
       </c>
       <c r="AK128">
         <v>2730</v>
@@ -18671,19 +18530,19 @@
       <c r="Q129">
         <v>214114</v>
       </c>
-      <c r="R129">
+      <c r="S129">
         <v>2603903</v>
       </c>
-      <c r="S129">
-        <v>0.14464341297691</v>
-      </c>
       <c r="T129">
+        <v>0.1446</v>
+      </c>
+      <c r="U129">
         <v>53698</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>2153</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>55851</v>
       </c>
       <c r="X129">
@@ -18723,7 +18582,7 @@
         <v>2878</v>
       </c>
       <c r="AJ129">
-        <v>2878</v>
+        <v>11296</v>
       </c>
       <c r="AK129">
         <v>2878</v>
@@ -18806,10 +18665,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4585</v>
+        <v>4584</v>
       </c>
       <c r="E130">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18847,19 +18706,19 @@
       <c r="Q130">
         <v>214872</v>
       </c>
-      <c r="R130">
+      <c r="S130">
         <v>2644496</v>
       </c>
-      <c r="S130">
-        <v>0.15812361136341</v>
-      </c>
       <c r="T130">
+        <v>0.1581</v>
+      </c>
+      <c r="U130">
         <v>51116</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>1870</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>52986</v>
       </c>
       <c r="X130">
@@ -18899,7 +18758,7 @@
         <v>2923</v>
       </c>
       <c r="AJ130">
-        <v>2923</v>
+        <v>10698</v>
       </c>
       <c r="AK130">
         <v>2923</v>
@@ -18982,7 +18841,7 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="E131">
         <v>183</v>
@@ -19023,19 +18882,19 @@
       <c r="Q131">
         <v>217536</v>
       </c>
-      <c r="R131">
+      <c r="S131">
         <v>2710290</v>
       </c>
-      <c r="S131">
-        <v>0.16329665986635</v>
-      </c>
       <c r="T131">
+        <v>0.1633</v>
+      </c>
+      <c r="U131">
         <v>51328</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>1842</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>53170</v>
       </c>
       <c r="X131">
@@ -19075,7 +18934,7 @@
         <v>2913</v>
       </c>
       <c r="AJ131">
-        <v>2913</v>
+        <v>11188</v>
       </c>
       <c r="AK131">
         <v>2913</v>
@@ -19158,7 +19017,7 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4969</v>
+        <v>4968</v>
       </c>
       <c r="E132">
         <v>201</v>
@@ -19199,19 +19058,19 @@
       <c r="Q132">
         <v>217734</v>
       </c>
-      <c r="R132">
+      <c r="S132">
         <v>2757859</v>
       </c>
-      <c r="S132">
-        <v>0.16849010085123</v>
-      </c>
       <c r="T132">
+        <v>0.1685</v>
+      </c>
+      <c r="U132">
         <v>53771</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>1393</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>55164</v>
       </c>
       <c r="X132">
@@ -19251,7 +19110,7 @@
         <v>2995</v>
       </c>
       <c r="AJ132">
-        <v>2995</v>
+        <v>11726</v>
       </c>
       <c r="AK132">
         <v>2995</v>
@@ -19337,7 +19196,7 @@
         <v>5167</v>
       </c>
       <c r="E133">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19375,19 +19234,19 @@
       <c r="Q133">
         <v>222123</v>
       </c>
-      <c r="R133">
+      <c r="S133">
         <v>2820803</v>
       </c>
-      <c r="S133">
-        <v>0.16893795062442</v>
-      </c>
       <c r="T133">
+        <v>0.1689</v>
+      </c>
+      <c r="U133">
         <v>53913</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>1650</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>55563</v>
       </c>
       <c r="X133">
@@ -19427,7 +19286,7 @@
         <v>3053</v>
       </c>
       <c r="AJ133">
-        <v>3053</v>
+        <v>12066</v>
       </c>
       <c r="AK133">
         <v>3053</v>
@@ -19551,19 +19410,19 @@
       <c r="Q134">
         <v>222342</v>
       </c>
-      <c r="R134">
+      <c r="S134">
         <v>2864541</v>
       </c>
-      <c r="S134">
-        <v>0.16812128576681</v>
-      </c>
       <c r="T134">
+        <v>0.1681</v>
+      </c>
+      <c r="U134">
         <v>54784</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>1432</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>56216</v>
       </c>
       <c r="X134">
@@ -19603,7 +19462,7 @@
         <v>3144</v>
       </c>
       <c r="AJ134">
-        <v>3144</v>
+        <v>11402</v>
       </c>
       <c r="AK134">
         <v>3144</v>
@@ -19727,19 +19586,19 @@
       <c r="Q135">
         <v>224433</v>
       </c>
-      <c r="R135">
+      <c r="S135">
         <v>2924288</v>
       </c>
-      <c r="S135">
-        <v>0.16885085207802</v>
-      </c>
       <c r="T135">
+        <v>0.1689</v>
+      </c>
+      <c r="U135">
         <v>55235</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>1529</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>56764</v>
       </c>
       <c r="X135">
@@ -19779,7 +19638,7 @@
         <v>3104</v>
       </c>
       <c r="AJ135">
-        <v>3104</v>
+        <v>10586</v>
       </c>
       <c r="AK135">
         <v>3104</v>
@@ -19808,10 +19667,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="E136">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19849,19 +19708,19 @@
       <c r="Q136">
         <v>224781</v>
       </c>
-      <c r="R136">
+      <c r="S136">
         <v>2992102</v>
       </c>
-      <c r="S136">
-        <v>0.17427396882913</v>
-      </c>
       <c r="T136">
+        <v>0.1743</v>
+      </c>
+      <c r="U136">
         <v>53933</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>1524</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>55457</v>
       </c>
       <c r="X136">
@@ -19901,7 +19760,7 @@
         <v>3169</v>
       </c>
       <c r="AJ136">
-        <v>3169</v>
+        <v>10759</v>
       </c>
       <c r="AK136">
         <v>3169</v>
@@ -19930,10 +19789,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>6015</v>
+        <v>5952</v>
       </c>
       <c r="E137">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19971,19 +19830,19 @@
       <c r="Q137">
         <v>224935</v>
       </c>
-      <c r="R137">
+      <c r="S137">
         <v>3067620</v>
       </c>
-      <c r="S137">
-        <v>0.16047266626479</v>
-      </c>
       <c r="T137">
+        <v>0.1605</v>
+      </c>
+      <c r="U137">
         <v>59009</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>1438</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>60446</v>
       </c>
       <c r="X137">
@@ -20023,7 +19882,7 @@
         <v>3216</v>
       </c>
       <c r="AJ137">
-        <v>3216</v>
+        <v>10479</v>
       </c>
       <c r="AK137">
         <v>3216</v>
@@ -20052,10 +19911,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6189</v>
+        <v>6066</v>
       </c>
       <c r="E138">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -20093,19 +19952,19 @@
       <c r="Q138">
         <v>221259</v>
       </c>
-      <c r="R138">
+      <c r="S138">
         <v>3153623</v>
       </c>
-      <c r="S138">
-        <v>0.15034234890016</v>
-      </c>
       <c r="T138">
+        <v>0.1503</v>
+      </c>
+      <c r="U138">
         <v>62801</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>532</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>63333</v>
       </c>
       <c r="X138">
@@ -20145,7 +20004,7 @@
         <v>3263</v>
       </c>
       <c r="AJ138">
-        <v>3263</v>
+        <v>10831</v>
       </c>
       <c r="AK138">
         <v>3263</v>
@@ -20174,10 +20033,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6381</v>
+        <v>6167</v>
       </c>
       <c r="E139">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20215,19 +20074,19 @@
       <c r="Q139">
         <v>223303</v>
       </c>
-      <c r="R139">
+      <c r="S139">
         <v>3207857</v>
       </c>
-      <c r="S139">
-        <v>0.14669609768939</v>
-      </c>
       <c r="T139">
+        <v>0.1467</v>
+      </c>
+      <c r="U139">
         <v>63490</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>796</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>64285</v>
       </c>
       <c r="X139">
@@ -20267,7 +20126,7 @@
         <v>3412</v>
       </c>
       <c r="AJ139">
-        <v>3412</v>
+        <v>11072</v>
       </c>
       <c r="AK139">
         <v>3412</v>
@@ -20296,10 +20155,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6580</v>
+        <v>6282</v>
       </c>
       <c r="E140">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20337,19 +20196,19 @@
       <c r="Q140">
         <v>226323</v>
       </c>
-      <c r="R140">
+      <c r="S140">
         <v>3269897</v>
       </c>
-      <c r="S140">
-        <v>0.15047404550297</v>
-      </c>
       <c r="T140">
+        <v>0.1505</v>
+      </c>
+      <c r="U140">
         <v>63556</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>600</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>64156</v>
       </c>
       <c r="X140">
@@ -20389,7 +20248,7 @@
         <v>3197</v>
       </c>
       <c r="AJ140">
-        <v>3197</v>
+        <v>11167</v>
       </c>
       <c r="AK140">
         <v>3197</v>
@@ -20418,10 +20277,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6775</v>
+        <v>6460</v>
       </c>
       <c r="E141">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20459,19 +20318,19 @@
       <c r="Q141">
         <v>227696</v>
       </c>
-      <c r="R141">
+      <c r="S141">
         <v>3331844</v>
       </c>
-      <c r="S141">
-        <v>0.14180136768345</v>
-      </c>
       <c r="T141">
+        <v>0.1418</v>
+      </c>
+      <c r="U141">
         <v>65993</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>765</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>66758</v>
       </c>
       <c r="X141">
@@ -20487,7 +20346,7 @@
         <v>3281</v>
       </c>
       <c r="AJ141">
-        <v>3281</v>
+        <v>11461</v>
       </c>
       <c r="AK141">
         <v>3281</v>
@@ -20516,10 +20375,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6980</v>
+        <v>6643</v>
       </c>
       <c r="E142">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20557,19 +20416,19 @@
       <c r="Q142">
         <v>232021</v>
       </c>
-      <c r="R142">
+      <c r="S142">
         <v>3396677</v>
       </c>
-      <c r="S142">
-        <v>0.13896915023849</v>
-      </c>
       <c r="T142">
+        <v>0.139</v>
+      </c>
+      <c r="U142">
         <v>66400</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>1084</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>67484</v>
       </c>
       <c r="X142">
@@ -20609,7 +20468,7 @@
         <v>3329</v>
       </c>
       <c r="AJ142">
-        <v>3329</v>
+        <v>10520</v>
       </c>
       <c r="AK142">
         <v>3329</v>
@@ -20647,10 +20506,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>7172</v>
+        <v>6730</v>
       </c>
       <c r="E143">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20688,19 +20547,19 @@
       <c r="Q143">
         <v>233139</v>
       </c>
-      <c r="R143">
+      <c r="S143">
         <v>3465070</v>
       </c>
-      <c r="S143">
-        <v>0.13733884333097</v>
-      </c>
       <c r="T143">
+        <v>0.1373</v>
+      </c>
+      <c r="U143">
         <v>66373</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>1194</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>67567</v>
       </c>
       <c r="X143">
@@ -20740,7 +20599,7 @@
         <v>3160</v>
       </c>
       <c r="AJ143">
-        <v>3160</v>
+        <v>13476</v>
       </c>
       <c r="AK143">
         <v>3160</v>
@@ -20769,10 +20628,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>7354</v>
+        <v>6853</v>
       </c>
       <c r="E144">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20810,19 +20669,19 @@
       <c r="Q144">
         <v>233410</v>
       </c>
-      <c r="R144">
+      <c r="S144">
         <v>3539452</v>
       </c>
-      <c r="S144">
-        <v>0.13435428837808</v>
-      </c>
       <c r="T144">
+        <v>0.1344</v>
+      </c>
+      <c r="U144">
         <v>66194</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>1211</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>67405</v>
       </c>
       <c r="X144">
@@ -20862,7 +20721,7 @@
         <v>3228</v>
       </c>
       <c r="AJ144">
-        <v>3228</v>
+        <v>14441</v>
       </c>
       <c r="AK144">
         <v>3228</v>
@@ -20891,10 +20750,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>7508</v>
+        <v>6932</v>
       </c>
       <c r="E145">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20932,19 +20791,19 @@
       <c r="Q145">
         <v>234534</v>
       </c>
-      <c r="R145">
+      <c r="S145">
         <v>3604509</v>
       </c>
-      <c r="S145">
+      <c r="T145">
         <v>0.1375833788456</v>
       </c>
-      <c r="T145">
+      <c r="U145">
         <v>62516</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>1896</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>64412</v>
       </c>
       <c r="X145">
@@ -20984,7 +20843,7 @@
         <v>3180</v>
       </c>
       <c r="AJ145">
-        <v>3180</v>
+        <v>13837</v>
       </c>
       <c r="AK145">
         <v>3180</v>
@@ -21010,10 +20869,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7634</v>
+        <v>7062</v>
       </c>
       <c r="E146">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -21051,19 +20910,19 @@
       <c r="Q146">
         <v>235797</v>
       </c>
-      <c r="R146">
+      <c r="S146">
         <v>3664679</v>
       </c>
-      <c r="S146">
-        <v>0.13215012333231</v>
-      </c>
       <c r="T146">
+        <v>0.1322</v>
+      </c>
+      <c r="U146">
         <v>63475</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>1785</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>65260</v>
       </c>
       <c r="X146">
@@ -21103,7 +20962,7 @@
         <v>3209</v>
       </c>
       <c r="AJ146">
-        <v>3209</v>
+        <v>11443</v>
       </c>
       <c r="AK146">
         <v>3209</v>
@@ -21132,10 +20991,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7775</v>
+        <v>7135</v>
       </c>
       <c r="E147">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -21173,19 +21032,19 @@
       <c r="Q147">
         <v>237895</v>
       </c>
-      <c r="R147">
+      <c r="S147">
         <v>3714821</v>
       </c>
-      <c r="S147">
-        <v>0.12825832118001</v>
-      </c>
       <c r="T147">
+        <v>0.1283</v>
+      </c>
+      <c r="U147">
         <v>61907</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>1653</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>63561</v>
       </c>
       <c r="X147">
@@ -21225,7 +21084,7 @@
         <v>3352</v>
       </c>
       <c r="AJ147">
-        <v>3352</v>
+        <v>12723</v>
       </c>
       <c r="AK147">
         <v>3352</v>
@@ -21263,10 +21122,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7924</v>
+        <v>7274</v>
       </c>
       <c r="E148">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21304,19 +21163,19 @@
       <c r="Q148">
         <v>237895</v>
       </c>
-      <c r="R148">
+      <c r="S148">
         <v>3777263</v>
       </c>
-      <c r="S148">
-        <v>0.12549515187721</v>
-      </c>
       <c r="T148">
+        <v>0.1255</v>
+      </c>
+      <c r="U148">
         <v>62174</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>1457</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>63631</v>
       </c>
       <c r="X148">
@@ -21356,7 +21215,7 @@
         <v>3136</v>
       </c>
       <c r="AJ148">
-        <v>3136</v>
+        <v>13444</v>
       </c>
       <c r="AK148">
         <v>3136</v>
@@ -21394,10 +21253,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>8029</v>
+        <v>7333</v>
       </c>
       <c r="E149">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21435,19 +21294,19 @@
       <c r="Q149">
         <v>239566</v>
       </c>
-      <c r="R149">
+      <c r="S149">
         <v>3849040</v>
       </c>
-      <c r="S149">
-        <v>0.12090562881898</v>
-      </c>
       <c r="T149">
+        <v>0.1209</v>
+      </c>
+      <c r="U149">
         <v>63545</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>1078</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>64623</v>
       </c>
       <c r="X149">
@@ -21463,7 +21322,7 @@
         <v>3087</v>
       </c>
       <c r="AJ149">
-        <v>3087</v>
+        <v>12201</v>
       </c>
       <c r="AK149">
         <v>3087</v>
@@ -21492,10 +21351,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>8133</v>
+        <v>7436</v>
       </c>
       <c r="E150">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21533,19 +21392,19 @@
       <c r="Q150">
         <v>241518</v>
       </c>
-      <c r="R150">
+      <c r="S150">
         <v>3911270</v>
       </c>
-      <c r="S150">
-        <v>0.12122305691139</v>
-      </c>
       <c r="T150">
+        <v>0.1212</v>
+      </c>
+      <c r="U150">
         <v>62546</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>1197</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>63743</v>
       </c>
       <c r="X150">
@@ -21561,7 +21420,7 @@
         <v>3036</v>
       </c>
       <c r="AJ150">
-        <v>3036</v>
+        <v>10906</v>
       </c>
       <c r="AK150">
         <v>3036</v>
@@ -21599,10 +21458,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>8225</v>
+        <v>7479</v>
       </c>
       <c r="E151">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21640,19 +21499,19 @@
       <c r="Q151">
         <v>242251</v>
       </c>
-      <c r="R151">
+      <c r="S151">
         <v>3990030</v>
       </c>
-      <c r="S151">
-        <v>0.12046081718308</v>
-      </c>
       <c r="T151">
+        <v>0.1205</v>
+      </c>
+      <c r="U151">
         <v>63105</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>1263</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>64368</v>
       </c>
       <c r="X151">
@@ -21668,7 +21527,7 @@
         <v>3117</v>
       </c>
       <c r="AJ151">
-        <v>3117</v>
+        <v>11412</v>
       </c>
       <c r="AK151">
         <v>3117</v>
@@ -21697,10 +21556,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>8287</v>
+        <v>7540</v>
       </c>
       <c r="E152">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21738,19 +21597,19 @@
       <c r="Q152">
         <v>242418</v>
       </c>
-      <c r="R152">
+      <c r="S152">
         <v>4028966</v>
       </c>
-      <c r="S152">
-        <v>0.13116308546161</v>
-      </c>
       <c r="T152">
+        <v>0.1312</v>
+      </c>
+      <c r="U152">
         <v>59510</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>1126</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>60637</v>
       </c>
       <c r="X152">
@@ -21766,7 +21625,7 @@
         <v>3115</v>
       </c>
       <c r="AJ152">
-        <v>3115</v>
+        <v>11674</v>
       </c>
       <c r="AK152">
         <v>3115</v>
@@ -21795,10 +21654,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>8356</v>
+        <v>7591</v>
       </c>
       <c r="E153">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21836,19 +21695,19 @@
       <c r="Q153">
         <v>243777</v>
       </c>
-      <c r="R153">
+      <c r="S153">
         <v>4078363</v>
       </c>
-      <c r="S153">
+      <c r="T153">
         <v>0.1357023840041</v>
       </c>
-      <c r="T153">
+      <c r="U153">
         <v>57958</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>1140</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>59098</v>
       </c>
       <c r="X153">
@@ -21864,7 +21723,7 @@
         <v>3014</v>
       </c>
       <c r="AJ153">
-        <v>3014</v>
+        <v>12126</v>
       </c>
       <c r="AK153">
         <v>3014</v>
@@ -21893,10 +21752,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>8403</v>
+        <v>7618</v>
       </c>
       <c r="E154">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21934,19 +21793,19 @@
       <c r="Q154">
         <v>258494</v>
       </c>
-      <c r="R154">
+      <c r="S154">
         <v>4143342</v>
       </c>
-      <c r="S154">
-        <v>0.13881820544124</v>
-      </c>
       <c r="T154">
+        <v>0.1388</v>
+      </c>
+      <c r="U154">
         <v>58275</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>2943</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>61217</v>
       </c>
       <c r="X154">
@@ -21962,7 +21821,7 @@
         <v>3045</v>
       </c>
       <c r="AJ154">
-        <v>3045</v>
+        <v>11916</v>
       </c>
       <c r="AK154">
         <v>3045</v>
@@ -21991,10 +21850,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>8430</v>
+        <v>7636</v>
       </c>
       <c r="E155">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -22032,19 +21891,19 @@
       <c r="Q155">
         <v>268978</v>
       </c>
-      <c r="R155">
+      <c r="S155">
         <v>4177213</v>
       </c>
-      <c r="S155">
-        <v>0.15575261544134</v>
-      </c>
       <c r="T155">
+        <v>0.1558</v>
+      </c>
+      <c r="U155">
         <v>52695</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>4440</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>57136</v>
       </c>
       <c r="X155">
@@ -22060,7 +21919,7 @@
         <v>3006</v>
       </c>
       <c r="AJ155">
-        <v>3006</v>
+        <v>12902</v>
       </c>
       <c r="AK155">
         <v>3006</v>
@@ -22098,10 +21957,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>8454</v>
+        <v>7650</v>
       </c>
       <c r="E156">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -22139,19 +21998,19 @@
       <c r="Q156">
         <v>276849</v>
       </c>
-      <c r="R156">
+      <c r="S156">
         <v>4221329</v>
       </c>
-      <c r="S156">
+      <c r="T156">
         <v>0.1704924687916</v>
       </c>
-      <c r="T156">
+      <c r="U156">
         <v>47858</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>5326</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>53184</v>
       </c>
       <c r="X156">
@@ -22167,7 +22026,7 @@
         <v>2917</v>
       </c>
       <c r="AJ156">
-        <v>2917</v>
+        <v>11328</v>
       </c>
       <c r="AK156">
         <v>2917</v>
@@ -22196,7 +22055,7 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>8455</v>
+        <v>7651</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -22238,22 +22097,22 @@
         <v>260604</v>
       </c>
       <c r="R157">
+        <v>2206</v>
+      </c>
+      <c r="S157">
         <v>4263342</v>
       </c>
-      <c r="S157">
+      <c r="T157">
         <v>0.1679169694822</v>
       </c>
-      <c r="T157">
+      <c r="U157">
         <v>47254</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>2727</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>50296</v>
-      </c>
-      <c r="W157">
-        <v>2206</v>
       </c>
       <c r="X157">
         <v>8302</v>
@@ -22268,7 +22127,7 @@
         <v>2863</v>
       </c>
       <c r="AJ157">
-        <v>2863</v>
+        <v>11666</v>
       </c>
       <c r="AK157">
         <v>2863</v>
@@ -22306,10 +22165,10 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>8457</v>
+        <v>7652</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158">
         <v>3477261</v>
@@ -22348,22 +22207,22 @@
         <v>280434</v>
       </c>
       <c r="R158">
+        <v>13887</v>
+      </c>
+      <c r="S158">
         <v>4306978</v>
       </c>
-      <c r="S158">
-        <v>0.19412049575808</v>
-      </c>
       <c r="T158">
+        <v>0.1941</v>
+      </c>
+      <c r="U158">
         <v>37840</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>5455</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>45278</v>
-      </c>
-      <c r="W158">
-        <v>13887</v>
       </c>
       <c r="X158">
         <v>8065</v>
@@ -22378,7 +22237,7 @@
         <v>2742</v>
       </c>
       <c r="AJ158">
-        <v>2742</v>
+        <v>11601</v>
       </c>
       <c r="AK158">
         <v>2742</v>
@@ -22407,7 +22266,7 @@
         <v>6959</v>
       </c>
       <c r="D159">
-        <v>8457</v>
+        <v>7652</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -22431,31 +22290,25 @@
         <v>288928</v>
       </c>
       <c r="R159">
+        <v>14466</v>
+      </c>
+      <c r="S159">
         <v>4329258</v>
       </c>
-      <c r="S159">
-        <v>0.20306404709554</v>
-      </c>
       <c r="T159">
+        <v>0.2031</v>
+      </c>
+      <c r="U159">
         <v>34188</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>6644</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>42899</v>
       </c>
-      <c r="W159">
-        <v>14466</v>
-      </c>
-      <c r="AG159">
+      <c r="X159">
         <v>7872</v>
-      </c>
-      <c r="AH159">
-        <v>5003</v>
-      </c>
-      <c r="AI159">
-        <v>2730</v>
       </c>
       <c r="AJ159">
         <v>11396</v>
@@ -22487,25 +22340,49 @@
         <v>4879</v>
       </c>
       <c r="D160">
-        <v>8457</v>
+        <v>7652</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <v>3651644</v>
+        <v>3789199</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>137555</v>
       </c>
       <c r="H160">
-        <v>146208</v>
+        <v>141576</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>-4632</v>
+      </c>
+      <c r="P160">
+        <v>4073661</v>
+      </c>
+      <c r="Q160">
+        <v>290944</v>
       </c>
       <c r="R160">
+        <v>14841</v>
+      </c>
+      <c r="S160">
         <v>4379446</v>
+      </c>
+      <c r="T160">
+        <v>0.2099</v>
+      </c>
+      <c r="U160">
+        <v>34154</v>
+      </c>
+      <c r="V160">
+        <v>6738</v>
+      </c>
+      <c r="W160">
+        <v>43012</v>
+      </c>
+      <c r="X160">
+        <v>7437</v>
       </c>
       <c r="AG160">
         <v>7437</v>
@@ -22540,33 +22417,77 @@
         <v>44053</v>
       </c>
       <c r="B161">
-        <v>486362</v>
+        <v>490817</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>4455</v>
       </c>
       <c r="D161">
-        <v>8457</v>
+        <v>7652</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
-        <v>3651644</v>
+        <v>3789199</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>146208</v>
+        <v>141576</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
+      <c r="S161">
+        <v>4400049</v>
+      </c>
+      <c r="X161">
+        <v>7304</v>
+      </c>
+      <c r="AG161">
+        <v>7304</v>
+      </c>
+      <c r="AH161">
+        <v>4638</v>
+      </c>
+      <c r="AI161">
+        <v>2552</v>
+      </c>
+      <c r="AJ161">
+        <v>12204</v>
+      </c>
+      <c r="AK161">
+        <v>1184</v>
+      </c>
+      <c r="AL161">
+        <v>42093</v>
+      </c>
+      <c r="AM161">
+        <v>6646</v>
+      </c>
       <c r="AN161">
-        <v>6596</v>
+        <v>6741</v>
       </c>
       <c r="BJ161">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>44054</v>
+      </c>
+      <c r="BG162">
+        <v>461</v>
+      </c>
+      <c r="BH162">
+        <v>488</v>
+      </c>
+      <c r="BI162">
+        <v>94.47</v>
+      </c>
+      <c r="BJ162">
         <v>29677668</v>
       </c>
     </row>
@@ -22658,47 +22579,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>344844.6</t>
+          <t>349832.8</t>
         </is>
       </c>
       <c r="B2">
-        <v>133058</v>
+        <v>133584</v>
       </c>
       <c r="C2">
-        <v>120758</v>
+        <v>121009</v>
       </c>
       <c r="D2">
-        <v>4258688</v>
+        <v>4279040</v>
       </c>
       <c r="E2">
-        <v>14466</v>
+        <v>14841</v>
       </c>
       <c r="F2">
-        <v>2319</v>
+        <v>2350</v>
       </c>
       <c r="G2">
-        <v>288928</v>
+        <v>290944</v>
       </c>
       <c r="H2">
-        <v>18561</v>
+        <v>18924</v>
       </c>
       <c r="I2">
-        <v>54286</v>
+        <v>54297</v>
       </c>
       <c r="J2">
-        <v>11749</v>
+        <v>12204</v>
       </c>
       <c r="K2">
-        <v>1123</v>
+        <v>1184</v>
       </c>
       <c r="L2">
-        <v>6596</v>
+        <v>6741</v>
       </c>
       <c r="M2">
-        <v>40535</v>
+        <v>40812</v>
       </c>
       <c r="N2">
-        <v>8459</v>
+        <v>8490</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>1092</v>
       </c>
       <c r="D37">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>877</v>
       </c>
       <c r="D38">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E38">
         <v>33</v>
@@ -4590,7 +4590,7 @@
         <v>1441</v>
       </c>
       <c r="D39">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E39">
         <v>29</v>
@@ -4703,7 +4703,7 @@
         <v>890</v>
       </c>
       <c r="D40">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E40">
         <v>34</v>
@@ -4816,7 +4816,7 @@
         <v>923</v>
       </c>
       <c r="D41">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E41">
         <v>34</v>
@@ -4944,7 +4944,7 @@
         <v>422</v>
       </c>
       <c r="D42">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E42">
         <v>31</v>
@@ -5072,7 +5072,7 @@
         <v>718</v>
       </c>
       <c r="D43">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E43">
         <v>32</v>
@@ -5200,7 +5200,7 @@
         <v>868</v>
       </c>
       <c r="D44">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E44">
         <v>36</v>
@@ -5328,7 +5328,7 @@
         <v>963</v>
       </c>
       <c r="D45">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E45">
         <v>32</v>
@@ -5456,7 +5456,7 @@
         <v>916</v>
       </c>
       <c r="D46">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E46">
         <v>38</v>
@@ -5584,7 +5584,7 @@
         <v>889</v>
       </c>
       <c r="D47">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E47">
         <v>29</v>
@@ -5712,7 +5712,7 @@
         <v>663</v>
       </c>
       <c r="D48">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E48">
         <v>28</v>
@@ -5840,7 +5840,7 @@
         <v>535</v>
       </c>
       <c r="D49">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -5968,7 +5968,7 @@
         <v>738</v>
       </c>
       <c r="D50">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E50">
         <v>40</v>
@@ -6096,7 +6096,7 @@
         <v>873</v>
       </c>
       <c r="D51">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -6224,7 +6224,7 @@
         <v>875</v>
       </c>
       <c r="D52">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E52">
         <v>36</v>
@@ -6352,7 +6352,7 @@
         <v>862</v>
       </c>
       <c r="D53">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E53">
         <v>33</v>
@@ -6480,7 +6480,7 @@
         <v>967</v>
       </c>
       <c r="D54">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E54">
         <v>37</v>
@@ -6608,7 +6608,7 @@
         <v>858</v>
       </c>
       <c r="D55">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E55">
         <v>30</v>
@@ -6736,7 +6736,7 @@
         <v>666</v>
       </c>
       <c r="D56">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E56">
         <v>25</v>
@@ -6864,7 +6864,7 @@
         <v>874</v>
       </c>
       <c r="D57">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E57">
         <v>34</v>
@@ -6992,7 +6992,7 @@
         <v>883</v>
       </c>
       <c r="D58">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -7120,7 +7120,7 @@
         <v>1033</v>
       </c>
       <c r="D59">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E59">
         <v>31</v>
@@ -7248,7 +7248,7 @@
         <v>1142</v>
       </c>
       <c r="D60">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E60">
         <v>43</v>
@@ -7376,7 +7376,7 @@
         <v>1293</v>
       </c>
       <c r="D61">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E61">
         <v>34</v>
@@ -7504,7 +7504,7 @@
         <v>1026</v>
       </c>
       <c r="D62">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E62">
         <v>35</v>
@@ -7632,7 +7632,7 @@
         <v>784</v>
       </c>
       <c r="D63">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E63">
         <v>31</v>
@@ -7760,7 +7760,7 @@
         <v>1037</v>
       </c>
       <c r="D64">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -7888,7 +7888,7 @@
         <v>1053</v>
       </c>
       <c r="D65">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E65">
         <v>32</v>
@@ -8016,7 +8016,7 @@
         <v>968</v>
       </c>
       <c r="D66">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E66">
         <v>35</v>
@@ -8144,7 +8144,7 @@
         <v>1219</v>
       </c>
       <c r="D67">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E67">
         <v>33</v>
@@ -8272,7 +8272,7 @@
         <v>1251</v>
       </c>
       <c r="D68">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E68">
         <v>27</v>
@@ -8406,7 +8406,7 @@
         <v>1009</v>
       </c>
       <c r="D69">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E69">
         <v>26</v>
@@ -8543,7 +8543,7 @@
         <v>1346</v>
       </c>
       <c r="E70">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F70">
         <v>407026</v>
@@ -10555,10 +10555,10 @@
         <v>839</v>
       </c>
       <c r="D83">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E83">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F83">
         <v>693081</v>
@@ -10722,7 +10722,7 @@
         <v>623</v>
       </c>
       <c r="D84">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E84">
         <v>31</v>
@@ -10889,7 +10889,7 @@
         <v>589</v>
       </c>
       <c r="D85">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -11056,7 +11056,7 @@
         <v>1361</v>
       </c>
       <c r="D86">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E86">
         <v>22</v>
@@ -11223,7 +11223,7 @@
         <v>1855</v>
       </c>
       <c r="D87">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="E87">
         <v>31</v>
@@ -11390,7 +11390,7 @@
         <v>1230</v>
       </c>
       <c r="D88">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E88">
         <v>35</v>
@@ -11560,7 +11560,7 @@
         <v>1332</v>
       </c>
       <c r="D89">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="E89">
         <v>32</v>
@@ -11721,7 +11721,7 @@
         <v>1949</v>
       </c>
       <c r="D90">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E90">
         <v>14</v>
@@ -11891,7 +11891,7 @@
         <v>593</v>
       </c>
       <c r="D91">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -12064,7 +12064,7 @@
         <v>1688</v>
       </c>
       <c r="D92">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E92">
         <v>28</v>
@@ -12237,7 +12237,7 @@
         <v>1703</v>
       </c>
       <c r="D93">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -12410,7 +12410,7 @@
         <v>1649</v>
       </c>
       <c r="D94">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="E94">
         <v>21</v>
@@ -12583,7 +12583,7 @@
         <v>1693</v>
       </c>
       <c r="D95">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -12756,7 +12756,7 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="E96">
         <v>33</v>
@@ -12929,7 +12929,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -13102,7 +13102,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13275,7 +13275,7 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="E99">
         <v>34</v>
@@ -13448,7 +13448,7 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="E100">
         <v>23</v>
@@ -13621,10 +13621,10 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="E101">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F101">
         <v>1070849</v>
@@ -13794,7 +13794,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13967,7 +13967,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -14140,7 +14140,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14313,10 +14313,10 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="E105">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105">
         <v>1135749</v>
@@ -14486,7 +14486,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14659,10 +14659,10 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="E107">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F107">
         <v>1187367</v>
@@ -14832,7 +14832,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -15005,7 +15005,7 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -15178,7 +15178,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15351,7 +15351,7 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -15524,7 +15524,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15697,7 +15697,7 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="E113">
         <v>40</v>
@@ -15870,7 +15870,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -16043,7 +16043,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="E115">
         <v>59</v>
@@ -16216,10 +16216,10 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2851</v>
+        <v>2856</v>
       </c>
       <c r="E116">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F116">
         <v>1444189</v>
@@ -16389,7 +16389,7 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2931</v>
+        <v>2936</v>
       </c>
       <c r="E117">
         <v>80</v>
@@ -16562,10 +16562,10 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3017</v>
+        <v>3023</v>
       </c>
       <c r="E118">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F118">
         <v>1543186</v>
@@ -16735,7 +16735,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3103</v>
+        <v>3109</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16908,7 +16908,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3191</v>
+        <v>3197</v>
       </c>
       <c r="E120">
         <v>88</v>
@@ -17081,7 +17081,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3283</v>
+        <v>3289</v>
       </c>
       <c r="E121">
         <v>92</v>
@@ -17257,10 +17257,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3396</v>
+        <v>3403</v>
       </c>
       <c r="E122">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17433,7 +17433,7 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3524</v>
+        <v>3531</v>
       </c>
       <c r="E123">
         <v>128</v>
@@ -17609,10 +17609,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3657</v>
+        <v>3663</v>
       </c>
       <c r="E124">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17785,7 +17785,7 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3778</v>
+        <v>3784</v>
       </c>
       <c r="E125">
         <v>121</v>
@@ -17961,10 +17961,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3913</v>
+        <v>3920</v>
       </c>
       <c r="E126">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -18137,7 +18137,7 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4067</v>
+        <v>4074</v>
       </c>
       <c r="E127">
         <v>154</v>
@@ -18313,7 +18313,7 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4240</v>
+        <v>4247</v>
       </c>
       <c r="E128">
         <v>173</v>
@@ -18489,10 +18489,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4401</v>
+        <v>4407</v>
       </c>
       <c r="E129">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18665,10 +18665,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4584</v>
+        <v>4591</v>
       </c>
       <c r="E130">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18841,10 +18841,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4767</v>
+        <v>4775</v>
       </c>
       <c r="E131">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -19017,10 +19017,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4968</v>
+        <v>4978</v>
       </c>
       <c r="E132">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -19193,10 +19193,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5167</v>
+        <v>5178</v>
       </c>
       <c r="E133">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19369,10 +19369,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5388</v>
+        <v>5400</v>
       </c>
       <c r="E134">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19545,10 +19545,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5604</v>
+        <v>5617</v>
       </c>
       <c r="E135">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19667,10 +19667,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5822</v>
+        <v>5838</v>
       </c>
       <c r="E136">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19789,10 +19789,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5952</v>
+        <v>5936</v>
       </c>
       <c r="E137">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19911,10 +19911,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6066</v>
+        <v>6023</v>
       </c>
       <c r="E138">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -20033,10 +20033,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6167</v>
+        <v>6127</v>
       </c>
       <c r="E139">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20155,10 +20155,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6282</v>
+        <v>6263</v>
       </c>
       <c r="E140">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20277,10 +20277,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6460</v>
+        <v>6356</v>
       </c>
       <c r="E141">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20375,10 +20375,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6643</v>
+        <v>6473</v>
       </c>
       <c r="E142">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20506,10 +20506,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6730</v>
+        <v>6610</v>
       </c>
       <c r="E143">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20628,10 +20628,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>6853</v>
+        <v>6697</v>
       </c>
       <c r="E144">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20750,10 +20750,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>6932</v>
+        <v>6969</v>
       </c>
       <c r="E145">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20869,10 +20869,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7062</v>
+        <v>7031</v>
       </c>
       <c r="E146">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20991,10 +20991,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7135</v>
+        <v>7109</v>
       </c>
       <c r="E147">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -21122,10 +21122,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7274</v>
+        <v>7330</v>
       </c>
       <c r="E148">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21253,10 +21253,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7333</v>
+        <v>7403</v>
       </c>
       <c r="E149">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21351,10 +21351,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7436</v>
+        <v>7458</v>
       </c>
       <c r="E150">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21458,10 +21458,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>7479</v>
+        <v>7538</v>
       </c>
       <c r="E151">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21556,10 +21556,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>7540</v>
+        <v>7650</v>
       </c>
       <c r="E152">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21654,10 +21654,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>7591</v>
+        <v>7741</v>
       </c>
       <c r="E153">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21752,10 +21752,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>7618</v>
+        <v>7774</v>
       </c>
       <c r="E154">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21850,10 +21850,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>7636</v>
+        <v>7789</v>
       </c>
       <c r="E155">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -21957,10 +21957,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>7650</v>
+        <v>7822</v>
       </c>
       <c r="E156">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -22055,10 +22055,10 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>7651</v>
+        <v>7826</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F157">
         <v>3283328</v>
@@ -22165,10 +22165,10 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>7652</v>
+        <v>7829</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F158">
         <v>3477261</v>
@@ -22266,7 +22266,7 @@
         <v>6959</v>
       </c>
       <c r="D159">
-        <v>7652</v>
+        <v>7829</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -22309,6 +22309,15 @@
       </c>
       <c r="X159">
         <v>7872</v>
+      </c>
+      <c r="AG159">
+        <v>7872</v>
+      </c>
+      <c r="AH159">
+        <v>5003</v>
+      </c>
+      <c r="AI159">
+        <v>2730</v>
       </c>
       <c r="AJ159">
         <v>11396</v>
@@ -22340,7 +22349,7 @@
         <v>4879</v>
       </c>
       <c r="D160">
-        <v>7652</v>
+        <v>7829</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -22423,25 +22432,46 @@
         <v>4455</v>
       </c>
       <c r="D161">
-        <v>7652</v>
+        <v>7829</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
-        <v>3789199</v>
+        <v>3933285</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>144086</v>
       </c>
       <c r="H161">
-        <v>141576</v>
+        <v>139545</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>-2031</v>
+      </c>
+      <c r="P161">
+        <v>4088863</v>
+      </c>
+      <c r="Q161">
+        <v>295617</v>
+      </c>
+      <c r="R161">
+        <v>15569</v>
       </c>
       <c r="S161">
         <v>4400049</v>
+      </c>
+      <c r="T161">
+        <v>0.2392</v>
+      </c>
+      <c r="U161">
+        <v>29145</v>
+      </c>
+      <c r="V161">
+        <v>5303</v>
+      </c>
+      <c r="W161">
+        <v>36672</v>
       </c>
       <c r="X161">
         <v>7304</v>
@@ -22477,6 +22507,60 @@
     <row r="162">
       <c r="A162" s="2">
         <v>44054</v>
+      </c>
+      <c r="B162">
+        <v>500620</v>
+      </c>
+      <c r="C162">
+        <v>9803</v>
+      </c>
+      <c r="D162">
+        <v>7829</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>3933285</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>139545</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>4421806</v>
+      </c>
+      <c r="X162">
+        <v>7216</v>
+      </c>
+      <c r="AG162">
+        <v>7216</v>
+      </c>
+      <c r="AH162">
+        <v>4568</v>
+      </c>
+      <c r="AI162">
+        <v>2495</v>
+      </c>
+      <c r="AJ162">
+        <v>12696</v>
+      </c>
+      <c r="AK162">
+        <v>1252</v>
+      </c>
+      <c r="AL162">
+        <v>41676</v>
+      </c>
+      <c r="AM162">
+        <v>6547</v>
+      </c>
+      <c r="AN162">
+        <v>6924</v>
       </c>
       <c r="BG162">
         <v>461</v>
@@ -22579,47 +22663,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>349832.8</t>
+          <t>358311.6</t>
         </is>
       </c>
       <c r="B2">
-        <v>133584</v>
+        <v>133598</v>
       </c>
       <c r="C2">
-        <v>121009</v>
+        <v>121338</v>
       </c>
       <c r="D2">
-        <v>4279040</v>
+        <v>4300468</v>
       </c>
       <c r="E2">
-        <v>14841</v>
+        <v>15569</v>
       </c>
       <c r="F2">
-        <v>2350</v>
+        <v>2432</v>
       </c>
       <c r="G2">
-        <v>290944</v>
+        <v>295617</v>
       </c>
       <c r="H2">
-        <v>18924</v>
+        <v>19800</v>
       </c>
       <c r="I2">
-        <v>54297</v>
+        <v>54372</v>
       </c>
       <c r="J2">
-        <v>12204</v>
+        <v>12696</v>
       </c>
       <c r="K2">
-        <v>1184</v>
+        <v>1252</v>
       </c>
       <c r="L2">
-        <v>6741</v>
+        <v>6924</v>
       </c>
       <c r="M2">
-        <v>40812</v>
+        <v>41500</v>
       </c>
       <c r="N2">
-        <v>8490</v>
+        <v>8710</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ162"/>
+  <dimension ref="A1:BJ163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>1092</v>
       </c>
       <c r="D37">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>877</v>
       </c>
       <c r="D38">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E38">
         <v>33</v>
@@ -4590,7 +4590,7 @@
         <v>1441</v>
       </c>
       <c r="D39">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39">
         <v>29</v>
@@ -4703,7 +4703,7 @@
         <v>890</v>
       </c>
       <c r="D40">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E40">
         <v>34</v>
@@ -4816,7 +4816,7 @@
         <v>923</v>
       </c>
       <c r="D41">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E41">
         <v>34</v>
@@ -4944,7 +4944,7 @@
         <v>422</v>
       </c>
       <c r="D42">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E42">
         <v>31</v>
@@ -5072,7 +5072,7 @@
         <v>718</v>
       </c>
       <c r="D43">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E43">
         <v>32</v>
@@ -5200,7 +5200,7 @@
         <v>868</v>
       </c>
       <c r="D44">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E44">
         <v>36</v>
@@ -5328,7 +5328,7 @@
         <v>963</v>
       </c>
       <c r="D45">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E45">
         <v>32</v>
@@ -5456,7 +5456,7 @@
         <v>916</v>
       </c>
       <c r="D46">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E46">
         <v>38</v>
@@ -5584,7 +5584,7 @@
         <v>889</v>
       </c>
       <c r="D47">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E47">
         <v>29</v>
@@ -5712,7 +5712,7 @@
         <v>663</v>
       </c>
       <c r="D48">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E48">
         <v>28</v>
@@ -5840,7 +5840,7 @@
         <v>535</v>
       </c>
       <c r="D49">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E49">
         <v>25</v>
@@ -5968,7 +5968,7 @@
         <v>738</v>
       </c>
       <c r="D50">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E50">
         <v>40</v>
@@ -6096,7 +6096,7 @@
         <v>873</v>
       </c>
       <c r="D51">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -6224,7 +6224,7 @@
         <v>875</v>
       </c>
       <c r="D52">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E52">
         <v>36</v>
@@ -6352,7 +6352,7 @@
         <v>862</v>
       </c>
       <c r="D53">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E53">
         <v>33</v>
@@ -6480,7 +6480,7 @@
         <v>967</v>
       </c>
       <c r="D54">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E54">
         <v>37</v>
@@ -6608,7 +6608,7 @@
         <v>858</v>
       </c>
       <c r="D55">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E55">
         <v>30</v>
@@ -6736,7 +6736,7 @@
         <v>666</v>
       </c>
       <c r="D56">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E56">
         <v>25</v>
@@ -6864,7 +6864,7 @@
         <v>874</v>
       </c>
       <c r="D57">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E57">
         <v>34</v>
@@ -6992,7 +6992,7 @@
         <v>883</v>
       </c>
       <c r="D58">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E58">
         <v>23</v>
@@ -7120,7 +7120,7 @@
         <v>1033</v>
       </c>
       <c r="D59">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E59">
         <v>31</v>
@@ -7248,7 +7248,7 @@
         <v>1142</v>
       </c>
       <c r="D60">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E60">
         <v>43</v>
@@ -7376,7 +7376,7 @@
         <v>1293</v>
       </c>
       <c r="D61">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E61">
         <v>34</v>
@@ -7504,7 +7504,7 @@
         <v>1026</v>
       </c>
       <c r="D62">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E62">
         <v>35</v>
@@ -7632,7 +7632,7 @@
         <v>784</v>
       </c>
       <c r="D63">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E63">
         <v>31</v>
@@ -7760,7 +7760,7 @@
         <v>1037</v>
       </c>
       <c r="D64">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -7888,7 +7888,7 @@
         <v>1053</v>
       </c>
       <c r="D65">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E65">
         <v>32</v>
@@ -8016,7 +8016,7 @@
         <v>968</v>
       </c>
       <c r="D66">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E66">
         <v>35</v>
@@ -8144,7 +8144,7 @@
         <v>1219</v>
       </c>
       <c r="D67">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E67">
         <v>33</v>
@@ -8272,7 +8272,7 @@
         <v>1251</v>
       </c>
       <c r="D68">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E68">
         <v>27</v>
@@ -8406,7 +8406,7 @@
         <v>1009</v>
       </c>
       <c r="D69">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E69">
         <v>26</v>
@@ -8543,7 +8543,7 @@
         <v>1346</v>
       </c>
       <c r="E70">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70">
         <v>407026</v>
@@ -10236,10 +10236,10 @@
         <v>1181</v>
       </c>
       <c r="D81">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>660292</v>
@@ -10403,7 +10403,7 @@
         <v>1060</v>
       </c>
       <c r="D82">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="E82">
         <v>15</v>
@@ -10558,7 +10558,7 @@
         <v>1717</v>
       </c>
       <c r="E83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83">
         <v>693081</v>
@@ -11056,10 +11056,10 @@
         <v>1361</v>
       </c>
       <c r="D86">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F86">
         <v>749249</v>
@@ -11223,7 +11223,7 @@
         <v>1855</v>
       </c>
       <c r="D87">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E87">
         <v>31</v>
@@ -11390,7 +11390,7 @@
         <v>1230</v>
       </c>
       <c r="D88">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E88">
         <v>35</v>
@@ -11560,7 +11560,7 @@
         <v>1332</v>
       </c>
       <c r="D89">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E89">
         <v>32</v>
@@ -11721,7 +11721,7 @@
         <v>1949</v>
       </c>
       <c r="D90">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="E90">
         <v>14</v>
@@ -11891,7 +11891,7 @@
         <v>593</v>
       </c>
       <c r="D91">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -12064,7 +12064,7 @@
         <v>1688</v>
       </c>
       <c r="D92">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E92">
         <v>28</v>
@@ -12237,7 +12237,7 @@
         <v>1703</v>
       </c>
       <c r="D93">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="E93">
         <v>32</v>
@@ -12410,7 +12410,7 @@
         <v>1649</v>
       </c>
       <c r="D94">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E94">
         <v>21</v>
@@ -12583,7 +12583,7 @@
         <v>1693</v>
       </c>
       <c r="D95">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E95">
         <v>24</v>
@@ -12756,7 +12756,7 @@
         <v>1940</v>
       </c>
       <c r="D96">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="E96">
         <v>33</v>
@@ -12929,7 +12929,7 @@
         <v>1425</v>
       </c>
       <c r="D97">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E97">
         <v>18</v>
@@ -13102,7 +13102,7 @@
         <v>638</v>
       </c>
       <c r="D98">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="E98">
         <v>30</v>
@@ -13275,7 +13275,7 @@
         <v>1637</v>
       </c>
       <c r="D99">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="E99">
         <v>34</v>
@@ -13448,7 +13448,7 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="E100">
         <v>23</v>
@@ -13621,7 +13621,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E101">
         <v>29</v>
@@ -13794,7 +13794,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13967,7 +13967,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -14140,7 +14140,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14313,7 +14313,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="E105">
         <v>30</v>
@@ -14486,7 +14486,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14659,7 +14659,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="E107">
         <v>38</v>
@@ -14832,7 +14832,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -15005,7 +15005,7 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -15178,7 +15178,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15351,7 +15351,7 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -15524,7 +15524,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15697,7 +15697,7 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="E113">
         <v>40</v>
@@ -15870,7 +15870,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -16043,7 +16043,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="E115">
         <v>59</v>
@@ -16216,7 +16216,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="E116">
         <v>68</v>
@@ -16389,7 +16389,7 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="E117">
         <v>80</v>
@@ -16562,7 +16562,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="E118">
         <v>87</v>
@@ -16735,7 +16735,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16908,10 +16908,10 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="E120">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F120">
         <v>1612583</v>
@@ -17081,10 +17081,10 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="E121">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F121">
         <v>1653835</v>
@@ -17257,7 +17257,7 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="E122">
         <v>114</v>
@@ -17433,7 +17433,7 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="E123">
         <v>128</v>
@@ -17609,10 +17609,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3663</v>
+        <v>3668</v>
       </c>
       <c r="E124">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17785,10 +17785,10 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3784</v>
+        <v>3791</v>
       </c>
       <c r="E125">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F125">
         <v>1829966</v>
@@ -17961,10 +17961,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3920</v>
+        <v>3928</v>
       </c>
       <c r="E126">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -18137,10 +18137,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4074</v>
+        <v>4083</v>
       </c>
       <c r="E127">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18313,10 +18313,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4247</v>
+        <v>4259</v>
       </c>
       <c r="E128">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18489,10 +18489,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4407</v>
+        <v>4420</v>
       </c>
       <c r="E129">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18665,10 +18665,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4591</v>
+        <v>4606</v>
       </c>
       <c r="E130">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18841,10 +18841,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4775</v>
+        <v>4792</v>
       </c>
       <c r="E131">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -19017,10 +19017,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4978</v>
+        <v>4996</v>
       </c>
       <c r="E132">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -19193,10 +19193,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5178</v>
+        <v>5197</v>
       </c>
       <c r="E133">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19369,10 +19369,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5400</v>
+        <v>5420</v>
       </c>
       <c r="E134">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19545,10 +19545,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5617</v>
+        <v>5640</v>
       </c>
       <c r="E135">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19667,10 +19667,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5838</v>
+        <v>5867</v>
       </c>
       <c r="E136">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19789,10 +19789,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5936</v>
+        <v>5972</v>
       </c>
       <c r="E137">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19911,10 +19911,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6023</v>
+        <v>6033</v>
       </c>
       <c r="E138">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -20033,10 +20033,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6127</v>
+        <v>6136</v>
       </c>
       <c r="E139">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20155,10 +20155,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6263</v>
+        <v>6247</v>
       </c>
       <c r="E140">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20277,10 +20277,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6356</v>
+        <v>6334</v>
       </c>
       <c r="E141">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20375,10 +20375,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6473</v>
+        <v>6466</v>
       </c>
       <c r="E142">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20506,10 +20506,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6610</v>
+        <v>6793</v>
       </c>
       <c r="E143">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20628,10 +20628,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>6697</v>
+        <v>6907</v>
       </c>
       <c r="E144">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20750,10 +20750,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>6969</v>
+        <v>7001</v>
       </c>
       <c r="E145">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20869,10 +20869,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7031</v>
+        <v>7154</v>
       </c>
       <c r="E146">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20991,10 +20991,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7109</v>
+        <v>7233</v>
       </c>
       <c r="E147">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -21122,10 +21122,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7330</v>
+        <v>7320</v>
       </c>
       <c r="E148">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21253,10 +21253,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7403</v>
+        <v>7394</v>
       </c>
       <c r="E149">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21351,10 +21351,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7458</v>
+        <v>7508</v>
       </c>
       <c r="E150">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21458,10 +21458,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>7538</v>
+        <v>7573</v>
       </c>
       <c r="E151">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21556,10 +21556,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>7650</v>
+        <v>7624</v>
       </c>
       <c r="E152">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21654,10 +21654,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>7741</v>
+        <v>7690</v>
       </c>
       <c r="E153">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21752,10 +21752,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>7774</v>
+        <v>7838</v>
       </c>
       <c r="E154">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21850,10 +21850,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>7789</v>
+        <v>7919</v>
       </c>
       <c r="E155">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -21957,10 +21957,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>7822</v>
+        <v>7961</v>
       </c>
       <c r="E156">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -22055,10 +22055,10 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>7826</v>
+        <v>7978</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F157">
         <v>3283328</v>
@@ -22165,10 +22165,10 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>7829</v>
+        <v>7990</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F158">
         <v>3477261</v>
@@ -22266,10 +22266,10 @@
         <v>6959</v>
       </c>
       <c r="D159">
-        <v>7829</v>
+        <v>8001</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F159">
         <v>3651644</v>
@@ -22282,6 +22282,24 @@
       </c>
       <c r="I159">
         <v>612</v>
+      </c>
+      <c r="J159">
+        <v>-18.35286994316513</v>
+      </c>
+      <c r="K159">
+        <v>-5.928124287755972</v>
+      </c>
+      <c r="L159">
+        <v>9.647368662924276</v>
+      </c>
+      <c r="M159">
+        <v>-23.04200497748066</v>
+      </c>
+      <c r="N159">
+        <v>-16.04788107250464</v>
+      </c>
+      <c r="O159">
+        <v>5.631011750174694</v>
       </c>
       <c r="P159">
         <v>4025864</v>
@@ -22349,10 +22367,10 @@
         <v>4879</v>
       </c>
       <c r="D160">
-        <v>7829</v>
+        <v>8008</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F160">
         <v>3789199</v>
@@ -22365,6 +22383,24 @@
       </c>
       <c r="I160">
         <v>-4632</v>
+      </c>
+      <c r="J160">
+        <v>-16.10279464857847</v>
+      </c>
+      <c r="K160">
+        <v>-9.269148277055436</v>
+      </c>
+      <c r="L160">
+        <v>-2.433253786008257</v>
+      </c>
+      <c r="M160">
+        <v>-23.83163522441392</v>
+      </c>
+      <c r="N160">
+        <v>-17.08561703615306</v>
+      </c>
+      <c r="O160">
+        <v>5.038789210611112</v>
       </c>
       <c r="P160">
         <v>4073661</v>
@@ -22432,10 +22468,10 @@
         <v>4455</v>
       </c>
       <c r="D161">
-        <v>7829</v>
+        <v>8015</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F161">
         <v>3933285</v>
@@ -22515,26 +22551,47 @@
         <v>9803</v>
       </c>
       <c r="D162">
-        <v>7829</v>
+        <v>8015</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
-        <v>3933285</v>
+        <v>4018618</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>85333</v>
       </c>
       <c r="H162">
-        <v>139545</v>
+        <v>139808</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="P162">
+        <v>4106360</v>
+      </c>
+      <c r="Q162">
+        <v>299037</v>
+      </c>
+      <c r="R162">
+        <v>16409</v>
       </c>
       <c r="S162">
         <v>4421806</v>
       </c>
+      <c r="T162">
+        <v>0.245</v>
+      </c>
+      <c r="U162">
+        <v>28304</v>
+      </c>
+      <c r="V162">
+        <v>4294</v>
+      </c>
+      <c r="W162">
+        <v>34942</v>
+      </c>
       <c r="X162">
         <v>7216</v>
       </c>
@@ -22572,6 +22629,68 @@
         <v>94.47</v>
       </c>
       <c r="BJ162">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B163">
+        <v>506820</v>
+      </c>
+      <c r="C163">
+        <v>6200</v>
+      </c>
+      <c r="D163">
+        <v>8015</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>4018618</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>139808</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>4549474</v>
+      </c>
+      <c r="X163">
+        <v>7028</v>
+      </c>
+      <c r="AG163">
+        <v>7028</v>
+      </c>
+      <c r="AH163">
+        <v>4436</v>
+      </c>
+      <c r="AI163">
+        <v>2479</v>
+      </c>
+      <c r="AJ163">
+        <v>11460</v>
+      </c>
+      <c r="AK163">
+        <v>1229</v>
+      </c>
+      <c r="AL163">
+        <v>43189</v>
+      </c>
+      <c r="AM163">
+        <v>6602</v>
+      </c>
+      <c r="AN163">
+        <v>7055</v>
+      </c>
+      <c r="BJ163">
         <v>29677668</v>
       </c>
     </row>
@@ -22663,47 +22782,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>358311.6</t>
+          <t>367354</t>
         </is>
       </c>
       <c r="B2">
-        <v>133598</v>
+        <v>133598.4</v>
       </c>
       <c r="C2">
-        <v>121338</v>
+        <v>121776</v>
       </c>
       <c r="D2">
-        <v>4300468</v>
+        <v>4427698</v>
       </c>
       <c r="E2">
-        <v>15569</v>
+        <v>16409</v>
       </c>
       <c r="F2">
-        <v>2432</v>
+        <v>2536</v>
       </c>
       <c r="G2">
-        <v>295617</v>
+        <v>299037</v>
       </c>
       <c r="H2">
-        <v>19800</v>
+        <v>20241</v>
       </c>
       <c r="I2">
-        <v>54372</v>
+        <v>54649</v>
       </c>
       <c r="J2">
-        <v>12696</v>
+        <v>11460</v>
       </c>
       <c r="K2">
-        <v>1252</v>
+        <v>1229</v>
       </c>
       <c r="L2">
-        <v>6924</v>
+        <v>7055</v>
       </c>
       <c r="M2">
-        <v>41500</v>
+        <v>42630</v>
       </c>
       <c r="N2">
-        <v>8710</v>
+        <v>9034</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ163"/>
+  <dimension ref="A1:BJ164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13448,10 +13448,10 @@
         <v>2504</v>
       </c>
       <c r="D100">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="E100">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F100">
         <v>1051218</v>
@@ -13621,7 +13621,7 @@
         <v>1826</v>
       </c>
       <c r="D101">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E101">
         <v>29</v>
@@ -13794,7 +13794,7 @@
         <v>2097</v>
       </c>
       <c r="D102">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E102">
         <v>33</v>
@@ -13967,7 +13967,7 @@
         <v>2331</v>
       </c>
       <c r="D103">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="E103">
         <v>37</v>
@@ -14140,7 +14140,7 @@
         <v>1843</v>
       </c>
       <c r="D104">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="E104">
         <v>42</v>
@@ -14313,7 +14313,7 @@
         <v>1254</v>
       </c>
       <c r="D105">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="E105">
         <v>30</v>
@@ -14486,7 +14486,7 @@
         <v>4098</v>
       </c>
       <c r="D106">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="E106">
         <v>44</v>
@@ -14659,7 +14659,7 @@
         <v>3129</v>
       </c>
       <c r="D107">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="E107">
         <v>38</v>
@@ -14832,7 +14832,7 @@
         <v>3516</v>
       </c>
       <c r="D108">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -15005,7 +15005,7 @@
         <v>3454</v>
       </c>
       <c r="D109">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -15178,7 +15178,7 @@
         <v>4430</v>
       </c>
       <c r="D110">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="E110">
         <v>44</v>
@@ -15351,7 +15351,7 @@
         <v>3866</v>
       </c>
       <c r="D111">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="E111">
         <v>36</v>
@@ -15524,7 +15524,7 @@
         <v>3280</v>
       </c>
       <c r="D112">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E112">
         <v>42</v>
@@ -15697,7 +15697,7 @@
         <v>5489</v>
       </c>
       <c r="D113">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="E113">
         <v>40</v>
@@ -15870,7 +15870,7 @@
         <v>5551</v>
       </c>
       <c r="D114">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="E114">
         <v>65</v>
@@ -16043,7 +16043,7 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="E115">
         <v>59</v>
@@ -16216,7 +16216,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="E116">
         <v>68</v>
@@ -16389,7 +16389,7 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="E117">
         <v>80</v>
@@ -16562,7 +16562,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="E118">
         <v>87</v>
@@ -16735,7 +16735,7 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E119">
         <v>86</v>
@@ -16908,7 +16908,7 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E120">
         <v>89</v>
@@ -17081,7 +17081,7 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E121">
         <v>93</v>
@@ -17257,7 +17257,7 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E122">
         <v>114</v>
@@ -17433,10 +17433,10 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="E123">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F123">
         <v>1741722</v>
@@ -17609,10 +17609,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="E124">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17785,10 +17785,10 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3791</v>
+        <v>3796</v>
       </c>
       <c r="E125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F125">
         <v>1829966</v>
@@ -17961,10 +17961,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3928</v>
+        <v>3934</v>
       </c>
       <c r="E126">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -18137,10 +18137,10 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4083</v>
+        <v>4091</v>
       </c>
       <c r="E127">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F127">
         <v>1917116</v>
@@ -18313,10 +18313,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4259</v>
+        <v>4268</v>
       </c>
       <c r="E128">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18489,7 +18489,7 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4420</v>
+        <v>4429</v>
       </c>
       <c r="E129">
         <v>161</v>
@@ -18665,10 +18665,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4606</v>
+        <v>4616</v>
       </c>
       <c r="E130">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18841,10 +18841,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4792</v>
+        <v>4803</v>
       </c>
       <c r="E131">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -19017,7 +19017,7 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>4996</v>
+        <v>5007</v>
       </c>
       <c r="E132">
         <v>204</v>
@@ -19193,10 +19193,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5197</v>
+        <v>5209</v>
       </c>
       <c r="E133">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19369,10 +19369,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5420</v>
+        <v>5434</v>
       </c>
       <c r="E134">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19545,10 +19545,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5640</v>
+        <v>5655</v>
       </c>
       <c r="E135">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19667,7 +19667,7 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5867</v>
+        <v>5882</v>
       </c>
       <c r="E136">
         <v>227</v>
@@ -19789,10 +19789,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5972</v>
+        <v>5968</v>
       </c>
       <c r="E137">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19911,10 +19911,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6033</v>
+        <v>6056</v>
       </c>
       <c r="E138">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -20033,10 +20033,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6136</v>
+        <v>6160</v>
       </c>
       <c r="E139">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20155,10 +20155,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6247</v>
+        <v>6307</v>
       </c>
       <c r="E140">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20277,10 +20277,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6334</v>
+        <v>6397</v>
       </c>
       <c r="E141">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20375,10 +20375,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6466</v>
+        <v>6653</v>
       </c>
       <c r="E142">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20506,10 +20506,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6793</v>
+        <v>6909</v>
       </c>
       <c r="E143">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20628,10 +20628,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>6907</v>
+        <v>7006</v>
       </c>
       <c r="E144">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20750,7 +20750,7 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>7001</v>
+        <v>7100</v>
       </c>
       <c r="E145">
         <v>94</v>
@@ -20869,10 +20869,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7154</v>
+        <v>7176</v>
       </c>
       <c r="E146">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20991,10 +20991,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7233</v>
+        <v>7263</v>
       </c>
       <c r="E147">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -21122,10 +21122,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7320</v>
+        <v>7408</v>
       </c>
       <c r="E148">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21253,10 +21253,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7394</v>
+        <v>7496</v>
       </c>
       <c r="E149">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21351,10 +21351,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7508</v>
+        <v>7738</v>
       </c>
       <c r="E150">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21458,10 +21458,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>7573</v>
+        <v>8087</v>
       </c>
       <c r="E151">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21556,7 +21556,7 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>7624</v>
+        <v>8138</v>
       </c>
       <c r="E152">
         <v>51</v>
@@ -21654,10 +21654,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>7690</v>
+        <v>8213</v>
       </c>
       <c r="E153">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21752,10 +21752,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>7838</v>
+        <v>8256</v>
       </c>
       <c r="E154">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21850,10 +21850,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>7919</v>
+        <v>8370</v>
       </c>
       <c r="E155">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -21957,10 +21957,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>7961</v>
+        <v>8409</v>
       </c>
       <c r="E156">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -22055,10 +22055,10 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>7978</v>
+        <v>8470</v>
       </c>
       <c r="E157">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F157">
         <v>3283328</v>
@@ -22165,10 +22165,10 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>7990</v>
+        <v>8504</v>
       </c>
       <c r="E158">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F158">
         <v>3477261</v>
@@ -22266,10 +22266,10 @@
         <v>6959</v>
       </c>
       <c r="D159">
-        <v>8001</v>
+        <v>8520</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F159">
         <v>3651644</v>
@@ -22367,10 +22367,10 @@
         <v>4879</v>
       </c>
       <c r="D160">
-        <v>8008</v>
+        <v>8535</v>
       </c>
       <c r="E160">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F160">
         <v>3789199</v>
@@ -22468,10 +22468,10 @@
         <v>4455</v>
       </c>
       <c r="D161">
-        <v>8015</v>
+        <v>8538</v>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F161">
         <v>3933285</v>
@@ -22551,10 +22551,10 @@
         <v>9803</v>
       </c>
       <c r="D162">
-        <v>8015</v>
+        <v>8539</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
         <v>4018618</v>
@@ -22643,26 +22643,47 @@
         <v>6200</v>
       </c>
       <c r="D163">
-        <v>8015</v>
+        <v>8539</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <v>4018618</v>
+        <v>4060353</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>41735</v>
       </c>
       <c r="H163">
-        <v>139808</v>
+        <v>143855</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>4047</v>
+      </c>
+      <c r="P163">
+        <v>4230763</v>
+      </c>
+      <c r="Q163">
+        <v>302012</v>
+      </c>
+      <c r="R163">
+        <v>16699</v>
       </c>
       <c r="S163">
         <v>4549474</v>
       </c>
+      <c r="T163">
+        <v>0.1608</v>
+      </c>
+      <c r="U163">
+        <v>40898</v>
+      </c>
+      <c r="V163">
+        <v>3595</v>
+      </c>
+      <c r="W163">
+        <v>46878</v>
+      </c>
       <c r="X163">
         <v>7028</v>
       </c>
@@ -22691,6 +22712,68 @@
         <v>7055</v>
       </c>
       <c r="BJ163">
+        <v>29677668</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B164">
+        <v>513575</v>
+      </c>
+      <c r="C164">
+        <v>6755</v>
+      </c>
+      <c r="D164">
+        <v>8539</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>4060353</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>143855</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>4611777</v>
+      </c>
+      <c r="X164">
+        <v>6879</v>
+      </c>
+      <c r="AG164">
+        <v>6879</v>
+      </c>
+      <c r="AH164">
+        <v>4331</v>
+      </c>
+      <c r="AI164">
+        <v>2435</v>
+      </c>
+      <c r="AJ164">
+        <v>11179</v>
+      </c>
+      <c r="AK164">
+        <v>1188</v>
+      </c>
+      <c r="AL164">
+        <v>43740</v>
+      </c>
+      <c r="AM164">
+        <v>6686</v>
+      </c>
+      <c r="AN164">
+        <v>6828</v>
+      </c>
+      <c r="BJ164">
         <v>29677668</v>
       </c>
     </row>
@@ -22782,47 +22865,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>367354</t>
+          <t>375759.6</t>
         </is>
       </c>
       <c r="B2">
-        <v>133598.4</v>
+        <v>128526.4</v>
       </c>
       <c r="C2">
-        <v>121776</v>
+        <v>122021</v>
       </c>
       <c r="D2">
-        <v>4427698</v>
+        <v>4489756</v>
       </c>
       <c r="E2">
-        <v>16409</v>
+        <v>16699</v>
       </c>
       <c r="F2">
-        <v>2536</v>
+        <v>2562</v>
       </c>
       <c r="G2">
-        <v>299037</v>
+        <v>302012</v>
       </c>
       <c r="H2">
-        <v>20241</v>
+        <v>20800</v>
       </c>
       <c r="I2">
-        <v>54649</v>
+        <v>54919</v>
       </c>
       <c r="J2">
-        <v>11460</v>
+        <v>11179</v>
       </c>
       <c r="K2">
-        <v>1229</v>
+        <v>1188</v>
       </c>
       <c r="L2">
-        <v>7055</v>
+        <v>6828</v>
       </c>
       <c r="M2">
-        <v>42630</v>
+        <v>43440</v>
       </c>
       <c r="N2">
-        <v>9034</v>
+        <v>9289</v>
       </c>
     </row>
   </sheetData>

--- a/combined-datasets/state.xlsx
+++ b/combined-datasets/state.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ164"/>
+  <dimension ref="A1:BJ165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16043,10 +16043,10 @@
         <v>5996</v>
       </c>
       <c r="D115">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="E115">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F115">
         <v>1409858</v>
@@ -16216,7 +16216,7 @@
         <v>5707</v>
       </c>
       <c r="D116">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="E116">
         <v>68</v>
@@ -16389,7 +16389,7 @@
         <v>5742</v>
       </c>
       <c r="D117">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="E117">
         <v>80</v>
@@ -16562,7 +16562,7 @@
         <v>5357</v>
       </c>
       <c r="D118">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="E118">
         <v>87</v>
@@ -16735,10 +16735,10 @@
         <v>4288</v>
       </c>
       <c r="D119">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="E119">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F119">
         <v>1578667</v>
@@ -16908,10 +16908,10 @@
         <v>6975</v>
       </c>
       <c r="D120">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="E120">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F120">
         <v>1612583</v>
@@ -17081,10 +17081,10 @@
         <v>8076</v>
       </c>
       <c r="D121">
-        <v>3293</v>
+        <v>3298</v>
       </c>
       <c r="E121">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F121">
         <v>1653835</v>
@@ -17257,10 +17257,10 @@
         <v>7915</v>
       </c>
       <c r="D122">
-        <v>3407</v>
+        <v>3416</v>
       </c>
       <c r="E122">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F122">
         <v>1696809</v>
@@ -17433,7 +17433,7 @@
         <v>7555</v>
       </c>
       <c r="D123">
-        <v>3537</v>
+        <v>3546</v>
       </c>
       <c r="E123">
         <v>130</v>
@@ -17609,10 +17609,10 @@
         <v>8258</v>
       </c>
       <c r="D124">
-        <v>3672</v>
+        <v>3685</v>
       </c>
       <c r="E124">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F124">
         <v>1785542</v>
@@ -17785,10 +17785,10 @@
         <v>3449</v>
       </c>
       <c r="D125">
-        <v>3796</v>
+        <v>3810</v>
       </c>
       <c r="E125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F125">
         <v>1829966</v>
@@ -17961,10 +17961,10 @@
         <v>5318</v>
       </c>
       <c r="D126">
-        <v>3934</v>
+        <v>3949</v>
       </c>
       <c r="E126">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F126">
         <v>1874626</v>
@@ -18137,7 +18137,7 @@
         <v>10028</v>
       </c>
       <c r="D127">
-        <v>4091</v>
+        <v>4106</v>
       </c>
       <c r="E127">
         <v>157</v>
@@ -18313,10 +18313,10 @@
         <v>9979</v>
       </c>
       <c r="D128">
-        <v>4268</v>
+        <v>4284</v>
       </c>
       <c r="E128">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F128">
         <v>1960005</v>
@@ -18489,10 +18489,10 @@
         <v>9782</v>
       </c>
       <c r="D129">
-        <v>4429</v>
+        <v>4446</v>
       </c>
       <c r="E129">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F129">
         <v>2020405</v>
@@ -18665,10 +18665,10 @@
         <v>9765</v>
       </c>
       <c r="D130">
-        <v>4616</v>
+        <v>4635</v>
       </c>
       <c r="E130">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F130">
         <v>2069122</v>
@@ -18841,10 +18841,10 @@
         <v>10351</v>
       </c>
       <c r="D131">
-        <v>4803</v>
+        <v>4825</v>
       </c>
       <c r="E131">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F131">
         <v>2110922</v>
@@ -19017,10 +19017,10 @@
         <v>8196</v>
       </c>
       <c r="D132">
-        <v>5007</v>
+        <v>5031</v>
       </c>
       <c r="E132">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F132">
         <v>2165623</v>
@@ -19193,10 +19193,10 @@
         <v>5655</v>
       </c>
       <c r="D133">
-        <v>5209</v>
+        <v>5238</v>
       </c>
       <c r="E133">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F133">
         <v>2205822</v>
@@ -19369,10 +19369,10 @@
         <v>10745</v>
       </c>
       <c r="D134">
-        <v>5434</v>
+        <v>5465</v>
       </c>
       <c r="E134">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F134">
         <v>2249060</v>
@@ -19545,10 +19545,10 @@
         <v>7307</v>
       </c>
       <c r="D135">
-        <v>5655</v>
+        <v>5691</v>
       </c>
       <c r="E135">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F135">
         <v>2286774</v>
@@ -19667,10 +19667,10 @@
         <v>10291</v>
       </c>
       <c r="D136">
-        <v>5882</v>
+        <v>5920</v>
       </c>
       <c r="E136">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F136">
         <v>2301483</v>
@@ -19789,10 +19789,10 @@
         <v>14916</v>
       </c>
       <c r="D137">
-        <v>5968</v>
+        <v>6001</v>
       </c>
       <c r="E137">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F137">
         <v>2343210</v>
@@ -19911,10 +19911,10 @@
         <v>10158</v>
       </c>
       <c r="D138">
-        <v>6056</v>
+        <v>6076</v>
       </c>
       <c r="E138">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F138">
         <v>2384232</v>
@@ -20033,10 +20033,10 @@
         <v>7300</v>
       </c>
       <c r="D139">
-        <v>6160</v>
+        <v>6311</v>
       </c>
       <c r="E139">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="F139">
         <v>2439082</v>
@@ -20155,10 +20155,10 @@
         <v>7404</v>
       </c>
       <c r="D140">
-        <v>6307</v>
+        <v>6404</v>
       </c>
       <c r="E140">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F140">
         <v>2473836</v>
@@ -20277,10 +20277,10 @@
         <v>9305</v>
       </c>
       <c r="D141">
-        <v>6397</v>
+        <v>6492</v>
       </c>
       <c r="E141">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F141">
         <v>2514877</v>
@@ -20375,10 +20375,10 @@
         <v>9879</v>
       </c>
       <c r="D142">
-        <v>6653</v>
+        <v>6730</v>
       </c>
       <c r="E142">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F142">
         <v>2544071</v>
@@ -20506,10 +20506,10 @@
         <v>9507</v>
       </c>
       <c r="D143">
-        <v>6909</v>
+        <v>6828</v>
       </c>
       <c r="E143">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="F143">
         <v>2574376</v>
@@ -20628,10 +20628,10 @@
         <v>8701</v>
       </c>
       <c r="D144">
-        <v>7006</v>
+        <v>6931</v>
       </c>
       <c r="E144">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F144">
         <v>2609056</v>
@@ -20750,10 +20750,10 @@
         <v>6020</v>
       </c>
       <c r="D145">
-        <v>7100</v>
+        <v>7028</v>
       </c>
       <c r="E145">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F145">
         <v>2637947</v>
@@ -20869,10 +20869,10 @@
         <v>5810</v>
       </c>
       <c r="D146">
-        <v>7176</v>
+        <v>7191</v>
       </c>
       <c r="E146">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="F146">
         <v>2676478</v>
@@ -20991,10 +20991,10 @@
         <v>4267</v>
       </c>
       <c r="D147">
-        <v>7263</v>
+        <v>7270</v>
       </c>
       <c r="E147">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F147">
         <v>2718547</v>
@@ -21122,10 +21122,10 @@
         <v>8342</v>
       </c>
       <c r="D148">
-        <v>7408</v>
+        <v>7354</v>
       </c>
       <c r="E148">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="F148">
         <v>2737350</v>
@@ -21253,10 +21253,10 @@
         <v>9042</v>
       </c>
       <c r="D149">
-        <v>7496</v>
+        <v>7448</v>
       </c>
       <c r="E149">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F149">
         <v>2763050</v>
@@ -21351,10 +21351,10 @@
         <v>8800</v>
       </c>
       <c r="D150">
-        <v>7738</v>
+        <v>7546</v>
       </c>
       <c r="E150">
-        <v>242</v>
+        <v>98</v>
       </c>
       <c r="F150">
         <v>2807010</v>
@@ -21458,10 +21458,10 @@
         <v>8839</v>
       </c>
       <c r="D151">
-        <v>8087</v>
+        <v>7615</v>
       </c>
       <c r="E151">
-        <v>349</v>
+        <v>69</v>
       </c>
       <c r="F151">
         <v>2848974</v>
@@ -21556,10 +21556,10 @@
         <v>9539</v>
       </c>
       <c r="D152">
-        <v>8138</v>
+        <v>7675</v>
       </c>
       <c r="E152">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F152">
         <v>2900992</v>
@@ -21654,10 +21654,10 @@
         <v>6226</v>
       </c>
       <c r="D153">
-        <v>8213</v>
+        <v>7748</v>
       </c>
       <c r="E153">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F153">
         <v>3001635</v>
@@ -21752,10 +21752,10 @@
         <v>5303</v>
       </c>
       <c r="D154">
-        <v>8256</v>
+        <v>7902</v>
       </c>
       <c r="E154">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F154">
         <v>3113249</v>
@@ -21850,10 +21850,10 @@
         <v>9167</v>
       </c>
       <c r="D155">
-        <v>8370</v>
+        <v>8226</v>
       </c>
       <c r="E155">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="F155">
         <v>3170743</v>
@@ -21957,10 +21957,10 @@
         <v>8706</v>
       </c>
       <c r="D156">
-        <v>8409</v>
+        <v>8287</v>
       </c>
       <c r="E156">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F156">
         <v>3238265</v>
@@ -22055,10 +22055,10 @@
         <v>7598</v>
       </c>
       <c r="D157">
-        <v>8470</v>
+        <v>8646</v>
       </c>
       <c r="E157">
-        <v>61</v>
+        <v>359</v>
       </c>
       <c r="F157">
         <v>3283328</v>
@@ -22165,10 +22165,10 @@
         <v>7039</v>
       </c>
       <c r="D158">
-        <v>8504</v>
+        <v>8674</v>
       </c>
       <c r="E158">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F158">
         <v>3477261</v>
@@ -22266,10 +22266,10 @@
         <v>6959</v>
       </c>
       <c r="D159">
-        <v>8520</v>
+        <v>8702</v>
       </c>
       <c r="E159">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F159">
         <v>3651644</v>
@@ -22367,10 +22367,10 @@
         <v>4879</v>
       </c>
       <c r="D160">
-        <v>8535</v>
+        <v>8723</v>
       </c>
       <c r="E160">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F160">
         <v>3789199</v>
@@ -22468,10 +22468,10 @@
         <v>4455</v>
       </c>
       <c r="D161">
-        <v>8538</v>
+        <v>8735</v>
       </c>
       <c r="E161">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F161">
         <v>3933285</v>
@@ -22484,6 +22484,24 @@
       </c>
       <c r="I161">
         <v>-2031</v>
+      </c>
+      <c r="J161">
+        <v>-14.54344298665683</v>
+      </c>
+      <c r="K161">
+        <v>-9.724445311505601</v>
+      </c>
+      <c r="L161">
+        <v>5.372219897310824</v>
+      </c>
+      <c r="M161">
+        <v>-26.73062507638563</v>
+      </c>
+      <c r="N161">
+        <v>-38.85685281288792</v>
+      </c>
+      <c r="O161">
+        <v>11.36460423983322</v>
       </c>
       <c r="P161">
         <v>4088863</v>
@@ -22551,10 +22569,10 @@
         <v>9803</v>
       </c>
       <c r="D162">
-        <v>8539</v>
+        <v>8742</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F162">
         <v>4018618</v>
@@ -22567,6 +22585,24 @@
       </c>
       <c r="I162">
         <v>263</v>
+      </c>
+      <c r="J162">
+        <v>-13.83561612541921</v>
+      </c>
+      <c r="K162">
+        <v>-7.428339482845932</v>
+      </c>
+      <c r="L162">
+        <v>17.23614463307237</v>
+      </c>
+      <c r="M162">
+        <v>-26.23234782448457</v>
+      </c>
+      <c r="N162">
+        <v>-39.77016299209139</v>
+      </c>
+      <c r="O162">
+        <v>12.34614429040188</v>
       </c>
       <c r="P162">
         <v>4106360</v>
@@ -22643,10 +22679,10 @@
         <v>6200</v>
       </c>
       <c r="D163">
-        <v>8539</v>
+        <v>8743</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
         <v>4060353</v>
@@ -22726,26 +22762,47 @@
         <v>6755</v>
       </c>
       <c r="D164">
-        <v>8539</v>
+        <v>8743</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>4060353</v>
+        <v>4212984</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>152631</v>
       </c>
       <c r="H164">
-        <v>143855</v>
+        <v>141741</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>-2114</v>
+      </c>
+      <c r="P164">
+        <v>4282041</v>
+      </c>
+      <c r="Q164">
+        <v>312727</v>
+      </c>
+      <c r="R164">
+        <v>17009</v>
       </c>
       <c r="S164">
         <v>4611777</v>
       </c>
+      <c r="T164">
+        <v>0.1606</v>
+      </c>
+      <c r="U164">
+        <v>40216</v>
+      </c>
+      <c r="V164">
+        <v>7446</v>
+      </c>
+      <c r="W164">
+        <v>49776</v>
+      </c>
       <c r="X164">
         <v>6879</v>
       </c>
@@ -22774,6 +22831,68 @@
         <v>6828</v>
       </c>
       <c r="BJ16